--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="605">
   <si>
     <t>BRAND</t>
   </si>
@@ -698,7 +698,7 @@
     <t>Feliztrip PD35W Multi-Nation USB Travel Adapter with GaN Technology (2 USB-C &amp; 2 USB Ports)</t>
   </si>
   <si>
-    <t>http://www.feliztrip.com/images_new/TR-606-P35/02.jpg</t>
+    <t>https://i.ibb.co/2btSXzx/02-2.jpg</t>
   </si>
   <si>
     <t>FLZ-TRP216GY</t>
@@ -707,7 +707,7 @@
     <t>Feliztrip Soft &amp; Cozy Memory Foam Travel Pillow</t>
   </si>
   <si>
-    <t>http://www.feliztrip.com/resources.jsmo.xin/templates/upload/11741/201809/1537671797926.jpg</t>
+    <t>https://i.ibb.co/cS2xry2w/1537671797926.jpg</t>
   </si>
   <si>
     <t>GHOSTEK</t>
@@ -839,7 +839,7 @@
     <t>1.5L HEALTHY KETTLE</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S9b646100a4694a2795d022cc38431297C.jpg</t>
+    <t>https://gw.alicdn.com/imgextra/O1CN01VNJFUb28MxP2pFLVN_!!6000000007919-2-yinhe.png_q90.jpg</t>
   </si>
   <si>
     <t>JYO-JK15K50</t>
@@ -848,7 +848,7 @@
     <t>RETRO KETTLE 1.5L</t>
   </si>
   <si>
-    <t>https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg</t>
+    <t>https://gw.alicdn.com/imgextra/O1CN0182Uhic1Z4AVQb7hpT_!!6000000003140-0-yinhe.jpg_q90.jpg</t>
   </si>
   <si>
     <t>JYO-JVC45V91(P)</t>
@@ -1007,36 +1007,54 @@
     <t>Montigo ACE 18oz (530ml) Stainless Steel Water Bottle – Vibrant Green</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404</t>
+  </si>
+  <si>
     <t>MTG-ACE/VPINK18OZ</t>
   </si>
   <si>
     <t>Montigo ACE 18oz (530ml) Stainless Steel Water Bottle – Vibrant Pink</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404</t>
+  </si>
+  <si>
     <t>MTG-ACE/VYELL18OZ</t>
   </si>
   <si>
     <t>Montigo ACE 18oz (530ml) Stainless Steel Water Bottle – Vibrant Yellow</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404</t>
+  </si>
+  <si>
     <t>MTG-ACE2/BLK32OZ</t>
   </si>
   <si>
     <t>Montigo ACE2 32oz (950ml) Stainless Steel Water Bottle – Black</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965</t>
+  </si>
+  <si>
     <t>MTG-ACE2/LGREEN32OZ</t>
   </si>
   <si>
     <t>Montigo ACE2 32oz (950ml) Stainless Steel Water Bottle – Matcha Latte Green</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958</t>
+  </si>
+  <si>
     <t>MTG-KNIGHT2/STRG20OZ</t>
   </si>
   <si>
     <t>Montigo 20oz Knights Tumbler (590ml)</t>
   </si>
   <si>
+    <t>https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080</t>
+  </si>
+  <si>
     <t>OXWHITE</t>
   </si>
   <si>
@@ -1046,36 +1064,57 @@
     <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,BLUE</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg</t>
+  </si>
+  <si>
     <t>OXW-CB1085OXKH</t>
   </si>
   <si>
     <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,KHAKI</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg</t>
+  </si>
+  <si>
     <t>OXW-CB1085OXPN</t>
   </si>
   <si>
     <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,PINK</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg</t>
+  </si>
+  <si>
     <t>OXW-CB987OXKH</t>
   </si>
   <si>
     <t>Oxwhite Towel .Heavy cotton .27in x 54in</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986</t>
+  </si>
+  <si>
     <t>OXW-CB987OXNB</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768</t>
+  </si>
+  <si>
     <t>OXW-CB987OXWH</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989</t>
+  </si>
+  <si>
     <t>OXW-CH987OXKH</t>
   </si>
   <si>
     <t>Oxwhite 2in1 Face and Hand Towel. Heavy Cotton</t>
   </si>
   <si>
+    <t>https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg</t>
+  </si>
+  <si>
     <t>PENSONIC</t>
   </si>
   <si>
@@ -1085,25 +1124,37 @@
     <t>Pensonic 16-Inch Table Fan – 3-Speed Settings, Oscillation Function, Grey</t>
   </si>
   <si>
+    <t>https://www.cshgroup.com.my/image/cache/data/theme/products/catalog/PENSONIC/pf-41a_110324153207-750x750_0.jpg</t>
+  </si>
+  <si>
     <t>PREMIUMGIFT</t>
   </si>
   <si>
     <t>PG-COLGATE.ZZMD</t>
   </si>
   <si>
-    <t>COLGATE ZIG ZAG TOOTHBRUSH 5S</t>
+    <t>Colgate Zig Zag Toothbrush, Soft Bristles, 5-Pack</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13</t>
   </si>
   <si>
     <t>PG-COLGATE_ZZ-CHAR</t>
   </si>
   <si>
-    <t>COLGATE ZIG ZAG CHARCOAL</t>
+    <t>Colgate Zig Zag Charcoal Toothbrush – Soft Bristles</t>
+  </si>
+  <si>
+    <t>https://fmcg.my/wp-content/uploads/2021/02/178.jpg</t>
   </si>
   <si>
     <t>PG-COLGATE175TP_GRF</t>
   </si>
   <si>
-    <t>COLGATE TWINPACK GREAT RE FLAVOUR</t>
+    <t>Colgate Cavity Protection Toothpaste, Great Regular Flavor, Twin Pack – 6 oz (170g) x 2</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/d4J1JHZQ/564515-01.png</t>
   </si>
   <si>
     <t>PG-COVID19.BOOK</t>
@@ -1112,76 +1163,115 @@
     <t>COVID-19 PRECAUTIONS BOOK</t>
   </si>
   <si>
+    <t>https://cdn-icons-png.flaticon.com/512/2232/2232688.png</t>
+  </si>
+  <si>
     <t>PG-DARLIE175MD</t>
   </si>
   <si>
-    <t>Darlie 175g</t>
+    <t>Darlie Double Action Toothpaste – 175g</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png</t>
   </si>
   <si>
     <t>PG-DYNAMO.1.44KGMD</t>
   </si>
   <si>
-    <t>DYNAMO REFILL 1.44KG</t>
+    <t>Dynamo Power Gel Laundry Detergent Refill – 1.44kg</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png</t>
   </si>
   <si>
     <t>PG-FEBREEZE_AB_370</t>
   </si>
   <si>
-    <t>FEBREEZE  370ML ANTI BACTERIA</t>
+    <t>Febreze Antibacterial Fabric Refresher – 370ml</t>
+  </si>
+  <si>
+    <t>https://iili.io/3FH357a.md.png</t>
   </si>
   <si>
     <t>PG-GLADELEMON_T/P_MD</t>
   </si>
   <si>
-    <t>Glade Scent Gel TwinPack Lemon</t>
+    <t>Glade Scented Gel Air Freshener Twin Pack – Lemon – 180g x 2</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74</t>
   </si>
   <si>
     <t>PG-GLADETP_LAV</t>
   </si>
   <si>
-    <t>GLADE SCENT GEL TWINPACK LAVENDAR</t>
+    <t>Glade Scented Gel Air Freshener Twin Pack – Lavender – 180g x 2</t>
+  </si>
+  <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg</t>
   </si>
   <si>
     <t>PG-GLO800ML_LEMON</t>
   </si>
   <si>
-    <t>GLo 800ML Lemon</t>
+    <t>Glo Active Foam Lemon Dishwashing Liquid – 800ml</t>
+  </si>
+  <si>
+    <t>https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg</t>
   </si>
   <si>
     <t>PG-GLO800ML_LIME_MD</t>
   </si>
   <si>
-    <t>GLO LIME 800ML</t>
+    <t>Glo Active Foam Lime Dishwashing Liquid – 800ml</t>
+  </si>
+  <si>
+    <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png</t>
   </si>
   <si>
     <t>PG-HOMESOY.1L</t>
   </si>
   <si>
-    <t>HOMESOY SOYA MILK 1L DRINK</t>
+    <t>HOMESOY Original Soya Milk – 1 Liter</t>
+  </si>
+  <si>
+    <t>https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630</t>
   </si>
   <si>
     <t>PG-MR.MF.C1LMD</t>
   </si>
   <si>
-    <t>Mr.Muscle Floor Cleaner 1L</t>
+    <t>Mr. Muscle Floor Cleaner – 1 Liter</t>
+  </si>
+  <si>
+    <t>https://assets.myboxed.com.my/1680212165434.jpg</t>
   </si>
   <si>
     <t>PG-MRMUSLE_CITRUS</t>
   </si>
   <si>
-    <t>MR MUSCLE TOILET CLEANER CIT</t>
+    <t>Mr Muscle Citrus Toilet Bowl Cleaner 500ml Bottle</t>
+  </si>
+  <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg</t>
   </si>
   <si>
     <t>PG-MRMUSLE_MAR</t>
   </si>
   <si>
-    <t>MR MUSLE MARINE</t>
+    <t>Mr Muscle Marine Toilet Bowl Cleaner 500ml Bottle</t>
+  </si>
+  <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg</t>
   </si>
   <si>
     <t>PG-MRMUSLE_PINE</t>
   </si>
   <si>
-    <t>MR MUSLE PINE</t>
+    <t>Mr Muscle Pine Toilet Bowl Cleaner 500ml Bottle</t>
+  </si>
+  <si>
+    <t>https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691</t>
   </si>
   <si>
     <t>PG-PREMIER.PTMD</t>
@@ -1190,40 +1280,61 @@
     <t>PREMIER POCKET TISSUE</t>
   </si>
   <si>
+    <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg</t>
+  </si>
+  <si>
     <t>PG-PRMBOX5x90_MD</t>
   </si>
   <si>
-    <t>Premier Tissue 90s x 5</t>
+    <t>Premier Tissue Box 5 x 90 Sheets</t>
+  </si>
+  <si>
+    <t>https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png</t>
   </si>
   <si>
     <t>PG-PRMTISSUE4x100s</t>
   </si>
   <si>
-    <t>Premier Tissue Box 4x100s</t>
+    <t>Premier Tissue Box 4 x 100 Sheets</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf</t>
   </si>
   <si>
     <t>PG-RIBENA300MD</t>
   </si>
   <si>
-    <t>Ribena Blackcurrant (300ml)</t>
+    <t>Ribena Blackcurrant Juice Drink 300ml</t>
+  </si>
+  <si>
+    <t>https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg</t>
   </si>
   <si>
     <t>PG-SB5+1MD</t>
   </si>
   <si>
-    <t>Scotch Brite 4+1 kitchen sponge</t>
+    <t>Scotch-Brite Tough Clean Scrub Sponges 5-Pack</t>
+  </si>
+  <si>
+    <t>https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg</t>
   </si>
   <si>
     <t>PG-SCOTT_EXTRA</t>
   </si>
   <si>
-    <t>SCOTT EXTRA BT REGULAR</t>
+    <t>Scott Extra Bath Tissue Regular – 20 Packs of 180 Sheets</t>
+  </si>
+  <si>
+    <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png</t>
   </si>
   <si>
     <t>PG-SOFTLAN1.6L_FLO</t>
   </si>
   <si>
-    <t>SOFTLAN 1.6 FLORAL FANTASY</t>
+    <t>Softlan Anti-Wrinkles Fabric Softener Refill – Floral Fantasy – 1.6L</t>
+  </si>
+  <si>
+    <t>https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480</t>
   </si>
   <si>
     <t>PHILIPS</t>
@@ -1235,16 +1346,16 @@
     <t>Philips 4-Way Extension Socket with 2 USB-A and 2 USB-C Ports, Neon Indicator, 2-Meter Cable, Surge Protection, White</t>
   </si>
   <si>
+    <t>https://iili.io/3FHwaQn.md.jpg</t>
+  </si>
+  <si>
     <t>PLP-BHH822</t>
   </si>
   <si>
     <t>Philips StyleCare Multi-Styler – 80mm Straightener, 25mm Curling Barrel, 32mm Hot Brush, 15+ Styling Accessories</t>
   </si>
   <si>
-    <t>PLP-CHP4742WA/68</t>
-  </si>
-  <si>
-    <t>Stop Effectively 13/1/25, due to wrong base code by ME</t>
+    <t>https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
     <t>PLP-HD3008</t>
@@ -1253,6 +1364,9 @@
     <t>Philips 1.8L Rice Cooker 1000 Series – 3D Heating, 3 Functions (Cook, Steam, Keep Warm), 4-Layer Non-Stick Pot</t>
   </si>
   <si>
+    <t>https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250</t>
+  </si>
+  <si>
     <t>PANASONIC</t>
   </si>
   <si>
@@ -1262,6 +1376,9 @@
     <t>Panasonic Hygienic EzyClean D-Shape Manual Bidet Seat – Ag+ Antibacterial Seat &amp; Nozzles, Soft Closing Lid, Easy Installation</t>
   </si>
   <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
     <t>PANZERGLASS</t>
   </si>
   <si>
@@ -1271,42 +1388,63 @@
     <t>PanzerGlass Camera Protector Apple iPhone 2023 6.1" Pro/6.7" Pro</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61fIa23Va+L.jpg</t>
+  </si>
+  <si>
     <t>PZR-2810</t>
   </si>
   <si>
     <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF</t>
   </si>
   <si>
+    <t>https://www.machines.com.my/cdn/shop/files/2810_02_c680e242-69e8-4b77-8ad6-bcdc05c41ee5.webp?v=1715669530&amp;width=823</t>
+  </si>
+  <si>
     <t>PZR-2812</t>
   </si>
   <si>
     <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF</t>
   </si>
   <si>
+    <t>https://www.machines.com.my/cdn/shop/files/2816_02_8611d9dd-6e90-45d8-b1f9-d42509491a90.webp?v=1715671375&amp;width=823</t>
+  </si>
+  <si>
     <t>PZR-P2810</t>
   </si>
   <si>
     <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF Privacy</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg</t>
+  </si>
+  <si>
     <t>PZR-P2812</t>
   </si>
   <si>
     <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF Privacy</t>
   </si>
   <si>
+    <t>https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg</t>
+  </si>
+  <si>
     <t>PZR-SAFE95587</t>
   </si>
   <si>
     <t>SAFE Apple iPhone 2023 6.1" Pro UWF</t>
   </si>
   <si>
+    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg</t>
+  </si>
+  <si>
     <t>PZR-SAFE95589</t>
   </si>
   <si>
     <t>SAFE Apple iPhone 2023 6.7" Pro UWF</t>
   </si>
   <si>
+    <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg</t>
+  </si>
+  <si>
     <t>RHEEM</t>
   </si>
   <si>
@@ -1316,6 +1454,9 @@
     <t>Rheem Electric Instant Water Heater – Facelifted Design, Built-in Power Surge Protector, 3 Shower Modes</t>
   </si>
   <si>
+    <t>https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
+  </si>
+  <si>
     <t>RIVERSONG</t>
   </si>
   <si>
@@ -1325,18 +1466,27 @@
     <t>Riversong MagNano 05 5000mAh Magnetic Wireless Power Bank – 15W Wireless Output, Slim Design, Strong Magnets</t>
   </si>
   <si>
+    <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png</t>
+  </si>
+  <si>
     <t>RIV-MAGSPEED10PRO</t>
   </si>
   <si>
     <t>Riversong MagSpeed 10 Pro 10,000mAh Magnetic Wireless Power Bank</t>
   </si>
   <si>
+    <t>https://img.myshopline.com/image/store/1658802944258/MARKETPLACE-T2-PB98-Pro.jpeg?w=1080&amp;h=1080</t>
+  </si>
+  <si>
     <t>RIV-POWERKUB-G100</t>
   </si>
   <si>
     <t>Riversong PowerKub G100 100W GaN Charger – 3 USB-C Ports, 1 USB-A Port, Compact Design</t>
   </si>
   <si>
+    <t>https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg</t>
+  </si>
+  <si>
     <t>SAMSUNG</t>
   </si>
   <si>
@@ -1346,6 +1496,9 @@
     <t>Samsung Music Frame Smart Speaker – Customizable Design, Dolby Atmos, Wi-Fi/Bluetooth Connectivity</t>
   </si>
   <si>
+    <t>https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg</t>
+  </si>
+  <si>
     <t>SENHENG</t>
   </si>
   <si>
@@ -1355,18 +1508,27 @@
     <t>SH CORPORATE CULTURE CHINESE</t>
   </si>
   <si>
+    <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
+  </si>
+  <si>
     <t>SH-C.CULTURE/E</t>
   </si>
   <si>
     <t>SH CORPORATE CULTURE ENGLISH</t>
   </si>
   <si>
+    <t>https://malaysia.kinokuniya.com/products/9789833789290/image_isbn</t>
+  </si>
+  <si>
     <t>SH-DIGITAL.CHINESE</t>
   </si>
   <si>
     <t>DIGITAL JOURNEY CHINESE BOOK</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384</t>
+  </si>
+  <si>
     <t>SH-DIGITAL.JOURNEY</t>
   </si>
   <si>
@@ -1385,12 +1547,18 @@
     <t>SENHENG NEW RETAIL BOOK</t>
   </si>
   <si>
+    <t>https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg</t>
+  </si>
+  <si>
     <t>SH-NEWRETAIL.ENG</t>
   </si>
   <si>
     <t>NEW RETAIL BOOK ENGLISH</t>
   </si>
   <si>
+    <t>https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995</t>
+  </si>
+  <si>
     <t>SONY</t>
   </si>
   <si>
@@ -1400,12 +1568,18 @@
     <t>Sony WF-C510 Truly Wireless In-Ear Bluetooth Earbuds</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4</t>
+  </si>
+  <si>
     <t>SNY-WHCH520</t>
   </si>
   <si>
     <t>Sony WH-CH520 Wireless On-Ear Headphones</t>
   </si>
   <si>
+    <t>https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha</t>
+  </si>
+  <si>
     <t>STRYV</t>
   </si>
   <si>
@@ -1415,30 +1589,45 @@
     <t>Stryv MiniStyler (Black) – Compact Hair Styling Tool</t>
   </si>
   <si>
+    <t>https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770</t>
+  </si>
+  <si>
     <t>STR-PROSTYLER</t>
   </si>
   <si>
     <t>Stryv ProStyler – All-in-One Hair Styling Tool</t>
   </si>
   <si>
+    <t>https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987</t>
+  </si>
+  <si>
     <t>STR-SVMISVZ4</t>
   </si>
   <si>
     <t>Stryv MiniShave Portable Electric Shaver</t>
   </si>
   <si>
+    <t>https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189</t>
+  </si>
+  <si>
     <t>STR-SVMSBDO2</t>
   </si>
   <si>
     <t>Stryv MultiShave Trimmer</t>
   </si>
   <si>
+    <t>https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png</t>
+  </si>
+  <si>
     <t>STR-SVPSRBS9</t>
   </si>
   <si>
     <t>Stryv ProShave Electric Shaver</t>
   </si>
   <si>
+    <t>https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793</t>
+  </si>
+  <si>
     <t>TEFAL</t>
   </si>
   <si>
@@ -1451,18 +1640,27 @@
     <t>Stop Effectively 19/12/2024</t>
   </si>
   <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/577/1057781/447x447/06022024_1057781$Imagex1.jpg</t>
+  </si>
+  <si>
     <t>TEF-FV2843</t>
   </si>
   <si>
     <t>Tefal Express Steam 2600W Steam Iron</t>
   </si>
   <si>
+    <t>https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771</t>
+  </si>
+  <si>
     <t>TEF-G14366</t>
   </si>
   <si>
     <t>Tefal Day by Day Induction Deep Frypan 28cm</t>
   </si>
   <si>
+    <t>https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w1MjQ4M3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJnM01DOW9PV1V2TWpZM05UTTNPVGswTWpFNU9ESXwwNmU1NzhlOWViYjAxY2Y4M2RkMjIxYzUzMGVhYzZkNGNjYzMyYTQ0M2RlZTFhODcwYmRkNWUxM2RlMGZkZjMz</t>
+  </si>
+  <si>
     <t>TEF-G14398</t>
   </si>
   <si>
@@ -1472,30 +1670,45 @@
     <t>Add effective 6th Feb 2025</t>
   </si>
   <si>
+    <t>https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU</t>
+  </si>
+  <si>
     <t>TEF-G143S4</t>
   </si>
   <si>
     <t>Tefal Day by Day 4-Piece Cookware Set</t>
   </si>
   <si>
+    <t>https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800</t>
+  </si>
+  <si>
     <t>TEF-IT2440</t>
   </si>
   <si>
     <t>Tefal Pro Style One Garment Steamer</t>
   </si>
   <si>
+    <t>https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121</t>
+  </si>
+  <si>
     <t>TEF-KITCHENWARE5PCS</t>
   </si>
   <si>
     <t>Tefal Kitchenware 5-Piece Set</t>
   </si>
   <si>
+    <t>https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1</t>
+  </si>
+  <si>
     <t>TEF-RK736B</t>
   </si>
   <si>
     <t>Tefal Easy Rice Plus 1.8L Rice Cooker</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
     <t>TESVOR</t>
   </si>
   <si>
@@ -1505,18 +1718,27 @@
     <t>Tesvor A1 Robot Vacuum Cleaner – 2-in-1 Vacuum and Mop, 1000 Pa Suction, Alexa Compatible, Ultra Slim Design</t>
   </si>
   <si>
+    <t>https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg</t>
+  </si>
+  <si>
     <t>TES-S6</t>
   </si>
   <si>
     <t>Tesvor S6 Robot Vacuum Cleaner – 2-in-1 Vacuum and Mop, LIDAR Navigation, 2,700 Pa Suction</t>
   </si>
   <si>
+    <t>https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg</t>
+  </si>
+  <si>
     <t>TES-X500PRO</t>
   </si>
   <si>
     <t>Tesvor X500 Pro Robot Vacuum and Mop – 1,800 Pa Suction, Gyroscope Navigation, 2-in-1 Cleaning</t>
   </si>
   <si>
+    <t>https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg</t>
+  </si>
+  <si>
     <t>THULE</t>
   </si>
   <si>
@@ -1526,6 +1748,9 @@
     <t>Thule Tact Crossbody Bag 5L – Compact Design, Anti-Theft Features, Recycled Materials</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s</t>
+  </si>
+  <si>
     <t>TOSHIBA</t>
   </si>
   <si>
@@ -1535,33 +1760,51 @@
     <t>Toshiba 7.4L Digital Air Fryer with Menu-IQ Program</t>
   </si>
   <si>
+    <t>https://www.senghuat.com.my/image/senghuat/image/data/all_product_images/product-5153/k1kd0P1m1721285312.jpg</t>
+  </si>
+  <si>
     <t>TSB-BL70PR2NMY</t>
   </si>
   <si>
     <t>Toshiba 2.0L Multifunction Blender</t>
   </si>
   <si>
+    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png</t>
+  </si>
+  <si>
     <t>TSB-FSYA10(G)MY</t>
   </si>
   <si>
     <t>Toshiba F-SYA10(G)MY 16-Inch Stand Fan</t>
   </si>
   <si>
+    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/air-treatment/fan/16-inch-stand-fan-f-sya10-g-my/gallery2.png/jcr:content/renditions/cq5dam.compression.png</t>
+  </si>
+  <si>
     <t>TSB-FTSA20(G)MY</t>
   </si>
   <si>
     <t>Toshiba F-TSA20(G)MY 16-Inch Table Fan</t>
   </si>
   <si>
+    <t>https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001</t>
+  </si>
+  <si>
     <t>TSB-RC18DR1NMY</t>
   </si>
   <si>
     <t>Toshiba 1.8L Digital Rice Cooker</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/68b3358665835c79b2e1c06d1c608029</t>
+  </si>
+  <si>
     <t>TSB-RC18DSUMY(H)</t>
   </si>
   <si>
+    <t>https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp</t>
+  </si>
+  <si>
     <t>VOUCHER</t>
   </si>
   <si>
@@ -1574,6 +1817,9 @@
     <t>Stop Effective 16/1/2025</t>
   </si>
   <si>
+    <t>https://my-test-11.slatic.net/p/37f6b90429bbba17b8bf6b2ba48a17d5.jpg</t>
+  </si>
+  <si>
     <t>VOU-SCRC-TEALIVE10</t>
   </si>
   <si>
@@ -1583,6 +1829,9 @@
     <t>Stop 25.11.2024</t>
   </si>
   <si>
+    <t>https://down-my.img.susercontent.com/file/my-11134207-7rasc-m4jy46surul5f3</t>
+  </si>
+  <si>
     <t>VOU-SCRC-ZUSCOF10</t>
   </si>
   <si>
@@ -1590,6 +1839,9 @@
   </si>
   <si>
     <t>Stop 8.11</t>
+  </si>
+  <si>
+    <t>https://media.karousell.com/media/photos/products/2023/11/1/zus_coffee_rm10_wallet_credit_1698821787_48a957ff_progressive.jpg</t>
   </si>
 </sst>
 </file>
@@ -2274,7 +2526,7 @@
     </xf>
     <xf numFmtId="180" fontId="25" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2313,6 +2565,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
@@ -2864,10 +3125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H160" sqref="H160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4675,7 +4936,7 @@
         <v>12900</v>
       </c>
       <c r="G70" s="4"/>
-      <c r="H70" s="12" t="s">
+      <c r="H70" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4700,7 +4961,7 @@
         <v>9900</v>
       </c>
       <c r="G71" s="4"/>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="13" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5052,7 +5313,7 @@
         <v>16900</v>
       </c>
       <c r="G85" s="4"/>
-      <c r="H85" s="9" t="s">
+      <c r="H85" s="14" t="s">
         <v>270</v>
       </c>
     </row>
@@ -5077,7 +5338,7 @@
         <v>18900</v>
       </c>
       <c r="G86" s="4"/>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="15" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5227,7 +5488,7 @@
         <v>9900</v>
       </c>
       <c r="G92" s="4"/>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="16" t="s">
         <v>289</v>
       </c>
     </row>
@@ -5482,17 +5743,19 @@
       <c r="G102" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H102" s="3"/>
+      <c r="H102" s="9" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="103" ht="15.6" spans="1:8">
       <c r="A103" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D103" s="5">
         <v>86</v>
@@ -5506,17 +5769,19 @@
       <c r="G103" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H103" s="3"/>
+      <c r="H103" s="9" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="104" ht="15.6" spans="1:8">
       <c r="A104" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D104" s="5">
         <v>86</v>
@@ -5529,22 +5794,24 @@
         <v>8400</v>
       </c>
       <c r="G104" s="4"/>
-      <c r="H104" s="3"/>
+      <c r="H104" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="105" ht="15.6" spans="1:8">
       <c r="A105" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D105" s="8">
         <v>106</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="17">
         <v>104</v>
       </c>
       <c r="F105" s="6">
@@ -5552,17 +5819,19 @@
         <v>10400</v>
       </c>
       <c r="G105" s="4"/>
-      <c r="H105" s="3"/>
+      <c r="H105" s="9" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="106" ht="15.6" spans="1:8">
       <c r="A106" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D106" s="5">
         <v>106</v>
@@ -5575,17 +5844,19 @@
         <v>10500</v>
       </c>
       <c r="G106" s="4"/>
-      <c r="H106" s="3"/>
+      <c r="H106" s="9" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="107" ht="15.6" spans="1:8">
       <c r="A107" s="1" t="s">
         <v>323</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D107" s="5">
         <v>86</v>
@@ -5597,22 +5868,24 @@
         <v>8400</v>
       </c>
       <c r="G107" s="4"/>
-      <c r="H107" s="3"/>
+      <c r="H107" s="10" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="108" ht="15.6" spans="1:8">
       <c r="A108" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D108" s="8">
         <v>69</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="17">
         <v>69</v>
       </c>
       <c r="F108" s="6">
@@ -5620,22 +5893,24 @@
         <v>6900</v>
       </c>
       <c r="G108" s="4"/>
-      <c r="H108" s="3"/>
+      <c r="H108" s="10" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="109" ht="15.6" spans="1:8">
       <c r="A109" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="D109" s="8">
         <v>69</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="17">
         <v>69</v>
       </c>
       <c r="F109" s="6">
@@ -5643,22 +5918,24 @@
         <v>6900</v>
       </c>
       <c r="G109" s="4"/>
-      <c r="H109" s="3"/>
+      <c r="H109" s="10" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="110" ht="15.6" spans="1:8">
       <c r="A110" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="D110" s="8">
         <v>69</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110" s="17">
         <v>69</v>
       </c>
       <c r="F110" s="6">
@@ -5666,17 +5943,19 @@
         <v>6900</v>
       </c>
       <c r="G110" s="4"/>
-      <c r="H110" s="3"/>
+      <c r="H110" s="10" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="111" ht="15.6" spans="1:8">
       <c r="A111" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D111" s="5">
         <v>89</v>
@@ -5689,17 +5968,19 @@
         <v>8900</v>
       </c>
       <c r="G111" s="4"/>
-      <c r="H111" s="3"/>
+      <c r="H111" s="10" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="112" ht="15.6" spans="1:8">
       <c r="A112" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D112" s="5">
         <v>89</v>
@@ -5712,17 +5993,19 @@
         <v>8900</v>
       </c>
       <c r="G112" s="4"/>
-      <c r="H112" s="3"/>
+      <c r="H112" s="10" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="D113" s="5">
         <v>89</v>
@@ -5735,17 +6018,19 @@
         <v>8900</v>
       </c>
       <c r="G113" s="4"/>
-      <c r="H113" s="3"/>
+      <c r="H113" s="10" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="1" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="D114" s="5">
         <v>39.9</v>
@@ -5758,17 +6043,19 @@
         <v>3990</v>
       </c>
       <c r="G114" s="4"/>
-      <c r="H114" s="3"/>
+      <c r="H114" s="10" t="s">
+        <v>361</v>
+      </c>
     </row>
     <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="1" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="D115" s="5">
         <v>121</v>
@@ -5783,17 +6070,19 @@
       <c r="G115" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="H115" s="3"/>
+      <c r="H115" s="10" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="D116" s="5">
         <v>14.4</v>
@@ -5806,17 +6095,19 @@
         <v>1440</v>
       </c>
       <c r="G116" s="4"/>
-      <c r="H116" s="3"/>
+      <c r="H116" s="10" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D117" s="5">
         <v>15.5</v>
@@ -5829,17 +6120,19 @@
         <v>1550</v>
       </c>
       <c r="G117" s="4"/>
-      <c r="H117" s="3"/>
+      <c r="H117" s="10" t="s">
+        <v>372</v>
+      </c>
     </row>
     <row r="118" ht="15.6" spans="1:8">
       <c r="A118" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="D118" s="5">
         <v>16.9</v>
@@ -5852,17 +6145,19 @@
         <v>1690</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="3"/>
+      <c r="H118" s="10" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="119" ht="15.6" spans="1:8">
       <c r="A119" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="D119" s="5">
         <v>18.9</v>
@@ -5875,17 +6170,19 @@
         <v>1890</v>
       </c>
       <c r="G119" s="4"/>
-      <c r="H119" s="3"/>
+      <c r="H119" s="10" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="120" ht="15.6" spans="1:8">
       <c r="A120" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D120" s="5">
         <v>9.9</v>
@@ -5898,17 +6195,19 @@
         <v>990</v>
       </c>
       <c r="G120" s="4"/>
-      <c r="H120" s="3"/>
+      <c r="H120" s="10" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="121" ht="15.6" spans="1:8">
       <c r="A121" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>363</v>
+        <v>382</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>364</v>
+        <v>383</v>
       </c>
       <c r="D121" s="5">
         <v>18.5</v>
@@ -5921,17 +6220,19 @@
         <v>1850</v>
       </c>
       <c r="G121" s="4"/>
-      <c r="H121" s="3"/>
+      <c r="H121" s="10" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="122" ht="15.6" spans="1:8">
       <c r="A122" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D122" s="5">
         <v>11.9</v>
@@ -5944,17 +6245,19 @@
         <v>1190</v>
       </c>
       <c r="G122" s="4"/>
-      <c r="H122" s="3"/>
+      <c r="H122" s="10" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="123" ht="15.6" spans="1:8">
       <c r="A123" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="D123" s="5">
         <v>18</v>
@@ -5967,17 +6270,19 @@
         <v>1800</v>
       </c>
       <c r="G123" s="4"/>
-      <c r="H123" s="3"/>
+      <c r="H123" s="10" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="124" ht="15.6" spans="1:8">
       <c r="A124" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="D124" s="5">
         <v>18.5</v>
@@ -5990,17 +6295,19 @@
         <v>1850</v>
       </c>
       <c r="G124" s="4"/>
-      <c r="H124" s="3"/>
+      <c r="H124" s="10" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="125" ht="15.6" spans="1:8">
       <c r="A125" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="D125" s="5">
         <v>4.5</v>
@@ -6013,17 +6320,19 @@
         <v>450</v>
       </c>
       <c r="G125" s="4"/>
-      <c r="H125" s="3"/>
+      <c r="H125" s="10" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="126" ht="15.6" spans="1:8">
       <c r="A126" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="D126" s="5">
         <v>5.7</v>
@@ -6036,17 +6345,19 @@
         <v>570</v>
       </c>
       <c r="G126" s="4"/>
-      <c r="H126" s="3"/>
+      <c r="H126" s="10" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="127" ht="15.6" spans="1:8">
       <c r="A127" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="D127" s="5">
         <v>3.5</v>
@@ -6059,17 +6370,19 @@
         <v>350</v>
       </c>
       <c r="G127" s="4"/>
-      <c r="H127" s="3"/>
+      <c r="H127" s="10" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="128" ht="15.6" spans="1:8">
       <c r="A128" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
       <c r="D128" s="5">
         <v>8.6</v>
@@ -6082,17 +6395,19 @@
         <v>860</v>
       </c>
       <c r="G128" s="4"/>
-      <c r="H128" s="3"/>
+      <c r="H128" s="10" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="129" ht="15.6" spans="1:8">
       <c r="A129" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="D129" s="5">
         <v>8</v>
@@ -6105,17 +6420,19 @@
         <v>800</v>
       </c>
       <c r="G129" s="4"/>
-      <c r="H129" s="3"/>
+      <c r="H129" s="10" t="s">
+        <v>408</v>
+      </c>
     </row>
     <row r="130" ht="15.6" spans="1:8">
       <c r="A130" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="D130" s="5">
         <v>8</v>
@@ -6128,17 +6445,19 @@
         <v>800</v>
       </c>
       <c r="G130" s="4"/>
-      <c r="H130" s="3"/>
+      <c r="H130" s="10" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="131" ht="15.6" spans="1:8">
       <c r="A131" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="D131" s="5">
         <v>8</v>
@@ -6151,17 +6470,19 @@
         <v>800</v>
       </c>
       <c r="G131" s="4"/>
-      <c r="H131" s="3"/>
+      <c r="H131" s="10" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="132" ht="15.6" spans="1:8">
       <c r="A132" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>386</v>
+        <v>416</v>
       </c>
       <c r="D132" s="5">
         <v>3.3</v>
@@ -6174,17 +6495,19 @@
         <v>330</v>
       </c>
       <c r="G132" s="4"/>
-      <c r="H132" s="3"/>
+      <c r="H132" s="10" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="133" ht="15.6" spans="1:8">
       <c r="A133" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
       <c r="D133" s="5">
         <v>11.5</v>
@@ -6197,17 +6520,19 @@
         <v>1150</v>
       </c>
       <c r="G133" s="4"/>
-      <c r="H133" s="3"/>
+      <c r="H133" s="10" t="s">
+        <v>420</v>
+      </c>
     </row>
     <row r="134" ht="15.6" spans="1:8">
       <c r="A134" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="D134" s="5">
         <v>8.1</v>
@@ -6220,17 +6545,19 @@
         <v>810</v>
       </c>
       <c r="G134" s="4"/>
-      <c r="H134" s="3"/>
+      <c r="H134" s="10" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="135" ht="15.6" spans="1:8">
       <c r="A135" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>391</v>
+        <v>424</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>392</v>
+        <v>425</v>
       </c>
       <c r="D135" s="5">
         <v>2.6</v>
@@ -6243,17 +6570,19 @@
         <v>260</v>
       </c>
       <c r="G135" s="4"/>
-      <c r="H135" s="3"/>
+      <c r="H135" s="10" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="136" ht="15.6" spans="1:8">
       <c r="A136" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="D136" s="5">
         <v>9.1</v>
@@ -6266,17 +6595,19 @@
         <v>910</v>
       </c>
       <c r="G136" s="4"/>
-      <c r="H136" s="3"/>
+      <c r="H136" s="10" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="137" ht="15.6" spans="1:8">
       <c r="A137" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="D137" s="5">
         <v>16.5</v>
@@ -6289,17 +6620,19 @@
         <v>1650</v>
       </c>
       <c r="G137" s="4"/>
-      <c r="H137" s="3"/>
+      <c r="H137" s="10" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="138" ht="15.6" spans="1:8">
       <c r="A138" s="1" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>397</v>
+        <v>433</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="D138" s="5">
         <v>7.9</v>
@@ -6312,17 +6645,19 @@
         <v>790</v>
       </c>
       <c r="G138" s="4"/>
-      <c r="H138" s="3"/>
+      <c r="H138" s="10" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="139" ht="15.6" spans="1:8">
       <c r="A139" s="1" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="D139" s="5">
         <v>149</v>
@@ -6334,17 +6669,19 @@
         <v>14200</v>
       </c>
       <c r="G139" s="4"/>
-      <c r="H139" s="3"/>
+      <c r="H139" s="10" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="140" ht="15.6" spans="1:8">
       <c r="A140" s="1" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="D140" s="8">
         <v>289</v>
@@ -6353,115 +6690,123 @@
         <v>279</v>
       </c>
       <c r="F140" s="6">
-        <f t="shared" ref="F140:F170" si="5">E140*100</f>
+        <f>E140*100</f>
         <v>27900</v>
       </c>
       <c r="G140" s="4"/>
-      <c r="H140" s="3"/>
+      <c r="H140" s="10" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="141" ht="15.6" spans="1:8">
       <c r="A141" s="1" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="D141" s="5">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="E141" s="5">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="F141" s="6">
-        <f t="shared" si="5"/>
-        <v>14200</v>
-      </c>
-      <c r="G141" s="11" t="s">
-        <v>405</v>
-      </c>
-      <c r="H141" s="3"/>
+        <f t="shared" ref="F141:F169" si="5">E141*100</f>
+        <v>16900</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="10" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="142" ht="15.6" spans="1:8">
       <c r="A142" s="1" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="D142" s="5">
-        <v>199</v>
+        <v>469</v>
       </c>
       <c r="E142" s="5">
-        <v>169</v>
+        <v>449</v>
       </c>
       <c r="F142" s="6">
         <f t="shared" si="5"/>
-        <v>16900</v>
+        <v>44900</v>
       </c>
       <c r="G142" s="4"/>
-      <c r="H142" s="3"/>
+      <c r="H142" s="10" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="143" ht="15.6" spans="1:8">
       <c r="A143" s="1" t="s">
-        <v>408</v>
+        <v>450</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>409</v>
+        <v>451</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="D143" s="5">
-        <v>469</v>
+        <v>452</v>
+      </c>
+      <c r="D143" s="8">
+        <v>79</v>
       </c>
       <c r="E143" s="5">
-        <v>449</v>
+        <v>79</v>
       </c>
       <c r="F143" s="6">
         <f t="shared" si="5"/>
-        <v>44900</v>
+        <v>7900</v>
       </c>
       <c r="G143" s="4"/>
-      <c r="H143" s="3"/>
+      <c r="H143" s="9" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="144" ht="15.6" spans="1:8">
       <c r="A144" s="1" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>412</v>
+        <v>454</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>413</v>
+        <v>455</v>
       </c>
       <c r="D144" s="8">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="E144" s="5">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="F144" s="6">
         <f t="shared" si="5"/>
-        <v>7900</v>
+        <v>15900</v>
       </c>
       <c r="G144" s="4"/>
-      <c r="H144" s="3"/>
+      <c r="H144" s="9" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="145" ht="15.6" spans="1:8">
       <c r="A145" s="1" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="D145" s="8">
         <v>159</v>
@@ -6474,17 +6819,19 @@
         <v>15900</v>
       </c>
       <c r="G145" s="4"/>
-      <c r="H145" s="3"/>
+      <c r="H145" s="9" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="146" ht="15.6" spans="1:8">
       <c r="A146" s="1" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
       <c r="D146" s="8">
         <v>159</v>
@@ -6497,17 +6844,19 @@
         <v>15900</v>
       </c>
       <c r="G146" s="4"/>
-      <c r="H146" s="3"/>
+      <c r="H146" s="7" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="147" ht="15.6" spans="1:8">
       <c r="A147" s="1" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="D147" s="8">
         <v>159</v>
@@ -6520,40 +6869,44 @@
         <v>15900</v>
       </c>
       <c r="G147" s="4"/>
-      <c r="H147" s="3"/>
+      <c r="H147" s="7" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="148" ht="15.6" spans="1:8">
       <c r="A148" s="1" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="D148" s="8">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="E148" s="5">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="F148" s="6">
         <f t="shared" si="5"/>
-        <v>15900</v>
+        <v>7900</v>
       </c>
       <c r="G148" s="4"/>
-      <c r="H148" s="3"/>
+      <c r="H148" s="7" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="149" ht="15.6" spans="1:8">
       <c r="A149" s="1" t="s">
-        <v>411</v>
+        <v>450</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="D149" s="8">
         <v>79</v>
@@ -6566,201 +6919,219 @@
         <v>7900</v>
       </c>
       <c r="G149" s="4"/>
-      <c r="H149" s="3"/>
+      <c r="H149" s="7" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="150" ht="15.6" spans="1:8">
       <c r="A150" s="1" t="s">
-        <v>411</v>
+        <v>472</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D150" s="8">
-        <v>79</v>
+        <v>474</v>
+      </c>
+      <c r="D150" s="5">
+        <v>449</v>
       </c>
       <c r="E150" s="5">
-        <v>79</v>
+        <v>399</v>
       </c>
       <c r="F150" s="6">
         <f t="shared" si="5"/>
-        <v>7900</v>
+        <v>39900</v>
       </c>
       <c r="G150" s="4"/>
-      <c r="H150" s="3"/>
+      <c r="H150" s="10" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="151" ht="15.6" spans="1:8">
       <c r="A151" s="1" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>427</v>
+        <v>477</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>428</v>
+        <v>478</v>
       </c>
       <c r="D151" s="5">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="E151" s="5">
-        <v>399</v>
+        <v>129</v>
       </c>
       <c r="F151" s="6">
         <f t="shared" si="5"/>
-        <v>39900</v>
+        <v>12900</v>
       </c>
       <c r="G151" s="4"/>
-      <c r="H151" s="3"/>
+      <c r="H151" s="10" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="152" ht="15.6" spans="1:8">
       <c r="A152" s="1" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>430</v>
+        <v>480</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="D152" s="5">
-        <v>129</v>
-      </c>
-      <c r="E152" s="5">
-        <v>129</v>
+        <v>481</v>
+      </c>
+      <c r="D152" s="8">
+        <v>259</v>
+      </c>
+      <c r="E152" s="8">
+        <v>259</v>
       </c>
       <c r="F152" s="6">
         <f t="shared" si="5"/>
-        <v>12900</v>
+        <v>25900</v>
       </c>
       <c r="G152" s="4"/>
-      <c r="H152" s="3"/>
+      <c r="H152" s="10" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="153" ht="15.6" spans="1:8">
       <c r="A153" s="1" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D153" s="8">
-        <v>259</v>
-      </c>
-      <c r="E153" s="8">
-        <v>259</v>
+        <v>484</v>
+      </c>
+      <c r="D153" s="5">
+        <v>269</v>
+      </c>
+      <c r="E153" s="5">
+        <v>269</v>
       </c>
       <c r="F153" s="6">
         <f t="shared" si="5"/>
-        <v>25900</v>
+        <v>26900</v>
       </c>
       <c r="G153" s="4"/>
-      <c r="H153" s="3"/>
+      <c r="H153" s="10" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="154" ht="15.6" spans="1:8">
       <c r="A154" s="1" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="D154" s="5">
-        <v>269</v>
+        <v>1999</v>
       </c>
       <c r="E154" s="5">
-        <v>269</v>
+        <v>1499</v>
       </c>
       <c r="F154" s="6">
         <f t="shared" si="5"/>
-        <v>26900</v>
+        <v>149900</v>
       </c>
       <c r="G154" s="4"/>
-      <c r="H154" s="3"/>
+      <c r="H154" s="10" t="s">
+        <v>489</v>
+      </c>
     </row>
     <row r="155" ht="15.6" spans="1:8">
       <c r="A155" s="1" t="s">
-        <v>436</v>
+        <v>490</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>437</v>
+        <v>491</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="D155" s="5">
-        <v>1999</v>
+        <v>30</v>
       </c>
       <c r="E155" s="5">
-        <v>1499</v>
+        <v>30</v>
       </c>
       <c r="F155" s="6">
         <f t="shared" si="5"/>
-        <v>149900</v>
+        <v>3000</v>
       </c>
       <c r="G155" s="4"/>
-      <c r="H155" s="3"/>
+      <c r="H155" s="10" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="156" ht="15.6" spans="1:8">
       <c r="A156" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="D156" s="5">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E156" s="5">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F156" s="6">
         <f t="shared" si="5"/>
-        <v>3000</v>
+        <v>3600</v>
       </c>
       <c r="G156" s="4"/>
-      <c r="H156" s="3"/>
+      <c r="H156" s="10" t="s">
+        <v>496</v>
+      </c>
     </row>
     <row r="157" ht="15.6" spans="1:8">
       <c r="A157" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="D157" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E157" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F157" s="6">
         <f t="shared" si="5"/>
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G157" s="4"/>
-      <c r="H157" s="3"/>
+      <c r="H157" s="10" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="158" ht="15.6" spans="1:8">
       <c r="A158" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="D158" s="5">
         <v>35</v>
@@ -6773,201 +7144,219 @@
         <v>3500</v>
       </c>
       <c r="G158" s="4"/>
-      <c r="H158" s="3"/>
+      <c r="H158" s="10" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="159" ht="15.6" spans="1:8">
       <c r="A159" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="D159" s="5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E159" s="5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F159" s="6">
         <f t="shared" si="5"/>
-        <v>3500</v>
+        <v>1500</v>
       </c>
       <c r="G159" s="4"/>
-      <c r="H159" s="3"/>
+      <c r="H159" s="10" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="160" ht="15.6" spans="1:8">
       <c r="A160" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="D160" s="5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E160" s="5">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F160" s="6">
         <f t="shared" si="5"/>
-        <v>1500</v>
+        <v>4000</v>
       </c>
       <c r="G160" s="4"/>
-      <c r="H160" s="3"/>
+      <c r="H160" s="10" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="161" ht="15.6" spans="1:8">
       <c r="A161" s="1" t="s">
-        <v>439</v>
+        <v>490</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="D161" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E161" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F161" s="6">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="G161" s="4"/>
-      <c r="H161" s="3"/>
+      <c r="H161" s="10" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="162" ht="15.6" spans="1:8">
       <c r="A162" s="1" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>452</v>
+        <v>511</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="D162" s="5">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="E162" s="5">
-        <v>50</v>
+        <v>299</v>
       </c>
       <c r="F162" s="6">
         <f t="shared" si="5"/>
-        <v>5000</v>
+        <v>29900</v>
       </c>
       <c r="G162" s="4"/>
-      <c r="H162" s="3"/>
+      <c r="H162" s="10" t="s">
+        <v>513</v>
+      </c>
     </row>
     <row r="163" ht="15.6" spans="1:8">
       <c r="A163" s="1" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>455</v>
+        <v>514</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>456</v>
+        <v>515</v>
       </c>
       <c r="D163" s="5">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="E163" s="5">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="F163" s="6">
         <f t="shared" si="5"/>
-        <v>29900</v>
+        <v>22900</v>
       </c>
       <c r="G163" s="4"/>
-      <c r="H163" s="3"/>
+      <c r="H163" s="10" t="s">
+        <v>516</v>
+      </c>
     </row>
     <row r="164" ht="15.6" spans="1:8">
       <c r="A164" s="1" t="s">
-        <v>454</v>
+        <v>517</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="D164" s="5">
-        <v>229</v>
+        <v>309</v>
       </c>
       <c r="E164" s="5">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="F164" s="6">
         <f t="shared" si="5"/>
-        <v>22900</v>
+        <v>29900</v>
       </c>
       <c r="G164" s="4"/>
-      <c r="H164" s="3"/>
+      <c r="H164" s="10" t="s">
+        <v>520</v>
+      </c>
     </row>
     <row r="165" ht="15.6" spans="1:8">
       <c r="A165" s="1" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
       <c r="D165" s="5">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="E165" s="5">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="F165" s="6">
         <f t="shared" si="5"/>
-        <v>29900</v>
+        <v>32900</v>
       </c>
       <c r="G165" s="4"/>
-      <c r="H165" s="3"/>
+      <c r="H165" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="166" ht="15.6" spans="1:8">
       <c r="A166" s="1" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="D166" s="5">
-        <v>339</v>
+        <v>159</v>
       </c>
       <c r="E166" s="5">
-        <v>329</v>
+        <v>156</v>
       </c>
       <c r="F166" s="6">
         <f t="shared" si="5"/>
-        <v>32900</v>
+        <v>15600</v>
       </c>
       <c r="G166" s="4"/>
-      <c r="H166" s="3"/>
+      <c r="H166" s="10" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="167" ht="15.6" spans="1:8">
       <c r="A167" s="1" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>464</v>
+        <v>527</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>465</v>
+        <v>528</v>
       </c>
       <c r="D167" s="5">
         <v>159</v>
@@ -6980,328 +7369,356 @@
         <v>15600</v>
       </c>
       <c r="G167" s="4"/>
-      <c r="H167" s="3"/>
+      <c r="H167" s="10" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="168" ht="15.6" spans="1:8">
       <c r="A168" s="1" t="s">
-        <v>459</v>
+        <v>517</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>466</v>
+        <v>530</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
       <c r="D168" s="5">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E168" s="5">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="F168" s="6">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>16600</v>
       </c>
       <c r="G168" s="4"/>
-      <c r="H168" s="3"/>
+      <c r="H168" s="10" t="s">
+        <v>532</v>
+      </c>
     </row>
     <row r="169" ht="15.6" spans="1:8">
       <c r="A169" s="1" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>468</v>
+        <v>534</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>469</v>
+        <v>535</v>
       </c>
       <c r="D169" s="5">
-        <v>169</v>
+        <v>219</v>
       </c>
       <c r="E169" s="5">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="F169" s="6">
         <f t="shared" si="5"/>
-        <v>16600</v>
-      </c>
-      <c r="G169" s="4"/>
-      <c r="H169" s="3"/>
+        <v>12900</v>
+      </c>
+      <c r="G169" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="H169" s="10" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="170" ht="15.6" spans="1:8">
       <c r="A170" s="1" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>471</v>
+        <v>538</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="D170" s="5">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="E170" s="5">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F170" s="6">
-        <f t="shared" si="5"/>
-        <v>12900</v>
-      </c>
-      <c r="G170" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H170" s="3"/>
+        <v>15900</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H170" s="10" t="s">
+        <v>540</v>
+      </c>
     </row>
     <row r="171" ht="15.6" spans="1:8">
       <c r="A171" s="1" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>474</v>
+        <v>541</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>475</v>
+        <v>542</v>
       </c>
       <c r="D171" s="5">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E171" s="5">
-        <v>159</v>
+        <v>119</v>
       </c>
       <c r="F171" s="6">
-        <v>15900</v>
-      </c>
-      <c r="G171" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H171" s="3"/>
+        <f>E171*100</f>
+        <v>11900</v>
+      </c>
+      <c r="G171" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="H171" s="10" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="172" ht="15.6" spans="1:8">
       <c r="A172" s="1" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>476</v>
+        <v>544</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>477</v>
+        <v>545</v>
       </c>
       <c r="D172" s="5">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="E172" s="5">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="F172" s="6">
-        <f>E172*100</f>
-        <v>11900</v>
-      </c>
-      <c r="G172" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="H172" s="3"/>
+        <v>12900</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="H172" s="10" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="173" ht="15.6" spans="1:8">
       <c r="A173" s="1" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="D173" s="5">
-        <v>239</v>
+        <v>299</v>
       </c>
       <c r="E173" s="5">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="F173" s="6">
-        <v>12900</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H173" s="3"/>
+        <f t="shared" ref="F173:F185" si="6">E173*100</f>
+        <v>18900</v>
+      </c>
+      <c r="G173" s="4"/>
+      <c r="H173" s="10" t="s">
+        <v>550</v>
+      </c>
     </row>
     <row r="174" ht="15.6" spans="1:8">
       <c r="A174" s="1" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>481</v>
+        <v>551</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>482</v>
+        <v>552</v>
       </c>
       <c r="D174" s="5">
         <v>299</v>
       </c>
       <c r="E174" s="5">
-        <v>189</v>
+        <v>259</v>
       </c>
       <c r="F174" s="6">
-        <f t="shared" ref="F174:F186" si="6">E174*100</f>
-        <v>18900</v>
-      </c>
-      <c r="G174" s="4"/>
-      <c r="H174" s="3"/>
+        <v>25900</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="H174" s="10" t="s">
+        <v>553</v>
+      </c>
     </row>
     <row r="175" ht="15.6" spans="1:8">
       <c r="A175" s="1" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="D175" s="5">
-        <v>299</v>
+        <v>159</v>
       </c>
       <c r="E175" s="5">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="F175" s="6">
-        <v>25900</v>
+        <v>9900</v>
       </c>
       <c r="G175" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H175" s="3"/>
+        <v>546</v>
+      </c>
+      <c r="H175" s="10" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="176" ht="15.6" spans="1:8">
       <c r="A176" s="1" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>485</v>
+        <v>557</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>486</v>
+        <v>558</v>
       </c>
       <c r="D176" s="5">
-        <v>159</v>
+        <v>449</v>
       </c>
       <c r="E176" s="5">
-        <v>99</v>
+        <v>299</v>
       </c>
       <c r="F176" s="6">
-        <v>9900</v>
+        <v>29900</v>
       </c>
       <c r="G176" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H176" s="3"/>
+        <v>546</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="177" ht="15.6" spans="1:8">
       <c r="A177" s="1" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>487</v>
+        <v>561</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="D177" s="5">
-        <v>449</v>
+        <v>1299</v>
       </c>
       <c r="E177" s="5">
-        <v>299</v>
+        <v>879</v>
       </c>
       <c r="F177" s="6">
-        <v>29900</v>
-      </c>
-      <c r="G177" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="H177" s="3"/>
+        <f t="shared" si="6"/>
+        <v>87900</v>
+      </c>
+      <c r="G177" s="4"/>
+      <c r="H177" s="10" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="178" ht="15.6" spans="1:8">
       <c r="A178" s="1" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>491</v>
+        <v>565</v>
       </c>
       <c r="D178" s="5">
-        <v>1299</v>
+        <v>1899</v>
       </c>
       <c r="E178" s="5">
-        <v>879</v>
+        <v>1399</v>
       </c>
       <c r="F178" s="6">
         <f t="shared" si="6"/>
-        <v>87900</v>
+        <v>139900</v>
       </c>
       <c r="G178" s="4"/>
-      <c r="H178" s="3"/>
+      <c r="H178" s="10" t="s">
+        <v>566</v>
+      </c>
     </row>
     <row r="179" ht="15.6" spans="1:8">
       <c r="A179" s="1" t="s">
-        <v>489</v>
+        <v>560</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>492</v>
+        <v>567</v>
       </c>
       <c r="C179" s="4" t="s">
-        <v>493</v>
+        <v>568</v>
       </c>
       <c r="D179" s="5">
-        <v>1899</v>
+        <v>1499</v>
       </c>
       <c r="E179" s="5">
-        <v>1399</v>
+        <v>1049</v>
       </c>
       <c r="F179" s="6">
         <f t="shared" si="6"/>
-        <v>139900</v>
+        <v>104900</v>
       </c>
       <c r="G179" s="4"/>
-      <c r="H179" s="3"/>
+      <c r="H179" s="10" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="180" ht="15.6" spans="1:8">
       <c r="A180" s="1" t="s">
-        <v>489</v>
+        <v>570</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>494</v>
+        <v>571</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>495</v>
+        <v>572</v>
       </c>
       <c r="D180" s="5">
-        <v>1499</v>
+        <v>499</v>
       </c>
       <c r="E180" s="5">
-        <v>1049</v>
+        <v>499</v>
       </c>
       <c r="F180" s="6">
         <f t="shared" si="6"/>
-        <v>104900</v>
+        <v>49900</v>
       </c>
       <c r="G180" s="4"/>
-      <c r="H180" s="3"/>
+      <c r="H180" s="10" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="181" ht="15.6" spans="1:8">
       <c r="A181" s="1" t="s">
-        <v>496</v>
+        <v>574</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>497</v>
+        <v>575</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>498</v>
+        <v>576</v>
       </c>
       <c r="D181" s="5">
-        <v>499</v>
+        <v>699</v>
       </c>
       <c r="E181" s="5">
         <v>499</v>
@@ -7310,186 +7727,204 @@
         <f t="shared" si="6"/>
         <v>49900</v>
       </c>
-      <c r="G181" s="4"/>
-      <c r="H181" s="3"/>
+      <c r="G181" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="182" ht="15.6" spans="1:8">
       <c r="A182" s="1" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>500</v>
+        <v>578</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>501</v>
+        <v>579</v>
       </c>
       <c r="D182" s="5">
-        <v>699</v>
+        <v>299</v>
       </c>
       <c r="E182" s="5">
-        <v>499</v>
+        <v>269</v>
       </c>
       <c r="F182" s="6">
         <f t="shared" si="6"/>
-        <v>49900</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H182" s="3"/>
+        <v>26900</v>
+      </c>
+      <c r="G182" s="4"/>
+      <c r="H182" s="10" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="183" ht="15.6" spans="1:8">
       <c r="A183" s="1" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>502</v>
+        <v>581</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>503</v>
+        <v>582</v>
       </c>
       <c r="D183" s="5">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="E183" s="5">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="F183" s="6">
         <f t="shared" si="6"/>
-        <v>26900</v>
+        <v>20900</v>
       </c>
       <c r="G183" s="4"/>
-      <c r="H183" s="3"/>
+      <c r="H183" s="10" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="184" ht="15.6" spans="1:8">
       <c r="A184" s="1" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="D184" s="5">
-        <v>246</v>
+        <v>179</v>
       </c>
       <c r="E184" s="5">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="F184" s="6">
         <f t="shared" si="6"/>
-        <v>20900</v>
+        <v>13900</v>
       </c>
       <c r="G184" s="4"/>
-      <c r="H184" s="3"/>
+      <c r="H184" s="10" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="185" ht="15.6" spans="1:8">
       <c r="A185" s="1" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>506</v>
+        <v>587</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>507</v>
+        <v>588</v>
       </c>
       <c r="D185" s="5">
-        <v>179</v>
+        <v>439</v>
       </c>
       <c r="E185" s="5">
-        <v>139</v>
+        <v>379</v>
       </c>
       <c r="F185" s="6">
         <f t="shared" si="6"/>
-        <v>13900</v>
-      </c>
-      <c r="G185" s="4"/>
-      <c r="H185" s="3"/>
+        <v>37900</v>
+      </c>
+      <c r="G185" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H185" s="10" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="186" ht="15.6" spans="1:8">
       <c r="A186" s="1" t="s">
-        <v>499</v>
+        <v>574</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>508</v>
+        <v>590</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>509</v>
+        <v>588</v>
       </c>
       <c r="D186" s="5">
-        <v>439</v>
+        <v>599</v>
       </c>
       <c r="E186" s="5">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="F186" s="6">
-        <f t="shared" si="6"/>
-        <v>37900</v>
+        <v>41900</v>
       </c>
       <c r="G186" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="H186" s="3"/>
+        <v>293</v>
+      </c>
+      <c r="H186" s="10" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="187" ht="15.6" spans="1:8">
       <c r="A187" s="1" t="s">
-        <v>499</v>
+        <v>592</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>510</v>
+        <v>593</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>509</v>
+        <v>594</v>
       </c>
       <c r="D187" s="5">
-        <v>599</v>
+        <v>15.5</v>
       </c>
       <c r="E187" s="5">
-        <v>419</v>
+        <v>15.5</v>
       </c>
       <c r="F187" s="6">
-        <v>41900</v>
-      </c>
-      <c r="G187" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="H187" s="3"/>
+        <f t="shared" ref="F187:F189" si="7">E187*100</f>
+        <v>1550</v>
+      </c>
+      <c r="G187" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="H187" s="10" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="188" ht="15.6" spans="1:8">
       <c r="A188" s="1" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>512</v>
+        <v>597</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>513</v>
+        <v>598</v>
       </c>
       <c r="D188" s="5">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="E188" s="5">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="F188" s="6">
-        <f t="shared" ref="F188:F190" si="7">E188*100</f>
-        <v>1550</v>
+        <f t="shared" si="7"/>
+        <v>1000</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>514</v>
-      </c>
-      <c r="H188" s="3"/>
+        <v>599</v>
+      </c>
+      <c r="H188" s="10" t="s">
+        <v>600</v>
+      </c>
     </row>
     <row r="189" ht="15.6" spans="1:8">
       <c r="A189" s="1" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>515</v>
+        <v>601</v>
       </c>
       <c r="C189" s="4" t="s">
-        <v>516</v>
+        <v>602</v>
       </c>
       <c r="D189" s="5">
         <v>10</v>
@@ -7502,34 +7937,11 @@
         <v>1000</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="H189" s="3"/>
-    </row>
-    <row r="190" ht="15.6" spans="1:8">
-      <c r="A190" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="D190" s="5">
-        <v>10</v>
-      </c>
-      <c r="E190" s="5">
-        <v>10</v>
-      </c>
-      <c r="F190" s="6">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="H190" s="3"/>
+        <v>603</v>
+      </c>
+      <c r="H189" s="10" t="s">
+        <v>604</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B102">
@@ -7538,65 +7950,146 @@
   <hyperlinks>
     <hyperlink ref="H66" r:id="rId1" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
     <hyperlink ref="H69" r:id="rId2" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
-    <hyperlink ref="H71" r:id="rId3" display="http://www.feliztrip.com/resources.jsmo.xin/templates/upload/11741/201809/1537671797926.jpg"/>
-    <hyperlink ref="H70" r:id="rId4" display="http://www.feliztrip.com/images_new/TR-606-P35/02.jpg"/>
-    <hyperlink ref="H2" r:id="rId5" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg" tooltip="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
-    <hyperlink ref="H7" r:id="rId6" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H8" r:id="rId7" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H9" r:id="rId8" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H10" r:id="rId9" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
-    <hyperlink ref="H11" r:id="rId10" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H12" r:id="rId11" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H13" r:id="rId12" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H14" r:id="rId13" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H15" r:id="rId14" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H16" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H17" r:id="rId16" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H18" r:id="rId17" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H19" r:id="rId18" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw038d2faa/images/hi-res/0/496c1928eb3346fa_WIZ022ttBK_BoostCharger_3in1Pad_Top_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H20" r:id="rId19" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwee973ee0/images/hi-res/3/499aec1e3384680a_WIZ022ttWH_BoostCharger_3in1Pad_Top_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="H21" r:id="rId20" display="https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png"/>
-    <hyperlink ref="H22" r:id="rId21" display="https://my.cornellappliances.com/wp-content/uploads/2018/03/CSM-E51.jpg"/>
-    <hyperlink ref="H23" r:id="rId22" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
-    <hyperlink ref="H24" r:id="rId23" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
-    <hyperlink ref="H25" r:id="rId24" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
-    <hyperlink ref="H26" r:id="rId25" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
-    <hyperlink ref="H27" r:id="rId26" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
-    <hyperlink ref="H34" r:id="rId27" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58"/>
-    <hyperlink ref="H35" r:id="rId28" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17"/>
-    <hyperlink ref="H36" r:id="rId29" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
-    <hyperlink ref="H37" r:id="rId30" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="H38" r:id="rId31" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
-    <hyperlink ref="H39" r:id="rId32" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
-    <hyperlink ref="H40" r:id="rId33" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="H29" r:id="rId34" display="https://www.gokaizen.com/wp-content/uploads/2024/01/sp-gokaizen-anti-glare-725x1024.jpg"/>
-    <hyperlink ref="H30" r:id="rId35" display="https://www.gokaizen.com/wp-content/uploads/2024/01/sp-gokaizen-clear-plus.jpg"/>
-    <hyperlink ref="H31" r:id="rId36" display="https://www.gokaizen.com/wp-content/uploads/2024/01/sp-gokaizen-ultra-shield.jpg"/>
-    <hyperlink ref="H64" r:id="rId37" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
-    <hyperlink ref="H65" r:id="rId38" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
-    <hyperlink ref="H67" r:id="rId39" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
-    <hyperlink ref="H68" r:id="rId40" display="https://storage.bitpixel.cloud/faber/gallery/Z79lP0aDnFme5Ww98LH1XvVSqdqlfwePZNoObzQd.jpg"/>
-    <hyperlink ref="H76" r:id="rId41" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
-    <hyperlink ref="H77" r:id="rId42" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
-    <hyperlink ref="H79" r:id="rId43" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
-    <hyperlink ref="H78" r:id="rId44" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
-    <hyperlink ref="H80" r:id="rId45" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="H81" r:id="rId46" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
-    <hyperlink ref="H82" r:id="rId47" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
-    <hyperlink ref="H83" r:id="rId48" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
-    <hyperlink ref="H84" r:id="rId49" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
-    <hyperlink ref="H91" r:id="rId50" display="https://i.imghippo.com/files/jRLt5792sH.webp" tooltip="https://i.imghippo.com/files/jRLt5792sH.webp"/>
-    <hyperlink ref="H92" r:id="rId51" display="https://i.imghippo.com/files/Kpdo6122ks.webp" tooltip="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
-    <hyperlink ref="H86" r:id="rId52" display="https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg"/>
-    <hyperlink ref="H93" r:id="rId53" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
-    <hyperlink ref="H94" r:id="rId54" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
-    <hyperlink ref="H95" r:id="rId55" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
-    <hyperlink ref="H96" r:id="rId56" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
-    <hyperlink ref="H97" r:id="rId57" display="https://dynamic.zacdn.com/-0bwHTnspURycdZqe5Zapq3-KgM=/filters:quality(70):format(webp)/https://static-my.zacdn.com/p/laifen-1765-8123483-1.jpg"/>
-    <hyperlink ref="H98" r:id="rId58" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
-    <hyperlink ref="H99" r:id="rId59" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
-    <hyperlink ref="H100" r:id="rId60" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
-    <hyperlink ref="H101" r:id="rId61" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="H2" r:id="rId3" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg" tooltip="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
+    <hyperlink ref="H7" r:id="rId4" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H8" r:id="rId5" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H9" r:id="rId6" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H10" r:id="rId7" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
+    <hyperlink ref="H11" r:id="rId8" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H12" r:id="rId9" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H13" r:id="rId10" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H14" r:id="rId11" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H15" r:id="rId12" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H16" r:id="rId13" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H17" r:id="rId14" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H18" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H19" r:id="rId16" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw038d2faa/images/hi-res/0/496c1928eb3346fa_WIZ022ttBK_BoostCharger_3in1Pad_Top_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H20" r:id="rId17" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwee973ee0/images/hi-res/3/499aec1e3384680a_WIZ022ttWH_BoostCharger_3in1Pad_Top_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="H21" r:id="rId18" display="https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png"/>
+    <hyperlink ref="H22" r:id="rId19" display="https://my.cornellappliances.com/wp-content/uploads/2018/03/CSM-E51.jpg"/>
+    <hyperlink ref="H23" r:id="rId20" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
+    <hyperlink ref="H24" r:id="rId21" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
+    <hyperlink ref="H25" r:id="rId22" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
+    <hyperlink ref="H26" r:id="rId23" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
+    <hyperlink ref="H27" r:id="rId24" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
+    <hyperlink ref="H34" r:id="rId25" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58"/>
+    <hyperlink ref="H35" r:id="rId26" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17"/>
+    <hyperlink ref="H36" r:id="rId27" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
+    <hyperlink ref="H37" r:id="rId28" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="H38" r:id="rId29" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
+    <hyperlink ref="H39" r:id="rId30" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
+    <hyperlink ref="H40" r:id="rId31" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="H29" r:id="rId32" display="https://www.gokaizen.com/wp-content/uploads/2024/01/sp-gokaizen-anti-glare-725x1024.jpg"/>
+    <hyperlink ref="H30" r:id="rId33" display="https://www.gokaizen.com/wp-content/uploads/2024/01/sp-gokaizen-clear-plus.jpg"/>
+    <hyperlink ref="H31" r:id="rId34" display="https://www.gokaizen.com/wp-content/uploads/2024/01/sp-gokaizen-ultra-shield.jpg"/>
+    <hyperlink ref="H64" r:id="rId35" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
+    <hyperlink ref="H65" r:id="rId36" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
+    <hyperlink ref="H67" r:id="rId37" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
+    <hyperlink ref="H68" r:id="rId38" display="https://storage.bitpixel.cloud/faber/gallery/Z79lP0aDnFme5Ww98LH1XvVSqdqlfwePZNoObzQd.jpg"/>
+    <hyperlink ref="H76" r:id="rId39" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
+    <hyperlink ref="H77" r:id="rId40" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
+    <hyperlink ref="H79" r:id="rId41" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
+    <hyperlink ref="H78" r:id="rId42" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
+    <hyperlink ref="H80" r:id="rId43" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="H81" r:id="rId44" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
+    <hyperlink ref="H82" r:id="rId45" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
+    <hyperlink ref="H83" r:id="rId46" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
+    <hyperlink ref="H84" r:id="rId47" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
+    <hyperlink ref="H91" r:id="rId48" display="https://i.imghippo.com/files/jRLt5792sH.webp" tooltip="https://i.imghippo.com/files/jRLt5792sH.webp"/>
+    <hyperlink ref="H92" r:id="rId49" display="https://i.imghippo.com/files/Kpdo6122ks.webp" tooltip="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
+    <hyperlink ref="H93" r:id="rId50" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
+    <hyperlink ref="H94" r:id="rId51" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
+    <hyperlink ref="H95" r:id="rId52" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
+    <hyperlink ref="H96" r:id="rId53" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
+    <hyperlink ref="H97" r:id="rId54" display="https://dynamic.zacdn.com/-0bwHTnspURycdZqe5Zapq3-KgM=/filters:quality(70):format(webp)/https://static-my.zacdn.com/p/laifen-1765-8123483-1.jpg"/>
+    <hyperlink ref="H98" r:id="rId55" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
+    <hyperlink ref="H99" r:id="rId56" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
+    <hyperlink ref="H100" r:id="rId57" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
+    <hyperlink ref="H101" r:id="rId58" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="H71" r:id="rId59" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
+    <hyperlink ref="H70" r:id="rId60" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
+    <hyperlink ref="H85" r:id="rId61" display="https://gw.alicdn.com/imgextra/O1CN01VNJFUb28MxP2pFLVN_!!6000000007919-2-yinhe.png_q90.jpg"/>
+    <hyperlink ref="H86" r:id="rId62" display="https://gw.alicdn.com/imgextra/O1CN0182Uhic1Z4AVQb7hpT_!!6000000003140-0-yinhe.jpg_q90.jpg"/>
+    <hyperlink ref="H107" r:id="rId63" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
+    <hyperlink ref="H108" r:id="rId64" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
+    <hyperlink ref="H109" r:id="rId65" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
+    <hyperlink ref="H110" r:id="rId66" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
+    <hyperlink ref="H114" r:id="rId67" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
+    <hyperlink ref="H112" r:id="rId68" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
+    <hyperlink ref="H113" r:id="rId69" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
+    <hyperlink ref="H111" r:id="rId70" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
+    <hyperlink ref="H115" r:id="rId71" display="https://www.cshgroup.com.my/image/cache/data/theme/products/catalog/PENSONIC/pf-41a_110324153207-750x750_0.jpg"/>
+    <hyperlink ref="H116" r:id="rId72" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
+    <hyperlink ref="H117" r:id="rId73" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
+    <hyperlink ref="H118" r:id="rId74" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
+    <hyperlink ref="H120" r:id="rId75" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
+    <hyperlink ref="H121" r:id="rId76" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
+    <hyperlink ref="H122" r:id="rId77" display="https://iili.io/3FH357a.md.png"/>
+    <hyperlink ref="H123" r:id="rId78" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
+    <hyperlink ref="H124" r:id="rId79" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
+    <hyperlink ref="H125" r:id="rId80" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
+    <hyperlink ref="H126" r:id="rId81" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
+    <hyperlink ref="H127" r:id="rId82" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
+    <hyperlink ref="H128" r:id="rId83" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
+    <hyperlink ref="H129" r:id="rId84" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
+    <hyperlink ref="H130" r:id="rId85" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
+    <hyperlink ref="H131" r:id="rId86" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
+    <hyperlink ref="H132" r:id="rId87" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
+    <hyperlink ref="H133" r:id="rId88" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
+    <hyperlink ref="H134" r:id="rId89" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
+    <hyperlink ref="H135" r:id="rId90" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
+    <hyperlink ref="H136" r:id="rId91" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
+    <hyperlink ref="H137" r:id="rId92" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
+    <hyperlink ref="H138" r:id="rId93" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
+    <hyperlink ref="H139" r:id="rId94" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="H140" r:id="rId95" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="H141" r:id="rId96" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="H142" r:id="rId97" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="H146" r:id="rId98" display="https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg"/>
+    <hyperlink ref="H147" r:id="rId99" display="https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg"/>
+    <hyperlink ref="H148" r:id="rId100" display="https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg"/>
+    <hyperlink ref="H149" r:id="rId101" display="https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg"/>
+    <hyperlink ref="H150" r:id="rId102" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="H151" r:id="rId103" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="H152" r:id="rId104" display="https://img.myshopline.com/image/store/1658802944258/MARKETPLACE-T2-PB98-Pro.jpeg?w=1080&amp;h=1080"/>
+    <hyperlink ref="H153" r:id="rId105" display="https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg"/>
+    <hyperlink ref="H154" r:id="rId106" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="H155" r:id="rId107" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
+    <hyperlink ref="H156" r:id="rId108" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
+    <hyperlink ref="H157" r:id="rId109" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="H158" r:id="rId109" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="H161" r:id="rId110" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
+    <hyperlink ref="H160" r:id="rId111" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
+    <hyperlink ref="H162" r:id="rId112" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="H163" r:id="rId113" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="H164" r:id="rId114" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
+    <hyperlink ref="H165" r:id="rId115" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="H166" r:id="rId116" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
+    <hyperlink ref="H167" r:id="rId117" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="H168" r:id="rId118" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="H169" r:id="rId119" display="https://cdn.homepro.com.my/ART_IMAGE/10/577/1057781/447x447/06022024_1057781$Imagex1.jpg"/>
+    <hyperlink ref="H170" r:id="rId120" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="H171" r:id="rId121" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w1MjQ4M3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJnM01DOW9PV1V2TWpZM05UTTNPVGswTWpFNU9ESXwwNmU1NzhlOWViYjAxY2Y4M2RkMjIxYzUzMGVhYzZkNGNjYzMyYTQ0M2RlZTFhODcwYmRkNWUxM2RlMGZkZjMz"/>
+    <hyperlink ref="H172" r:id="rId122" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
+    <hyperlink ref="H173" r:id="rId123" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="H174" r:id="rId124" display="https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121"/>
+    <hyperlink ref="H175" r:id="rId125" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="H176" r:id="rId126" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="H177" r:id="rId127" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="H178" r:id="rId128" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="H179" r:id="rId129" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="H180" r:id="rId130" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="H181" r:id="rId131" display="https://www.senghuat.com.my/image/senghuat/image/data/all_product_images/product-5153/k1kd0P1m1721285312.jpg"/>
+    <hyperlink ref="H182" r:id="rId132" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
+    <hyperlink ref="H183" r:id="rId133" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/air-treatment/fan/16-inch-stand-fan-f-sya10-g-my/gallery2.png/jcr:content/renditions/cq5dam.compression.png"/>
+    <hyperlink ref="H184" r:id="rId134" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="H185" r:id="rId135" display="https://down-my.img.susercontent.com/file/68b3358665835c79b2e1c06d1c608029"/>
+    <hyperlink ref="H186" r:id="rId136" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="H187" r:id="rId137" display="https://my-test-11.slatic.net/p/37f6b90429bbba17b8bf6b2ba48a17d5.jpg"/>
+    <hyperlink ref="H188" r:id="rId138" display="https://down-my.img.susercontent.com/file/my-11134207-7rasc-m4jy46surul5f3"/>
+    <hyperlink ref="H189" r:id="rId139" display="https://media.karousell.com/media/photos/products/2023/11/1/zus_coffee_rm10_wallet_credit_1698821787_48a957ff_progressive.jpg"/>
+    <hyperlink ref="H119" r:id="rId140" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="H159" r:id="rId140" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="580">
   <si>
     <t>BRAND</t>
   </si>
@@ -59,7 +59,7 @@
     <t>ACP-AF374-20K</t>
   </si>
   <si>
-    <t>16" STAND FAN</t>
+    <t>Acerpure Cozy SF1 DC Stand Fan – 16-Inch, 9 Speeds, Remote Control</t>
   </si>
   <si>
     <t>https://i.postimg.cc/pT41hXLR/acerpure.jpg</t>
@@ -98,7 +98,7 @@
     <t>AST-PRO8340</t>
   </si>
   <si>
-    <t>Astonish Body &amp; Soul Shower Gel Miniature Pack CLN-PRO8340, 40ml x 6 bottles</t>
+    <t>Astonish Body &amp; Soul Mini Shower Gel Pack, 40ml x6</t>
   </si>
   <si>
     <t>Clear stock on hand</t>
@@ -113,7 +113,7 @@
     <t>BKN-BPZ003BT1MBK-B6</t>
   </si>
   <si>
-    <t>Belkin BoostCharge Hybrid Wall Charger 25W + Power Bank 5K + Travel Adapter Kit, 5000mAh</t>
+    <t>Belkin BoostCharge 25W Charger &amp; 5K Power Bank Kit</t>
   </si>
   <si>
     <t>https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png</t>
@@ -122,7 +122,7 @@
     <t>BKN-BPZ003MYBK</t>
   </si>
   <si>
-    <t>Belkin BoostCharge Hybrid Wall Charger 25W + Power Bank 5K, 5000mAh</t>
+    <t>Belkin BoostCharge 25W Hybrid Charger &amp; 5K Power Bank</t>
   </si>
   <si>
     <t>https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png</t>
@@ -203,7 +203,7 @@
     <t>BKN-WIZ021QCBK</t>
   </si>
   <si>
-    <t>Belkin BoostCharge Pro 2-in-1 Magnetic Wireless Charging Pad with Qi2 15W, Black</t>
+    <t>Belkin BoostCharge Pro 2-in-1 Mag Wireless Charger Qi2 15W - Black</t>
   </si>
   <si>
     <t>https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png</t>
@@ -212,7 +212,7 @@
     <t>BKN-WIZ021QCWH</t>
   </si>
   <si>
-    <t>Belkin BoostCharge Pro 2-in-1 Magnetic Wireless Charging Pad with Qi2 15W, White</t>
+    <t>Belkin BoostCharge Pro 2-in-1 Mag Wireless Charger Qi2 15W - White</t>
   </si>
   <si>
     <t>https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png</t>
@@ -404,7 +404,7 @@
     <t>DLT-1013(P)</t>
   </si>
   <si>
-    <t>Delighto Macaron Series Die Cast Aluminium 30cm Grill Pan DLT-1013, Pink</t>
+    <t>Delighto Macaron Series Die Cast Aluminium 30cm Grill Pan, Pink</t>
   </si>
   <si>
     <t>https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg</t>
@@ -413,7 +413,7 @@
     <t>DLT-1013(Y)</t>
   </si>
   <si>
-    <t>Delighto Macaron Series Die Cast Aluminium 30cm Grill Pan DLT-1013, Yellow</t>
+    <t>Delighto Macaron Series Die Cast Aluminium 30cm Grill Pan, Yellow</t>
   </si>
   <si>
     <t>DLT-2001(OR)</t>
@@ -533,7 +533,7 @@
     <t>DLT-3005</t>
   </si>
   <si>
-    <t>Delighto Rossy Series Stainless Steel Non-Stick Black Coating Frying Pan (20cm | 1.5L)</t>
+    <t>Delighto Rossy 20cm Non-Stick Stainless Steel Frying Pan (1.5L)</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378</t>
@@ -542,7 +542,7 @@
     <t>DLT-3006</t>
   </si>
   <si>
-    <t>Delighto Rossy Series Stainless Steel Non-Stick Black Coating Frying Pan (28cm | 3.5L)</t>
+    <t>Delighto Rossy 28cm Non-Stick Stainless Steel Frying Pan (3.5L)</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40</t>
@@ -551,7 +551,7 @@
     <t>DLT-3011</t>
   </si>
   <si>
-    <t>Delighto Glossy Series Stainless Steel Non-Stick Black Coating Frying Pan (20cm | 1.5L)</t>
+    <t>Delighto Glossy 20cm Non-Stick Stainless Steel Frying Pan (1.5L)</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad</t>
@@ -560,7 +560,7 @@
     <t>DLT-3012</t>
   </si>
   <si>
-    <t>Delighto Glossy Series Stainless Steel Non-Stick Black Coating Frying Pan (28cm | 3.5L)</t>
+    <t>Delighto Glossy 28cm Non-Stick Stainless Steel Frying Pan (3.5L)</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea</t>
@@ -683,7 +683,7 @@
     <t>FLZ-TR606P35</t>
   </si>
   <si>
-    <t>Feliztrip PD35W Multi-Nation USB Travel Adapter with GaN Technology (2 USB-C &amp; 2 USB Ports)</t>
+    <t>Feliztrip PD35W GaN Multi-Nation USB Travel Adapter (2 USB-C &amp; 2 USB)</t>
   </si>
   <si>
     <t>https://i.ibb.co/2btSXzx/02-2.jpg</t>
@@ -704,7 +704,7 @@
     <t>GHO-CAS3478</t>
   </si>
   <si>
-    <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for Apple iPhone 2023 6.1 Pro- Clear</t>
+    <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for iPhone 15 Pro (6.1”)</t>
   </si>
   <si>
     <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-CLEAR_cddfaffb-877a-4c97-a65e-2b4a96ff89b6_823x823.jpg?v=1694903045</t>
@@ -713,7 +713,7 @@
     <t>GHO-CAS3480</t>
   </si>
   <si>
-    <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for Apple iPhone 2023 6.1 Pro- Smoke</t>
+    <t>Ghostek MagSafe Covert7 Ultra-Thin Smoke Case for iPhone 15 Pro (6.1”)</t>
   </si>
   <si>
     <t>https://ghostek.com/cdn/shop/files/COVERT6-IPHONE-15-PRO-MAX-02-SMOKE_823x823.jpg?v=1694903045</t>
@@ -722,13 +722,13 @@
     <t>GHO-CAS3487</t>
   </si>
   <si>
-    <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for Apple iPhone 2023 6.7 Pro- Clear</t>
+    <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for iPhone 15 Pro Max (6.7”)</t>
   </si>
   <si>
     <t>GHO-CAS3489</t>
   </si>
   <si>
-    <t>Ghostek MagSafe Covert7 Ultra-Thin Clear Case for Apple iPhone 2023 6.7 Pro- Smoke</t>
+    <t>Ghostek MagSafe Covert7 Ultra-Thin Smoke Case for iPhone 15 Pro Max (6.7”)</t>
   </si>
   <si>
     <t>JIMMY</t>
@@ -746,7 +746,7 @@
     <t>JMY-F6</t>
   </si>
   <si>
-    <t>JIMMY F6 Nano Ultrasonic Hair Dryer (1800W | 18L/S Airflow | Nano Water Ions)</t>
+    <t>JIMMY F6 Nano Ultrasonic Hair Dryer 1800W (18L/S Airflow, Nano Water Ions)</t>
   </si>
   <si>
     <t>https://www.jimmyglobal.com/upload/product/1616132806190557.png</t>
@@ -824,7 +824,7 @@
     <t>JYO-JK15K25</t>
   </si>
   <si>
-    <t>1.5L HEALTHY KETTLE</t>
+    <t>Joyoung 1.5L Healthy Kettle</t>
   </si>
   <si>
     <t>https://gw.alicdn.com/imgextra/O1CN01VNJFUb28MxP2pFLVN_!!6000000007919-2-yinhe.png_q90.jpg</t>
@@ -833,7 +833,7 @@
     <t>JYO-JK15K50</t>
   </si>
   <si>
-    <t>RETRO KETTLE 1.5L</t>
+    <t>Joyoung 1.5L Retro Kettle</t>
   </si>
   <si>
     <t>https://gw.alicdn.com/imgextra/O1CN0182Uhic1Z4AVQb7hpT_!!6000000003140-0-yinhe.jpg_q90.jpg</t>
@@ -893,7 +893,7 @@
     <t>KHN-CF56DC5R</t>
   </si>
   <si>
-    <t>Khind ZenAir 56" Ceiling Fan – 5 ABS Blades, 6+6 Speed Settings, RF Remote Control</t>
+    <t>Khind ZenAir 56'' Ceiling Fan – 5 ABS Blades, 12-Speed RF Remote</t>
   </si>
   <si>
     <t>From 1st of Mar25</t>
@@ -905,7 +905,7 @@
     <t>KHN-CF56DC6RL</t>
   </si>
   <si>
-    <t>Khind ZenAir 56" Ceiling Fan with LED Light – 5 ABS Blades, 6+6 Speed Settings, RF Remote Control</t>
+    <t>Khind ZenAir 56'' Ceiling Fan with LED – 5 ABS Blades, 12-Speed RF Remote</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1</t>
@@ -917,7 +917,7 @@
     <t>KNW-SMP84.C0WH</t>
   </si>
   <si>
-    <t>Kenwood 3-in-1 Sandwich, Waffle, and Grill Maker – 700W, Non-Stick Plates, 180° Opening</t>
+    <t>Kenwood 3-in-1 Sandwich, Waffle &amp; Grill Maker – 700W, 180° Opening</t>
   </si>
   <si>
     <t>https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg</t>
@@ -929,7 +929,7 @@
     <t>LFN-LFTB01-P(W)</t>
   </si>
   <si>
-    <t>Laifen Wave Electric Toothbrush –  Oscillation &amp; Vibration Technology, IPX7 Waterproof</t>
+    <t>Laifen Wave Electric Toothbrush – Oscillating &amp; Vibrating, IPX7 Waterproof</t>
   </si>
   <si>
     <t>https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg</t>
@@ -941,7 +941,7 @@
     <t>MID-C21RT103B</t>
   </si>
   <si>
-    <t>Midea 2100W Touch Control Induction Cooker with Integral Glass Panel and Free Pot</t>
+    <t>Midea 2100W Touch Induction Cooker with Glass Panel &amp; Free Pot</t>
   </si>
   <si>
     <t>https://i.ibb.co/3bVKVhp/RT103B.jpg</t>
@@ -950,7 +950,7 @@
     <t>MID-MFG150M0APB</t>
   </si>
   <si>
-    <t>Midea 6-Inch Table Circulation Fan – Dual Oscillation, 3-Speed Settings, Quiet Operation</t>
+    <t>Midea 6'' Table Circulation Fan – Dual Oscillation, 3-Speed, Quiet</t>
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg</t>
@@ -959,7 +959,7 @@
     <t>MID-MRD180B1BDN</t>
   </si>
   <si>
-    <t>Midea 1.8L Digital Rice Cooker with 7 Preset Menus and AI Multi-Heating Control</t>
+    <t>Midea 1.8L Digital Rice Cooker – 7 Presets, AI Multi-Heating</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6</t>
@@ -1118,7 +1118,7 @@
     <t>PG-COLGATE175TP_GRF</t>
   </si>
   <si>
-    <t>Colgate Cavity Protection Toothpaste, Great Regular Flavor, Twin Pack – 6 oz (170g) x 2</t>
+    <t>Colgate Cavity Protection Toothpaste Twin Pack – 6oz (170g) x2</t>
   </si>
   <si>
     <t>https://i.ibb.co/d4J1JHZQ/564515-01.png</t>
@@ -1310,7 +1310,7 @@
     <t>PHP-CHP4742WA/68</t>
   </si>
   <si>
-    <t>Philips 4-Way Extension Socket with 2 USB-A and 2 USB-C Ports, Neon Indicator, 2-Meter Cable, Surge Protection, White</t>
+    <t>Philips 4-Way Extension Socket – 2 USB-A, 2 USB-C, Surge Protection (2m)</t>
   </si>
   <si>
     <t>https://iili.io/3FHwaQn.md.jpg</t>
@@ -1319,7 +1319,7 @@
     <t>PLP-BHH822</t>
   </si>
   <si>
-    <t>Philips StyleCare Multi-Styler – 80mm Straightener, 25mm Curling Barrel, 32mm Hot Brush, 15+ Styling Accessories</t>
+    <t>Philips StyleCare Multi-Styler – Straightener, Curler &amp; Hot Brush (15+ Accessories)</t>
   </si>
   <si>
     <t>https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250</t>
@@ -1328,7 +1328,7 @@
     <t>PLP-HD3008</t>
   </si>
   <si>
-    <t>Philips 1.8L Rice Cooker 1000 Series – 3D Heating, 3 Functions (Cook, Steam, Keep Warm), 4-Layer Non-Stick Pot</t>
+    <t>Philips 1.8L Rice Cooker 1000 Series – 3D Heating, 3 Modes, Non-Stick Pot</t>
   </si>
   <si>
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250</t>
@@ -1340,7 +1340,7 @@
     <t>PSN-DLAR15DWM</t>
   </si>
   <si>
-    <t>Panasonic Hygienic EzyClean D-Shape Manual Bidet Seat – Ag+ Antibacterial Seat &amp; Nozzles, Soft Closing Lid, Easy Installation</t>
+    <t>Panasonic Hygienic EzyClean D-Shape Manual Bidet – Ag+ Nozzles, Soft-Close Lid</t>
   </si>
   <si>
     <t>https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png</t>
@@ -1352,7 +1352,7 @@
     <t>PZR-1137</t>
   </si>
   <si>
-    <t>PanzerGlass Camera Protector Apple iPhone 2023 6.1" Pro/6.7" Pro</t>
+    <t>PanzerGlass Camera Protector for iPhone 15 Pro / 15 Pro Max</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61fIa23Va+L.jpg</t>
@@ -1361,7 +1361,7 @@
     <t>PZR-2810</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF</t>
+    <t>PanzerGlass Ultra-Wide Fit Screen Protector for iPhone 15 Pro (6.1")</t>
   </si>
   <si>
     <t>https://www.machines.com.my/cdn/shop/files/2810_02_c680e242-69e8-4b77-8ad6-bcdc05c41ee5.webp?v=1715669530&amp;width=823</t>
@@ -1370,7 +1370,7 @@
     <t>PZR-2812</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF</t>
+    <t>PanzerGlass Ultra-Wide Fit Screen Protector for iPhone 15 Pro Max (6.7")</t>
   </si>
   <si>
     <t>https://www.machines.com.my/cdn/shop/files/2816_02_8611d9dd-6e90-45d8-b1f9-d42509491a90.webp?v=1715671375&amp;width=823</t>
@@ -1379,7 +1379,7 @@
     <t>PZR-P2810</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.1" Pro UWF Privacy</t>
+    <t>PanzerGlass UWF Privacy Screen Protector for iPhone 15 Pro (6.1")</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg</t>
@@ -1388,7 +1388,7 @@
     <t>PZR-P2812</t>
   </si>
   <si>
-    <t>PanzerGlass Apple iPhone 2023 6.7" Pro UWF Privacy</t>
+    <t>PanzerGlass UWF Privacy Screen Protector for iPhone 15 Pro Max (6.7")</t>
   </si>
   <si>
     <t>https://ufostorekh.com/wp-content/uploads/2023/09/64fa8963-5f9c-43fc-b285-68100a8a002e_1000x1000.jpeg</t>
@@ -1397,7 +1397,7 @@
     <t>PZR-SAFE95587</t>
   </si>
   <si>
-    <t>SAFE Apple iPhone 2023 6.1" Pro UWF</t>
+    <t>SAFE UWF Screen Protector for iPhone 15 Pro (6.1")</t>
   </si>
   <si>
     <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955358_3.jpg</t>
@@ -1406,7 +1406,7 @@
     <t>PZR-SAFE95589</t>
   </si>
   <si>
-    <t>SAFE Apple iPhone 2023 6.7" Pro UWF</t>
+    <t>SAFE UWF Screen Protector for iPhone 15 Pro Max (6.7")</t>
   </si>
   <si>
     <t>https://shop.softbankselection.jp/client_info/SBCS/itemimage/5711724955372_3.jpg</t>
@@ -1418,7 +1418,7 @@
     <t>RHM-RH188</t>
   </si>
   <si>
-    <t>Rheem Electric Instant Water Heater – Facelifted Design, Built-in Power Surge Protector, 3 Shower Modes</t>
+    <t>Rheem Electric Instant Water Heater – Surge Protection, 3 Shower Modes</t>
   </si>
   <si>
     <t>https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
@@ -1430,7 +1430,7 @@
     <t>RIV-MAGNANO05</t>
   </si>
   <si>
-    <t>Riversong MagNano 05 5000mAh Magnetic Wireless Power Bank – 15W Wireless Output, Slim Design, Strong Magnets</t>
+    <t>Riversong MagNano 05 5000mAh Magnetic Wireless Power Bank – 15W Slim &amp; Strong</t>
   </si>
   <si>
     <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png</t>
@@ -1448,7 +1448,7 @@
     <t>RIV-POWERKUB-G100</t>
   </si>
   <si>
-    <t>Riversong PowerKub G100 100W GaN Charger – 3 USB-C Ports, 1 USB-A Port, Compact Design</t>
+    <t>Riversong PowerKub G100 100W GaN Charger – 3 USB-C, 1 USB-A, Compact</t>
   </si>
   <si>
     <t>https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg</t>
@@ -1460,7 +1460,7 @@
     <t>SAM-HWLS60D</t>
   </si>
   <si>
-    <t>Samsung Music Frame Smart Speaker – Customizable Design, Dolby Atmos, Wi-Fi/Bluetooth Connectivity</t>
+    <t>Samsung Music Frame Smart Speaker – Dolby Atmos, Wi-Fi &amp; Bluetooth</t>
   </si>
   <si>
     <t>https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg</t>
@@ -1661,7 +1661,7 @@
     <t>TES-A1</t>
   </si>
   <si>
-    <t>Tesvor A1 Robot Vacuum Cleaner – 2-in-1 Vacuum and Mop, 1000 Pa Suction, Alexa Compatible, Ultra Slim Design</t>
+    <t>Tesvor A1 Robot Vacuum – 2-in-1 Vacuum &amp; Mop, 1000Pa, Alexa Compatible</t>
   </si>
   <si>
     <t>https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg</t>
@@ -1670,7 +1670,7 @@
     <t>TES-S6</t>
   </si>
   <si>
-    <t>Tesvor S6 Robot Vacuum Cleaner – 2-in-1 Vacuum and Mop, LIDAR Navigation, 2,700 Pa Suction</t>
+    <t>Tesvor S6 Robot Vacuum – 2-in-1 Mop &amp; Vacuum, LIDAR, 2700Pa Suction</t>
   </si>
   <si>
     <t>https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg</t>
@@ -1679,7 +1679,7 @@
     <t>TES-X500PRO</t>
   </si>
   <si>
-    <t>Tesvor X500 Pro Robot Vacuum and Mop – 1,800 Pa Suction, Gyroscope Navigation, 2-in-1 Cleaning</t>
+    <t>Tesvor X500 Pro Robot Vacuum – 2-in-1 Mop &amp; Vacuum, 1800Pa, Gyro Navigation</t>
   </si>
   <si>
     <t>https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg</t>
@@ -1691,7 +1691,7 @@
     <t>THU-TACTWP05/BLK</t>
   </si>
   <si>
-    <t>Thule Tact Crossbody Bag 5L – Compact Design, Anti-Theft Features, Recycled Materials</t>
+    <t>Thule Tact 5L Crossbody Bag – Compact, Anti-Theft, Eco-Friendly</t>
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s</t>
@@ -1739,7 +1739,7 @@
     <t>TSB-RC18DR1NMY</t>
   </si>
   <si>
-    <t>Toshiba 1.8L Digital Rice Cooker</t>
+    <t>Toshiba 1.8L Digital Rice Cooker – 4mm 8-Layer Non-Stick Inner Pot, 11 Preset Menus</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/68b3358665835c79b2e1c06d1c608029</t>
@@ -1748,7 +1748,25 @@
     <t>TSB-RC18DSUMY(H)</t>
   </si>
   <si>
+    <t>Toshiba 1.8L Digital Rice Cooker – 3D Heating, 8 Cooking Functions</t>
+  </si>
+  <si>
     <t>https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp</t>
+  </si>
+  <si>
+    <t>ACEBELL</t>
+  </si>
+  <si>
+    <t>ACB-JYL4815T</t>
+  </si>
+  <si>
+    <t>Premium Foldable Ironing Board – High Quality &amp; Durable</t>
+  </si>
+  <si>
+    <t>From 10 Mar Onwards</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1781,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1792,19 +1810,10 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1817,6 +1826,14 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1952,13 +1969,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2309,7 +2319,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2438,9 +2448,9 @@
     <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2454,9 +2464,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2477,29 +2484,38 @@
     <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3045,17 +3061,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A22" sqref="$A22:$XFD22"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="28.4444444444444" customWidth="1"/>
-    <col min="3" max="3" width="51.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="131.444444444444" customWidth="1"/>
     <col min="4" max="5" width="12.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
     <col min="7" max="7" width="38.8888888888889" style="1" customWidth="1"/>
@@ -3084,7 +3100,7 @@
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3092,24 +3108,24 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>349</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>279</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <f t="shared" ref="F2:F26" si="0">E2*100</f>
         <v>27900</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3117,24 +3133,24 @@
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>27.9</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>27.9</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3142,24 +3158,24 @@
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>27.9</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>27.9</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="12" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="11" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3167,24 +3183,24 @@
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>87.7</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>69</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="12" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3192,26 +3208,26 @@
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>32.9</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>23</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3219,24 +3235,24 @@
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>369</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>369</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3244,24 +3260,24 @@
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>289</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>289</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>28900</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3269,24 +3285,24 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>99</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>97</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3294,24 +3310,24 @@
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>149</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>145</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="13" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="12" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3319,24 +3335,24 @@
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>169</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>169</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="12" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3344,24 +3360,24 @@
       <c r="A12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>169</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>169</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="13" t="s">
+      <c r="G12" s="8"/>
+      <c r="H12" s="12" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3369,24 +3385,24 @@
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>349</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>349</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="13" t="s">
+      <c r="G13" s="8"/>
+      <c r="H13" s="12" t="s">
         <v>47</v>
       </c>
     </row>
@@ -3394,24 +3410,24 @@
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>349</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>349</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="13" t="s">
+      <c r="G14" s="8"/>
+      <c r="H14" s="12" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3419,24 +3435,24 @@
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>559</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>559</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="13" t="s">
+      <c r="G15" s="8"/>
+      <c r="H15" s="12" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3444,24 +3460,24 @@
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>559</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>559</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="13" t="s">
+      <c r="G16" s="8"/>
+      <c r="H16" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3469,24 +3485,24 @@
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>499</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>499</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="13" t="s">
+      <c r="G17" s="8"/>
+      <c r="H17" s="12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3494,24 +3510,24 @@
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>499</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>499</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="13" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3519,24 +3535,24 @@
       <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>799</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>799</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="13" t="s">
+      <c r="G19" s="8"/>
+      <c r="H19" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3544,24 +3560,24 @@
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>799</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>799</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="13" t="s">
+      <c r="G20" s="8"/>
+      <c r="H20" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3569,24 +3585,24 @@
       <c r="A21" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>714</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>479</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <f t="shared" si="0"/>
         <v>47900</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="13" t="s">
+      <c r="G21" s="8"/>
+      <c r="H21" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3594,24 +3610,24 @@
       <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>179</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>169</v>
       </c>
-      <c r="F22" s="8">
-        <f>E22*100</f>
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="13" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="12" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3619,24 +3635,24 @@
       <c r="A23" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="10">
         <v>79</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>55</v>
       </c>
-      <c r="F23" s="8">
-        <f>E23*100</f>
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="13" t="s">
+      <c r="G23" s="8"/>
+      <c r="H23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3644,24 +3660,24 @@
       <c r="A24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="10">
         <v>55</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>49</v>
       </c>
-      <c r="F24" s="8">
-        <f>E24*100</f>
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="8"/>
+      <c r="H24" s="12" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3669,24 +3685,24 @@
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="10">
         <v>129</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>125</v>
       </c>
-      <c r="F25" s="8">
-        <f>E25*100</f>
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="13" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="12" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3694,23 +3710,23 @@
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>99</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>93</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="7">
         <v>9300</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="13" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="12" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3718,24 +3734,24 @@
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>59</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>49</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <f t="shared" ref="F27:F90" si="1">E27*100</f>
         <v>4900</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="5" t="s">
+      <c r="G27" s="8"/>
+      <c r="H27" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3743,24 +3759,24 @@
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>59</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>49</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="7">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="13" t="s">
+      <c r="G28" s="8"/>
+      <c r="H28" s="12" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3768,24 +3784,24 @@
       <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>49</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>39</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="7">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="13" t="s">
+      <c r="G29" s="8"/>
+      <c r="H29" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3793,24 +3809,24 @@
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>89</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>69</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="7">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="G30" s="9"/>
-      <c r="H30" s="13" t="s">
+      <c r="G30" s="8"/>
+      <c r="H30" s="12" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3818,24 +3834,24 @@
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>99</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>79</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="5" t="s">
+      <c r="G31" s="8"/>
+      <c r="H31" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3843,24 +3859,24 @@
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>69</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>55</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="7">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="G32" s="9"/>
-      <c r="H32" s="5" t="s">
+      <c r="G32" s="8"/>
+      <c r="H32" s="2" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3868,26 +3884,26 @@
       <c r="A33" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>499</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>199</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="7">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3895,26 +3911,26 @@
       <c r="A34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="10">
         <v>499</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>199</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3922,24 +3938,24 @@
       <c r="A35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>549</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>199</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="13" t="s">
+      <c r="G35" s="8"/>
+      <c r="H35" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3947,26 +3963,26 @@
       <c r="A36" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="10">
         <v>399</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>199</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="7">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3974,26 +3990,26 @@
       <c r="A37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>459</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>169</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="7">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4001,26 +4017,26 @@
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>459</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>169</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="7">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>123</v>
       </c>
     </row>
@@ -4028,24 +4044,24 @@
       <c r="A39" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>599</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>319</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="7">
         <f t="shared" si="1"/>
         <v>31900</v>
       </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="13" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="12" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4053,24 +4069,24 @@
       <c r="A40" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>599</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>319</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <f t="shared" si="1"/>
         <v>31900</v>
       </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="5" t="s">
+      <c r="G40" s="8"/>
+      <c r="H40" s="2" t="s">
         <v>126</v>
       </c>
     </row>
@@ -4078,26 +4094,26 @@
       <c r="A41" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="10">
         <v>439</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>169</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="7">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4105,24 +4121,24 @@
       <c r="A42" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>439</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>179</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="7">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="5" t="s">
+      <c r="G42" s="8"/>
+      <c r="H42" s="2" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4130,26 +4146,26 @@
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="10">
         <v>479</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>189</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4157,26 +4173,26 @@
       <c r="A44" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>519</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>189</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="G44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4184,26 +4200,26 @@
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>519</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>189</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="2" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4211,26 +4227,26 @@
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="10">
         <v>599</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>189</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G46" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="2" t="s">
         <v>146</v>
       </c>
     </row>
@@ -4238,26 +4254,26 @@
       <c r="A47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>639</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>239</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="7">
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="2" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4265,26 +4281,26 @@
       <c r="A48" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>639</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>239</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="G48" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4292,26 +4308,26 @@
       <c r="A49" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>639</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>239</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="7">
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="G49" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="2" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4319,26 +4335,26 @@
       <c r="A50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="10">
         <v>669</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>259</v>
       </c>
-      <c r="F50" s="8">
+      <c r="F50" s="7">
         <f t="shared" si="1"/>
         <v>25900</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="G50" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="2" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4346,26 +4362,26 @@
       <c r="A51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>369</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>149</v>
       </c>
-      <c r="F51" s="8">
+      <c r="F51" s="7">
         <f t="shared" si="1"/>
         <v>14900</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="G51" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4373,26 +4389,26 @@
       <c r="A52" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>439</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>169</v>
       </c>
-      <c r="F52" s="8">
+      <c r="F52" s="7">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="G52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="2" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4400,26 +4416,26 @@
       <c r="A53" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>489</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>189</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="G53" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="2" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4427,26 +4443,26 @@
       <c r="A54" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>409</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>159</v>
       </c>
-      <c r="F54" s="8">
+      <c r="F54" s="7">
         <f t="shared" si="1"/>
         <v>15900</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="G54" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="2" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4454,24 +4470,24 @@
       <c r="A55" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>579</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>219</v>
       </c>
-      <c r="F55" s="8">
+      <c r="F55" s="7">
         <f t="shared" si="1"/>
         <v>21900</v>
       </c>
-      <c r="G55" s="9"/>
-      <c r="H55" s="5" t="s">
+      <c r="G55" s="8"/>
+      <c r="H55" s="2" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4479,24 +4495,24 @@
       <c r="A56" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>349</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>149</v>
       </c>
-      <c r="F56" s="8">
+      <c r="F56" s="7">
         <f t="shared" si="1"/>
         <v>14900</v>
       </c>
-      <c r="G56" s="9"/>
-      <c r="H56" s="5" t="s">
+      <c r="G56" s="8"/>
+      <c r="H56" s="2" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4504,26 +4520,26 @@
       <c r="A57" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="10">
         <v>499</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="10">
         <v>189</v>
       </c>
-      <c r="F57" s="8">
+      <c r="F57" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="G57" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4531,26 +4547,26 @@
       <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D58" s="10">
         <v>699</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E58" s="10">
         <v>319</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="7">
         <f t="shared" si="1"/>
         <v>31900</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="G58" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4558,26 +4574,26 @@
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D59" s="10">
         <v>949</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E59" s="10">
         <v>499</v>
       </c>
-      <c r="F59" s="8">
+      <c r="F59" s="7">
         <f t="shared" si="1"/>
         <v>49900</v>
       </c>
-      <c r="G59" s="9" t="s">
+      <c r="G59" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4585,24 +4601,24 @@
       <c r="A60" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>319</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>279</v>
       </c>
-      <c r="F60" s="8">
+      <c r="F60" s="7">
         <f t="shared" si="1"/>
         <v>27900</v>
       </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="5" t="s">
+      <c r="G60" s="8"/>
+      <c r="H60" s="2" t="s">
         <v>188</v>
       </c>
     </row>
@@ -4610,24 +4626,24 @@
       <c r="A61" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>39</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>39</v>
       </c>
-      <c r="F61" s="8">
+      <c r="F61" s="7">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="12" t="s">
+      <c r="G61" s="8"/>
+      <c r="H61" s="11" t="s">
         <v>192</v>
       </c>
     </row>
@@ -4635,24 +4651,24 @@
       <c r="A62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>49</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>49</v>
       </c>
-      <c r="F62" s="8">
+      <c r="F62" s="7">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="12" t="s">
+      <c r="G62" s="8"/>
+      <c r="H62" s="11" t="s">
         <v>195</v>
       </c>
     </row>
@@ -4660,24 +4676,24 @@
       <c r="A63" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>29</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>29</v>
       </c>
-      <c r="F63" s="8">
+      <c r="F63" s="7">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="13" t="s">
+      <c r="G63" s="8"/>
+      <c r="H63" s="12" t="s">
         <v>198</v>
       </c>
     </row>
@@ -4685,24 +4701,24 @@
       <c r="A64" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D64" s="10">
         <v>24.9</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E64" s="10">
         <v>24.9</v>
       </c>
-      <c r="F64" s="8">
+      <c r="F64" s="7">
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="13" t="s">
+      <c r="G64" s="8"/>
+      <c r="H64" s="12" t="s">
         <v>201</v>
       </c>
     </row>
@@ -4710,24 +4726,24 @@
       <c r="A65" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D65" s="10">
         <v>20.9</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E65" s="10">
         <v>20.9</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="7">
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
-      <c r="G65" s="9"/>
-      <c r="H65" s="14" t="s">
+      <c r="G65" s="8"/>
+      <c r="H65" s="13" t="s">
         <v>204</v>
       </c>
     </row>
@@ -4735,24 +4751,24 @@
       <c r="A66" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>210</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>115</v>
       </c>
-      <c r="F66" s="8">
+      <c r="F66" s="7">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="13" t="s">
+      <c r="G66" s="8"/>
+      <c r="H66" s="12" t="s">
         <v>208</v>
       </c>
     </row>
@@ -4760,26 +4776,26 @@
       <c r="A67" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>162</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>115</v>
       </c>
-      <c r="F67" s="8">
+      <c r="F67" s="7">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="G67" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="12" t="s">
         <v>212</v>
       </c>
     </row>
@@ -4787,24 +4803,24 @@
       <c r="A68" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>228</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>200</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68" s="7">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="14" t="s">
+      <c r="G68" s="8"/>
+      <c r="H68" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4812,24 +4828,24 @@
       <c r="A69" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>129</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>129</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69" s="7">
         <f t="shared" si="1"/>
         <v>12900</v>
       </c>
-      <c r="G69" s="9"/>
-      <c r="H69" s="15" t="s">
+      <c r="G69" s="8"/>
+      <c r="H69" s="13" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4837,24 +4853,24 @@
       <c r="A70" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>99</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>99</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G70" s="9"/>
-      <c r="H70" s="15" t="s">
+      <c r="G70" s="8"/>
+      <c r="H70" s="13" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4862,24 +4878,24 @@
       <c r="A71" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D71" s="10">
         <v>89</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>89</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="12" t="s">
+      <c r="G71" s="8"/>
+      <c r="H71" s="11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4887,24 +4903,24 @@
       <c r="A72" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D72" s="10">
         <v>89</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <v>89</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G72" s="9"/>
-      <c r="H72" s="12" t="s">
+      <c r="G72" s="8"/>
+      <c r="H72" s="11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4912,24 +4928,24 @@
       <c r="A73" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D73" s="10">
         <v>89</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <v>89</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="12" t="s">
+      <c r="G73" s="8"/>
+      <c r="H73" s="11" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4937,24 +4953,24 @@
       <c r="A74" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D74" s="10">
         <v>89</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <v>89</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="7">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G74" s="9"/>
-      <c r="H74" s="12" t="s">
+      <c r="G74" s="8"/>
+      <c r="H74" s="11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4962,24 +4978,24 @@
       <c r="A75" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>799</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <v>599</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75" s="7">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="G75" s="9"/>
-      <c r="H75" s="13" t="s">
+      <c r="G75" s="8"/>
+      <c r="H75" s="12" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4987,24 +5003,24 @@
       <c r="A76" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>1199</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <v>599</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="7">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="G76" s="9"/>
-      <c r="H76" s="13" t="s">
+      <c r="G76" s="8"/>
+      <c r="H76" s="12" t="s">
         <v>240</v>
       </c>
     </row>
@@ -5012,26 +5028,26 @@
       <c r="A77" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>2099</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <v>1199</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77" s="7">
         <f t="shared" si="1"/>
         <v>119900</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="G77" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="12" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5039,24 +5055,24 @@
       <c r="A78" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>2699</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="6">
         <v>1699</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="7">
         <f t="shared" si="1"/>
         <v>169900</v>
       </c>
-      <c r="G78" s="9"/>
-      <c r="H78" s="13" t="s">
+      <c r="G78" s="8"/>
+      <c r="H78" s="12" t="s">
         <v>246</v>
       </c>
     </row>
@@ -5064,24 +5080,24 @@
       <c r="A79" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>989</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="6">
         <v>769</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79" s="7">
         <f t="shared" si="1"/>
         <v>76900</v>
       </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="13" t="s">
+      <c r="G79" s="8"/>
+      <c r="H79" s="12" t="s">
         <v>249</v>
       </c>
     </row>
@@ -5089,24 +5105,24 @@
       <c r="A80" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>119</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="6">
         <v>79</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G80" s="9"/>
-      <c r="H80" s="13" t="s">
+      <c r="G80" s="8"/>
+      <c r="H80" s="12" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5114,24 +5130,24 @@
       <c r="A81" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="6">
         <v>119</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="6">
         <v>79</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="13" t="s">
+      <c r="G81" s="8"/>
+      <c r="H81" s="12" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5139,24 +5155,24 @@
       <c r="A82" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>99</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="6">
         <v>99</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G82" s="9"/>
-      <c r="H82" s="13" t="s">
+      <c r="G82" s="8"/>
+      <c r="H82" s="12" t="s">
         <v>259</v>
       </c>
     </row>
@@ -5164,24 +5180,24 @@
       <c r="A83" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D83" s="10">
         <v>109</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E83" s="10">
         <v>109</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83" s="7">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="13" t="s">
+      <c r="G83" s="8"/>
+      <c r="H83" s="12" t="s">
         <v>262</v>
       </c>
     </row>
@@ -5189,24 +5205,24 @@
       <c r="A84" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>199</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="6">
         <v>169</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84" s="7">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G84" s="9"/>
-      <c r="H84" s="16" t="s">
+      <c r="G84" s="8"/>
+      <c r="H84" s="14" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5214,24 +5230,24 @@
       <c r="A85" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>259</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <v>189</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85" s="7">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G85" s="9"/>
-      <c r="H85" s="17" t="s">
+      <c r="G85" s="8"/>
+      <c r="H85" s="15" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5239,24 +5255,24 @@
       <c r="A86" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>139</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <v>79</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G86" s="9"/>
-      <c r="H86" s="12" t="s">
+      <c r="G86" s="8"/>
+      <c r="H86" s="11" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5264,24 +5280,24 @@
       <c r="A87" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>139</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <v>79</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87" s="7">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G87" s="9"/>
-      <c r="H87" s="12" t="s">
+      <c r="G87" s="8"/>
+      <c r="H87" s="11" t="s">
         <v>272</v>
       </c>
     </row>
@@ -5289,24 +5305,24 @@
       <c r="A88" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <v>169</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="6">
         <v>99</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G88" s="9"/>
-      <c r="H88" s="12" t="s">
+      <c r="G88" s="8"/>
+      <c r="H88" s="11" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5314,24 +5330,24 @@
       <c r="A89" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="6">
         <v>169</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <v>99</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G89" s="9"/>
-      <c r="H89" s="12" t="s">
+      <c r="G89" s="8"/>
+      <c r="H89" s="11" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5339,24 +5355,24 @@
       <c r="A90" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <v>169</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <v>99</v>
       </c>
-      <c r="F90" s="8">
+      <c r="F90" s="7">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10" t="s">
+      <c r="G90" s="8"/>
+      <c r="H90" s="9" t="s">
         <v>282</v>
       </c>
     </row>
@@ -5364,24 +5380,24 @@
       <c r="A91" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <v>169</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <v>99</v>
       </c>
-      <c r="F91" s="8">
+      <c r="F91" s="7">
         <f>E91*100</f>
         <v>9900</v>
       </c>
-      <c r="G91" s="9"/>
-      <c r="H91" s="18" t="s">
+      <c r="G91" s="8"/>
+      <c r="H91" s="16" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5389,25 +5405,25 @@
       <c r="A92" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>499</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>309</v>
       </c>
-      <c r="F92" s="8">
+      <c r="F92" s="7">
         <v>30900</v>
       </c>
-      <c r="G92" s="9" t="s">
+      <c r="G92" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="12" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5415,25 +5431,25 @@
       <c r="A93" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="6">
         <v>549</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>399</v>
       </c>
-      <c r="F93" s="8">
+      <c r="F93" s="7">
         <v>39900</v>
       </c>
-      <c r="G93" s="9" t="s">
+      <c r="G93" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="12" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5441,24 +5457,24 @@
       <c r="A94" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <v>179</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <v>177</v>
       </c>
-      <c r="F94" s="8">
-        <f>E94*100</f>
+      <c r="F94" s="7">
+        <f t="shared" ref="F94:F99" si="2">E94*100</f>
         <v>17700</v>
       </c>
-      <c r="G94" s="9"/>
-      <c r="H94" s="13" t="s">
+      <c r="G94" s="8"/>
+      <c r="H94" s="12" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5466,24 +5482,24 @@
       <c r="A95" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D95" s="10">
         <v>559</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E95" s="10">
         <v>329</v>
       </c>
-      <c r="F95" s="8">
-        <f>E95*100</f>
+      <c r="F95" s="7">
+        <f t="shared" si="2"/>
         <v>32900</v>
       </c>
-      <c r="G95" s="9"/>
-      <c r="H95" s="13" t="s">
+      <c r="G95" s="8"/>
+      <c r="H95" s="12" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5491,24 +5507,24 @@
       <c r="A96" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <v>209</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <v>189</v>
       </c>
-      <c r="F96" s="8">
-        <f>E96*100</f>
+      <c r="F96" s="7">
+        <f t="shared" si="2"/>
         <v>18900</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="13" t="s">
+      <c r="G96" s="8"/>
+      <c r="H96" s="12" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5516,24 +5532,24 @@
       <c r="A97" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <v>135</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <v>109</v>
       </c>
-      <c r="F97" s="8">
-        <f>E97*100</f>
+      <c r="F97" s="7">
+        <f t="shared" si="2"/>
         <v>10900</v>
       </c>
-      <c r="G97" s="9"/>
-      <c r="H97" s="13" t="s">
+      <c r="G97" s="8"/>
+      <c r="H97" s="12" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5541,24 +5557,24 @@
       <c r="A98" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <v>239</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="6">
         <v>209</v>
       </c>
-      <c r="F98" s="8">
-        <f>E98*100</f>
+      <c r="F98" s="7">
+        <f t="shared" si="2"/>
         <v>20900</v>
       </c>
-      <c r="G98" s="9"/>
-      <c r="H98" s="13" t="s">
+      <c r="G98" s="8"/>
+      <c r="H98" s="12" t="s">
         <v>311</v>
       </c>
     </row>
@@ -5566,24 +5582,24 @@
       <c r="A99" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D99" s="11">
+      <c r="D99" s="10">
         <v>119</v>
       </c>
-      <c r="E99" s="11">
+      <c r="E99" s="10">
         <v>99</v>
       </c>
-      <c r="F99" s="8">
-        <f>E99*100</f>
+      <c r="F99" s="7">
+        <f t="shared" si="2"/>
         <v>9900</v>
       </c>
-      <c r="G99" s="9"/>
-      <c r="H99" s="13" t="s">
+      <c r="G99" s="8"/>
+      <c r="H99" s="12" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5591,25 +5607,25 @@
       <c r="A100" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="6">
         <v>86</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="6">
         <v>84</v>
       </c>
-      <c r="F100" s="8">
+      <c r="F100" s="7">
         <v>8400</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="G100" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="12" t="s">
+      <c r="H100" s="11" t="s">
         <v>319</v>
       </c>
     </row>
@@ -5617,25 +5633,25 @@
       <c r="A101" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="6">
         <v>86</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="6">
         <v>84</v>
       </c>
-      <c r="F101" s="8">
+      <c r="F101" s="7">
         <v>8400</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H101" s="11" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5643,24 +5659,24 @@
       <c r="A102" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="6">
         <v>86</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="6">
         <v>84</v>
       </c>
-      <c r="F102" s="8">
-        <f t="shared" ref="F102:F104" si="2">E102*100</f>
+      <c r="F102" s="7">
+        <f t="shared" ref="F102:F104" si="3">E102*100</f>
         <v>8400</v>
       </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="12" t="s">
+      <c r="G102" s="8"/>
+      <c r="H102" s="11" t="s">
         <v>325</v>
       </c>
     </row>
@@ -5668,24 +5684,24 @@
       <c r="A103" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D103" s="11">
+      <c r="D103" s="10">
         <v>106</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="17">
         <v>104</v>
       </c>
-      <c r="F103" s="8">
-        <f t="shared" si="2"/>
+      <c r="F103" s="7">
+        <f t="shared" si="3"/>
         <v>10400</v>
       </c>
-      <c r="G103" s="9"/>
-      <c r="H103" s="12" t="s">
+      <c r="G103" s="8"/>
+      <c r="H103" s="11" t="s">
         <v>328</v>
       </c>
     </row>
@@ -5693,24 +5709,24 @@
       <c r="A104" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="6">
         <v>106</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="6">
         <v>105</v>
       </c>
-      <c r="F104" s="8">
-        <f t="shared" si="2"/>
+      <c r="F104" s="7">
+        <f t="shared" si="3"/>
         <v>10500</v>
       </c>
-      <c r="G104" s="9"/>
-      <c r="H104" s="12" t="s">
+      <c r="G104" s="8"/>
+      <c r="H104" s="11" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5718,23 +5734,23 @@
       <c r="A105" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="6">
         <v>86</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="6">
         <v>84</v>
       </c>
-      <c r="F105" s="8">
+      <c r="F105" s="7">
         <v>8400</v>
       </c>
-      <c r="G105" s="9"/>
-      <c r="H105" s="13" t="s">
+      <c r="G105" s="8"/>
+      <c r="H105" s="12" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5742,24 +5758,24 @@
       <c r="A106" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D106" s="11">
+      <c r="D106" s="10">
         <v>69</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="17">
         <v>69</v>
       </c>
-      <c r="F106" s="8">
-        <f>E106*100</f>
+      <c r="F106" s="7">
+        <f t="shared" ref="F106:F112" si="4">E106*100</f>
         <v>6900</v>
       </c>
-      <c r="G106" s="9"/>
-      <c r="H106" s="13" t="s">
+      <c r="G106" s="8"/>
+      <c r="H106" s="12" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5767,24 +5783,24 @@
       <c r="A107" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D107" s="11">
+      <c r="D107" s="10">
         <v>69</v>
       </c>
-      <c r="E107" s="19">
+      <c r="E107" s="17">
         <v>69</v>
       </c>
-      <c r="F107" s="8">
-        <f>E107*100</f>
+      <c r="F107" s="7">
+        <f t="shared" si="4"/>
         <v>6900</v>
       </c>
-      <c r="G107" s="9"/>
-      <c r="H107" s="13" t="s">
+      <c r="G107" s="8"/>
+      <c r="H107" s="12" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5792,24 +5808,24 @@
       <c r="A108" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D108" s="11">
+      <c r="D108" s="10">
         <v>69</v>
       </c>
-      <c r="E108" s="19">
+      <c r="E108" s="17">
         <v>69</v>
       </c>
-      <c r="F108" s="8">
-        <f>E108*100</f>
+      <c r="F108" s="7">
+        <f t="shared" si="4"/>
         <v>6900</v>
       </c>
-      <c r="G108" s="9"/>
-      <c r="H108" s="13" t="s">
+      <c r="G108" s="8"/>
+      <c r="H108" s="12" t="s">
         <v>344</v>
       </c>
     </row>
@@ -5817,24 +5833,24 @@
       <c r="A109" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="6">
         <v>89</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="6">
         <v>89</v>
       </c>
-      <c r="F109" s="8">
-        <f>E109*100</f>
+      <c r="F109" s="7">
+        <f t="shared" si="4"/>
         <v>8900</v>
       </c>
-      <c r="G109" s="9"/>
-      <c r="H109" s="13" t="s">
+      <c r="G109" s="8"/>
+      <c r="H109" s="12" t="s">
         <v>347</v>
       </c>
     </row>
@@ -5842,24 +5858,24 @@
       <c r="A110" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="6">
         <v>89</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="6">
         <v>89</v>
       </c>
-      <c r="F110" s="8">
-        <f>E110*100</f>
+      <c r="F110" s="7">
+        <f t="shared" si="4"/>
         <v>8900</v>
       </c>
-      <c r="G110" s="9"/>
-      <c r="H110" s="13" t="s">
+      <c r="G110" s="8"/>
+      <c r="H110" s="12" t="s">
         <v>349</v>
       </c>
     </row>
@@ -5867,24 +5883,24 @@
       <c r="A111" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D111" s="7">
+      <c r="D111" s="6">
         <v>89</v>
       </c>
-      <c r="E111" s="7">
+      <c r="E111" s="6">
         <v>89</v>
       </c>
-      <c r="F111" s="8">
-        <f>E111*100</f>
+      <c r="F111" s="7">
+        <f t="shared" si="4"/>
         <v>8900</v>
       </c>
-      <c r="G111" s="9"/>
-      <c r="H111" s="13" t="s">
+      <c r="G111" s="8"/>
+      <c r="H111" s="12" t="s">
         <v>351</v>
       </c>
     </row>
@@ -5892,24 +5908,24 @@
       <c r="A112" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="6">
         <v>39.9</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="6">
         <v>39.9</v>
       </c>
-      <c r="F112" s="8">
-        <f>E112*100</f>
+      <c r="F112" s="7">
+        <f t="shared" si="4"/>
         <v>3990</v>
       </c>
-      <c r="G112" s="9"/>
-      <c r="H112" s="13" t="s">
+      <c r="G112" s="8"/>
+      <c r="H112" s="12" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5917,24 +5933,24 @@
       <c r="A113" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D113" s="7">
+      <c r="D113" s="6">
         <v>14.4</v>
       </c>
-      <c r="E113" s="7">
+      <c r="E113" s="6">
         <v>14.4</v>
       </c>
-      <c r="F113" s="8">
-        <f t="shared" ref="F113:F135" si="3">E113*100</f>
+      <c r="F113" s="7">
+        <f t="shared" ref="F113:F135" si="5">E113*100</f>
         <v>1440</v>
       </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="13" t="s">
+      <c r="G113" s="8"/>
+      <c r="H113" s="12" t="s">
         <v>358</v>
       </c>
     </row>
@@ -5942,24 +5958,24 @@
       <c r="A114" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="6">
         <v>15.5</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="6">
         <v>15.5</v>
       </c>
-      <c r="F114" s="8">
-        <f t="shared" si="3"/>
+      <c r="F114" s="7">
+        <f t="shared" si="5"/>
         <v>1550</v>
       </c>
-      <c r="G114" s="9"/>
-      <c r="H114" s="13" t="s">
+      <c r="G114" s="8"/>
+      <c r="H114" s="12" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5967,24 +5983,24 @@
       <c r="A115" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D115" s="7">
+      <c r="D115" s="6">
         <v>16.9</v>
       </c>
-      <c r="E115" s="7">
+      <c r="E115" s="6">
         <v>16.9</v>
       </c>
-      <c r="F115" s="8">
-        <f t="shared" si="3"/>
+      <c r="F115" s="7">
+        <f t="shared" si="5"/>
         <v>1690</v>
       </c>
-      <c r="G115" s="9"/>
-      <c r="H115" s="13" t="s">
+      <c r="G115" s="8"/>
+      <c r="H115" s="12" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5992,24 +6008,24 @@
       <c r="A116" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="6">
         <v>18.9</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="6">
         <v>18.9</v>
       </c>
-      <c r="F116" s="8">
-        <f t="shared" si="3"/>
+      <c r="F116" s="7">
+        <f t="shared" si="5"/>
         <v>1890</v>
       </c>
-      <c r="G116" s="9"/>
-      <c r="H116" s="13" t="s">
+      <c r="G116" s="8"/>
+      <c r="H116" s="12" t="s">
         <v>367</v>
       </c>
     </row>
@@ -6017,24 +6033,24 @@
       <c r="A117" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D117" s="7">
+      <c r="D117" s="6">
         <v>9.9</v>
       </c>
-      <c r="E117" s="7">
+      <c r="E117" s="6">
         <v>9.9</v>
       </c>
-      <c r="F117" s="8">
-        <f t="shared" si="3"/>
+      <c r="F117" s="7">
+        <f t="shared" si="5"/>
         <v>990</v>
       </c>
-      <c r="G117" s="9"/>
-      <c r="H117" s="13" t="s">
+      <c r="G117" s="8"/>
+      <c r="H117" s="12" t="s">
         <v>370</v>
       </c>
     </row>
@@ -6042,24 +6058,24 @@
       <c r="A118" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="6">
         <v>18.5</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="6">
         <v>18.5</v>
       </c>
-      <c r="F118" s="8">
-        <f t="shared" si="3"/>
+      <c r="F118" s="7">
+        <f t="shared" si="5"/>
         <v>1850</v>
       </c>
-      <c r="G118" s="9"/>
-      <c r="H118" s="13" t="s">
+      <c r="G118" s="8"/>
+      <c r="H118" s="12" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6067,24 +6083,24 @@
       <c r="A119" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="D119" s="7">
+      <c r="D119" s="6">
         <v>11.9</v>
       </c>
-      <c r="E119" s="7">
+      <c r="E119" s="6">
         <v>11.9</v>
       </c>
-      <c r="F119" s="8">
-        <f t="shared" si="3"/>
+      <c r="F119" s="7">
+        <f t="shared" si="5"/>
         <v>1190</v>
       </c>
-      <c r="G119" s="9"/>
-      <c r="H119" s="13" t="s">
+      <c r="G119" s="8"/>
+      <c r="H119" s="12" t="s">
         <v>376</v>
       </c>
     </row>
@@ -6092,24 +6108,24 @@
       <c r="A120" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D120" s="7">
+      <c r="D120" s="6">
         <v>18</v>
       </c>
-      <c r="E120" s="7">
+      <c r="E120" s="6">
         <v>18</v>
       </c>
-      <c r="F120" s="8">
-        <f t="shared" si="3"/>
+      <c r="F120" s="7">
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="13" t="s">
+      <c r="G120" s="8"/>
+      <c r="H120" s="12" t="s">
         <v>379</v>
       </c>
     </row>
@@ -6117,24 +6133,24 @@
       <c r="A121" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D121" s="7">
+      <c r="D121" s="6">
         <v>18.5</v>
       </c>
-      <c r="E121" s="7">
+      <c r="E121" s="6">
         <v>18.5</v>
       </c>
-      <c r="F121" s="8">
-        <f t="shared" si="3"/>
+      <c r="F121" s="7">
+        <f t="shared" si="5"/>
         <v>1850</v>
       </c>
-      <c r="G121" s="9"/>
-      <c r="H121" s="13" t="s">
+      <c r="G121" s="8"/>
+      <c r="H121" s="12" t="s">
         <v>382</v>
       </c>
     </row>
@@ -6142,24 +6158,24 @@
       <c r="A122" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="7">
+      <c r="D122" s="6">
         <v>4.5</v>
       </c>
-      <c r="E122" s="7">
+      <c r="E122" s="6">
         <v>4.5</v>
       </c>
-      <c r="F122" s="8">
-        <f t="shared" si="3"/>
+      <c r="F122" s="7">
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="13" t="s">
+      <c r="G122" s="8"/>
+      <c r="H122" s="12" t="s">
         <v>385</v>
       </c>
     </row>
@@ -6167,24 +6183,24 @@
       <c r="A123" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="7">
+      <c r="D123" s="6">
         <v>5.7</v>
       </c>
-      <c r="E123" s="7">
+      <c r="E123" s="6">
         <v>5.7</v>
       </c>
-      <c r="F123" s="8">
-        <f t="shared" si="3"/>
+      <c r="F123" s="7">
+        <f t="shared" si="5"/>
         <v>570</v>
       </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="13" t="s">
+      <c r="G123" s="8"/>
+      <c r="H123" s="12" t="s">
         <v>388</v>
       </c>
     </row>
@@ -6192,24 +6208,24 @@
       <c r="A124" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="6">
         <v>3.5</v>
       </c>
-      <c r="E124" s="7">
+      <c r="E124" s="6">
         <v>3.5</v>
       </c>
-      <c r="F124" s="8">
-        <f t="shared" si="3"/>
+      <c r="F124" s="7">
+        <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="13" t="s">
+      <c r="G124" s="8"/>
+      <c r="H124" s="12" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6217,24 +6233,24 @@
       <c r="A125" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D125" s="7">
+      <c r="D125" s="6">
         <v>8.6</v>
       </c>
-      <c r="E125" s="7">
+      <c r="E125" s="6">
         <v>8.6</v>
       </c>
-      <c r="F125" s="8">
-        <f t="shared" si="3"/>
+      <c r="F125" s="7">
+        <f t="shared" si="5"/>
         <v>860</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="13" t="s">
+      <c r="G125" s="8"/>
+      <c r="H125" s="12" t="s">
         <v>394</v>
       </c>
     </row>
@@ -6242,24 +6258,24 @@
       <c r="A126" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D126" s="7">
+      <c r="D126" s="6">
         <v>8</v>
       </c>
-      <c r="E126" s="7">
+      <c r="E126" s="6">
         <v>8</v>
       </c>
-      <c r="F126" s="8">
-        <f t="shared" si="3"/>
+      <c r="F126" s="7">
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="13" t="s">
+      <c r="G126" s="8"/>
+      <c r="H126" s="12" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6267,24 +6283,24 @@
       <c r="A127" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D127" s="7">
+      <c r="D127" s="6">
         <v>8</v>
       </c>
-      <c r="E127" s="7">
+      <c r="E127" s="6">
         <v>8</v>
       </c>
-      <c r="F127" s="8">
-        <f t="shared" si="3"/>
+      <c r="F127" s="7">
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="13" t="s">
+      <c r="G127" s="8"/>
+      <c r="H127" s="12" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6292,24 +6308,24 @@
       <c r="A128" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="D128" s="7">
+      <c r="D128" s="6">
         <v>8</v>
       </c>
-      <c r="E128" s="7">
+      <c r="E128" s="6">
         <v>8</v>
       </c>
-      <c r="F128" s="8">
-        <f t="shared" si="3"/>
+      <c r="F128" s="7">
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="13" t="s">
+      <c r="G128" s="8"/>
+      <c r="H128" s="12" t="s">
         <v>403</v>
       </c>
     </row>
@@ -6317,24 +6333,24 @@
       <c r="A129" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="D129" s="7">
+      <c r="D129" s="6">
         <v>3.3</v>
       </c>
-      <c r="E129" s="7">
+      <c r="E129" s="6">
         <v>3.3</v>
       </c>
-      <c r="F129" s="8">
-        <f t="shared" si="3"/>
+      <c r="F129" s="7">
+        <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="13" t="s">
+      <c r="G129" s="8"/>
+      <c r="H129" s="12" t="s">
         <v>406</v>
       </c>
     </row>
@@ -6342,24 +6358,24 @@
       <c r="A130" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D130" s="7">
+      <c r="D130" s="6">
         <v>11.5</v>
       </c>
-      <c r="E130" s="7">
+      <c r="E130" s="6">
         <v>11.5</v>
       </c>
-      <c r="F130" s="8">
-        <f t="shared" si="3"/>
+      <c r="F130" s="7">
+        <f t="shared" si="5"/>
         <v>1150</v>
       </c>
-      <c r="G130" s="9"/>
-      <c r="H130" s="13" t="s">
+      <c r="G130" s="8"/>
+      <c r="H130" s="12" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6367,24 +6383,24 @@
       <c r="A131" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="D131" s="7">
+      <c r="D131" s="6">
         <v>8.1</v>
       </c>
-      <c r="E131" s="7">
+      <c r="E131" s="6">
         <v>8.1</v>
       </c>
-      <c r="F131" s="8">
-        <f t="shared" si="3"/>
+      <c r="F131" s="7">
+        <f t="shared" si="5"/>
         <v>810</v>
       </c>
-      <c r="G131" s="9"/>
-      <c r="H131" s="13" t="s">
+      <c r="G131" s="8"/>
+      <c r="H131" s="12" t="s">
         <v>412</v>
       </c>
     </row>
@@ -6392,24 +6408,24 @@
       <c r="A132" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D132" s="7">
+      <c r="D132" s="6">
         <v>2.6</v>
       </c>
-      <c r="E132" s="7">
+      <c r="E132" s="6">
         <v>2.6</v>
       </c>
-      <c r="F132" s="8">
-        <f t="shared" si="3"/>
+      <c r="F132" s="7">
+        <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="G132" s="9"/>
-      <c r="H132" s="13" t="s">
+      <c r="G132" s="8"/>
+      <c r="H132" s="12" t="s">
         <v>415</v>
       </c>
     </row>
@@ -6417,24 +6433,24 @@
       <c r="A133" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D133" s="7">
+      <c r="D133" s="6">
         <v>9.1</v>
       </c>
-      <c r="E133" s="7">
+      <c r="E133" s="6">
         <v>9.1</v>
       </c>
-      <c r="F133" s="8">
-        <f t="shared" si="3"/>
+      <c r="F133" s="7">
+        <f t="shared" si="5"/>
         <v>910</v>
       </c>
-      <c r="G133" s="9"/>
-      <c r="H133" s="13" t="s">
+      <c r="G133" s="8"/>
+      <c r="H133" s="12" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6442,24 +6458,24 @@
       <c r="A134" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="D134" s="7">
+      <c r="D134" s="6">
         <v>16.5</v>
       </c>
-      <c r="E134" s="7">
+      <c r="E134" s="6">
         <v>16.5</v>
       </c>
-      <c r="F134" s="8">
-        <f t="shared" si="3"/>
+      <c r="F134" s="7">
+        <f t="shared" si="5"/>
         <v>1650</v>
       </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="13" t="s">
+      <c r="G134" s="8"/>
+      <c r="H134" s="12" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6467,24 +6483,24 @@
       <c r="A135" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="D135" s="7">
+      <c r="D135" s="6">
         <v>7.9</v>
       </c>
-      <c r="E135" s="7">
+      <c r="E135" s="6">
         <v>7.9</v>
       </c>
-      <c r="F135" s="8">
-        <f t="shared" si="3"/>
+      <c r="F135" s="7">
+        <f t="shared" si="5"/>
         <v>790</v>
       </c>
-      <c r="G135" s="9"/>
-      <c r="H135" s="13" t="s">
+      <c r="G135" s="8"/>
+      <c r="H135" s="12" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6492,23 +6508,23 @@
       <c r="A136" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D136" s="7">
+      <c r="D136" s="6">
         <v>149</v>
       </c>
-      <c r="E136" s="7">
+      <c r="E136" s="6">
         <v>142</v>
       </c>
-      <c r="F136" s="8">
+      <c r="F136" s="7">
         <v>14200</v>
       </c>
-      <c r="G136" s="9"/>
-      <c r="H136" s="13" t="s">
+      <c r="G136" s="8"/>
+      <c r="H136" s="12" t="s">
         <v>428</v>
       </c>
     </row>
@@ -6516,24 +6532,24 @@
       <c r="A137" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D137" s="11">
+      <c r="D137" s="10">
         <v>289</v>
       </c>
-      <c r="E137" s="11">
+      <c r="E137" s="10">
         <v>279</v>
       </c>
-      <c r="F137" s="8">
+      <c r="F137" s="7">
         <f>E137*100</f>
         <v>27900</v>
       </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="13" t="s">
+      <c r="G137" s="8"/>
+      <c r="H137" s="12" t="s">
         <v>431</v>
       </c>
     </row>
@@ -6541,24 +6557,24 @@
       <c r="A138" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C138" s="6" t="s">
+      <c r="C138" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D138" s="7">
+      <c r="D138" s="6">
         <v>199</v>
       </c>
-      <c r="E138" s="7">
+      <c r="E138" s="6">
         <v>169</v>
       </c>
-      <c r="F138" s="8">
-        <f t="shared" ref="F138:F166" si="4">E138*100</f>
+      <c r="F138" s="7">
+        <f t="shared" ref="F138:F166" si="6">E138*100</f>
         <v>16900</v>
       </c>
-      <c r="G138" s="9"/>
-      <c r="H138" s="13" t="s">
+      <c r="G138" s="8"/>
+      <c r="H138" s="12" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6566,24 +6582,24 @@
       <c r="A139" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D139" s="7">
+      <c r="D139" s="6">
         <v>469</v>
       </c>
-      <c r="E139" s="7">
+      <c r="E139" s="6">
         <v>449</v>
       </c>
-      <c r="F139" s="8">
-        <f t="shared" si="4"/>
+      <c r="F139" s="7">
+        <f t="shared" si="6"/>
         <v>44900</v>
       </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="13" t="s">
+      <c r="G139" s="8"/>
+      <c r="H139" s="12" t="s">
         <v>438</v>
       </c>
     </row>
@@ -6591,24 +6607,24 @@
       <c r="A140" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D140" s="11">
+      <c r="D140" s="10">
         <v>79</v>
       </c>
-      <c r="E140" s="7">
+      <c r="E140" s="6">
         <v>79</v>
       </c>
-      <c r="F140" s="8">
-        <f t="shared" si="4"/>
+      <c r="F140" s="7">
+        <f t="shared" si="6"/>
         <v>7900</v>
       </c>
-      <c r="G140" s="9"/>
-      <c r="H140" s="12" t="s">
+      <c r="G140" s="8"/>
+      <c r="H140" s="11" t="s">
         <v>442</v>
       </c>
     </row>
@@ -6616,24 +6632,24 @@
       <c r="A141" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="D141" s="11">
+      <c r="D141" s="10">
         <v>159</v>
       </c>
-      <c r="E141" s="7">
+      <c r="E141" s="6">
         <v>159</v>
       </c>
-      <c r="F141" s="8">
-        <f t="shared" si="4"/>
+      <c r="F141" s="7">
+        <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G141" s="9"/>
-      <c r="H141" s="12" t="s">
+      <c r="G141" s="8"/>
+      <c r="H141" s="11" t="s">
         <v>445</v>
       </c>
     </row>
@@ -6641,24 +6657,24 @@
       <c r="A142" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="D142" s="11">
+      <c r="D142" s="10">
         <v>159</v>
       </c>
-      <c r="E142" s="7">
+      <c r="E142" s="6">
         <v>159</v>
       </c>
-      <c r="F142" s="8">
-        <f t="shared" si="4"/>
+      <c r="F142" s="7">
+        <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G142" s="9"/>
-      <c r="H142" s="12" t="s">
+      <c r="G142" s="8"/>
+      <c r="H142" s="11" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6666,24 +6682,24 @@
       <c r="A143" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="D143" s="11">
+      <c r="D143" s="10">
         <v>159</v>
       </c>
-      <c r="E143" s="7">
+      <c r="E143" s="6">
         <v>159</v>
       </c>
-      <c r="F143" s="8">
-        <f t="shared" si="4"/>
+      <c r="F143" s="7">
+        <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G143" s="9"/>
-      <c r="H143" s="10" t="s">
+      <c r="G143" s="8"/>
+      <c r="H143" s="9" t="s">
         <v>451</v>
       </c>
     </row>
@@ -6691,24 +6707,24 @@
       <c r="A144" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D144" s="11">
+      <c r="D144" s="10">
         <v>159</v>
       </c>
-      <c r="E144" s="7">
+      <c r="E144" s="6">
         <v>159</v>
       </c>
-      <c r="F144" s="8">
-        <f t="shared" si="4"/>
+      <c r="F144" s="7">
+        <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G144" s="9"/>
-      <c r="H144" s="10" t="s">
+      <c r="G144" s="8"/>
+      <c r="H144" s="9" t="s">
         <v>454</v>
       </c>
     </row>
@@ -6716,24 +6732,24 @@
       <c r="A145" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="D145" s="11">
+      <c r="D145" s="10">
         <v>79</v>
       </c>
-      <c r="E145" s="7">
+      <c r="E145" s="6">
         <v>79</v>
       </c>
-      <c r="F145" s="8">
-        <f t="shared" si="4"/>
+      <c r="F145" s="7">
+        <f t="shared" si="6"/>
         <v>7900</v>
       </c>
-      <c r="G145" s="9"/>
-      <c r="H145" s="10" t="s">
+      <c r="G145" s="8"/>
+      <c r="H145" s="9" t="s">
         <v>457</v>
       </c>
     </row>
@@ -6741,24 +6757,24 @@
       <c r="A146" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="D146" s="11">
+      <c r="D146" s="10">
         <v>79</v>
       </c>
-      <c r="E146" s="7">
+      <c r="E146" s="6">
         <v>79</v>
       </c>
-      <c r="F146" s="8">
-        <f t="shared" si="4"/>
+      <c r="F146" s="7">
+        <f t="shared" si="6"/>
         <v>7900</v>
       </c>
-      <c r="G146" s="9"/>
-      <c r="H146" s="10" t="s">
+      <c r="G146" s="8"/>
+      <c r="H146" s="9" t="s">
         <v>460</v>
       </c>
     </row>
@@ -6766,24 +6782,24 @@
       <c r="A147" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="D147" s="7">
+      <c r="D147" s="6">
         <v>449</v>
       </c>
-      <c r="E147" s="7">
+      <c r="E147" s="6">
         <v>399</v>
       </c>
-      <c r="F147" s="8">
-        <f t="shared" si="4"/>
+      <c r="F147" s="7">
+        <f t="shared" si="6"/>
         <v>39900</v>
       </c>
-      <c r="G147" s="9"/>
-      <c r="H147" s="13" t="s">
+      <c r="G147" s="8"/>
+      <c r="H147" s="12" t="s">
         <v>464</v>
       </c>
     </row>
@@ -6791,24 +6807,24 @@
       <c r="A148" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D148" s="7">
+      <c r="D148" s="6">
         <v>129</v>
       </c>
-      <c r="E148" s="7">
+      <c r="E148" s="6">
         <v>129</v>
       </c>
-      <c r="F148" s="8">
-        <f t="shared" si="4"/>
+      <c r="F148" s="7">
+        <f t="shared" si="6"/>
         <v>12900</v>
       </c>
-      <c r="G148" s="9"/>
-      <c r="H148" s="13" t="s">
+      <c r="G148" s="8"/>
+      <c r="H148" s="12" t="s">
         <v>468</v>
       </c>
     </row>
@@ -6816,24 +6832,24 @@
       <c r="A149" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D149" s="11">
+      <c r="D149" s="10">
         <v>259</v>
       </c>
-      <c r="E149" s="11">
+      <c r="E149" s="10">
         <v>259</v>
       </c>
-      <c r="F149" s="8">
-        <f t="shared" si="4"/>
+      <c r="F149" s="7">
+        <f t="shared" si="6"/>
         <v>25900</v>
       </c>
-      <c r="G149" s="9"/>
-      <c r="H149" s="13" t="s">
+      <c r="G149" s="8"/>
+      <c r="H149" s="12" t="s">
         <v>471</v>
       </c>
     </row>
@@ -6841,24 +6857,24 @@
       <c r="A150" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D150" s="6">
         <v>269</v>
       </c>
-      <c r="E150" s="7">
+      <c r="E150" s="6">
         <v>269</v>
       </c>
-      <c r="F150" s="8">
-        <f t="shared" si="4"/>
+      <c r="F150" s="7">
+        <f t="shared" si="6"/>
         <v>26900</v>
       </c>
-      <c r="G150" s="9"/>
-      <c r="H150" s="13" t="s">
+      <c r="G150" s="8"/>
+      <c r="H150" s="12" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6866,24 +6882,24 @@
       <c r="A151" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="D151" s="7">
+      <c r="D151" s="6">
         <v>1999</v>
       </c>
-      <c r="E151" s="7">
+      <c r="E151" s="6">
         <v>1499</v>
       </c>
-      <c r="F151" s="8">
-        <f t="shared" si="4"/>
+      <c r="F151" s="7">
+        <f t="shared" si="6"/>
         <v>149900</v>
       </c>
-      <c r="G151" s="9"/>
-      <c r="H151" s="13" t="s">
+      <c r="G151" s="8"/>
+      <c r="H151" s="12" t="s">
         <v>478</v>
       </c>
     </row>
@@ -6891,24 +6907,24 @@
       <c r="A152" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D152" s="7">
+      <c r="D152" s="6">
         <v>30</v>
       </c>
-      <c r="E152" s="7">
+      <c r="E152" s="6">
         <v>30</v>
       </c>
-      <c r="F152" s="8">
-        <f t="shared" si="4"/>
+      <c r="F152" s="7">
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="G152" s="9"/>
-      <c r="H152" s="13" t="s">
+      <c r="G152" s="8"/>
+      <c r="H152" s="12" t="s">
         <v>482</v>
       </c>
     </row>
@@ -6916,24 +6932,24 @@
       <c r="A153" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="D153" s="7">
+      <c r="D153" s="6">
         <v>36</v>
       </c>
-      <c r="E153" s="7">
+      <c r="E153" s="6">
         <v>36</v>
       </c>
-      <c r="F153" s="8">
-        <f t="shared" si="4"/>
+      <c r="F153" s="7">
+        <f t="shared" si="6"/>
         <v>3600</v>
       </c>
-      <c r="G153" s="9"/>
-      <c r="H153" s="13" t="s">
+      <c r="G153" s="8"/>
+      <c r="H153" s="12" t="s">
         <v>485</v>
       </c>
     </row>
@@ -6941,24 +6957,24 @@
       <c r="A154" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D154" s="7">
+      <c r="D154" s="6">
         <v>35</v>
       </c>
-      <c r="E154" s="7">
+      <c r="E154" s="6">
         <v>35</v>
       </c>
-      <c r="F154" s="8">
-        <f t="shared" si="4"/>
+      <c r="F154" s="7">
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="13" t="s">
+      <c r="G154" s="8"/>
+      <c r="H154" s="12" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6966,24 +6982,24 @@
       <c r="A155" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="D155" s="7">
+      <c r="D155" s="6">
         <v>35</v>
       </c>
-      <c r="E155" s="7">
+      <c r="E155" s="6">
         <v>35</v>
       </c>
-      <c r="F155" s="8">
-        <f t="shared" si="4"/>
+      <c r="F155" s="7">
+        <f t="shared" si="6"/>
         <v>3500</v>
       </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="13" t="s">
+      <c r="G155" s="8"/>
+      <c r="H155" s="12" t="s">
         <v>488</v>
       </c>
     </row>
@@ -6991,24 +7007,24 @@
       <c r="A156" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D156" s="6">
         <v>15</v>
       </c>
-      <c r="E156" s="7">
+      <c r="E156" s="6">
         <v>15</v>
       </c>
-      <c r="F156" s="8">
-        <f t="shared" si="4"/>
+      <c r="F156" s="7">
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="G156" s="9"/>
-      <c r="H156" s="13" t="s">
+      <c r="G156" s="8"/>
+      <c r="H156" s="12" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7016,24 +7032,24 @@
       <c r="A157" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="D157" s="7">
+      <c r="D157" s="6">
         <v>40</v>
       </c>
-      <c r="E157" s="7">
+      <c r="E157" s="6">
         <v>40</v>
       </c>
-      <c r="F157" s="8">
-        <f t="shared" si="4"/>
+      <c r="F157" s="7">
+        <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="G157" s="9"/>
-      <c r="H157" s="13" t="s">
+      <c r="G157" s="8"/>
+      <c r="H157" s="12" t="s">
         <v>495</v>
       </c>
     </row>
@@ -7041,24 +7057,24 @@
       <c r="A158" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D158" s="7">
+      <c r="D158" s="6">
         <v>50</v>
       </c>
-      <c r="E158" s="7">
+      <c r="E158" s="6">
         <v>50</v>
       </c>
-      <c r="F158" s="8">
-        <f t="shared" si="4"/>
+      <c r="F158" s="7">
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="G158" s="9"/>
-      <c r="H158" s="13" t="s">
+      <c r="G158" s="8"/>
+      <c r="H158" s="12" t="s">
         <v>498</v>
       </c>
     </row>
@@ -7066,24 +7082,24 @@
       <c r="A159" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D159" s="7">
+      <c r="D159" s="6">
         <v>299</v>
       </c>
-      <c r="E159" s="7">
+      <c r="E159" s="6">
         <v>299</v>
       </c>
-      <c r="F159" s="8">
-        <f t="shared" si="4"/>
+      <c r="F159" s="7">
+        <f t="shared" si="6"/>
         <v>29900</v>
       </c>
-      <c r="G159" s="9"/>
-      <c r="H159" s="13" t="s">
+      <c r="G159" s="8"/>
+      <c r="H159" s="12" t="s">
         <v>502</v>
       </c>
     </row>
@@ -7091,24 +7107,24 @@
       <c r="A160" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="D160" s="7">
+      <c r="D160" s="6">
         <v>229</v>
       </c>
-      <c r="E160" s="7">
+      <c r="E160" s="6">
         <v>229</v>
       </c>
-      <c r="F160" s="8">
-        <f t="shared" si="4"/>
+      <c r="F160" s="7">
+        <f t="shared" si="6"/>
         <v>22900</v>
       </c>
-      <c r="G160" s="9"/>
-      <c r="H160" s="13" t="s">
+      <c r="G160" s="8"/>
+      <c r="H160" s="12" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7116,24 +7132,24 @@
       <c r="A161" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D161" s="7">
+      <c r="D161" s="6">
         <v>309</v>
       </c>
-      <c r="E161" s="7">
+      <c r="E161" s="6">
         <v>299</v>
       </c>
-      <c r="F161" s="8">
-        <f t="shared" si="4"/>
+      <c r="F161" s="7">
+        <f t="shared" si="6"/>
         <v>29900</v>
       </c>
-      <c r="G161" s="9"/>
-      <c r="H161" s="13" t="s">
+      <c r="G161" s="8"/>
+      <c r="H161" s="12" t="s">
         <v>509</v>
       </c>
     </row>
@@ -7141,24 +7157,24 @@
       <c r="A162" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D162" s="7">
+      <c r="D162" s="6">
         <v>339</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E162" s="6">
         <v>329</v>
       </c>
-      <c r="F162" s="8">
-        <f t="shared" si="4"/>
+      <c r="F162" s="7">
+        <f t="shared" si="6"/>
         <v>32900</v>
       </c>
-      <c r="G162" s="9"/>
-      <c r="H162" s="13" t="s">
+      <c r="G162" s="8"/>
+      <c r="H162" s="12" t="s">
         <v>512</v>
       </c>
     </row>
@@ -7166,24 +7182,24 @@
       <c r="A163" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D163" s="7">
+      <c r="D163" s="6">
         <v>159</v>
       </c>
-      <c r="E163" s="7">
+      <c r="E163" s="6">
         <v>156</v>
       </c>
-      <c r="F163" s="8">
-        <f t="shared" si="4"/>
+      <c r="F163" s="7">
+        <f t="shared" si="6"/>
         <v>15600</v>
       </c>
-      <c r="G163" s="9"/>
-      <c r="H163" s="13" t="s">
+      <c r="G163" s="8"/>
+      <c r="H163" s="12" t="s">
         <v>515</v>
       </c>
     </row>
@@ -7191,24 +7207,24 @@
       <c r="A164" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="D164" s="7">
+      <c r="D164" s="6">
         <v>159</v>
       </c>
-      <c r="E164" s="7">
+      <c r="E164" s="6">
         <v>156</v>
       </c>
-      <c r="F164" s="8">
-        <f t="shared" si="4"/>
+      <c r="F164" s="7">
+        <f t="shared" si="6"/>
         <v>15600</v>
       </c>
-      <c r="G164" s="9"/>
-      <c r="H164" s="13" t="s">
+      <c r="G164" s="8"/>
+      <c r="H164" s="12" t="s">
         <v>518</v>
       </c>
     </row>
@@ -7216,24 +7232,24 @@
       <c r="A165" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="D165" s="7">
+      <c r="D165" s="6">
         <v>169</v>
       </c>
-      <c r="E165" s="7">
+      <c r="E165" s="6">
         <v>166</v>
       </c>
-      <c r="F165" s="8">
-        <f t="shared" si="4"/>
+      <c r="F165" s="7">
+        <f t="shared" si="6"/>
         <v>16600</v>
       </c>
-      <c r="G165" s="9"/>
-      <c r="H165" s="13" t="s">
+      <c r="G165" s="8"/>
+      <c r="H165" s="12" t="s">
         <v>521</v>
       </c>
     </row>
@@ -7241,25 +7257,25 @@
       <c r="A166" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="D166" s="7">
+      <c r="D166" s="6">
         <v>179</v>
       </c>
-      <c r="E166" s="7">
+      <c r="E166" s="6">
         <v>159</v>
       </c>
-      <c r="F166" s="8">
+      <c r="F166" s="7">
         <v>15900</v>
       </c>
-      <c r="G166" s="9" t="s">
+      <c r="G166" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H166" s="13" t="s">
+      <c r="H166" s="12" t="s">
         <v>525</v>
       </c>
     </row>
@@ -7267,25 +7283,25 @@
       <c r="A167" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D167" s="7">
+      <c r="D167" s="6">
         <v>239</v>
       </c>
-      <c r="E167" s="7">
+      <c r="E167" s="6">
         <v>129</v>
       </c>
-      <c r="F167" s="8">
+      <c r="F167" s="7">
         <v>12900</v>
       </c>
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="H167" s="13" t="s">
+      <c r="H167" s="12" t="s">
         <v>529</v>
       </c>
     </row>
@@ -7293,24 +7309,24 @@
       <c r="A168" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="D168" s="7">
+      <c r="D168" s="6">
         <v>299</v>
       </c>
-      <c r="E168" s="7">
+      <c r="E168" s="6">
         <v>189</v>
       </c>
-      <c r="F168" s="8">
-        <f t="shared" ref="F168:F180" si="5">E168*100</f>
+      <c r="F168" s="7">
+        <f t="shared" ref="F168:F180" si="7">E168*100</f>
         <v>18900</v>
       </c>
-      <c r="G168" s="9"/>
-      <c r="H168" s="13" t="s">
+      <c r="G168" s="8"/>
+      <c r="H168" s="12" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7318,25 +7334,25 @@
       <c r="A169" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="D169" s="7">
+      <c r="D169" s="6">
         <v>299</v>
       </c>
-      <c r="E169" s="7">
+      <c r="E169" s="6">
         <v>259</v>
       </c>
-      <c r="F169" s="8">
+      <c r="F169" s="7">
         <v>25900</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H169" s="13" t="s">
+      <c r="H169" s="12" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7344,25 +7360,25 @@
       <c r="A170" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D170" s="7">
+      <c r="D170" s="6">
         <v>159</v>
       </c>
-      <c r="E170" s="7">
+      <c r="E170" s="6">
         <v>99</v>
       </c>
-      <c r="F170" s="8">
+      <c r="F170" s="7">
         <v>9900</v>
       </c>
-      <c r="G170" s="9" t="s">
+      <c r="G170" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="H170" s="13" t="s">
+      <c r="H170" s="12" t="s">
         <v>538</v>
       </c>
     </row>
@@ -7370,25 +7386,25 @@
       <c r="A171" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="D171" s="7">
+      <c r="D171" s="6">
         <v>449</v>
       </c>
-      <c r="E171" s="7">
+      <c r="E171" s="6">
         <v>299</v>
       </c>
-      <c r="F171" s="8">
+      <c r="F171" s="7">
         <v>29900</v>
       </c>
-      <c r="G171" s="9" t="s">
+      <c r="G171" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="H171" s="13" t="s">
+      <c r="H171" s="12" t="s">
         <v>541</v>
       </c>
     </row>
@@ -7396,24 +7412,24 @@
       <c r="A172" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="D172" s="7">
+      <c r="D172" s="6">
         <v>1299</v>
       </c>
-      <c r="E172" s="7">
+      <c r="E172" s="6">
         <v>879</v>
       </c>
-      <c r="F172" s="8">
-        <f t="shared" si="5"/>
+      <c r="F172" s="7">
+        <f t="shared" si="7"/>
         <v>87900</v>
       </c>
-      <c r="G172" s="9"/>
-      <c r="H172" s="13" t="s">
+      <c r="G172" s="8"/>
+      <c r="H172" s="12" t="s">
         <v>545</v>
       </c>
     </row>
@@ -7421,24 +7437,24 @@
       <c r="A173" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D173" s="7">
+      <c r="D173" s="6">
         <v>1899</v>
       </c>
-      <c r="E173" s="7">
+      <c r="E173" s="6">
         <v>1399</v>
       </c>
-      <c r="F173" s="8">
-        <f t="shared" si="5"/>
+      <c r="F173" s="7">
+        <f t="shared" si="7"/>
         <v>139900</v>
       </c>
-      <c r="G173" s="9"/>
-      <c r="H173" s="13" t="s">
+      <c r="G173" s="8"/>
+      <c r="H173" s="12" t="s">
         <v>548</v>
       </c>
     </row>
@@ -7446,24 +7462,24 @@
       <c r="A174" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="D174" s="7">
+      <c r="D174" s="6">
         <v>1499</v>
       </c>
-      <c r="E174" s="7">
+      <c r="E174" s="6">
         <v>1049</v>
       </c>
-      <c r="F174" s="8">
-        <f t="shared" si="5"/>
+      <c r="F174" s="7">
+        <f t="shared" si="7"/>
         <v>104900</v>
       </c>
-      <c r="G174" s="9"/>
-      <c r="H174" s="13" t="s">
+      <c r="G174" s="8"/>
+      <c r="H174" s="12" t="s">
         <v>551</v>
       </c>
     </row>
@@ -7471,24 +7487,24 @@
       <c r="A175" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="D175" s="7">
+      <c r="D175" s="6">
         <v>499</v>
       </c>
-      <c r="E175" s="7">
+      <c r="E175" s="6">
         <v>499</v>
       </c>
-      <c r="F175" s="8">
-        <f t="shared" si="5"/>
+      <c r="F175" s="7">
+        <f t="shared" si="7"/>
         <v>49900</v>
       </c>
-      <c r="G175" s="9"/>
-      <c r="H175" s="13" t="s">
+      <c r="G175" s="8"/>
+      <c r="H175" s="12" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7496,26 +7512,26 @@
       <c r="A176" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="6">
         <v>699</v>
       </c>
-      <c r="E176" s="7">
+      <c r="E176" s="6">
         <v>499</v>
       </c>
-      <c r="F176" s="8">
-        <f t="shared" si="5"/>
+      <c r="F176" s="7">
+        <f t="shared" si="7"/>
         <v>49900</v>
       </c>
-      <c r="G176" s="9" t="s">
+      <c r="G176" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H176" s="13" t="s">
+      <c r="H176" s="12" t="s">
         <v>559</v>
       </c>
     </row>
@@ -7523,24 +7539,24 @@
       <c r="A177" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="D177" s="7">
+      <c r="D177" s="6">
         <v>299</v>
       </c>
-      <c r="E177" s="7">
+      <c r="E177" s="6">
         <v>269</v>
       </c>
-      <c r="F177" s="8">
-        <f t="shared" si="5"/>
+      <c r="F177" s="7">
+        <f t="shared" si="7"/>
         <v>26900</v>
       </c>
-      <c r="G177" s="9"/>
-      <c r="H177" s="13" t="s">
+      <c r="G177" s="8"/>
+      <c r="H177" s="12" t="s">
         <v>562</v>
       </c>
     </row>
@@ -7548,24 +7564,24 @@
       <c r="A178" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D178" s="7">
+      <c r="D178" s="6">
         <v>246</v>
       </c>
-      <c r="E178" s="7">
+      <c r="E178" s="6">
         <v>209</v>
       </c>
-      <c r="F178" s="8">
-        <f t="shared" si="5"/>
+      <c r="F178" s="7">
+        <f t="shared" si="7"/>
         <v>20900</v>
       </c>
-      <c r="G178" s="9"/>
-      <c r="H178" s="13" t="s">
+      <c r="G178" s="8"/>
+      <c r="H178" s="12" t="s">
         <v>565</v>
       </c>
     </row>
@@ -7573,24 +7589,24 @@
       <c r="A179" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="D179" s="7">
+      <c r="D179" s="6">
         <v>179</v>
       </c>
-      <c r="E179" s="7">
+      <c r="E179" s="6">
         <v>139</v>
       </c>
-      <c r="F179" s="8">
-        <f t="shared" si="5"/>
+      <c r="F179" s="7">
+        <f t="shared" si="7"/>
         <v>13900</v>
       </c>
-      <c r="G179" s="9"/>
-      <c r="H179" s="13" t="s">
+      <c r="G179" s="8"/>
+      <c r="H179" s="12" t="s">
         <v>568</v>
       </c>
     </row>
@@ -7598,26 +7614,26 @@
       <c r="A180" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D180" s="7">
+      <c r="D180" s="6">
         <v>439</v>
       </c>
-      <c r="E180" s="7">
+      <c r="E180" s="6">
         <v>379</v>
       </c>
-      <c r="F180" s="8">
-        <f t="shared" si="5"/>
+      <c r="F180" s="7">
+        <f t="shared" si="7"/>
         <v>37900</v>
       </c>
-      <c r="G180" s="9" t="s">
+      <c r="G180" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="H180" s="13" t="s">
+      <c r="H180" s="12" t="s">
         <v>571</v>
       </c>
     </row>
@@ -7625,26 +7641,52 @@
       <c r="A181" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="D181" s="7">
+      <c r="C181" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D181" s="6">
         <v>599</v>
       </c>
-      <c r="E181" s="7">
+      <c r="E181" s="6">
         <v>419</v>
       </c>
-      <c r="F181" s="8">
+      <c r="F181" s="7">
         <v>41900</v>
       </c>
-      <c r="G181" s="9" t="s">
+      <c r="G181" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="H181" s="13" t="s">
-        <v>573</v>
+      <c r="H181" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="182" ht="15.6" spans="1:8">
+      <c r="A182" s="18" t="s">
+        <v>575</v>
+      </c>
+      <c r="B182" s="18" t="s">
+        <v>576</v>
+      </c>
+      <c r="C182" s="18" t="s">
+        <v>577</v>
+      </c>
+      <c r="D182" s="19">
+        <v>229</v>
+      </c>
+      <c r="E182" s="19">
+        <v>219</v>
+      </c>
+      <c r="F182" s="19">
+        <v>21900</v>
+      </c>
+      <c r="G182" s="20" t="s">
+        <v>578</v>
+      </c>
+      <c r="H182" s="21" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>
@@ -7786,6 +7828,7 @@
     <hyperlink ref="H181" r:id="rId131" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
     <hyperlink ref="H116" r:id="rId132" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
     <hyperlink ref="H156" r:id="rId132" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="H182" r:id="rId133" display="https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="582">
   <si>
     <t>BRAND</t>
   </si>
@@ -842,7 +842,7 @@
     <t>JYO-JVC45V91(P)</t>
   </si>
   <si>
-    <t>Minimalist 304 Vacuum Bottle 450ml Pink</t>
+    <t>Joyoung Minimalist 304 Vacuum Bottle - 450ml Pink</t>
   </si>
   <si>
     <t>https://i.ibb.co/rRL1pmXF/jvc-45v9.png</t>
@@ -851,13 +851,13 @@
     <t>JYO-JVC45V91(W)</t>
   </si>
   <si>
-    <t>Minimalist 304 Vacuum Bottle 450ml White</t>
+    <t>Joyoung Minimalist 304 Vacuum Bottle - 450ml White</t>
   </si>
   <si>
     <t>JYO-JVC49V39(T)</t>
   </si>
   <si>
-    <t>Vacuum Coffee Cup 490ml Tank</t>
+    <t>Joyoung Vacuum Coffee Cup - 490ml Tank</t>
   </si>
   <si>
     <t>https://i.ibb.co/35WTN7ZC/Untitled.png</t>
@@ -866,13 +866,13 @@
     <t>JYO-JVC49V39(U)</t>
   </si>
   <si>
-    <t>Vacuum Coffee Cup 490ml Purple</t>
+    <t>Joyoung Vacuum Coffee Cup - 490ml Purple</t>
   </si>
   <si>
     <t>JYO-JVC80V26(B)</t>
   </si>
   <si>
-    <t>Vacuum Straw Tumbler 800ml Blue</t>
+    <t>Joyoung Vacuum Straw Tumbler - 800ml Blue</t>
   </si>
   <si>
     <t>https://i.imghippo.com/files/jRLt5792sH.webp</t>
@@ -881,7 +881,7 @@
     <t>JYO-JVC80V26(P)</t>
   </si>
   <si>
-    <t>Vacuum Straw Tumbler 800ml Pink</t>
+    <t>Joyoung Vacuum Straw Tumbler - 800ml Pink</t>
   </si>
   <si>
     <t>https://i.imghippo.com/files/Kpdo6122ks.webp</t>
@@ -1040,7 +1040,7 @@
     <t>OXW-CB1085OXBU</t>
   </si>
   <si>
-    <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,BLUE</t>
+    <t>Oxwhite Lyocell Towel - 27x52in, 340g, Blue</t>
   </si>
   <si>
     <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg</t>
@@ -1049,7 +1049,7 @@
     <t>OXW-CB1085OXKH</t>
   </si>
   <si>
-    <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,KHAKI</t>
+    <t>Oxwhite Lyocell Towel - 27x52in, 340g, Khaki</t>
   </si>
   <si>
     <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg</t>
@@ -1058,7 +1058,7 @@
     <t>OXW-CB1085OXPN</t>
   </si>
   <si>
-    <t>OXWHITE TOWEL LYOCELL 27x52IN ,340G,PINK</t>
+    <t>Oxwhite Lyocell Towel - 27x52in, 340g, Pink</t>
   </si>
   <si>
     <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg</t>
@@ -1067,7 +1067,7 @@
     <t>OXW-CB987OXKH</t>
   </si>
   <si>
-    <t>Oxwhite Towel .Heavy cotton .27in x 54in</t>
+    <t>Oxwhite Heavy Cotton Bath Towel - 27in x 54in, Absorbent &amp; Quick-Drying - Khaki</t>
   </si>
   <si>
     <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986</t>
@@ -1076,12 +1076,18 @@
     <t>OXW-CB987OXNB</t>
   </si>
   <si>
+    <t>Oxwhite Heavy Cotton Bath Towel - 27in x 54in, Absorbent &amp; Quick-Drying - Navy Blue</t>
+  </si>
+  <si>
     <t>https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768</t>
   </si>
   <si>
     <t>OXW-CB987OXWH</t>
   </si>
   <si>
+    <t>Oxwhite Heavy Cotton Bath Towel - 27in x 54in, Absorbent &amp; Quick-Drying - White</t>
+  </si>
+  <si>
     <t>https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989</t>
   </si>
   <si>
@@ -1472,7 +1478,7 @@
     <t>SH-C.CULTURE/C</t>
   </si>
   <si>
-    <t>SH CORPORATE CULTURE CHINESE</t>
+    <t>SENHENG CORPORATE CULTURE CHINESE</t>
   </si>
   <si>
     <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
@@ -1481,7 +1487,7 @@
     <t>SH-C.CULTURE/E</t>
   </si>
   <si>
-    <t>SH CORPORATE CULTURE ENGLISH</t>
+    <t>SENHENG CORPORATE CULTURE ENGLISH</t>
   </si>
   <si>
     <t>https://malaysia.kinokuniya.com/products/9789833789290/image_isbn</t>
@@ -1490,7 +1496,7 @@
     <t>SH-DIGITAL.CHINESE</t>
   </si>
   <si>
-    <t>DIGITAL JOURNEY CHINESE BOOK</t>
+    <t>SENHENG DIGITAL JOURNEY BOOK CHINESE</t>
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384</t>
@@ -1499,7 +1505,7 @@
     <t>SH-DIGITAL.JOURNEY</t>
   </si>
   <si>
-    <t>DIGITAL JOURNEY BOOK</t>
+    <t>SENHENG DIGITAL JOURNEY BOOK ENGLISH</t>
   </si>
   <si>
     <t>SH-DZG</t>
@@ -1511,7 +1517,7 @@
     <t>SH-NEWRETAIL.BOOK</t>
   </si>
   <si>
-    <t>SENHENG NEW RETAIL BOOK</t>
+    <t>SENHENG NEW RETAIL BOOK CHINESE</t>
   </si>
   <si>
     <t>https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg</t>
@@ -1520,7 +1526,7 @@
     <t>SH-NEWRETAIL.ENG</t>
   </si>
   <si>
-    <t>NEW RETAIL BOOK ENGLISH</t>
+    <t>SENHENG NEW RETAIL BOOK ENGLISH</t>
   </si>
   <si>
     <t>https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995</t>
@@ -2499,14 +2505,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -3063,8 +3069,8 @@
   <sheetPr/>
   <dimension ref="A1:H182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -5258,7 +5264,7 @@
       <c r="B86" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="16" t="s">
         <v>271</v>
       </c>
       <c r="D86" s="6">
@@ -5283,7 +5289,7 @@
       <c r="B87" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="16" t="s">
         <v>274</v>
       </c>
       <c r="D87" s="6">
@@ -5308,7 +5314,7 @@
       <c r="B88" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="16" t="s">
         <v>276</v>
       </c>
       <c r="D88" s="6">
@@ -5333,7 +5339,7 @@
       <c r="B89" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="16" t="s">
         <v>279</v>
       </c>
       <c r="D89" s="6">
@@ -5358,7 +5364,7 @@
       <c r="B90" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="16" t="s">
         <v>281</v>
       </c>
       <c r="D90" s="6">
@@ -5383,7 +5389,7 @@
       <c r="B91" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="16" t="s">
         <v>284</v>
       </c>
       <c r="D91" s="6">
@@ -5397,7 +5403,7 @@
         <v>9900</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="16" t="s">
+      <c r="H91" s="17" t="s">
         <v>285</v>
       </c>
     </row>
@@ -5693,7 +5699,7 @@
       <c r="D103" s="10">
         <v>106</v>
       </c>
-      <c r="E103" s="17">
+      <c r="E103" s="18">
         <v>104</v>
       </c>
       <c r="F103" s="7">
@@ -5767,7 +5773,7 @@
       <c r="D106" s="10">
         <v>69</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="18">
         <v>69</v>
       </c>
       <c r="F106" s="7">
@@ -5792,7 +5798,7 @@
       <c r="D107" s="10">
         <v>69</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="18">
         <v>69</v>
       </c>
       <c r="F107" s="7">
@@ -5817,7 +5823,7 @@
       <c r="D108" s="10">
         <v>69</v>
       </c>
-      <c r="E108" s="17">
+      <c r="E108" s="18">
         <v>69</v>
       </c>
       <c r="F108" s="7">
@@ -5862,7 +5868,7 @@
         <v>348</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D110" s="6">
         <v>89</v>
@@ -5876,7 +5882,7 @@
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="12" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:8">
@@ -5884,10 +5890,10 @@
         <v>335</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D111" s="6">
         <v>89</v>
@@ -5901,7 +5907,7 @@
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112" ht="15.6" spans="1:8">
@@ -5909,10 +5915,10 @@
         <v>335</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D112" s="6">
         <v>39.9</v>
@@ -5926,18 +5932,18 @@
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="12" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D113" s="6">
         <v>14.4</v>
@@ -5951,18 +5957,18 @@
       </c>
       <c r="G113" s="8"/>
       <c r="H113" s="12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D114" s="6">
         <v>15.5</v>
@@ -5976,18 +5982,18 @@
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="12" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D115" s="6">
         <v>16.9</v>
@@ -6001,18 +6007,18 @@
       </c>
       <c r="G115" s="8"/>
       <c r="H115" s="12" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="116" ht="15.6" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D116" s="6">
         <v>18.9</v>
@@ -6026,18 +6032,18 @@
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D117" s="6">
         <v>9.9</v>
@@ -6051,18 +6057,18 @@
       </c>
       <c r="G117" s="8"/>
       <c r="H117" s="12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D118" s="6">
         <v>18.5</v>
@@ -6076,18 +6082,18 @@
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="12" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D119" s="6">
         <v>11.9</v>
@@ -6101,18 +6107,18 @@
       </c>
       <c r="G119" s="8"/>
       <c r="H119" s="12" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D120" s="6">
         <v>18</v>
@@ -6126,18 +6132,18 @@
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="12" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D121" s="6">
         <v>18.5</v>
@@ -6151,18 +6157,18 @@
       </c>
       <c r="G121" s="8"/>
       <c r="H121" s="12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D122" s="6">
         <v>4.5</v>
@@ -6176,18 +6182,18 @@
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="12" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D123" s="6">
         <v>5.7</v>
@@ -6201,18 +6207,18 @@
       </c>
       <c r="G123" s="8"/>
       <c r="H123" s="12" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D124" s="6">
         <v>3.5</v>
@@ -6226,18 +6232,18 @@
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="12" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D125" s="6">
         <v>8.6</v>
@@ -6251,18 +6257,18 @@
       </c>
       <c r="G125" s="8"/>
       <c r="H125" s="12" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D126" s="6">
         <v>8</v>
@@ -6276,18 +6282,18 @@
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D127" s="6">
         <v>8</v>
@@ -6301,18 +6307,18 @@
       </c>
       <c r="G127" s="8"/>
       <c r="H127" s="12" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D128" s="6">
         <v>8</v>
@@ -6326,18 +6332,18 @@
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="12" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D129" s="6">
         <v>3.3</v>
@@ -6351,18 +6357,18 @@
       </c>
       <c r="G129" s="8"/>
       <c r="H129" s="12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D130" s="6">
         <v>11.5</v>
@@ -6376,18 +6382,18 @@
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="12" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D131" s="6">
         <v>8.1</v>
@@ -6401,18 +6407,18 @@
       </c>
       <c r="G131" s="8"/>
       <c r="H131" s="12" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D132" s="6">
         <v>2.6</v>
@@ -6426,18 +6432,18 @@
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D133" s="6">
         <v>9.1</v>
@@ -6451,18 +6457,18 @@
       </c>
       <c r="G133" s="8"/>
       <c r="H133" s="12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D134" s="6">
         <v>16.5</v>
@@ -6476,18 +6482,18 @@
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="12" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D135" s="6">
         <v>7.9</v>
@@ -6501,18 +6507,18 @@
       </c>
       <c r="G135" s="8"/>
       <c r="H135" s="12" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D136" s="6">
         <v>149</v>
@@ -6525,18 +6531,18 @@
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="12" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" ht="15.6" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D137" s="10">
         <v>289</v>
@@ -6550,18 +6556,18 @@
       </c>
       <c r="G137" s="8"/>
       <c r="H137" s="12" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="D138" s="6">
         <v>199</v>
@@ -6575,18 +6581,18 @@
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="12" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D139" s="6">
         <v>469</v>
@@ -6600,18 +6606,18 @@
       </c>
       <c r="G139" s="8"/>
       <c r="H139" s="12" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="D140" s="10">
         <v>79</v>
@@ -6625,18 +6631,18 @@
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D141" s="10">
         <v>159</v>
@@ -6650,18 +6656,18 @@
       </c>
       <c r="G141" s="8"/>
       <c r="H141" s="11" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D142" s="10">
         <v>159</v>
@@ -6675,18 +6681,18 @@
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="11" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D143" s="10">
         <v>159</v>
@@ -6700,18 +6706,18 @@
       </c>
       <c r="G143" s="8"/>
       <c r="H143" s="9" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D144" s="10">
         <v>159</v>
@@ -6725,18 +6731,18 @@
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="9" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D145" s="10">
         <v>79</v>
@@ -6750,18 +6756,18 @@
       </c>
       <c r="G145" s="8"/>
       <c r="H145" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D146" s="10">
         <v>79</v>
@@ -6775,18 +6781,18 @@
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D147" s="6">
         <v>449</v>
@@ -6800,18 +6806,18 @@
       </c>
       <c r="G147" s="8"/>
       <c r="H147" s="12" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D148" s="6">
         <v>129</v>
@@ -6825,18 +6831,18 @@
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="12" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D149" s="10">
         <v>259</v>
@@ -6850,18 +6856,18 @@
       </c>
       <c r="G149" s="8"/>
       <c r="H149" s="12" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D150" s="6">
         <v>269</v>
@@ -6875,18 +6881,18 @@
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="12" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" ht="15.6" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D151" s="6">
         <v>1999</v>
@@ -6900,18 +6906,18 @@
       </c>
       <c r="G151" s="8"/>
       <c r="H151" s="12" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D152" s="6">
         <v>30</v>
@@ -6925,18 +6931,18 @@
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="12" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" ht="15.6" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D153" s="6">
         <v>36</v>
@@ -6950,18 +6956,18 @@
       </c>
       <c r="G153" s="8"/>
       <c r="H153" s="12" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D154" s="6">
         <v>35</v>
@@ -6975,18 +6981,18 @@
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D155" s="6">
         <v>35</v>
@@ -7000,18 +7006,18 @@
       </c>
       <c r="G155" s="8"/>
       <c r="H155" s="12" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D156" s="6">
         <v>15</v>
@@ -7025,18 +7031,18 @@
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="12" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D157" s="6">
         <v>40</v>
@@ -7050,18 +7056,18 @@
       </c>
       <c r="G157" s="8"/>
       <c r="H157" s="12" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D158" s="6">
         <v>50</v>
@@ -7075,18 +7081,18 @@
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="12" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D159" s="6">
         <v>299</v>
@@ -7100,18 +7106,18 @@
       </c>
       <c r="G159" s="8"/>
       <c r="H159" s="12" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D160" s="6">
         <v>229</v>
@@ -7125,18 +7131,18 @@
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="12" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" ht="15.6" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D161" s="6">
         <v>309</v>
@@ -7150,18 +7156,18 @@
       </c>
       <c r="G161" s="8"/>
       <c r="H161" s="12" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="162" ht="15.6" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D162" s="6">
         <v>339</v>
@@ -7175,18 +7181,18 @@
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="12" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D163" s="6">
         <v>159</v>
@@ -7200,18 +7206,18 @@
       </c>
       <c r="G163" s="8"/>
       <c r="H163" s="12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D164" s="6">
         <v>159</v>
@@ -7225,18 +7231,18 @@
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="12" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D165" s="6">
         <v>169</v>
@@ -7250,18 +7256,18 @@
       </c>
       <c r="G165" s="8"/>
       <c r="H165" s="12" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="166" ht="15.6" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D166" s="6">
         <v>179</v>
@@ -7276,18 +7282,18 @@
         <v>289</v>
       </c>
       <c r="H166" s="12" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D167" s="6">
         <v>239</v>
@@ -7299,21 +7305,21 @@
         <v>12900</v>
       </c>
       <c r="G167" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H167" s="12" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" ht="15.6" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D168" s="6">
         <v>299</v>
@@ -7327,18 +7333,18 @@
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="12" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D169" s="6">
         <v>299</v>
@@ -7353,18 +7359,18 @@
         <v>289</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D170" s="6">
         <v>159</v>
@@ -7376,21 +7382,21 @@
         <v>9900</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D171" s="6">
         <v>449</v>
@@ -7402,21 +7408,21 @@
         <v>29900</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="H171" s="12" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D172" s="6">
         <v>1299</v>
@@ -7430,18 +7436,18 @@
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="12" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="D173" s="6">
         <v>1899</v>
@@ -7455,18 +7461,18 @@
       </c>
       <c r="G173" s="8"/>
       <c r="H173" s="12" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="174" ht="15.6" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="D174" s="6">
         <v>1499</v>
@@ -7480,18 +7486,18 @@
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="12" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="D175" s="6">
         <v>499</v>
@@ -7505,18 +7511,18 @@
       </c>
       <c r="G175" s="8"/>
       <c r="H175" s="12" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="176" ht="15.6" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D176" s="6">
         <v>699</v>
@@ -7532,18 +7538,18 @@
         <v>211</v>
       </c>
       <c r="H176" s="12" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="177" ht="15.6" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D177" s="6">
         <v>299</v>
@@ -7557,18 +7563,18 @@
       </c>
       <c r="G177" s="8"/>
       <c r="H177" s="12" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" ht="15.6" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D178" s="6">
         <v>246</v>
@@ -7582,18 +7588,18 @@
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="12" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="179" ht="15.6" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="D179" s="6">
         <v>179</v>
@@ -7607,18 +7613,18 @@
       </c>
       <c r="G179" s="8"/>
       <c r="H179" s="12" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="180" ht="15.6" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D180" s="6">
         <v>439</v>
@@ -7634,18 +7640,18 @@
         <v>211</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="181" ht="15.6" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D181" s="6">
         <v>599</v>
@@ -7660,18 +7666,18 @@
         <v>289</v>
       </c>
       <c r="H181" s="12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="182" ht="15.6" spans="1:8">
-      <c r="A182" s="18" t="s">
-        <v>575</v>
-      </c>
-      <c r="B182" s="18" t="s">
-        <v>576</v>
-      </c>
-      <c r="C182" s="18" t="s">
+      <c r="A182" s="16" t="s">
         <v>577</v>
+      </c>
+      <c r="B182" s="16" t="s">
+        <v>578</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>579</v>
       </c>
       <c r="D182" s="19">
         <v>229</v>
@@ -7683,10 +7689,10 @@
         <v>21900</v>
       </c>
       <c r="G182" s="20" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="H182" s="21" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="22188" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="586">
   <si>
     <t>BRAND</t>
   </si>
@@ -1773,6 +1773,18 @@
   </si>
   <si>
     <t>https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4</t>
+  </si>
+  <si>
+    <t>SH-JUTEBAG</t>
+  </si>
+  <si>
+    <t>Senheng Jute Bag</t>
+  </si>
+  <si>
+    <t>From 11 Mar Onwards</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Z112m0sJ/jute.png</t>
   </si>
 </sst>
 </file>
@@ -1796,17 +1808,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2456,29 +2468,32 @@
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2487,10 +2502,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2505,7 +2520,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
@@ -2514,7 +2529,13 @@
     <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -3067,10 +3088,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H182"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3080,4619 +3101,4645 @@
     <col min="3" max="3" width="131.444444444444" customWidth="1"/>
     <col min="4" max="5" width="12.8888888888889" customWidth="1"/>
     <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
-    <col min="7" max="7" width="38.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.8888888888889" style="2" customWidth="1"/>
     <col min="8" max="8" width="39.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="7">
         <v>349</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>279</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <f t="shared" ref="F2:F26" si="0">E2*100</f>
         <v>27900</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9" t="s">
+      <c r="G2" s="9"/>
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" ht="15.6" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="11">
         <v>27.9</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="11">
         <v>27.9</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.6" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="11">
         <v>27.9</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="11">
         <v>27.9</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="15.6" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="11">
         <v>87.7</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="11">
         <v>69</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="9"/>
+      <c r="H5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="15.6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="11">
         <v>32.9</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="11">
         <v>23</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" ht="15.6" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>369</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>369</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" ht="15.6" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="7">
         <v>289</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>289</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <f t="shared" si="0"/>
         <v>28900</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="12" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="11">
         <v>99</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>97</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="12" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="7">
         <v>149</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>145</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:8">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>169</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>169</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12" t="s">
+      <c r="G11" s="9"/>
+      <c r="H11" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:8">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>169</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>169</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:8">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>349</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>349</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="8">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="12" t="s">
+      <c r="G13" s="9"/>
+      <c r="H13" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:8">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="7">
         <v>349</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>349</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="8">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12" t="s">
+      <c r="G14" s="9"/>
+      <c r="H14" s="13" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:8">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="7">
         <v>559</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>559</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="12" t="s">
+      <c r="G15" s="9"/>
+      <c r="H15" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="7">
         <v>559</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>559</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="8">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="12" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:8">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>499</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>499</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="8">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:8">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="7">
         <v>499</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>499</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="8">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="12" t="s">
+      <c r="G18" s="9"/>
+      <c r="H18" s="13" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:8">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="7">
         <v>799</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <v>799</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="8">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="12" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:8">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="7">
         <v>799</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>799</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="8">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12" t="s">
+      <c r="G20" s="9"/>
+      <c r="H20" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:8">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>714</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>479</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="8">
         <f t="shared" si="0"/>
         <v>47900</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="12" t="s">
+      <c r="G21" s="9"/>
+      <c r="H21" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" ht="15.6" spans="1:8">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>179</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="7">
         <v>169</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="8">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="12" t="s">
+      <c r="G22" s="9"/>
+      <c r="H22" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="23" ht="15.6" spans="1:8">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <v>79</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="11">
         <v>55</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="8">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="12" t="s">
+      <c r="G23" s="9"/>
+      <c r="H23" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" ht="15.6" spans="1:8">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <v>55</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="11">
         <v>49</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="8">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="12" t="s">
+      <c r="G24" s="9"/>
+      <c r="H24" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25" ht="15.6" spans="1:8">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="11">
         <v>129</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="11">
         <v>125</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="8">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="12" t="s">
+      <c r="G25" s="9"/>
+      <c r="H25" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="26" ht="15.6" spans="1:8">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="7">
         <v>99</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="7">
         <v>93</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F26" s="8">
         <v>9300</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="12" t="s">
+      <c r="G26" s="9"/>
+      <c r="H26" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="27" ht="15.6" spans="1:8">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="7">
         <v>59</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="7">
         <v>49</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="8">
         <f t="shared" ref="F27:F90" si="1">E27*100</f>
         <v>4900</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="9"/>
+      <c r="H27" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" ht="15.6" spans="1:8">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="7">
         <v>59</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="7">
         <v>49</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="8">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="12" t="s">
+      <c r="G28" s="9"/>
+      <c r="H28" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" ht="15.6" spans="1:8">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="7">
         <v>49</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="7">
         <v>39</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="8">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="12" t="s">
+      <c r="G29" s="9"/>
+      <c r="H29" s="13" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:8">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="7">
         <v>89</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="7">
         <v>69</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="8">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="12" t="s">
+      <c r="G30" s="9"/>
+      <c r="H30" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:8">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="7">
         <v>99</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="7">
         <v>79</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="8">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="2" t="s">
+      <c r="G31" s="9"/>
+      <c r="H31" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:8">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="7">
         <v>69</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="7">
         <v>55</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="8">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="2" t="s">
+      <c r="G32" s="9"/>
+      <c r="H32" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:8">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="7">
         <v>499</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="7">
         <v>199</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="8">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="13" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:8">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="11">
         <v>499</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="11">
         <v>199</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="8">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="13" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="1:8">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="7">
         <v>549</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="7">
         <v>199</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="8">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="12" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="13" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="1:8">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="11">
         <v>399</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="11">
         <v>199</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="8">
         <f t="shared" si="1"/>
         <v>19900</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="13" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="1:8">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="7">
         <v>459</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="7">
         <v>169</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="8">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="38" ht="15.6" spans="1:8">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="7">
         <v>459</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="7">
         <v>169</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="8">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="39" ht="15.6" spans="1:8">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="7">
         <v>599</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="7">
         <v>319</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="8">
         <f t="shared" si="1"/>
         <v>31900</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="12" t="s">
+      <c r="G39" s="9"/>
+      <c r="H39" s="13" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="40" ht="15.6" spans="1:8">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="7">
         <v>599</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="7">
         <v>319</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="8">
         <f t="shared" si="1"/>
         <v>31900</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="2" t="s">
+      <c r="G40" s="9"/>
+      <c r="H40" s="3" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:8">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="11">
         <v>439</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="11">
         <v>169</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="8">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G41" s="8" t="s">
+      <c r="G41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="H41" s="3" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="42" ht="15.6" spans="1:8">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="7">
         <v>439</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="7">
         <v>179</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F42" s="8">
         <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="2" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="3" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="43" ht="15.6" spans="1:8">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="11">
         <v>479</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="11">
         <v>189</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="8">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="G43" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H43" s="3" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" ht="15.6" spans="1:8">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="7">
         <v>519</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="7">
         <v>189</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="8">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="H44" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="1:8">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45" s="7">
         <v>519</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="7">
         <v>189</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="8">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="H45" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="46" ht="15.6" spans="1:8">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="11">
         <v>599</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="11">
         <v>189</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="8">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G46" s="8" t="s">
+      <c r="G46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="H46" s="3" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="47" ht="15.6" spans="1:8">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="7">
         <v>639</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="7">
         <v>239</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="8">
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="G47" s="8" t="s">
+      <c r="G47" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="H47" s="3" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="1:8">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="7">
         <v>639</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="7">
         <v>239</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="8">
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="G48" s="8" t="s">
+      <c r="G48" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="H48" s="3" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="49" ht="15.6" spans="1:8">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D49" s="6">
+      <c r="D49" s="7">
         <v>639</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="7">
         <v>239</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="8">
         <f t="shared" si="1"/>
         <v>23900</v>
       </c>
-      <c r="G49" s="8" t="s">
+      <c r="G49" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H49" s="3" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="50" ht="15.6" spans="1:8">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="11">
         <v>669</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="11">
         <v>259</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="8">
         <f t="shared" si="1"/>
         <v>25900</v>
       </c>
-      <c r="G50" s="8" t="s">
+      <c r="G50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="H50" s="3" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="51" ht="15.6" spans="1:8">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D51" s="6">
+      <c r="D51" s="7">
         <v>369</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="7">
         <v>149</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="8">
         <f t="shared" si="1"/>
         <v>14900</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="H51" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="52" ht="15.6" spans="1:8">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="7">
         <v>439</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="7">
         <v>169</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="8">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G52" s="8" t="s">
+      <c r="G52" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="H52" s="3" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="53" ht="15.6" spans="1:8">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="6">
+      <c r="D53" s="7">
         <v>489</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="7">
         <v>189</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="8">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G53" s="8" t="s">
+      <c r="G53" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="3" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="54" ht="15.6" spans="1:8">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="6">
+      <c r="D54" s="7">
         <v>409</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="7">
         <v>159</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="8">
         <f t="shared" si="1"/>
         <v>15900</v>
       </c>
-      <c r="G54" s="8" t="s">
+      <c r="G54" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="3" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="55" ht="15.6" spans="1:8">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="6">
+      <c r="D55" s="7">
         <v>579</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="7">
         <v>219</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="8">
         <f t="shared" si="1"/>
         <v>21900</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="2" t="s">
+      <c r="G55" s="9"/>
+      <c r="H55" s="3" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="56" ht="15.6" spans="1:8">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="7">
         <v>349</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="7">
         <v>149</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="8">
         <f t="shared" si="1"/>
         <v>14900</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="2" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="3" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="1:8">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="11">
         <v>499</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="11">
         <v>189</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="8">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="3" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="1:8">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="11">
         <v>699</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="11">
         <v>319</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="8">
         <f t="shared" si="1"/>
         <v>31900</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="3" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="1:8">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="11">
         <v>949</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="11">
         <v>499</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="8">
         <f t="shared" si="1"/>
         <v>49900</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="3" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="1:8">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="7">
         <v>319</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="7">
         <v>279</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F60" s="8">
         <f t="shared" si="1"/>
         <v>27900</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="2" t="s">
+      <c r="G60" s="9"/>
+      <c r="H60" s="3" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:8">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D61" s="6">
+      <c r="D61" s="7">
         <v>39</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="7">
         <v>39</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F61" s="8">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="11" t="s">
+      <c r="G61" s="9"/>
+      <c r="H61" s="12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="1:8">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="7">
         <v>49</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="7">
         <v>49</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="8">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="11" t="s">
+      <c r="G62" s="9"/>
+      <c r="H62" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="63" ht="15.6" spans="1:8">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="D63" s="6">
+      <c r="D63" s="7">
         <v>29</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="7">
         <v>29</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="8">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="12" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="13" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="64" ht="15.6" spans="1:8">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="11">
         <v>24.9</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="11">
         <v>24.9</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F64" s="8">
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="12" t="s">
+      <c r="G64" s="9"/>
+      <c r="H64" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="1:8">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="11">
         <v>20.9</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="11">
         <v>20.9</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="8">
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="13" t="s">
+      <c r="G65" s="9"/>
+      <c r="H65" s="14" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="66" ht="15.6" spans="1:8">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="7">
         <v>210</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="7">
         <v>115</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="8">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="12" t="s">
+      <c r="G66" s="9"/>
+      <c r="H66" s="13" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="1:8">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D67" s="7">
         <v>162</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="7">
         <v>115</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F67" s="8">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="G67" s="8" t="s">
+      <c r="G67" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H67" s="13" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="68" ht="15.6" spans="1:8">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="7">
         <v>228</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="7">
         <v>200</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="8">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="13" t="s">
+      <c r="G68" s="9"/>
+      <c r="H68" s="14" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="69" ht="15.6" spans="1:8">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D69" s="6">
+      <c r="D69" s="7">
         <v>129</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="7">
         <v>129</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F69" s="8">
         <f t="shared" si="1"/>
         <v>12900</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="13" t="s">
+      <c r="G69" s="9"/>
+      <c r="H69" s="14" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="70" ht="15.6" spans="1:8">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="7">
         <v>99</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="7">
         <v>99</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="8">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="13" t="s">
+      <c r="G70" s="9"/>
+      <c r="H70" s="14" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="71" ht="15.6" spans="1:8">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="11">
         <v>89</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="7">
         <v>89</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="8">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="11" t="s">
+      <c r="G71" s="9"/>
+      <c r="H71" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="72" ht="15.6" spans="1:8">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="11">
         <v>89</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="7">
         <v>89</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="8">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="11" t="s">
+      <c r="G72" s="9"/>
+      <c r="H72" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="73" ht="15.6" spans="1:8">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="11">
         <v>89</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="7">
         <v>89</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="8">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="11" t="s">
+      <c r="G73" s="9"/>
+      <c r="H73" s="12" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:8">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="11">
         <v>89</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="7">
         <v>89</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="8">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="11" t="s">
+      <c r="G74" s="9"/>
+      <c r="H74" s="12" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:8">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="D75" s="6">
+      <c r="D75" s="7">
         <v>799</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="7">
         <v>599</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="8">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="12" t="s">
+      <c r="G75" s="9"/>
+      <c r="H75" s="13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:8">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="7">
         <v>1199</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="7">
         <v>599</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="8">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="12" t="s">
+      <c r="G76" s="9"/>
+      <c r="H76" s="13" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:8">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="D77" s="6">
+      <c r="D77" s="7">
         <v>2099</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="7">
         <v>1199</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="8">
         <f t="shared" si="1"/>
         <v>119900</v>
       </c>
-      <c r="G77" s="8" t="s">
+      <c r="G77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="12" t="s">
+      <c r="H77" s="13" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:8">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D78" s="6">
+      <c r="D78" s="7">
         <v>2699</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="7">
         <v>1699</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="8">
         <f t="shared" si="1"/>
         <v>169900</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="12" t="s">
+      <c r="G78" s="9"/>
+      <c r="H78" s="13" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:8">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D79" s="6">
+      <c r="D79" s="7">
         <v>989</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="7">
         <v>769</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="8">
         <f t="shared" si="1"/>
         <v>76900</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="12" t="s">
+      <c r="G79" s="9"/>
+      <c r="H79" s="13" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="80" ht="15.6" spans="1:8">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="D80" s="6">
+      <c r="D80" s="7">
         <v>119</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="7">
         <v>79</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="8">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="12" t="s">
+      <c r="G80" s="9"/>
+      <c r="H80" s="13" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:8">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="D81" s="6">
+      <c r="D81" s="7">
         <v>119</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="7">
         <v>79</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="8">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="12" t="s">
+      <c r="G81" s="9"/>
+      <c r="H81" s="13" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="82" ht="15.6" spans="1:8">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="D82" s="6">
+      <c r="D82" s="7">
         <v>99</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="7">
         <v>99</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="8">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="12" t="s">
+      <c r="G82" s="9"/>
+      <c r="H82" s="13" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:8">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="11">
         <v>109</v>
       </c>
-      <c r="E83" s="10">
+      <c r="E83" s="11">
         <v>109</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F83" s="8">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="12" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="13" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:8">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="6">
+      <c r="D84" s="7">
         <v>199</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="7">
         <v>169</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="8">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="14" t="s">
+      <c r="G84" s="9"/>
+      <c r="H84" s="15" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:8">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="6">
+      <c r="D85" s="7">
         <v>259</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="7">
         <v>189</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="8">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="15" t="s">
+      <c r="G85" s="9"/>
+      <c r="H85" s="16" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:8">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C86" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86" s="7">
         <v>139</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="7">
         <v>79</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="8">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="11" t="s">
+      <c r="G86" s="9"/>
+      <c r="H86" s="12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="87" ht="15.6" spans="1:8">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="16" t="s">
+      <c r="C87" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="D87" s="6">
+      <c r="D87" s="7">
         <v>139</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="7">
         <v>79</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="8">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="11" t="s">
+      <c r="G87" s="9"/>
+      <c r="H87" s="12" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:8">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C88" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="D88" s="6">
+      <c r="D88" s="7">
         <v>169</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="7">
         <v>99</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="8">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="11" t="s">
+      <c r="G88" s="9"/>
+      <c r="H88" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:8">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="16" t="s">
+      <c r="C89" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="D89" s="6">
+      <c r="D89" s="7">
         <v>169</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="7">
         <v>99</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="8">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="11" t="s">
+      <c r="G89" s="9"/>
+      <c r="H89" s="12" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:8">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C90" s="16" t="s">
+      <c r="C90" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="D90" s="6">
+      <c r="D90" s="7">
         <v>169</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="7">
         <v>99</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="8">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9" t="s">
+      <c r="G90" s="9"/>
+      <c r="H90" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:8">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="D91" s="6">
+      <c r="D91" s="7">
         <v>169</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="7">
         <v>99</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="8">
         <f>E91*100</f>
         <v>9900</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="17" t="s">
+      <c r="G91" s="9"/>
+      <c r="H91" s="18" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:8">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="D92" s="6">
+      <c r="D92" s="7">
         <v>499</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="7">
         <v>309</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="8">
         <v>30900</v>
       </c>
-      <c r="G92" s="8" t="s">
+      <c r="G92" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H92" s="12" t="s">
+      <c r="H92" s="13" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="93" ht="15.6" spans="1:8">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="D93" s="6">
+      <c r="D93" s="7">
         <v>549</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="7">
         <v>399</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="8">
         <v>39900</v>
       </c>
-      <c r="G93" s="8" t="s">
+      <c r="G93" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H93" s="12" t="s">
+      <c r="H93" s="13" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="94" ht="15.6" spans="1:8">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="D94" s="6">
+      <c r="D94" s="7">
         <v>179</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="7">
         <v>177</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="8">
         <f t="shared" ref="F94:F99" si="2">E94*100</f>
         <v>17700</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="12" t="s">
+      <c r="G94" s="9"/>
+      <c r="H94" s="13" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:8">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="11">
         <v>559</v>
       </c>
-      <c r="E95" s="10">
+      <c r="E95" s="11">
         <v>329</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="8">
         <f t="shared" si="2"/>
         <v>32900</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="12" t="s">
+      <c r="G95" s="9"/>
+      <c r="H95" s="13" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="96" ht="15.6" spans="1:8">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="7">
         <v>209</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="7">
         <v>189</v>
       </c>
-      <c r="F96" s="7">
+      <c r="F96" s="8">
         <f t="shared" si="2"/>
         <v>18900</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="12" t="s">
+      <c r="G96" s="9"/>
+      <c r="H96" s="13" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="97" ht="15.6" spans="1:8">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="7">
         <v>135</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="7">
         <v>109</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="8">
         <f t="shared" si="2"/>
         <v>10900</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="12" t="s">
+      <c r="G97" s="9"/>
+      <c r="H97" s="13" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="98" ht="15.6" spans="1:8">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="7">
         <v>239</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="7">
         <v>209</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="8">
         <f t="shared" si="2"/>
         <v>20900</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="12" t="s">
+      <c r="G98" s="9"/>
+      <c r="H98" s="13" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="99" ht="15.6" spans="1:8">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="11">
         <v>119</v>
       </c>
-      <c r="E99" s="10">
+      <c r="E99" s="11">
         <v>99</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="8">
         <f t="shared" si="2"/>
         <v>9900</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="12" t="s">
+      <c r="G99" s="9"/>
+      <c r="H99" s="13" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="100" ht="15.6" spans="1:8">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="7">
         <v>86</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="7">
         <v>84</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="8">
         <v>8400</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G100" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="11" t="s">
+      <c r="H100" s="12" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="101" ht="15.6" spans="1:8">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="7">
         <v>86</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="7">
         <v>84</v>
       </c>
-      <c r="F101" s="7">
+      <c r="F101" s="8">
         <v>8400</v>
       </c>
-      <c r="G101" s="8" t="s">
+      <c r="G101" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H101" s="11" t="s">
+      <c r="H101" s="12" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="102" ht="15.6" spans="1:8">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="7">
         <v>86</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="7">
         <v>84</v>
       </c>
-      <c r="F102" s="7">
+      <c r="F102" s="8">
         <f t="shared" ref="F102:F104" si="3">E102*100</f>
         <v>8400</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="11" t="s">
+      <c r="G102" s="9"/>
+      <c r="H102" s="12" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="103" ht="15.6" spans="1:8">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="11">
         <v>106</v>
       </c>
-      <c r="E103" s="18">
+      <c r="E103" s="19">
         <v>104</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="8">
         <f t="shared" si="3"/>
         <v>10400</v>
       </c>
-      <c r="G103" s="8"/>
-      <c r="H103" s="11" t="s">
+      <c r="G103" s="9"/>
+      <c r="H103" s="12" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="104" ht="15.6" spans="1:8">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="7">
         <v>106</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="7">
         <v>105</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="8">
         <f t="shared" si="3"/>
         <v>10500</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="11" t="s">
+      <c r="G104" s="9"/>
+      <c r="H104" s="12" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="105" ht="15.6" spans="1:8">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="7">
         <v>86</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="7">
         <v>84</v>
       </c>
-      <c r="F105" s="7">
+      <c r="F105" s="8">
         <v>8400</v>
       </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="12" t="s">
+      <c r="G105" s="9"/>
+      <c r="H105" s="13" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="106" ht="15.6" spans="1:8">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="11">
         <v>69</v>
       </c>
-      <c r="E106" s="18">
+      <c r="E106" s="19">
         <v>69</v>
       </c>
-      <c r="F106" s="7">
+      <c r="F106" s="8">
         <f t="shared" ref="F106:F112" si="4">E106*100</f>
         <v>6900</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="12" t="s">
+      <c r="G106" s="9"/>
+      <c r="H106" s="13" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="107" ht="15.6" spans="1:8">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="11">
         <v>69</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="19">
         <v>69</v>
       </c>
-      <c r="F107" s="7">
+      <c r="F107" s="8">
         <f t="shared" si="4"/>
         <v>6900</v>
       </c>
-      <c r="G107" s="8"/>
-      <c r="H107" s="12" t="s">
+      <c r="G107" s="9"/>
+      <c r="H107" s="13" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="108" ht="15.6" spans="1:8">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="11">
         <v>69</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="19">
         <v>69</v>
       </c>
-      <c r="F108" s="7">
+      <c r="F108" s="8">
         <f t="shared" si="4"/>
         <v>6900</v>
       </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="12" t="s">
+      <c r="G108" s="9"/>
+      <c r="H108" s="13" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="109" ht="15.6" spans="1:8">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="7">
         <v>89</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="7">
         <v>89</v>
       </c>
-      <c r="F109" s="7">
+      <c r="F109" s="8">
         <f t="shared" si="4"/>
         <v>8900</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="12" t="s">
+      <c r="G109" s="9"/>
+      <c r="H109" s="13" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:8">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="7">
         <v>89</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="7">
         <v>89</v>
       </c>
-      <c r="F110" s="7">
+      <c r="F110" s="8">
         <f t="shared" si="4"/>
         <v>8900</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="12" t="s">
+      <c r="G110" s="9"/>
+      <c r="H110" s="13" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:8">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D111" s="6">
+      <c r="D111" s="7">
         <v>89</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="7">
         <v>89</v>
       </c>
-      <c r="F111" s="7">
+      <c r="F111" s="8">
         <f t="shared" si="4"/>
         <v>8900</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="12" t="s">
+      <c r="G111" s="9"/>
+      <c r="H111" s="13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="112" ht="15.6" spans="1:8">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D112" s="6">
+      <c r="D112" s="7">
         <v>39.9</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="7">
         <v>39.9</v>
       </c>
-      <c r="F112" s="7">
+      <c r="F112" s="8">
         <f t="shared" si="4"/>
         <v>3990</v>
       </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="12" t="s">
+      <c r="G112" s="9"/>
+      <c r="H112" s="13" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:8">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="D113" s="6">
+      <c r="D113" s="7">
         <v>14.4</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="7">
         <v>14.4</v>
       </c>
-      <c r="F113" s="7">
+      <c r="F113" s="8">
         <f t="shared" ref="F113:F135" si="5">E113*100</f>
         <v>1440</v>
       </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="12" t="s">
+      <c r="G113" s="9"/>
+      <c r="H113" s="13" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:8">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="D114" s="6">
+      <c r="D114" s="7">
         <v>15.5</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="7">
         <v>15.5</v>
       </c>
-      <c r="F114" s="7">
+      <c r="F114" s="8">
         <f t="shared" si="5"/>
         <v>1550</v>
       </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="12" t="s">
+      <c r="G114" s="9"/>
+      <c r="H114" s="13" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:8">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D115" s="6">
+      <c r="D115" s="7">
         <v>16.9</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="7">
         <v>16.9</v>
       </c>
-      <c r="F115" s="7">
+      <c r="F115" s="8">
         <f t="shared" si="5"/>
         <v>1690</v>
       </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="12" t="s">
+      <c r="G115" s="9"/>
+      <c r="H115" s="13" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="116" ht="15.6" spans="1:8">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D116" s="6">
+      <c r="D116" s="7">
         <v>18.9</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="7">
         <v>18.9</v>
       </c>
-      <c r="F116" s="7">
+      <c r="F116" s="8">
         <f t="shared" si="5"/>
         <v>1890</v>
       </c>
-      <c r="G116" s="8"/>
-      <c r="H116" s="12" t="s">
+      <c r="G116" s="9"/>
+      <c r="H116" s="13" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:8">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="D117" s="6">
+      <c r="D117" s="7">
         <v>9.9</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="7">
         <v>9.9</v>
       </c>
-      <c r="F117" s="7">
+      <c r="F117" s="8">
         <f t="shared" si="5"/>
         <v>990</v>
       </c>
-      <c r="G117" s="8"/>
-      <c r="H117" s="12" t="s">
+      <c r="G117" s="9"/>
+      <c r="H117" s="13" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:8">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D118" s="6">
+      <c r="D118" s="7">
         <v>18.5</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="7">
         <v>18.5</v>
       </c>
-      <c r="F118" s="7">
+      <c r="F118" s="8">
         <f t="shared" si="5"/>
         <v>1850</v>
       </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="12" t="s">
+      <c r="G118" s="9"/>
+      <c r="H118" s="13" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:8">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="D119" s="6">
+      <c r="D119" s="7">
         <v>11.9</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="7">
         <v>11.9</v>
       </c>
-      <c r="F119" s="7">
+      <c r="F119" s="8">
         <f t="shared" si="5"/>
         <v>1190</v>
       </c>
-      <c r="G119" s="8"/>
-      <c r="H119" s="12" t="s">
+      <c r="G119" s="9"/>
+      <c r="H119" s="13" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:8">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D120" s="6">
+      <c r="D120" s="7">
         <v>18</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="7">
         <v>18</v>
       </c>
-      <c r="F120" s="7">
+      <c r="F120" s="8">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="12" t="s">
+      <c r="G120" s="9"/>
+      <c r="H120" s="13" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:8">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D121" s="6">
+      <c r="D121" s="7">
         <v>18.5</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="7">
         <v>18.5</v>
       </c>
-      <c r="F121" s="7">
+      <c r="F121" s="8">
         <f t="shared" si="5"/>
         <v>1850</v>
       </c>
-      <c r="G121" s="8"/>
-      <c r="H121" s="12" t="s">
+      <c r="G121" s="9"/>
+      <c r="H121" s="13" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:8">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="D122" s="6">
+      <c r="D122" s="7">
         <v>4.5</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="7">
         <v>4.5</v>
       </c>
-      <c r="F122" s="7">
+      <c r="F122" s="8">
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="12" t="s">
+      <c r="G122" s="9"/>
+      <c r="H122" s="13" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:8">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D123" s="6">
+      <c r="D123" s="7">
         <v>5.7</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="7">
         <v>5.7</v>
       </c>
-      <c r="F123" s="7">
+      <c r="F123" s="8">
         <f t="shared" si="5"/>
         <v>570</v>
       </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="12" t="s">
+      <c r="G123" s="9"/>
+      <c r="H123" s="13" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:8">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="D124" s="6">
+      <c r="D124" s="7">
         <v>3.5</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="7">
         <v>3.5</v>
       </c>
-      <c r="F124" s="7">
+      <c r="F124" s="8">
         <f t="shared" si="5"/>
         <v>350</v>
       </c>
-      <c r="G124" s="8"/>
-      <c r="H124" s="12" t="s">
+      <c r="G124" s="9"/>
+      <c r="H124" s="13" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:8">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="D125" s="6">
+      <c r="D125" s="7">
         <v>8.6</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="7">
         <v>8.6</v>
       </c>
-      <c r="F125" s="7">
+      <c r="F125" s="8">
         <f t="shared" si="5"/>
         <v>860</v>
       </c>
-      <c r="G125" s="8"/>
-      <c r="H125" s="12" t="s">
+      <c r="G125" s="9"/>
+      <c r="H125" s="13" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:8">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="D126" s="6">
+      <c r="D126" s="7">
         <v>8</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="7">
         <v>8</v>
       </c>
-      <c r="F126" s="7">
+      <c r="F126" s="8">
         <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="G126" s="8"/>
-      <c r="H126" s="12" t="s">
+      <c r="G126" s="9"/>
+      <c r="H126" s="13" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:8">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="D127" s="6">
+      <c r="D127" s="7">
         <v>8</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="7">
         <v>8</v>
       </c>
-      <c r="F127" s="7">
+      <c r="F127" s="8">
         <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="G127" s="8"/>
-      <c r="H127" s="12" t="s">
+      <c r="G127" s="9"/>
+      <c r="H127" s="13" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:8">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="D128" s="6">
+      <c r="D128" s="7">
         <v>8</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="7">
         <v>8</v>
       </c>
-      <c r="F128" s="7">
+      <c r="F128" s="8">
         <f t="shared" si="5"/>
         <v>800</v>
       </c>
-      <c r="G128" s="8"/>
-      <c r="H128" s="12" t="s">
+      <c r="G128" s="9"/>
+      <c r="H128" s="13" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:8">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="D129" s="6">
+      <c r="D129" s="7">
         <v>3.3</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="7">
         <v>3.3</v>
       </c>
-      <c r="F129" s="7">
+      <c r="F129" s="8">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="G129" s="8"/>
-      <c r="H129" s="12" t="s">
+      <c r="G129" s="9"/>
+      <c r="H129" s="13" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:8">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D130" s="6">
+      <c r="D130" s="7">
         <v>11.5</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="7">
         <v>11.5</v>
       </c>
-      <c r="F130" s="7">
+      <c r="F130" s="8">
         <f t="shared" si="5"/>
         <v>1150</v>
       </c>
-      <c r="G130" s="8"/>
-      <c r="H130" s="12" t="s">
+      <c r="G130" s="9"/>
+      <c r="H130" s="13" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:8">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="D131" s="6">
+      <c r="D131" s="7">
         <v>8.1</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="7">
         <v>8.1</v>
       </c>
-      <c r="F131" s="7">
+      <c r="F131" s="8">
         <f t="shared" si="5"/>
         <v>810</v>
       </c>
-      <c r="G131" s="8"/>
-      <c r="H131" s="12" t="s">
+      <c r="G131" s="9"/>
+      <c r="H131" s="13" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:8">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D132" s="6">
+      <c r="D132" s="7">
         <v>2.6</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="7">
         <v>2.6</v>
       </c>
-      <c r="F132" s="7">
+      <c r="F132" s="8">
         <f t="shared" si="5"/>
         <v>260</v>
       </c>
-      <c r="G132" s="8"/>
-      <c r="H132" s="12" t="s">
+      <c r="G132" s="9"/>
+      <c r="H132" s="13" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:8">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="D133" s="6">
+      <c r="D133" s="7">
         <v>9.1</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="7">
         <v>9.1</v>
       </c>
-      <c r="F133" s="7">
+      <c r="F133" s="8">
         <f t="shared" si="5"/>
         <v>910</v>
       </c>
-      <c r="G133" s="8"/>
-      <c r="H133" s="12" t="s">
+      <c r="G133" s="9"/>
+      <c r="H133" s="13" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:8">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D134" s="6">
+      <c r="D134" s="7">
         <v>16.5</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="7">
         <v>16.5</v>
       </c>
-      <c r="F134" s="7">
+      <c r="F134" s="8">
         <f t="shared" si="5"/>
         <v>1650</v>
       </c>
-      <c r="G134" s="8"/>
-      <c r="H134" s="12" t="s">
+      <c r="G134" s="9"/>
+      <c r="H134" s="13" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:8">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="D135" s="6">
+      <c r="D135" s="7">
         <v>7.9</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="7">
         <v>7.9</v>
       </c>
-      <c r="F135" s="7">
+      <c r="F135" s="8">
         <f t="shared" si="5"/>
         <v>790</v>
       </c>
-      <c r="G135" s="8"/>
-      <c r="H135" s="12" t="s">
+      <c r="G135" s="9"/>
+      <c r="H135" s="13" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:8">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D136" s="7">
         <v>149</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="7">
         <v>142</v>
       </c>
-      <c r="F136" s="7">
+      <c r="F136" s="8">
         <v>14200</v>
       </c>
-      <c r="G136" s="8"/>
-      <c r="H136" s="12" t="s">
+      <c r="G136" s="9"/>
+      <c r="H136" s="13" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="137" ht="15.6" spans="1:8">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="11">
         <v>289</v>
       </c>
-      <c r="E137" s="10">
+      <c r="E137" s="11">
         <v>279</v>
       </c>
-      <c r="F137" s="7">
+      <c r="F137" s="8">
         <f>E137*100</f>
         <v>27900</v>
       </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="12" t="s">
+      <c r="G137" s="9"/>
+      <c r="H137" s="13" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:8">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D138" s="6">
+      <c r="D138" s="7">
         <v>199</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="7">
         <v>169</v>
       </c>
-      <c r="F138" s="7">
+      <c r="F138" s="8">
         <f t="shared" ref="F138:F166" si="6">E138*100</f>
         <v>16900</v>
       </c>
-      <c r="G138" s="8"/>
-      <c r="H138" s="12" t="s">
+      <c r="G138" s="9"/>
+      <c r="H138" s="13" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:8">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="D139" s="6">
+      <c r="D139" s="7">
         <v>469</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="7">
         <v>449</v>
       </c>
-      <c r="F139" s="7">
+      <c r="F139" s="8">
         <f t="shared" si="6"/>
         <v>44900</v>
       </c>
-      <c r="G139" s="8"/>
-      <c r="H139" s="12" t="s">
+      <c r="G139" s="9"/>
+      <c r="H139" s="13" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:8">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="11">
         <v>79</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="7">
         <v>79</v>
       </c>
-      <c r="F140" s="7">
+      <c r="F140" s="8">
         <f t="shared" si="6"/>
         <v>7900</v>
       </c>
-      <c r="G140" s="8"/>
-      <c r="H140" s="11" t="s">
+      <c r="G140" s="9"/>
+      <c r="H140" s="12" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:8">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="11">
         <v>159</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="7">
         <v>159</v>
       </c>
-      <c r="F141" s="7">
+      <c r="F141" s="8">
         <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G141" s="8"/>
-      <c r="H141" s="11" t="s">
+      <c r="G141" s="9"/>
+      <c r="H141" s="12" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="142" ht="15.6" spans="1:8">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="11">
         <v>159</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="7">
         <v>159</v>
       </c>
-      <c r="F142" s="7">
+      <c r="F142" s="8">
         <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G142" s="8"/>
-      <c r="H142" s="11" t="s">
+      <c r="G142" s="9"/>
+      <c r="H142" s="12" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:8">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="11">
         <v>159</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="7">
         <v>159</v>
       </c>
-      <c r="F143" s="7">
+      <c r="F143" s="8">
         <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G143" s="8"/>
-      <c r="H143" s="9" t="s">
+      <c r="G143" s="9"/>
+      <c r="H143" s="10" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="144" ht="15.6" spans="1:8">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="11">
         <v>159</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="7">
         <v>159</v>
       </c>
-      <c r="F144" s="7">
+      <c r="F144" s="8">
         <f t="shared" si="6"/>
         <v>15900</v>
       </c>
-      <c r="G144" s="8"/>
-      <c r="H144" s="9" t="s">
+      <c r="G144" s="9"/>
+      <c r="H144" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:8">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="11">
         <v>79</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="7">
         <v>79</v>
       </c>
-      <c r="F145" s="7">
+      <c r="F145" s="8">
         <f t="shared" si="6"/>
         <v>7900</v>
       </c>
-      <c r="G145" s="8"/>
-      <c r="H145" s="9" t="s">
+      <c r="G145" s="9"/>
+      <c r="H145" s="10" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:8">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D146" s="10">
+      <c r="D146" s="11">
         <v>79</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="7">
         <v>79</v>
       </c>
-      <c r="F146" s="7">
+      <c r="F146" s="8">
         <f t="shared" si="6"/>
         <v>7900</v>
       </c>
-      <c r="G146" s="8"/>
-      <c r="H146" s="9" t="s">
+      <c r="G146" s="9"/>
+      <c r="H146" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:8">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D147" s="6">
+      <c r="D147" s="7">
         <v>449</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="7">
         <v>399</v>
       </c>
-      <c r="F147" s="7">
+      <c r="F147" s="8">
         <f t="shared" si="6"/>
         <v>39900</v>
       </c>
-      <c r="G147" s="8"/>
-      <c r="H147" s="12" t="s">
+      <c r="G147" s="9"/>
+      <c r="H147" s="13" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:8">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="D148" s="6">
+      <c r="D148" s="7">
         <v>129</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="7">
         <v>129</v>
       </c>
-      <c r="F148" s="7">
+      <c r="F148" s="8">
         <f t="shared" si="6"/>
         <v>12900</v>
       </c>
-      <c r="G148" s="8"/>
-      <c r="H148" s="12" t="s">
+      <c r="G148" s="9"/>
+      <c r="H148" s="13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:8">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="11">
         <v>259</v>
       </c>
-      <c r="E149" s="10">
+      <c r="E149" s="11">
         <v>259</v>
       </c>
-      <c r="F149" s="7">
+      <c r="F149" s="8">
         <f t="shared" si="6"/>
         <v>25900</v>
       </c>
-      <c r="G149" s="8"/>
-      <c r="H149" s="12" t="s">
+      <c r="G149" s="9"/>
+      <c r="H149" s="13" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:8">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="D150" s="6">
+      <c r="D150" s="7">
         <v>269</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="7">
         <v>269</v>
       </c>
-      <c r="F150" s="7">
+      <c r="F150" s="8">
         <f t="shared" si="6"/>
         <v>26900</v>
       </c>
-      <c r="G150" s="8"/>
-      <c r="H150" s="12" t="s">
+      <c r="G150" s="9"/>
+      <c r="H150" s="13" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="151" ht="15.6" spans="1:8">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="D151" s="6">
+      <c r="D151" s="7">
         <v>1999</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="7">
         <v>1499</v>
       </c>
-      <c r="F151" s="7">
+      <c r="F151" s="8">
         <f t="shared" si="6"/>
         <v>149900</v>
       </c>
-      <c r="G151" s="8"/>
-      <c r="H151" s="12" t="s">
+      <c r="G151" s="9"/>
+      <c r="H151" s="13" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:8">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D152" s="6">
+      <c r="D152" s="7">
         <v>30</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="7">
         <v>30</v>
       </c>
-      <c r="F152" s="7">
+      <c r="F152" s="8">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="G152" s="8"/>
-      <c r="H152" s="12" t="s">
+      <c r="G152" s="9"/>
+      <c r="H152" s="13" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="153" ht="15.6" spans="1:8">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="D153" s="6">
+      <c r="D153" s="7">
         <v>36</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="7">
         <v>36</v>
       </c>
-      <c r="F153" s="7">
+      <c r="F153" s="8">
         <f t="shared" si="6"/>
         <v>3600</v>
       </c>
-      <c r="G153" s="8"/>
-      <c r="H153" s="12" t="s">
+      <c r="G153" s="9"/>
+      <c r="H153" s="13" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:8">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D154" s="6">
+      <c r="D154" s="7">
         <v>35</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="7">
         <v>35</v>
       </c>
-      <c r="F154" s="7">
+      <c r="F154" s="8">
         <f t="shared" si="6"/>
         <v>3500</v>
       </c>
-      <c r="G154" s="8"/>
-      <c r="H154" s="12" t="s">
+      <c r="G154" s="9"/>
+      <c r="H154" s="13" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:8">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="D155" s="6">
+      <c r="D155" s="7">
         <v>35</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="7">
         <v>35</v>
       </c>
-      <c r="F155" s="7">
+      <c r="F155" s="8">
         <f t="shared" si="6"/>
         <v>3500</v>
       </c>
-      <c r="G155" s="8"/>
-      <c r="H155" s="12" t="s">
+      <c r="G155" s="9"/>
+      <c r="H155" s="13" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:8">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="D156" s="6">
+      <c r="D156" s="7">
         <v>15</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="7">
         <v>15</v>
       </c>
-      <c r="F156" s="7">
+      <c r="F156" s="8">
         <f t="shared" si="6"/>
         <v>1500</v>
       </c>
-      <c r="G156" s="8"/>
-      <c r="H156" s="12" t="s">
+      <c r="G156" s="9"/>
+      <c r="H156" s="13" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:8">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="D157" s="6">
+      <c r="D157" s="7">
         <v>40</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="7">
         <v>40</v>
       </c>
-      <c r="F157" s="7">
+      <c r="F157" s="8">
         <f t="shared" si="6"/>
         <v>4000</v>
       </c>
-      <c r="G157" s="8"/>
-      <c r="H157" s="12" t="s">
+      <c r="G157" s="9"/>
+      <c r="H157" s="13" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:8">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="D158" s="6">
+      <c r="D158" s="7">
         <v>50</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="7">
         <v>50</v>
       </c>
-      <c r="F158" s="7">
+      <c r="F158" s="8">
         <f t="shared" si="6"/>
         <v>5000</v>
       </c>
-      <c r="G158" s="8"/>
-      <c r="H158" s="12" t="s">
+      <c r="G158" s="9"/>
+      <c r="H158" s="13" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:8">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="D159" s="6">
+      <c r="D159" s="7">
         <v>299</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="7">
         <v>299</v>
       </c>
-      <c r="F159" s="7">
+      <c r="F159" s="8">
         <f t="shared" si="6"/>
         <v>29900</v>
       </c>
-      <c r="G159" s="8"/>
-      <c r="H159" s="12" t="s">
+      <c r="G159" s="9"/>
+      <c r="H159" s="13" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:8">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="D160" s="6">
+      <c r="D160" s="7">
         <v>229</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="7">
         <v>229</v>
       </c>
-      <c r="F160" s="7">
+      <c r="F160" s="8">
         <f t="shared" si="6"/>
         <v>22900</v>
       </c>
-      <c r="G160" s="8"/>
-      <c r="H160" s="12" t="s">
+      <c r="G160" s="9"/>
+      <c r="H160" s="13" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="161" ht="15.6" spans="1:8">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="D161" s="6">
+      <c r="D161" s="7">
         <v>309</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="7">
         <v>299</v>
       </c>
-      <c r="F161" s="7">
+      <c r="F161" s="8">
         <f t="shared" si="6"/>
         <v>29900</v>
       </c>
-      <c r="G161" s="8"/>
-      <c r="H161" s="12" t="s">
+      <c r="G161" s="9"/>
+      <c r="H161" s="13" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="162" ht="15.6" spans="1:8">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D162" s="6">
+      <c r="D162" s="7">
         <v>339</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="7">
         <v>329</v>
       </c>
-      <c r="F162" s="7">
+      <c r="F162" s="8">
         <f t="shared" si="6"/>
         <v>32900</v>
       </c>
-      <c r="G162" s="8"/>
-      <c r="H162" s="12" t="s">
+      <c r="G162" s="9"/>
+      <c r="H162" s="13" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:8">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="6" t="s">
         <v>515</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="D163" s="6">
+      <c r="D163" s="7">
         <v>159</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="7">
         <v>156</v>
       </c>
-      <c r="F163" s="7">
+      <c r="F163" s="8">
         <f t="shared" si="6"/>
         <v>15600</v>
       </c>
-      <c r="G163" s="8"/>
-      <c r="H163" s="12" t="s">
+      <c r="G163" s="9"/>
+      <c r="H163" s="13" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:8">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D164" s="6">
+      <c r="D164" s="7">
         <v>159</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="7">
         <v>156</v>
       </c>
-      <c r="F164" s="7">
+      <c r="F164" s="8">
         <f t="shared" si="6"/>
         <v>15600</v>
       </c>
-      <c r="G164" s="8"/>
-      <c r="H164" s="12" t="s">
+      <c r="G164" s="9"/>
+      <c r="H164" s="13" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:8">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="D165" s="6">
+      <c r="D165" s="7">
         <v>169</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="7">
         <v>166</v>
       </c>
-      <c r="F165" s="7">
+      <c r="F165" s="8">
         <f t="shared" si="6"/>
         <v>16600</v>
       </c>
-      <c r="G165" s="8"/>
-      <c r="H165" s="12" t="s">
+      <c r="G165" s="9"/>
+      <c r="H165" s="13" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="166" ht="15.6" spans="1:8">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="D166" s="6">
+      <c r="D166" s="7">
         <v>179</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="7">
         <v>159</v>
       </c>
-      <c r="F166" s="7">
+      <c r="F166" s="8">
         <v>15900</v>
       </c>
-      <c r="G166" s="8" t="s">
+      <c r="G166" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H166" s="12" t="s">
+      <c r="H166" s="13" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:8">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="6" t="s">
         <v>529</v>
       </c>
-      <c r="D167" s="6">
+      <c r="D167" s="7">
         <v>239</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="7">
         <v>129</v>
       </c>
-      <c r="F167" s="7">
+      <c r="F167" s="8">
         <v>12900</v>
       </c>
-      <c r="G167" s="8" t="s">
+      <c r="G167" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="H167" s="12" t="s">
+      <c r="H167" s="13" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="168" ht="15.6" spans="1:8">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="D168" s="6">
+      <c r="D168" s="7">
         <v>299</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="7">
         <v>189</v>
       </c>
-      <c r="F168" s="7">
+      <c r="F168" s="8">
         <f t="shared" ref="F168:F180" si="7">E168*100</f>
         <v>18900</v>
       </c>
-      <c r="G168" s="8"/>
-      <c r="H168" s="12" t="s">
+      <c r="G168" s="9"/>
+      <c r="H168" s="13" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:8">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="6" t="s">
         <v>535</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="D169" s="6">
+      <c r="D169" s="7">
         <v>299</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="7">
         <v>259</v>
       </c>
-      <c r="F169" s="7">
+      <c r="F169" s="8">
         <v>25900</v>
       </c>
-      <c r="G169" s="8" t="s">
+      <c r="G169" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H169" s="12" t="s">
+      <c r="H169" s="13" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:8">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="D170" s="6">
+      <c r="D170" s="7">
         <v>159</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="7">
         <v>99</v>
       </c>
-      <c r="F170" s="7">
+      <c r="F170" s="8">
         <v>9900</v>
       </c>
-      <c r="G170" s="8" t="s">
+      <c r="G170" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="H170" s="12" t="s">
+      <c r="H170" s="13" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:8">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="D171" s="6">
+      <c r="D171" s="7">
         <v>449</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="7">
         <v>299</v>
       </c>
-      <c r="F171" s="7">
+      <c r="F171" s="8">
         <v>29900</v>
       </c>
-      <c r="G171" s="8" t="s">
+      <c r="G171" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="H171" s="12" t="s">
+      <c r="H171" s="13" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:8">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="6" t="s">
         <v>546</v>
       </c>
-      <c r="D172" s="6">
+      <c r="D172" s="7">
         <v>1299</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="7">
         <v>879</v>
       </c>
-      <c r="F172" s="7">
+      <c r="F172" s="8">
         <f t="shared" si="7"/>
         <v>87900</v>
       </c>
-      <c r="G172" s="8"/>
-      <c r="H172" s="12" t="s">
+      <c r="G172" s="9"/>
+      <c r="H172" s="13" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:8">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C173" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="D173" s="6">
+      <c r="D173" s="7">
         <v>1899</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="7">
         <v>1399</v>
       </c>
-      <c r="F173" s="7">
+      <c r="F173" s="8">
         <f t="shared" si="7"/>
         <v>139900</v>
       </c>
-      <c r="G173" s="8"/>
-      <c r="H173" s="12" t="s">
+      <c r="G173" s="9"/>
+      <c r="H173" s="13" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="174" ht="15.6" spans="1:8">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C174" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="D174" s="6">
+      <c r="D174" s="7">
         <v>1499</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="7">
         <v>1049</v>
       </c>
-      <c r="F174" s="7">
+      <c r="F174" s="8">
         <f t="shared" si="7"/>
         <v>104900</v>
       </c>
-      <c r="G174" s="8"/>
-      <c r="H174" s="12" t="s">
+      <c r="G174" s="9"/>
+      <c r="H174" s="13" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:8">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D175" s="6">
+      <c r="D175" s="7">
         <v>499</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="7">
         <v>499</v>
       </c>
-      <c r="F175" s="7">
+      <c r="F175" s="8">
         <f t="shared" si="7"/>
         <v>49900</v>
       </c>
-      <c r="G175" s="8"/>
-      <c r="H175" s="12" t="s">
+      <c r="G175" s="9"/>
+      <c r="H175" s="13" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="176" ht="15.6" spans="1:8">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="6" t="s">
         <v>560</v>
       </c>
-      <c r="D176" s="6">
+      <c r="D176" s="7">
         <v>699</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="7">
         <v>499</v>
       </c>
-      <c r="F176" s="7">
+      <c r="F176" s="8">
         <f t="shared" si="7"/>
         <v>49900</v>
       </c>
-      <c r="G176" s="8" t="s">
+      <c r="G176" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H176" s="12" t="s">
+      <c r="H176" s="13" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="177" ht="15.6" spans="1:8">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D177" s="6">
+      <c r="D177" s="7">
         <v>299</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="7">
         <v>269</v>
       </c>
-      <c r="F177" s="7">
+      <c r="F177" s="8">
         <f t="shared" si="7"/>
         <v>26900</v>
       </c>
-      <c r="G177" s="8"/>
-      <c r="H177" s="12" t="s">
+      <c r="G177" s="9"/>
+      <c r="H177" s="13" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="178" ht="15.6" spans="1:8">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="D178" s="6">
+      <c r="D178" s="7">
         <v>246</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="7">
         <v>209</v>
       </c>
-      <c r="F178" s="7">
+      <c r="F178" s="8">
         <f t="shared" si="7"/>
         <v>20900</v>
       </c>
-      <c r="G178" s="8"/>
-      <c r="H178" s="12" t="s">
+      <c r="G178" s="9"/>
+      <c r="H178" s="13" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="179" ht="15.6" spans="1:8">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="D179" s="6">
+      <c r="D179" s="7">
         <v>179</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="7">
         <v>139</v>
       </c>
-      <c r="F179" s="7">
+      <c r="F179" s="8">
         <f t="shared" si="7"/>
         <v>13900</v>
       </c>
-      <c r="G179" s="8"/>
-      <c r="H179" s="12" t="s">
+      <c r="G179" s="9"/>
+      <c r="H179" s="13" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="180" ht="15.6" spans="1:8">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C180" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="D180" s="6">
+      <c r="D180" s="7">
         <v>439</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="7">
         <v>379</v>
       </c>
-      <c r="F180" s="7">
+      <c r="F180" s="8">
         <f t="shared" si="7"/>
         <v>37900</v>
       </c>
-      <c r="G180" s="8" t="s">
+      <c r="G180" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H180" s="12" t="s">
+      <c r="H180" s="13" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="181" ht="15.6" spans="1:8">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C181" s="5" t="s">
+      <c r="C181" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D181" s="6">
+      <c r="D181" s="7">
         <v>599</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="7">
         <v>419</v>
       </c>
-      <c r="F181" s="7">
+      <c r="F181" s="8">
         <v>41900</v>
       </c>
-      <c r="G181" s="8" t="s">
+      <c r="G181" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H181" s="12" t="s">
+      <c r="H181" s="13" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="182" ht="15.6" spans="1:8">
-      <c r="A182" s="16" t="s">
+      <c r="A182" s="17" t="s">
         <v>577</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="17" t="s">
         <v>578</v>
       </c>
-      <c r="C182" s="16" t="s">
+      <c r="C182" s="17" t="s">
         <v>579</v>
       </c>
-      <c r="D182" s="19">
+      <c r="D182" s="17">
         <v>229</v>
       </c>
-      <c r="E182" s="19">
+      <c r="E182" s="17">
         <v>219</v>
       </c>
-      <c r="F182" s="19">
+      <c r="F182" s="17">
         <v>21900</v>
       </c>
       <c r="G182" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="H182" s="21" t="s">
+      <c r="H182" s="16" t="s">
         <v>581</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="1" ht="15.6" spans="1:8">
+      <c r="A183" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="B183" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C183" s="22" t="s">
+        <v>583</v>
+      </c>
+      <c r="D183" s="22">
+        <v>15</v>
+      </c>
+      <c r="E183" s="22">
+        <v>15</v>
+      </c>
+      <c r="F183" s="22">
+        <v>1500</v>
+      </c>
+      <c r="G183" s="23" t="s">
+        <v>584</v>
+      </c>
+      <c r="H183" s="24" t="s">
+        <v>585</v>
       </c>
     </row>
   </sheetData>
@@ -7835,6 +7882,7 @@
     <hyperlink ref="H116" r:id="rId132" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
     <hyperlink ref="H156" r:id="rId132" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
     <hyperlink ref="H182" r:id="rId133" display="https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4"/>
+    <hyperlink ref="H183" r:id="rId134" display="https://i.ibb.co/Z112m0sJ/jute.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="611">
   <si>
     <t>BRAND</t>
   </si>
@@ -1785,6 +1785,81 @@
   </si>
   <si>
     <t>https://i.ibb.co/Z112m0sJ/jute.png</t>
+  </si>
+  <si>
+    <t>MTG-ACE2/LVR18OZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTIGO ACE WATER BOTTLE 18OZ (530ml) - Lavender </t>
+  </si>
+  <si>
+    <t>EFFECTIVE 22/03/2025</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646</t>
+  </si>
+  <si>
+    <t>MTG-ACE2/STGR18OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO ACE WATER BOTTLE 18OZ (530ml) - Stone Grey</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953</t>
+  </si>
+  <si>
+    <t>MTG-ACE2/PDBL32OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO ACE WATER BOTTLE 32OZ (950ml) - Caramel Latte</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800</t>
+  </si>
+  <si>
+    <t>MTG-ACE2/SAND32OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO ACE WATER BOTTLE 32OZ (950ml) - Sea Salt Latte</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800</t>
+  </si>
+  <si>
+    <t>MTG-NSC2/FROZEN12OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO SENSE COFFEE CUP 12OZ (340ml) - Frozen</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800</t>
+  </si>
+  <si>
+    <t>MTG-NSC2/STGR12OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO SENSE COFFEE CUP 12OZ (340ml) - Stone Grey</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800</t>
+  </si>
+  <si>
+    <t>MTG-NSC2/TIMBERW12OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO SENSE COFFEE CUP 12OZ (340ml) - Timberwood</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800</t>
+  </si>
+  <si>
+    <t>MTG-KNIGHT2/BLK20OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO KNIGHT'S TUMBLER 20OZ (590ml) - Black</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1874,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1821,27 +1896,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
@@ -2337,16 +2418,13 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2355,120 +2433,123 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2478,71 +2559,68 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="7" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3088,10 +3166,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3105,7 +3183,7 @@
     <col min="8" max="8" width="39.5555555555556" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:8">
+    <row r="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:8">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -3177,11 +3255,11 @@
         <v>2790</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -3202,11 +3280,11 @@
         <v>2790</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3227,11 +3305,11 @@
         <v>6900</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:8">
+    <row r="6" spans="1:8">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -3254,11 +3332,11 @@
       <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:8">
+    <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
@@ -3279,11 +3357,11 @@
         <v>36900</v>
       </c>
       <c r="G7" s="9"/>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:8">
+    <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -3304,11 +3382,11 @@
         <v>28900</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
         <v>26</v>
       </c>
@@ -3329,11 +3407,11 @@
         <v>9700</v>
       </c>
       <c r="G9" s="9"/>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:8">
+    <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
         <v>26</v>
       </c>
@@ -3354,11 +3432,11 @@
         <v>14500</v>
       </c>
       <c r="G10" s="9"/>
-      <c r="H10" s="13" t="s">
+      <c r="H10" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:8">
+    <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -3379,11 +3457,11 @@
         <v>16900</v>
       </c>
       <c r="G11" s="9"/>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="1:8">
+    <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
         <v>26</v>
       </c>
@@ -3404,11 +3482,11 @@
         <v>16900</v>
       </c>
       <c r="G12" s="9"/>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:8">
+    <row r="13" spans="1:8">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -3429,11 +3507,11 @@
         <v>34900</v>
       </c>
       <c r="G13" s="9"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" ht="15.6" spans="1:8">
+    <row r="14" spans="1:8">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
@@ -3454,11 +3532,11 @@
         <v>34900</v>
       </c>
       <c r="G14" s="9"/>
-      <c r="H14" s="13" t="s">
+      <c r="H14" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:8">
+    <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
         <v>26</v>
       </c>
@@ -3479,11 +3557,11 @@
         <v>55900</v>
       </c>
       <c r="G15" s="9"/>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" ht="15.6" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
         <v>26</v>
       </c>
@@ -3504,11 +3582,11 @@
         <v>55900</v>
       </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="13" t="s">
+      <c r="H16" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" ht="15.6" spans="1:8">
+    <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
         <v>26</v>
       </c>
@@ -3529,11 +3607,11 @@
         <v>49900</v>
       </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="12" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" ht="15.6" spans="1:8">
+    <row r="18" spans="1:8">
       <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
@@ -3554,11 +3632,11 @@
         <v>49900</v>
       </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="13" t="s">
+      <c r="H18" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:8">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
@@ -3579,11 +3657,11 @@
         <v>79900</v>
       </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="20" ht="15.6" spans="1:8">
+    <row r="20" spans="1:8">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
@@ -3604,11 +3682,11 @@
         <v>79900</v>
       </c>
       <c r="G20" s="9"/>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="12" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" ht="15.6" spans="1:8">
+    <row r="21" spans="1:8">
       <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
@@ -3629,11 +3707,11 @@
         <v>47900</v>
       </c>
       <c r="G21" s="9"/>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:8">
+    <row r="22" spans="1:8">
       <c r="A22" s="3" t="s">
         <v>73</v>
       </c>
@@ -3654,11 +3732,11 @@
         <v>16900</v>
       </c>
       <c r="G22" s="9"/>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:8">
+    <row r="23" spans="1:8">
       <c r="A23" s="3" t="s">
         <v>73</v>
       </c>
@@ -3679,11 +3757,11 @@
         <v>5500</v>
       </c>
       <c r="G23" s="9"/>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:8">
+    <row r="24" spans="1:8">
       <c r="A24" s="3" t="s">
         <v>73</v>
       </c>
@@ -3704,11 +3782,11 @@
         <v>4900</v>
       </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="25" ht="15.6" spans="1:8">
+    <row r="25" spans="1:8">
       <c r="A25" s="3" t="s">
         <v>73</v>
       </c>
@@ -3729,11 +3807,11 @@
         <v>12500</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="26" ht="15.6" spans="1:8">
+    <row r="26" spans="1:8">
       <c r="A26" s="3" t="s">
         <v>73</v>
       </c>
@@ -3753,11 +3831,11 @@
         <v>9300</v>
       </c>
       <c r="G26" s="9"/>
-      <c r="H26" s="13" t="s">
+      <c r="H26" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" ht="15.6" spans="1:8">
+    <row r="27" spans="1:8">
       <c r="A27" s="3" t="s">
         <v>73</v>
       </c>
@@ -3782,7 +3860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:8">
+    <row r="28" spans="1:8">
       <c r="A28" s="3" t="s">
         <v>73</v>
       </c>
@@ -3803,11 +3881,11 @@
         <v>4900</v>
       </c>
       <c r="G28" s="9"/>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" ht="15.6" spans="1:8">
+    <row r="29" spans="1:8">
       <c r="A29" s="3" t="s">
         <v>73</v>
       </c>
@@ -3828,11 +3906,11 @@
         <v>3900</v>
       </c>
       <c r="G29" s="9"/>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="30" ht="15.6" spans="1:8">
+    <row r="30" spans="1:8">
       <c r="A30" s="3" t="s">
         <v>73</v>
       </c>
@@ -3853,11 +3931,11 @@
         <v>6900</v>
       </c>
       <c r="G30" s="9"/>
-      <c r="H30" s="13" t="s">
+      <c r="H30" s="12" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:8">
+    <row r="31" spans="1:8">
       <c r="A31" s="3" t="s">
         <v>73</v>
       </c>
@@ -3882,7 +3960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" ht="15.6" spans="1:8">
+    <row r="32" spans="1:8">
       <c r="A32" s="3" t="s">
         <v>73</v>
       </c>
@@ -3907,7 +3985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" ht="15.6" spans="1:8">
+    <row r="33" spans="1:8">
       <c r="A33" s="3" t="s">
         <v>105</v>
       </c>
@@ -3930,11 +4008,11 @@
       <c r="G33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="34" ht="15.6" spans="1:8">
+    <row r="34" spans="1:8">
       <c r="A34" s="3" t="s">
         <v>105</v>
       </c>
@@ -3957,11 +4035,11 @@
       <c r="G34" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:8">
+    <row r="35" spans="1:8">
       <c r="A35" s="3" t="s">
         <v>105</v>
       </c>
@@ -3982,11 +4060,11 @@
         <v>19900</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="36" ht="15.6" spans="1:8">
+    <row r="36" spans="1:8">
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
@@ -4009,11 +4087,11 @@
       <c r="G36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="37" ht="15.6" spans="1:8">
+    <row r="37" spans="1:8">
       <c r="A37" s="3" t="s">
         <v>105</v>
       </c>
@@ -4036,11 +4114,11 @@
       <c r="G37" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="13" t="s">
+      <c r="H37" s="12" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="38" ht="15.6" spans="1:8">
+    <row r="38" spans="1:8">
       <c r="A38" s="3" t="s">
         <v>105</v>
       </c>
@@ -4063,11 +4141,11 @@
       <c r="G38" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:8">
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>105</v>
       </c>
@@ -4088,11 +4166,11 @@
         <v>31900</v>
       </c>
       <c r="G39" s="9"/>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" ht="15.6" spans="1:8">
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>105</v>
       </c>
@@ -4117,7 +4195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" ht="15.6" spans="1:8">
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
         <v>105</v>
       </c>
@@ -4144,7 +4222,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="42" ht="15.6" spans="1:8">
+    <row r="42" spans="1:8">
       <c r="A42" s="3" t="s">
         <v>105</v>
       </c>
@@ -4169,7 +4247,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" ht="15.6" spans="1:8">
+    <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>105</v>
       </c>
@@ -4196,7 +4274,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" ht="15.6" spans="1:8">
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
         <v>105</v>
       </c>
@@ -4223,7 +4301,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" ht="15.6" spans="1:8">
+    <row r="45" spans="1:8">
       <c r="A45" s="3" t="s">
         <v>105</v>
       </c>
@@ -4250,7 +4328,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" ht="15.6" spans="1:8">
+    <row r="46" spans="1:8">
       <c r="A46" s="3" t="s">
         <v>105</v>
       </c>
@@ -4277,7 +4355,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="47" ht="15.6" spans="1:8">
+    <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
         <v>105</v>
       </c>
@@ -4304,7 +4382,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" ht="15.6" spans="1:8">
+    <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
         <v>105</v>
       </c>
@@ -4331,7 +4409,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" ht="15.6" spans="1:8">
+    <row r="49" spans="1:8">
       <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
@@ -4358,7 +4436,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" ht="15.6" spans="1:8">
+    <row r="50" spans="1:8">
       <c r="A50" s="3" t="s">
         <v>105</v>
       </c>
@@ -4385,7 +4463,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" ht="15.6" spans="1:8">
+    <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
         <v>105</v>
       </c>
@@ -4412,7 +4490,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="52" ht="15.6" spans="1:8">
+    <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
         <v>105</v>
       </c>
@@ -4439,7 +4517,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="15.6" spans="1:8">
+    <row r="53" spans="1:8">
       <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
@@ -4466,7 +4544,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" ht="15.6" spans="1:8">
+    <row r="54" spans="1:8">
       <c r="A54" s="3" t="s">
         <v>105</v>
       </c>
@@ -4493,7 +4571,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="55" ht="15.6" spans="1:8">
+    <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
         <v>105</v>
       </c>
@@ -4518,7 +4596,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" ht="15.6" spans="1:8">
+    <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
         <v>105</v>
       </c>
@@ -4543,7 +4621,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" ht="15.6" spans="1:8">
+    <row r="57" spans="1:8">
       <c r="A57" s="3" t="s">
         <v>105</v>
       </c>
@@ -4570,7 +4648,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" ht="15.6" spans="1:8">
+    <row r="58" spans="1:8">
       <c r="A58" s="3" t="s">
         <v>105</v>
       </c>
@@ -4597,7 +4675,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="59" ht="15.6" spans="1:8">
+    <row r="59" spans="1:8">
       <c r="A59" s="3" t="s">
         <v>105</v>
       </c>
@@ -4624,7 +4702,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="60" ht="15.6" spans="1:8">
+    <row r="60" spans="1:8">
       <c r="A60" s="3" t="s">
         <v>185</v>
       </c>
@@ -4649,7 +4727,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="61" ht="15.6" spans="1:8">
+    <row r="61" spans="1:8">
       <c r="A61" s="3" t="s">
         <v>189</v>
       </c>
@@ -4670,11 +4748,11 @@
         <v>3900</v>
       </c>
       <c r="G61" s="9"/>
-      <c r="H61" s="12" t="s">
+      <c r="H61" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="62" ht="15.6" spans="1:8">
+    <row r="62" spans="1:8">
       <c r="A62" s="3" t="s">
         <v>189</v>
       </c>
@@ -4695,11 +4773,11 @@
         <v>4900</v>
       </c>
       <c r="G62" s="9"/>
-      <c r="H62" s="12" t="s">
+      <c r="H62" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="63" ht="15.6" spans="1:8">
+    <row r="63" spans="1:8">
       <c r="A63" s="3" t="s">
         <v>189</v>
       </c>
@@ -4720,11 +4798,11 @@
         <v>2900</v>
       </c>
       <c r="G63" s="9"/>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="12" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="64" ht="15.6" spans="1:8">
+    <row r="64" spans="1:8">
       <c r="A64" s="3" t="s">
         <v>189</v>
       </c>
@@ -4745,11 +4823,11 @@
         <v>2490</v>
       </c>
       <c r="G64" s="9"/>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="12" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="65" ht="15.6" spans="1:8">
+    <row r="65" spans="1:8">
       <c r="A65" s="3" t="s">
         <v>189</v>
       </c>
@@ -4770,11 +4848,11 @@
         <v>2090</v>
       </c>
       <c r="G65" s="9"/>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="13" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="66" ht="15.6" spans="1:8">
+    <row r="66" spans="1:8">
       <c r="A66" s="3" t="s">
         <v>205</v>
       </c>
@@ -4795,11 +4873,11 @@
         <v>11500</v>
       </c>
       <c r="G66" s="9"/>
-      <c r="H66" s="13" t="s">
+      <c r="H66" s="12" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="67" ht="15.6" spans="1:8">
+    <row r="67" spans="1:8">
       <c r="A67" s="3" t="s">
         <v>205</v>
       </c>
@@ -4822,11 +4900,11 @@
       <c r="G67" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="12" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="68" ht="15.6" spans="1:8">
+    <row r="68" spans="1:8">
       <c r="A68" s="3" t="s">
         <v>205</v>
       </c>
@@ -4847,11 +4925,11 @@
         <v>20000</v>
       </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="14" t="s">
+      <c r="H68" s="13" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="69" ht="15.6" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="3" t="s">
         <v>216</v>
       </c>
@@ -4872,11 +4950,11 @@
         <v>12900</v>
       </c>
       <c r="G69" s="9"/>
-      <c r="H69" s="14" t="s">
+      <c r="H69" s="13" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="70" ht="15.6" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="3" t="s">
         <v>216</v>
       </c>
@@ -4897,11 +4975,11 @@
         <v>9900</v>
       </c>
       <c r="G70" s="9"/>
-      <c r="H70" s="14" t="s">
+      <c r="H70" s="13" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="71" ht="15.6" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="3" t="s">
         <v>223</v>
       </c>
@@ -4922,11 +5000,11 @@
         <v>8900</v>
       </c>
       <c r="G71" s="9"/>
-      <c r="H71" s="12" t="s">
+      <c r="H71" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" ht="15.6" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="3" t="s">
         <v>223</v>
       </c>
@@ -4947,11 +5025,11 @@
         <v>8900</v>
       </c>
       <c r="G72" s="9"/>
-      <c r="H72" s="12" t="s">
+      <c r="H72" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="73" ht="15.6" spans="1:8">
+    <row r="73" spans="1:8">
       <c r="A73" s="3" t="s">
         <v>223</v>
       </c>
@@ -4972,11 +5050,11 @@
         <v>8900</v>
       </c>
       <c r="G73" s="9"/>
-      <c r="H73" s="12" t="s">
+      <c r="H73" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" ht="15.6" spans="1:8">
+    <row r="74" spans="1:8">
       <c r="A74" s="3" t="s">
         <v>223</v>
       </c>
@@ -4997,11 +5075,11 @@
         <v>8900</v>
       </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="12" t="s">
+      <c r="H74" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" ht="15.6" spans="1:8">
+    <row r="75" spans="1:8">
       <c r="A75" s="3" t="s">
         <v>234</v>
       </c>
@@ -5022,11 +5100,11 @@
         <v>59900</v>
       </c>
       <c r="G75" s="9"/>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="12" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" ht="15.6" spans="1:8">
+    <row r="76" spans="1:8">
       <c r="A76" s="3" t="s">
         <v>234</v>
       </c>
@@ -5047,11 +5125,11 @@
         <v>59900</v>
       </c>
       <c r="G76" s="9"/>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="12" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="77" ht="15.6" spans="1:8">
+    <row r="77" spans="1:8">
       <c r="A77" s="3" t="s">
         <v>234</v>
       </c>
@@ -5074,11 +5152,11 @@
       <c r="G77" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="12" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="78" ht="15.6" spans="1:8">
+    <row r="78" spans="1:8">
       <c r="A78" s="3" t="s">
         <v>234</v>
       </c>
@@ -5099,11 +5177,11 @@
         <v>169900</v>
       </c>
       <c r="G78" s="9"/>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="79" ht="15.6" spans="1:8">
+    <row r="79" spans="1:8">
       <c r="A79" s="3" t="s">
         <v>234</v>
       </c>
@@ -5124,11 +5202,11 @@
         <v>76900</v>
       </c>
       <c r="G79" s="9"/>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="12" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="80" ht="15.6" spans="1:8">
+    <row r="80" spans="1:8">
       <c r="A80" s="3" t="s">
         <v>234</v>
       </c>
@@ -5149,11 +5227,11 @@
         <v>7900</v>
       </c>
       <c r="G80" s="9"/>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="12" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="81" ht="15.6" spans="1:8">
+    <row r="81" spans="1:8">
       <c r="A81" s="3" t="s">
         <v>234</v>
       </c>
@@ -5174,11 +5252,11 @@
         <v>7900</v>
       </c>
       <c r="G81" s="9"/>
-      <c r="H81" s="13" t="s">
+      <c r="H81" s="12" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="82" ht="15.6" spans="1:8">
+    <row r="82" spans="1:8">
       <c r="A82" s="3" t="s">
         <v>256</v>
       </c>
@@ -5199,11 +5277,11 @@
         <v>9900</v>
       </c>
       <c r="G82" s="9"/>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="12" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="83" ht="15.6" spans="1:8">
+    <row r="83" spans="1:8">
       <c r="A83" s="3" t="s">
         <v>256</v>
       </c>
@@ -5224,11 +5302,11 @@
         <v>10900</v>
       </c>
       <c r="G83" s="9"/>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84" ht="15.6" spans="1:8">
+    <row r="84" spans="1:8">
       <c r="A84" s="3" t="s">
         <v>263</v>
       </c>
@@ -5249,11 +5327,11 @@
         <v>16900</v>
       </c>
       <c r="G84" s="9"/>
-      <c r="H84" s="15" t="s">
+      <c r="H84" s="12" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="85" ht="15.6" spans="1:8">
+    <row r="85" spans="1:8">
       <c r="A85" s="3" t="s">
         <v>263</v>
       </c>
@@ -5274,18 +5352,18 @@
         <v>18900</v>
       </c>
       <c r="G85" s="9"/>
-      <c r="H85" s="16" t="s">
+      <c r="H85" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="86" ht="15.6" spans="1:8">
+    <row r="86" spans="1:8">
       <c r="A86" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="15" t="s">
         <v>271</v>
       </c>
       <c r="D86" s="7">
@@ -5299,18 +5377,18 @@
         <v>7900</v>
       </c>
       <c r="G86" s="9"/>
-      <c r="H86" s="12" t="s">
+      <c r="H86" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="87" ht="15.6" spans="1:8">
+    <row r="87" spans="1:8">
       <c r="A87" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="15" t="s">
         <v>274</v>
       </c>
       <c r="D87" s="7">
@@ -5324,18 +5402,18 @@
         <v>7900</v>
       </c>
       <c r="G87" s="9"/>
-      <c r="H87" s="12" t="s">
+      <c r="H87" s="3" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="88" ht="15.6" spans="1:8">
+    <row r="88" spans="1:8">
       <c r="A88" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="15" t="s">
         <v>276</v>
       </c>
       <c r="D88" s="7">
@@ -5349,18 +5427,18 @@
         <v>9900</v>
       </c>
       <c r="G88" s="9"/>
-      <c r="H88" s="12" t="s">
+      <c r="H88" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="89" ht="15.6" spans="1:8">
+    <row r="89" spans="1:8">
       <c r="A89" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="15" t="s">
         <v>279</v>
       </c>
       <c r="D89" s="7">
@@ -5374,18 +5452,18 @@
         <v>9900</v>
       </c>
       <c r="G89" s="9"/>
-      <c r="H89" s="12" t="s">
+      <c r="H89" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="90" ht="15.6" spans="1:8">
+    <row r="90" spans="1:8">
       <c r="A90" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="15" t="s">
         <v>281</v>
       </c>
       <c r="D90" s="7">
@@ -5403,14 +5481,14 @@
         <v>282</v>
       </c>
     </row>
-    <row r="91" ht="15.6" spans="1:8">
+    <row r="91" spans="1:8">
       <c r="A91" s="3" t="s">
         <v>263</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="15" t="s">
         <v>284</v>
       </c>
       <c r="D91" s="7">
@@ -5424,11 +5502,11 @@
         <v>9900</v>
       </c>
       <c r="G91" s="9"/>
-      <c r="H91" s="18" t="s">
+      <c r="H91" s="16" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="92" ht="15.6" spans="1:8">
+    <row r="92" spans="1:8">
       <c r="A92" s="3" t="s">
         <v>286</v>
       </c>
@@ -5450,11 +5528,11 @@
       <c r="G92" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="93" ht="15.6" spans="1:8">
+    <row r="93" spans="1:8">
       <c r="A93" s="3" t="s">
         <v>286</v>
       </c>
@@ -5476,11 +5554,11 @@
       <c r="G93" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="12" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="94" ht="15.6" spans="1:8">
+    <row r="94" spans="1:8">
       <c r="A94" s="3" t="s">
         <v>294</v>
       </c>
@@ -5501,11 +5579,11 @@
         <v>17700</v>
       </c>
       <c r="G94" s="9"/>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="12" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="95" ht="15.6" spans="1:8">
+    <row r="95" spans="1:8">
       <c r="A95" s="3" t="s">
         <v>298</v>
       </c>
@@ -5526,11 +5604,11 @@
         <v>32900</v>
       </c>
       <c r="G95" s="9"/>
-      <c r="H95" s="13" t="s">
+      <c r="H95" s="12" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="96" ht="15.6" spans="1:8">
+    <row r="96" spans="1:8">
       <c r="A96" s="3" t="s">
         <v>302</v>
       </c>
@@ -5551,11 +5629,11 @@
         <v>18900</v>
       </c>
       <c r="G96" s="9"/>
-      <c r="H96" s="13" t="s">
+      <c r="H96" s="12" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="97" ht="15.6" spans="1:8">
+    <row r="97" spans="1:8">
       <c r="A97" s="3" t="s">
         <v>302</v>
       </c>
@@ -5576,11 +5654,11 @@
         <v>10900</v>
       </c>
       <c r="G97" s="9"/>
-      <c r="H97" s="13" t="s">
+      <c r="H97" s="12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="98" ht="15.6" spans="1:8">
+    <row r="98" spans="1:8">
       <c r="A98" s="3" t="s">
         <v>302</v>
       </c>
@@ -5601,11 +5679,11 @@
         <v>20900</v>
       </c>
       <c r="G98" s="9"/>
-      <c r="H98" s="13" t="s">
+      <c r="H98" s="12" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="99" ht="15.6" spans="1:8">
+    <row r="99" spans="1:8">
       <c r="A99" s="3" t="s">
         <v>312</v>
       </c>
@@ -5626,11 +5704,11 @@
         <v>9900</v>
       </c>
       <c r="G99" s="9"/>
-      <c r="H99" s="13" t="s">
+      <c r="H99" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="100" ht="15.6" spans="1:8">
+    <row r="100" spans="1:8">
       <c r="A100" s="3" t="s">
         <v>316</v>
       </c>
@@ -5652,11 +5730,11 @@
       <c r="G100" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H100" s="12" t="s">
+      <c r="H100" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="101" ht="15.6" spans="1:8">
+    <row r="101" spans="1:8">
       <c r="A101" s="3" t="s">
         <v>316</v>
       </c>
@@ -5678,11 +5756,11 @@
       <c r="G101" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H101" s="12" t="s">
+      <c r="H101" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="102" ht="15.6" spans="1:8">
+    <row r="102" spans="1:8">
       <c r="A102" s="3" t="s">
         <v>316</v>
       </c>
@@ -5703,11 +5781,11 @@
         <v>8400</v>
       </c>
       <c r="G102" s="9"/>
-      <c r="H102" s="12" t="s">
+      <c r="H102" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="103" ht="15.6" spans="1:8">
+    <row r="103" spans="1:8">
       <c r="A103" s="3" t="s">
         <v>316</v>
       </c>
@@ -5720,7 +5798,7 @@
       <c r="D103" s="11">
         <v>106</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="17">
         <v>104</v>
       </c>
       <c r="F103" s="8">
@@ -5728,11 +5806,11 @@
         <v>10400</v>
       </c>
       <c r="G103" s="9"/>
-      <c r="H103" s="12" t="s">
+      <c r="H103" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="104" ht="15.6" spans="1:8">
+    <row r="104" spans="1:8">
       <c r="A104" s="3" t="s">
         <v>316</v>
       </c>
@@ -5753,11 +5831,11 @@
         <v>10500</v>
       </c>
       <c r="G104" s="9"/>
-      <c r="H104" s="12" t="s">
+      <c r="H104" s="3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="105" ht="15.6" spans="1:8">
+    <row r="105" spans="1:8">
       <c r="A105" s="3" t="s">
         <v>316</v>
       </c>
@@ -5777,11 +5855,11 @@
         <v>8400</v>
       </c>
       <c r="G105" s="9"/>
-      <c r="H105" s="13" t="s">
+      <c r="H105" s="12" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="106" ht="15.6" spans="1:8">
+    <row r="106" spans="1:8">
       <c r="A106" s="3" t="s">
         <v>335</v>
       </c>
@@ -5794,7 +5872,7 @@
       <c r="D106" s="11">
         <v>69</v>
       </c>
-      <c r="E106" s="19">
+      <c r="E106" s="17">
         <v>69</v>
       </c>
       <c r="F106" s="8">
@@ -5802,11 +5880,11 @@
         <v>6900</v>
       </c>
       <c r="G106" s="9"/>
-      <c r="H106" s="13" t="s">
+      <c r="H106" s="12" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="107" ht="15.6" spans="1:8">
+    <row r="107" spans="1:8">
       <c r="A107" s="3" t="s">
         <v>335</v>
       </c>
@@ -5819,7 +5897,7 @@
       <c r="D107" s="11">
         <v>69</v>
       </c>
-      <c r="E107" s="19">
+      <c r="E107" s="17">
         <v>69</v>
       </c>
       <c r="F107" s="8">
@@ -5827,11 +5905,11 @@
         <v>6900</v>
       </c>
       <c r="G107" s="9"/>
-      <c r="H107" s="13" t="s">
+      <c r="H107" s="12" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="108" ht="15.6" spans="1:8">
+    <row r="108" spans="1:8">
       <c r="A108" s="3" t="s">
         <v>335</v>
       </c>
@@ -5844,7 +5922,7 @@
       <c r="D108" s="11">
         <v>69</v>
       </c>
-      <c r="E108" s="19">
+      <c r="E108" s="17">
         <v>69</v>
       </c>
       <c r="F108" s="8">
@@ -5852,11 +5930,11 @@
         <v>6900</v>
       </c>
       <c r="G108" s="9"/>
-      <c r="H108" s="13" t="s">
+      <c r="H108" s="12" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="109" ht="15.6" spans="1:8">
+    <row r="109" spans="1:8">
       <c r="A109" s="3" t="s">
         <v>335</v>
       </c>
@@ -5877,11 +5955,11 @@
         <v>8900</v>
       </c>
       <c r="G109" s="9"/>
-      <c r="H109" s="13" t="s">
+      <c r="H109" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="110" ht="15.6" spans="1:8">
+    <row r="110" spans="1:8">
       <c r="A110" s="3" t="s">
         <v>335</v>
       </c>
@@ -5902,11 +5980,11 @@
         <v>8900</v>
       </c>
       <c r="G110" s="9"/>
-      <c r="H110" s="13" t="s">
+      <c r="H110" s="12" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="111" ht="15.6" spans="1:8">
+    <row r="111" spans="1:8">
       <c r="A111" s="3" t="s">
         <v>335</v>
       </c>
@@ -5927,11 +6005,11 @@
         <v>8900</v>
       </c>
       <c r="G111" s="9"/>
-      <c r="H111" s="13" t="s">
+      <c r="H111" s="12" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="112" ht="15.6" spans="1:8">
+    <row r="112" spans="1:8">
       <c r="A112" s="3" t="s">
         <v>335</v>
       </c>
@@ -5952,11 +6030,11 @@
         <v>3990</v>
       </c>
       <c r="G112" s="9"/>
-      <c r="H112" s="13" t="s">
+      <c r="H112" s="12" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="113" ht="15.6" spans="1:8">
+    <row r="113" spans="1:8">
       <c r="A113" s="3" t="s">
         <v>357</v>
       </c>
@@ -5977,11 +6055,11 @@
         <v>1440</v>
       </c>
       <c r="G113" s="9"/>
-      <c r="H113" s="13" t="s">
+      <c r="H113" s="12" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="114" ht="15.6" spans="1:8">
+    <row r="114" spans="1:8">
       <c r="A114" s="3" t="s">
         <v>357</v>
       </c>
@@ -6002,11 +6080,11 @@
         <v>1550</v>
       </c>
       <c r="G114" s="9"/>
-      <c r="H114" s="13" t="s">
+      <c r="H114" s="12" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="115" ht="15.6" spans="1:8">
+    <row r="115" spans="1:8">
       <c r="A115" s="3" t="s">
         <v>357</v>
       </c>
@@ -6027,11 +6105,11 @@
         <v>1690</v>
       </c>
       <c r="G115" s="9"/>
-      <c r="H115" s="13" t="s">
+      <c r="H115" s="12" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="116" ht="15.6" spans="1:8">
+    <row r="116" spans="1:8">
       <c r="A116" s="3" t="s">
         <v>357</v>
       </c>
@@ -6052,11 +6130,11 @@
         <v>1890</v>
       </c>
       <c r="G116" s="9"/>
-      <c r="H116" s="13" t="s">
+      <c r="H116" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="117" ht="15.6" spans="1:8">
+    <row r="117" spans="1:8">
       <c r="A117" s="3" t="s">
         <v>357</v>
       </c>
@@ -6077,11 +6155,11 @@
         <v>990</v>
       </c>
       <c r="G117" s="9"/>
-      <c r="H117" s="13" t="s">
+      <c r="H117" s="12" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="118" ht="15.6" spans="1:8">
+    <row r="118" spans="1:8">
       <c r="A118" s="3" t="s">
         <v>357</v>
       </c>
@@ -6102,11 +6180,11 @@
         <v>1850</v>
       </c>
       <c r="G118" s="9"/>
-      <c r="H118" s="13" t="s">
+      <c r="H118" s="12" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="119" ht="15.6" spans="1:8">
+    <row r="119" spans="1:8">
       <c r="A119" s="3" t="s">
         <v>357</v>
       </c>
@@ -6127,11 +6205,11 @@
         <v>1190</v>
       </c>
       <c r="G119" s="9"/>
-      <c r="H119" s="13" t="s">
+      <c r="H119" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="120" ht="15.6" spans="1:8">
+    <row r="120" spans="1:8">
       <c r="A120" s="3" t="s">
         <v>357</v>
       </c>
@@ -6152,11 +6230,11 @@
         <v>1800</v>
       </c>
       <c r="G120" s="9"/>
-      <c r="H120" s="13" t="s">
+      <c r="H120" s="12" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="121" ht="15.6" spans="1:8">
+    <row r="121" spans="1:8">
       <c r="A121" s="3" t="s">
         <v>357</v>
       </c>
@@ -6177,11 +6255,11 @@
         <v>1850</v>
       </c>
       <c r="G121" s="9"/>
-      <c r="H121" s="13" t="s">
+      <c r="H121" s="12" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="122" ht="15.6" spans="1:8">
+    <row r="122" spans="1:8">
       <c r="A122" s="3" t="s">
         <v>357</v>
       </c>
@@ -6202,11 +6280,11 @@
         <v>450</v>
       </c>
       <c r="G122" s="9"/>
-      <c r="H122" s="13" t="s">
+      <c r="H122" s="12" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="123" ht="15.6" spans="1:8">
+    <row r="123" spans="1:8">
       <c r="A123" s="3" t="s">
         <v>357</v>
       </c>
@@ -6227,11 +6305,11 @@
         <v>570</v>
       </c>
       <c r="G123" s="9"/>
-      <c r="H123" s="13" t="s">
+      <c r="H123" s="12" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="124" ht="15.6" spans="1:8">
+    <row r="124" spans="1:8">
       <c r="A124" s="3" t="s">
         <v>357</v>
       </c>
@@ -6252,11 +6330,11 @@
         <v>350</v>
       </c>
       <c r="G124" s="9"/>
-      <c r="H124" s="13" t="s">
+      <c r="H124" s="12" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="125" ht="15.6" spans="1:8">
+    <row r="125" spans="1:8">
       <c r="A125" s="3" t="s">
         <v>357</v>
       </c>
@@ -6277,11 +6355,11 @@
         <v>860</v>
       </c>
       <c r="G125" s="9"/>
-      <c r="H125" s="13" t="s">
+      <c r="H125" s="12" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="126" ht="15.6" spans="1:8">
+    <row r="126" spans="1:8">
       <c r="A126" s="3" t="s">
         <v>357</v>
       </c>
@@ -6302,11 +6380,11 @@
         <v>800</v>
       </c>
       <c r="G126" s="9"/>
-      <c r="H126" s="13" t="s">
+      <c r="H126" s="12" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="127" ht="15.6" spans="1:8">
+    <row r="127" spans="1:8">
       <c r="A127" s="3" t="s">
         <v>357</v>
       </c>
@@ -6327,11 +6405,11 @@
         <v>800</v>
       </c>
       <c r="G127" s="9"/>
-      <c r="H127" s="13" t="s">
+      <c r="H127" s="12" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="128" ht="15.6" spans="1:8">
+    <row r="128" spans="1:8">
       <c r="A128" s="3" t="s">
         <v>357</v>
       </c>
@@ -6352,11 +6430,11 @@
         <v>800</v>
       </c>
       <c r="G128" s="9"/>
-      <c r="H128" s="13" t="s">
+      <c r="H128" s="12" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="129" ht="15.6" spans="1:8">
+    <row r="129" spans="1:8">
       <c r="A129" s="3" t="s">
         <v>357</v>
       </c>
@@ -6377,11 +6455,11 @@
         <v>330</v>
       </c>
       <c r="G129" s="9"/>
-      <c r="H129" s="13" t="s">
+      <c r="H129" s="12" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="130" ht="15.6" spans="1:8">
+    <row r="130" spans="1:8">
       <c r="A130" s="3" t="s">
         <v>357</v>
       </c>
@@ -6402,11 +6480,11 @@
         <v>1150</v>
       </c>
       <c r="G130" s="9"/>
-      <c r="H130" s="13" t="s">
+      <c r="H130" s="12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="131" ht="15.6" spans="1:8">
+    <row r="131" spans="1:8">
       <c r="A131" s="3" t="s">
         <v>357</v>
       </c>
@@ -6427,11 +6505,11 @@
         <v>810</v>
       </c>
       <c r="G131" s="9"/>
-      <c r="H131" s="13" t="s">
+      <c r="H131" s="12" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="132" ht="15.6" spans="1:8">
+    <row r="132" spans="1:8">
       <c r="A132" s="3" t="s">
         <v>357</v>
       </c>
@@ -6452,11 +6530,11 @@
         <v>260</v>
       </c>
       <c r="G132" s="9"/>
-      <c r="H132" s="13" t="s">
+      <c r="H132" s="12" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="133" ht="15.6" spans="1:8">
+    <row r="133" spans="1:8">
       <c r="A133" s="3" t="s">
         <v>357</v>
       </c>
@@ -6477,11 +6555,11 @@
         <v>910</v>
       </c>
       <c r="G133" s="9"/>
-      <c r="H133" s="13" t="s">
+      <c r="H133" s="12" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="134" ht="15.6" spans="1:8">
+    <row r="134" spans="1:8">
       <c r="A134" s="3" t="s">
         <v>357</v>
       </c>
@@ -6502,11 +6580,11 @@
         <v>1650</v>
       </c>
       <c r="G134" s="9"/>
-      <c r="H134" s="13" t="s">
+      <c r="H134" s="12" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="135" ht="15.6" spans="1:8">
+    <row r="135" spans="1:8">
       <c r="A135" s="3" t="s">
         <v>357</v>
       </c>
@@ -6527,11 +6605,11 @@
         <v>790</v>
       </c>
       <c r="G135" s="9"/>
-      <c r="H135" s="13" t="s">
+      <c r="H135" s="12" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="136" ht="15.6" spans="1:8">
+    <row r="136" spans="1:8">
       <c r="A136" s="3" t="s">
         <v>427</v>
       </c>
@@ -6551,11 +6629,11 @@
         <v>14200</v>
       </c>
       <c r="G136" s="9"/>
-      <c r="H136" s="13" t="s">
+      <c r="H136" s="12" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="137" ht="15.6" spans="1:8">
+    <row r="137" spans="1:8">
       <c r="A137" s="3" t="s">
         <v>427</v>
       </c>
@@ -6576,11 +6654,11 @@
         <v>27900</v>
       </c>
       <c r="G137" s="9"/>
-      <c r="H137" s="13" t="s">
+      <c r="H137" s="12" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="138" ht="15.6" spans="1:8">
+    <row r="138" spans="1:8">
       <c r="A138" s="3" t="s">
         <v>427</v>
       </c>
@@ -6601,11 +6679,11 @@
         <v>16900</v>
       </c>
       <c r="G138" s="9"/>
-      <c r="H138" s="13" t="s">
+      <c r="H138" s="12" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="139" ht="15.6" spans="1:8">
+    <row r="139" spans="1:8">
       <c r="A139" s="3" t="s">
         <v>437</v>
       </c>
@@ -6626,11 +6704,11 @@
         <v>44900</v>
       </c>
       <c r="G139" s="9"/>
-      <c r="H139" s="13" t="s">
+      <c r="H139" s="12" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="140" ht="15.6" spans="1:8">
+    <row r="140" spans="1:8">
       <c r="A140" s="3" t="s">
         <v>441</v>
       </c>
@@ -6651,11 +6729,11 @@
         <v>7900</v>
       </c>
       <c r="G140" s="9"/>
-      <c r="H140" s="12" t="s">
+      <c r="H140" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="141" ht="15.6" spans="1:8">
+    <row r="141" spans="1:8">
       <c r="A141" s="3" t="s">
         <v>441</v>
       </c>
@@ -6676,11 +6754,11 @@
         <v>15900</v>
       </c>
       <c r="G141" s="9"/>
-      <c r="H141" s="12" t="s">
+      <c r="H141" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="142" ht="15.6" spans="1:8">
+    <row r="142" spans="1:8">
       <c r="A142" s="3" t="s">
         <v>441</v>
       </c>
@@ -6701,11 +6779,11 @@
         <v>15900</v>
       </c>
       <c r="G142" s="9"/>
-      <c r="H142" s="12" t="s">
+      <c r="H142" s="3" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="143" ht="15.6" spans="1:8">
+    <row r="143" spans="1:8">
       <c r="A143" s="3" t="s">
         <v>441</v>
       </c>
@@ -6730,7 +6808,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="144" ht="15.6" spans="1:8">
+    <row r="144" spans="1:8">
       <c r="A144" s="3" t="s">
         <v>441</v>
       </c>
@@ -6755,7 +6833,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="145" ht="15.6" spans="1:8">
+    <row r="145" spans="1:8">
       <c r="A145" s="3" t="s">
         <v>441</v>
       </c>
@@ -6780,7 +6858,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="146" ht="15.6" spans="1:8">
+    <row r="146" spans="1:8">
       <c r="A146" s="3" t="s">
         <v>441</v>
       </c>
@@ -6805,7 +6883,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="147" ht="15.6" spans="1:8">
+    <row r="147" spans="1:8">
       <c r="A147" s="3" t="s">
         <v>463</v>
       </c>
@@ -6826,11 +6904,11 @@
         <v>39900</v>
       </c>
       <c r="G147" s="9"/>
-      <c r="H147" s="13" t="s">
+      <c r="H147" s="12" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="148" ht="15.6" spans="1:8">
+    <row r="148" spans="1:8">
       <c r="A148" s="3" t="s">
         <v>467</v>
       </c>
@@ -6851,11 +6929,11 @@
         <v>12900</v>
       </c>
       <c r="G148" s="9"/>
-      <c r="H148" s="13" t="s">
+      <c r="H148" s="12" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="149" ht="15.6" spans="1:8">
+    <row r="149" spans="1:8">
       <c r="A149" s="3" t="s">
         <v>467</v>
       </c>
@@ -6876,11 +6954,11 @@
         <v>25900</v>
       </c>
       <c r="G149" s="9"/>
-      <c r="H149" s="13" t="s">
+      <c r="H149" s="12" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="150" ht="15.6" spans="1:8">
+    <row r="150" spans="1:8">
       <c r="A150" s="3" t="s">
         <v>467</v>
       </c>
@@ -6901,11 +6979,11 @@
         <v>26900</v>
       </c>
       <c r="G150" s="9"/>
-      <c r="H150" s="13" t="s">
+      <c r="H150" s="12" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="151" ht="15.6" spans="1:8">
+    <row r="151" spans="1:8">
       <c r="A151" s="3" t="s">
         <v>477</v>
       </c>
@@ -6926,11 +7004,11 @@
         <v>149900</v>
       </c>
       <c r="G151" s="9"/>
-      <c r="H151" s="13" t="s">
+      <c r="H151" s="12" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="152" ht="15.6" spans="1:8">
+    <row r="152" spans="1:8">
       <c r="A152" s="3" t="s">
         <v>481</v>
       </c>
@@ -6951,11 +7029,11 @@
         <v>3000</v>
       </c>
       <c r="G152" s="9"/>
-      <c r="H152" s="13" t="s">
+      <c r="H152" s="12" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="153" ht="15.6" spans="1:8">
+    <row r="153" spans="1:8">
       <c r="A153" s="3" t="s">
         <v>481</v>
       </c>
@@ -6976,11 +7054,11 @@
         <v>3600</v>
       </c>
       <c r="G153" s="9"/>
-      <c r="H153" s="13" t="s">
+      <c r="H153" s="12" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="154" ht="15.6" spans="1:8">
+    <row r="154" spans="1:8">
       <c r="A154" s="3" t="s">
         <v>481</v>
       </c>
@@ -7001,11 +7079,11 @@
         <v>3500</v>
       </c>
       <c r="G154" s="9"/>
-      <c r="H154" s="13" t="s">
+      <c r="H154" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="155" ht="15.6" spans="1:8">
+    <row r="155" spans="1:8">
       <c r="A155" s="3" t="s">
         <v>481</v>
       </c>
@@ -7026,11 +7104,11 @@
         <v>3500</v>
       </c>
       <c r="G155" s="9"/>
-      <c r="H155" s="13" t="s">
+      <c r="H155" s="12" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="156" ht="15.6" spans="1:8">
+    <row r="156" spans="1:8">
       <c r="A156" s="3" t="s">
         <v>481</v>
       </c>
@@ -7051,11 +7129,11 @@
         <v>1500</v>
       </c>
       <c r="G156" s="9"/>
-      <c r="H156" s="13" t="s">
+      <c r="H156" s="12" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="157" ht="15.6" spans="1:8">
+    <row r="157" spans="1:8">
       <c r="A157" s="3" t="s">
         <v>481</v>
       </c>
@@ -7076,11 +7154,11 @@
         <v>4000</v>
       </c>
       <c r="G157" s="9"/>
-      <c r="H157" s="13" t="s">
+      <c r="H157" s="12" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="158" ht="15.6" spans="1:8">
+    <row r="158" spans="1:8">
       <c r="A158" s="3" t="s">
         <v>481</v>
       </c>
@@ -7101,11 +7179,11 @@
         <v>5000</v>
       </c>
       <c r="G158" s="9"/>
-      <c r="H158" s="13" t="s">
+      <c r="H158" s="12" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="159" ht="15.6" spans="1:8">
+    <row r="159" spans="1:8">
       <c r="A159" s="3" t="s">
         <v>501</v>
       </c>
@@ -7126,11 +7204,11 @@
         <v>29900</v>
       </c>
       <c r="G159" s="9"/>
-      <c r="H159" s="13" t="s">
+      <c r="H159" s="12" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="160" ht="15.6" spans="1:8">
+    <row r="160" spans="1:8">
       <c r="A160" s="3" t="s">
         <v>501</v>
       </c>
@@ -7151,11 +7229,11 @@
         <v>22900</v>
       </c>
       <c r="G160" s="9"/>
-      <c r="H160" s="13" t="s">
+      <c r="H160" s="12" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="161" ht="15.6" spans="1:8">
+    <row r="161" spans="1:8">
       <c r="A161" s="3" t="s">
         <v>508</v>
       </c>
@@ -7176,11 +7254,11 @@
         <v>29900</v>
       </c>
       <c r="G161" s="9"/>
-      <c r="H161" s="13" t="s">
+      <c r="H161" s="12" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="162" ht="15.6" spans="1:8">
+    <row r="162" spans="1:8">
       <c r="A162" s="3" t="s">
         <v>508</v>
       </c>
@@ -7201,11 +7279,11 @@
         <v>32900</v>
       </c>
       <c r="G162" s="9"/>
-      <c r="H162" s="13" t="s">
+      <c r="H162" s="12" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="163" ht="15.6" spans="1:8">
+    <row r="163" spans="1:8">
       <c r="A163" s="3" t="s">
         <v>508</v>
       </c>
@@ -7226,11 +7304,11 @@
         <v>15600</v>
       </c>
       <c r="G163" s="9"/>
-      <c r="H163" s="13" t="s">
+      <c r="H163" s="12" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="164" ht="15.6" spans="1:8">
+    <row r="164" spans="1:8">
       <c r="A164" s="3" t="s">
         <v>508</v>
       </c>
@@ -7251,11 +7329,11 @@
         <v>15600</v>
       </c>
       <c r="G164" s="9"/>
-      <c r="H164" s="13" t="s">
+      <c r="H164" s="12" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="165" ht="15.6" spans="1:8">
+    <row r="165" spans="1:8">
       <c r="A165" s="3" t="s">
         <v>508</v>
       </c>
@@ -7276,11 +7354,11 @@
         <v>16600</v>
       </c>
       <c r="G165" s="9"/>
-      <c r="H165" s="13" t="s">
+      <c r="H165" s="12" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="166" ht="15.6" spans="1:8">
+    <row r="166" spans="1:8">
       <c r="A166" s="3" t="s">
         <v>524</v>
       </c>
@@ -7302,11 +7380,11 @@
       <c r="G166" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H166" s="13" t="s">
+      <c r="H166" s="12" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="167" ht="15.6" spans="1:8">
+    <row r="167" spans="1:8">
       <c r="A167" s="3" t="s">
         <v>524</v>
       </c>
@@ -7328,11 +7406,11 @@
       <c r="G167" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="H167" s="13" t="s">
+      <c r="H167" s="12" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="168" ht="15.6" spans="1:8">
+    <row r="168" spans="1:8">
       <c r="A168" s="3" t="s">
         <v>524</v>
       </c>
@@ -7353,11 +7431,11 @@
         <v>18900</v>
       </c>
       <c r="G168" s="9"/>
-      <c r="H168" s="13" t="s">
+      <c r="H168" s="12" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="169" ht="15.6" spans="1:8">
+    <row r="169" spans="1:8">
       <c r="A169" s="3" t="s">
         <v>524</v>
       </c>
@@ -7379,11 +7457,11 @@
       <c r="G169" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H169" s="13" t="s">
+      <c r="H169" s="12" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="170" ht="15.6" spans="1:8">
+    <row r="170" spans="1:8">
       <c r="A170" s="3" t="s">
         <v>524</v>
       </c>
@@ -7405,11 +7483,11 @@
       <c r="G170" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="H170" s="13" t="s">
+      <c r="H170" s="12" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="171" ht="15.6" spans="1:8">
+    <row r="171" spans="1:8">
       <c r="A171" s="3" t="s">
         <v>524</v>
       </c>
@@ -7431,11 +7509,11 @@
       <c r="G171" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="H171" s="13" t="s">
+      <c r="H171" s="12" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="172" ht="15.6" spans="1:8">
+    <row r="172" spans="1:8">
       <c r="A172" s="3" t="s">
         <v>544</v>
       </c>
@@ -7456,11 +7534,11 @@
         <v>87900</v>
       </c>
       <c r="G172" s="9"/>
-      <c r="H172" s="13" t="s">
+      <c r="H172" s="12" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="173" ht="15.6" spans="1:8">
+    <row r="173" spans="1:8">
       <c r="A173" s="3" t="s">
         <v>544</v>
       </c>
@@ -7481,11 +7559,11 @@
         <v>139900</v>
       </c>
       <c r="G173" s="9"/>
-      <c r="H173" s="13" t="s">
+      <c r="H173" s="12" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="174" ht="15.6" spans="1:8">
+    <row r="174" spans="1:8">
       <c r="A174" s="3" t="s">
         <v>544</v>
       </c>
@@ -7506,11 +7584,11 @@
         <v>104900</v>
       </c>
       <c r="G174" s="9"/>
-      <c r="H174" s="13" t="s">
+      <c r="H174" s="12" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="175" ht="15.6" spans="1:8">
+    <row r="175" spans="1:8">
       <c r="A175" s="3" t="s">
         <v>554</v>
       </c>
@@ -7531,11 +7609,11 @@
         <v>49900</v>
       </c>
       <c r="G175" s="9"/>
-      <c r="H175" s="13" t="s">
+      <c r="H175" s="12" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="176" ht="15.6" spans="1:8">
+    <row r="176" spans="1:8">
       <c r="A176" s="3" t="s">
         <v>558</v>
       </c>
@@ -7558,11 +7636,11 @@
       <c r="G176" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H176" s="13" t="s">
+      <c r="H176" s="12" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="177" ht="15.6" spans="1:8">
+    <row r="177" spans="1:8">
       <c r="A177" s="3" t="s">
         <v>558</v>
       </c>
@@ -7583,11 +7661,11 @@
         <v>26900</v>
       </c>
       <c r="G177" s="9"/>
-      <c r="H177" s="13" t="s">
+      <c r="H177" s="12" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="178" ht="15.6" spans="1:8">
+    <row r="178" spans="1:8">
       <c r="A178" s="3" t="s">
         <v>558</v>
       </c>
@@ -7608,11 +7686,11 @@
         <v>20900</v>
       </c>
       <c r="G178" s="9"/>
-      <c r="H178" s="13" t="s">
+      <c r="H178" s="12" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="179" ht="15.6" spans="1:8">
+    <row r="179" spans="1:8">
       <c r="A179" s="3" t="s">
         <v>558</v>
       </c>
@@ -7633,11 +7711,11 @@
         <v>13900</v>
       </c>
       <c r="G179" s="9"/>
-      <c r="H179" s="13" t="s">
+      <c r="H179" s="12" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="180" ht="15.6" spans="1:8">
+    <row r="180" spans="1:8">
       <c r="A180" s="3" t="s">
         <v>558</v>
       </c>
@@ -7660,11 +7738,11 @@
       <c r="G180" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="H180" s="13" t="s">
+      <c r="H180" s="12" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="181" ht="15.6" spans="1:8">
+    <row r="181" spans="1:8">
       <c r="A181" s="3" t="s">
         <v>558</v>
       </c>
@@ -7686,60 +7764,268 @@
       <c r="G181" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="H181" s="13" t="s">
+      <c r="H181" s="12" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="182" ht="15.6" spans="1:8">
-      <c r="A182" s="17" t="s">
+    <row r="182" spans="1:8">
+      <c r="A182" s="15" t="s">
         <v>577</v>
       </c>
-      <c r="B182" s="17" t="s">
+      <c r="B182" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="C182" s="17" t="s">
+      <c r="C182" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="D182" s="17">
+      <c r="D182" s="15">
         <v>229</v>
       </c>
-      <c r="E182" s="17">
+      <c r="E182" s="15">
         <v>219</v>
       </c>
-      <c r="F182" s="17">
+      <c r="F182" s="15">
         <v>21900</v>
       </c>
-      <c r="G182" s="20" t="s">
+      <c r="G182" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="H182" s="16" t="s">
+      <c r="H182" s="14" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="1" ht="15.6" spans="1:8">
-      <c r="A183" s="21" t="s">
+      <c r="A183" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="B183" s="21" t="s">
+      <c r="B183" s="15" t="s">
         <v>582</v>
       </c>
-      <c r="C183" s="22" t="s">
+      <c r="C183" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="D183" s="22">
+      <c r="D183" s="15">
         <v>15</v>
       </c>
-      <c r="E183" s="22">
+      <c r="E183" s="15">
         <v>15</v>
       </c>
-      <c r="F183" s="22">
+      <c r="F183" s="15">
         <v>1500</v>
       </c>
-      <c r="G183" s="23" t="s">
+      <c r="G183" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="H183" s="24" t="s">
+      <c r="H183" s="14" t="s">
         <v>585</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="D184" s="19">
+        <v>86</v>
+      </c>
+      <c r="E184" s="19">
+        <v>84</v>
+      </c>
+      <c r="F184" s="19">
+        <v>8400</v>
+      </c>
+      <c r="G184" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H184" s="22" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>590</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>591</v>
+      </c>
+      <c r="D185" s="19">
+        <v>86</v>
+      </c>
+      <c r="E185" s="19">
+        <v>84</v>
+      </c>
+      <c r="F185" s="19">
+        <v>8400</v>
+      </c>
+      <c r="G185" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H185" s="22" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>593</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>594</v>
+      </c>
+      <c r="D186" s="19">
+        <v>106</v>
+      </c>
+      <c r="E186" s="19">
+        <v>105</v>
+      </c>
+      <c r="F186" s="19">
+        <v>10500</v>
+      </c>
+      <c r="G186" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H186" s="23" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D187" s="19">
+        <v>106</v>
+      </c>
+      <c r="E187" s="19">
+        <v>105</v>
+      </c>
+      <c r="F187" s="19">
+        <v>10500</v>
+      </c>
+      <c r="G187" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H187" s="22" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>600</v>
+      </c>
+      <c r="D188" s="19">
+        <v>77</v>
+      </c>
+      <c r="E188" s="19">
+        <v>75</v>
+      </c>
+      <c r="F188" s="19">
+        <v>7500</v>
+      </c>
+      <c r="G188" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H188" s="23" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>602</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>603</v>
+      </c>
+      <c r="D189" s="19">
+        <v>77</v>
+      </c>
+      <c r="E189" s="19">
+        <v>75</v>
+      </c>
+      <c r="F189" s="19">
+        <v>7500</v>
+      </c>
+      <c r="G189" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H189" s="23" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>605</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>606</v>
+      </c>
+      <c r="D190" s="19">
+        <v>77</v>
+      </c>
+      <c r="E190" s="19">
+        <v>75</v>
+      </c>
+      <c r="F190" s="19">
+        <v>7500</v>
+      </c>
+      <c r="G190" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H190" s="23" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B191" s="20" t="s">
+        <v>608</v>
+      </c>
+      <c r="C191" s="20" t="s">
+        <v>609</v>
+      </c>
+      <c r="D191" s="19">
+        <v>86</v>
+      </c>
+      <c r="E191" s="19">
+        <v>84</v>
+      </c>
+      <c r="F191" s="19">
+        <v>8400</v>
+      </c>
+      <c r="G191" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="H191" s="23" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -7883,6 +8169,9 @@
     <hyperlink ref="H156" r:id="rId132" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
     <hyperlink ref="H182" r:id="rId133" display="https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4"/>
     <hyperlink ref="H183" r:id="rId134" display="https://i.ibb.co/Z112m0sJ/jute.png"/>
+    <hyperlink ref="H184" r:id="rId135" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
+    <hyperlink ref="H185" r:id="rId136" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
+    <hyperlink ref="H187" r:id="rId137" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="594">
   <si>
     <t>BRAND</t>
   </si>
@@ -818,7 +818,7 @@
     <t>Joyoung 1.5L Healthy Kettle</t>
   </si>
   <si>
-    <t>https://gw.alicdn.com/imgextra/O1CN01VNJFUb28MxP2pFLVN_!!6000000007919-2-yinhe.png_q90.jpg</t>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png</t>
   </si>
   <si>
     <t>JYO-JK15K50</t>
@@ -827,7 +827,7 @@
     <t>Joyoung 1.5L Retro Kettle</t>
   </si>
   <si>
-    <t>https://gw.alicdn.com/imgextra/O1CN0182Uhic1Z4AVQb7hpT_!!6000000003140-0-yinhe.jpg_q90.jpg</t>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png</t>
   </si>
   <si>
     <t>JYO-JVC45V91(P)</t>
@@ -836,7 +836,7 @@
     <t>Joyoung Minimalist 304 Vacuum Bottle - 450ml Pink</t>
   </si>
   <si>
-    <t>https://i.ibb.co/rRL1pmXF/jvc-45v9.png</t>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png</t>
   </si>
   <si>
     <t>JYO-JVC45V91(W)</t>
@@ -845,13 +845,16 @@
     <t>Joyoung Minimalist 304 Vacuum Bottle - 450ml White</t>
   </si>
   <si>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png</t>
+  </si>
+  <si>
     <t>JYO-JVC49V39(T)</t>
   </si>
   <si>
     <t>Joyoung Vacuum Coffee Cup - 490ml Tank</t>
   </si>
   <si>
-    <t>https://i.ibb.co/35WTN7ZC/Untitled.png</t>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png</t>
   </si>
   <si>
     <t>JYO-JVC49V39(U)</t>
@@ -860,13 +863,16 @@
     <t>Joyoung Vacuum Coffee Cup - 490ml Purple</t>
   </si>
   <si>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png</t>
+  </si>
+  <si>
     <t>JYO-JVC80V26(B)</t>
   </si>
   <si>
     <t>Joyoung Vacuum Straw Tumbler - 800ml Blue</t>
   </si>
   <si>
-    <t>https://i.imghippo.com/files/jRLt5792sH.webp</t>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png</t>
   </si>
   <si>
     <t>JYO-JVC80V26(P)</t>
@@ -875,7 +881,7 @@
     <t>Joyoung Vacuum Straw Tumbler - 800ml Pink</t>
   </si>
   <si>
-    <t>https://i.imghippo.com/files/Kpdo6122ks.webp</t>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png</t>
   </si>
   <si>
     <t>KHIND</t>
@@ -2801,8 +2807,8 @@
   <sheetPr/>
   <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4870,7 +4876,7 @@
         <v>271</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E85">
         <v>139</v>
@@ -4887,13 +4893,13 @@
         <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C86" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E86">
         <v>169</v>
@@ -4910,13 +4916,13 @@
         <v>260</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E87">
         <v>169</v>
@@ -4933,13 +4939,13 @@
         <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C88" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E88">
         <v>169</v>
@@ -4956,13 +4962,13 @@
         <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C89" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E89">
         <v>169</v>
@@ -4976,16 +4982,16 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B90" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C90" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E90">
         <v>499</v>
@@ -4999,16 +5005,16 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E91">
         <v>549</v>
@@ -5022,16 +5028,16 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B92" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C92" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E92">
         <v>179</v>
@@ -5045,16 +5051,16 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B93" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E93">
         <v>559</v>
@@ -5068,16 +5074,16 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B94" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E94">
         <v>209</v>
@@ -5091,16 +5097,16 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B95" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C95" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E95">
         <v>135</v>
@@ -5114,16 +5120,16 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C96" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E96">
         <v>239</v>
@@ -5137,16 +5143,16 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B97" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C97" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E97">
         <v>119</v>
@@ -5160,16 +5166,16 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B98" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C98" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E98">
         <v>86</v>
@@ -5186,16 +5192,16 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C99" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E99">
         <v>86</v>
@@ -5212,16 +5218,16 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C100" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E100">
         <v>86</v>
@@ -5238,16 +5244,16 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B101" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E101">
         <v>106</v>
@@ -5261,16 +5267,16 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B102" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C102" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E102">
         <v>106</v>
@@ -5284,16 +5290,16 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B103" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C103" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E103">
         <v>86</v>
@@ -5307,16 +5313,16 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B104" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C104" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E104">
         <v>106</v>
@@ -5330,16 +5336,16 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B105" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C105" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E105">
         <v>106</v>
@@ -5353,16 +5359,16 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B106" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C106" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E106">
         <v>86</v>
@@ -5376,16 +5382,16 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C107" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E107">
         <v>86</v>
@@ -5399,16 +5405,16 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B108" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C108" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E108">
         <v>86</v>
@@ -5422,16 +5428,16 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B109" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C109" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E109">
         <v>77</v>
@@ -5445,16 +5451,16 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B110" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C110" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E110">
         <v>77</v>
@@ -5468,16 +5474,16 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B111" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C111" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E111">
         <v>77</v>
@@ -5491,16 +5497,16 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B112" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C112" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E112">
         <v>69</v>
@@ -5514,16 +5520,16 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B113" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C113" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E113">
         <v>69</v>
@@ -5537,16 +5543,16 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B114" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C114" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E114">
         <v>69</v>
@@ -5560,16 +5566,16 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B115" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C115" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E115">
         <v>89</v>
@@ -5583,16 +5589,16 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B116" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C116" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E116">
         <v>89</v>
@@ -5606,16 +5612,16 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B117" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C117" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E117">
         <v>89</v>
@@ -5629,16 +5635,16 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C118" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E118">
         <v>39.9</v>
@@ -5652,16 +5658,16 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B119" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E119">
         <v>14.4</v>
@@ -5673,21 +5679,21 @@
         <v>1440</v>
       </c>
       <c r="H119" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C120" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E120">
         <v>15.5</v>
@@ -5699,21 +5705,21 @@
         <v>1550</v>
       </c>
       <c r="H120" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B121" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C121" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E121">
         <v>16.9</v>
@@ -5725,21 +5731,21 @@
         <v>1690</v>
       </c>
       <c r="H121" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B122" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E122">
         <v>18.9</v>
@@ -5751,21 +5757,21 @@
         <v>1890</v>
       </c>
       <c r="H122" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B123" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C123" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E123">
         <v>9.9</v>
@@ -5777,21 +5783,21 @@
         <v>990</v>
       </c>
       <c r="H123" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B124" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C124" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E124">
         <v>18.5</v>
@@ -5803,21 +5809,21 @@
         <v>1850</v>
       </c>
       <c r="H124" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B125" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C125" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E125">
         <v>11.9</v>
@@ -5829,21 +5835,21 @@
         <v>1190</v>
       </c>
       <c r="H125" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B126" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C126" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E126">
         <v>18</v>
@@ -5855,21 +5861,21 @@
         <v>1800</v>
       </c>
       <c r="H126" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B127" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C127" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E127">
         <v>18.5</v>
@@ -5881,21 +5887,21 @@
         <v>1850</v>
       </c>
       <c r="H127" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B128" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C128" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E128">
         <v>4.5</v>
@@ -5907,21 +5913,21 @@
         <v>450</v>
       </c>
       <c r="H128" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B129" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C129" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E129">
         <v>5.7</v>
@@ -5933,21 +5939,21 @@
         <v>570</v>
       </c>
       <c r="H129" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B130" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C130" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E130">
         <v>3.5</v>
@@ -5959,21 +5965,21 @@
         <v>350</v>
       </c>
       <c r="H130" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B131" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C131" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E131">
         <v>8.6</v>
@@ -5985,21 +5991,21 @@
         <v>860</v>
       </c>
       <c r="H131" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B132" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C132" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E132">
         <v>8</v>
@@ -6011,21 +6017,21 @@
         <v>800</v>
       </c>
       <c r="H132" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C133" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E133">
         <v>8</v>
@@ -6037,21 +6043,21 @@
         <v>800</v>
       </c>
       <c r="H133" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B134" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C134" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E134">
         <v>8</v>
@@ -6063,21 +6069,21 @@
         <v>800</v>
       </c>
       <c r="H134" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B135" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C135" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E135">
         <v>3.3</v>
@@ -6089,21 +6095,21 @@
         <v>330</v>
       </c>
       <c r="H135" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B136" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C136" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E136">
         <v>11.5</v>
@@ -6115,21 +6121,21 @@
         <v>1150</v>
       </c>
       <c r="H136" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B137" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C137" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E137">
         <v>8.1</v>
@@ -6141,21 +6147,21 @@
         <v>810</v>
       </c>
       <c r="H137" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C138" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E138">
         <v>2.6</v>
@@ -6167,21 +6173,21 @@
         <v>260</v>
       </c>
       <c r="H138" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C139" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E139">
         <v>9.1</v>
@@ -6193,21 +6199,21 @@
         <v>910</v>
       </c>
       <c r="H139" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B140" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C140" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E140">
         <v>16.5</v>
@@ -6219,21 +6225,21 @@
         <v>1650</v>
       </c>
       <c r="H140" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B141" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C141" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E141">
         <v>7.9</v>
@@ -6245,21 +6251,21 @@
         <v>790</v>
       </c>
       <c r="H141" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B142" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C142" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E142">
         <v>149</v>
@@ -6273,16 +6279,16 @@
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B143" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C143" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E143">
         <v>289</v>
@@ -6296,16 +6302,16 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B144" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C144" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E144">
         <v>199</v>
@@ -6319,16 +6325,16 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B145" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C145" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E145">
         <v>469</v>
@@ -6342,16 +6348,16 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B146" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C146" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E146">
         <v>30.9</v>
@@ -6363,21 +6369,21 @@
         <v>3090</v>
       </c>
       <c r="H146" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B147" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C147" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E147">
         <v>30.9</v>
@@ -6389,21 +6395,21 @@
         <v>3090</v>
       </c>
       <c r="H147" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B148" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C148" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E148">
         <v>139</v>
@@ -6415,21 +6421,21 @@
         <v>13900</v>
       </c>
       <c r="H148" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B149" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C149" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E149">
         <v>109</v>
@@ -6441,21 +6447,21 @@
         <v>10900</v>
       </c>
       <c r="H149" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B150" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C150" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E150">
         <v>449</v>
@@ -6469,16 +6475,16 @@
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B151" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C151" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E151">
         <v>129</v>
@@ -6492,16 +6498,16 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B152" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E152">
         <v>219</v>
@@ -6513,21 +6519,21 @@
         <v>21900</v>
       </c>
       <c r="H152" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B153" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C153" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E153">
         <v>1999</v>
@@ -6541,16 +6547,16 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B154" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C154" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E154">
         <v>30</v>
@@ -6562,21 +6568,21 @@
         <v>3000</v>
       </c>
       <c r="H154" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B155" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C155" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E155">
         <v>36</v>
@@ -6588,21 +6594,21 @@
         <v>3600</v>
       </c>
       <c r="H155" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B156" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C156" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E156">
         <v>35</v>
@@ -6614,21 +6620,21 @@
         <v>3500</v>
       </c>
       <c r="H156" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B157" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C157" t="s">
+        <v>505</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="E157">
         <v>35</v>
@@ -6640,21 +6646,21 @@
         <v>3500</v>
       </c>
       <c r="H157" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B158" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C158" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E158">
         <v>15</v>
@@ -6666,21 +6672,21 @@
         <v>1500</v>
       </c>
       <c r="H158" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B159" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C159" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E159">
         <v>40</v>
@@ -6692,21 +6698,21 @@
         <v>4000</v>
       </c>
       <c r="H159" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B160" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C160" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E160">
         <v>50</v>
@@ -6718,21 +6724,21 @@
         <v>5000</v>
       </c>
       <c r="H160" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B161" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C161" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E161">
         <v>299</v>
@@ -6746,16 +6752,16 @@
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B162" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C162" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E162">
         <v>229</v>
@@ -6769,16 +6775,16 @@
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B163" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="C163" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E163">
         <v>309</v>
@@ -6792,16 +6798,16 @@
     </row>
     <row r="164" spans="1:7">
       <c r="A164" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B164" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C164" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E164">
         <v>339</v>
@@ -6815,16 +6821,16 @@
     </row>
     <row r="165" spans="1:7">
       <c r="A165" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B165" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C165" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="E165">
         <v>159</v>
@@ -6838,16 +6844,16 @@
     </row>
     <row r="166" spans="1:7">
       <c r="A166" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B166" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C166" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E166">
         <v>159</v>
@@ -6861,16 +6867,16 @@
     </row>
     <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B167" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C167" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E167">
         <v>169</v>
@@ -6884,16 +6890,16 @@
     </row>
     <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B168" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C168" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E168">
         <v>179</v>
@@ -6907,16 +6913,16 @@
     </row>
     <row r="169" spans="1:7">
       <c r="A169" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B169" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C169" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E169">
         <v>239</v>
@@ -6930,16 +6936,16 @@
     </row>
     <row r="170" spans="1:7">
       <c r="A170" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B170" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C170" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E170">
         <v>299</v>
@@ -6953,16 +6959,16 @@
     </row>
     <row r="171" spans="1:7">
       <c r="A171" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B171" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C171" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E171">
         <v>299</v>
@@ -6976,16 +6982,16 @@
     </row>
     <row r="172" spans="1:7">
       <c r="A172" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B172" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C172" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E172">
         <v>159</v>
@@ -6999,16 +7005,16 @@
     </row>
     <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B173" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C173" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E173">
         <v>449</v>
@@ -7022,16 +7028,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B174" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C174" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E174">
         <v>499</v>
@@ -7043,21 +7049,21 @@
         <v>29900</v>
       </c>
       <c r="H174" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:7">
       <c r="A175" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B175" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C175" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E175">
         <v>1299</v>
@@ -7071,16 +7077,16 @@
     </row>
     <row r="176" spans="1:7">
       <c r="A176" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B176" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C176" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="E176">
         <v>1899</v>
@@ -7094,16 +7100,16 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B177" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C177" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E177">
         <v>1499</v>
@@ -7117,16 +7123,16 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B178" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C178" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E178">
         <v>499</v>
@@ -7140,16 +7146,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B179" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C179" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E179">
         <v>109</v>
@@ -7161,21 +7167,21 @@
         <v>10900</v>
       </c>
       <c r="H179" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B180" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C180" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E180">
         <v>299</v>
@@ -7187,21 +7193,21 @@
         <v>26900</v>
       </c>
       <c r="H180" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B181" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C181" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E181">
         <v>389</v>
@@ -7213,21 +7219,21 @@
         <v>25900</v>
       </c>
       <c r="H181" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B182" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C182" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E182">
         <v>349</v>
@@ -7239,21 +7245,21 @@
         <v>22900</v>
       </c>
       <c r="H182" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B183" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C183" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E183">
         <v>179</v>
@@ -7267,16 +7273,16 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B184" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C184" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="E184">
         <v>599</v>
@@ -7359,123 +7365,123 @@
     <hyperlink ref="D79" r:id="rId62" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
     <hyperlink ref="D80" r:id="rId63" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
     <hyperlink ref="D81" r:id="rId64" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
-    <hyperlink ref="D82" r:id="rId65" display="https://gw.alicdn.com/imgextra/O1CN01VNJFUb28MxP2pFLVN_!!6000000007919-2-yinhe.png_q90.jpg"/>
-    <hyperlink ref="D83" r:id="rId66" display="https://gw.alicdn.com/imgextra/O1CN0182Uhic1Z4AVQb7hpT_!!6000000003140-0-yinhe.jpg_q90.jpg"/>
-    <hyperlink ref="D84" r:id="rId67" display="https://i.ibb.co/rRL1pmXF/jvc-45v9.png"/>
-    <hyperlink ref="D85" r:id="rId67" display="https://i.ibb.co/rRL1pmXF/jvc-45v9.png"/>
-    <hyperlink ref="D86" r:id="rId68" display="https://i.ibb.co/35WTN7ZC/Untitled.png"/>
-    <hyperlink ref="D87" r:id="rId68" display="https://i.ibb.co/35WTN7ZC/Untitled.png"/>
-    <hyperlink ref="D88" r:id="rId69" display="https://i.imghippo.com/files/jRLt5792sH.webp"/>
-    <hyperlink ref="D89" r:id="rId70" display="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
-    <hyperlink ref="D90" r:id="rId71" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
-    <hyperlink ref="D91" r:id="rId72" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
-    <hyperlink ref="D92" r:id="rId73" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
-    <hyperlink ref="D93" r:id="rId74" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
-    <hyperlink ref="D94" r:id="rId75" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
-    <hyperlink ref="D95" r:id="rId76" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
-    <hyperlink ref="D96" r:id="rId77" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
-    <hyperlink ref="D97" r:id="rId78" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D98" r:id="rId79" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
-    <hyperlink ref="D99" r:id="rId80" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D100" r:id="rId81" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D101" r:id="rId82" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
-    <hyperlink ref="D102" r:id="rId83" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958"/>
-    <hyperlink ref="D103" r:id="rId84" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
-    <hyperlink ref="D104" r:id="rId85" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D105" r:id="rId86" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D106" r:id="rId87" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
-    <hyperlink ref="D107" r:id="rId88" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
-    <hyperlink ref="D108" r:id="rId89" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
-    <hyperlink ref="D109" r:id="rId90" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D110" r:id="rId91" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D111" r:id="rId92" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D112" r:id="rId93" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
-    <hyperlink ref="D113" r:id="rId94" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
-    <hyperlink ref="D114" r:id="rId95" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
-    <hyperlink ref="D115" r:id="rId96" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
-    <hyperlink ref="D116" r:id="rId97" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
-    <hyperlink ref="D117" r:id="rId98" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
-    <hyperlink ref="D118" r:id="rId99" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
-    <hyperlink ref="D119" r:id="rId100" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
-    <hyperlink ref="D120" r:id="rId101" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
-    <hyperlink ref="D121" r:id="rId102" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
-    <hyperlink ref="D122" r:id="rId103" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D123" r:id="rId104" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
-    <hyperlink ref="D124" r:id="rId105" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
-    <hyperlink ref="D125" r:id="rId106" display="https://iili.io/3FH357a.md.png"/>
-    <hyperlink ref="D126" r:id="rId107" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
-    <hyperlink ref="D127" r:id="rId108" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
-    <hyperlink ref="D128" r:id="rId109" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
-    <hyperlink ref="D129" r:id="rId110" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
-    <hyperlink ref="D130" r:id="rId111" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
-    <hyperlink ref="D131" r:id="rId112" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
-    <hyperlink ref="D132" r:id="rId113" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
-    <hyperlink ref="D133" r:id="rId114" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
-    <hyperlink ref="D134" r:id="rId115" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
-    <hyperlink ref="D135" r:id="rId116" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
-    <hyperlink ref="D136" r:id="rId117" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
-    <hyperlink ref="D137" r:id="rId118" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
-    <hyperlink ref="D138" r:id="rId119" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
-    <hyperlink ref="D139" r:id="rId120" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
-    <hyperlink ref="D140" r:id="rId121" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
-    <hyperlink ref="D141" r:id="rId122" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
-    <hyperlink ref="D142" r:id="rId123" display="https://iili.io/3FHwaQn.md.jpg"/>
-    <hyperlink ref="D143" r:id="rId124" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D144" r:id="rId125" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D145" r:id="rId126" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="D150" r:id="rId127" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D151" r:id="rId128" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
-    <hyperlink ref="D153" r:id="rId129" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
-    <hyperlink ref="D154" r:id="rId130" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
-    <hyperlink ref="D155" r:id="rId131" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
-    <hyperlink ref="D156" r:id="rId132" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D157" r:id="rId132" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D158" r:id="rId103" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D159" r:id="rId133" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
-    <hyperlink ref="D160" r:id="rId134" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
-    <hyperlink ref="D161" r:id="rId135" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
-    <hyperlink ref="D162" r:id="rId136" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
-    <hyperlink ref="D163" r:id="rId137" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
-    <hyperlink ref="D164" r:id="rId138" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
-    <hyperlink ref="D165" r:id="rId139" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
-    <hyperlink ref="D166" r:id="rId140" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
-    <hyperlink ref="D167" r:id="rId141" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
-    <hyperlink ref="D168" r:id="rId142" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
-    <hyperlink ref="D169" r:id="rId143" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
-    <hyperlink ref="D170" r:id="rId144" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D171" r:id="rId145" display="https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121"/>
-    <hyperlink ref="D172" r:id="rId146" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
-    <hyperlink ref="D173" r:id="rId147" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D175" r:id="rId148" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
-    <hyperlink ref="D176" r:id="rId149" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
-    <hyperlink ref="D177" r:id="rId150" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
-    <hyperlink ref="D178" r:id="rId151" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
-    <hyperlink ref="D180" r:id="rId152" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
-    <hyperlink ref="D183" r:id="rId153" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
-    <hyperlink ref="D184" r:id="rId154" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
-    <hyperlink ref="D8" r:id="rId155" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D12" r:id="rId156" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D13" r:id="rId157" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D20" r:id="rId158" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D21" r:id="rId159" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D28" r:id="rId160" display="https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e"/>
-    <hyperlink ref="D38" r:id="rId161" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
-    <hyperlink ref="D39" r:id="rId162" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
-    <hyperlink ref="D31" r:id="rId163" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D41" r:id="rId164" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
-    <hyperlink ref="D44" r:id="rId165" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg" tooltip="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
-    <hyperlink ref="D45" r:id="rId166" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
-    <hyperlink ref="D48" r:id="rId167" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
-    <hyperlink ref="D59" r:id="rId168" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D146" r:id="rId169" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
-    <hyperlink ref="D147" r:id="rId170" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
-    <hyperlink ref="D148" r:id="rId171" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
-    <hyperlink ref="D149" r:id="rId172" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
-    <hyperlink ref="D152" r:id="rId173" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
-    <hyperlink ref="D174" r:id="rId174" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D179" r:id="rId175" display="https://rukminim2.flixcart.com/image/850/1000/l0pm3680/home-security-camera/3/u/p/6-tapo-c210-3mp-1296p-pan-tilt-wi-fi-indoor-security-camera-tp-original-imagcfrevgynzfkx.jpeg?q=20&amp;crop=false"/>
-    <hyperlink ref="D181" r:id="rId176" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D182" r:id="rId177" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D90" r:id="rId65" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
+    <hyperlink ref="D91" r:id="rId66" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
+    <hyperlink ref="D92" r:id="rId67" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
+    <hyperlink ref="D93" r:id="rId68" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
+    <hyperlink ref="D94" r:id="rId69" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
+    <hyperlink ref="D95" r:id="rId70" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
+    <hyperlink ref="D96" r:id="rId71" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
+    <hyperlink ref="D97" r:id="rId72" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D98" r:id="rId73" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
+    <hyperlink ref="D99" r:id="rId74" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D100" r:id="rId75" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D101" r:id="rId76" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
+    <hyperlink ref="D102" r:id="rId77" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958"/>
+    <hyperlink ref="D103" r:id="rId78" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
+    <hyperlink ref="D104" r:id="rId79" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D105" r:id="rId80" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D106" r:id="rId81" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
+    <hyperlink ref="D107" r:id="rId82" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
+    <hyperlink ref="D108" r:id="rId83" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
+    <hyperlink ref="D109" r:id="rId84" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D110" r:id="rId85" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D111" r:id="rId86" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D112" r:id="rId87" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
+    <hyperlink ref="D113" r:id="rId88" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
+    <hyperlink ref="D114" r:id="rId89" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
+    <hyperlink ref="D115" r:id="rId90" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
+    <hyperlink ref="D116" r:id="rId91" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
+    <hyperlink ref="D117" r:id="rId92" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
+    <hyperlink ref="D118" r:id="rId93" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
+    <hyperlink ref="D119" r:id="rId94" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
+    <hyperlink ref="D120" r:id="rId95" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
+    <hyperlink ref="D121" r:id="rId96" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
+    <hyperlink ref="D122" r:id="rId97" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D123" r:id="rId98" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
+    <hyperlink ref="D124" r:id="rId99" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
+    <hyperlink ref="D125" r:id="rId100" display="https://iili.io/3FH357a.md.png"/>
+    <hyperlink ref="D126" r:id="rId101" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
+    <hyperlink ref="D127" r:id="rId102" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
+    <hyperlink ref="D128" r:id="rId103" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
+    <hyperlink ref="D129" r:id="rId104" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
+    <hyperlink ref="D130" r:id="rId105" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
+    <hyperlink ref="D131" r:id="rId106" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
+    <hyperlink ref="D132" r:id="rId107" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
+    <hyperlink ref="D133" r:id="rId108" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
+    <hyperlink ref="D134" r:id="rId109" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
+    <hyperlink ref="D135" r:id="rId110" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
+    <hyperlink ref="D136" r:id="rId111" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
+    <hyperlink ref="D137" r:id="rId112" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
+    <hyperlink ref="D138" r:id="rId113" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
+    <hyperlink ref="D139" r:id="rId114" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
+    <hyperlink ref="D140" r:id="rId115" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
+    <hyperlink ref="D141" r:id="rId116" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
+    <hyperlink ref="D142" r:id="rId117" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="D143" r:id="rId118" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D144" r:id="rId119" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D145" r:id="rId120" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="D150" r:id="rId121" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D151" r:id="rId122" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="D153" r:id="rId123" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="D154" r:id="rId124" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
+    <hyperlink ref="D155" r:id="rId125" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
+    <hyperlink ref="D156" r:id="rId126" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D157" r:id="rId126" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D158" r:id="rId97" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D159" r:id="rId127" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
+    <hyperlink ref="D160" r:id="rId128" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
+    <hyperlink ref="D161" r:id="rId129" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="D162" r:id="rId130" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="D163" r:id="rId131" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
+    <hyperlink ref="D164" r:id="rId132" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="D165" r:id="rId133" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
+    <hyperlink ref="D166" r:id="rId134" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="D167" r:id="rId135" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="D168" r:id="rId136" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="D169" r:id="rId137" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
+    <hyperlink ref="D170" r:id="rId138" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D171" r:id="rId139" display="https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121"/>
+    <hyperlink ref="D172" r:id="rId140" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="D173" r:id="rId141" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D175" r:id="rId142" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="D176" r:id="rId143" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="D177" r:id="rId144" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="D178" r:id="rId145" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="D180" r:id="rId146" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
+    <hyperlink ref="D183" r:id="rId147" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="D184" r:id="rId148" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="D8" r:id="rId149" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D12" r:id="rId150" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D13" r:id="rId151" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D20" r:id="rId152" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D21" r:id="rId153" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D28" r:id="rId154" display="https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e"/>
+    <hyperlink ref="D38" r:id="rId155" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
+    <hyperlink ref="D39" r:id="rId156" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
+    <hyperlink ref="D31" r:id="rId157" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D41" r:id="rId158" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
+    <hyperlink ref="D44" r:id="rId159" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg" tooltip="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
+    <hyperlink ref="D45" r:id="rId160" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
+    <hyperlink ref="D48" r:id="rId161" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
+    <hyperlink ref="D59" r:id="rId162" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D146" r:id="rId163" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
+    <hyperlink ref="D147" r:id="rId164" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
+    <hyperlink ref="D148" r:id="rId165" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
+    <hyperlink ref="D149" r:id="rId166" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
+    <hyperlink ref="D152" r:id="rId167" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
+    <hyperlink ref="D174" r:id="rId168" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D179" r:id="rId169" display="https://rukminim2.flixcart.com/image/850/1000/l0pm3680/home-security-camera/3/u/p/6-tapo-c210-3mp-1296p-pan-tilt-wi-fi-indoor-security-camera-tp-original-imagcfrevgynzfkx.jpeg?q=20&amp;crop=false"/>
+    <hyperlink ref="D181" r:id="rId170" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D182" r:id="rId171" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D88" r:id="rId172" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
+    <hyperlink ref="D89" r:id="rId173" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
+    <hyperlink ref="D84" r:id="rId174" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
+    <hyperlink ref="D85" r:id="rId175" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
+    <hyperlink ref="D86" r:id="rId176" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
+    <hyperlink ref="D87" r:id="rId177" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
+    <hyperlink ref="D83" r:id="rId178" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
+    <hyperlink ref="D82" r:id="rId179" display="https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="695">
   <si>
     <t>BRAND</t>
   </si>
@@ -1809,6 +1809,309 @@
   </si>
   <si>
     <t>https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp</t>
+  </si>
+  <si>
+    <t>ROBAM</t>
+  </si>
+  <si>
+    <t>ROB-W602S</t>
+  </si>
+  <si>
+    <t>Robam Freestanding Dishwasher with 3D Wash (Silver)</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg</t>
+  </si>
+  <si>
+    <t>EFFECTIVE 9.4.25</t>
+  </si>
+  <si>
+    <t>ROB-W602W</t>
+  </si>
+  <si>
+    <t>Robam Freestanding Dishwasher with 3D Wash (White)</t>
+  </si>
+  <si>
+    <t>https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg</t>
+  </si>
+  <si>
+    <t>AMAZINGTHING</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 (6.1) Full Glass Clear 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213</t>
+  </si>
+  <si>
+    <t>Effective 7th April 2025</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 Plus (6.7) Full Glass Clear 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 (6.1) Full Glass Matte 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 Plus (6.7) Full Glass Matte 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080033</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro (6.1) Full Glass Clear 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080040</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro Max (6.7) Full Glass Clear 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080071</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro (6.1) Full Glass Matte 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080088</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro Max (6.7) Full Glass Matte 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894</t>
+  </si>
+  <si>
+    <t>UNIQ</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685136</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 ( 6.1" ) - Dove ( Frost Clear )</t>
+  </si>
+  <si>
+    <t>https://www.aeonaccessories.com/productimages/8886463685136.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685143</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 ( 6.1" ) - Tinsel ( Lucent )</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685235</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 ( 6.1" ) - Nude ( Transparent )</t>
+  </si>
+  <si>
+    <t>https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685259</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Plus ( 6.7" ) - Dove ( Frost Clear )</t>
+  </si>
+  <si>
+    <t>https://www.aeonaccessories.com/productimages/8886463685259.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685303</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Dove ( Frost Clear )</t>
+  </si>
+  <si>
+    <t>https://www.aeonaccessories.com/productimages/8886463685303.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685310</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Smoke ( Frost Smoke )</t>
+  </si>
+  <si>
+    <t>https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685334</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Tinsel ( Lucent )</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149</t>
+  </si>
+  <si>
+    <t>UNQ-8886463686591</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme MagClick Charging for iPhone 15 Pro (6.1") - Tinsel Blue (Lucent Blue)</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544259-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685372</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Carbon ( Black )</t>
+  </si>
+  <si>
+    <t>https://www.aeonaccessories.com/productimages/8886463685372.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685402</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Smoke Blue</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544261-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685419</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Nude ( Transparent )</t>
+  </si>
+  <si>
+    <t>https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685426</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Smoke ( Grey Tinted )</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544263-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685600</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7") - Dove (Frost Clear)</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685617</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7") - Smoke (Frost Smoke)</t>
+  </si>
+  <si>
+    <t>https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685631</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7")- Tinsel (Lucent)</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148</t>
+  </si>
+  <si>
+    <t>UNQ-8886463686607</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme MagClick Charging for iPhone 15 Pro Max (6.7")- Tinsel Blue (Lucent Blue)</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544276-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685679</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Carbon ( Black )</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685709</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Smoke Blue</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544278-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685716</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Nude ( Transparent )</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544279-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685723</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Smoke ( Grey Tinted )</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW</t>
+  </si>
+  <si>
+    <t>RIV-MAGSPEED10PRO</t>
+  </si>
+  <si>
+    <t>Riversong 10,000mAh Magnetic Wireless Power Bank</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg</t>
+  </si>
+  <si>
+    <t>RIV-POWERKUB-G100</t>
+  </si>
+  <si>
+    <t>Riversong 100W GaN USB-C Wall Charger</t>
+  </si>
+  <si>
+    <t>https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +2124,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1842,6 +2145,17 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2306,159 +2620,166 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2805,17 +3126,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H184"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="79" customWidth="1"/>
+    <col min="3" max="3" width="89.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="6.88888888888889" customWidth="1"/>
     <col min="8" max="8" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2845,4459 +3167,5421 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>229</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>219</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>21900</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>349</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>279</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>27900</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>27.9</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>27.9</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="2">
         <v>2790</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>27.9</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>27.9</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>2790</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>87.7</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>69</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>6900</v>
       </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>32.9</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>18</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>1800</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="8" spans="1:8">
+      <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>369</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>369</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>36900</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>289</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>289</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>28900</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>99</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>97</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="2">
         <v>9700</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>149</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>145</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>14500</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>169</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>169</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>16900</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>169</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>169</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>16900</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>349</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>349</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>34900</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>349</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>349</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>34900</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>559</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>559</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>55900</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>559</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>559</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>55900</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>499</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>499</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="2">
         <v>49900</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>499</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>499</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="2">
         <v>49900</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>799</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>799</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="2">
         <v>79900</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>799</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>799</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="2">
         <v>79900</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>714</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>479</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="2">
         <v>47900</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>179</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>169</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="2">
         <v>16900</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>79</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>55</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="2">
         <v>5500</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>55</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>49</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="2">
         <v>4900</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>129</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>125</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="2">
         <v>12500</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>99</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>93</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="2">
         <v>9300</v>
       </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" t="s">
+      <c r="A28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>499</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>199</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="2">
         <v>19900</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>499</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>199</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="2">
         <v>19900</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" t="s">
+      <c r="A30" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>499</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>199</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="2">
         <v>19900</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" t="s">
+      <c r="A31" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>549</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>199</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="2">
         <v>19900</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" t="s">
+      <c r="A32" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>549</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>199</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="2">
         <v>19900</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="2">
         <v>399</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="2">
         <v>199</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="2">
         <v>19900</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="2">
         <v>459</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="2">
         <v>169</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="2">
         <v>16900</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>459</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>169</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="2">
         <v>16900</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" t="s">
+      <c r="A36" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="2">
         <v>599</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="2">
         <v>319</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="2">
         <v>31900</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="2">
         <v>599</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="2">
         <v>319</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="2">
         <v>31900</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" t="s">
+      <c r="A38" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="2">
         <v>299</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="2">
         <v>159</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="2">
         <v>15900</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2">
         <v>359</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="2">
         <v>159</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="2">
         <v>15900</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="2">
         <v>439</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="2">
         <v>169</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="2">
         <v>16900</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" t="s">
+      <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="2">
         <v>439</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="2">
         <v>169</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="2">
         <v>16900</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" t="s">
+      <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="2">
         <v>439</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="2">
         <v>179</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="2">
         <v>17900</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" t="s">
+      <c r="A43" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="2">
         <v>479</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="2">
         <v>189</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="2">
         <v>18900</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>142</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="2">
         <v>479</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="2">
         <v>189</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="2">
         <v>18900</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>145</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="2">
         <v>479</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="2">
         <v>189</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="2">
         <v>18900</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="2">
         <v>519</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="2">
         <v>189</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="2">
         <v>18900</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="2">
         <v>519</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="2">
         <v>189</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="2">
         <v>18900</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>154</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="2">
         <v>599</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="2">
         <v>189</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="2">
         <v>18900</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="2">
         <v>599</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="2">
         <v>189</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="2">
         <v>18900</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" t="s">
+      <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="2">
         <v>639</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="2">
         <v>239</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="2">
         <v>23900</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="A51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="2">
         <v>639</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="2">
         <v>239</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="2">
         <v>23900</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" t="s">
+      <c r="A52" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="2">
         <v>639</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="2">
         <v>239</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="2">
         <v>23900</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" t="s">
+      <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="2">
         <v>669</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="2">
         <v>259</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="2">
         <v>25900</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" t="s">
+      <c r="A54" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="2">
         <v>369</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="2">
         <v>149</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="2">
         <v>14900</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" t="s">
+      <c r="A55" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="2">
         <v>439</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="2">
         <v>169</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="2">
         <v>16900</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" t="s">
+      <c r="A56" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="2">
         <v>489</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="2">
         <v>189</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="2">
         <v>18900</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" t="s">
+      <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="2">
         <v>409</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="2">
         <v>159</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="2">
         <v>15900</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" t="s">
+      <c r="A58" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="2">
         <v>579</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="2">
         <v>219</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="2">
         <v>21900</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" t="s">
+      <c r="A59" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="2">
         <v>299</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="2">
         <v>132</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="2">
         <v>13200</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" t="s">
+      <c r="A60" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="2">
         <v>349</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="2">
         <v>149</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="2">
         <v>14900</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" t="s">
+      <c r="A61" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="2">
         <v>499</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="2">
         <v>189</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="2">
         <v>18900</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" t="s">
+      <c r="A62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="2">
         <v>949</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="2">
         <v>499</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="2">
         <v>49900</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="2">
         <v>319</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="2">
         <v>279</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="2">
         <v>27900</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
+      <c r="H63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="2">
         <v>40</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="2">
         <v>39</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="2">
         <v>3900</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="2">
         <v>50</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="2">
         <v>49</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="2">
         <v>4900</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="2">
         <v>29</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="2">
         <v>29</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="2">
         <v>2900</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="2">
         <v>24.9</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="2">
         <v>24.9</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="2">
         <v>2490</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="2">
         <v>20.9</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="2">
         <v>20.9</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="2">
         <v>2090</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="2">
         <v>210</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="2">
         <v>115</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="2">
         <v>11500</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="2">
         <v>228</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="2">
         <v>181</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="2">
         <v>18100</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="2">
         <v>129</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="2">
         <v>129</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="2">
         <v>12900</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="2">
         <v>99</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="2">
         <v>99</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="2">
         <v>9900</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
+      <c r="H72" s="2"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="2">
         <v>799</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="2">
         <v>599</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="2">
         <v>59900</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="2">
         <v>1199</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="2">
         <v>599</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="2">
         <v>59900</v>
       </c>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" t="s">
+      <c r="A75" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="2">
         <v>2099</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="2">
         <v>1199</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="2">
         <v>119900</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
+    <row r="76" spans="1:8">
+      <c r="A76" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="2">
         <v>2699</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="2">
         <v>1699</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="2">
         <v>169900</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
+      <c r="H76" s="2"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="2">
         <v>989</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="2">
         <v>769</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="2">
         <v>76900</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="2">
         <v>119</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="2">
         <v>79</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="2">
         <v>7900</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
+      <c r="H78" s="2"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="2">
         <v>119</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="2">
         <v>79</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="2">
         <v>7900</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
+      <c r="H79" s="2"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>99</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="2">
         <v>99</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="2">
         <v>9900</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
+      <c r="H80" s="2"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="2">
         <v>109</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="2">
         <v>109</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="2">
         <v>10900</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="2">
         <v>199</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="2">
         <v>169</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="2">
         <v>16900</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
+      <c r="H82" s="2"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="2">
         <v>259</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="2">
         <v>189</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="2">
         <v>18900</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
+      <c r="H83" s="2"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="2">
         <v>139</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="2">
         <v>79</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="2">
         <v>7900</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
+      <c r="H84" s="2"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="2">
         <v>139</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="2">
         <v>79</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="2">
         <v>7900</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
+      <c r="H85" s="2"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="2">
         <v>169</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="2">
         <v>99</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="2">
         <v>9900</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
+      <c r="H86" s="2"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="2">
         <v>169</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="2">
         <v>99</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="2">
         <v>9900</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
+      <c r="H87" s="2"/>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="2">
         <v>169</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="2">
         <v>99</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="2">
         <v>9900</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
+      <c r="H88" s="2"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="2">
         <v>169</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="2">
         <v>99</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="2">
         <v>9900</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
+      <c r="H89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="2">
         <v>499</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="2">
         <v>309</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="2">
         <v>30900</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="2">
         <v>549</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="2">
         <v>399</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="2">
         <v>39900</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
+      <c r="H91" s="2"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="2">
         <v>179</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="2">
         <v>177</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="2">
         <v>17700</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="2">
         <v>559</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="2">
         <v>329</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="2">
         <v>32900</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
+      <c r="H93" s="2"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="2">
         <v>209</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="2">
         <v>189</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="2">
         <v>18900</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
+      <c r="H94" s="2"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="2">
         <v>135</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="2">
         <v>109</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="2">
         <v>10900</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
+      <c r="H95" s="2"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="2">
         <v>239</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="2">
         <v>209</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="2">
         <v>20900</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
+      <c r="H96" s="2"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="2">
         <v>119</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="2">
         <v>99</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="2">
         <v>9900</v>
       </c>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" t="s">
+      <c r="A98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="2">
         <v>86</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="2">
         <v>84</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="2">
         <v>8400</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" t="s">
+      <c r="A99" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="2">
         <v>86</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="2">
         <v>84</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="2">
         <v>8400</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" t="s">
+      <c r="A100" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="2">
         <v>86</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="2">
         <v>84</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="2">
         <v>8400</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
+    <row r="101" spans="1:8">
+      <c r="A101" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="2">
         <v>106</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="2">
         <v>104</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="2">
         <v>10400</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
+      <c r="H101" s="2"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="2">
         <v>106</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="2">
         <v>105</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="2">
         <v>10500</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
+      <c r="H102" s="2"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="2">
         <v>86</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="2">
         <v>84</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="2">
         <v>8400</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="2">
         <v>106</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="2">
         <v>105</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="2">
         <v>10500</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
+      <c r="H104" s="2"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="2">
         <v>106</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="2">
         <v>105</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="2">
         <v>10500</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
+      <c r="H105" s="2"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="2">
         <v>86</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="2">
         <v>84</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="2">
         <v>8400</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
+      <c r="H106" s="2"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="2">
         <v>86</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="2">
         <v>84</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="2">
         <v>8400</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
+      <c r="H107" s="2"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="2">
         <v>86</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="2">
         <v>84</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="2">
         <v>8400</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
+      <c r="H108" s="2"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="2">
         <v>77</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="2">
         <v>75</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="2">
         <v>7500</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
+      <c r="H109" s="2"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="2">
         <v>77</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="2">
         <v>75</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="2">
         <v>7500</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
+      <c r="H110" s="2"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="2">
         <v>77</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="2">
         <v>75</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="2">
         <v>7500</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
+      <c r="H111" s="2"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="2">
         <v>69</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="2">
         <v>69</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="2">
         <v>6900</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
+      <c r="H112" s="2"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="2">
         <v>69</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="2">
         <v>69</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="2">
         <v>6900</v>
       </c>
-    </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
+      <c r="H113" s="2"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="2">
         <v>69</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="2">
         <v>69</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="2">
         <v>6900</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="2">
         <v>89</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="2">
         <v>89</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="2">
         <v>8900</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
+      <c r="H115" s="2"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="2">
         <v>89</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="2">
         <v>89</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="2">
         <v>8900</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
+      <c r="H116" s="2"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="2">
         <v>89</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="2">
         <v>89</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="2">
         <v>8900</v>
       </c>
-    </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
+      <c r="H117" s="2"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="2">
         <v>39.9</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="2">
         <v>39.9</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="2">
         <v>3990</v>
       </c>
+      <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" t="s">
+      <c r="A119" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="2">
         <v>14.4</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="2">
         <v>14.4</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="2">
         <v>1440</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" t="s">
+      <c r="A120" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="2">
         <v>15.5</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="2">
         <v>15.5</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="2">
         <v>1550</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" t="s">
+      <c r="A121" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="2">
         <v>16.9</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="2">
         <v>16.9</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="2">
         <v>1690</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" t="s">
+      <c r="A122" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="2">
         <v>18.9</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="2">
         <v>18.9</v>
       </c>
-      <c r="G122">
+      <c r="G122" s="2">
         <v>1890</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" t="s">
+      <c r="A123" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="E123">
+      <c r="E123" s="2">
         <v>9.9</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="2">
         <v>9.9</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="2">
         <v>990</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" t="s">
+      <c r="A124" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E124">
+      <c r="E124" s="2">
         <v>18.5</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="2">
         <v>18.5</v>
       </c>
-      <c r="G124">
+      <c r="G124" s="2">
         <v>1850</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" t="s">
+      <c r="A125" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="E125">
+      <c r="E125" s="2">
         <v>11.9</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="2">
         <v>11.9</v>
       </c>
-      <c r="G125">
+      <c r="G125" s="2">
         <v>1190</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="126" spans="1:8">
-      <c r="A126" t="s">
+      <c r="A126" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="E126">
+      <c r="E126" s="2">
         <v>18</v>
       </c>
-      <c r="F126">
+      <c r="F126" s="2">
         <v>18</v>
       </c>
-      <c r="G126">
+      <c r="G126" s="2">
         <v>1800</v>
       </c>
-      <c r="H126" t="s">
+      <c r="H126" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" t="s">
+      <c r="A127" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="E127">
+      <c r="E127" s="2">
         <v>18.5</v>
       </c>
-      <c r="F127">
+      <c r="F127" s="2">
         <v>18.5</v>
       </c>
-      <c r="G127">
+      <c r="G127" s="2">
         <v>1850</v>
       </c>
-      <c r="H127" t="s">
+      <c r="H127" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" t="s">
+      <c r="A128" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="E128">
+      <c r="E128" s="2">
         <v>4.5</v>
       </c>
-      <c r="F128">
+      <c r="F128" s="2">
         <v>4.5</v>
       </c>
-      <c r="G128">
+      <c r="G128" s="2">
         <v>450</v>
       </c>
-      <c r="H128" t="s">
+      <c r="H128" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" t="s">
+      <c r="A129" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="E129">
+      <c r="E129" s="2">
         <v>5.7</v>
       </c>
-      <c r="F129">
+      <c r="F129" s="2">
         <v>5.7</v>
       </c>
-      <c r="G129">
+      <c r="G129" s="2">
         <v>570</v>
       </c>
-      <c r="H129" t="s">
+      <c r="H129" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" t="s">
+      <c r="A130" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="E130">
+      <c r="E130" s="2">
         <v>3.5</v>
       </c>
-      <c r="F130">
+      <c r="F130" s="2">
         <v>3.5</v>
       </c>
-      <c r="G130">
+      <c r="G130" s="2">
         <v>350</v>
       </c>
-      <c r="H130" t="s">
+      <c r="H130" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" t="s">
+      <c r="A131" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="E131">
+      <c r="E131" s="2">
         <v>8.6</v>
       </c>
-      <c r="F131">
+      <c r="F131" s="2">
         <v>8.6</v>
       </c>
-      <c r="G131">
+      <c r="G131" s="2">
         <v>860</v>
       </c>
-      <c r="H131" t="s">
+      <c r="H131" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" t="s">
+      <c r="A132" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="E132">
+      <c r="E132" s="2">
         <v>8</v>
       </c>
-      <c r="F132">
+      <c r="F132" s="2">
         <v>8</v>
       </c>
-      <c r="G132">
+      <c r="G132" s="2">
         <v>800</v>
       </c>
-      <c r="H132" t="s">
+      <c r="H132" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" t="s">
+      <c r="A133" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E133">
+      <c r="E133" s="2">
         <v>8</v>
       </c>
-      <c r="F133">
+      <c r="F133" s="2">
         <v>8</v>
       </c>
-      <c r="G133">
+      <c r="G133" s="2">
         <v>800</v>
       </c>
-      <c r="H133" t="s">
+      <c r="H133" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" t="s">
+      <c r="A134" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D134" s="2" t="s">
+      <c r="D134" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="E134">
+      <c r="E134" s="2">
         <v>8</v>
       </c>
-      <c r="F134">
+      <c r="F134" s="2">
         <v>8</v>
       </c>
-      <c r="G134">
+      <c r="G134" s="2">
         <v>800</v>
       </c>
-      <c r="H134" t="s">
+      <c r="H134" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" t="s">
+      <c r="A135" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="E135">
+      <c r="E135" s="2">
         <v>3.3</v>
       </c>
-      <c r="F135">
+      <c r="F135" s="2">
         <v>3.3</v>
       </c>
-      <c r="G135">
+      <c r="G135" s="2">
         <v>330</v>
       </c>
-      <c r="H135" t="s">
+      <c r="H135" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" t="s">
+      <c r="A136" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E136">
+      <c r="E136" s="2">
         <v>11.5</v>
       </c>
-      <c r="F136">
+      <c r="F136" s="2">
         <v>11.5</v>
       </c>
-      <c r="G136">
+      <c r="G136" s="2">
         <v>1150</v>
       </c>
-      <c r="H136" t="s">
+      <c r="H136" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" t="s">
+      <c r="A137" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="E137">
+      <c r="E137" s="2">
         <v>8.1</v>
       </c>
-      <c r="F137">
+      <c r="F137" s="2">
         <v>8.1</v>
       </c>
-      <c r="G137">
+      <c r="G137" s="2">
         <v>810</v>
       </c>
-      <c r="H137" t="s">
+      <c r="H137" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" t="s">
+      <c r="A138" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="E138">
+      <c r="E138" s="2">
         <v>2.6</v>
       </c>
-      <c r="F138">
+      <c r="F138" s="2">
         <v>2.6</v>
       </c>
-      <c r="G138">
+      <c r="G138" s="2">
         <v>260</v>
       </c>
-      <c r="H138" t="s">
+      <c r="H138" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" t="s">
+      <c r="A139" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="E139">
+      <c r="E139" s="2">
         <v>9.1</v>
       </c>
-      <c r="F139">
+      <c r="F139" s="2">
         <v>9.1</v>
       </c>
-      <c r="G139">
+      <c r="G139" s="2">
         <v>910</v>
       </c>
-      <c r="H139" t="s">
+      <c r="H139" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" t="s">
+      <c r="A140" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="2">
         <v>16.5</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="2">
         <v>16.5</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="2">
         <v>1650</v>
       </c>
-      <c r="H140" t="s">
+      <c r="H140" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" t="s">
+      <c r="A141" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="E141">
+      <c r="E141" s="2">
         <v>7.9</v>
       </c>
-      <c r="F141">
+      <c r="F141" s="2">
         <v>7.9</v>
       </c>
-      <c r="G141">
+      <c r="G141" s="2">
         <v>790</v>
       </c>
-      <c r="H141" t="s">
+      <c r="H141" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="142" spans="1:7">
-      <c r="A142" t="s">
+    <row r="142" spans="1:8">
+      <c r="A142" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="E142">
+      <c r="E142" s="2">
         <v>149</v>
       </c>
-      <c r="F142">
+      <c r="F142" s="2">
         <v>142</v>
       </c>
-      <c r="G142">
+      <c r="G142" s="2">
         <v>14200</v>
       </c>
-    </row>
-    <row r="143" spans="1:7">
-      <c r="A143" t="s">
+      <c r="H142" s="2"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="E143">
+      <c r="E143" s="2">
         <v>289</v>
       </c>
-      <c r="F143">
+      <c r="F143" s="2">
         <v>279</v>
       </c>
-      <c r="G143">
+      <c r="G143" s="2">
         <v>27900</v>
       </c>
-    </row>
-    <row r="144" spans="1:7">
-      <c r="A144" t="s">
+      <c r="H143" s="2"/>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="E144">
+      <c r="E144" s="2">
         <v>199</v>
       </c>
-      <c r="F144">
+      <c r="F144" s="2">
         <v>169</v>
       </c>
-      <c r="G144">
+      <c r="G144" s="2">
         <v>16900</v>
       </c>
-    </row>
-    <row r="145" spans="1:7">
-      <c r="A145" t="s">
+      <c r="H144" s="2"/>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="E145">
+      <c r="E145" s="2">
         <v>469</v>
       </c>
-      <c r="F145">
+      <c r="F145" s="2">
         <v>449</v>
       </c>
-      <c r="G145">
+      <c r="G145" s="2">
         <v>44900</v>
       </c>
+      <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8">
-      <c r="A146" t="s">
+      <c r="A146" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>465</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="E146">
+      <c r="E146" s="2">
         <v>30.9</v>
       </c>
-      <c r="F146">
+      <c r="F146" s="2">
         <v>30.9</v>
       </c>
-      <c r="G146">
+      <c r="G146" s="2">
         <v>3090</v>
       </c>
-      <c r="H146" t="s">
+      <c r="H146" s="2" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="147" spans="1:8">
-      <c r="A147" t="s">
+      <c r="A147" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="E147">
+      <c r="E147" s="2">
         <v>30.9</v>
       </c>
-      <c r="F147">
+      <c r="F147" s="2">
         <v>30.9</v>
       </c>
-      <c r="G147">
+      <c r="G147" s="2">
         <v>3090</v>
       </c>
-      <c r="H147" t="s">
+      <c r="H147" s="2" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:8">
-      <c r="A148" t="s">
+      <c r="A148" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>473</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="E148">
+      <c r="E148" s="2">
         <v>139</v>
       </c>
-      <c r="F148">
+      <c r="F148" s="2">
         <v>139</v>
       </c>
-      <c r="G148">
+      <c r="G148" s="2">
         <v>13900</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H148" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:8">
-      <c r="A149" t="s">
+      <c r="A149" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>477</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="E149">
+      <c r="E149" s="2">
         <v>109</v>
       </c>
-      <c r="F149">
+      <c r="F149" s="2">
         <v>109</v>
       </c>
-      <c r="G149">
+      <c r="G149" s="2">
         <v>10900</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H149" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="150" spans="1:7">
-      <c r="A150" t="s">
+    <row r="150" spans="1:8">
+      <c r="A150" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="E150">
+      <c r="E150" s="2">
         <v>449</v>
       </c>
-      <c r="F150">
+      <c r="F150" s="2">
         <v>399</v>
       </c>
-      <c r="G150">
+      <c r="G150" s="2">
         <v>39900</v>
       </c>
-    </row>
-    <row r="151" spans="1:7">
-      <c r="A151" t="s">
+      <c r="H150" s="2"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="E151">
+      <c r="E151" s="2">
         <v>129</v>
       </c>
-      <c r="F151">
+      <c r="F151" s="2">
         <v>129</v>
       </c>
-      <c r="G151">
+      <c r="G151" s="2">
         <v>12900</v>
       </c>
+      <c r="H151" s="2"/>
     </row>
     <row r="152" spans="1:8">
-      <c r="A152" t="s">
+      <c r="A152" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>488</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="E152">
+      <c r="E152" s="2">
         <v>219</v>
       </c>
-      <c r="F152">
+      <c r="F152" s="2">
         <v>219</v>
       </c>
-      <c r="G152">
+      <c r="G152" s="2">
         <v>21900</v>
       </c>
-      <c r="H152" t="s">
+      <c r="H152" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
-      <c r="A153" t="s">
+    <row r="153" spans="1:8">
+      <c r="A153" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="E153">
+      <c r="E153" s="2">
         <v>1999</v>
       </c>
-      <c r="F153">
+      <c r="F153" s="2">
         <v>1499</v>
       </c>
-      <c r="G153">
+      <c r="G153" s="2">
         <v>149900</v>
       </c>
+      <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
-      <c r="A154" t="s">
+      <c r="A154" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E154">
+      <c r="E154" s="2">
         <v>30</v>
       </c>
-      <c r="F154">
+      <c r="F154" s="2">
         <v>30</v>
       </c>
-      <c r="G154">
+      <c r="G154" s="2">
         <v>3000</v>
       </c>
-      <c r="H154" t="s">
+      <c r="H154" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="155" spans="1:8">
-      <c r="A155" t="s">
+      <c r="A155" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="E155">
+      <c r="E155" s="2">
         <v>36</v>
       </c>
-      <c r="F155">
+      <c r="F155" s="2">
         <v>36</v>
       </c>
-      <c r="G155">
+      <c r="G155" s="2">
         <v>3600</v>
       </c>
-      <c r="H155" t="s">
+      <c r="H155" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="156" spans="1:8">
-      <c r="A156" t="s">
+      <c r="A156" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E156">
+      <c r="E156" s="2">
         <v>35</v>
       </c>
-      <c r="F156">
+      <c r="F156" s="2">
         <v>35</v>
       </c>
-      <c r="G156">
+      <c r="G156" s="2">
         <v>3500</v>
       </c>
-      <c r="H156" t="s">
+      <c r="H156" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="157" spans="1:8">
-      <c r="A157" t="s">
+      <c r="A157" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="E157">
+      <c r="E157" s="2">
         <v>35</v>
       </c>
-      <c r="F157">
+      <c r="F157" s="2">
         <v>35</v>
       </c>
-      <c r="G157">
+      <c r="G157" s="2">
         <v>3500</v>
       </c>
-      <c r="H157" t="s">
+      <c r="H157" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" t="s">
+      <c r="A158" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="E158">
+      <c r="E158" s="2">
         <v>15</v>
       </c>
-      <c r="F158">
+      <c r="F158" s="2">
         <v>15</v>
       </c>
-      <c r="G158">
+      <c r="G158" s="2">
         <v>1500</v>
       </c>
-      <c r="H158" t="s">
+      <c r="H158" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="159" spans="1:8">
-      <c r="A159" t="s">
+      <c r="A159" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="E159">
+      <c r="E159" s="2">
         <v>40</v>
       </c>
-      <c r="F159">
+      <c r="F159" s="2">
         <v>40</v>
       </c>
-      <c r="G159">
+      <c r="G159" s="2">
         <v>4000</v>
       </c>
-      <c r="H159" t="s">
+      <c r="H159" s="2" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="160" spans="1:8">
-      <c r="A160" t="s">
+      <c r="A160" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E160">
+      <c r="E160" s="2">
         <v>50</v>
       </c>
-      <c r="F160">
+      <c r="F160" s="2">
         <v>50</v>
       </c>
-      <c r="G160">
+      <c r="G160" s="2">
         <v>5000</v>
       </c>
-      <c r="H160" t="s">
+      <c r="H160" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
-      <c r="A161" t="s">
+    <row r="161" spans="1:8">
+      <c r="A161" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="E161">
+      <c r="E161" s="2">
         <v>299</v>
       </c>
-      <c r="F161">
+      <c r="F161" s="2">
         <v>299</v>
       </c>
-      <c r="G161">
+      <c r="G161" s="2">
         <v>29900</v>
       </c>
-    </row>
-    <row r="162" spans="1:7">
-      <c r="A162" t="s">
+      <c r="H161" s="2"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="E162">
+      <c r="E162" s="2">
         <v>229</v>
       </c>
-      <c r="F162">
+      <c r="F162" s="2">
         <v>229</v>
       </c>
-      <c r="G162">
+      <c r="G162" s="2">
         <v>22900</v>
       </c>
-    </row>
-    <row r="163" spans="1:7">
-      <c r="A163" t="s">
+      <c r="H162" s="2"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="E163">
+      <c r="E163" s="2">
         <v>309</v>
       </c>
-      <c r="F163">
+      <c r="F163" s="2">
         <v>299</v>
       </c>
-      <c r="G163">
+      <c r="G163" s="2">
         <v>29900</v>
       </c>
-    </row>
-    <row r="164" spans="1:7">
-      <c r="A164" t="s">
+      <c r="H163" s="2"/>
+    </row>
+    <row r="164" spans="1:8">
+      <c r="A164" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E164">
+      <c r="E164" s="2">
         <v>339</v>
       </c>
-      <c r="F164">
+      <c r="F164" s="2">
         <v>329</v>
       </c>
-      <c r="G164">
+      <c r="G164" s="2">
         <v>32900</v>
       </c>
-    </row>
-    <row r="165" spans="1:7">
-      <c r="A165" t="s">
+      <c r="H164" s="2"/>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E165">
+      <c r="E165" s="2">
         <v>159</v>
       </c>
-      <c r="F165">
+      <c r="F165" s="2">
         <v>109</v>
       </c>
-      <c r="G165">
+      <c r="G165" s="2">
         <v>10900</v>
       </c>
-    </row>
-    <row r="166" spans="1:7">
-      <c r="A166" t="s">
+      <c r="H165" s="2"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="E166">
+      <c r="E166" s="2">
         <v>159</v>
       </c>
-      <c r="F166">
+      <c r="F166" s="2">
         <v>109</v>
       </c>
-      <c r="G166">
+      <c r="G166" s="2">
         <v>10900</v>
       </c>
-    </row>
-    <row r="167" spans="1:7">
-      <c r="A167" t="s">
+      <c r="H166" s="2"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="E167">
+      <c r="E167" s="2">
         <v>169</v>
       </c>
-      <c r="F167">
+      <c r="F167" s="2">
         <v>119</v>
       </c>
-      <c r="G167">
+      <c r="G167" s="2">
         <v>11900</v>
       </c>
-    </row>
-    <row r="168" spans="1:7">
-      <c r="A168" t="s">
+      <c r="H167" s="2"/>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="E168">
+      <c r="E168" s="2">
         <v>179</v>
       </c>
-      <c r="F168">
+      <c r="F168" s="2">
         <v>159</v>
       </c>
-      <c r="G168">
+      <c r="G168" s="2">
         <v>15900</v>
       </c>
-    </row>
-    <row r="169" spans="1:7">
-      <c r="A169" t="s">
+      <c r="H168" s="2"/>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="A169" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="E169">
+      <c r="E169" s="2">
         <v>239</v>
       </c>
-      <c r="F169">
+      <c r="F169" s="2">
         <v>129</v>
       </c>
-      <c r="G169">
+      <c r="G169" s="2">
         <v>12900</v>
       </c>
-    </row>
-    <row r="170" spans="1:7">
-      <c r="A170" t="s">
+      <c r="H169" s="2"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="E170">
+      <c r="E170" s="2">
         <v>299</v>
       </c>
-      <c r="F170">
+      <c r="F170" s="2">
         <v>189</v>
       </c>
-      <c r="G170">
+      <c r="G170" s="2">
         <v>18900</v>
       </c>
-    </row>
-    <row r="171" spans="1:7">
-      <c r="A171" t="s">
+      <c r="H170" s="2"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="E171">
+      <c r="E171" s="2">
         <v>299</v>
       </c>
-      <c r="F171">
+      <c r="F171" s="2">
         <v>259</v>
       </c>
-      <c r="G171">
+      <c r="G171" s="2">
         <v>25900</v>
       </c>
-    </row>
-    <row r="172" spans="1:7">
-      <c r="A172" t="s">
+      <c r="H171" s="2"/>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="A172" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="E172">
+      <c r="E172" s="2">
         <v>159</v>
       </c>
-      <c r="F172">
+      <c r="F172" s="2">
         <v>99</v>
       </c>
-      <c r="G172">
+      <c r="G172" s="2">
         <v>9900</v>
       </c>
-    </row>
-    <row r="173" spans="1:7">
-      <c r="A173" t="s">
+      <c r="H172" s="2"/>
+    </row>
+    <row r="173" spans="1:8">
+      <c r="A173" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="E173">
+      <c r="E173" s="2">
         <v>449</v>
       </c>
-      <c r="F173">
+      <c r="F173" s="2">
         <v>299</v>
       </c>
-      <c r="G173">
+      <c r="G173" s="2">
         <v>29900</v>
       </c>
+      <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8">
-      <c r="A174" t="s">
+      <c r="A174" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="2" t="s">
         <v>557</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E174">
+      <c r="E174" s="2">
         <v>499</v>
       </c>
-      <c r="F174">
+      <c r="F174" s="2">
         <v>299</v>
       </c>
-      <c r="G174">
+      <c r="G174" s="2">
         <v>29900</v>
       </c>
-      <c r="H174" t="s">
+      <c r="H174" s="2" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="175" spans="1:7">
-      <c r="A175" t="s">
+    <row r="175" spans="1:8">
+      <c r="A175" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="E175">
+      <c r="E175" s="2">
         <v>1299</v>
       </c>
-      <c r="F175">
+      <c r="F175" s="2">
         <v>879</v>
       </c>
-      <c r="G175">
+      <c r="G175" s="2">
         <v>87900</v>
       </c>
-    </row>
-    <row r="176" spans="1:7">
-      <c r="A176" t="s">
+      <c r="H175" s="2"/>
+    </row>
+    <row r="176" spans="1:8">
+      <c r="A176" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E176">
+      <c r="E176" s="2">
         <v>1899</v>
       </c>
-      <c r="F176">
+      <c r="F176" s="2">
         <v>1399</v>
       </c>
-      <c r="G176">
+      <c r="G176" s="2">
         <v>139900</v>
       </c>
-    </row>
-    <row r="177" spans="1:7">
-      <c r="A177" t="s">
+      <c r="H176" s="2"/>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="E177">
+      <c r="E177" s="2">
         <v>1499</v>
       </c>
-      <c r="F177">
+      <c r="F177" s="2">
         <v>1049</v>
       </c>
-      <c r="G177">
+      <c r="G177" s="2">
         <v>104900</v>
       </c>
-    </row>
-    <row r="178" spans="1:7">
-      <c r="A178" t="s">
+      <c r="H177" s="2"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="E178">
+      <c r="E178" s="2">
         <v>499</v>
       </c>
-      <c r="F178">
+      <c r="F178" s="2">
         <v>499</v>
       </c>
-      <c r="G178">
+      <c r="G178" s="2">
         <v>49900</v>
       </c>
+      <c r="H178" s="2"/>
     </row>
     <row r="179" spans="1:8">
-      <c r="A179" t="s">
+      <c r="A179" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="2" t="s">
         <v>575</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="E179">
+      <c r="E179" s="2">
         <v>109</v>
       </c>
-      <c r="F179">
+      <c r="F179" s="2">
         <v>109</v>
       </c>
-      <c r="G179">
+      <c r="G179" s="2">
         <v>10900</v>
       </c>
-      <c r="H179" t="s">
+      <c r="H179" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="180" spans="1:8">
-      <c r="A180" t="s">
+      <c r="A180" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="E180">
+      <c r="E180" s="2">
         <v>299</v>
       </c>
-      <c r="F180">
+      <c r="F180" s="2">
         <v>269</v>
       </c>
-      <c r="G180">
+      <c r="G180" s="2">
         <v>26900</v>
       </c>
-      <c r="H180" t="s">
+      <c r="H180" s="2" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="181" spans="1:8">
-      <c r="A181" t="s">
+      <c r="A181" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="2" t="s">
         <v>583</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="E181">
+      <c r="E181" s="2">
         <v>389</v>
       </c>
-      <c r="F181">
+      <c r="F181" s="2">
         <v>259</v>
       </c>
-      <c r="G181">
+      <c r="G181" s="2">
         <v>25900</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H181" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:8">
-      <c r="A182" t="s">
+      <c r="A182" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="2" t="s">
         <v>586</v>
       </c>
       <c r="D182" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="E182">
+      <c r="E182" s="2">
         <v>349</v>
       </c>
-      <c r="F182">
+      <c r="F182" s="2">
         <v>229</v>
       </c>
-      <c r="G182">
+      <c r="G182" s="2">
         <v>22900</v>
       </c>
-      <c r="H182" t="s">
+      <c r="H182" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="183" spans="1:7">
-      <c r="A183" t="s">
+    <row r="183" spans="1:8">
+      <c r="A183" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="E183">
+      <c r="E183" s="2">
         <v>179</v>
       </c>
-      <c r="F183">
+      <c r="F183" s="2">
         <v>139</v>
       </c>
-      <c r="G183">
+      <c r="G183" s="2">
         <v>13900</v>
       </c>
-    </row>
-    <row r="184" spans="1:7">
-      <c r="A184" t="s">
+      <c r="H183" s="2"/>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="A184" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E184">
+      <c r="E184" s="2">
         <v>599</v>
       </c>
-      <c r="F184">
+      <c r="F184" s="2">
         <v>419</v>
       </c>
-      <c r="G184">
+      <c r="G184" s="2">
         <v>41900</v>
       </c>
+      <c r="H184" s="2"/>
+    </row>
+    <row r="185" spans="1:8">
+      <c r="A185" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E185" s="5">
+        <v>3999</v>
+      </c>
+      <c r="F185" s="5">
+        <v>3099</v>
+      </c>
+      <c r="G185" s="2">
+        <v>309900</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E186" s="5">
+        <v>3699</v>
+      </c>
+      <c r="F186" s="5">
+        <v>2899</v>
+      </c>
+      <c r="G186" s="2">
+        <v>289900</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="A187" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E187" s="7">
+        <v>79</v>
+      </c>
+      <c r="F187" s="7">
+        <v>79</v>
+      </c>
+      <c r="G187" s="8">
+        <f t="shared" ref="G187:G216" si="0">F187*100</f>
+        <v>7900</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
+      <c r="A188" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E188" s="7">
+        <v>79</v>
+      </c>
+      <c r="F188" s="7">
+        <v>79</v>
+      </c>
+      <c r="G188" s="8">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="E189" s="7">
+        <v>89</v>
+      </c>
+      <c r="F189" s="7">
+        <v>89</v>
+      </c>
+      <c r="G189" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="A190" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="E190" s="7">
+        <v>89</v>
+      </c>
+      <c r="F190" s="7">
+        <v>89</v>
+      </c>
+      <c r="G190" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
+      <c r="A191" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E191" s="7">
+        <v>79</v>
+      </c>
+      <c r="F191" s="7">
+        <v>79</v>
+      </c>
+      <c r="G191" s="8">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>621</v>
+      </c>
+      <c r="E192" s="7">
+        <v>79</v>
+      </c>
+      <c r="F192" s="7">
+        <v>79</v>
+      </c>
+      <c r="G192" s="8">
+        <f t="shared" si="0"/>
+        <v>7900</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="A193" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="E193" s="7">
+        <v>89</v>
+      </c>
+      <c r="F193" s="7">
+        <v>89</v>
+      </c>
+      <c r="G193" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H193" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E194" s="7">
+        <v>89</v>
+      </c>
+      <c r="F194" s="7">
+        <v>89</v>
+      </c>
+      <c r="G194" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H194" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="E195" s="7">
+        <v>89</v>
+      </c>
+      <c r="F195" s="7">
+        <v>89</v>
+      </c>
+      <c r="G195" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H195" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="A196" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="E196" s="7">
+        <v>99</v>
+      </c>
+      <c r="F196" s="7">
+        <v>99</v>
+      </c>
+      <c r="G196" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H196" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
+      <c r="A197" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E197" s="7">
+        <v>99</v>
+      </c>
+      <c r="F197" s="7">
+        <v>99</v>
+      </c>
+      <c r="G197" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H197" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="E198" s="7">
+        <v>89</v>
+      </c>
+      <c r="F198" s="7">
+        <v>89</v>
+      </c>
+      <c r="G198" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="A199" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="E199" s="7">
+        <v>89</v>
+      </c>
+      <c r="F199" s="7">
+        <v>89</v>
+      </c>
+      <c r="G199" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H199" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="E200" s="7">
+        <v>89</v>
+      </c>
+      <c r="F200" s="7">
+        <v>89</v>
+      </c>
+      <c r="G200" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D201" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E201" s="7">
+        <v>99</v>
+      </c>
+      <c r="F201" s="7">
+        <v>99</v>
+      </c>
+      <c r="G201" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H201" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="A202" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>652</v>
+      </c>
+      <c r="E202" s="7">
+        <v>99</v>
+      </c>
+      <c r="F202" s="7">
+        <v>99</v>
+      </c>
+      <c r="G202" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H202" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
+      <c r="A203" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="D203" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="E203" s="7">
+        <v>99</v>
+      </c>
+      <c r="F203" s="7">
+        <v>99</v>
+      </c>
+      <c r="G203" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H203" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D204" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="E204" s="7">
+        <v>99</v>
+      </c>
+      <c r="F204" s="7">
+        <v>99</v>
+      </c>
+      <c r="G204" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H204" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="A205" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D205" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="E205" s="7">
+        <v>99</v>
+      </c>
+      <c r="F205" s="7">
+        <v>99</v>
+      </c>
+      <c r="G205" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H205" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
+      <c r="A206" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D206" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E206" s="7">
+        <v>99</v>
+      </c>
+      <c r="F206" s="7">
+        <v>99</v>
+      </c>
+      <c r="G206" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H206" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D207" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="E207" s="7">
+        <v>89</v>
+      </c>
+      <c r="F207" s="7">
+        <v>89</v>
+      </c>
+      <c r="G207" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H207" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="A208" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="D208" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="E208" s="7">
+        <v>89</v>
+      </c>
+      <c r="F208" s="7">
+        <v>89</v>
+      </c>
+      <c r="G208" s="8">
+        <f t="shared" si="0"/>
+        <v>8900</v>
+      </c>
+      <c r="H208" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
+      <c r="A209" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D209" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E209" s="7">
+        <v>99</v>
+      </c>
+      <c r="F209" s="7">
+        <v>99</v>
+      </c>
+      <c r="G209" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H209" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="C210" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="E210" s="7">
+        <v>99</v>
+      </c>
+      <c r="F210" s="7">
+        <v>99</v>
+      </c>
+      <c r="G210" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H210" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="A211" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D211" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="E211" s="7">
+        <v>99</v>
+      </c>
+      <c r="F211" s="7">
+        <v>99</v>
+      </c>
+      <c r="G211" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H211" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
+      <c r="A212" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="D212" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="E212" s="7">
+        <v>99</v>
+      </c>
+      <c r="F212" s="7">
+        <v>99</v>
+      </c>
+      <c r="G212" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H212" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D213" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E213" s="7">
+        <v>99</v>
+      </c>
+      <c r="F213" s="7">
+        <v>99</v>
+      </c>
+      <c r="G213" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H213" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="A214" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D214" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="E214" s="7">
+        <v>99</v>
+      </c>
+      <c r="F214" s="7">
+        <v>99</v>
+      </c>
+      <c r="G214" s="8">
+        <f t="shared" si="0"/>
+        <v>9900</v>
+      </c>
+      <c r="H214" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
+      <c r="A215" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="E215" s="2">
+        <v>259</v>
+      </c>
+      <c r="F215" s="2">
+        <v>259</v>
+      </c>
+      <c r="G215" s="8">
+        <f t="shared" si="0"/>
+        <v>25900</v>
+      </c>
+      <c r="H215" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D216" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="E216" s="2">
+        <v>269</v>
+      </c>
+      <c r="F216" s="2">
+        <v>269</v>
+      </c>
+      <c r="G216" s="8">
+        <f t="shared" si="0"/>
+        <v>26900</v>
+      </c>
+      <c r="H216" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H184">
-    <sortCondition ref="B2"/>
-  </sortState>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4"/>
     <hyperlink ref="D3" r:id="rId2" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
@@ -7305,183 +8589,215 @@
     <hyperlink ref="D5" r:id="rId4" display="https://img.lazcdn.com/g/p/0f08830da4bd607bd1b5299f3d60ca19.jpg_720x720q80.jpg"/>
     <hyperlink ref="D6" r:id="rId5" display="https://i.ibb.co/TxfL8mYs/New-Project-2.png"/>
     <hyperlink ref="D7" r:id="rId6" display="https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png"/>
-    <hyperlink ref="D9" r:id="rId7" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D10" r:id="rId8" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D11" r:id="rId9" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
-    <hyperlink ref="D14" r:id="rId10" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D15" r:id="rId11" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D16" r:id="rId12" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D17" r:id="rId13" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D18" r:id="rId14" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D19" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D22" r:id="rId16" display="https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png"/>
-    <hyperlink ref="D23" r:id="rId17" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
-    <hyperlink ref="D24" r:id="rId18" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
-    <hyperlink ref="D25" r:id="rId19" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
-    <hyperlink ref="D26" r:id="rId20" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
-    <hyperlink ref="D27" r:id="rId21" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
-    <hyperlink ref="D29" r:id="rId22" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58"/>
-    <hyperlink ref="D30" r:id="rId23" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17"/>
-    <hyperlink ref="D32" r:id="rId24" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
-    <hyperlink ref="D33" r:id="rId25" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D34" r:id="rId26" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D35" r:id="rId27" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
-    <hyperlink ref="D36" r:id="rId28" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D37" r:id="rId28" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D40" r:id="rId29" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
-    <hyperlink ref="D42" r:id="rId30" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
-    <hyperlink ref="D43" r:id="rId31" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
-    <hyperlink ref="D46" r:id="rId32" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
-    <hyperlink ref="D47" r:id="rId33" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
-    <hyperlink ref="D49" r:id="rId34" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
-    <hyperlink ref="D50" r:id="rId35" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
-    <hyperlink ref="D51" r:id="rId36" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
-    <hyperlink ref="D52" r:id="rId37" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
-    <hyperlink ref="D53" r:id="rId38" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
-    <hyperlink ref="D54" r:id="rId39" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D55" r:id="rId40" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
-    <hyperlink ref="D56" r:id="rId39" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D57" r:id="rId41" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
-    <hyperlink ref="D58" r:id="rId42" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
-    <hyperlink ref="D60" r:id="rId43" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
-    <hyperlink ref="D61" r:id="rId44" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
-    <hyperlink ref="D62" r:id="rId45" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
-    <hyperlink ref="D63" r:id="rId46" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
-    <hyperlink ref="D64" r:id="rId47" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
-    <hyperlink ref="D65" r:id="rId48" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
-    <hyperlink ref="D66" r:id="rId49" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D67" r:id="rId50" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
-    <hyperlink ref="D68" r:id="rId51" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
-    <hyperlink ref="D69" r:id="rId52" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
-    <hyperlink ref="D70" r:id="rId53" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
-    <hyperlink ref="D71" r:id="rId54" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
-    <hyperlink ref="D72" r:id="rId55" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
-    <hyperlink ref="D73" r:id="rId56" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
-    <hyperlink ref="D74" r:id="rId57" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
-    <hyperlink ref="D75" r:id="rId58" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
-    <hyperlink ref="D76" r:id="rId59" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
-    <hyperlink ref="D77" r:id="rId60" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D78" r:id="rId61" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
-    <hyperlink ref="D79" r:id="rId62" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
-    <hyperlink ref="D80" r:id="rId63" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
-    <hyperlink ref="D81" r:id="rId64" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
-    <hyperlink ref="D90" r:id="rId65" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
-    <hyperlink ref="D91" r:id="rId66" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
-    <hyperlink ref="D92" r:id="rId67" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
-    <hyperlink ref="D93" r:id="rId68" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
-    <hyperlink ref="D94" r:id="rId69" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
-    <hyperlink ref="D95" r:id="rId70" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
-    <hyperlink ref="D96" r:id="rId71" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
-    <hyperlink ref="D97" r:id="rId72" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D98" r:id="rId73" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
-    <hyperlink ref="D99" r:id="rId74" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D100" r:id="rId75" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D101" r:id="rId76" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
-    <hyperlink ref="D102" r:id="rId77" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958"/>
-    <hyperlink ref="D103" r:id="rId78" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
-    <hyperlink ref="D104" r:id="rId79" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D105" r:id="rId80" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D106" r:id="rId81" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
-    <hyperlink ref="D107" r:id="rId82" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
-    <hyperlink ref="D108" r:id="rId83" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
-    <hyperlink ref="D109" r:id="rId84" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D110" r:id="rId85" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D111" r:id="rId86" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D112" r:id="rId87" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
-    <hyperlink ref="D113" r:id="rId88" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
-    <hyperlink ref="D114" r:id="rId89" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
-    <hyperlink ref="D115" r:id="rId90" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
-    <hyperlink ref="D116" r:id="rId91" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
-    <hyperlink ref="D117" r:id="rId92" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
-    <hyperlink ref="D118" r:id="rId93" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
-    <hyperlink ref="D119" r:id="rId94" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
-    <hyperlink ref="D120" r:id="rId95" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
-    <hyperlink ref="D121" r:id="rId96" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
-    <hyperlink ref="D122" r:id="rId97" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D123" r:id="rId98" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
-    <hyperlink ref="D124" r:id="rId99" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
-    <hyperlink ref="D125" r:id="rId100" display="https://iili.io/3FH357a.md.png"/>
-    <hyperlink ref="D126" r:id="rId101" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
-    <hyperlink ref="D127" r:id="rId102" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
-    <hyperlink ref="D128" r:id="rId103" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
-    <hyperlink ref="D129" r:id="rId104" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
-    <hyperlink ref="D130" r:id="rId105" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
-    <hyperlink ref="D131" r:id="rId106" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
-    <hyperlink ref="D132" r:id="rId107" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
-    <hyperlink ref="D133" r:id="rId108" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
-    <hyperlink ref="D134" r:id="rId109" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
-    <hyperlink ref="D135" r:id="rId110" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
-    <hyperlink ref="D136" r:id="rId111" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
-    <hyperlink ref="D137" r:id="rId112" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
-    <hyperlink ref="D138" r:id="rId113" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
-    <hyperlink ref="D139" r:id="rId114" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
-    <hyperlink ref="D140" r:id="rId115" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
-    <hyperlink ref="D141" r:id="rId116" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
-    <hyperlink ref="D142" r:id="rId117" display="https://iili.io/3FHwaQn.md.jpg"/>
-    <hyperlink ref="D143" r:id="rId118" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D144" r:id="rId119" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D145" r:id="rId120" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="D150" r:id="rId121" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D151" r:id="rId122" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
-    <hyperlink ref="D153" r:id="rId123" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
-    <hyperlink ref="D154" r:id="rId124" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
-    <hyperlink ref="D155" r:id="rId125" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
-    <hyperlink ref="D156" r:id="rId126" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D157" r:id="rId126" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D158" r:id="rId97" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D159" r:id="rId127" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
-    <hyperlink ref="D160" r:id="rId128" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
-    <hyperlink ref="D161" r:id="rId129" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
-    <hyperlink ref="D162" r:id="rId130" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
-    <hyperlink ref="D163" r:id="rId131" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
-    <hyperlink ref="D164" r:id="rId132" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
-    <hyperlink ref="D165" r:id="rId133" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
-    <hyperlink ref="D166" r:id="rId134" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
-    <hyperlink ref="D167" r:id="rId135" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
-    <hyperlink ref="D168" r:id="rId136" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
-    <hyperlink ref="D169" r:id="rId137" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
-    <hyperlink ref="D170" r:id="rId138" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D171" r:id="rId139" display="https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121"/>
-    <hyperlink ref="D172" r:id="rId140" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
-    <hyperlink ref="D173" r:id="rId141" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D175" r:id="rId142" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
-    <hyperlink ref="D176" r:id="rId143" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
-    <hyperlink ref="D177" r:id="rId144" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
-    <hyperlink ref="D178" r:id="rId145" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
-    <hyperlink ref="D180" r:id="rId146" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
-    <hyperlink ref="D183" r:id="rId147" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
-    <hyperlink ref="D184" r:id="rId148" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
-    <hyperlink ref="D8" r:id="rId149" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D12" r:id="rId150" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D13" r:id="rId151" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D20" r:id="rId152" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D21" r:id="rId153" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D28" r:id="rId154" display="https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e"/>
-    <hyperlink ref="D38" r:id="rId155" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
-    <hyperlink ref="D39" r:id="rId156" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
-    <hyperlink ref="D31" r:id="rId157" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D41" r:id="rId158" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
-    <hyperlink ref="D44" r:id="rId159" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg" tooltip="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
-    <hyperlink ref="D45" r:id="rId160" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
-    <hyperlink ref="D48" r:id="rId161" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
-    <hyperlink ref="D59" r:id="rId162" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D146" r:id="rId163" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
-    <hyperlink ref="D147" r:id="rId164" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
-    <hyperlink ref="D148" r:id="rId165" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
-    <hyperlink ref="D149" r:id="rId166" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
-    <hyperlink ref="D152" r:id="rId167" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
-    <hyperlink ref="D174" r:id="rId168" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D179" r:id="rId169" display="https://rukminim2.flixcart.com/image/850/1000/l0pm3680/home-security-camera/3/u/p/6-tapo-c210-3mp-1296p-pan-tilt-wi-fi-indoor-security-camera-tp-original-imagcfrevgynzfkx.jpeg?q=20&amp;crop=false"/>
-    <hyperlink ref="D181" r:id="rId170" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D182" r:id="rId171" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
-    <hyperlink ref="D88" r:id="rId172" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
-    <hyperlink ref="D89" r:id="rId173" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
-    <hyperlink ref="D84" r:id="rId174" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
-    <hyperlink ref="D85" r:id="rId175" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
-    <hyperlink ref="D86" r:id="rId176" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
-    <hyperlink ref="D87" r:id="rId177" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
-    <hyperlink ref="D83" r:id="rId178" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
-    <hyperlink ref="D82" r:id="rId179" display="https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D37" r:id="rId35" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D38" r:id="rId36" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
+    <hyperlink ref="D39" r:id="rId37" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
+    <hyperlink ref="D40" r:id="rId38" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
+    <hyperlink ref="D41" r:id="rId39" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
+    <hyperlink ref="D42" r:id="rId40" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
+    <hyperlink ref="D43" r:id="rId41" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
+    <hyperlink ref="D44" r:id="rId42" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
+    <hyperlink ref="D45" r:id="rId43" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
+    <hyperlink ref="D46" r:id="rId44" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
+    <hyperlink ref="D47" r:id="rId45" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
+    <hyperlink ref="D48" r:id="rId46" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
+    <hyperlink ref="D49" r:id="rId47" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
+    <hyperlink ref="D50" r:id="rId48" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
+    <hyperlink ref="D51" r:id="rId49" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
+    <hyperlink ref="D52" r:id="rId50" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
+    <hyperlink ref="D53" r:id="rId51" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
+    <hyperlink ref="D54" r:id="rId52" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D55" r:id="rId53" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
+    <hyperlink ref="D56" r:id="rId52" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D57" r:id="rId54" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
+    <hyperlink ref="D58" r:id="rId55" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
+    <hyperlink ref="D59" r:id="rId56" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D60" r:id="rId57" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
+    <hyperlink ref="D61" r:id="rId58" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
+    <hyperlink ref="D62" r:id="rId59" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
+    <hyperlink ref="D63" r:id="rId60" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
+    <hyperlink ref="D64" r:id="rId61" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
+    <hyperlink ref="D65" r:id="rId62" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
+    <hyperlink ref="D66" r:id="rId63" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D67" r:id="rId64" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
+    <hyperlink ref="D68" r:id="rId65" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
+    <hyperlink ref="D69" r:id="rId66" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
+    <hyperlink ref="D70" r:id="rId67" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
+    <hyperlink ref="D71" r:id="rId68" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
+    <hyperlink ref="D72" r:id="rId69" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
+    <hyperlink ref="D73" r:id="rId70" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
+    <hyperlink ref="D74" r:id="rId71" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
+    <hyperlink ref="D75" r:id="rId72" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
+    <hyperlink ref="D76" r:id="rId73" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
+    <hyperlink ref="D77" r:id="rId74" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D78" r:id="rId75" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
+    <hyperlink ref="D79" r:id="rId76" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
+    <hyperlink ref="D80" r:id="rId77" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
+    <hyperlink ref="D81" r:id="rId78" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
+    <hyperlink ref="D82" r:id="rId79" display="https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png"/>
+    <hyperlink ref="D83" r:id="rId80" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
+    <hyperlink ref="D84" r:id="rId81" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
+    <hyperlink ref="D85" r:id="rId82" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
+    <hyperlink ref="D86" r:id="rId83" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
+    <hyperlink ref="D87" r:id="rId84" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
+    <hyperlink ref="D88" r:id="rId85" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
+    <hyperlink ref="D89" r:id="rId86" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
+    <hyperlink ref="D90" r:id="rId87" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
+    <hyperlink ref="D91" r:id="rId88" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
+    <hyperlink ref="D92" r:id="rId89" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
+    <hyperlink ref="D93" r:id="rId90" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
+    <hyperlink ref="D94" r:id="rId91" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
+    <hyperlink ref="D95" r:id="rId92" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
+    <hyperlink ref="D96" r:id="rId93" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
+    <hyperlink ref="D97" r:id="rId94" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D98" r:id="rId95" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
+    <hyperlink ref="D99" r:id="rId96" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D100" r:id="rId97" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D101" r:id="rId98" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
+    <hyperlink ref="D102" r:id="rId99" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958"/>
+    <hyperlink ref="D103" r:id="rId100" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
+    <hyperlink ref="D104" r:id="rId101" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D105" r:id="rId102" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D106" r:id="rId103" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
+    <hyperlink ref="D107" r:id="rId104" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
+    <hyperlink ref="D108" r:id="rId105" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
+    <hyperlink ref="D109" r:id="rId106" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D110" r:id="rId107" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D111" r:id="rId108" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D112" r:id="rId109" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
+    <hyperlink ref="D113" r:id="rId110" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
+    <hyperlink ref="D114" r:id="rId111" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
+    <hyperlink ref="D115" r:id="rId112" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
+    <hyperlink ref="D116" r:id="rId113" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
+    <hyperlink ref="D117" r:id="rId114" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
+    <hyperlink ref="D118" r:id="rId115" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
+    <hyperlink ref="D119" r:id="rId116" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
+    <hyperlink ref="D120" r:id="rId117" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
+    <hyperlink ref="D121" r:id="rId118" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
+    <hyperlink ref="D122" r:id="rId119" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D123" r:id="rId120" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
+    <hyperlink ref="D124" r:id="rId121" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
+    <hyperlink ref="D125" r:id="rId122" display="https://iili.io/3FH357a.md.png"/>
+    <hyperlink ref="D126" r:id="rId123" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
+    <hyperlink ref="D127" r:id="rId124" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
+    <hyperlink ref="D128" r:id="rId125" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
+    <hyperlink ref="D129" r:id="rId126" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
+    <hyperlink ref="D130" r:id="rId127" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
+    <hyperlink ref="D131" r:id="rId128" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
+    <hyperlink ref="D132" r:id="rId129" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
+    <hyperlink ref="D133" r:id="rId130" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
+    <hyperlink ref="D134" r:id="rId131" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
+    <hyperlink ref="D135" r:id="rId132" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
+    <hyperlink ref="D136" r:id="rId133" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
+    <hyperlink ref="D137" r:id="rId134" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
+    <hyperlink ref="D138" r:id="rId135" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
+    <hyperlink ref="D139" r:id="rId136" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
+    <hyperlink ref="D140" r:id="rId137" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
+    <hyperlink ref="D141" r:id="rId138" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
+    <hyperlink ref="D142" r:id="rId139" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="D143" r:id="rId140" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D144" r:id="rId141" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D145" r:id="rId142" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="D146" r:id="rId143" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
+    <hyperlink ref="D147" r:id="rId144" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
+    <hyperlink ref="D148" r:id="rId145" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
+    <hyperlink ref="D149" r:id="rId146" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
+    <hyperlink ref="D150" r:id="rId147" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D151" r:id="rId148" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="D152" r:id="rId149" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
+    <hyperlink ref="D153" r:id="rId150" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="D154" r:id="rId151" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
+    <hyperlink ref="D155" r:id="rId152" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
+    <hyperlink ref="D156" r:id="rId153" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D157" r:id="rId153" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D158" r:id="rId119" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D159" r:id="rId154" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
+    <hyperlink ref="D160" r:id="rId155" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
+    <hyperlink ref="D161" r:id="rId156" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="D162" r:id="rId157" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="D163" r:id="rId158" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
+    <hyperlink ref="D164" r:id="rId159" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="D165" r:id="rId160" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
+    <hyperlink ref="D166" r:id="rId161" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="D167" r:id="rId162" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="D168" r:id="rId163" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="D169" r:id="rId164" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
+    <hyperlink ref="D170" r:id="rId165" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D171" r:id="rId166" display="https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121"/>
+    <hyperlink ref="D172" r:id="rId167" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="D173" r:id="rId168" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D174" r:id="rId169" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D175" r:id="rId170" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="D176" r:id="rId171" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="D177" r:id="rId172" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="D178" r:id="rId173" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="D179" r:id="rId174" display="https://rukminim2.flixcart.com/image/850/1000/l0pm3680/home-security-camera/3/u/p/6-tapo-c210-3mp-1296p-pan-tilt-wi-fi-indoor-security-camera-tp-original-imagcfrevgynzfkx.jpeg?q=20&amp;crop=false"/>
+    <hyperlink ref="D180" r:id="rId175" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
+    <hyperlink ref="D181" r:id="rId176" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D182" r:id="rId177" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D183" r:id="rId178" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="D186" r:id="rId179" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
+    <hyperlink ref="D185" r:id="rId180" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
+    <hyperlink ref="D184" r:id="rId181" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="D187" r:id="rId182" display="https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213"/>
+    <hyperlink ref="D188" r:id="rId183" display="https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759"/>
+    <hyperlink ref="D189" r:id="rId184" display="https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073"/>
+    <hyperlink ref="D190" r:id="rId185" display="https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361"/>
+    <hyperlink ref="D191" r:id="rId186" display="https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030"/>
+    <hyperlink ref="D192" r:id="rId187" display="https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123"/>
+    <hyperlink ref="D193" r:id="rId188" display="https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840"/>
+    <hyperlink ref="D194" r:id="rId189" display="https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894"/>
+    <hyperlink ref="D195" r:id="rId190" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
+    <hyperlink ref="D196" r:id="rId191" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
+    <hyperlink ref="D197" r:id="rId192" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
+    <hyperlink ref="D198" r:id="rId193" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
+    <hyperlink ref="D199" r:id="rId194" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
+    <hyperlink ref="D200" r:id="rId195" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
+    <hyperlink ref="D201" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
+    <hyperlink ref="D202" r:id="rId197" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
+    <hyperlink ref="D203" r:id="rId198" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
+    <hyperlink ref="D204" r:id="rId199" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
+    <hyperlink ref="D205" r:id="rId200" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
+    <hyperlink ref="D206" r:id="rId201" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
+    <hyperlink ref="D207" r:id="rId202" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
+    <hyperlink ref="D208" r:id="rId203" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
+    <hyperlink ref="D209" r:id="rId204" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
+    <hyperlink ref="D210" r:id="rId205" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
+    <hyperlink ref="D211" r:id="rId206" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
+    <hyperlink ref="D212" r:id="rId207" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
+    <hyperlink ref="D213" r:id="rId208" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
+    <hyperlink ref="D214" r:id="rId209" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
+    <hyperlink ref="D215" r:id="rId210" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
+    <hyperlink ref="D216" r:id="rId211" display="https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="732">
   <si>
     <t>BRAND</t>
   </si>
@@ -65,6 +65,9 @@
     <t>https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4</t>
   </si>
   <si>
+    <t> </t>
+  </si>
+  <si>
     <t>ACERPURE</t>
   </si>
   <si>
@@ -77,6 +80,84 @@
     <t>https://i.postimg.cc/pT41hXLR/acerpure.jpg</t>
   </si>
   <si>
+    <t>AMAZINGTHING</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 (6.1) Full Glass Clear 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213</t>
+  </si>
+  <si>
+    <t>Effective 7th April 2025</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 Plus (6.7) Full Glass Clear 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080033</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro (6.1) Full Glass Clear 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080040</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro Max (6.7) Full Glass Clear 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 (6.1) Full Glass Matte 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 Plus (6.7) Full Glass Matte 0.3mm 2.75D </t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080071</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro (6.1) Full Glass Matte 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840</t>
+  </si>
+  <si>
+    <t>AMZ-4892878080088</t>
+  </si>
+  <si>
+    <t>AMAZINGthing iPhone 15 Pro Max (6.7) Full Glass Matte 0.3mm 3D Side</t>
+  </si>
+  <si>
+    <t>https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894</t>
+  </si>
+  <si>
     <t>ASTONISH</t>
   </si>
   <si>
@@ -671,6 +752,9 @@
     <t>https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg</t>
   </si>
   <si>
+    <t>effective 24th Apri25</t>
+  </si>
+  <si>
     <t>ENB-EBS4868</t>
   </si>
   <si>
@@ -929,6 +1013,45 @@
     <t>https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg</t>
   </si>
   <si>
+    <t>LFN-PREMIUM</t>
+  </si>
+  <si>
+    <t>Laifen Swift Premium High-Speed Hair Dryer</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960</t>
+  </si>
+  <si>
+    <t>Effective 18.4.2025</t>
+  </si>
+  <si>
+    <t>LFN-PREMIUM(BG)</t>
+  </si>
+  <si>
+    <t>Laifen Swift Premium High-Speed Hair Dryer, Blue-Gold</t>
+  </si>
+  <si>
+    <t>https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840</t>
+  </si>
+  <si>
+    <t>LFN-PREMIUM(BS)</t>
+  </si>
+  <si>
+    <t>Laifen Swift Premium High-Speed Hair Dryer, Black-Silver</t>
+  </si>
+  <si>
+    <t>https://motivs.lv/images/ext/rcpro/103493.jpg</t>
+  </si>
+  <si>
+    <t>LFN-PREMIUM(PG)</t>
+  </si>
+  <si>
+    <t>Laifen Swift Premium High-Speed Hair Dryer, Pink-Gold</t>
+  </si>
+  <si>
+    <t>https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png</t>
+  </si>
+  <si>
     <t>MIDEA</t>
   </si>
   <si>
@@ -1178,6 +1301,9 @@
     <t>https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13</t>
   </si>
   <si>
+    <t>RM14.40</t>
+  </si>
+  <si>
     <t>Clear On hand Stock</t>
   </si>
   <si>
@@ -1190,6 +1316,9 @@
     <t>https://fmcg.my/wp-content/uploads/2021/02/178.jpg</t>
   </si>
   <si>
+    <t>RM15.50</t>
+  </si>
+  <si>
     <t>PG-COLGATE175TP_GRF</t>
   </si>
   <si>
@@ -1199,6 +1328,9 @@
     <t>https://i.ibb.co/d4J1JHZQ/564515-01.png</t>
   </si>
   <si>
+    <t>RM16.90</t>
+  </si>
+  <si>
     <t>PG-COVID19.BOOK</t>
   </si>
   <si>
@@ -1208,6 +1340,9 @@
     <t>https://cdn-icons-png.flaticon.com/512/2232/2232688.png</t>
   </si>
   <si>
+    <t>RM18.90</t>
+  </si>
+  <si>
     <t>PG-DARLIE175MD</t>
   </si>
   <si>
@@ -1217,6 +1352,9 @@
     <t>https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png</t>
   </si>
   <si>
+    <t>RM9.90</t>
+  </si>
+  <si>
     <t>PG-DYNAMO.1.44KGMD</t>
   </si>
   <si>
@@ -1226,6 +1364,9 @@
     <t>https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png</t>
   </si>
   <si>
+    <t>RM18.50</t>
+  </si>
+  <si>
     <t>PG-FEBREEZE_AB_370</t>
   </si>
   <si>
@@ -1235,6 +1376,9 @@
     <t>https://iili.io/3FH357a.md.png</t>
   </si>
   <si>
+    <t>RM11.90</t>
+  </si>
+  <si>
     <t>PG-GLADELEMON_T/P_MD</t>
   </si>
   <si>
@@ -1244,6 +1388,9 @@
     <t>https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74</t>
   </si>
   <si>
+    <t>RM18.00</t>
+  </si>
+  <si>
     <t>PG-GLADETP_LAV</t>
   </si>
   <si>
@@ -1262,6 +1409,9 @@
     <t>https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg</t>
   </si>
   <si>
+    <t>RM4.50</t>
+  </si>
+  <si>
     <t>PG-GLO800ML_LIME_MD</t>
   </si>
   <si>
@@ -1271,6 +1421,9 @@
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png</t>
   </si>
   <si>
+    <t>RM5.70</t>
+  </si>
+  <si>
     <t>PG-HOMESOY.1L</t>
   </si>
   <si>
@@ -1280,6 +1433,9 @@
     <t>https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630</t>
   </si>
   <si>
+    <t>RM3.50</t>
+  </si>
+  <si>
     <t>PG-MR.MF.C1LMD</t>
   </si>
   <si>
@@ -1325,6 +1481,9 @@
     <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg</t>
   </si>
   <si>
+    <t>RM3.30</t>
+  </si>
+  <si>
     <t>PG-PRMBOX5x90_MD</t>
   </si>
   <si>
@@ -1334,6 +1493,9 @@
     <t>https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png</t>
   </si>
   <si>
+    <t>RM11.50</t>
+  </si>
+  <si>
     <t>PG-PRMTISSUE4x100s</t>
   </si>
   <si>
@@ -1343,6 +1505,9 @@
     <t>https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf</t>
   </si>
   <si>
+    <t>RM8.10</t>
+  </si>
+  <si>
     <t>PG-RIBENA300MD</t>
   </si>
   <si>
@@ -1352,6 +1517,9 @@
     <t>https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg</t>
   </si>
   <si>
+    <t>RM2.60</t>
+  </si>
+  <si>
     <t>PG-SB5+1MD</t>
   </si>
   <si>
@@ -1361,6 +1529,9 @@
     <t>https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg</t>
   </si>
   <si>
+    <t>RM9.10</t>
+  </si>
+  <si>
     <t>PG-SCOTT_EXTRA</t>
   </si>
   <si>
@@ -1370,6 +1541,9 @@
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png</t>
   </si>
   <si>
+    <t>RM16.50</t>
+  </si>
+  <si>
     <t>PG-SOFTLAN1.6L_FLO</t>
   </si>
   <si>
@@ -1379,6 +1553,9 @@
     <t>https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480</t>
   </si>
   <si>
+    <t>RM7.90</t>
+  </si>
+  <si>
     <t>PHILIPS</t>
   </si>
   <si>
@@ -1490,6 +1667,15 @@
     <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png</t>
   </si>
   <si>
+    <t>RIV-MAGSPEED10PRO</t>
+  </si>
+  <si>
+    <t>Riversong 10,000mAh Magnetic Wireless Power Bank</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg</t>
+  </si>
+  <si>
     <t>RIV-PHANTOM20</t>
   </si>
   <si>
@@ -1499,6 +1685,39 @@
     <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png</t>
   </si>
   <si>
+    <t>RIV-POWERKUB-G100</t>
+  </si>
+  <si>
+    <t>Riversong 100W GaN USB-C Wall Charger</t>
+  </si>
+  <si>
+    <t>https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg</t>
+  </si>
+  <si>
+    <t>ROBAM</t>
+  </si>
+  <si>
+    <t>ROB-W602S</t>
+  </si>
+  <si>
+    <t>Robam Freestanding Dishwasher with 3D Wash (Silver)</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg</t>
+  </si>
+  <si>
+    <t>EFFECTIVE 9.4.25</t>
+  </si>
+  <si>
+    <t>ROB-W602W</t>
+  </si>
+  <si>
+    <t>Robam Freestanding Dishwasher with 3D Wash (White)</t>
+  </si>
+  <si>
+    <t>https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg</t>
+  </si>
+  <si>
     <t>SAMSUNG</t>
   </si>
   <si>
@@ -1523,6 +1742,9 @@
     <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
   </si>
   <si>
+    <t>RM30.00</t>
+  </si>
+  <si>
     <t>SH-C.CULTURE/E</t>
   </si>
   <si>
@@ -1532,6 +1754,9 @@
     <t>https://malaysia.kinokuniya.com/products/9789833789290/image_isbn</t>
   </si>
   <si>
+    <t>RM36.00</t>
+  </si>
+  <si>
     <t>SH-DIGITAL.CHINESE</t>
   </si>
   <si>
@@ -1541,6 +1766,9 @@
     <t>https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384</t>
   </si>
   <si>
+    <t>RM35.00</t>
+  </si>
+  <si>
     <t>SH-DIGITAL.JOURNEY</t>
   </si>
   <si>
@@ -1553,6 +1781,9 @@
     <t>DI ZI GUI BOOK</t>
   </si>
   <si>
+    <t>RM15.00</t>
+  </si>
+  <si>
     <t>SH-NEWRETAIL.BOOK</t>
   </si>
   <si>
@@ -1562,6 +1793,9 @@
     <t>https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg</t>
   </si>
   <si>
+    <t>RM40.00</t>
+  </si>
+  <si>
     <t>SH-NEWRETAIL.ENG</t>
   </si>
   <si>
@@ -1571,6 +1805,9 @@
     <t>https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995</t>
   </si>
   <si>
+    <t>RM50.00</t>
+  </si>
+  <si>
     <t>SONY</t>
   </si>
   <si>
@@ -1670,15 +1907,6 @@
     <t>https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800</t>
   </si>
   <si>
-    <t>TEF-IT2440</t>
-  </si>
-  <si>
-    <t>Tefal Pro Style One Garment Steamer</t>
-  </si>
-  <si>
-    <t>https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121</t>
-  </si>
-  <si>
     <t>TEF-KITCHENWARE5PCS</t>
   </si>
   <si>
@@ -1748,18 +1976,6 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s</t>
   </si>
   <si>
-    <t>TAPO</t>
-  </si>
-  <si>
-    <t>TP-TAPOC210</t>
-  </si>
-  <si>
-    <t>Tapo C210 Pan/Tilt Home Security Wi-Fi Camera</t>
-  </si>
-  <si>
-    <t>https://rukminim2.flixcart.com/image/850/1000/l0pm3680/home-security-camera/3/u/p/6-tapo-c210-3mp-1296p-pan-tilt-wi-fi-indoor-security-camera-tp-original-imagcfrevgynzfkx.jpeg?q=20&amp;crop=false</t>
-  </si>
-  <si>
     <t>TOSHIBA</t>
   </si>
   <si>
@@ -1811,108 +2027,6 @@
     <t>https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp</t>
   </si>
   <si>
-    <t>ROBAM</t>
-  </si>
-  <si>
-    <t>ROB-W602S</t>
-  </si>
-  <si>
-    <t>Robam Freestanding Dishwasher with 3D Wash (Silver)</t>
-  </si>
-  <si>
-    <t>https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg</t>
-  </si>
-  <si>
-    <t>EFFECTIVE 9.4.25</t>
-  </si>
-  <si>
-    <t>ROB-W602W</t>
-  </si>
-  <si>
-    <t>Robam Freestanding Dishwasher with 3D Wash (White)</t>
-  </si>
-  <si>
-    <t>https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg</t>
-  </si>
-  <si>
-    <t>AMAZINGTHING</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 (6.1) Full Glass Clear 0.3mm 2.75D </t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213</t>
-  </si>
-  <si>
-    <t>Effective 7th April 2025</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 Plus (6.7) Full Glass Clear 0.3mm 2.75D </t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 (6.1) Full Glass Matte 0.3mm 2.75D </t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AMAZINGthing RADIX SUPREME GLASS for iPhone 15 Plus (6.7) Full Glass Matte 0.3mm 2.75D </t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080033</t>
-  </si>
-  <si>
-    <t>AMAZINGthing iPhone 15 Pro (6.1) Full Glass Clear 0.3mm 3D Side</t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080040</t>
-  </si>
-  <si>
-    <t>AMAZINGthing iPhone 15 Pro Max (6.7) Full Glass Clear 0.3mm 3D Side</t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080071</t>
-  </si>
-  <si>
-    <t>AMAZINGthing iPhone 15 Pro (6.1) Full Glass Matte 0.3mm 3D Side</t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840</t>
-  </si>
-  <si>
-    <t>AMZ-4892878080088</t>
-  </si>
-  <si>
-    <t>AMAZINGthing iPhone 15 Pro Max (6.7) Full Glass Matte 0.3mm 3D Side</t>
-  </si>
-  <si>
-    <t>https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894</t>
-  </si>
-  <si>
     <t>UNIQ</t>
   </si>
   <si>
@@ -1979,6 +2093,105 @@
     <t>https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149</t>
   </si>
   <si>
+    <t>UNQ-8886463685372</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Carbon ( Black )</t>
+  </si>
+  <si>
+    <t>https://www.aeonaccessories.com/productimages/8886463685372.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685402</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Smoke Blue</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544261-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685419</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Nude ( Transparent )</t>
+  </si>
+  <si>
+    <t>https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685426</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Smoke ( Grey Tinted )</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544263-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685600</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7") - Dove (Frost Clear)</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685617</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7") - Smoke (Frost Smoke)</t>
+  </si>
+  <si>
+    <t>https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685631</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7")- Tinsel (Lucent)</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685679</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Carbon ( Black )</t>
+  </si>
+  <si>
+    <t>https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685709</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Smoke Blue</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544278-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685716</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Nude ( Transparent )</t>
+  </si>
+  <si>
+    <t>https://cdn.media.amplience.net/i/xcite/544279-01</t>
+  </si>
+  <si>
+    <t>UNQ-8886463685723</t>
+  </si>
+  <si>
+    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Smoke ( Grey Tinted )</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW</t>
+  </si>
+  <si>
     <t>UNQ-8886463686591</t>
   </si>
   <si>
@@ -1988,69 +2201,6 @@
     <t>https://cdn.media.amplience.net/i/xcite/544259-01</t>
   </si>
   <si>
-    <t>UNQ-8886463685372</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Carbon ( Black )</t>
-  </si>
-  <si>
-    <t>https://www.aeonaccessories.com/productimages/8886463685372.jpg</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685402</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Smoke Blue</t>
-  </si>
-  <si>
-    <t>https://cdn.media.amplience.net/i/xcite/544261-01</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685419</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Nude ( Transparent )</t>
-  </si>
-  <si>
-    <t>https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685426</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro ( 6.1" ) - Smoke ( Grey Tinted )</t>
-  </si>
-  <si>
-    <t>https://cdn.media.amplience.net/i/xcite/544263-01</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685600</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7") - Dove (Frost Clear)</t>
-  </si>
-  <si>
-    <t>https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685617</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7") - Smoke (Frost Smoke)</t>
-  </si>
-  <si>
-    <t>https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685631</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid LifePro Xtreme with MagClick Charging for iPhone 15 Pro Max (6.7")- Tinsel (Lucent)</t>
-  </si>
-  <si>
-    <t>https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148</t>
-  </si>
-  <si>
     <t>UNQ-8886463686607</t>
   </si>
   <si>
@@ -2060,71 +2210,33 @@
     <t>https://cdn.media.amplience.net/i/xcite/544276-01</t>
   </si>
   <si>
-    <t>UNQ-8886463685679</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Carbon ( Black )</t>
-  </si>
-  <si>
-    <t>https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685709</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Combat with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Smoke Blue</t>
-  </si>
-  <si>
-    <t>https://cdn.media.amplience.net/i/xcite/544278-01</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685716</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Nude ( Transparent )</t>
-  </si>
-  <si>
-    <t>https://cdn.media.amplience.net/i/xcite/544279-01</t>
-  </si>
-  <si>
-    <t>UNQ-8886463685723</t>
-  </si>
-  <si>
-    <t>Uniq Hybrid Calio with MagClick Charging for iPhone 15 Pro Max ( 6.7" ) - Smoke ( Grey Tinted )</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW</t>
-  </si>
-  <si>
-    <t>RIV-MAGSPEED10PRO</t>
-  </si>
-  <si>
-    <t>Riversong 10,000mAh Magnetic Wireless Power Bank</t>
-  </si>
-  <si>
-    <t>https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg</t>
-  </si>
-  <si>
-    <t>RIV-POWERKUB-G100</t>
-  </si>
-  <si>
-    <t>Riversong 100W GaN USB-C Wall Charger</t>
-  </si>
-  <si>
-    <t>https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg</t>
+    <t>VIOMI</t>
+  </si>
+  <si>
+    <t>VMI-GUARD-2A</t>
+  </si>
+  <si>
+    <t>Viomi Guard 2A Smart Door Lock with AI Fingerprint Recognition, 16-Month Battery Life &amp; Anti-Peep Unlocking</t>
+  </si>
+  <si>
+    <t>https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg</t>
+  </si>
+  <si>
+    <t>Effective 23.4.2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="&quot;RM&quot;#,##0.00;\-&quot;RM&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2145,17 +2257,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2620,166 +2721,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3126,18 +3224,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="89.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="6.88888888888889" customWidth="1"/>
+    <col min="3" max="3" width="94.2222222222222" customWidth="1"/>
+    <col min="5" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
     <col min="8" max="8" width="22.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3180,142 +3279,152 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>229</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>219</v>
       </c>
       <c r="G2" s="2">
         <v>21900</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4">
         <v>349</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>279</v>
       </c>
       <c r="G3" s="2">
         <v>27900</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2">
-        <v>27.9</v>
-      </c>
-      <c r="F4" s="2">
-        <v>27.9</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>79</v>
+      </c>
+      <c r="F4" s="4">
+        <v>79</v>
       </c>
       <c r="G4" s="2">
-        <v>2790</v>
-      </c>
-      <c r="H4" s="2"/>
+        <v>7900</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="4">
+        <v>79</v>
+      </c>
+      <c r="F5" s="4">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2">
+        <v>7900</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2">
-        <v>27.9</v>
-      </c>
-      <c r="F5" s="2">
-        <v>27.9</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2790</v>
-      </c>
-      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2">
-        <v>87.7</v>
-      </c>
-      <c r="F6" s="2">
-        <v>69</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="4">
+        <v>79</v>
+      </c>
+      <c r="F6" s="4">
+        <v>79</v>
       </c>
       <c r="G6" s="2">
-        <v>6900</v>
-      </c>
-      <c r="H6" s="2"/>
+        <v>7900</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2">
-        <v>32.9</v>
-      </c>
-      <c r="F7" s="2">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="E7" s="4">
+        <v>79</v>
+      </c>
+      <c r="F7" s="4">
+        <v>79</v>
       </c>
       <c r="G7" s="2">
-        <v>1800</v>
+        <v>7900</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
@@ -3326,20 +3435,22 @@
       <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2">
-        <v>369</v>
-      </c>
-      <c r="F8" s="2">
-        <v>369</v>
+      <c r="E8" s="4">
+        <v>89</v>
+      </c>
+      <c r="F8" s="4">
+        <v>89</v>
       </c>
       <c r="G8" s="2">
-        <v>36900</v>
-      </c>
-      <c r="H8" s="2"/>
+        <v>8900</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -3350,20 +3461,22 @@
       <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2">
-        <v>289</v>
-      </c>
-      <c r="F9" s="2">
-        <v>289</v>
+      <c r="E9" s="4">
+        <v>89</v>
+      </c>
+      <c r="F9" s="4">
+        <v>89</v>
       </c>
       <c r="G9" s="2">
-        <v>28900</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>8900</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>37</v>
@@ -3374,20 +3487,22 @@
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2">
-        <v>99</v>
-      </c>
-      <c r="F10" s="2">
-        <v>97</v>
+      <c r="E10" s="4">
+        <v>89</v>
+      </c>
+      <c r="F10" s="4">
+        <v>89</v>
       </c>
       <c r="G10" s="2">
-        <v>9700</v>
-      </c>
-      <c r="H10" s="2"/>
+        <v>8900</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
@@ -3398,404 +3513,438 @@
       <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="2">
-        <v>149</v>
-      </c>
-      <c r="F11" s="2">
-        <v>145</v>
+      <c r="E11" s="4">
+        <v>89</v>
+      </c>
+      <c r="F11" s="4">
+        <v>89</v>
       </c>
       <c r="G11" s="2">
-        <v>14500</v>
-      </c>
-      <c r="H11" s="2"/>
+        <v>8900</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="2">
-        <v>169</v>
-      </c>
-      <c r="F12" s="2">
-        <v>169</v>
+        <v>46</v>
+      </c>
+      <c r="E12" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>27.9</v>
       </c>
       <c r="G12" s="2">
-        <v>16900</v>
-      </c>
-      <c r="H12" s="2"/>
+        <v>2790</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="2">
-        <v>169</v>
-      </c>
-      <c r="F13" s="2">
-        <v>169</v>
+        <v>49</v>
+      </c>
+      <c r="E13" s="4">
+        <v>27.9</v>
+      </c>
+      <c r="F13" s="4">
+        <v>27.9</v>
       </c>
       <c r="G13" s="2">
-        <v>16900</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>2790</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2">
-        <v>349</v>
-      </c>
-      <c r="F14" s="2">
-        <v>349</v>
+        <v>52</v>
+      </c>
+      <c r="E14" s="4">
+        <v>87.7</v>
+      </c>
+      <c r="F14" s="4">
+        <v>69</v>
       </c>
       <c r="G14" s="2">
-        <v>34900</v>
-      </c>
-      <c r="H14" s="2"/>
+        <v>6900</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="2">
-        <v>349</v>
-      </c>
-      <c r="F15" s="2">
-        <v>349</v>
+        <v>55</v>
+      </c>
+      <c r="E15" s="4">
+        <v>32.9</v>
+      </c>
+      <c r="F15" s="4">
+        <v>18</v>
       </c>
       <c r="G15" s="2">
-        <v>34900</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>1800</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="2">
-        <v>559</v>
-      </c>
-      <c r="F16" s="2">
-        <v>559</v>
+        <v>60</v>
+      </c>
+      <c r="E16" s="4">
+        <v>369</v>
+      </c>
+      <c r="F16" s="4">
+        <v>369</v>
       </c>
       <c r="G16" s="2">
-        <v>55900</v>
-      </c>
-      <c r="H16" s="2"/>
+        <v>36900</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="2">
-        <v>559</v>
-      </c>
-      <c r="F17" s="2">
-        <v>559</v>
+        <v>63</v>
+      </c>
+      <c r="E17" s="4">
+        <v>289</v>
+      </c>
+      <c r="F17" s="4">
+        <v>289</v>
       </c>
       <c r="G17" s="2">
-        <v>55900</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>28900</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="2">
-        <v>499</v>
-      </c>
-      <c r="F18" s="2">
-        <v>499</v>
+        <v>66</v>
+      </c>
+      <c r="E18" s="4">
+        <v>99</v>
+      </c>
+      <c r="F18" s="4">
+        <v>97</v>
       </c>
       <c r="G18" s="2">
-        <v>49900</v>
-      </c>
-      <c r="H18" s="2"/>
+        <v>9700</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="2">
-        <v>499</v>
-      </c>
-      <c r="F19" s="2">
-        <v>499</v>
+        <v>69</v>
+      </c>
+      <c r="E19" s="4">
+        <v>149</v>
+      </c>
+      <c r="F19" s="4">
+        <v>145</v>
       </c>
       <c r="G19" s="2">
-        <v>49900</v>
-      </c>
-      <c r="H19" s="2"/>
+        <v>14500</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="2">
-        <v>799</v>
-      </c>
-      <c r="F20" s="2">
-        <v>799</v>
+        <v>72</v>
+      </c>
+      <c r="E20" s="4">
+        <v>169</v>
+      </c>
+      <c r="F20" s="4">
+        <v>169</v>
       </c>
       <c r="G20" s="2">
-        <v>79900</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>16900</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" s="2">
-        <v>799</v>
-      </c>
-      <c r="F21" s="2">
-        <v>799</v>
+        <v>75</v>
+      </c>
+      <c r="E21" s="4">
+        <v>169</v>
+      </c>
+      <c r="F21" s="4">
+        <v>169</v>
       </c>
       <c r="G21" s="2">
-        <v>79900</v>
-      </c>
-      <c r="H21" s="2"/>
+        <v>16900</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="2">
-        <v>714</v>
-      </c>
-      <c r="F22" s="2">
-        <v>479</v>
+        <v>78</v>
+      </c>
+      <c r="E22" s="4">
+        <v>349</v>
+      </c>
+      <c r="F22" s="4">
+        <v>349</v>
       </c>
       <c r="G22" s="2">
-        <v>47900</v>
-      </c>
-      <c r="H22" s="2"/>
+        <v>34900</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="2">
-        <v>179</v>
-      </c>
-      <c r="F23" s="2">
-        <v>169</v>
+        <v>81</v>
+      </c>
+      <c r="E23" s="4">
+        <v>349</v>
+      </c>
+      <c r="F23" s="4">
+        <v>349</v>
       </c>
       <c r="G23" s="2">
-        <v>16900</v>
-      </c>
-      <c r="H23" s="2"/>
+        <v>34900</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="2">
-        <v>79</v>
-      </c>
-      <c r="F24" s="2">
-        <v>55</v>
+        <v>84</v>
+      </c>
+      <c r="E24" s="4">
+        <v>559</v>
+      </c>
+      <c r="F24" s="4">
+        <v>559</v>
       </c>
       <c r="G24" s="2">
-        <v>5500</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>55900</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E25" s="2">
-        <v>55</v>
-      </c>
-      <c r="F25" s="2">
-        <v>49</v>
+        <v>87</v>
+      </c>
+      <c r="E25" s="4">
+        <v>559</v>
+      </c>
+      <c r="F25" s="4">
+        <v>559</v>
       </c>
       <c r="G25" s="2">
-        <v>4900</v>
-      </c>
-      <c r="H25" s="2"/>
+        <v>55900</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E26" s="2">
-        <v>129</v>
-      </c>
-      <c r="F26" s="2">
-        <v>125</v>
+        <v>90</v>
+      </c>
+      <c r="E26" s="4">
+        <v>499</v>
+      </c>
+      <c r="F26" s="4">
+        <v>499</v>
       </c>
       <c r="G26" s="2">
-        <v>12500</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>49900</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" s="2">
-        <v>99</v>
-      </c>
-      <c r="F27" s="2">
         <v>93</v>
       </c>
+      <c r="E27" s="4">
+        <v>499</v>
+      </c>
+      <c r="F27" s="4">
+        <v>499</v>
+      </c>
       <c r="G27" s="2">
-        <v>9300</v>
-      </c>
-      <c r="H27" s="2"/>
+        <v>49900</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>94</v>
@@ -3806,22 +3955,22 @@
       <c r="D28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="2">
-        <v>499</v>
-      </c>
-      <c r="F28" s="2">
-        <v>199</v>
+      <c r="E28" s="4">
+        <v>799</v>
+      </c>
+      <c r="F28" s="4">
+        <v>799</v>
       </c>
       <c r="G28" s="2">
-        <v>19900</v>
+        <v>79900</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>97</v>
@@ -3832,1024 +3981,1036 @@
       <c r="D29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="2">
-        <v>499</v>
-      </c>
-      <c r="F29" s="2">
-        <v>199</v>
+      <c r="E29" s="4">
+        <v>799</v>
+      </c>
+      <c r="F29" s="4">
+        <v>799</v>
       </c>
       <c r="G29" s="2">
-        <v>19900</v>
+        <v>79900</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="2">
-        <v>499</v>
-      </c>
-      <c r="F30" s="2">
-        <v>199</v>
+        <v>103</v>
+      </c>
+      <c r="E30" s="4">
+        <v>714</v>
+      </c>
+      <c r="F30" s="4">
+        <v>479</v>
       </c>
       <c r="G30" s="2">
-        <v>19900</v>
+        <v>47900</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="2">
-        <v>549</v>
-      </c>
-      <c r="F31" s="2">
-        <v>199</v>
+        <v>107</v>
+      </c>
+      <c r="E31" s="4">
+        <v>179</v>
+      </c>
+      <c r="F31" s="4">
+        <v>169</v>
       </c>
       <c r="G31" s="2">
-        <v>19900</v>
+        <v>16900</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="2">
-        <v>549</v>
-      </c>
-      <c r="F32" s="2">
-        <v>199</v>
+        <v>110</v>
+      </c>
+      <c r="E32" s="4">
+        <v>79</v>
+      </c>
+      <c r="F32" s="4">
+        <v>55</v>
       </c>
       <c r="G32" s="2">
-        <v>19900</v>
+        <v>5500</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="2">
-        <v>399</v>
-      </c>
-      <c r="F33" s="2">
-        <v>199</v>
+        <v>113</v>
+      </c>
+      <c r="E33" s="4">
+        <v>55</v>
+      </c>
+      <c r="F33" s="4">
+        <v>49</v>
       </c>
       <c r="G33" s="2">
-        <v>19900</v>
+        <v>4900</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="2">
-        <v>459</v>
-      </c>
-      <c r="F34" s="2">
-        <v>169</v>
+        <v>116</v>
+      </c>
+      <c r="E34" s="4">
+        <v>129</v>
+      </c>
+      <c r="F34" s="4">
+        <v>125</v>
       </c>
       <c r="G34" s="2">
-        <v>16900</v>
+        <v>12500</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="4">
+        <v>99</v>
+      </c>
+      <c r="F35" s="4">
         <v>93</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="2">
-        <v>459</v>
-      </c>
-      <c r="F35" s="2">
-        <v>169</v>
-      </c>
       <c r="G35" s="2">
-        <v>16900</v>
+        <v>9300</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E36" s="2">
-        <v>599</v>
-      </c>
-      <c r="F36" s="2">
-        <v>319</v>
+        <v>123</v>
+      </c>
+      <c r="E36" s="4">
+        <v>499</v>
+      </c>
+      <c r="F36" s="4">
+        <v>199</v>
       </c>
       <c r="G36" s="2">
-        <v>31900</v>
+        <v>19900</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" s="2">
-        <v>599</v>
-      </c>
-      <c r="F37" s="2">
-        <v>319</v>
+        <v>126</v>
+      </c>
+      <c r="E37" s="4">
+        <v>499</v>
+      </c>
+      <c r="F37" s="4">
+        <v>199</v>
       </c>
       <c r="G37" s="2">
-        <v>31900</v>
+        <v>19900</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="2">
-        <v>299</v>
-      </c>
-      <c r="F38" s="2">
-        <v>159</v>
+        <v>129</v>
+      </c>
+      <c r="E38" s="4">
+        <v>499</v>
+      </c>
+      <c r="F38" s="4">
+        <v>199</v>
       </c>
       <c r="G38" s="2">
-        <v>15900</v>
+        <v>19900</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="2">
-        <v>359</v>
-      </c>
-      <c r="F39" s="2">
-        <v>159</v>
+        <v>132</v>
+      </c>
+      <c r="E39" s="4">
+        <v>549</v>
+      </c>
+      <c r="F39" s="4">
+        <v>199</v>
       </c>
       <c r="G39" s="2">
-        <v>15900</v>
+        <v>19900</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="2">
-        <v>439</v>
-      </c>
-      <c r="F40" s="2">
-        <v>169</v>
+        <v>135</v>
+      </c>
+      <c r="E40" s="4">
+        <v>549</v>
+      </c>
+      <c r="F40" s="4">
+        <v>199</v>
       </c>
       <c r="G40" s="2">
-        <v>16900</v>
+        <v>19900</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="2">
-        <v>439</v>
-      </c>
-      <c r="F41" s="2">
-        <v>169</v>
+        <v>138</v>
+      </c>
+      <c r="E41" s="4">
+        <v>399</v>
+      </c>
+      <c r="F41" s="4">
+        <v>199</v>
       </c>
       <c r="G41" s="2">
-        <v>16900</v>
+        <v>19900</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="2">
-        <v>439</v>
-      </c>
-      <c r="F42" s="2">
-        <v>179</v>
+        <v>141</v>
+      </c>
+      <c r="E42" s="4">
+        <v>459</v>
+      </c>
+      <c r="F42" s="4">
+        <v>169</v>
       </c>
       <c r="G42" s="2">
-        <v>17900</v>
+        <v>16900</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="2">
-        <v>479</v>
-      </c>
-      <c r="F43" s="2">
-        <v>189</v>
+        <v>144</v>
+      </c>
+      <c r="E43" s="4">
+        <v>459</v>
+      </c>
+      <c r="F43" s="4">
+        <v>169</v>
       </c>
       <c r="G43" s="2">
-        <v>18900</v>
+        <v>16900</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="2">
-        <v>479</v>
-      </c>
-      <c r="F44" s="2">
-        <v>189</v>
+        <v>147</v>
+      </c>
+      <c r="E44" s="4">
+        <v>599</v>
+      </c>
+      <c r="F44" s="4">
+        <v>319</v>
       </c>
       <c r="G44" s="2">
-        <v>18900</v>
+        <v>31900</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="2">
-        <v>479</v>
-      </c>
-      <c r="F45" s="2">
-        <v>189</v>
+        <v>147</v>
+      </c>
+      <c r="E45" s="4">
+        <v>599</v>
+      </c>
+      <c r="F45" s="4">
+        <v>319</v>
       </c>
       <c r="G45" s="2">
-        <v>18900</v>
+        <v>31900</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="2">
-        <v>519</v>
-      </c>
-      <c r="F46" s="2">
-        <v>189</v>
+        <v>152</v>
+      </c>
+      <c r="E46" s="4">
+        <v>299</v>
+      </c>
+      <c r="F46" s="4">
+        <v>159</v>
       </c>
       <c r="G46" s="2">
-        <v>18900</v>
+        <v>15900</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="2">
-        <v>519</v>
-      </c>
-      <c r="F47" s="2">
-        <v>189</v>
+        <v>155</v>
+      </c>
+      <c r="E47" s="4">
+        <v>359</v>
+      </c>
+      <c r="F47" s="4">
+        <v>159</v>
       </c>
       <c r="G47" s="2">
-        <v>18900</v>
+        <v>15900</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="2">
-        <v>599</v>
-      </c>
-      <c r="F48" s="2">
-        <v>189</v>
+        <v>158</v>
+      </c>
+      <c r="E48" s="4">
+        <v>439</v>
+      </c>
+      <c r="F48" s="4">
+        <v>169</v>
       </c>
       <c r="G48" s="2">
-        <v>18900</v>
+        <v>16900</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="2">
-        <v>599</v>
-      </c>
-      <c r="F49" s="2">
-        <v>189</v>
+        <v>161</v>
+      </c>
+      <c r="E49" s="4">
+        <v>439</v>
+      </c>
+      <c r="F49" s="4">
+        <v>169</v>
       </c>
       <c r="G49" s="2">
-        <v>18900</v>
+        <v>16900</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="2">
-        <v>639</v>
-      </c>
-      <c r="F50" s="2">
-        <v>239</v>
+        <v>164</v>
+      </c>
+      <c r="E50" s="4">
+        <v>439</v>
+      </c>
+      <c r="F50" s="4">
+        <v>179</v>
       </c>
       <c r="G50" s="2">
-        <v>23900</v>
+        <v>17900</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="2">
-        <v>639</v>
-      </c>
-      <c r="F51" s="2">
-        <v>239</v>
+        <v>167</v>
+      </c>
+      <c r="E51" s="4">
+        <v>479</v>
+      </c>
+      <c r="F51" s="4">
+        <v>189</v>
       </c>
       <c r="G51" s="2">
-        <v>23900</v>
+        <v>18900</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="2">
-        <v>639</v>
-      </c>
-      <c r="F52" s="2">
-        <v>239</v>
+        <v>170</v>
+      </c>
+      <c r="E52" s="4">
+        <v>479</v>
+      </c>
+      <c r="F52" s="4">
+        <v>189</v>
       </c>
       <c r="G52" s="2">
-        <v>23900</v>
+        <v>18900</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="2">
-        <v>669</v>
-      </c>
-      <c r="F53" s="2">
-        <v>259</v>
+        <v>173</v>
+      </c>
+      <c r="E53" s="4">
+        <v>479</v>
+      </c>
+      <c r="F53" s="4">
+        <v>189</v>
       </c>
       <c r="G53" s="2">
-        <v>25900</v>
+        <v>18900</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E54" s="2">
-        <v>369</v>
-      </c>
-      <c r="F54" s="2">
-        <v>149</v>
+        <v>176</v>
+      </c>
+      <c r="E54" s="4">
+        <v>519</v>
+      </c>
+      <c r="F54" s="4">
+        <v>189</v>
       </c>
       <c r="G54" s="2">
-        <v>14900</v>
+        <v>18900</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E55" s="2">
-        <v>439</v>
-      </c>
-      <c r="F55" s="2">
-        <v>169</v>
+        <v>179</v>
+      </c>
+      <c r="E55" s="4">
+        <v>519</v>
+      </c>
+      <c r="F55" s="4">
+        <v>189</v>
       </c>
       <c r="G55" s="2">
-        <v>16900</v>
+        <v>18900</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E56" s="2">
-        <v>489</v>
-      </c>
-      <c r="F56" s="2">
+        <v>182</v>
+      </c>
+      <c r="E56" s="4">
+        <v>599</v>
+      </c>
+      <c r="F56" s="4">
         <v>189</v>
       </c>
       <c r="G56" s="2">
         <v>18900</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E57" s="2">
-        <v>409</v>
-      </c>
-      <c r="F57" s="2">
-        <v>159</v>
+        <v>185</v>
+      </c>
+      <c r="E57" s="4">
+        <v>599</v>
+      </c>
+      <c r="F57" s="4">
+        <v>189</v>
       </c>
       <c r="G57" s="2">
-        <v>15900</v>
+        <v>18900</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E58" s="2">
-        <v>579</v>
-      </c>
-      <c r="F58" s="2">
-        <v>219</v>
+        <v>188</v>
+      </c>
+      <c r="E58" s="4">
+        <v>639</v>
+      </c>
+      <c r="F58" s="4">
+        <v>239</v>
       </c>
       <c r="G58" s="2">
-        <v>21900</v>
+        <v>23900</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E59" s="2">
-        <v>299</v>
-      </c>
-      <c r="F59" s="2">
-        <v>132</v>
+        <v>191</v>
+      </c>
+      <c r="E59" s="4">
+        <v>639</v>
+      </c>
+      <c r="F59" s="4">
+        <v>239</v>
       </c>
       <c r="G59" s="2">
-        <v>13200</v>
+        <v>23900</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E60" s="2">
-        <v>349</v>
-      </c>
-      <c r="F60" s="2">
-        <v>149</v>
+        <v>194</v>
+      </c>
+      <c r="E60" s="4">
+        <v>639</v>
+      </c>
+      <c r="F60" s="4">
+        <v>239</v>
       </c>
       <c r="G60" s="2">
-        <v>14900</v>
+        <v>23900</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E61" s="2">
-        <v>499</v>
-      </c>
-      <c r="F61" s="2">
-        <v>189</v>
+        <v>197</v>
+      </c>
+      <c r="E61" s="4">
+        <v>669</v>
+      </c>
+      <c r="F61" s="4">
+        <v>259</v>
       </c>
       <c r="G61" s="2">
-        <v>18900</v>
+        <v>25900</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="2">
-        <v>949</v>
-      </c>
-      <c r="F62" s="2">
-        <v>499</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="4">
+        <v>369</v>
+      </c>
+      <c r="F62" s="4">
+        <v>149</v>
       </c>
       <c r="G62" s="2">
-        <v>49900</v>
+        <v>14900</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E63" s="2">
-        <v>319</v>
-      </c>
-      <c r="F63" s="2">
-        <v>279</v>
+        <v>203</v>
+      </c>
+      <c r="E63" s="4">
+        <v>439</v>
+      </c>
+      <c r="F63" s="4">
+        <v>169</v>
       </c>
       <c r="G63" s="2">
-        <v>27900</v>
-      </c>
-      <c r="H63" s="2"/>
+        <v>16900</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E64" s="2">
-        <v>40</v>
-      </c>
-      <c r="F64" s="2">
-        <v>39</v>
+        <v>200</v>
+      </c>
+      <c r="E64" s="4">
+        <v>489</v>
+      </c>
+      <c r="F64" s="4">
+        <v>189</v>
       </c>
       <c r="G64" s="2">
-        <v>3900</v>
-      </c>
-      <c r="H64" s="2"/>
+        <v>18900</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="2">
-        <v>50</v>
-      </c>
-      <c r="F65" s="2">
-        <v>49</v>
+        <v>208</v>
+      </c>
+      <c r="E65" s="4">
+        <v>409</v>
+      </c>
+      <c r="F65" s="4">
+        <v>159</v>
       </c>
       <c r="G65" s="2">
-        <v>4900</v>
-      </c>
-      <c r="H65" s="2"/>
+        <v>15900</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="2">
-        <v>29</v>
-      </c>
-      <c r="F66" s="2">
-        <v>29</v>
+        <v>211</v>
+      </c>
+      <c r="E66" s="4">
+        <v>579</v>
+      </c>
+      <c r="F66" s="4">
+        <v>219</v>
       </c>
       <c r="G66" s="2">
-        <v>2900</v>
-      </c>
-      <c r="H66" s="2"/>
+        <v>21900</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E67" s="2">
-        <v>24.9</v>
-      </c>
-      <c r="F67" s="2">
-        <v>24.9</v>
+        <v>214</v>
+      </c>
+      <c r="E67" s="4">
+        <v>299</v>
+      </c>
+      <c r="F67" s="4">
+        <v>132</v>
       </c>
       <c r="G67" s="2">
-        <v>2490</v>
-      </c>
-      <c r="H67" s="2"/>
+        <v>13200</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="2">
-        <v>20.9</v>
-      </c>
-      <c r="F68" s="2">
-        <v>20.9</v>
+        <v>217</v>
+      </c>
+      <c r="E68" s="4">
+        <v>349</v>
+      </c>
+      <c r="F68" s="4">
+        <v>149</v>
       </c>
       <c r="G68" s="2">
-        <v>2090</v>
-      </c>
-      <c r="H68" s="2"/>
+        <v>14900</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>218</v>
@@ -4860,20 +5021,22 @@
       <c r="D69" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E69" s="2">
-        <v>210</v>
-      </c>
-      <c r="F69" s="2">
-        <v>115</v>
+      <c r="E69" s="4">
+        <v>499</v>
+      </c>
+      <c r="F69" s="4">
+        <v>189</v>
       </c>
       <c r="G69" s="2">
-        <v>11500</v>
-      </c>
-      <c r="H69" s="2"/>
+        <v>18900</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>217</v>
+        <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>221</v>
@@ -4884,16 +5047,18 @@
       <c r="D70" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E70" s="2">
-        <v>228</v>
-      </c>
-      <c r="F70" s="2">
-        <v>181</v>
+      <c r="E70" s="4">
+        <v>949</v>
+      </c>
+      <c r="F70" s="4">
+        <v>499</v>
       </c>
       <c r="G70" s="2">
-        <v>18100</v>
-      </c>
-      <c r="H70" s="2"/>
+        <v>49900</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
@@ -4908,44 +5073,48 @@
       <c r="D71" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="E71" s="2">
-        <v>129</v>
-      </c>
-      <c r="F71" s="2">
-        <v>129</v>
+      <c r="E71" s="4">
+        <v>319</v>
+      </c>
+      <c r="F71" s="4">
+        <v>279</v>
       </c>
       <c r="G71" s="2">
-        <v>12900</v>
-      </c>
-      <c r="H71" s="2"/>
+        <v>27900</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E72" s="2">
-        <v>99</v>
-      </c>
-      <c r="F72" s="2">
-        <v>99</v>
+        <v>231</v>
+      </c>
+      <c r="E72" s="4">
+        <v>40</v>
+      </c>
+      <c r="F72" s="4">
+        <v>39</v>
       </c>
       <c r="G72" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H72" s="2"/>
+        <v>3900</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>232</v>
@@ -4956,20 +5125,22 @@
       <c r="D73" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E73" s="2">
-        <v>799</v>
-      </c>
-      <c r="F73" s="2">
-        <v>599</v>
+      <c r="E73" s="4">
+        <v>50</v>
+      </c>
+      <c r="F73" s="4">
+        <v>49</v>
       </c>
       <c r="G73" s="2">
-        <v>59900</v>
-      </c>
-      <c r="H73" s="2"/>
+        <v>4900</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>235</v>
@@ -4980,20 +5151,22 @@
       <c r="D74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="E74" s="2">
-        <v>1199</v>
-      </c>
-      <c r="F74" s="2">
-        <v>599</v>
+      <c r="E74" s="4">
+        <v>29</v>
+      </c>
+      <c r="F74" s="4">
+        <v>29</v>
       </c>
       <c r="G74" s="2">
-        <v>59900</v>
-      </c>
-      <c r="H74" s="2"/>
+        <v>2900</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>238</v>
@@ -5004,454 +5177,490 @@
       <c r="D75" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E75" s="2">
-        <v>2099</v>
-      </c>
-      <c r="F75" s="2">
-        <v>1199</v>
+      <c r="E75" s="4">
+        <v>29.9</v>
+      </c>
+      <c r="F75" s="4">
+        <v>29.9</v>
       </c>
       <c r="G75" s="2">
-        <v>119900</v>
+        <v>2490</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E76" s="2">
-        <v>2699</v>
-      </c>
-      <c r="F76" s="2">
-        <v>1699</v>
+        <v>244</v>
+      </c>
+      <c r="E76" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="F76" s="4">
+        <v>20.9</v>
       </c>
       <c r="G76" s="2">
-        <v>169900</v>
-      </c>
-      <c r="H76" s="2"/>
+        <v>2090</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E77" s="2">
-        <v>989</v>
-      </c>
-      <c r="F77" s="2">
-        <v>769</v>
+        <v>248</v>
+      </c>
+      <c r="E77" s="4">
+        <v>210</v>
+      </c>
+      <c r="F77" s="4">
+        <v>115</v>
       </c>
       <c r="G77" s="2">
-        <v>76900</v>
-      </c>
-      <c r="H77" s="2"/>
+        <v>11500</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="E78" s="2">
-        <v>119</v>
-      </c>
-      <c r="F78" s="2">
-        <v>79</v>
+        <v>251</v>
+      </c>
+      <c r="E78" s="4">
+        <v>228</v>
+      </c>
+      <c r="F78" s="4">
+        <v>181</v>
       </c>
       <c r="G78" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H78" s="2"/>
+        <v>18100</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="E79" s="2">
-        <v>119</v>
-      </c>
-      <c r="F79" s="2">
-        <v>79</v>
+        <v>255</v>
+      </c>
+      <c r="E79" s="4">
+        <v>129</v>
+      </c>
+      <c r="F79" s="4">
+        <v>129</v>
       </c>
       <c r="G79" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H79" s="2"/>
+        <v>12900</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E80" s="2">
+        <v>258</v>
+      </c>
+      <c r="E80" s="4">
         <v>99</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="4">
         <v>99</v>
       </c>
       <c r="G80" s="2">
         <v>9900</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E81" s="2">
-        <v>109</v>
-      </c>
-      <c r="F81" s="2">
-        <v>109</v>
+        <v>262</v>
+      </c>
+      <c r="E81" s="4">
+        <v>799</v>
+      </c>
+      <c r="F81" s="4">
+        <v>599</v>
       </c>
       <c r="G81" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H81" s="2"/>
+        <v>59900</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="E82" s="2">
-        <v>199</v>
-      </c>
-      <c r="F82" s="2">
-        <v>169</v>
+        <v>265</v>
+      </c>
+      <c r="E82" s="4">
+        <v>1199</v>
+      </c>
+      <c r="F82" s="4">
+        <v>599</v>
       </c>
       <c r="G82" s="2">
-        <v>16900</v>
-      </c>
-      <c r="H82" s="2"/>
+        <v>59900</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="E83" s="2">
-        <v>259</v>
-      </c>
-      <c r="F83" s="2">
-        <v>189</v>
+        <v>268</v>
+      </c>
+      <c r="E83" s="4">
+        <v>2099</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1199</v>
       </c>
       <c r="G83" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H83" s="2"/>
+        <v>119900</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E84" s="2">
-        <v>139</v>
-      </c>
-      <c r="F84" s="2">
-        <v>79</v>
+        <v>271</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2699</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1699</v>
       </c>
       <c r="G84" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H84" s="2"/>
+        <v>169900</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E85" s="2">
-        <v>139</v>
-      </c>
-      <c r="F85" s="2">
-        <v>79</v>
+        <v>274</v>
+      </c>
+      <c r="E85" s="4">
+        <v>989</v>
+      </c>
+      <c r="F85" s="4">
+        <v>769</v>
       </c>
       <c r="G85" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H85" s="2"/>
+        <v>76900</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E86" s="2">
-        <v>169</v>
-      </c>
-      <c r="F86" s="2">
-        <v>99</v>
+        <v>277</v>
+      </c>
+      <c r="E86" s="4">
+        <v>119</v>
+      </c>
+      <c r="F86" s="4">
+        <v>79</v>
       </c>
       <c r="G86" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H86" s="2"/>
+        <v>7900</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E87" s="2">
-        <v>169</v>
-      </c>
-      <c r="F87" s="2">
-        <v>99</v>
+        <v>280</v>
+      </c>
+      <c r="E87" s="4">
+        <v>119</v>
+      </c>
+      <c r="F87" s="4">
+        <v>79</v>
       </c>
       <c r="G87" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H87" s="2"/>
+        <v>7900</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E88" s="2">
-        <v>169</v>
-      </c>
-      <c r="F88" s="2">
+        <v>284</v>
+      </c>
+      <c r="E88" s="4">
+        <v>99</v>
+      </c>
+      <c r="F88" s="4">
         <v>99</v>
       </c>
       <c r="G88" s="2">
         <v>9900</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E89" s="2">
-        <v>169</v>
-      </c>
-      <c r="F89" s="2">
-        <v>99</v>
+        <v>287</v>
+      </c>
+      <c r="E89" s="4">
+        <v>109</v>
+      </c>
+      <c r="F89" s="4">
+        <v>109</v>
       </c>
       <c r="G89" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H89" s="2"/>
+        <v>10900</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E90" s="2">
-        <v>499</v>
-      </c>
-      <c r="F90" s="2">
-        <v>309</v>
+        <v>291</v>
+      </c>
+      <c r="E90" s="4">
+        <v>199</v>
+      </c>
+      <c r="F90" s="4">
+        <v>169</v>
       </c>
       <c r="G90" s="2">
-        <v>30900</v>
-      </c>
-      <c r="H90" s="2"/>
+        <v>16900</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E91" s="2">
-        <v>549</v>
-      </c>
-      <c r="F91" s="2">
-        <v>399</v>
+        <v>294</v>
+      </c>
+      <c r="E91" s="4">
+        <v>259</v>
+      </c>
+      <c r="F91" s="4">
+        <v>189</v>
       </c>
       <c r="G91" s="2">
-        <v>39900</v>
-      </c>
-      <c r="H91" s="2"/>
+        <v>18900</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E92" s="2">
-        <v>179</v>
-      </c>
-      <c r="F92" s="2">
-        <v>177</v>
+        <v>297</v>
+      </c>
+      <c r="E92" s="4">
+        <v>139</v>
+      </c>
+      <c r="F92" s="4">
+        <v>79</v>
       </c>
       <c r="G92" s="2">
-        <v>17700</v>
-      </c>
-      <c r="H92" s="2"/>
+        <v>7900</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E93" s="2">
-        <v>559</v>
-      </c>
-      <c r="F93" s="2">
-        <v>329</v>
+        <v>300</v>
+      </c>
+      <c r="E93" s="4">
+        <v>139</v>
+      </c>
+      <c r="F93" s="4">
+        <v>79</v>
       </c>
       <c r="G93" s="2">
-        <v>32900</v>
-      </c>
-      <c r="H93" s="2"/>
+        <v>7900</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>301</v>
@@ -5462,20 +5671,22 @@
       <c r="D94" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="E94" s="2">
-        <v>209</v>
-      </c>
-      <c r="F94" s="2">
-        <v>189</v>
+      <c r="E94" s="4">
+        <v>169</v>
+      </c>
+      <c r="F94" s="4">
+        <v>99</v>
       </c>
       <c r="G94" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H94" s="2"/>
+        <v>9900</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>304</v>
@@ -5486,20 +5697,22 @@
       <c r="D95" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="E95" s="2">
-        <v>135</v>
-      </c>
-      <c r="F95" s="2">
-        <v>109</v>
+      <c r="E95" s="4">
+        <v>169</v>
+      </c>
+      <c r="F95" s="4">
+        <v>99</v>
       </c>
       <c r="G95" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H95" s="2"/>
+        <v>9900</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>307</v>
@@ -5510,96 +5723,100 @@
       <c r="D96" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="E96" s="2">
-        <v>239</v>
-      </c>
-      <c r="F96" s="2">
-        <v>209</v>
+      <c r="E96" s="4">
+        <v>169</v>
+      </c>
+      <c r="F96" s="4">
+        <v>99</v>
       </c>
       <c r="G96" s="2">
-        <v>20900</v>
-      </c>
-      <c r="H96" s="2"/>
+        <v>9900</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="D97" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="D97" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="E97" s="2">
-        <v>119</v>
-      </c>
-      <c r="F97" s="2">
+      <c r="E97" s="4">
+        <v>169</v>
+      </c>
+      <c r="F97" s="4">
         <v>99</v>
       </c>
       <c r="G97" s="2">
         <v>9900</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="C98" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="D98" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="E98" s="2">
-        <v>86</v>
-      </c>
-      <c r="F98" s="2">
-        <v>84</v>
+      <c r="E98" s="4">
+        <v>499</v>
+      </c>
+      <c r="F98" s="4">
+        <v>309</v>
       </c>
       <c r="G98" s="2">
-        <v>8400</v>
+        <v>30900</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D99" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E99" s="2">
-        <v>86</v>
-      </c>
-      <c r="F99" s="2">
-        <v>84</v>
+      <c r="E99" s="4">
+        <v>549</v>
+      </c>
+      <c r="F99" s="4">
+        <v>399</v>
       </c>
       <c r="G99" s="2">
-        <v>8400</v>
+        <v>39900</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>321</v>
@@ -5610,3194 +5827,3333 @@
       <c r="D100" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="E100" s="2">
-        <v>86</v>
-      </c>
-      <c r="F100" s="2">
-        <v>84</v>
+      <c r="E100" s="4">
+        <v>179</v>
+      </c>
+      <c r="F100" s="4">
+        <v>177</v>
       </c>
       <c r="G100" s="2">
-        <v>8400</v>
+        <v>17700</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E101" s="2">
-        <v>106</v>
-      </c>
-      <c r="F101" s="2">
-        <v>104</v>
+        <v>327</v>
+      </c>
+      <c r="E101" s="4">
+        <v>559</v>
+      </c>
+      <c r="F101" s="4">
+        <v>329</v>
       </c>
       <c r="G101" s="2">
-        <v>10400</v>
-      </c>
-      <c r="H101" s="2"/>
+        <v>32900</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="D102" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="E102" s="2">
-        <v>106</v>
-      </c>
-      <c r="F102" s="2">
-        <v>105</v>
+      <c r="D102" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1699</v>
+      </c>
+      <c r="F102" s="4">
+        <v>999</v>
       </c>
       <c r="G102" s="2">
-        <v>10500</v>
-      </c>
-      <c r="H102" s="2"/>
+        <v>99900</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1699</v>
+      </c>
+      <c r="F103" s="4">
+        <v>999</v>
+      </c>
+      <c r="G103" s="2">
+        <v>99900</v>
+      </c>
+      <c r="H103" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="E103" s="2">
-        <v>86</v>
-      </c>
-      <c r="F103" s="2">
-        <v>84</v>
-      </c>
-      <c r="G103" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E104" s="2">
-        <v>106</v>
-      </c>
-      <c r="F104" s="2">
-        <v>105</v>
+        <v>336</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E104" s="4">
+        <v>1699</v>
+      </c>
+      <c r="F104" s="4">
+        <v>999</v>
       </c>
       <c r="G104" s="2">
-        <v>10500</v>
-      </c>
-      <c r="H104" s="2"/>
+        <v>99900</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E105" s="2">
-        <v>106</v>
-      </c>
-      <c r="F105" s="2">
-        <v>105</v>
+        <v>339</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E105" s="4">
+        <v>1699</v>
+      </c>
+      <c r="F105" s="4">
+        <v>999</v>
       </c>
       <c r="G105" s="2">
-        <v>10500</v>
-      </c>
-      <c r="H105" s="2"/>
+        <v>99900</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E106" s="2">
-        <v>86</v>
-      </c>
-      <c r="F106" s="2">
-        <v>84</v>
+        <v>344</v>
+      </c>
+      <c r="E106" s="4">
+        <v>209</v>
+      </c>
+      <c r="F106" s="4">
+        <v>189</v>
       </c>
       <c r="G106" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H106" s="2"/>
+        <v>18900</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E107" s="2">
-        <v>86</v>
-      </c>
-      <c r="F107" s="2">
-        <v>84</v>
+        <v>347</v>
+      </c>
+      <c r="E107" s="4">
+        <v>135</v>
+      </c>
+      <c r="F107" s="4">
+        <v>109</v>
       </c>
       <c r="G107" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H107" s="2"/>
+        <v>10900</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E108" s="2">
-        <v>86</v>
-      </c>
-      <c r="F108" s="2">
-        <v>84</v>
+        <v>350</v>
+      </c>
+      <c r="E108" s="4">
+        <v>239</v>
+      </c>
+      <c r="F108" s="4">
+        <v>209</v>
       </c>
       <c r="G108" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H108" s="2"/>
+        <v>20900</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E109" s="2">
-        <v>77</v>
-      </c>
-      <c r="F109" s="2">
-        <v>75</v>
+        <v>354</v>
+      </c>
+      <c r="E109" s="4">
+        <v>119</v>
+      </c>
+      <c r="F109" s="4">
+        <v>99</v>
       </c>
       <c r="G109" s="2">
-        <v>7500</v>
-      </c>
-      <c r="H109" s="2"/>
+        <v>9900</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E110" s="2">
-        <v>77</v>
-      </c>
-      <c r="F110" s="2">
-        <v>75</v>
+        <v>358</v>
+      </c>
+      <c r="E110" s="4">
+        <v>86</v>
+      </c>
+      <c r="F110" s="4">
+        <v>84</v>
       </c>
       <c r="G110" s="2">
-        <v>7500</v>
-      </c>
-      <c r="H110" s="2"/>
+        <v>8400</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E111" s="2">
-        <v>77</v>
-      </c>
-      <c r="F111" s="2">
-        <v>75</v>
+        <v>361</v>
+      </c>
+      <c r="E111" s="4">
+        <v>86</v>
+      </c>
+      <c r="F111" s="4">
+        <v>84</v>
       </c>
       <c r="G111" s="2">
-        <v>7500</v>
-      </c>
-      <c r="H111" s="2"/>
+        <v>8400</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E112" s="2">
-        <v>69</v>
-      </c>
-      <c r="F112" s="2">
-        <v>69</v>
+        <v>364</v>
+      </c>
+      <c r="E112" s="4">
+        <v>86</v>
+      </c>
+      <c r="F112" s="4">
+        <v>84</v>
       </c>
       <c r="G112" s="2">
-        <v>6900</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>8400</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E113" s="2">
-        <v>69</v>
-      </c>
-      <c r="F113" s="2">
-        <v>69</v>
+        <v>367</v>
+      </c>
+      <c r="E113" s="4">
+        <v>106</v>
+      </c>
+      <c r="F113" s="4">
+        <v>104</v>
       </c>
       <c r="G113" s="2">
-        <v>6900</v>
-      </c>
-      <c r="H113" s="2"/>
+        <v>10400</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E114" s="2">
-        <v>69</v>
-      </c>
-      <c r="F114" s="2">
-        <v>69</v>
+        <v>370</v>
+      </c>
+      <c r="E114" s="4">
+        <v>106</v>
+      </c>
+      <c r="F114" s="4">
+        <v>105</v>
       </c>
       <c r="G114" s="2">
-        <v>6900</v>
-      </c>
-      <c r="H114" s="2"/>
+        <v>10500</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E115" s="2">
-        <v>89</v>
-      </c>
-      <c r="F115" s="2">
-        <v>89</v>
+        <v>373</v>
+      </c>
+      <c r="E115" s="4">
+        <v>86</v>
+      </c>
+      <c r="F115" s="4">
+        <v>84</v>
       </c>
       <c r="G115" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H115" s="2"/>
+        <v>8400</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E116" s="2">
-        <v>89</v>
-      </c>
-      <c r="F116" s="2">
-        <v>89</v>
+        <v>376</v>
+      </c>
+      <c r="E116" s="4">
+        <v>106</v>
+      </c>
+      <c r="F116" s="4">
+        <v>105</v>
       </c>
       <c r="G116" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H116" s="2"/>
+        <v>10500</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E117" s="2">
-        <v>89</v>
-      </c>
-      <c r="F117" s="2">
-        <v>89</v>
+        <v>379</v>
+      </c>
+      <c r="E117" s="4">
+        <v>106</v>
+      </c>
+      <c r="F117" s="4">
+        <v>105</v>
       </c>
       <c r="G117" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H117" s="2"/>
+        <v>10500</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E118" s="2">
-        <v>39.9</v>
-      </c>
-      <c r="F118" s="2">
-        <v>39.9</v>
+        <v>382</v>
+      </c>
+      <c r="E118" s="4">
+        <v>86</v>
+      </c>
+      <c r="F118" s="4">
+        <v>84</v>
       </c>
       <c r="G118" s="2">
-        <v>3990</v>
-      </c>
-      <c r="H118" s="2"/>
+        <v>8400</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E119" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="F119" s="2">
-        <v>14.4</v>
+        <v>385</v>
+      </c>
+      <c r="E119" s="4">
+        <v>86</v>
+      </c>
+      <c r="F119" s="4">
+        <v>84</v>
       </c>
       <c r="G119" s="2">
-        <v>1440</v>
+        <v>8400</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E120" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="F120" s="2">
-        <v>15.5</v>
+        <v>388</v>
+      </c>
+      <c r="E120" s="4">
+        <v>86</v>
+      </c>
+      <c r="F120" s="4">
+        <v>84</v>
       </c>
       <c r="G120" s="2">
-        <v>1550</v>
+        <v>8400</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E121" s="2">
-        <v>16.9</v>
-      </c>
-      <c r="F121" s="2">
-        <v>16.9</v>
+        <v>391</v>
+      </c>
+      <c r="E121" s="4">
+        <v>77</v>
+      </c>
+      <c r="F121" s="4">
+        <v>75</v>
       </c>
       <c r="G121" s="2">
-        <v>1690</v>
+        <v>7500</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E122" s="2">
-        <v>18.9</v>
-      </c>
-      <c r="F122" s="2">
-        <v>18.9</v>
+        <v>394</v>
+      </c>
+      <c r="E122" s="4">
+        <v>77</v>
+      </c>
+      <c r="F122" s="4">
+        <v>75</v>
       </c>
       <c r="G122" s="2">
-        <v>1890</v>
+        <v>7500</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="E123" s="2">
-        <v>9.9</v>
-      </c>
-      <c r="F123" s="2">
-        <v>9.9</v>
+        <v>397</v>
+      </c>
+      <c r="E123" s="4">
+        <v>77</v>
+      </c>
+      <c r="F123" s="4">
+        <v>75</v>
       </c>
       <c r="G123" s="2">
-        <v>990</v>
+        <v>7500</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="E124" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="F124" s="2">
-        <v>18.5</v>
+        <v>401</v>
+      </c>
+      <c r="E124" s="4">
+        <v>69</v>
+      </c>
+      <c r="F124" s="4">
+        <v>69</v>
       </c>
       <c r="G124" s="2">
-        <v>1850</v>
+        <v>6900</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E125" s="2">
-        <v>11.9</v>
-      </c>
-      <c r="F125" s="2">
-        <v>11.9</v>
+        <v>404</v>
+      </c>
+      <c r="E125" s="4">
+        <v>69</v>
+      </c>
+      <c r="F125" s="4">
+        <v>69</v>
       </c>
       <c r="G125" s="2">
-        <v>1190</v>
+        <v>6900</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E126" s="2">
-        <v>18</v>
-      </c>
-      <c r="F126" s="2">
-        <v>18</v>
+        <v>407</v>
+      </c>
+      <c r="E126" s="4">
+        <v>69</v>
+      </c>
+      <c r="F126" s="4">
+        <v>69</v>
       </c>
       <c r="G126" s="2">
-        <v>1800</v>
+        <v>6900</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E127" s="2">
-        <v>18.5</v>
-      </c>
-      <c r="F127" s="2">
-        <v>18.5</v>
+        <v>410</v>
+      </c>
+      <c r="E127" s="4">
+        <v>89</v>
+      </c>
+      <c r="F127" s="4">
+        <v>89</v>
       </c>
       <c r="G127" s="2">
-        <v>1850</v>
+        <v>8900</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E128" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="F128" s="2">
-        <v>4.5</v>
+        <v>413</v>
+      </c>
+      <c r="E128" s="4">
+        <v>89</v>
+      </c>
+      <c r="F128" s="4">
+        <v>89</v>
       </c>
       <c r="G128" s="2">
-        <v>450</v>
+        <v>8900</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E129" s="2">
-        <v>5.7</v>
-      </c>
-      <c r="F129" s="2">
-        <v>5.7</v>
+        <v>416</v>
+      </c>
+      <c r="E129" s="4">
+        <v>89</v>
+      </c>
+      <c r="F129" s="4">
+        <v>89</v>
       </c>
       <c r="G129" s="2">
-        <v>570</v>
+        <v>8900</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>379</v>
+        <v>398</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E130" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="F130" s="2">
-        <v>3.5</v>
+        <v>419</v>
+      </c>
+      <c r="E130" s="4">
+        <v>39.9</v>
+      </c>
+      <c r="F130" s="4">
+        <v>39.9</v>
       </c>
       <c r="G130" s="2">
-        <v>350</v>
+        <v>3990</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E131" s="2">
-        <v>8.6</v>
-      </c>
-      <c r="F131" s="2">
-        <v>8.6</v>
+        <v>423</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="G131" s="2">
-        <v>860</v>
+        <v>1440</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E132" s="2">
-        <v>8</v>
-      </c>
-      <c r="F132" s="2">
-        <v>8</v>
+        <v>428</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>429</v>
       </c>
       <c r="G132" s="2">
-        <v>800</v>
+        <v>1550</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D133" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G133" s="2">
+        <v>1690</v>
+      </c>
+      <c r="H133" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="E133" s="2">
-        <v>8</v>
-      </c>
-      <c r="F133" s="2">
-        <v>8</v>
-      </c>
-      <c r="G133" s="2">
-        <v>800</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E134" s="2">
-        <v>8</v>
-      </c>
-      <c r="F134" s="2">
-        <v>8</v>
+        <v>436</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>437</v>
       </c>
       <c r="G134" s="2">
-        <v>800</v>
+        <v>1890</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E135" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="F135" s="2">
-        <v>3.3</v>
+        <v>440</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>441</v>
       </c>
       <c r="G135" s="2">
-        <v>330</v>
+        <v>990</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E136" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="F136" s="2">
-        <v>11.5</v>
+        <v>444</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="G136" s="2">
-        <v>1150</v>
+        <v>1850</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E137" s="2">
-        <v>8.1</v>
-      </c>
-      <c r="F137" s="2">
-        <v>8.1</v>
+        <v>448</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>449</v>
       </c>
       <c r="G137" s="2">
-        <v>810</v>
+        <v>1190</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E138" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="F138" s="2">
-        <v>2.6</v>
+        <v>452</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>453</v>
       </c>
       <c r="G138" s="2">
-        <v>260</v>
+        <v>1800</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E139" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="F139" s="2">
-        <v>9.1</v>
+        <v>456</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>445</v>
       </c>
       <c r="G139" s="2">
-        <v>910</v>
+        <v>1850</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="E140" s="2">
-        <v>16.5</v>
-      </c>
-      <c r="F140" s="2">
-        <v>16.5</v>
+        <v>459</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>460</v>
       </c>
       <c r="G140" s="2">
-        <v>1650</v>
+        <v>450</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E141" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="F141" s="2">
-        <v>7.9</v>
+        <v>463</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>464</v>
       </c>
       <c r="G141" s="2">
-        <v>790</v>
+        <v>570</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E142" s="2">
-        <v>149</v>
-      </c>
-      <c r="F142" s="2">
-        <v>142</v>
+        <v>467</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>468</v>
       </c>
       <c r="G142" s="2">
-        <v>14200</v>
-      </c>
-      <c r="H142" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E143" s="2">
-        <v>289</v>
-      </c>
-      <c r="F143" s="2">
-        <v>279</v>
+        <v>471</v>
+      </c>
+      <c r="E143" s="4">
+        <v>8.6</v>
+      </c>
+      <c r="F143" s="4">
+        <v>8.6</v>
       </c>
       <c r="G143" s="2">
-        <v>27900</v>
-      </c>
-      <c r="H143" s="2"/>
+        <v>860</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E144" s="2">
-        <v>199</v>
-      </c>
-      <c r="F144" s="2">
-        <v>169</v>
+        <v>474</v>
+      </c>
+      <c r="E144" s="4">
+        <v>8</v>
+      </c>
+      <c r="F144" s="4">
+        <v>8</v>
       </c>
       <c r="G144" s="2">
-        <v>16900</v>
-      </c>
-      <c r="H144" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E145" s="2">
-        <v>469</v>
-      </c>
-      <c r="F145" s="2">
-        <v>449</v>
+        <v>477</v>
+      </c>
+      <c r="E145" s="4">
+        <v>8</v>
+      </c>
+      <c r="F145" s="4">
+        <v>8</v>
       </c>
       <c r="G145" s="2">
-        <v>44900</v>
-      </c>
-      <c r="H145" s="2"/>
+        <v>800</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E146" s="2">
-        <v>30.9</v>
-      </c>
-      <c r="F146" s="2">
-        <v>30.9</v>
+        <v>480</v>
+      </c>
+      <c r="E146" s="4">
+        <v>8</v>
+      </c>
+      <c r="F146" s="4">
+        <v>8</v>
       </c>
       <c r="G146" s="2">
-        <v>3090</v>
+        <v>800</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E147" s="2">
-        <v>30.9</v>
-      </c>
-      <c r="F147" s="2">
-        <v>30.9</v>
+        <v>483</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="G147" s="2">
-        <v>3090</v>
+        <v>330</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E148" s="2">
-        <v>139</v>
-      </c>
-      <c r="F148" s="2">
-        <v>139</v>
+        <v>487</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>488</v>
       </c>
       <c r="G148" s="2">
-        <v>13900</v>
+        <v>1150</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>471</v>
+        <v>420</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>477</v>
+        <v>490</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E149" s="2">
-        <v>109</v>
-      </c>
-      <c r="F149" s="2">
-        <v>109</v>
+        <v>491</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>492</v>
       </c>
       <c r="G149" s="2">
-        <v>10900</v>
+        <v>810</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>479</v>
+        <v>420</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>480</v>
+        <v>493</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>481</v>
+        <v>494</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E150" s="2">
-        <v>449</v>
-      </c>
-      <c r="F150" s="2">
-        <v>399</v>
+        <v>495</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>496</v>
       </c>
       <c r="G150" s="2">
-        <v>39900</v>
-      </c>
-      <c r="H150" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>484</v>
+        <v>497</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>485</v>
+        <v>498</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="E151" s="2">
-        <v>129</v>
-      </c>
-      <c r="F151" s="2">
-        <v>129</v>
+        <v>499</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>500</v>
       </c>
       <c r="G151" s="2">
-        <v>12900</v>
-      </c>
-      <c r="H151" s="2"/>
+        <v>910</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="E152" s="2">
-        <v>219</v>
-      </c>
-      <c r="F152" s="2">
-        <v>219</v>
+        <v>503</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="G152" s="2">
-        <v>21900</v>
+        <v>1650</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>467</v>
+        <v>425</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>490</v>
+        <v>420</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E153" s="2">
-        <v>1999</v>
-      </c>
-      <c r="F153" s="2">
-        <v>1499</v>
+        <v>507</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>508</v>
       </c>
       <c r="G153" s="2">
-        <v>149900</v>
-      </c>
-      <c r="H153" s="2"/>
+        <v>790</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E154" s="2">
-        <v>30</v>
-      </c>
-      <c r="F154" s="2">
-        <v>30</v>
+        <v>512</v>
+      </c>
+      <c r="E154" s="4">
+        <v>149</v>
+      </c>
+      <c r="F154" s="4">
+        <v>142</v>
       </c>
       <c r="G154" s="2">
-        <v>3000</v>
+        <v>14200</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E155" s="2">
-        <v>36</v>
-      </c>
-      <c r="F155" s="2">
-        <v>36</v>
+        <v>515</v>
+      </c>
+      <c r="E155" s="4">
+        <v>289</v>
+      </c>
+      <c r="F155" s="4">
+        <v>279</v>
       </c>
       <c r="G155" s="2">
-        <v>3600</v>
+        <v>27900</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E156" s="2">
-        <v>35</v>
-      </c>
-      <c r="F156" s="2">
-        <v>35</v>
+        <v>518</v>
+      </c>
+      <c r="E156" s="4">
+        <v>199</v>
+      </c>
+      <c r="F156" s="4">
+        <v>169</v>
       </c>
       <c r="G156" s="2">
-        <v>3500</v>
+        <v>16900</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>504</v>
+        <v>520</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>505</v>
+        <v>521</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E157" s="2">
-        <v>35</v>
-      </c>
-      <c r="F157" s="2">
-        <v>35</v>
+        <v>522</v>
+      </c>
+      <c r="E157" s="4">
+        <v>469</v>
+      </c>
+      <c r="F157" s="4">
+        <v>449</v>
       </c>
       <c r="G157" s="2">
-        <v>3500</v>
+        <v>44900</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E158" s="2">
-        <v>15</v>
-      </c>
-      <c r="F158" s="2">
-        <v>15</v>
+        <v>525</v>
+      </c>
+      <c r="E158" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="F158" s="4">
+        <v>30.9</v>
       </c>
       <c r="G158" s="2">
-        <v>1500</v>
+        <v>3090</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>383</v>
+        <v>526</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E159" s="2">
-        <v>40</v>
-      </c>
-      <c r="F159" s="2">
-        <v>40</v>
+        <v>529</v>
+      </c>
+      <c r="E159" s="4">
+        <v>30.9</v>
+      </c>
+      <c r="F159" s="4">
+        <v>30.9</v>
       </c>
       <c r="G159" s="2">
-        <v>4000</v>
+        <v>3090</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>383</v>
+        <v>526</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="E160" s="2">
-        <v>50</v>
-      </c>
-      <c r="F160" s="2">
-        <v>50</v>
+        <v>533</v>
+      </c>
+      <c r="E160" s="4">
+        <v>139</v>
+      </c>
+      <c r="F160" s="4">
+        <v>139</v>
       </c>
       <c r="G160" s="2">
-        <v>5000</v>
+        <v>13900</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>383</v>
+        <v>534</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>514</v>
+        <v>530</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E161" s="2">
-        <v>299</v>
-      </c>
-      <c r="F161" s="2">
-        <v>299</v>
+        <v>537</v>
+      </c>
+      <c r="E161" s="4">
+        <v>109</v>
+      </c>
+      <c r="F161" s="4">
+        <v>109</v>
       </c>
       <c r="G161" s="2">
-        <v>29900</v>
-      </c>
-      <c r="H161" s="2"/>
+        <v>10900</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>534</v>
+      </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E162" s="2">
-        <v>229</v>
-      </c>
-      <c r="F162" s="2">
-        <v>229</v>
+        <v>541</v>
+      </c>
+      <c r="E162" s="4">
+        <v>449</v>
+      </c>
+      <c r="F162" s="4">
+        <v>399</v>
       </c>
       <c r="G162" s="2">
-        <v>22900</v>
-      </c>
-      <c r="H162" s="2"/>
+        <v>39900</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E163" s="2">
-        <v>309</v>
-      </c>
-      <c r="F163" s="2">
-        <v>299</v>
+        <v>545</v>
+      </c>
+      <c r="E163" s="4">
+        <v>129</v>
+      </c>
+      <c r="F163" s="4">
+        <v>129</v>
       </c>
       <c r="G163" s="2">
-        <v>29900</v>
-      </c>
-      <c r="H163" s="2"/>
+        <v>12900</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E164" s="2">
-        <v>339</v>
-      </c>
-      <c r="F164" s="2">
-        <v>329</v>
+        <v>548</v>
+      </c>
+      <c r="E164" s="4">
+        <v>259</v>
+      </c>
+      <c r="F164" s="4">
+        <v>259</v>
       </c>
       <c r="G164" s="2">
-        <v>32900</v>
-      </c>
-      <c r="H164" s="2"/>
+        <v>25900</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E165" s="2">
-        <v>159</v>
-      </c>
-      <c r="F165" s="2">
-        <v>109</v>
+        <v>551</v>
+      </c>
+      <c r="E165" s="4">
+        <v>219</v>
+      </c>
+      <c r="F165" s="4">
+        <v>219</v>
       </c>
       <c r="G165" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H165" s="2"/>
+        <v>21900</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E166" s="2">
-        <v>159</v>
-      </c>
-      <c r="F166" s="2">
-        <v>109</v>
+        <v>554</v>
+      </c>
+      <c r="E166" s="4">
+        <v>269</v>
+      </c>
+      <c r="F166" s="4">
+        <v>269</v>
       </c>
       <c r="G166" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H166" s="2"/>
+        <v>26900</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>534</v>
+        <v>556</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E167" s="2">
-        <v>169</v>
-      </c>
-      <c r="F167" s="2">
-        <v>119</v>
+        <v>558</v>
+      </c>
+      <c r="E167" s="4">
+        <v>3999</v>
+      </c>
+      <c r="F167" s="4">
+        <v>3099</v>
       </c>
       <c r="G167" s="2">
-        <v>11900</v>
-      </c>
-      <c r="H167" s="2"/>
+        <v>309900</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>538</v>
+        <v>560</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E168" s="2">
-        <v>179</v>
-      </c>
-      <c r="F168" s="2">
-        <v>159</v>
+        <v>562</v>
+      </c>
+      <c r="E168" s="4">
+        <v>3699</v>
+      </c>
+      <c r="F168" s="4">
+        <v>2899</v>
       </c>
       <c r="G168" s="2">
-        <v>15900</v>
-      </c>
-      <c r="H168" s="2"/>
+        <v>289900</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>541</v>
+        <v>564</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="E169" s="2">
-        <v>239</v>
-      </c>
-      <c r="F169" s="2">
-        <v>129</v>
+        <v>566</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1999</v>
+      </c>
+      <c r="F169" s="4">
+        <v>1499</v>
       </c>
       <c r="G169" s="2">
-        <v>12900</v>
-      </c>
-      <c r="H169" s="2"/>
+        <v>149900</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>544</v>
+        <v>568</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>545</v>
+        <v>569</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="E170" s="2">
-        <v>299</v>
-      </c>
-      <c r="F170" s="2">
-        <v>189</v>
+        <v>570</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>571</v>
       </c>
       <c r="G170" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H170" s="2"/>
+        <v>3000</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="E171" s="2">
-        <v>299</v>
-      </c>
-      <c r="F171" s="2">
-        <v>259</v>
+        <v>574</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>575</v>
       </c>
       <c r="G171" s="2">
-        <v>25900</v>
-      </c>
-      <c r="H171" s="2"/>
+        <v>3600</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>550</v>
+        <v>576</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E172" s="2">
-        <v>159</v>
-      </c>
-      <c r="F172" s="2">
-        <v>99</v>
+        <v>578</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="G172" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H172" s="2"/>
+        <v>3500</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>553</v>
+        <v>580</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>554</v>
+        <v>581</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E173" s="2">
-        <v>449</v>
-      </c>
-      <c r="F173" s="2">
-        <v>299</v>
+        <v>578</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>579</v>
       </c>
       <c r="G173" s="2">
-        <v>29900</v>
-      </c>
-      <c r="H173" s="2"/>
+        <v>3500</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>537</v>
+        <v>567</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E174" s="2">
-        <v>499</v>
-      </c>
-      <c r="F174" s="2">
-        <v>299</v>
+        <v>436</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>584</v>
       </c>
       <c r="G174" s="2">
-        <v>29900</v>
+        <v>1500</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>475</v>
+        <v>425</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>560</v>
+        <v>585</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>561</v>
+        <v>586</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E175" s="2">
-        <v>1299</v>
-      </c>
-      <c r="F175" s="2">
-        <v>879</v>
+        <v>587</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>588</v>
       </c>
       <c r="G175" s="2">
-        <v>87900</v>
-      </c>
-      <c r="H175" s="2"/>
+        <v>4000</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>564</v>
+        <v>590</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E176" s="2">
-        <v>1899</v>
-      </c>
-      <c r="F176" s="2">
-        <v>1399</v>
+        <v>591</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>592</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>592</v>
       </c>
       <c r="G176" s="2">
-        <v>139900</v>
-      </c>
-      <c r="H176" s="2"/>
+        <v>5000</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>566</v>
+        <v>594</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>567</v>
+        <v>595</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E177" s="2">
-        <v>1499</v>
-      </c>
-      <c r="F177" s="2">
-        <v>1049</v>
+        <v>596</v>
+      </c>
+      <c r="E177" s="4">
+        <v>299</v>
+      </c>
+      <c r="F177" s="4">
+        <v>299</v>
       </c>
       <c r="G177" s="2">
-        <v>104900</v>
-      </c>
-      <c r="H177" s="2"/>
+        <v>29900</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>569</v>
+        <v>593</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E178" s="2">
-        <v>499</v>
-      </c>
-      <c r="F178" s="2">
-        <v>499</v>
+        <v>599</v>
+      </c>
+      <c r="E178" s="4">
+        <v>229</v>
+      </c>
+      <c r="F178" s="4">
+        <v>229</v>
       </c>
       <c r="G178" s="2">
-        <v>49900</v>
-      </c>
-      <c r="H178" s="2"/>
+        <v>22900</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E179" s="2">
-        <v>109</v>
-      </c>
-      <c r="F179" s="2">
-        <v>109</v>
+        <v>603</v>
+      </c>
+      <c r="E179" s="4">
+        <v>309</v>
+      </c>
+      <c r="F179" s="4">
+        <v>299</v>
       </c>
       <c r="G179" s="2">
-        <v>10900</v>
+        <v>29900</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>475</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>578</v>
+        <v>604</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="E180" s="2">
-        <v>299</v>
-      </c>
-      <c r="F180" s="2">
-        <v>269</v>
+        <v>606</v>
+      </c>
+      <c r="E180" s="4">
+        <v>339</v>
+      </c>
+      <c r="F180" s="4">
+        <v>329</v>
       </c>
       <c r="G180" s="2">
-        <v>26900</v>
+        <v>32900</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>581</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>582</v>
+        <v>607</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>583</v>
+        <v>608</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E181" s="2">
-        <v>389</v>
-      </c>
-      <c r="F181" s="2">
-        <v>259</v>
+        <v>609</v>
+      </c>
+      <c r="E181" s="4">
+        <v>159</v>
+      </c>
+      <c r="F181" s="4">
+        <v>109</v>
       </c>
       <c r="G181" s="2">
-        <v>25900</v>
+        <v>10900</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>475</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>586</v>
+        <v>611</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E182" s="2">
-        <v>349</v>
-      </c>
-      <c r="F182" s="2">
-        <v>229</v>
+        <v>612</v>
+      </c>
+      <c r="E182" s="4">
+        <v>159</v>
+      </c>
+      <c r="F182" s="4">
+        <v>109</v>
       </c>
       <c r="G182" s="2">
-        <v>22900</v>
+        <v>10900</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>577</v>
+        <v>600</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>588</v>
+        <v>613</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>589</v>
+        <v>614</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E183" s="2">
-        <v>179</v>
-      </c>
-      <c r="F183" s="2">
-        <v>139</v>
+        <v>615</v>
+      </c>
+      <c r="E183" s="4">
+        <v>169</v>
+      </c>
+      <c r="F183" s="4">
+        <v>119</v>
       </c>
       <c r="G183" s="2">
-        <v>13900</v>
-      </c>
-      <c r="H183" s="2"/>
+        <v>11900</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>577</v>
+        <v>616</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>592</v>
+        <v>618</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="E184" s="2">
-        <v>599</v>
-      </c>
-      <c r="F184" s="2">
-        <v>419</v>
+        <v>619</v>
+      </c>
+      <c r="E184" s="4">
+        <v>179</v>
+      </c>
+      <c r="F184" s="4">
+        <v>159</v>
       </c>
       <c r="G184" s="2">
-        <v>41900</v>
-      </c>
-      <c r="H184" s="2"/>
+        <v>15900</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D185" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="E185" s="5">
-        <v>3999</v>
-      </c>
-      <c r="F185" s="5">
-        <v>3099</v>
+        <v>621</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E185" s="4">
+        <v>239</v>
+      </c>
+      <c r="F185" s="4">
+        <v>129</v>
       </c>
       <c r="G185" s="2">
-        <v>309900</v>
+        <v>12900</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>598</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>599</v>
+        <v>623</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="D186" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="E186" s="5">
-        <v>3699</v>
-      </c>
-      <c r="F186" s="5">
-        <v>2899</v>
+        <v>624</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="E186" s="4">
+        <v>299</v>
+      </c>
+      <c r="F186" s="4">
+        <v>189</v>
       </c>
       <c r="G186" s="2">
-        <v>289900</v>
+        <v>18900</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>598</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D187" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="E187" s="7">
-        <v>79</v>
-      </c>
-      <c r="F187" s="7">
-        <v>79</v>
-      </c>
-      <c r="G187" s="8">
-        <f t="shared" ref="G187:G216" si="0">F187*100</f>
-        <v>7900</v>
+        <v>626</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="E187" s="4">
+        <v>159</v>
+      </c>
+      <c r="F187" s="4">
+        <v>99</v>
+      </c>
+      <c r="G187" s="2">
+        <v>9900</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="D188" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="E188" s="7">
-        <v>79</v>
-      </c>
-      <c r="F188" s="7">
-        <v>79</v>
-      </c>
-      <c r="G188" s="8">
-        <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>629</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="E188" s="4">
+        <v>449</v>
+      </c>
+      <c r="F188" s="4">
+        <v>299</v>
+      </c>
+      <c r="G188" s="2">
+        <v>29900</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="D189" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="E189" s="7">
-        <v>89</v>
-      </c>
-      <c r="F189" s="7">
-        <v>89</v>
-      </c>
-      <c r="G189" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>632</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E189" s="4">
+        <v>499</v>
+      </c>
+      <c r="F189" s="4">
+        <v>299</v>
+      </c>
+      <c r="G189" s="2">
+        <v>29900</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>606</v>
+        <v>534</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>614</v>
-      </c>
-      <c r="D190" s="4" t="s">
-        <v>615</v>
-      </c>
-      <c r="E190" s="7">
-        <v>89</v>
-      </c>
-      <c r="F190" s="7">
-        <v>89</v>
-      </c>
-      <c r="G190" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>636</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="E190" s="4">
+        <v>1299</v>
+      </c>
+      <c r="F190" s="4">
+        <v>879</v>
+      </c>
+      <c r="G190" s="2">
+        <v>87900</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>617</v>
-      </c>
-      <c r="D191" s="4" t="s">
-        <v>618</v>
-      </c>
-      <c r="E191" s="7">
-        <v>79</v>
-      </c>
-      <c r="F191" s="7">
-        <v>79</v>
-      </c>
-      <c r="G191" s="8">
-        <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>639</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="E191" s="4">
+        <v>1899</v>
+      </c>
+      <c r="F191" s="4">
+        <v>1399</v>
+      </c>
+      <c r="G191" s="2">
+        <v>139900</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="D192" s="4" t="s">
-        <v>621</v>
-      </c>
-      <c r="E192" s="7">
-        <v>79</v>
-      </c>
-      <c r="F192" s="7">
-        <v>79</v>
-      </c>
-      <c r="G192" s="8">
-        <f t="shared" si="0"/>
-        <v>7900</v>
+        <v>642</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="E192" s="4">
+        <v>1499</v>
+      </c>
+      <c r="F192" s="4">
+        <v>1049</v>
+      </c>
+      <c r="G192" s="2">
+        <v>104900</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>602</v>
+        <v>645</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="D193" s="4" t="s">
-        <v>624</v>
-      </c>
-      <c r="E193" s="7">
-        <v>89</v>
-      </c>
-      <c r="F193" s="7">
-        <v>89</v>
-      </c>
-      <c r="G193" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>646</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="E193" s="4">
+        <v>499</v>
+      </c>
+      <c r="F193" s="4">
+        <v>499</v>
+      </c>
+      <c r="G193" s="2">
+        <v>49900</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>602</v>
+        <v>649</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>625</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="D194" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="E194" s="7">
-        <v>89</v>
-      </c>
-      <c r="F194" s="7">
-        <v>89</v>
-      </c>
-      <c r="G194" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>650</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="E194" s="4">
+        <v>299</v>
+      </c>
+      <c r="F194" s="4">
+        <v>269</v>
+      </c>
+      <c r="G194" s="2">
+        <v>26900</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>606</v>
+        <v>653</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="E195" s="7">
-        <v>89</v>
-      </c>
-      <c r="F195" s="7">
-        <v>89</v>
-      </c>
-      <c r="G195" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>654</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="E195" s="4">
+        <v>389</v>
+      </c>
+      <c r="F195" s="4">
+        <v>259</v>
+      </c>
+      <c r="G195" s="2">
+        <v>25900</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>606</v>
+        <v>534</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="D196" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="E196" s="7">
-        <v>99</v>
-      </c>
-      <c r="F196" s="7">
-        <v>99</v>
-      </c>
-      <c r="G196" s="8">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>657</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="E196" s="4">
+        <v>349</v>
+      </c>
+      <c r="F196" s="4">
+        <v>229</v>
+      </c>
+      <c r="G196" s="2">
+        <v>22900</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>606</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="D197" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="E197" s="7">
-        <v>99</v>
-      </c>
-      <c r="F197" s="7">
-        <v>99</v>
-      </c>
-      <c r="G197" s="8">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>660</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E197" s="4">
+        <v>179</v>
+      </c>
+      <c r="F197" s="4">
+        <v>139</v>
+      </c>
+      <c r="G197" s="2">
+        <v>13900</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>640</v>
-      </c>
-      <c r="E198" s="7">
-        <v>89</v>
-      </c>
-      <c r="F198" s="7">
-        <v>89</v>
-      </c>
-      <c r="G198" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>663</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E198" s="4">
+        <v>599</v>
+      </c>
+      <c r="F198" s="4">
+        <v>419</v>
+      </c>
+      <c r="G198" s="2">
+        <v>41900</v>
       </c>
       <c r="H198" s="2" t="s">
-        <v>606</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="D199" s="4" t="s">
-        <v>643</v>
-      </c>
-      <c r="E199" s="7">
+        <v>667</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E199" s="4">
         <v>89</v>
       </c>
-      <c r="F199" s="7">
+      <c r="F199" s="4">
         <v>89</v>
       </c>
-      <c r="G199" s="8">
-        <f t="shared" si="0"/>
+      <c r="G199" s="2">
         <v>8900</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>644</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>646</v>
-      </c>
-      <c r="E200" s="7">
-        <v>89</v>
-      </c>
-      <c r="F200" s="7">
-        <v>89</v>
-      </c>
-      <c r="G200" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>670</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="E200" s="4">
+        <v>99</v>
+      </c>
+      <c r="F200" s="4">
+        <v>99</v>
+      </c>
+      <c r="G200" s="2">
+        <v>9900</v>
       </c>
       <c r="H200" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="D201" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="E201" s="7">
+        <v>673</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E201" s="4">
         <v>99</v>
       </c>
-      <c r="F201" s="7">
+      <c r="F201" s="4">
         <v>99</v>
       </c>
-      <c r="G201" s="8">
-        <f t="shared" si="0"/>
+      <c r="G201" s="2">
         <v>9900</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D202" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="E202" s="7">
-        <v>99</v>
-      </c>
-      <c r="F202" s="7">
-        <v>99</v>
-      </c>
-      <c r="G202" s="8">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>676</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E202" s="4">
+        <v>89</v>
+      </c>
+      <c r="F202" s="4">
+        <v>89</v>
+      </c>
+      <c r="G202" s="2">
+        <v>8900</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="D203" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="E203" s="7">
-        <v>99</v>
-      </c>
-      <c r="F203" s="7">
-        <v>99</v>
-      </c>
-      <c r="G203" s="8">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>679</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E203" s="4">
+        <v>89</v>
+      </c>
+      <c r="F203" s="4">
+        <v>89</v>
+      </c>
+      <c r="G203" s="2">
+        <v>8900</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>657</v>
-      </c>
-      <c r="D204" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="E204" s="7">
-        <v>99</v>
-      </c>
-      <c r="F204" s="7">
-        <v>99</v>
-      </c>
-      <c r="G204" s="8">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>682</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="E204" s="4">
+        <v>89</v>
+      </c>
+      <c r="F204" s="4">
+        <v>89</v>
+      </c>
+      <c r="G204" s="2">
+        <v>8900</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>659</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="E205" s="7">
+        <v>685</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="E205" s="4">
         <v>99</v>
       </c>
-      <c r="F205" s="7">
+      <c r="F205" s="4">
         <v>99</v>
       </c>
-      <c r="G205" s="8">
-        <f t="shared" si="0"/>
+      <c r="G205" s="2">
         <v>9900</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>663</v>
-      </c>
-      <c r="D206" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="E206" s="7">
+        <v>688</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E206" s="4">
         <v>99</v>
       </c>
-      <c r="F206" s="7">
+      <c r="F206" s="4">
         <v>99</v>
       </c>
-      <c r="G206" s="8">
-        <f t="shared" si="0"/>
+      <c r="G206" s="2">
         <v>9900</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>666</v>
-      </c>
-      <c r="D207" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="E207" s="7">
-        <v>89</v>
-      </c>
-      <c r="F207" s="7">
-        <v>89</v>
-      </c>
-      <c r="G207" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>691</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="E207" s="4">
+        <v>99</v>
+      </c>
+      <c r="F207" s="4">
+        <v>99</v>
+      </c>
+      <c r="G207" s="2">
+        <v>9900</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>669</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>670</v>
-      </c>
-      <c r="E208" s="7">
-        <v>89</v>
-      </c>
-      <c r="F208" s="7">
-        <v>89</v>
-      </c>
-      <c r="G208" s="8">
-        <f t="shared" si="0"/>
-        <v>8900</v>
+        <v>694</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="E208" s="4">
+        <v>99</v>
+      </c>
+      <c r="F208" s="4">
+        <v>99</v>
+      </c>
+      <c r="G208" s="2">
+        <v>9900</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="D209" s="4" t="s">
-        <v>673</v>
-      </c>
-      <c r="E209" s="7">
+        <v>697</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="E209" s="4">
         <v>99</v>
       </c>
-      <c r="F209" s="7">
+      <c r="F209" s="4">
         <v>99</v>
       </c>
-      <c r="G209" s="8">
-        <f t="shared" si="0"/>
+      <c r="G209" s="2">
         <v>9900</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>675</v>
-      </c>
-      <c r="D210" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="E210" s="7">
-        <v>99</v>
-      </c>
-      <c r="F210" s="7">
-        <v>99</v>
-      </c>
-      <c r="G210" s="8">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>700</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E210" s="4">
+        <v>89</v>
+      </c>
+      <c r="F210" s="4">
+        <v>89</v>
+      </c>
+      <c r="G210" s="2">
+        <v>8900</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="D211" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="E211" s="7">
-        <v>99</v>
-      </c>
-      <c r="F211" s="7">
-        <v>99</v>
-      </c>
-      <c r="G211" s="8">
-        <f t="shared" si="0"/>
-        <v>9900</v>
+        <v>703</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="E211" s="4">
+        <v>89</v>
+      </c>
+      <c r="F211" s="4">
+        <v>89</v>
+      </c>
+      <c r="G211" s="2">
+        <v>8900</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="D212" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="E212" s="7">
+        <v>706</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E212" s="4">
         <v>99</v>
       </c>
-      <c r="F212" s="7">
+      <c r="F212" s="4">
         <v>99</v>
       </c>
-      <c r="G212" s="8">
-        <f t="shared" si="0"/>
+      <c r="G212" s="2">
         <v>9900</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="E213" s="7">
+        <v>709</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E213" s="4">
         <v>99</v>
       </c>
-      <c r="F213" s="7">
+      <c r="F213" s="4">
         <v>99</v>
       </c>
-      <c r="G213" s="8">
-        <f t="shared" si="0"/>
+      <c r="G213" s="2">
         <v>9900</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>628</v>
+        <v>666</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="C214" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="E214" s="7">
+        <v>712</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E214" s="4">
         <v>99</v>
       </c>
-      <c r="F214" s="7">
+      <c r="F214" s="4">
         <v>99</v>
       </c>
-      <c r="G214" s="8">
-        <f t="shared" si="0"/>
+      <c r="G214" s="2">
         <v>9900</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>606</v>
+        <v>21</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>483</v>
+        <v>666</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>689</v>
+        <v>715</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="E215" s="2">
-        <v>259</v>
-      </c>
-      <c r="F215" s="2">
-        <v>259</v>
-      </c>
-      <c r="G215" s="8">
-        <f t="shared" si="0"/>
-        <v>25900</v>
+        <v>716</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E215" s="4">
+        <v>99</v>
+      </c>
+      <c r="F215" s="4">
+        <v>99</v>
+      </c>
+      <c r="G215" s="2">
+        <v>9900</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>483</v>
+        <v>666</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="E216" s="2">
-        <v>269</v>
-      </c>
-      <c r="F216" s="2">
-        <v>269</v>
-      </c>
-      <c r="G216" s="8">
-        <f t="shared" si="0"/>
-        <v>26900</v>
+        <v>719</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E216" s="4">
+        <v>99</v>
+      </c>
+      <c r="F216" s="4">
+        <v>99</v>
+      </c>
+      <c r="G216" s="2">
+        <v>9900</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="A217" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E217" s="4">
+        <v>99</v>
+      </c>
+      <c r="F217" s="4">
+        <v>99</v>
+      </c>
+      <c r="G217" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H217" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
+      <c r="A218" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E218" s="4">
+        <v>99</v>
+      </c>
+      <c r="F218" s="4">
+        <v>99</v>
+      </c>
+      <c r="G218" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H218" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E219" s="4">
+        <v>1499</v>
+      </c>
+      <c r="F219" s="4">
+        <v>999</v>
+      </c>
+      <c r="G219" s="2">
+        <v>99900</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4"/>
     <hyperlink ref="D3" r:id="rId2" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://img.lazcdn.com/g/p/51b1c0ce37e1085d068e8fb2959cbccb.png_960x960q80.png_.webp"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://img.lazcdn.com/g/p/0f08830da4bd607bd1b5299f3d60ca19.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://i.ibb.co/TxfL8mYs/New-Project-2.png"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D37" r:id="rId35" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D38" r:id="rId36" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
-    <hyperlink ref="D39" r:id="rId37" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
-    <hyperlink ref="D40" r:id="rId38" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
-    <hyperlink ref="D41" r:id="rId39" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
-    <hyperlink ref="D42" r:id="rId40" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
-    <hyperlink ref="D43" r:id="rId41" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
-    <hyperlink ref="D44" r:id="rId42" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
-    <hyperlink ref="D45" r:id="rId43" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
-    <hyperlink ref="D46" r:id="rId44" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
-    <hyperlink ref="D47" r:id="rId45" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
-    <hyperlink ref="D48" r:id="rId46" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
-    <hyperlink ref="D49" r:id="rId47" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
-    <hyperlink ref="D50" r:id="rId48" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
-    <hyperlink ref="D51" r:id="rId49" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
-    <hyperlink ref="D52" r:id="rId50" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
-    <hyperlink ref="D53" r:id="rId51" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
-    <hyperlink ref="D54" r:id="rId52" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D55" r:id="rId53" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
-    <hyperlink ref="D56" r:id="rId52" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D57" r:id="rId54" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
-    <hyperlink ref="D58" r:id="rId55" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
-    <hyperlink ref="D59" r:id="rId56" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D60" r:id="rId57" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
-    <hyperlink ref="D61" r:id="rId58" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
-    <hyperlink ref="D62" r:id="rId59" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
-    <hyperlink ref="D63" r:id="rId60" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
-    <hyperlink ref="D64" r:id="rId61" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
-    <hyperlink ref="D65" r:id="rId62" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
-    <hyperlink ref="D66" r:id="rId63" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D67" r:id="rId64" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
-    <hyperlink ref="D68" r:id="rId65" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
-    <hyperlink ref="D69" r:id="rId66" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
-    <hyperlink ref="D70" r:id="rId67" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
-    <hyperlink ref="D71" r:id="rId68" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
-    <hyperlink ref="D72" r:id="rId69" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
-    <hyperlink ref="D73" r:id="rId70" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
-    <hyperlink ref="D74" r:id="rId71" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
-    <hyperlink ref="D75" r:id="rId72" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
-    <hyperlink ref="D76" r:id="rId73" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
-    <hyperlink ref="D77" r:id="rId74" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D78" r:id="rId75" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
-    <hyperlink ref="D79" r:id="rId76" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
-    <hyperlink ref="D80" r:id="rId77" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
-    <hyperlink ref="D81" r:id="rId78" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
-    <hyperlink ref="D82" r:id="rId79" display="https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png"/>
-    <hyperlink ref="D83" r:id="rId80" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
-    <hyperlink ref="D84" r:id="rId81" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
-    <hyperlink ref="D85" r:id="rId82" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
-    <hyperlink ref="D86" r:id="rId83" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
-    <hyperlink ref="D87" r:id="rId84" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
-    <hyperlink ref="D88" r:id="rId85" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
-    <hyperlink ref="D89" r:id="rId86" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
-    <hyperlink ref="D90" r:id="rId87" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
-    <hyperlink ref="D91" r:id="rId88" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
-    <hyperlink ref="D92" r:id="rId89" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
-    <hyperlink ref="D93" r:id="rId90" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
-    <hyperlink ref="D94" r:id="rId91" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
-    <hyperlink ref="D95" r:id="rId92" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
-    <hyperlink ref="D96" r:id="rId93" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
-    <hyperlink ref="D97" r:id="rId94" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D98" r:id="rId95" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
-    <hyperlink ref="D99" r:id="rId96" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D100" r:id="rId97" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D101" r:id="rId98" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
-    <hyperlink ref="D102" r:id="rId99" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958"/>
-    <hyperlink ref="D103" r:id="rId100" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
-    <hyperlink ref="D104" r:id="rId101" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D105" r:id="rId102" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D106" r:id="rId103" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
-    <hyperlink ref="D107" r:id="rId104" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
-    <hyperlink ref="D108" r:id="rId105" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
-    <hyperlink ref="D109" r:id="rId106" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D110" r:id="rId107" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D111" r:id="rId108" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D112" r:id="rId109" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
-    <hyperlink ref="D113" r:id="rId110" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
-    <hyperlink ref="D114" r:id="rId111" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
-    <hyperlink ref="D115" r:id="rId112" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
-    <hyperlink ref="D116" r:id="rId113" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
-    <hyperlink ref="D117" r:id="rId114" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
-    <hyperlink ref="D118" r:id="rId115" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
-    <hyperlink ref="D119" r:id="rId116" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
-    <hyperlink ref="D120" r:id="rId117" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
-    <hyperlink ref="D121" r:id="rId118" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
-    <hyperlink ref="D122" r:id="rId119" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D123" r:id="rId120" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
-    <hyperlink ref="D124" r:id="rId121" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
-    <hyperlink ref="D125" r:id="rId122" display="https://iili.io/3FH357a.md.png"/>
-    <hyperlink ref="D126" r:id="rId123" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
-    <hyperlink ref="D127" r:id="rId124" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
-    <hyperlink ref="D128" r:id="rId125" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
-    <hyperlink ref="D129" r:id="rId126" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
-    <hyperlink ref="D130" r:id="rId127" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
-    <hyperlink ref="D131" r:id="rId128" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
-    <hyperlink ref="D132" r:id="rId129" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
-    <hyperlink ref="D133" r:id="rId130" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
-    <hyperlink ref="D134" r:id="rId131" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
-    <hyperlink ref="D135" r:id="rId132" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
-    <hyperlink ref="D136" r:id="rId133" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
-    <hyperlink ref="D137" r:id="rId134" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
-    <hyperlink ref="D138" r:id="rId135" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
-    <hyperlink ref="D139" r:id="rId136" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
-    <hyperlink ref="D140" r:id="rId137" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
-    <hyperlink ref="D141" r:id="rId138" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
-    <hyperlink ref="D142" r:id="rId139" display="https://iili.io/3FHwaQn.md.jpg"/>
-    <hyperlink ref="D143" r:id="rId140" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D144" r:id="rId141" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D145" r:id="rId142" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="D146" r:id="rId143" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
-    <hyperlink ref="D147" r:id="rId144" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
-    <hyperlink ref="D148" r:id="rId145" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
-    <hyperlink ref="D149" r:id="rId146" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
-    <hyperlink ref="D150" r:id="rId147" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D151" r:id="rId148" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
-    <hyperlink ref="D152" r:id="rId149" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
-    <hyperlink ref="D153" r:id="rId150" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
-    <hyperlink ref="D154" r:id="rId151" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
-    <hyperlink ref="D155" r:id="rId152" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
-    <hyperlink ref="D156" r:id="rId153" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D157" r:id="rId153" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D158" r:id="rId119" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D159" r:id="rId154" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
-    <hyperlink ref="D160" r:id="rId155" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
-    <hyperlink ref="D161" r:id="rId156" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
-    <hyperlink ref="D162" r:id="rId157" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
-    <hyperlink ref="D163" r:id="rId158" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
-    <hyperlink ref="D164" r:id="rId159" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
-    <hyperlink ref="D165" r:id="rId160" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
-    <hyperlink ref="D166" r:id="rId161" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
-    <hyperlink ref="D167" r:id="rId162" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
-    <hyperlink ref="D168" r:id="rId163" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
-    <hyperlink ref="D169" r:id="rId164" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
-    <hyperlink ref="D170" r:id="rId165" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D171" r:id="rId166" display="https://www.esh2u.com/cdn/shop/files/3_63dd025a-1776-4ab6-b2c5-99350e848b01_460x@2x.png?v=1725961121"/>
-    <hyperlink ref="D172" r:id="rId167" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
-    <hyperlink ref="D173" r:id="rId168" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D174" r:id="rId169" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D175" r:id="rId170" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
-    <hyperlink ref="D176" r:id="rId171" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
-    <hyperlink ref="D177" r:id="rId172" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
-    <hyperlink ref="D178" r:id="rId173" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
-    <hyperlink ref="D179" r:id="rId174" display="https://rukminim2.flixcart.com/image/850/1000/l0pm3680/home-security-camera/3/u/p/6-tapo-c210-3mp-1296p-pan-tilt-wi-fi-indoor-security-camera-tp-original-imagcfrevgynzfkx.jpeg?q=20&amp;crop=false"/>
-    <hyperlink ref="D180" r:id="rId175" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
-    <hyperlink ref="D181" r:id="rId176" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D182" r:id="rId177" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
-    <hyperlink ref="D183" r:id="rId178" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
-    <hyperlink ref="D186" r:id="rId179" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
-    <hyperlink ref="D185" r:id="rId180" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
-    <hyperlink ref="D184" r:id="rId181" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
-    <hyperlink ref="D187" r:id="rId182" display="https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213"/>
-    <hyperlink ref="D188" r:id="rId183" display="https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759"/>
-    <hyperlink ref="D189" r:id="rId184" display="https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073"/>
-    <hyperlink ref="D190" r:id="rId185" display="https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361"/>
-    <hyperlink ref="D191" r:id="rId186" display="https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030"/>
-    <hyperlink ref="D192" r:id="rId187" display="https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123"/>
-    <hyperlink ref="D193" r:id="rId188" display="https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840"/>
-    <hyperlink ref="D194" r:id="rId189" display="https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894"/>
-    <hyperlink ref="D195" r:id="rId190" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
-    <hyperlink ref="D196" r:id="rId191" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
-    <hyperlink ref="D197" r:id="rId192" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
-    <hyperlink ref="D198" r:id="rId193" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
-    <hyperlink ref="D199" r:id="rId194" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
-    <hyperlink ref="D200" r:id="rId195" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
-    <hyperlink ref="D201" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
-    <hyperlink ref="D202" r:id="rId197" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
-    <hyperlink ref="D203" r:id="rId198" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
-    <hyperlink ref="D204" r:id="rId199" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
-    <hyperlink ref="D205" r:id="rId200" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
-    <hyperlink ref="D206" r:id="rId201" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
-    <hyperlink ref="D207" r:id="rId202" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
-    <hyperlink ref="D208" r:id="rId203" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
-    <hyperlink ref="D209" r:id="rId204" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
-    <hyperlink ref="D210" r:id="rId205" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
-    <hyperlink ref="D211" r:id="rId206" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
-    <hyperlink ref="D212" r:id="rId207" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
-    <hyperlink ref="D213" r:id="rId208" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
-    <hyperlink ref="D214" r:id="rId209" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
-    <hyperlink ref="D215" r:id="rId210" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
-    <hyperlink ref="D216" r:id="rId211" display="https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://img.lazcdn.com/g/p/51b1c0ce37e1085d068e8fb2959cbccb.png_960x960q80.png_.webp"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://img.lazcdn.com/g/p/0f08830da4bd607bd1b5299f3d60ca19.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://i.ibb.co/TxfL8mYs/New-Project-2.png"/>
+    <hyperlink ref="D15" r:id="rId14" display="https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png"/>
+    <hyperlink ref="D16" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D17" r:id="rId16" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D18" r:id="rId17" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D19" r:id="rId18" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
+    <hyperlink ref="D20" r:id="rId19" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D21" r:id="rId20" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D22" r:id="rId21" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D23" r:id="rId22" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D24" r:id="rId23" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D25" r:id="rId24" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D26" r:id="rId25" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D27" r:id="rId26" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D28" r:id="rId27" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D29" r:id="rId28" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D30" r:id="rId29" display="https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png"/>
+    <hyperlink ref="D31" r:id="rId30" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
+    <hyperlink ref="D32" r:id="rId31" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
+    <hyperlink ref="D33" r:id="rId32" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
+    <hyperlink ref="D34" r:id="rId33" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
+    <hyperlink ref="D35" r:id="rId34" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
+    <hyperlink ref="D44" r:id="rId43" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D45" r:id="rId43" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D46" r:id="rId44" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
+    <hyperlink ref="D47" r:id="rId45" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
+    <hyperlink ref="D48" r:id="rId46" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
+    <hyperlink ref="D49" r:id="rId47" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
+    <hyperlink ref="D50" r:id="rId48" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
+    <hyperlink ref="D51" r:id="rId49" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
+    <hyperlink ref="D52" r:id="rId50" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
+    <hyperlink ref="D53" r:id="rId51" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
+    <hyperlink ref="D54" r:id="rId52" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
+    <hyperlink ref="D55" r:id="rId53" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
+    <hyperlink ref="D56" r:id="rId54" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
+    <hyperlink ref="D57" r:id="rId55" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
+    <hyperlink ref="D58" r:id="rId56" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
+    <hyperlink ref="D59" r:id="rId57" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
+    <hyperlink ref="D60" r:id="rId58" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
+    <hyperlink ref="D61" r:id="rId59" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
+    <hyperlink ref="D62" r:id="rId60" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D63" r:id="rId61" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
+    <hyperlink ref="D64" r:id="rId60" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D65" r:id="rId62" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
+    <hyperlink ref="D66" r:id="rId63" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
+    <hyperlink ref="D67" r:id="rId64" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D68" r:id="rId65" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
+    <hyperlink ref="D69" r:id="rId66" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
+    <hyperlink ref="D70" r:id="rId67" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
+    <hyperlink ref="D71" r:id="rId68" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
+    <hyperlink ref="D72" r:id="rId69" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
+    <hyperlink ref="D73" r:id="rId70" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
+    <hyperlink ref="D74" r:id="rId71" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D75" r:id="rId72" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
+    <hyperlink ref="D76" r:id="rId73" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
+    <hyperlink ref="D77" r:id="rId74" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
+    <hyperlink ref="D78" r:id="rId75" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
+    <hyperlink ref="D79" r:id="rId76" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
+    <hyperlink ref="D80" r:id="rId77" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
+    <hyperlink ref="D81" r:id="rId78" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
+    <hyperlink ref="D82" r:id="rId79" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
+    <hyperlink ref="D83" r:id="rId80" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
+    <hyperlink ref="D84" r:id="rId81" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
+    <hyperlink ref="D85" r:id="rId82" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D86" r:id="rId83" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
+    <hyperlink ref="D87" r:id="rId84" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
+    <hyperlink ref="D88" r:id="rId85" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
+    <hyperlink ref="D89" r:id="rId86" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
+    <hyperlink ref="D90" r:id="rId87" display="https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png"/>
+    <hyperlink ref="D91" r:id="rId88" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
+    <hyperlink ref="D92" r:id="rId89" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
+    <hyperlink ref="D93" r:id="rId90" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
+    <hyperlink ref="D94" r:id="rId91" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
+    <hyperlink ref="D95" r:id="rId92" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
+    <hyperlink ref="D96" r:id="rId93" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
+    <hyperlink ref="D97" r:id="rId94" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
+    <hyperlink ref="D98" r:id="rId95" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
+    <hyperlink ref="D99" r:id="rId96" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
+    <hyperlink ref="D100" r:id="rId97" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
+    <hyperlink ref="D101" r:id="rId98" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
+    <hyperlink ref="D106" r:id="rId99" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
+    <hyperlink ref="D107" r:id="rId100" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
+    <hyperlink ref="D108" r:id="rId101" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
+    <hyperlink ref="D109" r:id="rId102" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D110" r:id="rId103" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
+    <hyperlink ref="D111" r:id="rId104" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D112" r:id="rId105" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D113" r:id="rId106" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
+    <hyperlink ref="D114" r:id="rId107" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958"/>
+    <hyperlink ref="D115" r:id="rId108" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
+    <hyperlink ref="D116" r:id="rId109" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D117" r:id="rId110" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D118" r:id="rId111" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
+    <hyperlink ref="D119" r:id="rId112" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
+    <hyperlink ref="D120" r:id="rId113" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
+    <hyperlink ref="D121" r:id="rId114" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D122" r:id="rId115" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D123" r:id="rId116" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D124" r:id="rId117" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
+    <hyperlink ref="D125" r:id="rId118" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
+    <hyperlink ref="D126" r:id="rId119" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
+    <hyperlink ref="D127" r:id="rId120" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
+    <hyperlink ref="D128" r:id="rId121" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
+    <hyperlink ref="D129" r:id="rId122" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
+    <hyperlink ref="D130" r:id="rId123" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
+    <hyperlink ref="D131" r:id="rId124" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
+    <hyperlink ref="D132" r:id="rId125" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
+    <hyperlink ref="D133" r:id="rId126" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
+    <hyperlink ref="D134" r:id="rId127" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D135" r:id="rId128" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
+    <hyperlink ref="D136" r:id="rId129" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
+    <hyperlink ref="D137" r:id="rId130" display="https://iili.io/3FH357a.md.png"/>
+    <hyperlink ref="D138" r:id="rId131" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
+    <hyperlink ref="D139" r:id="rId132" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
+    <hyperlink ref="D140" r:id="rId133" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
+    <hyperlink ref="D141" r:id="rId134" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
+    <hyperlink ref="D142" r:id="rId135" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
+    <hyperlink ref="D143" r:id="rId136" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
+    <hyperlink ref="D144" r:id="rId137" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
+    <hyperlink ref="D145" r:id="rId138" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
+    <hyperlink ref="D146" r:id="rId139" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
+    <hyperlink ref="D147" r:id="rId140" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
+    <hyperlink ref="D148" r:id="rId141" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
+    <hyperlink ref="D149" r:id="rId142" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
+    <hyperlink ref="D150" r:id="rId143" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
+    <hyperlink ref="D151" r:id="rId144" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
+    <hyperlink ref="D152" r:id="rId145" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
+    <hyperlink ref="D153" r:id="rId146" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
+    <hyperlink ref="D154" r:id="rId147" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="D155" r:id="rId148" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D156" r:id="rId149" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D157" r:id="rId150" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="D158" r:id="rId151" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
+    <hyperlink ref="D159" r:id="rId152" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
+    <hyperlink ref="D160" r:id="rId153" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
+    <hyperlink ref="D161" r:id="rId154" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
+    <hyperlink ref="D162" r:id="rId155" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D163" r:id="rId156" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="D164" r:id="rId157" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
+    <hyperlink ref="D165" r:id="rId158" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
+    <hyperlink ref="D166" r:id="rId159" display="https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg"/>
+    <hyperlink ref="D167" r:id="rId160" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
+    <hyperlink ref="D168" r:id="rId161" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
+    <hyperlink ref="D169" r:id="rId162" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="D170" r:id="rId163" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
+    <hyperlink ref="D171" r:id="rId164" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
+    <hyperlink ref="D172" r:id="rId165" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D173" r:id="rId165" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D174" r:id="rId127" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D175" r:id="rId166" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
+    <hyperlink ref="D176" r:id="rId167" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
+    <hyperlink ref="D177" r:id="rId168" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="D178" r:id="rId169" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="D179" r:id="rId170" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
+    <hyperlink ref="D180" r:id="rId171" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="D181" r:id="rId172" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
+    <hyperlink ref="D182" r:id="rId173" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="D183" r:id="rId174" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="D184" r:id="rId175" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="D185" r:id="rId176" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
+    <hyperlink ref="D186" r:id="rId177" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D187" r:id="rId178" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="D188" r:id="rId179" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D189" r:id="rId180" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D190" r:id="rId181" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="D191" r:id="rId182" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="D192" r:id="rId183" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="D193" r:id="rId184" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="D194" r:id="rId185" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
+    <hyperlink ref="D195" r:id="rId186" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D196" r:id="rId187" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D197" r:id="rId188" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="D198" r:id="rId189" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="D199" r:id="rId190" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
+    <hyperlink ref="D200" r:id="rId191" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
+    <hyperlink ref="D201" r:id="rId192" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
+    <hyperlink ref="D202" r:id="rId193" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
+    <hyperlink ref="D203" r:id="rId194" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
+    <hyperlink ref="D204" r:id="rId195" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
+    <hyperlink ref="D205" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
+    <hyperlink ref="D206" r:id="rId197" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
+    <hyperlink ref="D207" r:id="rId198" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
+    <hyperlink ref="D208" r:id="rId199" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
+    <hyperlink ref="D209" r:id="rId200" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
+    <hyperlink ref="D210" r:id="rId201" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
+    <hyperlink ref="D211" r:id="rId202" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
+    <hyperlink ref="D212" r:id="rId203" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
+    <hyperlink ref="D213" r:id="rId204" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
+    <hyperlink ref="D214" r:id="rId205" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
+    <hyperlink ref="D215" r:id="rId206" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
+    <hyperlink ref="D216" r:id="rId207" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
+    <hyperlink ref="D217" r:id="rId208" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
+    <hyperlink ref="D218" r:id="rId209" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
+    <hyperlink ref="D103" r:id="rId210" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
+    <hyperlink ref="D105" r:id="rId211" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
+    <hyperlink ref="D104" r:id="rId212" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
+    <hyperlink ref="D102" r:id="rId213" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
+    <hyperlink ref="D219" r:id="rId214" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="736">
   <si>
     <t>BRAND</t>
   </si>
@@ -1313,7 +1313,7 @@
     <t>Colgate Zig Zag Charcoal Toothbrush – Soft Bristles</t>
   </si>
   <si>
-    <t>https://fmcg.my/wp-content/uploads/2021/02/178.jpg</t>
+    <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/129279_21042024152719-800x800.jpg</t>
   </si>
   <si>
     <t>RM15.50</t>
@@ -1895,7 +1895,7 @@
     <t>Tefal Day by Day Induction Wok Pan 32cm with Lid</t>
   </si>
   <si>
-    <t>https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU</t>
+    <t>https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive</t>
   </si>
   <si>
     <t>TEF-G143S4</t>
@@ -2223,6 +2223,18 @@
   </si>
   <si>
     <t>Effective 23.4.2025</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>COMING SOON</t>
+  </si>
+  <si>
+    <t>More products will be added. Stay tuned!</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2248,7 @@
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="180" formatCode="&quot;RM&quot;#,##0.00;\-&quot;RM&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2258,13 +2270,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2403,12 +2408,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2721,29 +2732,32 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2752,122 +2766,119 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2877,7 +2888,9 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3224,10 +3237,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H219"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -8933,6 +8946,174 @@
       <c r="H219" s="2" t="s">
         <v>731</v>
       </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E220" s="6">
+        <v>0</v>
+      </c>
+      <c r="F220" s="6">
+        <v>0</v>
+      </c>
+      <c r="G220" s="6">
+        <v>0</v>
+      </c>
+      <c r="H220" s="6"/>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D221" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E221" s="6">
+        <v>0</v>
+      </c>
+      <c r="F221" s="6">
+        <v>0</v>
+      </c>
+      <c r="G221" s="6">
+        <v>0</v>
+      </c>
+      <c r="H221" s="6"/>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E222" s="6">
+        <v>0</v>
+      </c>
+      <c r="F222" s="6">
+        <v>0</v>
+      </c>
+      <c r="G222" s="6">
+        <v>0</v>
+      </c>
+      <c r="H222" s="6"/>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D223" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E223" s="6">
+        <v>0</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0</v>
+      </c>
+      <c r="G223" s="6">
+        <v>0</v>
+      </c>
+      <c r="H223" s="6"/>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E224" s="6">
+        <v>0</v>
+      </c>
+      <c r="F224" s="6">
+        <v>0</v>
+      </c>
+      <c r="G224" s="6">
+        <v>0</v>
+      </c>
+      <c r="H224" s="6"/>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D225" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E225" s="6">
+        <v>0</v>
+      </c>
+      <c r="F225" s="6">
+        <v>0</v>
+      </c>
+      <c r="G225" s="6">
+        <v>0</v>
+      </c>
+      <c r="H225" s="6"/>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="E226" s="6">
+        <v>0</v>
+      </c>
+      <c r="F226" s="6">
+        <v>0</v>
+      </c>
+      <c r="G226" s="6">
+        <v>0</v>
+      </c>
+      <c r="H226" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9062,98 +9243,105 @@
     <hyperlink ref="D129" r:id="rId122" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
     <hyperlink ref="D130" r:id="rId123" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
     <hyperlink ref="D131" r:id="rId124" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
-    <hyperlink ref="D132" r:id="rId125" display="https://fmcg.my/wp-content/uploads/2021/02/178.jpg"/>
-    <hyperlink ref="D133" r:id="rId126" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
-    <hyperlink ref="D134" r:id="rId127" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D135" r:id="rId128" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
-    <hyperlink ref="D136" r:id="rId129" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
-    <hyperlink ref="D137" r:id="rId130" display="https://iili.io/3FH357a.md.png"/>
-    <hyperlink ref="D138" r:id="rId131" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
-    <hyperlink ref="D139" r:id="rId132" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
-    <hyperlink ref="D140" r:id="rId133" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
-    <hyperlink ref="D141" r:id="rId134" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
-    <hyperlink ref="D142" r:id="rId135" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
-    <hyperlink ref="D143" r:id="rId136" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
-    <hyperlink ref="D144" r:id="rId137" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
-    <hyperlink ref="D145" r:id="rId138" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
-    <hyperlink ref="D146" r:id="rId139" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
-    <hyperlink ref="D147" r:id="rId140" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
-    <hyperlink ref="D148" r:id="rId141" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
-    <hyperlink ref="D149" r:id="rId142" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
-    <hyperlink ref="D150" r:id="rId143" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
-    <hyperlink ref="D151" r:id="rId144" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
-    <hyperlink ref="D152" r:id="rId145" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
-    <hyperlink ref="D153" r:id="rId146" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
-    <hyperlink ref="D154" r:id="rId147" display="https://iili.io/3FHwaQn.md.jpg"/>
-    <hyperlink ref="D155" r:id="rId148" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D156" r:id="rId149" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D157" r:id="rId150" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="D158" r:id="rId151" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
-    <hyperlink ref="D159" r:id="rId152" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
-    <hyperlink ref="D160" r:id="rId153" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
-    <hyperlink ref="D161" r:id="rId154" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
-    <hyperlink ref="D162" r:id="rId155" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D163" r:id="rId156" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
-    <hyperlink ref="D164" r:id="rId157" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
-    <hyperlink ref="D165" r:id="rId158" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
-    <hyperlink ref="D166" r:id="rId159" display="https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg"/>
-    <hyperlink ref="D167" r:id="rId160" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
-    <hyperlink ref="D168" r:id="rId161" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
-    <hyperlink ref="D169" r:id="rId162" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
-    <hyperlink ref="D170" r:id="rId163" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
-    <hyperlink ref="D171" r:id="rId164" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
-    <hyperlink ref="D172" r:id="rId165" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D173" r:id="rId165" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D174" r:id="rId127" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D175" r:id="rId166" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
-    <hyperlink ref="D176" r:id="rId167" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
-    <hyperlink ref="D177" r:id="rId168" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
-    <hyperlink ref="D178" r:id="rId169" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
-    <hyperlink ref="D179" r:id="rId170" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
-    <hyperlink ref="D180" r:id="rId171" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
-    <hyperlink ref="D181" r:id="rId172" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
-    <hyperlink ref="D182" r:id="rId173" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
-    <hyperlink ref="D183" r:id="rId174" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
-    <hyperlink ref="D184" r:id="rId175" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
-    <hyperlink ref="D185" r:id="rId176" display="https://www.tefal.com.sg/medias/?context=bWFzdGVyfGltYWdlc3w0NDI1N3xpbWFnZS9qcGVnfGFXMWhaMlZ6TDJneE9TOW9Zall2TVRRMk1EZ3pOVFEwTkRNeU9UUXVhbkJufGE5NTk1YjljYWRiMmEyZGNmNTgyMTY5OWRiYTg3YmJmZDNmZjE2ODRkNTY4ZTIwMGVkOWJlYjg3ZjExMGYwMDU"/>
-    <hyperlink ref="D186" r:id="rId177" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D187" r:id="rId178" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
-    <hyperlink ref="D188" r:id="rId179" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D189" r:id="rId180" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D190" r:id="rId181" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
-    <hyperlink ref="D191" r:id="rId182" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
-    <hyperlink ref="D192" r:id="rId183" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
-    <hyperlink ref="D193" r:id="rId184" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
-    <hyperlink ref="D194" r:id="rId185" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
-    <hyperlink ref="D195" r:id="rId186" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D196" r:id="rId187" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
-    <hyperlink ref="D197" r:id="rId188" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
-    <hyperlink ref="D198" r:id="rId189" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
-    <hyperlink ref="D199" r:id="rId190" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
-    <hyperlink ref="D200" r:id="rId191" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
-    <hyperlink ref="D201" r:id="rId192" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
-    <hyperlink ref="D202" r:id="rId193" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
-    <hyperlink ref="D203" r:id="rId194" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
-    <hyperlink ref="D204" r:id="rId195" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
-    <hyperlink ref="D205" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
-    <hyperlink ref="D206" r:id="rId197" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
-    <hyperlink ref="D207" r:id="rId198" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
-    <hyperlink ref="D208" r:id="rId199" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
-    <hyperlink ref="D209" r:id="rId200" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
-    <hyperlink ref="D210" r:id="rId201" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
-    <hyperlink ref="D211" r:id="rId202" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
-    <hyperlink ref="D212" r:id="rId203" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
-    <hyperlink ref="D213" r:id="rId204" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
-    <hyperlink ref="D214" r:id="rId205" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
-    <hyperlink ref="D215" r:id="rId206" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
-    <hyperlink ref="D216" r:id="rId207" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
-    <hyperlink ref="D217" r:id="rId208" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
-    <hyperlink ref="D218" r:id="rId209" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
-    <hyperlink ref="D103" r:id="rId210" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
-    <hyperlink ref="D105" r:id="rId211" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
-    <hyperlink ref="D104" r:id="rId212" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
-    <hyperlink ref="D102" r:id="rId213" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
-    <hyperlink ref="D219" r:id="rId214" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
+    <hyperlink ref="D133" r:id="rId125" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
+    <hyperlink ref="D134" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D135" r:id="rId127" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
+    <hyperlink ref="D136" r:id="rId128" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
+    <hyperlink ref="D137" r:id="rId129" display="https://iili.io/3FH357a.md.png"/>
+    <hyperlink ref="D138" r:id="rId130" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
+    <hyperlink ref="D139" r:id="rId131" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
+    <hyperlink ref="D140" r:id="rId132" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
+    <hyperlink ref="D141" r:id="rId133" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
+    <hyperlink ref="D142" r:id="rId134" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
+    <hyperlink ref="D143" r:id="rId135" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
+    <hyperlink ref="D144" r:id="rId136" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
+    <hyperlink ref="D145" r:id="rId137" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
+    <hyperlink ref="D146" r:id="rId138" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
+    <hyperlink ref="D147" r:id="rId139" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
+    <hyperlink ref="D148" r:id="rId140" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
+    <hyperlink ref="D149" r:id="rId141" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
+    <hyperlink ref="D150" r:id="rId142" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
+    <hyperlink ref="D151" r:id="rId143" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
+    <hyperlink ref="D152" r:id="rId144" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
+    <hyperlink ref="D153" r:id="rId145" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
+    <hyperlink ref="D154" r:id="rId146" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="D155" r:id="rId147" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D156" r:id="rId148" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D157" r:id="rId149" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="D158" r:id="rId150" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
+    <hyperlink ref="D159" r:id="rId151" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
+    <hyperlink ref="D160" r:id="rId152" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
+    <hyperlink ref="D161" r:id="rId153" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
+    <hyperlink ref="D162" r:id="rId154" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D163" r:id="rId155" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="D164" r:id="rId156" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
+    <hyperlink ref="D165" r:id="rId157" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
+    <hyperlink ref="D166" r:id="rId158" display="https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg"/>
+    <hyperlink ref="D167" r:id="rId159" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
+    <hyperlink ref="D168" r:id="rId160" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
+    <hyperlink ref="D169" r:id="rId161" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="D170" r:id="rId162" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
+    <hyperlink ref="D171" r:id="rId163" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
+    <hyperlink ref="D172" r:id="rId164" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D173" r:id="rId164" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D174" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D175" r:id="rId165" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
+    <hyperlink ref="D176" r:id="rId166" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
+    <hyperlink ref="D177" r:id="rId167" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="D178" r:id="rId168" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="D179" r:id="rId169" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
+    <hyperlink ref="D180" r:id="rId170" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="D181" r:id="rId171" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
+    <hyperlink ref="D182" r:id="rId172" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="D183" r:id="rId173" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="D184" r:id="rId174" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="D186" r:id="rId175" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D187" r:id="rId176" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="D188" r:id="rId177" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D189" r:id="rId178" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D190" r:id="rId179" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="D191" r:id="rId180" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="D192" r:id="rId181" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="D193" r:id="rId182" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="D194" r:id="rId183" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
+    <hyperlink ref="D195" r:id="rId184" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D196" r:id="rId185" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D197" r:id="rId186" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="D198" r:id="rId187" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="D199" r:id="rId188" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
+    <hyperlink ref="D200" r:id="rId189" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
+    <hyperlink ref="D201" r:id="rId190" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
+    <hyperlink ref="D202" r:id="rId191" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
+    <hyperlink ref="D203" r:id="rId192" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
+    <hyperlink ref="D204" r:id="rId193" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
+    <hyperlink ref="D205" r:id="rId194" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
+    <hyperlink ref="D206" r:id="rId195" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
+    <hyperlink ref="D207" r:id="rId196" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
+    <hyperlink ref="D208" r:id="rId197" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
+    <hyperlink ref="D209" r:id="rId198" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
+    <hyperlink ref="D210" r:id="rId199" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
+    <hyperlink ref="D211" r:id="rId200" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
+    <hyperlink ref="D212" r:id="rId201" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
+    <hyperlink ref="D213" r:id="rId202" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
+    <hyperlink ref="D214" r:id="rId203" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
+    <hyperlink ref="D215" r:id="rId204" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
+    <hyperlink ref="D216" r:id="rId205" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
+    <hyperlink ref="D217" r:id="rId206" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
+    <hyperlink ref="D218" r:id="rId207" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
+    <hyperlink ref="D103" r:id="rId208" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
+    <hyperlink ref="D105" r:id="rId209" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
+    <hyperlink ref="D104" r:id="rId210" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
+    <hyperlink ref="D102" r:id="rId211" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
+    <hyperlink ref="D219" r:id="rId212" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
+    <hyperlink ref="D132" r:id="rId213" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/129279_21042024152719-800x800.jpg"/>
+    <hyperlink ref="D185" r:id="rId214" display="https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive"/>
+    <hyperlink ref="D220" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
+    <hyperlink ref="D221" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
+    <hyperlink ref="D222" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
+    <hyperlink ref="D223" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
+    <hyperlink ref="D224" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
+    <hyperlink ref="D225" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
+    <hyperlink ref="D226" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="712">
   <si>
     <t>BRAND</t>
   </si>
@@ -1301,9 +1301,6 @@
     <t>https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13</t>
   </si>
   <si>
-    <t>RM14.40</t>
-  </si>
-  <si>
     <t>Clear On hand Stock</t>
   </si>
   <si>
@@ -1316,9 +1313,6 @@
     <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/129279_21042024152719-800x800.jpg</t>
   </si>
   <si>
-    <t>RM15.50</t>
-  </si>
-  <si>
     <t>PG-COLGATE175TP_GRF</t>
   </si>
   <si>
@@ -1328,9 +1322,6 @@
     <t>https://i.ibb.co/d4J1JHZQ/564515-01.png</t>
   </si>
   <si>
-    <t>RM16.90</t>
-  </si>
-  <si>
     <t>PG-COVID19.BOOK</t>
   </si>
   <si>
@@ -1340,9 +1331,6 @@
     <t>https://cdn-icons-png.flaticon.com/512/2232/2232688.png</t>
   </si>
   <si>
-    <t>RM18.90</t>
-  </si>
-  <si>
     <t>PG-DARLIE175MD</t>
   </si>
   <si>
@@ -1352,9 +1340,6 @@
     <t>https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png</t>
   </si>
   <si>
-    <t>RM9.90</t>
-  </si>
-  <si>
     <t>PG-DYNAMO.1.44KGMD</t>
   </si>
   <si>
@@ -1364,9 +1349,6 @@
     <t>https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png</t>
   </si>
   <si>
-    <t>RM18.50</t>
-  </si>
-  <si>
     <t>PG-FEBREEZE_AB_370</t>
   </si>
   <si>
@@ -1376,9 +1358,6 @@
     <t>https://iili.io/3FH357a.md.png</t>
   </si>
   <si>
-    <t>RM11.90</t>
-  </si>
-  <si>
     <t>PG-GLADELEMON_T/P_MD</t>
   </si>
   <si>
@@ -1388,9 +1367,6 @@
     <t>https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74</t>
   </si>
   <si>
-    <t>RM18.00</t>
-  </si>
-  <si>
     <t>PG-GLADETP_LAV</t>
   </si>
   <si>
@@ -1409,9 +1385,6 @@
     <t>https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg</t>
   </si>
   <si>
-    <t>RM4.50</t>
-  </si>
-  <si>
     <t>PG-GLO800ML_LIME_MD</t>
   </si>
   <si>
@@ -1421,9 +1394,6 @@
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png</t>
   </si>
   <si>
-    <t>RM5.70</t>
-  </si>
-  <si>
     <t>PG-HOMESOY.1L</t>
   </si>
   <si>
@@ -1433,9 +1403,6 @@
     <t>https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630</t>
   </si>
   <si>
-    <t>RM3.50</t>
-  </si>
-  <si>
     <t>PG-MR.MF.C1LMD</t>
   </si>
   <si>
@@ -1481,9 +1448,6 @@
     <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg</t>
   </si>
   <si>
-    <t>RM3.30</t>
-  </si>
-  <si>
     <t>PG-PRMBOX5x90_MD</t>
   </si>
   <si>
@@ -1493,9 +1457,6 @@
     <t>https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png</t>
   </si>
   <si>
-    <t>RM11.50</t>
-  </si>
-  <si>
     <t>PG-PRMTISSUE4x100s</t>
   </si>
   <si>
@@ -1505,9 +1466,6 @@
     <t>https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf</t>
   </si>
   <si>
-    <t>RM8.10</t>
-  </si>
-  <si>
     <t>PG-RIBENA300MD</t>
   </si>
   <si>
@@ -1517,9 +1475,6 @@
     <t>https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg</t>
   </si>
   <si>
-    <t>RM2.60</t>
-  </si>
-  <si>
     <t>PG-SB5+1MD</t>
   </si>
   <si>
@@ -1529,9 +1484,6 @@
     <t>https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg</t>
   </si>
   <si>
-    <t>RM9.10</t>
-  </si>
-  <si>
     <t>PG-SCOTT_EXTRA</t>
   </si>
   <si>
@@ -1541,9 +1493,6 @@
     <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png</t>
   </si>
   <si>
-    <t>RM16.50</t>
-  </si>
-  <si>
     <t>PG-SOFTLAN1.6L_FLO</t>
   </si>
   <si>
@@ -1553,9 +1502,6 @@
     <t>https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480</t>
   </si>
   <si>
-    <t>RM7.90</t>
-  </si>
-  <si>
     <t>PHILIPS</t>
   </si>
   <si>
@@ -1742,9 +1688,6 @@
     <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
   </si>
   <si>
-    <t>RM30.00</t>
-  </si>
-  <si>
     <t>SH-C.CULTURE/E</t>
   </si>
   <si>
@@ -1754,9 +1697,6 @@
     <t>https://malaysia.kinokuniya.com/products/9789833789290/image_isbn</t>
   </si>
   <si>
-    <t>RM36.00</t>
-  </si>
-  <si>
     <t>SH-DIGITAL.CHINESE</t>
   </si>
   <si>
@@ -1766,9 +1706,6 @@
     <t>https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384</t>
   </si>
   <si>
-    <t>RM35.00</t>
-  </si>
-  <si>
     <t>SH-DIGITAL.JOURNEY</t>
   </si>
   <si>
@@ -1781,9 +1718,6 @@
     <t>DI ZI GUI BOOK</t>
   </si>
   <si>
-    <t>RM15.00</t>
-  </si>
-  <si>
     <t>SH-NEWRETAIL.BOOK</t>
   </si>
   <si>
@@ -1793,9 +1727,6 @@
     <t>https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg</t>
   </si>
   <si>
-    <t>RM40.00</t>
-  </si>
-  <si>
     <t>SH-NEWRETAIL.ENG</t>
   </si>
   <si>
@@ -1803,9 +1734,6 @@
   </si>
   <si>
     <t>https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995</t>
-  </si>
-  <si>
-    <t>RM50.00</t>
   </si>
   <si>
     <t>SONY</t>
@@ -3239,8 +3167,8 @@
   <sheetPr/>
   <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E113" sqref="E113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -6646,17 +6574,17 @@
       <c r="D131" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="E131" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>424</v>
+      <c r="E131" s="4">
+        <v>14.4</v>
+      </c>
+      <c r="F131" s="4">
+        <v>14.4</v>
       </c>
       <c r="G131" s="2">
         <v>1440</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6664,25 +6592,25 @@
         <v>420</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>429</v>
+      <c r="E132" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="F132" s="4">
+        <v>15.5</v>
       </c>
       <c r="G132" s="2">
         <v>1550</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6690,25 +6618,25 @@
         <v>420</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>433</v>
+      <c r="E133" s="4">
+        <v>16.9</v>
+      </c>
+      <c r="F133" s="4">
+        <v>16.9</v>
       </c>
       <c r="G133" s="2">
         <v>1690</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6716,25 +6644,25 @@
         <v>420</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>437</v>
+        <v>433</v>
+      </c>
+      <c r="E134" s="4">
+        <v>18.9</v>
+      </c>
+      <c r="F134" s="4">
+        <v>18.9</v>
       </c>
       <c r="G134" s="2">
         <v>1890</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6742,25 +6670,25 @@
         <v>420</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>441</v>
+        <v>436</v>
+      </c>
+      <c r="E135" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="F135" s="4">
+        <v>9.9</v>
       </c>
       <c r="G135" s="2">
         <v>990</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6768,25 +6696,25 @@
         <v>420</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>445</v>
+        <v>439</v>
+      </c>
+      <c r="E136" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F136" s="4">
+        <v>18.5</v>
       </c>
       <c r="G136" s="2">
         <v>1850</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -6794,25 +6722,25 @@
         <v>420</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>449</v>
+        <v>442</v>
+      </c>
+      <c r="E137" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="F137" s="4">
+        <v>11.9</v>
       </c>
       <c r="G137" s="2">
         <v>1190</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -6820,25 +6748,25 @@
         <v>420</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>453</v>
+        <v>445</v>
+      </c>
+      <c r="E138" s="4">
+        <v>18</v>
+      </c>
+      <c r="F138" s="4">
+        <v>18</v>
       </c>
       <c r="G138" s="2">
         <v>1800</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -6846,25 +6774,25 @@
         <v>420</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>445</v>
+        <v>448</v>
+      </c>
+      <c r="E139" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="F139" s="4">
+        <v>18.5</v>
       </c>
       <c r="G139" s="2">
         <v>1850</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -6872,25 +6800,25 @@
         <v>420</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>460</v>
+        <v>451</v>
+      </c>
+      <c r="E140" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F140" s="4">
+        <v>4.5</v>
       </c>
       <c r="G140" s="2">
         <v>450</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -6898,25 +6826,25 @@
         <v>420</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>464</v>
+        <v>454</v>
+      </c>
+      <c r="E141" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="F141" s="4">
+        <v>5.7</v>
       </c>
       <c r="G141" s="2">
         <v>570</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -6924,25 +6852,25 @@
         <v>420</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>468</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>468</v>
+        <v>457</v>
+      </c>
+      <c r="E142" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="F142" s="4">
+        <v>3.5</v>
       </c>
       <c r="G142" s="2">
         <v>350</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -6950,13 +6878,13 @@
         <v>420</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="E143" s="4">
         <v>8.6</v>
@@ -6968,7 +6896,7 @@
         <v>860</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -6976,13 +6904,13 @@
         <v>420</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="E144" s="4">
         <v>8</v>
@@ -6994,7 +6922,7 @@
         <v>800</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7002,13 +6930,13 @@
         <v>420</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="E145" s="4">
         <v>8</v>
@@ -7020,7 +6948,7 @@
         <v>800</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7028,13 +6956,13 @@
         <v>420</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="E146" s="4">
         <v>8</v>
@@ -7046,7 +6974,7 @@
         <v>800</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7054,25 +6982,25 @@
         <v>420</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>484</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>484</v>
+        <v>472</v>
+      </c>
+      <c r="E147" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="F147" s="4">
+        <v>3.3</v>
       </c>
       <c r="G147" s="2">
         <v>330</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7080,25 +7008,25 @@
         <v>420</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>488</v>
+        <v>475</v>
+      </c>
+      <c r="E148" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="F148" s="4">
+        <v>11.5</v>
       </c>
       <c r="G148" s="2">
         <v>1150</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7106,25 +7034,25 @@
         <v>420</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>492</v>
+        <v>478</v>
+      </c>
+      <c r="E149" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="F149" s="4">
+        <v>8.1</v>
       </c>
       <c r="G149" s="2">
         <v>810</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7132,25 +7060,25 @@
         <v>420</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>496</v>
+        <v>481</v>
+      </c>
+      <c r="E150" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="F150" s="4">
+        <v>2.6</v>
       </c>
       <c r="G150" s="2">
         <v>260</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7158,25 +7086,25 @@
         <v>420</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>500</v>
+        <v>484</v>
+      </c>
+      <c r="E151" s="4">
+        <v>9.1</v>
+      </c>
+      <c r="F151" s="4">
+        <v>9.1</v>
       </c>
       <c r="G151" s="2">
         <v>910</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7184,25 +7112,25 @@
         <v>420</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>504</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>504</v>
+        <v>487</v>
+      </c>
+      <c r="E152" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="F152" s="4">
+        <v>16.5</v>
       </c>
       <c r="G152" s="2">
         <v>1650</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7210,39 +7138,39 @@
         <v>420</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>508</v>
-      </c>
-      <c r="F153" s="4" t="s">
-        <v>508</v>
+        <v>490</v>
+      </c>
+      <c r="E153" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="F153" s="4">
+        <v>7.9</v>
       </c>
       <c r="G153" s="2">
         <v>790</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="E154" s="4">
         <v>149</v>
@@ -7259,16 +7187,16 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="E155" s="4">
         <v>289</v>
@@ -7285,16 +7213,16 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="E156" s="4">
         <v>199</v>
@@ -7311,16 +7239,16 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>522</v>
+        <v>504</v>
       </c>
       <c r="E157" s="4">
         <v>469</v>
@@ -7337,16 +7265,16 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>523</v>
+        <v>505</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>524</v>
+        <v>506</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>525</v>
+        <v>507</v>
       </c>
       <c r="E158" s="4">
         <v>30.9</v>
@@ -7358,21 +7286,21 @@
         <v>3090</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="E159" s="4">
         <v>30.9</v>
@@ -7384,21 +7312,21 @@
         <v>3090</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
       <c r="E160" s="4">
         <v>139</v>
@@ -7410,21 +7338,21 @@
         <v>13900</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
       <c r="E161" s="4">
         <v>109</v>
@@ -7436,21 +7364,21 @@
         <v>10900</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
       <c r="E162" s="4">
         <v>449</v>
@@ -7467,16 +7395,16 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
       <c r="E163" s="4">
         <v>129</v>
@@ -7493,16 +7421,16 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="E164" s="4">
         <v>259</v>
@@ -7519,16 +7447,16 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="E165" s="4">
         <v>219</v>
@@ -7540,21 +7468,21 @@
         <v>21900</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="E166" s="4">
         <v>269</v>
@@ -7571,16 +7499,16 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="E167" s="4">
         <v>3999</v>
@@ -7592,21 +7520,21 @@
         <v>309900</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="E168" s="4">
         <v>3699</v>
@@ -7618,21 +7546,21 @@
         <v>289900</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="E169" s="4">
         <v>1999</v>
@@ -7649,198 +7577,198 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>571</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>571</v>
+        <v>552</v>
+      </c>
+      <c r="E170" s="4">
+        <v>30</v>
+      </c>
+      <c r="F170" s="4">
+        <v>30</v>
       </c>
       <c r="G170" s="2">
         <v>3000</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>572</v>
+        <v>553</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>573</v>
+        <v>554</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>575</v>
+        <v>555</v>
+      </c>
+      <c r="E171" s="4">
+        <v>36</v>
+      </c>
+      <c r="F171" s="4">
+        <v>36</v>
       </c>
       <c r="G171" s="2">
         <v>3600</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E172" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="F172" s="4" t="s">
-        <v>579</v>
+        <v>558</v>
+      </c>
+      <c r="E172" s="4">
+        <v>35</v>
+      </c>
+      <c r="F172" s="4">
+        <v>35</v>
       </c>
       <c r="G172" s="2">
         <v>3500</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>581</v>
+        <v>560</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>579</v>
+        <v>558</v>
+      </c>
+      <c r="E173" s="4">
+        <v>35</v>
+      </c>
+      <c r="F173" s="4">
+        <v>35</v>
       </c>
       <c r="G173" s="2">
         <v>3500</v>
       </c>
       <c r="H173" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>583</v>
+        <v>562</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E174" s="4" t="s">
-        <v>584</v>
-      </c>
-      <c r="F174" s="4" t="s">
-        <v>584</v>
+        <v>433</v>
+      </c>
+      <c r="E174" s="4">
+        <v>15</v>
+      </c>
+      <c r="F174" s="4">
+        <v>15</v>
       </c>
       <c r="G174" s="2">
         <v>1500</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>585</v>
+        <v>563</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>586</v>
+        <v>564</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E175" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>588</v>
+        <v>565</v>
+      </c>
+      <c r="E175" s="4">
+        <v>40</v>
+      </c>
+      <c r="F175" s="4">
+        <v>40</v>
       </c>
       <c r="G175" s="2">
         <v>4000</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>590</v>
-      </c>
       <c r="D176" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E176" s="4" t="s">
-        <v>592</v>
-      </c>
-      <c r="F176" s="4" t="s">
-        <v>592</v>
+        <v>568</v>
+      </c>
+      <c r="E176" s="4">
+        <v>50</v>
+      </c>
+      <c r="F176" s="4">
+        <v>50</v>
       </c>
       <c r="G176" s="2">
         <v>5000</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="E177" s="4">
         <v>299</v>
@@ -7857,16 +7785,16 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="E178" s="4">
         <v>229</v>
@@ -7883,16 +7811,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="E179" s="4">
         <v>309</v>
@@ -7909,16 +7837,16 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="E180" s="4">
         <v>339</v>
@@ -7935,16 +7863,16 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="E181" s="4">
         <v>159</v>
@@ -7961,16 +7889,16 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="E182" s="4">
         <v>159</v>
@@ -7987,16 +7915,16 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="E183" s="4">
         <v>169</v>
@@ -8013,16 +7941,16 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="E184" s="4">
         <v>179</v>
@@ -8039,16 +7967,16 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="E185" s="4">
         <v>239</v>
@@ -8065,16 +7993,16 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="E186" s="4">
         <v>299</v>
@@ -8091,16 +8019,16 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="E187" s="4">
         <v>159</v>
@@ -8117,16 +8045,16 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="E188" s="4">
         <v>449</v>
@@ -8143,16 +8071,16 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="E189" s="4">
         <v>499</v>
@@ -8164,21 +8092,21 @@
         <v>29900</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="E190" s="4">
         <v>1299</v>
@@ -8195,16 +8123,16 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="E191" s="4">
         <v>1899</v>
@@ -8221,16 +8149,16 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="E192" s="4">
         <v>1499</v>
@@ -8247,16 +8175,16 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="E193" s="4">
         <v>499</v>
@@ -8273,16 +8201,16 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="E194" s="4">
         <v>299</v>
@@ -8294,21 +8222,21 @@
         <v>26900</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="E195" s="4">
         <v>389</v>
@@ -8320,21 +8248,21 @@
         <v>25900</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="E196" s="4">
         <v>349</v>
@@ -8346,21 +8274,21 @@
         <v>22900</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>526</v>
+        <v>508</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="E197" s="4">
         <v>179</v>
@@ -8377,16 +8305,16 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="E198" s="4">
         <v>599</v>
@@ -8403,16 +8331,16 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="E199" s="4">
         <v>89</v>
@@ -8429,16 +8357,16 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="E200" s="4">
         <v>99</v>
@@ -8455,16 +8383,16 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="E201" s="4">
         <v>99</v>
@@ -8481,16 +8409,16 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="E202" s="4">
         <v>89</v>
@@ -8507,16 +8435,16 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="E203" s="4">
         <v>89</v>
@@ -8533,16 +8461,16 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
       <c r="E204" s="4">
         <v>89</v>
@@ -8559,16 +8487,16 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="E205" s="4">
         <v>99</v>
@@ -8585,16 +8513,16 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D206" s="3" t="s">
         <v>666</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>690</v>
       </c>
       <c r="E206" s="4">
         <v>99</v>
@@ -8611,16 +8539,16 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="E207" s="4">
         <v>99</v>
@@ -8637,16 +8565,16 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="E208" s="4">
         <v>99</v>
@@ -8663,16 +8591,16 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
       <c r="E209" s="4">
         <v>99</v>
@@ -8689,16 +8617,16 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="E210" s="4">
         <v>89</v>
@@ -8715,16 +8643,16 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
       <c r="E211" s="4">
         <v>89</v>
@@ -8741,16 +8669,16 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="E212" s="4">
         <v>99</v>
@@ -8767,16 +8695,16 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="E213" s="4">
         <v>99</v>
@@ -8793,16 +8721,16 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>713</v>
+        <v>689</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>714</v>
+        <v>690</v>
       </c>
       <c r="E214" s="4">
         <v>99</v>
@@ -8819,16 +8747,16 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>715</v>
+        <v>691</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>717</v>
+        <v>693</v>
       </c>
       <c r="E215" s="4">
         <v>99</v>
@@ -8845,16 +8773,16 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>718</v>
+        <v>694</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>719</v>
+        <v>695</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>720</v>
+        <v>696</v>
       </c>
       <c r="E216" s="4">
         <v>99</v>
@@ -8871,16 +8799,16 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>721</v>
+        <v>697</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>722</v>
+        <v>698</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>723</v>
+        <v>699</v>
       </c>
       <c r="E217" s="4">
         <v>99</v>
@@ -8897,16 +8825,16 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>724</v>
+        <v>700</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>725</v>
+        <v>701</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>726</v>
+        <v>702</v>
       </c>
       <c r="E218" s="4">
         <v>99</v>
@@ -8923,16 +8851,16 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
-        <v>727</v>
+        <v>703</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>728</v>
+        <v>704</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>729</v>
+        <v>705</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>730</v>
+        <v>706</v>
       </c>
       <c r="E219" s="4">
         <v>1499</v>
@@ -8944,21 +8872,21 @@
         <v>99900</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>731</v>
+        <v>707</v>
       </c>
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="6" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D220" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="E220" s="6">
         <v>0</v>
@@ -8973,16 +8901,16 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="6" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D221" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="E221" s="6">
         <v>0</v>
@@ -8997,16 +8925,16 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="6" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D222" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="E222" s="6">
         <v>0</v>
@@ -9021,16 +8949,16 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="6" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="E223" s="6">
         <v>0</v>
@@ -9045,16 +8973,16 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="6" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="E224" s="6">
         <v>0</v>
@@ -9069,16 +8997,16 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" s="6" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="E225" s="6">
         <v>0</v>
@@ -9093,16 +9021,16 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" s="6" t="s">
-        <v>732</v>
+        <v>708</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>733</v>
+        <v>709</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>734</v>
+        <v>710</v>
       </c>
       <c r="D226" s="7" t="s">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="E226" s="6">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="712">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="750">
   <si>
     <t>BRAND</t>
   </si>
@@ -392,13 +392,58 @@
     <t>DELIGHTO</t>
   </si>
   <si>
+    <t>DLT-1004(B)</t>
+  </si>
+  <si>
+    <t>Delighto 20cm Aluminum Casserole French Soup Pot (Blue)</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/7bfbf1874ae455d72e9b6d22efa8cfe0.jpg</t>
+  </si>
+  <si>
+    <t>DLT-1004(G)</t>
+  </si>
+  <si>
+    <t>Delighto 20cm Aluminum Casserole French Soup Pot (Green)</t>
+  </si>
+  <si>
+    <t>https://img.lazcdn.com/g/p/22b5039602bc9746d8d9a4dee6a49c2c.jpg_720x720q80.jpg</t>
+  </si>
+  <si>
+    <t>DLT-1004(R)</t>
+  </si>
+  <si>
+    <t>Delighto 20cm Aluminum Casserole French Soup Pot (Red)</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/51GvK1XSYKL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>DLT-1004(Y)</t>
+  </si>
+  <si>
+    <t>Delighto 20cm Aluminum Casserole French Soup Pot (Yellow)</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/a870770fd70848675717df95ae9c67b9.jpg</t>
+  </si>
+  <si>
     <t>DLT-1006(B)</t>
   </si>
   <si>
     <t>Delighto Casserole French Soup Pot (6L) DLT-1006, 28cm x 12.5cm (Blue)</t>
   </si>
   <si>
-    <t>https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e</t>
+    <t>https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg</t>
+  </si>
+  <si>
+    <t>DLT-1006(G)</t>
+  </si>
+  <si>
+    <t>Delighto Casserole French Soup Pot (6L) DLT-1006, 28cm x 12.5cm (Green)</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/c43d0072d7ff9909bbd6d7ec520a0a2a.jpg</t>
   </si>
   <si>
     <t>DLT-1006(R)</t>
@@ -407,7 +452,7 @@
     <t>Delighto Casserole French Soup Pot (6L) DLT-1006, 28cm x 12.5cm (Red)</t>
   </si>
   <si>
-    <t>https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58</t>
+    <t>https://my-test-11.slatic.net/p/3da38d7d6a91c35493574a98d5e4e170.jpg</t>
   </si>
   <si>
     <t>DLT-1006(Y)</t>
@@ -416,7 +461,7 @@
     <t>Delighto Casserole French Soup Pot (6L) DLT-1006, 28cm x 12.5cm (Yellow)</t>
   </si>
   <si>
-    <t>https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17</t>
+    <t>https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg</t>
   </si>
   <si>
     <t>DLT-1007(B)</t>
@@ -425,9 +470,6 @@
     <t>Delighto 6L Casserole French Roaster Pot 1007, 31cm, Blue</t>
   </si>
   <si>
-    <t>https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg</t>
-  </si>
-  <si>
     <t>DLT-1007(G)</t>
   </si>
   <si>
@@ -437,6 +479,21 @@
     <t>https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4</t>
   </si>
   <si>
+    <t>DLT-1007(R)</t>
+  </si>
+  <si>
+    <t>Delighto 6L Casserole French Roaster Pot 1007, 31cm, Red</t>
+  </si>
+  <si>
+    <t>https://my-test-11.slatic.net/p/2e14ab03a674f37ddd96c549ec4ff079.jpg</t>
+  </si>
+  <si>
+    <t>DLT-1007(Y)</t>
+  </si>
+  <si>
+    <t>Delighto 6L Casserole French Roaster Pot 1007, 31cm, Yellow</t>
+  </si>
+  <si>
     <t>DLT-1011(Y)</t>
   </si>
   <si>
@@ -569,6 +626,15 @@
     <t>https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png</t>
   </si>
   <si>
+    <t>DLT-2003(U)</t>
+  </si>
+  <si>
+    <t>Delighto Cast Iron Oval Casserole Soup Pot (28cm | 3.7L) - Grey</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/3a11f75aeda53fc29000b656c78ea1af</t>
+  </si>
+  <si>
     <t>DLT-2004(OR)</t>
   </si>
   <si>
@@ -674,6 +740,12 @@
     <t>https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b</t>
   </si>
   <si>
+    <t>DLT-3010</t>
+  </si>
+  <si>
+    <t>Delighto Glossy Series 20cm Stainless Steel Sauce Pan</t>
+  </si>
+  <si>
     <t>DLT-3011</t>
   </si>
   <si>
@@ -785,6 +857,15 @@
     <t>https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg</t>
   </si>
   <si>
+    <t>FBR-FSM624</t>
+  </si>
+  <si>
+    <t>Faber Non-Stick Easy-Clean Sandwich Maker</t>
+  </si>
+  <si>
+    <t>https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg</t>
+  </si>
+  <si>
     <t>FELIZTRIP</t>
   </si>
   <si>
@@ -806,6 +887,36 @@
     <t>https://i.ibb.co/cS2xry2w/1537671797926.jpg</t>
   </si>
   <si>
+    <t>JINCASE</t>
+  </si>
+  <si>
+    <t>JIC-JF-100</t>
+  </si>
+  <si>
+    <t>Jincase 3000mAh Stepless Turbo Handheld Fan with 100 Speed Levels</t>
+  </si>
+  <si>
+    <t>https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg</t>
+  </si>
+  <si>
+    <t>JIC-JF-83</t>
+  </si>
+  <si>
+    <t>Jincase 3000mAh LED Display Table Fan with 3 Speed Settings</t>
+  </si>
+  <si>
+    <t>https://www.tmt.my/data/editor/sc-product/21366/JINCASE-JF83-TABLE-FAN-1.jpg</t>
+  </si>
+  <si>
+    <t>JIC-JF-91</t>
+  </si>
+  <si>
+    <t>Jincase 4000mAh Superconducting Ice Ceramic Cooling Handheld Fan with 100 Speed Levels</t>
+  </si>
+  <si>
+    <t>https://www.tmt.my/data/editor/sc-product/21364/JINCASE-JF91-HANDHELD-FAN-1.jpg</t>
+  </si>
+  <si>
     <t>JIMMY</t>
   </si>
   <si>
@@ -818,6 +929,15 @@
     <t>https://www.jimmyglobal.com/upload/product/1644809591761531.jpg</t>
   </si>
   <si>
+    <t>JMY-BX7PRO</t>
+  </si>
+  <si>
+    <t>JIMMY BX7 Pro UV Anti-Mite Vacuum Cleaner with Smart Dust &amp; Dust Mite Sensor</t>
+  </si>
+  <si>
+    <t>https://www.jimmyglobal.com/upload/product/1644304716955187.jpg</t>
+  </si>
+  <si>
     <t>JMY-F6</t>
   </si>
   <si>
@@ -827,6 +947,24 @@
     <t>https://www.jimmyglobal.com/upload/product/1616132806190557.png</t>
   </si>
   <si>
+    <t>JMY-H8FLEX</t>
+  </si>
+  <si>
+    <t>JIMMY H8 Flex Cordless Vacuum Cleaner with Smart Dust Sensor</t>
+  </si>
+  <si>
+    <t>https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg</t>
+  </si>
+  <si>
+    <t>JMY-HW10PRO</t>
+  </si>
+  <si>
+    <t>JIMMY HW10 Pro Cordless 3-in-1 Vacuum, Mop &amp; Washer with Smart Voice Assistance</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7</t>
+  </si>
+  <si>
     <t>JMY-HW9</t>
   </si>
   <si>
@@ -896,15 +1034,6 @@
     <t>JOYOUNG</t>
   </si>
   <si>
-    <t>JYO-JK15K25</t>
-  </si>
-  <si>
-    <t>Joyoung 1.5L Healthy Kettle</t>
-  </si>
-  <si>
-    <t>https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png</t>
-  </si>
-  <si>
     <t>JYO-JK15K50</t>
   </si>
   <si>
@@ -914,6 +1043,15 @@
     <t>https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png</t>
   </si>
   <si>
+    <t>JYO-JK15K52</t>
+  </si>
+  <si>
+    <t>Joyoung 1.5L Electric Kettle with Intelligent Temperature Control</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/images/bd627029-cf38-44ff-bcef-2c3fb30d1667.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
+  </si>
+  <si>
     <t>JYO-JVC45V91(P)</t>
   </si>
   <si>
@@ -1133,15 +1271,6 @@
     <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965</t>
   </si>
   <si>
-    <t>MTG-ACE2/LGREEN32OZ</t>
-  </si>
-  <si>
-    <t>Montigo ACE2 32oz (950ml) Stainless Steel Water Bottle – Matcha Latte Green</t>
-  </si>
-  <si>
-    <t>https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958</t>
-  </si>
-  <si>
     <t>MTG-ACE2/LVR18OZ</t>
   </si>
   <si>
@@ -1532,6 +1661,24 @@
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
+    <t>PLP-HD3064/62</t>
+  </si>
+  <si>
+    <t>Philips 3000 Series 0.54L Mini Rice Cooker</t>
+  </si>
+  <si>
+    <t>https://images.philips.com/is/image/philipsconsumer/vrs_2594fc462ee2c5d2f500c65cf5836efcfe8f8be1?$pnglarge$&amp;wid=1250</t>
+  </si>
+  <si>
+    <t>PLP-STH3010/30</t>
+  </si>
+  <si>
+    <t>Philips 3000 Series 1000W Handheld Steamer with Up to 20g/min Steam Output</t>
+  </si>
+  <si>
+    <t>https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250</t>
+  </si>
+  <si>
     <t>PANASONIC</t>
   </si>
   <si>
@@ -1631,15 +1778,6 @@
     <t>https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png</t>
   </si>
   <si>
-    <t>RIV-POWERKUB-G100</t>
-  </si>
-  <si>
-    <t>Riversong 100W GaN USB-C Wall Charger</t>
-  </si>
-  <si>
-    <t>https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg</t>
-  </si>
-  <si>
     <t>ROBAM</t>
   </si>
   <si>
@@ -1760,15 +1898,6 @@
     <t>STRYV</t>
   </si>
   <si>
-    <t>STR-MINISTYLER(BK)</t>
-  </si>
-  <si>
-    <t>Stryv MiniStyler (Black) – Compact Hair Styling Tool</t>
-  </si>
-  <si>
-    <t>https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770</t>
-  </si>
-  <si>
     <t>STR-PROSTYLER</t>
   </si>
   <si>
@@ -1778,15 +1907,6 @@
     <t>https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987</t>
   </si>
   <si>
-    <t>STR-SVMISVZ4</t>
-  </si>
-  <si>
-    <t>Stryv MiniShave Portable Electric Shaver</t>
-  </si>
-  <si>
-    <t>https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189</t>
-  </si>
-  <si>
     <t>STR-SVMSBDO2</t>
   </si>
   <si>
@@ -1808,6 +1928,15 @@
     <t>TEFAL</t>
   </si>
   <si>
+    <t>TEF-DT2020</t>
+  </si>
+  <si>
+    <t>Tefal DT2020 1300W Handheld Garment Steamer with 0.07L Water Tank</t>
+  </si>
+  <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/731/1073103/447x447/15032024_1073103$Imagex1.jpg</t>
+  </si>
+  <si>
     <t>TEF-FV2843</t>
   </si>
   <si>
@@ -1817,6 +1946,15 @@
     <t>https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771</t>
   </si>
   <si>
+    <t>TEF-FV5847</t>
+  </si>
+  <si>
+    <t>Tefal Ultraglide+ FV5847 Steam Iron</t>
+  </si>
+  <si>
+    <t>https://dam.groupeseb.com/m/6a8a88d07ce1794a/digital-TEFAL_FV5847M0_Visual1.tif?timestamp=20220701231405&amp;width=640&amp;height=800</t>
+  </si>
+  <si>
     <t>TEF-G14398</t>
   </si>
   <si>
@@ -1907,18 +2045,6 @@
     <t>TOSHIBA</t>
   </si>
   <si>
-    <t>TSB-BL70PR2NMY</t>
-  </si>
-  <si>
-    <t>Toshiba 2.0L Multifunction Blender</t>
-  </si>
-  <si>
-    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png</t>
-  </si>
-  <si>
-    <t>Only for stock clearance</t>
-  </si>
-  <si>
     <t>TSB-BL70PS1UMY(K)</t>
   </si>
   <si>
@@ -2151,32 +2277,19 @@
   </si>
   <si>
     <t>Effective 23.4.2025</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>COMING SOON</t>
-  </si>
-  <si>
-    <t>More products will be added. Stay tuned!</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_-&quot;RM&quot;* #,##0.00_-;\-&quot;RM&quot;* #,##0.00_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="&quot;RM&quot;#,##0.00;\-&quot;RM&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2198,6 +2311,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2336,18 +2456,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2660,32 +2774,29 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2694,131 +2805,129 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="6" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3165,20 +3274,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
     <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="94.2222222222222" customWidth="1"/>
-    <col min="5" max="6" width="11.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="20.6666666666667" customWidth="1"/>
+    <col min="5" max="5" width="5.66666666666667" customWidth="1"/>
+    <col min="6" max="6" width="9.44444444444444" customWidth="1"/>
     <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="22.7777777777778" customWidth="1"/>
+    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3220,10 +3331,10 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>229</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>219</v>
       </c>
       <c r="G2" s="2">
@@ -3246,10 +3357,10 @@
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>349</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>279</v>
       </c>
       <c r="G3" s="2">
@@ -3272,10 +3383,10 @@
       <c r="D4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>79</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>79</v>
       </c>
       <c r="G4" s="2">
@@ -3298,10 +3409,10 @@
       <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>79</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>79</v>
       </c>
       <c r="G5" s="2">
@@ -3324,10 +3435,10 @@
       <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>79</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>79</v>
       </c>
       <c r="G6" s="2">
@@ -3350,10 +3461,10 @@
       <c r="D7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>79</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>79</v>
       </c>
       <c r="G7" s="2">
@@ -3376,10 +3487,10 @@
       <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>89</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>89</v>
       </c>
       <c r="G8" s="2">
@@ -3402,10 +3513,10 @@
       <c r="D9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>89</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>89</v>
       </c>
       <c r="G9" s="2">
@@ -3428,10 +3539,10 @@
       <c r="D10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>89</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="2">
         <v>89</v>
       </c>
       <c r="G10" s="2">
@@ -3454,10 +3565,10 @@
       <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>89</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="2">
         <v>89</v>
       </c>
       <c r="G11" s="2">
@@ -3480,10 +3591,10 @@
       <c r="D12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>27.9</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <v>27.9</v>
       </c>
       <c r="G12" s="2">
@@ -3506,10 +3617,10 @@
       <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>27.9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>27.9</v>
       </c>
       <c r="G13" s="2">
@@ -3532,10 +3643,10 @@
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>87.7</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="2">
         <v>69</v>
       </c>
       <c r="G14" s="2">
@@ -3558,10 +3669,10 @@
       <c r="D15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>32.9</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>18</v>
       </c>
       <c r="G15" s="2">
@@ -3584,10 +3695,10 @@
       <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>369</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>369</v>
       </c>
       <c r="G16" s="2">
@@ -3610,10 +3721,10 @@
       <c r="D17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>289</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>289</v>
       </c>
       <c r="G17" s="2">
@@ -3636,10 +3747,10 @@
       <c r="D18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>99</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="2">
         <v>97</v>
       </c>
       <c r="G18" s="2">
@@ -3662,10 +3773,10 @@
       <c r="D19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>149</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="2">
         <v>145</v>
       </c>
       <c r="G19" s="2">
@@ -3688,10 +3799,10 @@
       <c r="D20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>169</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="2">
         <v>169</v>
       </c>
       <c r="G20" s="2">
@@ -3714,10 +3825,10 @@
       <c r="D21" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>169</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <v>169</v>
       </c>
       <c r="G21" s="2">
@@ -3740,10 +3851,10 @@
       <c r="D22" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>349</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>349</v>
       </c>
       <c r="G22" s="2">
@@ -3766,10 +3877,10 @@
       <c r="D23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>349</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>349</v>
       </c>
       <c r="G23" s="2">
@@ -3792,10 +3903,10 @@
       <c r="D24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>559</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="2">
         <v>559</v>
       </c>
       <c r="G24" s="2">
@@ -3818,10 +3929,10 @@
       <c r="D25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>559</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="2">
         <v>559</v>
       </c>
       <c r="G25" s="2">
@@ -3844,10 +3955,10 @@
       <c r="D26" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>499</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>499</v>
       </c>
       <c r="G26" s="2">
@@ -3870,10 +3981,10 @@
       <c r="D27" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>499</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <v>499</v>
       </c>
       <c r="G27" s="2">
@@ -3896,10 +4007,10 @@
       <c r="D28" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>799</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="2">
         <v>799</v>
       </c>
       <c r="G28" s="2">
@@ -3922,10 +4033,10 @@
       <c r="D29" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>799</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>799</v>
       </c>
       <c r="G29" s="2">
@@ -3948,10 +4059,10 @@
       <c r="D30" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>714</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="2">
         <v>479</v>
       </c>
       <c r="G30" s="2">
@@ -3974,10 +4085,10 @@
       <c r="D31" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>179</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="2">
         <v>169</v>
       </c>
       <c r="G31" s="2">
@@ -4000,10 +4111,10 @@
       <c r="D32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>79</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="2">
         <v>55</v>
       </c>
       <c r="G32" s="2">
@@ -4026,10 +4137,10 @@
       <c r="D33" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="2">
         <v>55</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>49</v>
       </c>
       <c r="G33" s="2">
@@ -4052,10 +4163,10 @@
       <c r="D34" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="2">
         <v>129</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="2">
         <v>125</v>
       </c>
       <c r="G34" s="2">
@@ -4078,10 +4189,10 @@
       <c r="D35" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="2">
         <v>99</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="2">
         <v>93</v>
       </c>
       <c r="G35" s="2">
@@ -4101,21 +4212,20 @@
       <c r="C36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="4">
-        <v>499</v>
-      </c>
-      <c r="F36" s="4">
-        <v>199</v>
+      <c r="E36" s="2">
+        <v>299</v>
+      </c>
+      <c r="F36" s="2">
+        <v>119</v>
       </c>
       <c r="G36" s="2">
-        <v>19900</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" ref="G36:G39" si="0">F36*100</f>
+        <v>11900</v>
+      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
@@ -4127,21 +4237,20 @@
       <c r="C37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="4">
-        <v>499</v>
-      </c>
-      <c r="F37" s="4">
-        <v>199</v>
+      <c r="E37" s="2">
+        <v>299</v>
+      </c>
+      <c r="F37" s="2">
+        <v>119</v>
       </c>
       <c r="G37" s="2">
-        <v>19900</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
@@ -4153,21 +4262,20 @@
       <c r="C38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E38" s="4">
-        <v>499</v>
-      </c>
-      <c r="F38" s="4">
-        <v>199</v>
+      <c r="E38" s="2">
+        <v>299</v>
+      </c>
+      <c r="F38" s="2">
+        <v>119</v>
       </c>
       <c r="G38" s="2">
-        <v>19900</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
@@ -4179,21 +4287,20 @@
       <c r="C39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="4">
-        <v>549</v>
-      </c>
-      <c r="F39" s="4">
-        <v>199</v>
+      <c r="E39" s="2">
+        <v>299</v>
+      </c>
+      <c r="F39" s="2">
+        <v>119</v>
       </c>
       <c r="G39" s="2">
-        <v>19900</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>56</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>11900</v>
+      </c>
+      <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
@@ -4208,10 +4315,10 @@
       <c r="D40" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E40" s="4">
-        <v>549</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="E40" s="2">
+        <v>499</v>
+      </c>
+      <c r="F40" s="2">
         <v>199</v>
       </c>
       <c r="G40" s="2">
@@ -4231,21 +4338,20 @@
       <c r="C41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E41" s="4">
-        <v>399</v>
-      </c>
-      <c r="F41" s="4">
+      <c r="E41" s="2">
+        <v>499</v>
+      </c>
+      <c r="F41" s="2">
         <v>199</v>
       </c>
       <c r="G41" s="2">
+        <f>F41*100</f>
         <v>19900</v>
       </c>
-      <c r="H41" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="H41" s="2"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
@@ -4260,14 +4366,14 @@
       <c r="D42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E42" s="4">
-        <v>459</v>
-      </c>
-      <c r="F42" s="4">
-        <v>169</v>
+      <c r="E42" s="2">
+        <v>499</v>
+      </c>
+      <c r="F42" s="2">
+        <v>199</v>
       </c>
       <c r="G42" s="2">
-        <v>16900</v>
+        <v>19900</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>56</v>
@@ -4286,14 +4392,14 @@
       <c r="D43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="E43" s="4">
-        <v>459</v>
-      </c>
-      <c r="F43" s="4">
-        <v>169</v>
+      <c r="E43" s="2">
+        <v>499</v>
+      </c>
+      <c r="F43" s="2">
+        <v>199</v>
       </c>
       <c r="G43" s="2">
-        <v>16900</v>
+        <v>19900</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>56</v>
@@ -4310,16 +4416,16 @@
         <v>146</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="4">
-        <v>599</v>
-      </c>
-      <c r="F44" s="4">
-        <v>319</v>
+        <v>135</v>
+      </c>
+      <c r="E44" s="2">
+        <v>549</v>
+      </c>
+      <c r="F44" s="2">
+        <v>199</v>
       </c>
       <c r="G44" s="2">
-        <v>31900</v>
+        <v>19900</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>56</v>
@@ -4330,22 +4436,22 @@
         <v>120</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="4">
-        <v>599</v>
-      </c>
-      <c r="F45" s="4">
-        <v>319</v>
+      <c r="E45" s="2">
+        <v>549</v>
+      </c>
+      <c r="F45" s="2">
+        <v>199</v>
       </c>
       <c r="G45" s="2">
-        <v>31900</v>
+        <v>19900</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>56</v>
@@ -4361,21 +4467,20 @@
       <c r="C46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="4">
-        <v>299</v>
-      </c>
-      <c r="F46" s="4">
-        <v>159</v>
+      <c r="E46" s="2">
+        <v>549</v>
+      </c>
+      <c r="F46" s="2">
+        <v>199</v>
       </c>
       <c r="G46" s="2">
-        <v>15900</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>56</v>
-      </c>
+        <f>F46*100</f>
+        <v>19900</v>
+      </c>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
@@ -4387,43 +4492,42 @@
       <c r="C47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E47" s="4">
-        <v>359</v>
-      </c>
-      <c r="F47" s="4">
-        <v>159</v>
+      <c r="D47" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" s="2">
+        <v>549</v>
+      </c>
+      <c r="F47" s="2">
+        <v>199</v>
       </c>
       <c r="G47" s="2">
-        <v>15900</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>56</v>
-      </c>
+        <f>F47*100</f>
+        <v>19900</v>
+      </c>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="4">
-        <v>439</v>
-      </c>
-      <c r="F48" s="4">
-        <v>169</v>
+      <c r="E48" s="2">
+        <v>399</v>
+      </c>
+      <c r="F48" s="2">
+        <v>199</v>
       </c>
       <c r="G48" s="2">
-        <v>16900</v>
+        <v>19900</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>56</v>
@@ -4434,18 +4538,18 @@
         <v>120</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E49" s="4">
-        <v>439</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="E49" s="2">
+        <v>459</v>
+      </c>
+      <c r="F49" s="2">
         <v>169</v>
       </c>
       <c r="G49" s="2">
@@ -4460,22 +4564,22 @@
         <v>120</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E50" s="4">
-        <v>439</v>
-      </c>
-      <c r="F50" s="4">
-        <v>179</v>
+      <c r="E50" s="2">
+        <v>459</v>
+      </c>
+      <c r="F50" s="2">
+        <v>169</v>
       </c>
       <c r="G50" s="2">
-        <v>17900</v>
+        <v>16900</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>56</v>
@@ -4486,22 +4590,22 @@
         <v>120</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="4">
-        <v>479</v>
-      </c>
-      <c r="F51" s="4">
-        <v>189</v>
+      <c r="E51" s="2">
+        <v>599</v>
+      </c>
+      <c r="F51" s="2">
+        <v>319</v>
       </c>
       <c r="G51" s="2">
-        <v>18900</v>
+        <v>31900</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>56</v>
@@ -4512,22 +4616,22 @@
         <v>120</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="D52" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E52" s="4">
-        <v>479</v>
-      </c>
-      <c r="F52" s="4">
-        <v>189</v>
+        <v>166</v>
+      </c>
+      <c r="E52" s="2">
+        <v>599</v>
+      </c>
+      <c r="F52" s="2">
+        <v>319</v>
       </c>
       <c r="G52" s="2">
-        <v>18900</v>
+        <v>31900</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>56</v>
@@ -4538,22 +4642,22 @@
         <v>120</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="4">
-        <v>479</v>
-      </c>
-      <c r="F53" s="4">
-        <v>189</v>
+      <c r="E53" s="2">
+        <v>299</v>
+      </c>
+      <c r="F53" s="2">
+        <v>159</v>
       </c>
       <c r="G53" s="2">
-        <v>18900</v>
+        <v>15900</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>56</v>
@@ -4564,22 +4668,22 @@
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="E54" s="4">
-        <v>519</v>
-      </c>
-      <c r="F54" s="4">
-        <v>189</v>
+      <c r="E54" s="2">
+        <v>359</v>
+      </c>
+      <c r="F54" s="2">
+        <v>159</v>
       </c>
       <c r="G54" s="2">
-        <v>18900</v>
+        <v>15900</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>56</v>
@@ -4590,22 +4694,22 @@
         <v>120</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="4">
-        <v>519</v>
-      </c>
-      <c r="F55" s="4">
-        <v>189</v>
+      <c r="E55" s="2">
+        <v>439</v>
+      </c>
+      <c r="F55" s="2">
+        <v>169</v>
       </c>
       <c r="G55" s="2">
-        <v>18900</v>
+        <v>16900</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>56</v>
@@ -4616,22 +4720,22 @@
         <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E56" s="4">
-        <v>599</v>
-      </c>
-      <c r="F56" s="4">
-        <v>189</v>
+      <c r="E56" s="2">
+        <v>439</v>
+      </c>
+      <c r="F56" s="2">
+        <v>169</v>
       </c>
       <c r="G56" s="2">
-        <v>18900</v>
+        <v>16900</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>56</v>
@@ -4642,22 +4746,22 @@
         <v>120</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="4">
-        <v>599</v>
-      </c>
-      <c r="F57" s="4">
-        <v>189</v>
+      <c r="E57" s="2">
+        <v>439</v>
+      </c>
+      <c r="F57" s="2">
+        <v>179</v>
       </c>
       <c r="G57" s="2">
-        <v>18900</v>
+        <v>17900</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>56</v>
@@ -4668,22 +4772,22 @@
         <v>120</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E58" s="4">
-        <v>639</v>
-      </c>
-      <c r="F58" s="4">
-        <v>239</v>
+      <c r="E58" s="2">
+        <v>479</v>
+      </c>
+      <c r="F58" s="2">
+        <v>189</v>
       </c>
       <c r="G58" s="2">
-        <v>23900</v>
+        <v>18900</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>56</v>
@@ -4694,22 +4798,22 @@
         <v>120</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="E59" s="4">
-        <v>639</v>
-      </c>
-      <c r="F59" s="4">
-        <v>239</v>
+      <c r="E59" s="2">
+        <v>479</v>
+      </c>
+      <c r="F59" s="2">
+        <v>189</v>
       </c>
       <c r="G59" s="2">
-        <v>23900</v>
+        <v>18900</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>56</v>
@@ -4720,22 +4824,22 @@
         <v>120</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="4">
-        <v>639</v>
-      </c>
-      <c r="F60" s="4">
-        <v>239</v>
+      <c r="E60" s="2">
+        <v>479</v>
+      </c>
+      <c r="F60" s="2">
+        <v>189</v>
       </c>
       <c r="G60" s="2">
-        <v>23900</v>
+        <v>18900</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>56</v>
@@ -4746,22 +4850,22 @@
         <v>120</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="4">
-        <v>669</v>
-      </c>
-      <c r="F61" s="4">
-        <v>259</v>
+      <c r="E61" s="2">
+        <v>519</v>
+      </c>
+      <c r="F61" s="2">
+        <v>189</v>
       </c>
       <c r="G61" s="2">
-        <v>25900</v>
+        <v>18900</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>56</v>
@@ -4772,22 +4876,22 @@
         <v>120</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="4">
-        <v>369</v>
-      </c>
-      <c r="F62" s="4">
-        <v>149</v>
+      <c r="E62" s="2">
+        <v>519</v>
+      </c>
+      <c r="F62" s="2">
+        <v>189</v>
       </c>
       <c r="G62" s="2">
-        <v>14900</v>
+        <v>18900</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>56</v>
@@ -4798,44 +4902,43 @@
         <v>120</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="4">
-        <v>439</v>
-      </c>
-      <c r="F63" s="4">
-        <v>169</v>
+      <c r="E63" s="2">
+        <v>519</v>
+      </c>
+      <c r="F63" s="2">
+        <v>189</v>
       </c>
       <c r="G63" s="2">
-        <v>16900</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>56</v>
-      </c>
+        <f>F63*100</f>
+        <v>18900</v>
+      </c>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="E64" s="4">
-        <v>489</v>
-      </c>
-      <c r="F64" s="4">
+      <c r="E64" s="2">
+        <v>599</v>
+      </c>
+      <c r="F64" s="2">
         <v>189</v>
       </c>
       <c r="G64" s="2">
@@ -4850,22 +4953,22 @@
         <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="D65" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E65" s="4">
-        <v>409</v>
-      </c>
-      <c r="F65" s="4">
-        <v>159</v>
+      <c r="E65" s="2">
+        <v>599</v>
+      </c>
+      <c r="F65" s="2">
+        <v>189</v>
       </c>
       <c r="G65" s="2">
-        <v>15900</v>
+        <v>18900</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>56</v>
@@ -4876,22 +4979,22 @@
         <v>120</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="E66" s="4">
-        <v>579</v>
-      </c>
-      <c r="F66" s="4">
-        <v>219</v>
+      <c r="E66" s="2">
+        <v>639</v>
+      </c>
+      <c r="F66" s="2">
+        <v>239</v>
       </c>
       <c r="G66" s="2">
-        <v>21900</v>
+        <v>23900</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>56</v>
@@ -4902,22 +5005,22 @@
         <v>120</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="4">
-        <v>299</v>
-      </c>
-      <c r="F67" s="4">
-        <v>132</v>
+      <c r="E67" s="2">
+        <v>639</v>
+      </c>
+      <c r="F67" s="2">
+        <v>239</v>
       </c>
       <c r="G67" s="2">
-        <v>13200</v>
+        <v>23900</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>56</v>
@@ -4928,22 +5031,22 @@
         <v>120</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="E68" s="4">
-        <v>349</v>
-      </c>
-      <c r="F68" s="4">
-        <v>149</v>
+      <c r="E68" s="2">
+        <v>639</v>
+      </c>
+      <c r="F68" s="2">
+        <v>239</v>
       </c>
       <c r="G68" s="2">
-        <v>14900</v>
+        <v>23900</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>56</v>
@@ -4954,22 +5057,22 @@
         <v>120</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="E69" s="4">
-        <v>499</v>
-      </c>
-      <c r="F69" s="4">
-        <v>189</v>
+      <c r="E69" s="2">
+        <v>669</v>
+      </c>
+      <c r="F69" s="2">
+        <v>259</v>
       </c>
       <c r="G69" s="2">
-        <v>18900</v>
+        <v>25900</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>56</v>
@@ -4980,22 +5083,22 @@
         <v>120</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E70" s="4">
-        <v>949</v>
-      </c>
-      <c r="F70" s="4">
-        <v>499</v>
+      <c r="E70" s="2">
+        <v>369</v>
+      </c>
+      <c r="F70" s="2">
+        <v>149</v>
       </c>
       <c r="G70" s="2">
-        <v>49900</v>
+        <v>14900</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>56</v>
@@ -5003,259 +5106,258 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E71" s="4">
-        <v>319</v>
-      </c>
-      <c r="F71" s="4">
-        <v>279</v>
+      <c r="E71" s="2">
+        <v>439</v>
+      </c>
+      <c r="F71" s="2">
+        <v>169</v>
       </c>
       <c r="G71" s="2">
-        <v>27900</v>
+        <v>16900</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="4">
-        <v>40</v>
-      </c>
-      <c r="F72" s="4">
-        <v>39</v>
+        <v>222</v>
+      </c>
+      <c r="E72" s="2">
+        <v>489</v>
+      </c>
+      <c r="F72" s="2">
+        <v>189</v>
       </c>
       <c r="G72" s="2">
-        <v>3900</v>
+        <v>18900</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="C73" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="4">
-        <v>50</v>
-      </c>
-      <c r="F73" s="4">
-        <v>49</v>
+        <v>230</v>
+      </c>
+      <c r="E73" s="2">
+        <v>409</v>
+      </c>
+      <c r="F73" s="2">
+        <v>159</v>
       </c>
       <c r="G73" s="2">
-        <v>4900</v>
+        <v>15900</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E74" s="4">
-        <v>29</v>
-      </c>
-      <c r="F74" s="4">
-        <v>29</v>
+        <v>233</v>
+      </c>
+      <c r="E74" s="2">
+        <v>579</v>
+      </c>
+      <c r="F74" s="2">
+        <v>219</v>
       </c>
       <c r="G74" s="2">
-        <v>2900</v>
+        <v>21900</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="E75" s="4">
-        <v>29.9</v>
-      </c>
-      <c r="F75" s="4">
-        <v>29.9</v>
+        <v>236</v>
+      </c>
+      <c r="E75" s="2">
+        <v>299</v>
+      </c>
+      <c r="F75" s="2">
+        <v>132</v>
       </c>
       <c r="G75" s="2">
-        <v>2490</v>
+        <v>13200</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>241</v>
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="E76" s="4">
-        <v>20.9</v>
-      </c>
-      <c r="F76" s="4">
-        <v>20.9</v>
+        <v>238</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E76" s="2">
+        <v>409</v>
+      </c>
+      <c r="F76" s="2">
+        <v>159</v>
       </c>
       <c r="G76" s="2">
-        <v>2090</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f>F76*100</f>
+        <v>15900</v>
+      </c>
+      <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E77" s="4">
-        <v>210</v>
-      </c>
-      <c r="F77" s="4">
-        <v>115</v>
+        <v>241</v>
+      </c>
+      <c r="E77" s="2">
+        <v>349</v>
+      </c>
+      <c r="F77" s="2">
+        <v>149</v>
       </c>
       <c r="G77" s="2">
-        <v>11500</v>
+        <v>14900</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>245</v>
+        <v>120</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="E78" s="4">
-        <v>228</v>
-      </c>
-      <c r="F78" s="4">
-        <v>181</v>
+        <v>244</v>
+      </c>
+      <c r="E78" s="2">
+        <v>499</v>
+      </c>
+      <c r="F78" s="2">
+        <v>189</v>
       </c>
       <c r="G78" s="2">
-        <v>18100</v>
+        <v>18900</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E79" s="4">
-        <v>129</v>
-      </c>
-      <c r="F79" s="4">
-        <v>129</v>
+        <v>247</v>
+      </c>
+      <c r="E79" s="2">
+        <v>949</v>
+      </c>
+      <c r="F79" s="2">
+        <v>499</v>
       </c>
       <c r="G79" s="2">
-        <v>12900</v>
+        <v>49900</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E80" s="4">
-        <v>99</v>
-      </c>
-      <c r="F80" s="4">
-        <v>99</v>
+        <v>251</v>
+      </c>
+      <c r="E80" s="2">
+        <v>319</v>
+      </c>
+      <c r="F80" s="2">
+        <v>279</v>
       </c>
       <c r="G80" s="2">
-        <v>9900</v>
+        <v>27900</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>12</v>
@@ -5263,25 +5365,25 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E81" s="4">
-        <v>799</v>
-      </c>
-      <c r="F81" s="4">
-        <v>599</v>
+        <v>255</v>
+      </c>
+      <c r="E81" s="2">
+        <v>40</v>
+      </c>
+      <c r="F81" s="2">
+        <v>39</v>
       </c>
       <c r="G81" s="2">
-        <v>59900</v>
+        <v>3900</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>12</v>
@@ -5289,25 +5391,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="E82" s="4">
-        <v>1199</v>
-      </c>
-      <c r="F82" s="4">
-        <v>599</v>
+        <v>258</v>
+      </c>
+      <c r="E82" s="2">
+        <v>50</v>
+      </c>
+      <c r="F82" s="2">
+        <v>49</v>
       </c>
       <c r="G82" s="2">
-        <v>59900</v>
+        <v>4900</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>12</v>
@@ -5315,77 +5417,77 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E83" s="4">
-        <v>2099</v>
-      </c>
-      <c r="F83" s="4">
-        <v>1199</v>
+        <v>261</v>
+      </c>
+      <c r="E83" s="2">
+        <v>29</v>
+      </c>
+      <c r="F83" s="2">
+        <v>29</v>
       </c>
       <c r="G83" s="2">
-        <v>119900</v>
+        <v>2900</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E84" s="4">
-        <v>2699</v>
-      </c>
-      <c r="F84" s="4">
-        <v>1699</v>
+        <v>264</v>
+      </c>
+      <c r="E84" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="F84" s="2">
+        <v>29.9</v>
       </c>
       <c r="G84" s="2">
-        <v>169900</v>
+        <v>2490</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="E85" s="4">
-        <v>989</v>
-      </c>
-      <c r="F85" s="4">
-        <v>769</v>
+        <v>268</v>
+      </c>
+      <c r="E85" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="F85" s="2">
+        <v>20.9</v>
       </c>
       <c r="G85" s="2">
-        <v>76900</v>
+        <v>2090</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>12</v>
@@ -5393,25 +5495,25 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E86" s="4">
-        <v>119</v>
-      </c>
-      <c r="F86" s="4">
-        <v>79</v>
+        <v>272</v>
+      </c>
+      <c r="E86" s="2">
+        <v>210</v>
+      </c>
+      <c r="F86" s="2">
+        <v>115</v>
       </c>
       <c r="G86" s="2">
-        <v>7900</v>
+        <v>11500</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>12</v>
@@ -5419,25 +5521,25 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E87" s="4">
-        <v>119</v>
-      </c>
-      <c r="F87" s="4">
-        <v>79</v>
+        <v>275</v>
+      </c>
+      <c r="E87" s="2">
+        <v>228</v>
+      </c>
+      <c r="F87" s="2">
+        <v>181</v>
       </c>
       <c r="G87" s="2">
-        <v>7900</v>
+        <v>18100</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>12</v>
@@ -5445,51 +5547,50 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E88" s="4">
-        <v>99</v>
-      </c>
-      <c r="F88" s="4">
-        <v>99</v>
+        <v>277</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E88" s="2">
+        <v>111</v>
+      </c>
+      <c r="F88" s="2">
+        <v>89</v>
       </c>
       <c r="G88" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" ref="G88:G93" si="1">F88*100</f>
+        <v>8900</v>
+      </c>
+      <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" s="4">
-        <v>109</v>
-      </c>
-      <c r="F89" s="4">
-        <v>109</v>
+        <v>282</v>
+      </c>
+      <c r="E89" s="2">
+        <v>129</v>
+      </c>
+      <c r="F89" s="2">
+        <v>129</v>
       </c>
       <c r="G89" s="2">
-        <v>10900</v>
+        <v>12900</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>12</v>
@@ -5497,25 +5598,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E90" s="4">
-        <v>199</v>
-      </c>
-      <c r="F90" s="4">
-        <v>169</v>
+        <v>285</v>
+      </c>
+      <c r="E90" s="2">
+        <v>99</v>
+      </c>
+      <c r="F90" s="2">
+        <v>99</v>
       </c>
       <c r="G90" s="2">
-        <v>16900</v>
+        <v>9900</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>12</v>
@@ -5523,103 +5624,100 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E91" s="4">
-        <v>259</v>
-      </c>
-      <c r="F91" s="4">
-        <v>189</v>
+      <c r="D91" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="2">
+        <v>99</v>
+      </c>
+      <c r="F91" s="2">
+        <v>99</v>
       </c>
       <c r="G91" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>9900</v>
+      </c>
+      <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E92" s="4">
-        <v>139</v>
-      </c>
-      <c r="F92" s="4">
-        <v>79</v>
+        <v>291</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" s="2">
+        <v>109</v>
+      </c>
+      <c r="F92" s="2">
+        <v>109</v>
       </c>
       <c r="G92" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>10900</v>
+      </c>
+      <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E93" s="4">
-        <v>139</v>
-      </c>
-      <c r="F93" s="4">
-        <v>79</v>
+        <v>294</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" s="2">
+        <v>179</v>
+      </c>
+      <c r="F93" s="2">
+        <v>179</v>
       </c>
       <c r="G93" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>17900</v>
+      </c>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E94" s="4">
-        <v>169</v>
-      </c>
-      <c r="F94" s="4">
-        <v>99</v>
+        <v>299</v>
+      </c>
+      <c r="E94" s="2">
+        <v>799</v>
+      </c>
+      <c r="F94" s="2">
+        <v>599</v>
       </c>
       <c r="G94" s="2">
-        <v>9900</v>
+        <v>59900</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>12</v>
@@ -5627,51 +5725,50 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E95" s="4">
-        <v>169</v>
-      </c>
-      <c r="F95" s="4">
-        <v>99</v>
+        <v>301</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="2">
+        <v>899</v>
+      </c>
+      <c r="F95" s="2">
+        <v>749</v>
       </c>
       <c r="G95" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" ref="G95:G98" si="2">F95*100</f>
+        <v>74900</v>
+      </c>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E96" s="4">
-        <v>169</v>
-      </c>
-      <c r="F96" s="4">
-        <v>99</v>
+        <v>305</v>
+      </c>
+      <c r="E96" s="2">
+        <v>1199</v>
+      </c>
+      <c r="F96" s="2">
+        <v>599</v>
       </c>
       <c r="G96" s="2">
-        <v>9900</v>
+        <v>59900</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>12</v>
@@ -5679,103 +5776,101 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E97" s="4">
-        <v>169</v>
-      </c>
-      <c r="F97" s="4">
-        <v>99</v>
+        <v>307</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1699</v>
+      </c>
+      <c r="F97" s="2">
+        <v>1299</v>
       </c>
       <c r="G97" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>129900</v>
+      </c>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E98" s="4">
-        <v>499</v>
-      </c>
-      <c r="F98" s="4">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="2">
+        <v>3099</v>
+      </c>
+      <c r="F98" s="2">
+        <v>2399</v>
       </c>
       <c r="G98" s="2">
-        <v>30900</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>239900</v>
+      </c>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E99" s="4">
-        <v>549</v>
-      </c>
-      <c r="F99" s="4">
-        <v>399</v>
+        <v>314</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2099</v>
+      </c>
+      <c r="F99" s="2">
+        <v>1199</v>
       </c>
       <c r="G99" s="2">
-        <v>39900</v>
+        <v>119900</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E100" s="4">
-        <v>179</v>
-      </c>
-      <c r="F100" s="4">
-        <v>177</v>
+        <v>317</v>
+      </c>
+      <c r="E100" s="2">
+        <v>2699</v>
+      </c>
+      <c r="F100" s="2">
+        <v>1699</v>
       </c>
       <c r="G100" s="2">
-        <v>17700</v>
+        <v>169900</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>12</v>
@@ -5783,25 +5878,25 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E101" s="4">
-        <v>559</v>
-      </c>
-      <c r="F101" s="4">
-        <v>329</v>
+        <v>320</v>
+      </c>
+      <c r="E101" s="2">
+        <v>989</v>
+      </c>
+      <c r="F101" s="2">
+        <v>769</v>
       </c>
       <c r="G101" s="2">
-        <v>32900</v>
+        <v>76900</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>12</v>
@@ -5809,125 +5904,125 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>330</v>
-      </c>
-      <c r="E102" s="4">
-        <v>1699</v>
-      </c>
-      <c r="F102" s="4">
-        <v>999</v>
+        <v>322</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="E102" s="2">
+        <v>119</v>
+      </c>
+      <c r="F102" s="2">
+        <v>79</v>
       </c>
       <c r="G102" s="2">
-        <v>99900</v>
+        <v>7900</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B103" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="C103" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="E103" s="4">
-        <v>1699</v>
-      </c>
-      <c r="F103" s="4">
-        <v>999</v>
+        <v>325</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E103" s="2">
+        <v>119</v>
+      </c>
+      <c r="F103" s="2">
+        <v>79</v>
       </c>
       <c r="G103" s="2">
-        <v>99900</v>
+        <v>7900</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="E104" s="4">
-        <v>1699</v>
-      </c>
-      <c r="F104" s="4">
-        <v>999</v>
+        <v>329</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E104" s="2">
+        <v>99</v>
+      </c>
+      <c r="F104" s="2">
+        <v>99</v>
       </c>
       <c r="G104" s="2">
-        <v>99900</v>
+        <v>9900</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="E105" s="4">
-        <v>1699</v>
-      </c>
-      <c r="F105" s="4">
-        <v>999</v>
+        <v>332</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E105" s="2">
+        <v>109</v>
+      </c>
+      <c r="F105" s="2">
+        <v>109</v>
       </c>
       <c r="G105" s="2">
-        <v>99900</v>
+        <v>10900</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>331</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E106" s="4">
-        <v>209</v>
-      </c>
-      <c r="F106" s="4">
+        <v>337</v>
+      </c>
+      <c r="E106" s="2">
+        <v>259</v>
+      </c>
+      <c r="F106" s="2">
         <v>189</v>
       </c>
       <c r="G106" s="2">
@@ -5939,51 +6034,50 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E107" s="4">
-        <v>135</v>
-      </c>
-      <c r="F107" s="4">
-        <v>109</v>
+        <v>339</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E107" s="2">
+        <v>399</v>
+      </c>
+      <c r="F107" s="2">
+        <v>229</v>
       </c>
       <c r="G107" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f>F107*100</f>
+        <v>22900</v>
+      </c>
+      <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="E108" s="4">
-        <v>239</v>
-      </c>
-      <c r="F108" s="4">
-        <v>209</v>
+        <v>343</v>
+      </c>
+      <c r="E108" s="2">
+        <v>139</v>
+      </c>
+      <c r="F108" s="2">
+        <v>79</v>
       </c>
       <c r="G108" s="2">
-        <v>20900</v>
+        <v>7900</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>12</v>
@@ -5991,25 +6085,25 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E109" s="4">
-        <v>119</v>
-      </c>
-      <c r="F109" s="4">
-        <v>99</v>
+        <v>346</v>
+      </c>
+      <c r="E109" s="2">
+        <v>139</v>
+      </c>
+      <c r="F109" s="2">
+        <v>79</v>
       </c>
       <c r="G109" s="2">
-        <v>9900</v>
+        <v>7900</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>12</v>
@@ -6017,103 +6111,103 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E110" s="4">
-        <v>86</v>
-      </c>
-      <c r="F110" s="4">
-        <v>84</v>
+        <v>349</v>
+      </c>
+      <c r="E110" s="2">
+        <v>169</v>
+      </c>
+      <c r="F110" s="2">
+        <v>99</v>
       </c>
       <c r="G110" s="2">
-        <v>8400</v>
+        <v>9900</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E111" s="4">
-        <v>86</v>
-      </c>
-      <c r="F111" s="4">
-        <v>84</v>
+        <v>352</v>
+      </c>
+      <c r="E111" s="2">
+        <v>169</v>
+      </c>
+      <c r="F111" s="2">
+        <v>99</v>
       </c>
       <c r="G111" s="2">
-        <v>8400</v>
+        <v>9900</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E112" s="4">
-        <v>86</v>
-      </c>
-      <c r="F112" s="4">
-        <v>84</v>
+      <c r="E112" s="2">
+        <v>169</v>
+      </c>
+      <c r="F112" s="2">
+        <v>99</v>
       </c>
       <c r="G112" s="2">
-        <v>8400</v>
+        <v>9900</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E113" s="4">
-        <v>106</v>
-      </c>
-      <c r="F113" s="4">
-        <v>104</v>
+        <v>358</v>
+      </c>
+      <c r="E113" s="2">
+        <v>169</v>
+      </c>
+      <c r="F113" s="2">
+        <v>99</v>
       </c>
       <c r="G113" s="2">
-        <v>10400</v>
+        <v>9900</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>12</v>
@@ -6121,25 +6215,25 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E114" s="4">
-        <v>106</v>
-      </c>
-      <c r="F114" s="4">
-        <v>105</v>
+        <v>362</v>
+      </c>
+      <c r="E114" s="2">
+        <v>499</v>
+      </c>
+      <c r="F114" s="2">
+        <v>309</v>
       </c>
       <c r="G114" s="2">
-        <v>10500</v>
+        <v>30900</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>12</v>
@@ -6147,25 +6241,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E115" s="4">
-        <v>86</v>
-      </c>
-      <c r="F115" s="4">
-        <v>84</v>
+        <v>365</v>
+      </c>
+      <c r="E115" s="2">
+        <v>549</v>
+      </c>
+      <c r="F115" s="2">
+        <v>399</v>
       </c>
       <c r="G115" s="2">
-        <v>8400</v>
+        <v>39900</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>12</v>
@@ -6173,25 +6267,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E116" s="4">
-        <v>106</v>
-      </c>
-      <c r="F116" s="4">
-        <v>105</v>
+        <v>369</v>
+      </c>
+      <c r="E116" s="2">
+        <v>179</v>
+      </c>
+      <c r="F116" s="2">
+        <v>177</v>
       </c>
       <c r="G116" s="2">
-        <v>10500</v>
+        <v>17700</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>12</v>
@@ -6199,25 +6293,25 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="E117" s="4">
-        <v>106</v>
-      </c>
-      <c r="F117" s="4">
-        <v>105</v>
+        <v>373</v>
+      </c>
+      <c r="E117" s="2">
+        <v>559</v>
+      </c>
+      <c r="F117" s="2">
+        <v>329</v>
       </c>
       <c r="G117" s="2">
-        <v>10500</v>
+        <v>32900</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>12</v>
@@ -6225,129 +6319,129 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="E118" s="4">
-        <v>86</v>
-      </c>
-      <c r="F118" s="4">
-        <v>84</v>
+        <v>376</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1699</v>
+      </c>
+      <c r="F118" s="2">
+        <v>999</v>
       </c>
       <c r="G118" s="2">
-        <v>8400</v>
+        <v>99900</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E119" s="4">
-        <v>86</v>
-      </c>
-      <c r="F119" s="4">
-        <v>84</v>
+        <v>380</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1699</v>
+      </c>
+      <c r="F119" s="2">
+        <v>999</v>
       </c>
       <c r="G119" s="2">
-        <v>8400</v>
+        <v>99900</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E120" s="4">
-        <v>86</v>
-      </c>
-      <c r="F120" s="4">
-        <v>84</v>
+        <v>383</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1699</v>
+      </c>
+      <c r="F120" s="2">
+        <v>999</v>
       </c>
       <c r="G120" s="2">
-        <v>8400</v>
+        <v>99900</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="E121" s="4">
-        <v>77</v>
-      </c>
-      <c r="F121" s="4">
-        <v>75</v>
+        <v>386</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1699</v>
+      </c>
+      <c r="F121" s="2">
+        <v>999</v>
       </c>
       <c r="G121" s="2">
-        <v>7500</v>
+        <v>99900</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>12</v>
+        <v>377</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E122" s="4">
-        <v>77</v>
-      </c>
-      <c r="F122" s="4">
-        <v>75</v>
+        <v>390</v>
+      </c>
+      <c r="E122" s="2">
+        <v>209</v>
+      </c>
+      <c r="F122" s="2">
+        <v>189</v>
       </c>
       <c r="G122" s="2">
-        <v>7500</v>
+        <v>18900</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>12</v>
@@ -6355,25 +6449,25 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="E123" s="4">
-        <v>77</v>
-      </c>
-      <c r="F123" s="4">
-        <v>75</v>
+        <v>393</v>
+      </c>
+      <c r="E123" s="2">
+        <v>135</v>
+      </c>
+      <c r="F123" s="2">
+        <v>109</v>
       </c>
       <c r="G123" s="2">
-        <v>7500</v>
+        <v>10900</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>12</v>
@@ -6381,25 +6475,25 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E124" s="4">
-        <v>69</v>
-      </c>
-      <c r="F124" s="4">
-        <v>69</v>
+        <v>396</v>
+      </c>
+      <c r="E124" s="2">
+        <v>239</v>
+      </c>
+      <c r="F124" s="2">
+        <v>209</v>
       </c>
       <c r="G124" s="2">
-        <v>6900</v>
+        <v>20900</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>12</v>
@@ -6407,25 +6501,25 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>402</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E125" s="4">
-        <v>69</v>
-      </c>
-      <c r="F125" s="4">
-        <v>69</v>
+        <v>400</v>
+      </c>
+      <c r="E125" s="2">
+        <v>119</v>
+      </c>
+      <c r="F125" s="2">
+        <v>99</v>
       </c>
       <c r="G125" s="2">
-        <v>6900</v>
+        <v>9900</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>12</v>
@@ -6433,103 +6527,103 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E126" s="4">
-        <v>69</v>
-      </c>
-      <c r="F126" s="4">
-        <v>69</v>
+        <v>404</v>
+      </c>
+      <c r="E126" s="2">
+        <v>86</v>
+      </c>
+      <c r="F126" s="2">
+        <v>84</v>
       </c>
       <c r="G126" s="2">
-        <v>6900</v>
+        <v>8400</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="E127" s="4">
-        <v>89</v>
-      </c>
-      <c r="F127" s="4">
-        <v>89</v>
+        <v>407</v>
+      </c>
+      <c r="E127" s="2">
+        <v>86</v>
+      </c>
+      <c r="F127" s="2">
+        <v>84</v>
       </c>
       <c r="G127" s="2">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E128" s="4">
-        <v>89</v>
-      </c>
-      <c r="F128" s="4">
-        <v>89</v>
+        <v>410</v>
+      </c>
+      <c r="E128" s="2">
+        <v>86</v>
+      </c>
+      <c r="F128" s="2">
+        <v>84</v>
       </c>
       <c r="G128" s="2">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E129" s="4">
-        <v>89</v>
-      </c>
-      <c r="F129" s="4">
-        <v>89</v>
+        <v>413</v>
+      </c>
+      <c r="E129" s="2">
+        <v>106</v>
+      </c>
+      <c r="F129" s="2">
+        <v>104</v>
       </c>
       <c r="G129" s="2">
-        <v>8900</v>
+        <v>10400</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>12</v>
@@ -6537,25 +6631,25 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E130" s="4">
-        <v>39.9</v>
-      </c>
-      <c r="F130" s="4">
-        <v>39.9</v>
+        <v>416</v>
+      </c>
+      <c r="E130" s="2">
+        <v>86</v>
+      </c>
+      <c r="F130" s="2">
+        <v>84</v>
       </c>
       <c r="G130" s="2">
-        <v>3990</v>
+        <v>8400</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>12</v>
@@ -6563,1013 +6657,1013 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E131" s="4">
-        <v>14.4</v>
-      </c>
-      <c r="F131" s="4">
-        <v>14.4</v>
+        <v>419</v>
+      </c>
+      <c r="E131" s="2">
+        <v>106</v>
+      </c>
+      <c r="F131" s="2">
+        <v>105</v>
       </c>
       <c r="G131" s="2">
-        <v>1440</v>
+        <v>10500</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>425</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E132" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="F132" s="4">
-        <v>15.5</v>
+        <v>422</v>
+      </c>
+      <c r="E132" s="2">
+        <v>106</v>
+      </c>
+      <c r="F132" s="2">
+        <v>105</v>
       </c>
       <c r="G132" s="2">
-        <v>1550</v>
+        <v>10500</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E133" s="4">
-        <v>16.9</v>
-      </c>
-      <c r="F133" s="4">
-        <v>16.9</v>
+        <v>425</v>
+      </c>
+      <c r="E133" s="2">
+        <v>86</v>
+      </c>
+      <c r="F133" s="2">
+        <v>84</v>
       </c>
       <c r="G133" s="2">
-        <v>1690</v>
+        <v>8400</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E134" s="4">
-        <v>18.9</v>
-      </c>
-      <c r="F134" s="4">
-        <v>18.9</v>
+        <v>428</v>
+      </c>
+      <c r="E134" s="2">
+        <v>86</v>
+      </c>
+      <c r="F134" s="2">
+        <v>84</v>
       </c>
       <c r="G134" s="2">
-        <v>1890</v>
+        <v>8400</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E135" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="F135" s="4">
-        <v>9.9</v>
+        <v>431</v>
+      </c>
+      <c r="E135" s="2">
+        <v>86</v>
+      </c>
+      <c r="F135" s="2">
+        <v>84</v>
       </c>
       <c r="G135" s="2">
-        <v>990</v>
+        <v>8400</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E136" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="F136" s="4">
-        <v>18.5</v>
+        <v>434</v>
+      </c>
+      <c r="E136" s="2">
+        <v>77</v>
+      </c>
+      <c r="F136" s="2">
+        <v>75</v>
       </c>
       <c r="G136" s="2">
-        <v>1850</v>
+        <v>7500</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="E137" s="4">
-        <v>11.9</v>
-      </c>
-      <c r="F137" s="4">
-        <v>11.9</v>
+        <v>437</v>
+      </c>
+      <c r="E137" s="2">
+        <v>77</v>
+      </c>
+      <c r="F137" s="2">
+        <v>75</v>
       </c>
       <c r="G137" s="2">
-        <v>1190</v>
+        <v>7500</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E138" s="4">
-        <v>18</v>
-      </c>
-      <c r="F138" s="4">
-        <v>18</v>
+        <v>440</v>
+      </c>
+      <c r="E138" s="2">
+        <v>77</v>
+      </c>
+      <c r="F138" s="2">
+        <v>75</v>
       </c>
       <c r="G138" s="2">
-        <v>1800</v>
+        <v>7500</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="E139" s="4">
-        <v>18.5</v>
-      </c>
-      <c r="F139" s="4">
-        <v>18.5</v>
+        <v>444</v>
+      </c>
+      <c r="E139" s="2">
+        <v>69</v>
+      </c>
+      <c r="F139" s="2">
+        <v>69</v>
       </c>
       <c r="G139" s="2">
-        <v>1850</v>
+        <v>6900</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E140" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F140" s="4">
-        <v>4.5</v>
+        <v>447</v>
+      </c>
+      <c r="E140" s="2">
+        <v>69</v>
+      </c>
+      <c r="F140" s="2">
+        <v>69</v>
       </c>
       <c r="G140" s="2">
-        <v>450</v>
+        <v>6900</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="E141" s="4">
-        <v>5.7</v>
-      </c>
-      <c r="F141" s="4">
-        <v>5.7</v>
+        <v>450</v>
+      </c>
+      <c r="E141" s="2">
+        <v>69</v>
+      </c>
+      <c r="F141" s="2">
+        <v>69</v>
       </c>
       <c r="G141" s="2">
-        <v>570</v>
+        <v>6900</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E142" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="F142" s="4">
-        <v>3.5</v>
+        <v>453</v>
+      </c>
+      <c r="E142" s="2">
+        <v>89</v>
+      </c>
+      <c r="F142" s="2">
+        <v>89</v>
       </c>
       <c r="G142" s="2">
-        <v>350</v>
+        <v>8900</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="E143" s="4">
-        <v>8.6</v>
-      </c>
-      <c r="F143" s="4">
-        <v>8.6</v>
+        <v>456</v>
+      </c>
+      <c r="E143" s="2">
+        <v>89</v>
+      </c>
+      <c r="F143" s="2">
+        <v>89</v>
       </c>
       <c r="G143" s="2">
-        <v>860</v>
+        <v>8900</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E144" s="4">
-        <v>8</v>
-      </c>
-      <c r="F144" s="4">
-        <v>8</v>
+        <v>459</v>
+      </c>
+      <c r="E144" s="2">
+        <v>89</v>
+      </c>
+      <c r="F144" s="2">
+        <v>89</v>
       </c>
       <c r="G144" s="2">
-        <v>800</v>
+        <v>8900</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E145" s="4">
-        <v>8</v>
-      </c>
-      <c r="F145" s="4">
-        <v>8</v>
+        <v>462</v>
+      </c>
+      <c r="E145" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="F145" s="2">
+        <v>39.9</v>
       </c>
       <c r="G145" s="2">
-        <v>800</v>
+        <v>3990</v>
       </c>
       <c r="H145" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B146" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E146" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="F146" s="2">
+        <v>14.4</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1440</v>
+      </c>
+      <c r="H146" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="E146" s="4">
-        <v>8</v>
-      </c>
-      <c r="F146" s="4">
-        <v>8</v>
-      </c>
-      <c r="G146" s="2">
-        <v>800</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B147" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E147" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="F147" s="4">
-        <v>3.3</v>
+      <c r="E147" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="F147" s="2">
+        <v>15.5</v>
       </c>
       <c r="G147" s="2">
-        <v>330</v>
+        <v>1550</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B148" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C148" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E148" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="F148" s="4">
-        <v>11.5</v>
+      <c r="E148" s="2">
+        <v>16.9</v>
+      </c>
+      <c r="F148" s="2">
+        <v>16.9</v>
       </c>
       <c r="G148" s="2">
-        <v>1150</v>
+        <v>1690</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B149" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E149" s="4">
-        <v>8.1</v>
-      </c>
-      <c r="F149" s="4">
-        <v>8.1</v>
+      <c r="E149" s="2">
+        <v>18.9</v>
+      </c>
+      <c r="F149" s="2">
+        <v>18.9</v>
       </c>
       <c r="G149" s="2">
-        <v>810</v>
+        <v>1890</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E150" s="4">
-        <v>2.6</v>
-      </c>
-      <c r="F150" s="4">
-        <v>2.6</v>
+      <c r="E150" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="F150" s="2">
+        <v>9.9</v>
       </c>
       <c r="G150" s="2">
-        <v>260</v>
+        <v>990</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="E151" s="4">
-        <v>9.1</v>
-      </c>
-      <c r="F151" s="4">
-        <v>9.1</v>
+      <c r="E151" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="F151" s="2">
+        <v>18.5</v>
       </c>
       <c r="G151" s="2">
-        <v>910</v>
+        <v>1850</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D152" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E152" s="4">
-        <v>16.5</v>
-      </c>
-      <c r="F152" s="4">
-        <v>16.5</v>
+      <c r="E152" s="2">
+        <v>11.9</v>
+      </c>
+      <c r="F152" s="2">
+        <v>11.9</v>
       </c>
       <c r="G152" s="2">
-        <v>1650</v>
+        <v>1190</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="C153" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="E153" s="4">
-        <v>7.9</v>
-      </c>
-      <c r="F153" s="4">
-        <v>7.9</v>
+      <c r="E153" s="2">
+        <v>18</v>
+      </c>
+      <c r="F153" s="2">
+        <v>18</v>
       </c>
       <c r="G153" s="2">
-        <v>790</v>
+        <v>1800</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D154" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="E154" s="4">
-        <v>149</v>
-      </c>
-      <c r="F154" s="4">
-        <v>142</v>
+      <c r="E154" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="F154" s="2">
+        <v>18.5</v>
       </c>
       <c r="G154" s="2">
-        <v>14200</v>
+        <v>1850</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="E155" s="4">
-        <v>289</v>
-      </c>
-      <c r="F155" s="4">
-        <v>279</v>
+        <v>494</v>
+      </c>
+      <c r="E155" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F155" s="2">
+        <v>4.5</v>
       </c>
       <c r="G155" s="2">
-        <v>27900</v>
+        <v>450</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>491</v>
+        <v>463</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="E156" s="4">
-        <v>199</v>
-      </c>
-      <c r="F156" s="4">
-        <v>169</v>
+        <v>497</v>
+      </c>
+      <c r="E156" s="2">
+        <v>5.7</v>
+      </c>
+      <c r="F156" s="2">
+        <v>5.7</v>
       </c>
       <c r="G156" s="2">
-        <v>16900</v>
+        <v>570</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E157" s="4">
-        <v>469</v>
-      </c>
-      <c r="F157" s="4">
-        <v>449</v>
+        <v>500</v>
+      </c>
+      <c r="E157" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="F157" s="2">
+        <v>3.5</v>
       </c>
       <c r="G157" s="2">
-        <v>44900</v>
+        <v>350</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="E158" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="F158" s="4">
-        <v>30.9</v>
+        <v>503</v>
+      </c>
+      <c r="E158" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="F158" s="2">
+        <v>8.6</v>
       </c>
       <c r="G158" s="2">
-        <v>3090</v>
+        <v>860</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>501</v>
+        <v>463</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E159" s="4">
-        <v>30.9</v>
-      </c>
-      <c r="F159" s="4">
-        <v>30.9</v>
+        <v>506</v>
+      </c>
+      <c r="E159" s="2">
+        <v>8</v>
+      </c>
+      <c r="F159" s="2">
+        <v>8</v>
       </c>
       <c r="G159" s="2">
-        <v>3090</v>
+        <v>800</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E160" s="4">
-        <v>139</v>
-      </c>
-      <c r="F160" s="4">
-        <v>139</v>
+        <v>509</v>
+      </c>
+      <c r="E160" s="2">
+        <v>8</v>
+      </c>
+      <c r="F160" s="2">
+        <v>8</v>
       </c>
       <c r="G160" s="2">
-        <v>13900</v>
+        <v>800</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="D161" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E161" s="4">
-        <v>109</v>
-      </c>
-      <c r="F161" s="4">
-        <v>109</v>
+      <c r="E161" s="2">
+        <v>8</v>
+      </c>
+      <c r="F161" s="2">
+        <v>8</v>
       </c>
       <c r="G161" s="2">
-        <v>10900</v>
+        <v>800</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>520</v>
+        <v>463</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E162" s="4">
-        <v>449</v>
-      </c>
-      <c r="F162" s="4">
-        <v>399</v>
+        <v>515</v>
+      </c>
+      <c r="E162" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="F162" s="2">
+        <v>3.3</v>
       </c>
       <c r="G162" s="2">
-        <v>39900</v>
+        <v>330</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="E163" s="4">
-        <v>129</v>
-      </c>
-      <c r="F163" s="4">
-        <v>129</v>
+        <v>518</v>
+      </c>
+      <c r="E163" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F163" s="2">
+        <v>11.5</v>
       </c>
       <c r="G163" s="2">
-        <v>12900</v>
+        <v>1150</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E164" s="4">
-        <v>259</v>
-      </c>
-      <c r="F164" s="4">
-        <v>259</v>
+        <v>521</v>
+      </c>
+      <c r="E164" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="F164" s="2">
+        <v>8.1</v>
       </c>
       <c r="G164" s="2">
-        <v>25900</v>
+        <v>810</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="E165" s="4">
-        <v>219</v>
-      </c>
-      <c r="F165" s="4">
-        <v>219</v>
+      <c r="E165" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F165" s="2">
+        <v>2.6</v>
       </c>
       <c r="G165" s="2">
-        <v>21900</v>
+        <v>260</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>524</v>
+        <v>463</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E166" s="4">
-        <v>269</v>
-      </c>
-      <c r="F166" s="4">
-        <v>269</v>
+        <v>527</v>
+      </c>
+      <c r="E166" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="F166" s="2">
+        <v>9.1</v>
       </c>
       <c r="G166" s="2">
-        <v>26900</v>
+        <v>910</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>56</v>
+        <v>467</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="E167" s="4">
-        <v>3999</v>
-      </c>
-      <c r="F167" s="4">
-        <v>3099</v>
+        <v>530</v>
+      </c>
+      <c r="E167" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="F167" s="2">
+        <v>16.5</v>
       </c>
       <c r="G167" s="2">
-        <v>309900</v>
+        <v>1650</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>537</v>
+        <v>463</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="E168" s="4">
-        <v>3699</v>
-      </c>
-      <c r="F168" s="4">
-        <v>2899</v>
+        <v>533</v>
+      </c>
+      <c r="E168" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="F168" s="2">
+        <v>7.9</v>
       </c>
       <c r="G168" s="2">
-        <v>289900</v>
+        <v>790</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>541</v>
+        <v>467</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="E169" s="4">
-        <v>1999</v>
-      </c>
-      <c r="F169" s="4">
-        <v>1499</v>
+        <v>537</v>
+      </c>
+      <c r="E169" s="2">
+        <v>149</v>
+      </c>
+      <c r="F169" s="2">
+        <v>142</v>
       </c>
       <c r="G169" s="2">
-        <v>149900</v>
+        <v>14200</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>12</v>
@@ -7577,259 +7671,257 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>550</v>
+        <v>538</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="E170" s="4">
-        <v>30</v>
-      </c>
-      <c r="F170" s="4">
-        <v>30</v>
+        <v>540</v>
+      </c>
+      <c r="E170" s="2">
+        <v>289</v>
+      </c>
+      <c r="F170" s="2">
+        <v>279</v>
       </c>
       <c r="G170" s="2">
-        <v>3000</v>
+        <v>27900</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="E171" s="4">
-        <v>36</v>
-      </c>
-      <c r="F171" s="4">
-        <v>36</v>
+        <v>543</v>
+      </c>
+      <c r="E171" s="2">
+        <v>199</v>
+      </c>
+      <c r="F171" s="2">
+        <v>169</v>
       </c>
       <c r="G171" s="2">
-        <v>3600</v>
+        <v>16900</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E172" s="4">
-        <v>35</v>
-      </c>
-      <c r="F172" s="4">
-        <v>35</v>
+        <v>545</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E172" s="2">
+        <v>289</v>
+      </c>
+      <c r="F172" s="2">
+        <v>229</v>
       </c>
       <c r="G172" s="2">
-        <v>3500</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>424</v>
-      </c>
+        <f>F172*100</f>
+        <v>22900</v>
+      </c>
+      <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="B173" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E173" s="4">
-        <v>35</v>
-      </c>
-      <c r="F173" s="4">
-        <v>35</v>
+      <c r="E173" s="2">
+        <v>209</v>
+      </c>
+      <c r="F173" s="2">
+        <v>189</v>
       </c>
       <c r="G173" s="2">
-        <v>3500</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>424</v>
-      </c>
+        <f>F173*100</f>
+        <v>18900</v>
+      </c>
+      <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E174" s="4">
-        <v>15</v>
-      </c>
-      <c r="F174" s="4">
-        <v>15</v>
+        <v>553</v>
+      </c>
+      <c r="E174" s="2">
+        <v>469</v>
+      </c>
+      <c r="F174" s="2">
+        <v>449</v>
       </c>
       <c r="G174" s="2">
-        <v>1500</v>
+        <v>44900</v>
       </c>
       <c r="H174" s="2" t="s">
-        <v>424</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E175" s="4">
-        <v>40</v>
-      </c>
-      <c r="F175" s="4">
-        <v>40</v>
+        <v>556</v>
+      </c>
+      <c r="E175" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="F175" s="2">
+        <v>30.9</v>
       </c>
       <c r="G175" s="2">
-        <v>4000</v>
+        <v>3090</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>424</v>
+        <v>557</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="E176" s="4">
-        <v>50</v>
-      </c>
-      <c r="F176" s="4">
-        <v>50</v>
+        <v>560</v>
+      </c>
+      <c r="E176" s="2">
+        <v>30.9</v>
+      </c>
+      <c r="F176" s="2">
+        <v>30.9</v>
       </c>
       <c r="G176" s="2">
-        <v>5000</v>
+        <v>3090</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>424</v>
+        <v>557</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="E177" s="4">
-        <v>299</v>
-      </c>
-      <c r="F177" s="4">
-        <v>299</v>
+        <v>564</v>
+      </c>
+      <c r="E177" s="2">
+        <v>139</v>
+      </c>
+      <c r="F177" s="2">
+        <v>139</v>
       </c>
       <c r="G177" s="2">
-        <v>29900</v>
+        <v>13900</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>12</v>
+        <v>565</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E178" s="4">
-        <v>229</v>
-      </c>
-      <c r="F178" s="4">
-        <v>229</v>
+        <v>568</v>
+      </c>
+      <c r="E178" s="2">
+        <v>109</v>
+      </c>
+      <c r="F178" s="2">
+        <v>109</v>
       </c>
       <c r="G178" s="2">
-        <v>22900</v>
+        <v>10900</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>12</v>
+        <v>565</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E179" s="4">
-        <v>309</v>
-      </c>
-      <c r="F179" s="4">
-        <v>299</v>
+        <v>572</v>
+      </c>
+      <c r="E179" s="2">
+        <v>449</v>
+      </c>
+      <c r="F179" s="2">
+        <v>399</v>
       </c>
       <c r="G179" s="2">
-        <v>29900</v>
+        <v>39900</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>12</v>
@@ -7837,25 +7929,25 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>580</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E180" s="4">
-        <v>339</v>
-      </c>
-      <c r="F180" s="4">
-        <v>329</v>
+      <c r="E180" s="2">
+        <v>129</v>
+      </c>
+      <c r="F180" s="2">
+        <v>129</v>
       </c>
       <c r="G180" s="2">
-        <v>32900</v>
+        <v>12900</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>12</v>
@@ -7863,129 +7955,129 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E181" s="4">
-        <v>159</v>
-      </c>
-      <c r="F181" s="4">
-        <v>109</v>
+        <v>579</v>
+      </c>
+      <c r="E181" s="2">
+        <v>259</v>
+      </c>
+      <c r="F181" s="2">
+        <v>259</v>
       </c>
       <c r="G181" s="2">
-        <v>10900</v>
+        <v>25900</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="E182" s="4">
-        <v>159</v>
-      </c>
-      <c r="F182" s="4">
-        <v>109</v>
+        <v>582</v>
+      </c>
+      <c r="E182" s="2">
+        <v>219</v>
+      </c>
+      <c r="F182" s="2">
+        <v>219</v>
       </c>
       <c r="G182" s="2">
-        <v>10900</v>
+        <v>21900</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>12</v>
+        <v>557</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E183" s="4">
-        <v>169</v>
-      </c>
-      <c r="F183" s="4">
-        <v>119</v>
+        <v>586</v>
+      </c>
+      <c r="E183" s="2">
+        <v>3999</v>
+      </c>
+      <c r="F183" s="2">
+        <v>3099</v>
       </c>
       <c r="G183" s="2">
-        <v>11900</v>
+        <v>309900</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>12</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="E184" s="4">
-        <v>179</v>
-      </c>
-      <c r="F184" s="4">
-        <v>159</v>
+        <v>590</v>
+      </c>
+      <c r="E184" s="2">
+        <v>3699</v>
+      </c>
+      <c r="F184" s="2">
+        <v>2899</v>
       </c>
       <c r="G184" s="2">
-        <v>15900</v>
+        <v>289900</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>12</v>
+        <v>587</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>596</v>
-      </c>
       <c r="C185" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E185" s="4">
-        <v>239</v>
-      </c>
-      <c r="F185" s="4">
-        <v>129</v>
+        <v>594</v>
+      </c>
+      <c r="E185" s="2">
+        <v>1999</v>
+      </c>
+      <c r="F185" s="2">
+        <v>1499</v>
       </c>
       <c r="G185" s="2">
-        <v>12900</v>
+        <v>149900</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>12</v>
@@ -7993,207 +8085,207 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E186" s="4">
-        <v>299</v>
-      </c>
-      <c r="F186" s="4">
-        <v>189</v>
+        <v>598</v>
+      </c>
+      <c r="E186" s="2">
+        <v>30</v>
+      </c>
+      <c r="F186" s="2">
+        <v>30</v>
       </c>
       <c r="G186" s="2">
-        <v>18900</v>
+        <v>3000</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E187" s="4">
-        <v>159</v>
-      </c>
-      <c r="F187" s="4">
-        <v>99</v>
+        <v>601</v>
+      </c>
+      <c r="E187" s="2">
+        <v>36</v>
+      </c>
+      <c r="F187" s="2">
+        <v>36</v>
       </c>
       <c r="G187" s="2">
-        <v>9900</v>
+        <v>3600</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>607</v>
-      </c>
-      <c r="E188" s="4">
-        <v>449</v>
-      </c>
-      <c r="F188" s="4">
-        <v>299</v>
+        <v>604</v>
+      </c>
+      <c r="E188" s="2">
+        <v>35</v>
+      </c>
+      <c r="F188" s="2">
+        <v>35</v>
       </c>
       <c r="G188" s="2">
-        <v>29900</v>
+        <v>3500</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E189" s="4">
-        <v>499</v>
-      </c>
-      <c r="F189" s="4">
-        <v>299</v>
+        <v>604</v>
+      </c>
+      <c r="E189" s="2">
+        <v>35</v>
+      </c>
+      <c r="F189" s="2">
+        <v>35</v>
       </c>
       <c r="G189" s="2">
-        <v>29900</v>
+        <v>3500</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>516</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E190" s="4">
-        <v>1299</v>
-      </c>
-      <c r="F190" s="4">
-        <v>879</v>
+        <v>476</v>
+      </c>
+      <c r="E190" s="2">
+        <v>15</v>
+      </c>
+      <c r="F190" s="2">
+        <v>15</v>
       </c>
       <c r="G190" s="2">
-        <v>87900</v>
+        <v>1500</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B191" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="E191" s="4">
-        <v>1899</v>
-      </c>
-      <c r="F191" s="4">
-        <v>1399</v>
+      <c r="E191" s="2">
+        <v>40</v>
+      </c>
+      <c r="F191" s="2">
+        <v>40</v>
       </c>
       <c r="G191" s="2">
-        <v>139900</v>
+        <v>4000</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="E192" s="4">
-        <v>1499</v>
-      </c>
-      <c r="F192" s="4">
-        <v>1049</v>
+        <v>614</v>
+      </c>
+      <c r="E192" s="2">
+        <v>50</v>
+      </c>
+      <c r="F192" s="2">
+        <v>50</v>
       </c>
       <c r="G192" s="2">
-        <v>104900</v>
+        <v>5000</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>12</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="E193" s="4">
-        <v>499</v>
-      </c>
-      <c r="F193" s="4">
-        <v>499</v>
+        <v>618</v>
+      </c>
+      <c r="E193" s="2">
+        <v>299</v>
+      </c>
+      <c r="F193" s="2">
+        <v>299</v>
       </c>
       <c r="G193" s="2">
-        <v>49900</v>
+        <v>29900</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>12</v>
@@ -8201,103 +8293,103 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>628</v>
-      </c>
-      <c r="E194" s="4">
-        <v>299</v>
-      </c>
-      <c r="F194" s="4">
-        <v>269</v>
+        <v>621</v>
+      </c>
+      <c r="E194" s="2">
+        <v>229</v>
+      </c>
+      <c r="F194" s="2">
+        <v>229</v>
       </c>
       <c r="G194" s="2">
-        <v>26900</v>
+        <v>22900</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>629</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B195" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="C195" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="E195" s="4">
-        <v>389</v>
-      </c>
-      <c r="F195" s="4">
-        <v>259</v>
+      <c r="E195" s="2">
+        <v>339</v>
+      </c>
+      <c r="F195" s="2">
+        <v>329</v>
       </c>
       <c r="G195" s="2">
-        <v>25900</v>
+        <v>32900</v>
       </c>
       <c r="H195" s="2" t="s">
-        <v>516</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="E196" s="4">
-        <v>349</v>
-      </c>
-      <c r="F196" s="4">
-        <v>229</v>
+        <v>628</v>
+      </c>
+      <c r="E196" s="2">
+        <v>159</v>
+      </c>
+      <c r="F196" s="2">
+        <v>109</v>
       </c>
       <c r="G196" s="2">
-        <v>22900</v>
+        <v>10900</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>508</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="E197" s="4">
-        <v>179</v>
-      </c>
-      <c r="F197" s="4">
-        <v>139</v>
+        <v>631</v>
+      </c>
+      <c r="E197" s="2">
+        <v>169</v>
+      </c>
+      <c r="F197" s="2">
+        <v>119</v>
       </c>
       <c r="G197" s="2">
-        <v>13900</v>
+        <v>11900</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>12</v>
@@ -8305,441 +8397,439 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>625</v>
+        <v>632</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>641</v>
-      </c>
-      <c r="E198" s="4">
-        <v>599</v>
-      </c>
-      <c r="F198" s="4">
-        <v>419</v>
+        <v>634</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="E198" s="2">
+        <v>209</v>
+      </c>
+      <c r="F198" s="2">
+        <v>199</v>
       </c>
       <c r="G198" s="2">
-        <v>41900</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>12</v>
-      </c>
+        <f>F198*100</f>
+        <v>19900</v>
+      </c>
+      <c r="H198" s="2"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="E199" s="4">
-        <v>89</v>
-      </c>
-      <c r="F199" s="4">
-        <v>89</v>
+        <v>638</v>
+      </c>
+      <c r="E199" s="2">
+        <v>179</v>
+      </c>
+      <c r="F199" s="2">
+        <v>159</v>
       </c>
       <c r="G199" s="2">
-        <v>8900</v>
+        <v>15900</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="E200" s="4">
-        <v>99</v>
-      </c>
-      <c r="F200" s="4">
-        <v>99</v>
+        <v>640</v>
+      </c>
+      <c r="D200" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="E200" s="2">
+        <v>299</v>
+      </c>
+      <c r="F200" s="2">
+        <v>199</v>
       </c>
       <c r="G200" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>21</v>
-      </c>
+        <f>F200*100</f>
+        <v>19900</v>
+      </c>
+      <c r="H200" s="2"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>649</v>
-      </c>
       <c r="C201" s="2" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="E201" s="4">
-        <v>99</v>
-      </c>
-      <c r="F201" s="4">
-        <v>99</v>
+        <v>644</v>
+      </c>
+      <c r="E201" s="2">
+        <v>239</v>
+      </c>
+      <c r="F201" s="2">
+        <v>129</v>
       </c>
       <c r="G201" s="2">
-        <v>9900</v>
+        <v>12900</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>654</v>
-      </c>
-      <c r="E202" s="4">
-        <v>89</v>
-      </c>
-      <c r="F202" s="4">
-        <v>89</v>
+        <v>647</v>
+      </c>
+      <c r="E202" s="2">
+        <v>299</v>
+      </c>
+      <c r="F202" s="2">
+        <v>189</v>
       </c>
       <c r="G202" s="2">
-        <v>8900</v>
+        <v>18900</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="E203" s="4">
-        <v>89</v>
-      </c>
-      <c r="F203" s="4">
-        <v>89</v>
+        <v>650</v>
+      </c>
+      <c r="E203" s="2">
+        <v>159</v>
+      </c>
+      <c r="F203" s="2">
+        <v>99</v>
       </c>
       <c r="G203" s="2">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="E204" s="4">
-        <v>89</v>
-      </c>
-      <c r="F204" s="4">
-        <v>89</v>
+        <v>653</v>
+      </c>
+      <c r="E204" s="2">
+        <v>449</v>
+      </c>
+      <c r="F204" s="2">
+        <v>299</v>
       </c>
       <c r="G204" s="2">
-        <v>8900</v>
+        <v>29900</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>663</v>
-      </c>
-      <c r="E205" s="4">
-        <v>99</v>
-      </c>
-      <c r="F205" s="4">
-        <v>99</v>
+        <v>656</v>
+      </c>
+      <c r="E205" s="2">
+        <v>499</v>
+      </c>
+      <c r="F205" s="2">
+        <v>299</v>
       </c>
       <c r="G205" s="2">
-        <v>9900</v>
+        <v>29900</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>21</v>
+        <v>565</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>666</v>
-      </c>
-      <c r="E206" s="4">
-        <v>99</v>
-      </c>
-      <c r="F206" s="4">
-        <v>99</v>
+        <v>660</v>
+      </c>
+      <c r="E206" s="2">
+        <v>1299</v>
+      </c>
+      <c r="F206" s="2">
+        <v>879</v>
       </c>
       <c r="G206" s="2">
-        <v>9900</v>
+        <v>87900</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="E207" s="4">
-        <v>99</v>
-      </c>
-      <c r="F207" s="4">
-        <v>99</v>
+        <v>663</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1899</v>
+      </c>
+      <c r="F207" s="2">
+        <v>1399</v>
       </c>
       <c r="G207" s="2">
-        <v>9900</v>
+        <v>139900</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="E208" s="4">
-        <v>99</v>
-      </c>
-      <c r="F208" s="4">
-        <v>99</v>
+        <v>666</v>
+      </c>
+      <c r="E208" s="2">
+        <v>1499</v>
+      </c>
+      <c r="F208" s="2">
+        <v>1049</v>
       </c>
       <c r="G208" s="2">
-        <v>9900</v>
+        <v>104900</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>642</v>
+        <v>667</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E209" s="4">
-        <v>99</v>
-      </c>
-      <c r="F209" s="4">
-        <v>99</v>
+        <v>670</v>
+      </c>
+      <c r="E209" s="2">
+        <v>499</v>
+      </c>
+      <c r="F209" s="2">
+        <v>499</v>
       </c>
       <c r="G209" s="2">
-        <v>9900</v>
+        <v>49900</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E210" s="4">
-        <v>89</v>
-      </c>
-      <c r="F210" s="4">
-        <v>89</v>
+        <v>674</v>
+      </c>
+      <c r="E210" s="2">
+        <v>389</v>
+      </c>
+      <c r="F210" s="2">
+        <v>259</v>
       </c>
       <c r="G210" s="2">
-        <v>8900</v>
+        <v>25900</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>21</v>
+        <v>565</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E211" s="4">
-        <v>89</v>
-      </c>
-      <c r="F211" s="4">
-        <v>89</v>
+        <v>677</v>
+      </c>
+      <c r="E211" s="2">
+        <v>349</v>
+      </c>
+      <c r="F211" s="2">
+        <v>229</v>
       </c>
       <c r="G211" s="2">
-        <v>8900</v>
+        <v>22900</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>21</v>
+        <v>557</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E212" s="4">
-        <v>99</v>
-      </c>
-      <c r="F212" s="4">
-        <v>99</v>
+        <v>680</v>
+      </c>
+      <c r="E212" s="2">
+        <v>179</v>
+      </c>
+      <c r="F212" s="2">
+        <v>139</v>
       </c>
       <c r="G212" s="2">
-        <v>9900</v>
+        <v>13900</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>642</v>
+        <v>671</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E213" s="4">
-        <v>99</v>
-      </c>
-      <c r="F213" s="4">
-        <v>99</v>
+        <v>683</v>
+      </c>
+      <c r="E213" s="2">
+        <v>599</v>
+      </c>
+      <c r="F213" s="2">
+        <v>419</v>
       </c>
       <c r="G213" s="2">
-        <v>9900</v>
+        <v>41900</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="E214" s="4">
-        <v>99</v>
-      </c>
-      <c r="F214" s="4">
-        <v>99</v>
+        <v>687</v>
+      </c>
+      <c r="E214" s="2">
+        <v>89</v>
+      </c>
+      <c r="F214" s="2">
+        <v>89</v>
       </c>
       <c r="G214" s="2">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>21</v>
@@ -8747,21 +8837,21 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E215" s="4">
+        <v>690</v>
+      </c>
+      <c r="E215" s="2">
         <v>99</v>
       </c>
-      <c r="F215" s="4">
+      <c r="F215" s="2">
         <v>99</v>
       </c>
       <c r="G215" s="2">
@@ -8773,21 +8863,21 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E216" s="4">
+        <v>693</v>
+      </c>
+      <c r="E216" s="2">
         <v>99</v>
       </c>
-      <c r="F216" s="4">
+      <c r="F216" s="2">
         <v>99</v>
       </c>
       <c r="G216" s="2">
@@ -8799,25 +8889,25 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" s="2" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="D217" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E217" s="4">
-        <v>99</v>
-      </c>
-      <c r="F217" s="4">
-        <v>99</v>
+        <v>696</v>
+      </c>
+      <c r="E217" s="2">
+        <v>89</v>
+      </c>
+      <c r="F217" s="2">
+        <v>89</v>
       </c>
       <c r="G217" s="2">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>21</v>
@@ -8825,25 +8915,25 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E218" s="4">
-        <v>99</v>
-      </c>
-      <c r="F218" s="4">
-        <v>99</v>
+        <v>699</v>
+      </c>
+      <c r="E218" s="2">
+        <v>89</v>
+      </c>
+      <c r="F218" s="2">
+        <v>89</v>
       </c>
       <c r="G218" s="2">
-        <v>9900</v>
+        <v>8900</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>21</v>
@@ -8851,197 +8941,419 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="E219" s="2">
+        <v>89</v>
+      </c>
+      <c r="F219" s="2">
+        <v>89</v>
+      </c>
+      <c r="G219" s="2">
+        <v>8900</v>
+      </c>
+      <c r="H219" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="A220" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="D220" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="E220" s="2">
+        <v>99</v>
+      </c>
+      <c r="F220" s="2">
+        <v>99</v>
+      </c>
+      <c r="G220" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H220" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
+      <c r="A221" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="E219" s="4">
+      <c r="C221" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E221" s="2">
+        <v>99</v>
+      </c>
+      <c r="F221" s="2">
+        <v>99</v>
+      </c>
+      <c r="G221" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H221" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="E222" s="2">
+        <v>99</v>
+      </c>
+      <c r="F222" s="2">
+        <v>99</v>
+      </c>
+      <c r="G222" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H222" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="A223" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="E223" s="2">
+        <v>99</v>
+      </c>
+      <c r="F223" s="2">
+        <v>99</v>
+      </c>
+      <c r="G223" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
+      <c r="A224" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="E224" s="2">
+        <v>99</v>
+      </c>
+      <c r="F224" s="2">
+        <v>99</v>
+      </c>
+      <c r="G224" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="E225" s="2">
+        <v>89</v>
+      </c>
+      <c r="F225" s="2">
+        <v>89</v>
+      </c>
+      <c r="G225" s="2">
+        <v>8900</v>
+      </c>
+      <c r="H225" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="A226" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="E226" s="2">
+        <v>89</v>
+      </c>
+      <c r="F226" s="2">
+        <v>89</v>
+      </c>
+      <c r="G226" s="2">
+        <v>8900</v>
+      </c>
+      <c r="H226" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
+      <c r="A227" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="E227" s="2">
+        <v>99</v>
+      </c>
+      <c r="F227" s="2">
+        <v>99</v>
+      </c>
+      <c r="G227" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H227" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="E228" s="2">
+        <v>99</v>
+      </c>
+      <c r="F228" s="2">
+        <v>99</v>
+      </c>
+      <c r="G228" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H228" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="A229" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="E229" s="2">
+        <v>99</v>
+      </c>
+      <c r="F229" s="2">
+        <v>99</v>
+      </c>
+      <c r="G229" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H229" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
+      <c r="A230" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="E230" s="2">
+        <v>99</v>
+      </c>
+      <c r="F230" s="2">
+        <v>99</v>
+      </c>
+      <c r="G230" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H230" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E231" s="2">
+        <v>99</v>
+      </c>
+      <c r="F231" s="2">
+        <v>99</v>
+      </c>
+      <c r="G231" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H231" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="A232" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="E232" s="2">
+        <v>99</v>
+      </c>
+      <c r="F232" s="2">
+        <v>99</v>
+      </c>
+      <c r="G232" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H232" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
+      <c r="A233" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="E233" s="2">
+        <v>99</v>
+      </c>
+      <c r="F233" s="2">
+        <v>99</v>
+      </c>
+      <c r="G233" s="2">
+        <v>9900</v>
+      </c>
+      <c r="H233" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="E234" s="2">
         <v>1499</v>
       </c>
-      <c r="F219" s="4">
+      <c r="F234" s="2">
         <v>999</v>
       </c>
-      <c r="G219" s="2">
+      <c r="G234" s="2">
         <v>99900</v>
       </c>
-      <c r="H219" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C220" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D220" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E220" s="6">
-        <v>0</v>
-      </c>
-      <c r="F220" s="6">
-        <v>0</v>
-      </c>
-      <c r="G220" s="6">
-        <v>0</v>
-      </c>
-      <c r="H220" s="6"/>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E221" s="6">
-        <v>0</v>
-      </c>
-      <c r="F221" s="6">
-        <v>0</v>
-      </c>
-      <c r="G221" s="6">
-        <v>0</v>
-      </c>
-      <c r="H221" s="6"/>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D222" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E222" s="6">
-        <v>0</v>
-      </c>
-      <c r="F222" s="6">
-        <v>0</v>
-      </c>
-      <c r="G222" s="6">
-        <v>0</v>
-      </c>
-      <c r="H222" s="6"/>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E223" s="6">
-        <v>0</v>
-      </c>
-      <c r="F223" s="6">
-        <v>0</v>
-      </c>
-      <c r="G223" s="6">
-        <v>0</v>
-      </c>
-      <c r="H223" s="6"/>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D224" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E224" s="6">
-        <v>0</v>
-      </c>
-      <c r="F224" s="6">
-        <v>0</v>
-      </c>
-      <c r="G224" s="6">
-        <v>0</v>
-      </c>
-      <c r="H224" s="6"/>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B225" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E225" s="6">
-        <v>0</v>
-      </c>
-      <c r="F225" s="6">
-        <v>0</v>
-      </c>
-      <c r="G225" s="6">
-        <v>0</v>
-      </c>
-      <c r="H225" s="6"/>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>709</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="D226" s="7" t="s">
-        <v>711</v>
-      </c>
-      <c r="E226" s="6">
-        <v>0</v>
-      </c>
-      <c r="F226" s="6">
-        <v>0</v>
-      </c>
-      <c r="G226" s="6">
-        <v>0</v>
-      </c>
-      <c r="H226" s="6"/>
+      <c r="H234" s="2" t="s">
+        <v>749</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9079,197 +9391,205 @@
     <hyperlink ref="D33" r:id="rId32" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
     <hyperlink ref="D34" r:id="rId33" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
     <hyperlink ref="D35" r:id="rId34" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://down-my.img.susercontent.com/file/35066b55b55e72f22ccf73fc8f697b5e"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-s9xxv1jxrqkv58"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-aw2jcqnxrqkv17"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
-    <hyperlink ref="D44" r:id="rId43" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D45" r:id="rId43" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D46" r:id="rId44" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
-    <hyperlink ref="D47" r:id="rId45" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
-    <hyperlink ref="D48" r:id="rId46" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
-    <hyperlink ref="D49" r:id="rId47" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
-    <hyperlink ref="D50" r:id="rId48" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
-    <hyperlink ref="D51" r:id="rId49" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
-    <hyperlink ref="D52" r:id="rId50" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
-    <hyperlink ref="D53" r:id="rId51" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
-    <hyperlink ref="D54" r:id="rId52" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
-    <hyperlink ref="D55" r:id="rId53" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
-    <hyperlink ref="D56" r:id="rId54" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
-    <hyperlink ref="D57" r:id="rId55" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
-    <hyperlink ref="D58" r:id="rId56" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
-    <hyperlink ref="D59" r:id="rId57" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
-    <hyperlink ref="D60" r:id="rId58" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
-    <hyperlink ref="D61" r:id="rId59" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
-    <hyperlink ref="D62" r:id="rId60" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D63" r:id="rId61" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
-    <hyperlink ref="D64" r:id="rId60" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D65" r:id="rId62" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
-    <hyperlink ref="D66" r:id="rId63" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
-    <hyperlink ref="D67" r:id="rId64" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D68" r:id="rId65" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
-    <hyperlink ref="D69" r:id="rId66" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
-    <hyperlink ref="D70" r:id="rId67" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
-    <hyperlink ref="D71" r:id="rId68" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
-    <hyperlink ref="D72" r:id="rId69" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
-    <hyperlink ref="D73" r:id="rId70" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
-    <hyperlink ref="D74" r:id="rId71" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D75" r:id="rId72" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
-    <hyperlink ref="D76" r:id="rId73" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
-    <hyperlink ref="D77" r:id="rId74" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
-    <hyperlink ref="D78" r:id="rId75" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
-    <hyperlink ref="D79" r:id="rId76" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
-    <hyperlink ref="D80" r:id="rId77" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
-    <hyperlink ref="D81" r:id="rId78" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
-    <hyperlink ref="D82" r:id="rId79" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
-    <hyperlink ref="D83" r:id="rId80" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
-    <hyperlink ref="D84" r:id="rId81" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
-    <hyperlink ref="D85" r:id="rId82" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D86" r:id="rId83" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
-    <hyperlink ref="D87" r:id="rId84" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
-    <hyperlink ref="D88" r:id="rId85" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
-    <hyperlink ref="D89" r:id="rId86" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
-    <hyperlink ref="D90" r:id="rId87" display="https://myjoyoung.com/wp-content/uploads/2024/11/15K25-1-700px.png"/>
-    <hyperlink ref="D91" r:id="rId88" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
-    <hyperlink ref="D92" r:id="rId89" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
-    <hyperlink ref="D93" r:id="rId90" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
-    <hyperlink ref="D94" r:id="rId91" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
-    <hyperlink ref="D95" r:id="rId92" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
-    <hyperlink ref="D96" r:id="rId93" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
-    <hyperlink ref="D97" r:id="rId94" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
-    <hyperlink ref="D98" r:id="rId95" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
-    <hyperlink ref="D99" r:id="rId96" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
-    <hyperlink ref="D100" r:id="rId97" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
-    <hyperlink ref="D101" r:id="rId98" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
-    <hyperlink ref="D106" r:id="rId99" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
-    <hyperlink ref="D107" r:id="rId100" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
-    <hyperlink ref="D108" r:id="rId101" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
-    <hyperlink ref="D109" r:id="rId102" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D110" r:id="rId103" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
-    <hyperlink ref="D111" r:id="rId104" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D112" r:id="rId105" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D113" r:id="rId106" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
-    <hyperlink ref="D114" r:id="rId107" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozGreentea.png?v=1709822958"/>
-    <hyperlink ref="D115" r:id="rId108" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
-    <hyperlink ref="D116" r:id="rId109" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D117" r:id="rId110" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D118" r:id="rId111" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
-    <hyperlink ref="D119" r:id="rId112" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
-    <hyperlink ref="D120" r:id="rId113" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
-    <hyperlink ref="D121" r:id="rId114" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D122" r:id="rId115" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D123" r:id="rId116" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D124" r:id="rId117" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
-    <hyperlink ref="D125" r:id="rId118" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
-    <hyperlink ref="D126" r:id="rId119" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
-    <hyperlink ref="D127" r:id="rId120" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
-    <hyperlink ref="D128" r:id="rId121" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
-    <hyperlink ref="D129" r:id="rId122" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
-    <hyperlink ref="D130" r:id="rId123" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
-    <hyperlink ref="D131" r:id="rId124" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
-    <hyperlink ref="D133" r:id="rId125" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
-    <hyperlink ref="D134" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D135" r:id="rId127" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
-    <hyperlink ref="D136" r:id="rId128" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
-    <hyperlink ref="D137" r:id="rId129" display="https://iili.io/3FH357a.md.png"/>
-    <hyperlink ref="D138" r:id="rId130" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
-    <hyperlink ref="D139" r:id="rId131" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
-    <hyperlink ref="D140" r:id="rId132" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
-    <hyperlink ref="D141" r:id="rId133" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
-    <hyperlink ref="D142" r:id="rId134" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
-    <hyperlink ref="D143" r:id="rId135" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
-    <hyperlink ref="D144" r:id="rId136" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
-    <hyperlink ref="D145" r:id="rId137" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
-    <hyperlink ref="D146" r:id="rId138" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
-    <hyperlink ref="D147" r:id="rId139" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
-    <hyperlink ref="D148" r:id="rId140" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
-    <hyperlink ref="D149" r:id="rId141" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
-    <hyperlink ref="D150" r:id="rId142" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
-    <hyperlink ref="D151" r:id="rId143" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
-    <hyperlink ref="D152" r:id="rId144" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
-    <hyperlink ref="D153" r:id="rId145" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
-    <hyperlink ref="D154" r:id="rId146" display="https://iili.io/3FHwaQn.md.jpg"/>
-    <hyperlink ref="D155" r:id="rId147" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D156" r:id="rId148" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D157" r:id="rId149" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="D158" r:id="rId150" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
-    <hyperlink ref="D159" r:id="rId151" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
-    <hyperlink ref="D160" r:id="rId152" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
-    <hyperlink ref="D161" r:id="rId153" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
-    <hyperlink ref="D162" r:id="rId154" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D163" r:id="rId155" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
-    <hyperlink ref="D164" r:id="rId156" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
-    <hyperlink ref="D165" r:id="rId157" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
-    <hyperlink ref="D166" r:id="rId158" display="https://bornnordic.com/pub/media/catalog/product/cache/74c1057f7991b4edb2bc7bdaa94de933/a/d/ad105-eu-black-riversong-powerkub_-100w-gan-charger_-3xusb-c1xusb-a-output-black-1.jpg"/>
-    <hyperlink ref="D167" r:id="rId159" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
-    <hyperlink ref="D168" r:id="rId160" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
-    <hyperlink ref="D169" r:id="rId161" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
-    <hyperlink ref="D170" r:id="rId162" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
-    <hyperlink ref="D171" r:id="rId163" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
-    <hyperlink ref="D172" r:id="rId164" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D173" r:id="rId164" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D174" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D175" r:id="rId165" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
-    <hyperlink ref="D176" r:id="rId166" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
-    <hyperlink ref="D177" r:id="rId167" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
-    <hyperlink ref="D178" r:id="rId168" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
-    <hyperlink ref="D179" r:id="rId169" display="https://www.courts.com.sg/media/catalog/product/i/p/ip196974_01.jpg?quality=80&amp;bg-color=255,255,255&amp;fit=bounds&amp;height=770&amp;width=770&amp;canvas=770:770"/>
-    <hyperlink ref="D180" r:id="rId170" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
-    <hyperlink ref="D181" r:id="rId171" display="https://medias.watsons.com.my/publishing/WTCMY-1006572-front-zoom.jpg?version=1734763189"/>
-    <hyperlink ref="D182" r:id="rId172" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
-    <hyperlink ref="D183" r:id="rId173" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
-    <hyperlink ref="D184" r:id="rId174" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
-    <hyperlink ref="D186" r:id="rId175" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D187" r:id="rId176" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
-    <hyperlink ref="D188" r:id="rId177" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D189" r:id="rId178" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D190" r:id="rId179" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
-    <hyperlink ref="D191" r:id="rId180" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
-    <hyperlink ref="D192" r:id="rId181" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
-    <hyperlink ref="D193" r:id="rId182" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
-    <hyperlink ref="D194" r:id="rId183" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/2-0l-multifunction-blender-bl-70pr2nmy/gallery1.png"/>
-    <hyperlink ref="D195" r:id="rId184" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D196" r:id="rId185" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
-    <hyperlink ref="D197" r:id="rId186" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
-    <hyperlink ref="D198" r:id="rId187" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
-    <hyperlink ref="D199" r:id="rId188" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
-    <hyperlink ref="D200" r:id="rId189" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
-    <hyperlink ref="D201" r:id="rId190" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
-    <hyperlink ref="D202" r:id="rId191" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
-    <hyperlink ref="D203" r:id="rId192" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
-    <hyperlink ref="D204" r:id="rId193" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
-    <hyperlink ref="D205" r:id="rId194" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
-    <hyperlink ref="D206" r:id="rId195" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
-    <hyperlink ref="D207" r:id="rId196" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
-    <hyperlink ref="D208" r:id="rId197" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
-    <hyperlink ref="D209" r:id="rId198" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
-    <hyperlink ref="D210" r:id="rId199" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
-    <hyperlink ref="D211" r:id="rId200" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
-    <hyperlink ref="D212" r:id="rId201" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
-    <hyperlink ref="D213" r:id="rId202" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
-    <hyperlink ref="D214" r:id="rId203" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
-    <hyperlink ref="D215" r:id="rId204" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
-    <hyperlink ref="D216" r:id="rId205" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
-    <hyperlink ref="D217" r:id="rId206" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
-    <hyperlink ref="D218" r:id="rId207" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
-    <hyperlink ref="D103" r:id="rId208" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
-    <hyperlink ref="D105" r:id="rId209" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
-    <hyperlink ref="D104" r:id="rId210" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
-    <hyperlink ref="D102" r:id="rId211" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
-    <hyperlink ref="D219" r:id="rId212" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
-    <hyperlink ref="D132" r:id="rId213" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/129279_21042024152719-800x800.jpg"/>
-    <hyperlink ref="D185" r:id="rId214" display="https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive"/>
-    <hyperlink ref="D220" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
-    <hyperlink ref="D221" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
-    <hyperlink ref="D222" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
-    <hyperlink ref="D223" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
-    <hyperlink ref="D224" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
-    <hyperlink ref="D225" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
-    <hyperlink ref="D226" r:id="rId215" display="https://img.freepik.com/free-vector/flat-coming-soon-background-with-megaphone_1017-33737.jpg?semt=ais_hybrid&amp;w=740"/>
+    <hyperlink ref="D44" r:id="rId35" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D45" r:id="rId36" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
+    <hyperlink ref="D48" r:id="rId37" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D49" r:id="rId38" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D50" r:id="rId39" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
+    <hyperlink ref="D51" r:id="rId40" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D52" r:id="rId40" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D53" r:id="rId41" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
+    <hyperlink ref="D54" r:id="rId42" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
+    <hyperlink ref="D55" r:id="rId43" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
+    <hyperlink ref="D56" r:id="rId44" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
+    <hyperlink ref="D57" r:id="rId45" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
+    <hyperlink ref="D58" r:id="rId46" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
+    <hyperlink ref="D59" r:id="rId47" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
+    <hyperlink ref="D60" r:id="rId48" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
+    <hyperlink ref="D61" r:id="rId49" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
+    <hyperlink ref="D62" r:id="rId50" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
+    <hyperlink ref="D64" r:id="rId51" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
+    <hyperlink ref="D65" r:id="rId52" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
+    <hyperlink ref="D66" r:id="rId53" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
+    <hyperlink ref="D67" r:id="rId54" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
+    <hyperlink ref="D68" r:id="rId55" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
+    <hyperlink ref="D69" r:id="rId56" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
+    <hyperlink ref="D70" r:id="rId57" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D71" r:id="rId58" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
+    <hyperlink ref="D72" r:id="rId57" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D73" r:id="rId59" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
+    <hyperlink ref="D74" r:id="rId60" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
+    <hyperlink ref="D75" r:id="rId61" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D77" r:id="rId62" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
+    <hyperlink ref="D78" r:id="rId63" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
+    <hyperlink ref="D79" r:id="rId64" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
+    <hyperlink ref="D80" r:id="rId65" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
+    <hyperlink ref="D81" r:id="rId66" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
+    <hyperlink ref="D82" r:id="rId67" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
+    <hyperlink ref="D83" r:id="rId68" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D84" r:id="rId69" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
+    <hyperlink ref="D85" r:id="rId70" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
+    <hyperlink ref="D86" r:id="rId71" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
+    <hyperlink ref="D87" r:id="rId72" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
+    <hyperlink ref="D89" r:id="rId73" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
+    <hyperlink ref="D90" r:id="rId74" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
+    <hyperlink ref="D94" r:id="rId75" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
+    <hyperlink ref="D96" r:id="rId76" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
+    <hyperlink ref="D99" r:id="rId77" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
+    <hyperlink ref="D100" r:id="rId78" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
+    <hyperlink ref="D101" r:id="rId79" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D102" r:id="rId80" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
+    <hyperlink ref="D103" r:id="rId81" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
+    <hyperlink ref="D104" r:id="rId82" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
+    <hyperlink ref="D105" r:id="rId83" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
+    <hyperlink ref="D106" r:id="rId84" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
+    <hyperlink ref="D108" r:id="rId85" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
+    <hyperlink ref="D109" r:id="rId86" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
+    <hyperlink ref="D110" r:id="rId87" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
+    <hyperlink ref="D111" r:id="rId88" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
+    <hyperlink ref="D112" r:id="rId89" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
+    <hyperlink ref="D113" r:id="rId90" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
+    <hyperlink ref="D114" r:id="rId91" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
+    <hyperlink ref="D115" r:id="rId92" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
+    <hyperlink ref="D116" r:id="rId93" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
+    <hyperlink ref="D117" r:id="rId94" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
+    <hyperlink ref="D118" r:id="rId95" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
+    <hyperlink ref="D119" r:id="rId96" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
+    <hyperlink ref="D120" r:id="rId97" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
+    <hyperlink ref="D121" r:id="rId98" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
+    <hyperlink ref="D122" r:id="rId99" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
+    <hyperlink ref="D123" r:id="rId100" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
+    <hyperlink ref="D124" r:id="rId101" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
+    <hyperlink ref="D125" r:id="rId102" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D126" r:id="rId103" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
+    <hyperlink ref="D127" r:id="rId104" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D128" r:id="rId105" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D129" r:id="rId106" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
+    <hyperlink ref="D130" r:id="rId107" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
+    <hyperlink ref="D131" r:id="rId108" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D132" r:id="rId109" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D133" r:id="rId110" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
+    <hyperlink ref="D134" r:id="rId111" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
+    <hyperlink ref="D135" r:id="rId112" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
+    <hyperlink ref="D136" r:id="rId113" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D137" r:id="rId114" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D138" r:id="rId115" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D139" r:id="rId116" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
+    <hyperlink ref="D140" r:id="rId117" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
+    <hyperlink ref="D141" r:id="rId118" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
+    <hyperlink ref="D142" r:id="rId119" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
+    <hyperlink ref="D143" r:id="rId120" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
+    <hyperlink ref="D144" r:id="rId121" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
+    <hyperlink ref="D145" r:id="rId122" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
+    <hyperlink ref="D146" r:id="rId123" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
+    <hyperlink ref="D147" r:id="rId124" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/129279_21042024152719-800x800.jpg"/>
+    <hyperlink ref="D148" r:id="rId125" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
+    <hyperlink ref="D149" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D150" r:id="rId127" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
+    <hyperlink ref="D151" r:id="rId128" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
+    <hyperlink ref="D152" r:id="rId129" display="https://iili.io/3FH357a.md.png"/>
+    <hyperlink ref="D153" r:id="rId130" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
+    <hyperlink ref="D154" r:id="rId131" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
+    <hyperlink ref="D155" r:id="rId132" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
+    <hyperlink ref="D156" r:id="rId133" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
+    <hyperlink ref="D157" r:id="rId134" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
+    <hyperlink ref="D158" r:id="rId135" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
+    <hyperlink ref="D159" r:id="rId136" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
+    <hyperlink ref="D160" r:id="rId137" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
+    <hyperlink ref="D161" r:id="rId138" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
+    <hyperlink ref="D162" r:id="rId139" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
+    <hyperlink ref="D163" r:id="rId140" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
+    <hyperlink ref="D164" r:id="rId141" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
+    <hyperlink ref="D165" r:id="rId142" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
+    <hyperlink ref="D166" r:id="rId143" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
+    <hyperlink ref="D167" r:id="rId144" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
+    <hyperlink ref="D168" r:id="rId145" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
+    <hyperlink ref="D169" r:id="rId146" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="D170" r:id="rId147" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D171" r:id="rId148" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D174" r:id="rId149" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="D175" r:id="rId150" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
+    <hyperlink ref="D176" r:id="rId151" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
+    <hyperlink ref="D177" r:id="rId152" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
+    <hyperlink ref="D178" r:id="rId153" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
+    <hyperlink ref="D179" r:id="rId154" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D180" r:id="rId155" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="D181" r:id="rId156" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
+    <hyperlink ref="D182" r:id="rId157" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
+    <hyperlink ref="D183" r:id="rId158" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
+    <hyperlink ref="D184" r:id="rId159" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
+    <hyperlink ref="D185" r:id="rId160" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="D186" r:id="rId161" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
+    <hyperlink ref="D187" r:id="rId162" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
+    <hyperlink ref="D188" r:id="rId163" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D189" r:id="rId163" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D190" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D191" r:id="rId164" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
+    <hyperlink ref="D192" r:id="rId165" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
+    <hyperlink ref="D193" r:id="rId166" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="D194" r:id="rId167" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="D195" r:id="rId168" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="D196" r:id="rId169" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="D197" r:id="rId170" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="D199" r:id="rId171" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="D201" r:id="rId172" display="https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive"/>
+    <hyperlink ref="D202" r:id="rId173" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D203" r:id="rId174" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="D204" r:id="rId175" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D205" r:id="rId176" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D206" r:id="rId177" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="D207" r:id="rId178" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="D208" r:id="rId179" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="D209" r:id="rId180" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="D210" r:id="rId181" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D211" r:id="rId182" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D212" r:id="rId183" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="D213" r:id="rId184" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="D214" r:id="rId185" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
+    <hyperlink ref="D215" r:id="rId186" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
+    <hyperlink ref="D216" r:id="rId187" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
+    <hyperlink ref="D217" r:id="rId188" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
+    <hyperlink ref="D218" r:id="rId189" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
+    <hyperlink ref="D219" r:id="rId190" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
+    <hyperlink ref="D220" r:id="rId191" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
+    <hyperlink ref="D221" r:id="rId192" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
+    <hyperlink ref="D222" r:id="rId193" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
+    <hyperlink ref="D223" r:id="rId194" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
+    <hyperlink ref="D224" r:id="rId195" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
+    <hyperlink ref="D225" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
+    <hyperlink ref="D226" r:id="rId197" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
+    <hyperlink ref="D227" r:id="rId198" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
+    <hyperlink ref="D228" r:id="rId199" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
+    <hyperlink ref="D229" r:id="rId200" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
+    <hyperlink ref="D230" r:id="rId201" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
+    <hyperlink ref="D231" r:id="rId202" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
+    <hyperlink ref="D232" r:id="rId203" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
+    <hyperlink ref="D233" r:id="rId204" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
+    <hyperlink ref="D234" r:id="rId205" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
+    <hyperlink ref="D39" r:id="rId206" display="https://my-test-11.slatic.net/p/a870770fd70848675717df95ae9c67b9.jpg"/>
+    <hyperlink ref="D38" r:id="rId207" display="https://m.media-amazon.com/images/I/51GvK1XSYKL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D36" r:id="rId208" display="https://my-test-11.slatic.net/p/7bfbf1874ae455d72e9b6d22efa8cfe0.jpg"/>
+    <hyperlink ref="D37" r:id="rId209" display="https://img.lazcdn.com/g/p/22b5039602bc9746d8d9a4dee6a49c2c.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D41" r:id="rId210" display="https://my-test-11.slatic.net/p/c43d0072d7ff9909bbd6d7ec520a0a2a.jpg"/>
+    <hyperlink ref="D40" r:id="rId35" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D42" r:id="rId211" display="https://my-test-11.slatic.net/p/3da38d7d6a91c35493574a98d5e4e170.jpg"/>
+    <hyperlink ref="D43" r:id="rId212" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
+    <hyperlink ref="D47" r:id="rId212" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
+    <hyperlink ref="D46" r:id="rId213" display="https://my-test-11.slatic.net/p/2e14ab03a674f37ddd96c549ec4ff079.jpg"/>
+    <hyperlink ref="D63" r:id="rId214" display="https://down-my.img.susercontent.com/file/3a11f75aeda53fc29000b656c78ea1af"/>
+    <hyperlink ref="D76" r:id="rId61" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D88" r:id="rId215" display="https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg"/>
+    <hyperlink ref="D91" r:id="rId216" display="https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg"/>
+    <hyperlink ref="D92" r:id="rId217" display="https://www.tmt.my/data/editor/sc-product/21366/JINCASE-JF83-TABLE-FAN-1.jpg"/>
+    <hyperlink ref="D93" r:id="rId218" display="https://www.tmt.my/data/editor/sc-product/21364/JINCASE-JF91-HANDHELD-FAN-1.jpg"/>
+    <hyperlink ref="D95" r:id="rId219" display="https://www.jimmyglobal.com/upload/product/1644304716955187.jpg"/>
+    <hyperlink ref="D97" r:id="rId220" display="https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg"/>
+    <hyperlink ref="D98" r:id="rId221" display="https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7"/>
+    <hyperlink ref="D107" r:id="rId222" display="https://img.srewardscentre.com.my/images/bd627029-cf38-44ff-bcef-2c3fb30d1667.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D172" r:id="rId223" display="https://images.philips.com/is/image/philipsconsumer/vrs_2594fc462ee2c5d2f500c65cf5836efcfe8f8be1?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D173" r:id="rId224" display="https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D198" r:id="rId225" display="https://cdn.homepro.com.my/ART_IMAGE/10/731/1073103/447x447/15032024_1073103$Imagex1.jpg"/>
+    <hyperlink ref="D200" r:id="rId226" display="https://dam.groupeseb.com/m/6a8a88d07ce1794a/digital-TEFAL_FV5847M0_Visual1.tif?timestamp=20220701231405&amp;width=640&amp;height=800"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9000"/>
+    <workbookView windowWidth="23145" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="702">
   <si>
     <t>BRAND</t>
   </si>
@@ -188,6 +188,9 @@
     <t>https://i.ibb.co/TxfL8mYs/New-Project-2.png</t>
   </si>
   <si>
+    <t>Clear stock on hand</t>
+  </si>
+  <si>
     <t>AST-PRO8340</t>
   </si>
   <si>
@@ -197,9 +200,6 @@
     <t>https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png</t>
   </si>
   <si>
-    <t>Clear stock on hand</t>
-  </si>
-  <si>
     <t>BELKIN</t>
   </si>
   <si>
@@ -773,7 +773,7 @@
     <t>https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg</t>
   </si>
   <si>
-    <t>ELECTORLUX</t>
+    <t>ELECTROLUX</t>
   </si>
   <si>
     <t>ELE-E5CM180ST</t>
@@ -866,6 +866,9 @@
     <t>https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg</t>
   </si>
   <si>
+    <t>Effective 1.5.2025 , clear stock on hand</t>
+  </si>
+  <si>
     <t>FELIZTRIP</t>
   </si>
   <si>
@@ -899,6 +902,9 @@
     <t>https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg</t>
   </si>
   <si>
+    <t>Start Effective 1.5.2025</t>
+  </si>
+  <si>
     <t>JIC-JF-83</t>
   </si>
   <si>
@@ -1034,6 +1040,18 @@
     <t>JOYOUNG</t>
   </si>
   <si>
+    <t>JYO-JC18C30</t>
+  </si>
+  <si>
+    <t>Joyoung 1.8L Patented Oblique Cutting Chopper</t>
+  </si>
+  <si>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/18C30-2-700px.png</t>
+  </si>
+  <si>
+    <t>Start Effective 17.5.2025</t>
+  </si>
+  <si>
     <t>JYO-JK15K50</t>
   </si>
   <si>
@@ -1052,6 +1070,15 @@
     <t>https://img.srewardscentre.com.my/images/bd627029-cf38-44ff-bcef-2c3fb30d1667.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
   <si>
+    <t>JYO-JMC12HP96</t>
+  </si>
+  <si>
+    <t>Joyoung 1.2L Mini Portable Electric Cooker &amp; Hotpot</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/my-11134207-7r98x-lp2n4508otdk0d</t>
+  </si>
+  <si>
     <t>JYO-JVC45V91(P)</t>
   </si>
   <si>
@@ -1421,216 +1448,18 @@
     <t>PREMIUMGIFT</t>
   </si>
   <si>
-    <t>PG-COLGATE.ZZMD</t>
-  </si>
-  <si>
-    <t>Colgate Zig Zag Toothbrush, Soft Bristles, 5-Pack</t>
-  </si>
-  <si>
-    <t>https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13</t>
+    <t>PG-COVID19.BOOK</t>
+  </si>
+  <si>
+    <t>COVID-19 PRECAUTIONS BOOK</t>
+  </si>
+  <si>
+    <t>https://cdn-icons-png.flaticon.com/512/2232/2232688.png</t>
   </si>
   <si>
     <t>Clear On hand Stock</t>
   </si>
   <si>
-    <t>PG-COLGATE_ZZ-CHAR</t>
-  </si>
-  <si>
-    <t>Colgate Zig Zag Charcoal Toothbrush – Soft Bristles</t>
-  </si>
-  <si>
-    <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/129279_21042024152719-800x800.jpg</t>
-  </si>
-  <si>
-    <t>PG-COLGATE175TP_GRF</t>
-  </si>
-  <si>
-    <t>Colgate Cavity Protection Toothpaste Twin Pack – 6oz (170g) x2</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/d4J1JHZQ/564515-01.png</t>
-  </si>
-  <si>
-    <t>PG-COVID19.BOOK</t>
-  </si>
-  <si>
-    <t>COVID-19 PRECAUTIONS BOOK</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.flaticon.com/512/2232/2232688.png</t>
-  </si>
-  <si>
-    <t>PG-DARLIE175MD</t>
-  </si>
-  <si>
-    <t>Darlie Double Action Toothpaste – 175g</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png</t>
-  </si>
-  <si>
-    <t>PG-DYNAMO.1.44KGMD</t>
-  </si>
-  <si>
-    <t>Dynamo Power Gel Laundry Detergent Refill – 1.44kg</t>
-  </si>
-  <si>
-    <t>https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png</t>
-  </si>
-  <si>
-    <t>PG-FEBREEZE_AB_370</t>
-  </si>
-  <si>
-    <t>Febreze Antibacterial Fabric Refresher – 370ml</t>
-  </si>
-  <si>
-    <t>https://iili.io/3FH357a.md.png</t>
-  </si>
-  <si>
-    <t>PG-GLADELEMON_T/P_MD</t>
-  </si>
-  <si>
-    <t>Glade Scented Gel Air Freshener Twin Pack – Lemon – 180g x 2</t>
-  </si>
-  <si>
-    <t>https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74</t>
-  </si>
-  <si>
-    <t>PG-GLADETP_LAV</t>
-  </si>
-  <si>
-    <t>Glade Scented Gel Air Freshener Twin Pack – Lavender – 180g x 2</t>
-  </si>
-  <si>
-    <t>https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg</t>
-  </si>
-  <si>
-    <t>PG-GLO800ML_LEMON</t>
-  </si>
-  <si>
-    <t>Glo Active Foam Lemon Dishwashing Liquid – 800ml</t>
-  </si>
-  <si>
-    <t>https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg</t>
-  </si>
-  <si>
-    <t>PG-GLO800ML_LIME_MD</t>
-  </si>
-  <si>
-    <t>Glo Active Foam Lime Dishwashing Liquid – 800ml</t>
-  </si>
-  <si>
-    <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png</t>
-  </si>
-  <si>
-    <t>PG-HOMESOY.1L</t>
-  </si>
-  <si>
-    <t>HOMESOY Original Soya Milk – 1 Liter</t>
-  </si>
-  <si>
-    <t>https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630</t>
-  </si>
-  <si>
-    <t>PG-MR.MF.C1LMD</t>
-  </si>
-  <si>
-    <t>Mr. Muscle Floor Cleaner – 1 Liter</t>
-  </si>
-  <si>
-    <t>https://assets.myboxed.com.my/1680212165434.jpg</t>
-  </si>
-  <si>
-    <t>PG-MRMUSLE_CITRUS</t>
-  </si>
-  <si>
-    <t>Mr Muscle Citrus Toilet Bowl Cleaner 500ml Bottle</t>
-  </si>
-  <si>
-    <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg</t>
-  </si>
-  <si>
-    <t>PG-MRMUSLE_MAR</t>
-  </si>
-  <si>
-    <t>Mr Muscle Marine Toilet Bowl Cleaner 500ml Bottle</t>
-  </si>
-  <si>
-    <t>https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg</t>
-  </si>
-  <si>
-    <t>PG-MRMUSLE_PINE</t>
-  </si>
-  <si>
-    <t>Mr Muscle Pine Toilet Bowl Cleaner 500ml Bottle</t>
-  </si>
-  <si>
-    <t>https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691</t>
-  </si>
-  <si>
-    <t>PG-PREMIER.PTMD</t>
-  </si>
-  <si>
-    <t>PREMIER POCKET TISSUE</t>
-  </si>
-  <si>
-    <t>https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg</t>
-  </si>
-  <si>
-    <t>PG-PRMBOX5x90_MD</t>
-  </si>
-  <si>
-    <t>Premier Tissue Box 5 x 90 Sheets</t>
-  </si>
-  <si>
-    <t>https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png</t>
-  </si>
-  <si>
-    <t>PG-PRMTISSUE4x100s</t>
-  </si>
-  <si>
-    <t>Premier Tissue Box 4 x 100 Sheets</t>
-  </si>
-  <si>
-    <t>https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf</t>
-  </si>
-  <si>
-    <t>PG-RIBENA300MD</t>
-  </si>
-  <si>
-    <t>Ribena Blackcurrant Juice Drink 300ml</t>
-  </si>
-  <si>
-    <t>https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg</t>
-  </si>
-  <si>
-    <t>PG-SB5+1MD</t>
-  </si>
-  <si>
-    <t>Scotch-Brite Tough Clean Scrub Sponges 5-Pack</t>
-  </si>
-  <si>
-    <t>https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg</t>
-  </si>
-  <si>
-    <t>PG-SCOTT_EXTRA</t>
-  </si>
-  <si>
-    <t>Scott Extra Bath Tissue Regular – 20 Packs of 180 Sheets</t>
-  </si>
-  <si>
-    <t>https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png</t>
-  </si>
-  <si>
-    <t>PG-SOFTLAN1.6L_FLO</t>
-  </si>
-  <si>
-    <t>Softlan Anti-Wrinkles Fabric Softener Refill – Floral Fantasy – 1.6L</t>
-  </si>
-  <si>
-    <t>https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480</t>
-  </si>
-  <si>
     <t>PHILIPS</t>
   </si>
   <si>
@@ -1679,6 +1508,9 @@
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
+    <t>Start Effective 1.5.2025 , clear stock on hand</t>
+  </si>
+  <si>
     <t>PANASONIC</t>
   </si>
   <si>
@@ -2042,7 +1874,31 @@
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s</t>
   </si>
   <si>
+    <t>TAPO</t>
+  </si>
+  <si>
+    <t>TP-TAPOC210</t>
+  </si>
+  <si>
+    <t>Tapo C210 2K Pan/Tilt Wi-Fi Security Camera with Night Vision &amp; Baby Cry Detection</t>
+  </si>
+  <si>
+    <t>https://static.tp-link.com/upload/image-line/01_large_20230524004739r.jpg</t>
+  </si>
+  <si>
+    <t>Start Effective 12.5.2025</t>
+  </si>
+  <si>
     <t>TOSHIBA</t>
+  </si>
+  <si>
+    <t>TSB-BL70GS1UMY(K)</t>
+  </si>
+  <si>
+    <t>Toshiba 700W 2.0L Multifunction Blender with LED Display &amp; Glass Jar</t>
+  </si>
+  <si>
+    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70gs1umy(k)---700w-blender/BL-70GS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70GS1UMY-K-00-new.webp</t>
   </si>
   <si>
     <t>TSB-BL70PS1UMY(K)</t>
@@ -2289,7 +2145,7 @@
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_-&quot;RM&quot;* #,##0_-;\-&quot;RM&quot;* #,##0_-;_-&quot;RM&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2318,6 +2174,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2793,13 +2656,10 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2808,125 +2668,130 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -3274,22 +3139,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H216"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" customWidth="1"/>
-    <col min="2" max="2" width="25.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="18.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="20.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="5.66666666666667" customWidth="1"/>
-    <col min="6" max="6" width="9.44444444444444" customWidth="1"/>
-    <col min="7" max="7" width="7.66666666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="43.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3653,7 +3514,7 @@
         <v>6900</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3661,13 +3522,13 @@
         <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2">
         <v>32.9</v>
@@ -3679,7 +3540,7 @@
         <v>1800</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4212,7 +4073,7 @@
       <c r="C36" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="3" t="s">
         <v>123</v>
       </c>
       <c r="E36" s="2">
@@ -4222,10 +4083,11 @@
         <v>119</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" ref="G36:G39" si="0">F36*100</f>
         <v>11900</v>
       </c>
-      <c r="H36" s="2"/>
+      <c r="H36" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
@@ -4237,7 +4099,7 @@
       <c r="C37" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="3" t="s">
         <v>126</v>
       </c>
       <c r="E37" s="2">
@@ -4247,10 +4109,11 @@
         <v>119</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
         <v>11900</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
@@ -4262,7 +4125,7 @@
       <c r="C38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>129</v>
       </c>
       <c r="E38" s="2">
@@ -4272,10 +4135,11 @@
         <v>119</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
         <v>11900</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
@@ -4287,7 +4151,7 @@
       <c r="C39" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>132</v>
       </c>
       <c r="E39" s="2">
@@ -4297,10 +4161,11 @@
         <v>119</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
         <v>11900</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
@@ -4325,7 +4190,7 @@
         <v>19900</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4338,7 +4203,7 @@
       <c r="C41" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="3" t="s">
         <v>138</v>
       </c>
       <c r="E41" s="2">
@@ -4348,10 +4213,11 @@
         <v>199</v>
       </c>
       <c r="G41" s="2">
-        <f>F41*100</f>
         <v>19900</v>
       </c>
-      <c r="H41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
@@ -4376,7 +4242,7 @@
         <v>19900</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4402,7 +4268,7 @@
         <v>19900</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4428,7 +4294,7 @@
         <v>19900</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4454,7 +4320,7 @@
         <v>19900</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4467,7 +4333,7 @@
       <c r="C46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="3" t="s">
         <v>152</v>
       </c>
       <c r="E46" s="2">
@@ -4477,10 +4343,11 @@
         <v>199</v>
       </c>
       <c r="G46" s="2">
-        <f>F46*100</f>
         <v>19900</v>
       </c>
-      <c r="H46" s="2"/>
+      <c r="H46" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
@@ -4492,7 +4359,7 @@
       <c r="C47" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>144</v>
       </c>
       <c r="E47" s="2">
@@ -4502,10 +4369,11 @@
         <v>199</v>
       </c>
       <c r="G47" s="2">
-        <f>F47*100</f>
         <v>19900</v>
       </c>
-      <c r="H47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
@@ -4530,7 +4398,7 @@
         <v>19900</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4556,7 +4424,7 @@
         <v>16900</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4582,7 +4450,7 @@
         <v>16900</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4608,7 +4476,7 @@
         <v>31900</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4634,7 +4502,7 @@
         <v>31900</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4660,7 +4528,7 @@
         <v>15900</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4686,7 +4554,7 @@
         <v>15900</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4712,7 +4580,7 @@
         <v>16900</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4738,7 +4606,7 @@
         <v>16900</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4764,7 +4632,7 @@
         <v>17900</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4790,7 +4658,7 @@
         <v>18900</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4816,7 +4684,7 @@
         <v>18900</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4842,7 +4710,7 @@
         <v>18900</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -4868,7 +4736,7 @@
         <v>18900</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -4894,7 +4762,7 @@
         <v>18900</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -4907,7 +4775,7 @@
       <c r="C63" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>201</v>
       </c>
       <c r="E63" s="2">
@@ -4917,10 +4785,11 @@
         <v>189</v>
       </c>
       <c r="G63" s="2">
-        <f>F63*100</f>
         <v>18900</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
@@ -4945,7 +4814,7 @@
         <v>18900</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -4971,7 +4840,7 @@
         <v>18900</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -4997,7 +4866,7 @@
         <v>23900</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5023,7 +4892,7 @@
         <v>23900</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5049,7 +4918,7 @@
         <v>23900</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5075,7 +4944,7 @@
         <v>25900</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5101,7 +4970,7 @@
         <v>14900</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5127,7 +4996,7 @@
         <v>16900</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5153,7 +5022,7 @@
         <v>18900</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5179,7 +5048,7 @@
         <v>15900</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5205,7 +5074,7 @@
         <v>21900</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5231,7 +5100,7 @@
         <v>13200</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5244,7 +5113,7 @@
       <c r="C76" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="3" t="s">
         <v>236</v>
       </c>
       <c r="E76" s="2">
@@ -5254,10 +5123,11 @@
         <v>159</v>
       </c>
       <c r="G76" s="2">
-        <f>F76*100</f>
         <v>15900</v>
       </c>
-      <c r="H76" s="2"/>
+      <c r="H76" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
@@ -5282,7 +5152,7 @@
         <v>14900</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5308,7 +5178,7 @@
         <v>18900</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5334,7 +5204,7 @@
         <v>49900</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5344,10 +5214,10 @@
       <c r="B80" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="5" t="s">
         <v>251</v>
       </c>
       <c r="E80" s="2">
@@ -5359,9 +5229,7 @@
       <c r="G80" s="2">
         <v>27900</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
@@ -5461,7 +5329,7 @@
         <v>29.9</v>
       </c>
       <c r="G84" s="2">
-        <v>2490</v>
+        <v>2990</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>265</v>
@@ -5490,7 +5358,7 @@
         <v>2090</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5555,7 +5423,7 @@
       <c r="C88" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D88" s="4" t="s">
+      <c r="D88" s="3" t="s">
         <v>278</v>
       </c>
       <c r="E88" s="2">
@@ -5565,23 +5433,24 @@
         <v>89</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" ref="G88:G93" si="1">F88*100</f>
         <v>8900</v>
       </c>
-      <c r="H88" s="2"/>
+      <c r="H88" s="2" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E89" s="2">
         <v>129</v>
@@ -5598,16 +5467,16 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E90" s="2">
         <v>99</v>
@@ -5624,16 +5493,16 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="4" t="s">
         <v>289</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>290</v>
       </c>
       <c r="E91" s="2">
         <v>99</v>
@@ -5642,23 +5511,24 @@
         <v>99</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H91" s="2"/>
+      <c r="H91" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>294</v>
       </c>
       <c r="E92" s="2">
         <v>109</v>
@@ -5667,23 +5537,24 @@
         <v>109</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H92" s="2"/>
+      <c r="H92" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>297</v>
       </c>
       <c r="E93" s="2">
         <v>179</v>
@@ -5692,23 +5563,24 @@
         <v>179</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="1"/>
         <v>17900</v>
       </c>
-      <c r="H93" s="2"/>
+      <c r="H93" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E94" s="2">
         <v>799</v>
@@ -5725,16 +5597,16 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="D95" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>304</v>
       </c>
       <c r="E95" s="2">
         <v>899</v>
@@ -5743,23 +5615,24 @@
         <v>749</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" ref="G95:G98" si="2">F95*100</f>
         <v>74900</v>
       </c>
-      <c r="H95" s="2"/>
+      <c r="H95" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E96" s="2">
         <v>1199</v>
@@ -5776,16 +5649,16 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>310</v>
       </c>
       <c r="E97" s="2">
         <v>1699</v>
@@ -5794,23 +5667,24 @@
         <v>1299</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="2"/>
         <v>129900</v>
       </c>
-      <c r="H97" s="2"/>
+      <c r="H97" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>313</v>
       </c>
       <c r="E98" s="2">
         <v>3099</v>
@@ -5819,23 +5693,24 @@
         <v>2399</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="2"/>
         <v>239900</v>
       </c>
-      <c r="H98" s="2"/>
+      <c r="H98" s="2" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E99" s="2">
         <v>2099</v>
@@ -5847,21 +5722,21 @@
         <v>119900</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E100" s="2">
         <v>2699</v>
@@ -5873,21 +5748,21 @@
         <v>169900</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E101" s="2">
         <v>989</v>
@@ -5904,16 +5779,16 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E102" s="2">
         <v>119</v>
@@ -5930,16 +5805,16 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E103" s="2">
         <v>119</v>
@@ -5956,16 +5831,16 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E104" s="2">
         <v>99</v>
@@ -5982,16 +5857,16 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E105" s="2">
         <v>109</v>
@@ -6008,128 +5883,129 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>339</v>
       </c>
       <c r="E106" s="2">
-        <v>259</v>
+        <v>199</v>
       </c>
       <c r="F106" s="2">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="G106" s="2">
-        <v>18900</v>
+        <v>12900</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>340</v>
+        <v>342</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E107" s="2">
-        <v>399</v>
+        <v>259</v>
       </c>
       <c r="F107" s="2">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="G107" s="2">
-        <f>F107*100</f>
-        <v>22900</v>
-      </c>
-      <c r="H107" s="2"/>
+        <v>18900</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E108" s="2">
-        <v>139</v>
+        <v>399</v>
       </c>
       <c r="F108" s="2">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="G108" s="2">
-        <v>7900</v>
+        <v>23900</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>349</v>
       </c>
       <c r="E109" s="2">
-        <v>139</v>
+        <v>299</v>
       </c>
       <c r="F109" s="2">
-        <v>79</v>
+        <v>229</v>
       </c>
       <c r="G109" s="2">
-        <v>7900</v>
+        <v>22900</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>12</v>
+        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E110" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F110" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G110" s="2">
-        <v>9900</v>
+        <v>7900</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>12</v>
@@ -6137,25 +6013,25 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E111" s="2">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="F111" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G111" s="2">
-        <v>9900</v>
+        <v>7900</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>12</v>
@@ -6163,16 +6039,16 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E112" s="2">
         <v>169</v>
@@ -6189,16 +6065,16 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E113" s="2">
         <v>169</v>
@@ -6215,25 +6091,25 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E114" s="2">
-        <v>499</v>
+        <v>169</v>
       </c>
       <c r="F114" s="2">
-        <v>309</v>
+        <v>99</v>
       </c>
       <c r="G114" s="2">
-        <v>30900</v>
+        <v>9900</v>
       </c>
       <c r="H114" s="2" t="s">
         <v>12</v>
@@ -6241,25 +6117,25 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E115" s="2">
-        <v>549</v>
+        <v>169</v>
       </c>
       <c r="F115" s="2">
-        <v>399</v>
+        <v>99</v>
       </c>
       <c r="G115" s="2">
-        <v>39900</v>
+        <v>9900</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>12</v>
@@ -6267,25 +6143,25 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E116" s="2">
-        <v>179</v>
+        <v>499</v>
       </c>
       <c r="F116" s="2">
-        <v>177</v>
+        <v>309</v>
       </c>
       <c r="G116" s="2">
-        <v>17700</v>
+        <v>30900</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>12</v>
@@ -6293,25 +6169,25 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E117" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F117" s="2">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="G117" s="2">
-        <v>32900</v>
+        <v>39900</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>12</v>
@@ -6319,68 +6195,68 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E118" s="2">
-        <v>1699</v>
+        <v>179</v>
       </c>
       <c r="F118" s="2">
-        <v>999</v>
+        <v>177</v>
       </c>
       <c r="G118" s="2">
-        <v>99900</v>
+        <v>17700</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>377</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E119" s="2">
-        <v>1699</v>
+        <v>559</v>
       </c>
       <c r="F119" s="2">
-        <v>999</v>
+        <v>329</v>
       </c>
       <c r="G119" s="2">
-        <v>99900</v>
+        <v>32900</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>377</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E120" s="2">
         <v>1699</v>
@@ -6392,21 +6268,21 @@
         <v>99900</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E121" s="2">
         <v>1699</v>
@@ -6418,82 +6294,82 @@
         <v>99900</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E122" s="2">
-        <v>209</v>
+        <v>1699</v>
       </c>
       <c r="F122" s="2">
-        <v>189</v>
+        <v>999</v>
       </c>
       <c r="G122" s="2">
-        <v>18900</v>
+        <v>99900</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>12</v>
+        <v>386</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E123" s="2">
-        <v>135</v>
+        <v>1699</v>
       </c>
       <c r="F123" s="2">
-        <v>109</v>
+        <v>999</v>
       </c>
       <c r="G123" s="2">
-        <v>10900</v>
+        <v>99900</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>12</v>
+        <v>386</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E124" s="2">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="F124" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="G124" s="2">
-        <v>20900</v>
+        <v>18900</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>12</v>
@@ -6501,25 +6377,25 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E125" s="2">
+        <v>135</v>
+      </c>
+      <c r="F125" s="2">
         <v>119</v>
       </c>
-      <c r="F125" s="2">
-        <v>99</v>
-      </c>
       <c r="G125" s="2">
-        <v>9900</v>
+        <v>11900</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>12</v>
@@ -6527,68 +6403,68 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E126" s="2">
-        <v>86</v>
+        <v>239</v>
       </c>
       <c r="F126" s="2">
-        <v>84</v>
+        <v>209</v>
       </c>
       <c r="G126" s="2">
-        <v>8400</v>
+        <v>20900</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E127" s="2">
-        <v>86</v>
+        <v>119</v>
       </c>
       <c r="F127" s="2">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="G127" s="2">
-        <v>8400</v>
+        <v>9900</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="E128" s="2">
         <v>86</v>
@@ -6600,47 +6476,47 @@
         <v>8400</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="E129" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F129" s="2">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="G129" s="2">
-        <v>10400</v>
+        <v>8400</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="E130" s="2">
         <v>86</v>
@@ -6652,30 +6528,30 @@
         <v>8400</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="E131" s="2">
         <v>106</v>
       </c>
       <c r="F131" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G131" s="2">
-        <v>10500</v>
+        <v>10400</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>12</v>
@@ -6683,25 +6559,25 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="E132" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F132" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G132" s="2">
-        <v>10500</v>
+        <v>8400</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>12</v>
@@ -6709,25 +6585,25 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E133" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F133" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G133" s="2">
-        <v>8400</v>
+        <v>10500</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>12</v>
@@ -6735,25 +6611,25 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E134" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F134" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G134" s="2">
-        <v>8400</v>
+        <v>10500</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>12</v>
@@ -6761,16 +6637,16 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E135" s="2">
         <v>86</v>
@@ -6787,25 +6663,25 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="E136" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F136" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G136" s="2">
-        <v>7500</v>
+        <v>8400</v>
       </c>
       <c r="H136" s="2" t="s">
         <v>12</v>
@@ -6813,25 +6689,25 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E137" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F137" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G137" s="2">
-        <v>7500</v>
+        <v>8400</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>12</v>
@@ -6839,16 +6715,16 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E138" s="2">
         <v>77</v>
@@ -6865,25 +6741,25 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E139" s="2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F139" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G139" s="2">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>12</v>
@@ -6891,25 +6767,25 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>441</v>
+        <v>410</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E140" s="2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F140" s="2">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G140" s="2">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>12</v>
@@ -6917,16 +6793,16 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E141" s="2">
         <v>69</v>
@@ -6943,25 +6819,25 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E142" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F142" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G142" s="2">
-        <v>8900</v>
+        <v>6900</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>12</v>
@@ -6969,25 +6845,25 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E143" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="F143" s="2">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="G143" s="2">
-        <v>8900</v>
+        <v>6900</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>12</v>
@@ -6995,16 +6871,16 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E144" s="2">
         <v>89</v>
@@ -7021,25 +6897,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E145" s="2">
-        <v>39.9</v>
+        <v>89</v>
       </c>
       <c r="F145" s="2">
-        <v>39.9</v>
+        <v>89</v>
       </c>
       <c r="G145" s="2">
-        <v>3990</v>
+        <v>8900</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>12</v>
@@ -7047,751 +6923,753 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E146" s="2">
-        <v>14.4</v>
+        <v>89</v>
       </c>
       <c r="F146" s="2">
-        <v>14.4</v>
+        <v>89</v>
       </c>
       <c r="G146" s="2">
-        <v>1440</v>
+        <v>8900</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E147" s="2">
-        <v>15.5</v>
+        <v>39.9</v>
       </c>
       <c r="F147" s="2">
-        <v>15.5</v>
+        <v>39.9</v>
       </c>
       <c r="G147" s="2">
-        <v>1550</v>
+        <v>3990</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E148" s="2">
-        <v>16.9</v>
+        <v>18.9</v>
       </c>
       <c r="F148" s="2">
-        <v>16.9</v>
+        <v>18.9</v>
       </c>
       <c r="G148" s="2">
-        <v>1690</v>
+        <v>1890</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="E149" s="2">
-        <v>18.9</v>
+        <v>149</v>
       </c>
       <c r="F149" s="2">
-        <v>18.9</v>
+        <v>142</v>
       </c>
       <c r="G149" s="2">
-        <v>1890</v>
+        <v>14200</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="E150" s="2">
-        <v>9.9</v>
+        <v>289</v>
       </c>
       <c r="F150" s="2">
-        <v>9.9</v>
+        <v>279</v>
       </c>
       <c r="G150" s="2">
-        <v>990</v>
+        <v>27900</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E151" s="2">
-        <v>18.5</v>
+        <v>199</v>
       </c>
       <c r="F151" s="2">
-        <v>18.5</v>
+        <v>169</v>
       </c>
       <c r="G151" s="2">
-        <v>1850</v>
+        <v>16900</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E152" s="2">
-        <v>11.9</v>
+        <v>289</v>
       </c>
       <c r="F152" s="2">
-        <v>11.9</v>
+        <v>229</v>
       </c>
       <c r="G152" s="2">
-        <v>1190</v>
+        <v>22900</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>467</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="E153" s="2">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="F153" s="2">
-        <v>18</v>
+        <v>189</v>
       </c>
       <c r="G153" s="2">
-        <v>1800</v>
+        <v>18900</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="E154" s="2">
-        <v>18.5</v>
+        <v>469</v>
       </c>
       <c r="F154" s="2">
-        <v>18.5</v>
+        <v>449</v>
       </c>
       <c r="G154" s="2">
-        <v>1850</v>
+        <v>44900</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="E155" s="2">
-        <v>4.5</v>
+        <v>30.9</v>
       </c>
       <c r="F155" s="2">
-        <v>4.5</v>
+        <v>30.9</v>
       </c>
       <c r="G155" s="2">
-        <v>450</v>
+        <v>3090</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="E156" s="2">
-        <v>5.7</v>
+        <v>30.9</v>
       </c>
       <c r="F156" s="2">
-        <v>5.7</v>
+        <v>30.9</v>
       </c>
       <c r="G156" s="2">
-        <v>570</v>
+        <v>3090</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E157" s="2">
-        <v>3.5</v>
+        <v>139</v>
       </c>
       <c r="F157" s="2">
-        <v>3.5</v>
+        <v>139</v>
       </c>
       <c r="G157" s="2">
-        <v>350</v>
+        <v>13900</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E158" s="2">
-        <v>8.6</v>
+        <v>109</v>
       </c>
       <c r="F158" s="2">
-        <v>8.6</v>
+        <v>109</v>
       </c>
       <c r="G158" s="2">
-        <v>860</v>
+        <v>10900</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="E159" s="2">
-        <v>8</v>
+        <v>449</v>
       </c>
       <c r="F159" s="2">
-        <v>8</v>
+        <v>399</v>
       </c>
       <c r="G159" s="2">
-        <v>800</v>
+        <v>39900</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="E160" s="2">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="F160" s="2">
-        <v>8</v>
+        <v>129</v>
       </c>
       <c r="G160" s="2">
-        <v>800</v>
+        <v>12900</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="E161" s="2">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="F161" s="2">
-        <v>8</v>
+        <v>259</v>
       </c>
       <c r="G161" s="2">
-        <v>800</v>
+        <v>25900</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>467</v>
+        <v>53</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="E162" s="2">
-        <v>3.3</v>
+        <v>219</v>
       </c>
       <c r="F162" s="2">
-        <v>3.3</v>
+        <v>219</v>
       </c>
       <c r="G162" s="2">
-        <v>330</v>
+        <v>21900</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="E163" s="2">
-        <v>11.5</v>
+        <v>3999</v>
       </c>
       <c r="F163" s="2">
-        <v>11.5</v>
+        <v>3099</v>
       </c>
       <c r="G163" s="2">
-        <v>1150</v>
+        <v>309900</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>463</v>
+        <v>527</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="E164" s="2">
-        <v>8.1</v>
+        <v>3699</v>
       </c>
       <c r="F164" s="2">
-        <v>8.1</v>
+        <v>2899</v>
       </c>
       <c r="G164" s="2">
-        <v>810</v>
+        <v>289900</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>467</v>
+        <v>531</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>463</v>
+        <v>535</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>522</v>
+        <v>536</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E165" s="2">
-        <v>2.6</v>
+        <v>1999</v>
       </c>
       <c r="F165" s="2">
-        <v>2.6</v>
+        <v>1499</v>
       </c>
       <c r="G165" s="2">
-        <v>260</v>
+        <v>149900</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="E166" s="2">
-        <v>9.1</v>
+        <v>30</v>
       </c>
       <c r="F166" s="2">
-        <v>9.1</v>
+        <v>30</v>
       </c>
       <c r="G166" s="2">
-        <v>910</v>
+        <v>3000</v>
       </c>
       <c r="H166" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="E167" s="2">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="F167" s="2">
-        <v>16.5</v>
+        <v>36</v>
       </c>
       <c r="G167" s="2">
-        <v>1650</v>
+        <v>3600</v>
       </c>
       <c r="H167" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="E168" s="2">
-        <v>7.9</v>
+        <v>35</v>
       </c>
       <c r="F168" s="2">
-        <v>7.9</v>
+        <v>35</v>
       </c>
       <c r="G168" s="2">
-        <v>790</v>
+        <v>3500</v>
       </c>
       <c r="H168" s="2" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="E169" s="2">
-        <v>149</v>
+        <v>35</v>
       </c>
       <c r="F169" s="2">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="G169" s="2">
-        <v>14200</v>
+        <v>3500</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>539</v>
+        <v>552</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>540</v>
+        <v>475</v>
       </c>
       <c r="E170" s="2">
-        <v>289</v>
+        <v>15</v>
       </c>
       <c r="F170" s="2">
-        <v>279</v>
+        <v>15</v>
       </c>
       <c r="G170" s="2">
-        <v>27900</v>
+        <v>1500</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="E171" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="F171" s="2">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="G171" s="2">
-        <v>16900</v>
+        <v>4000</v>
       </c>
       <c r="H171" s="2" t="s">
-        <v>12</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="D172" s="4" t="s">
-        <v>546</v>
+        <v>557</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>558</v>
       </c>
       <c r="E172" s="2">
-        <v>289</v>
+        <v>50</v>
       </c>
       <c r="F172" s="2">
-        <v>229</v>
+        <v>50</v>
       </c>
       <c r="G172" s="2">
-        <f>F172*100</f>
-        <v>22900</v>
-      </c>
-      <c r="H172" s="2"/>
+        <v>5000</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>549</v>
+        <v>561</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>562</v>
       </c>
       <c r="E173" s="2">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="F173" s="2">
-        <v>189</v>
+        <v>299</v>
       </c>
       <c r="G173" s="2">
-        <f>F173*100</f>
-        <v>18900</v>
-      </c>
-      <c r="H173" s="2"/>
+        <v>29900</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
       <c r="E174" s="2">
-        <v>469</v>
+        <v>229</v>
       </c>
       <c r="F174" s="2">
-        <v>449</v>
+        <v>229</v>
       </c>
       <c r="G174" s="2">
-        <v>44900</v>
+        <v>22900</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>12</v>
@@ -7799,129 +7677,129 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="E175" s="2">
-        <v>30.9</v>
+        <v>339</v>
       </c>
       <c r="F175" s="2">
-        <v>30.9</v>
+        <v>329</v>
       </c>
       <c r="G175" s="2">
-        <v>3090</v>
+        <v>32900</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>557</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="E176" s="2">
-        <v>30.9</v>
+        <v>129</v>
       </c>
       <c r="F176" s="2">
-        <v>30.9</v>
+        <v>125</v>
       </c>
       <c r="G176" s="2">
-        <v>3090</v>
+        <v>12500</v>
       </c>
       <c r="H176" s="2" t="s">
-        <v>557</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="E177" s="2">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F177" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G177" s="2">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>565</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="E178" s="2">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="F178" s="2">
-        <v>109</v>
+        <v>199</v>
       </c>
       <c r="G178" s="2">
-        <v>10900</v>
+        <v>19900</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>565</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>569</v>
+        <v>576</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="E179" s="2">
-        <v>449</v>
+        <v>179</v>
       </c>
       <c r="F179" s="2">
-        <v>399</v>
+        <v>159</v>
       </c>
       <c r="G179" s="2">
-        <v>39900</v>
+        <v>15900</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>12</v>
@@ -7929,389 +7807,389 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
       <c r="E180" s="2">
-        <v>129</v>
+        <v>299</v>
       </c>
       <c r="F180" s="2">
-        <v>129</v>
+        <v>229</v>
       </c>
       <c r="G180" s="2">
-        <v>12900</v>
+        <v>22900</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>12</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="E181" s="2">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="F181" s="2">
-        <v>259</v>
+        <v>129</v>
       </c>
       <c r="G181" s="2">
-        <v>25900</v>
+        <v>12900</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E182" s="2">
-        <v>219</v>
+        <v>299</v>
       </c>
       <c r="F182" s="2">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="G182" s="2">
-        <v>21900</v>
+        <v>18900</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>557</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="E183" s="2">
-        <v>3999</v>
+        <v>159</v>
       </c>
       <c r="F183" s="2">
-        <v>3099</v>
+        <v>99</v>
       </c>
       <c r="G183" s="2">
-        <v>309900</v>
+        <v>9900</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="E184" s="2">
-        <v>3699</v>
+        <v>449</v>
       </c>
       <c r="F184" s="2">
-        <v>2899</v>
+        <v>299</v>
       </c>
       <c r="G184" s="2">
-        <v>289900</v>
+        <v>29900</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>587</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="E185" s="2">
-        <v>1999</v>
+        <v>499</v>
       </c>
       <c r="F185" s="2">
-        <v>1499</v>
+        <v>299</v>
       </c>
       <c r="G185" s="2">
-        <v>149900</v>
+        <v>29900</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>12</v>
+        <v>509</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="E186" s="2">
-        <v>30</v>
+        <v>1299</v>
       </c>
       <c r="F186" s="2">
-        <v>30</v>
+        <v>1099</v>
       </c>
       <c r="G186" s="2">
-        <v>3000</v>
+        <v>109900</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="E187" s="2">
-        <v>36</v>
+        <v>1899</v>
       </c>
       <c r="F187" s="2">
-        <v>36</v>
+        <v>1699</v>
       </c>
       <c r="G187" s="2">
-        <v>3600</v>
+        <v>169900</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="E188" s="2">
-        <v>35</v>
+        <v>1499</v>
       </c>
       <c r="F188" s="2">
-        <v>35</v>
+        <v>1299</v>
       </c>
       <c r="G188" s="2">
-        <v>3500</v>
+        <v>129900</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="E189" s="2">
-        <v>35</v>
+        <v>499</v>
       </c>
       <c r="F189" s="2">
-        <v>35</v>
+        <v>499</v>
       </c>
       <c r="G189" s="2">
-        <v>3500</v>
+        <v>49900</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>467</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>476</v>
+        <v>617</v>
+      </c>
+      <c r="D190" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="E190" s="2">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F190" s="2">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="G190" s="2">
-        <v>1500</v>
+        <v>10900</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>467</v>
+        <v>619</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>610</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>611</v>
+        <v>622</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>623</v>
       </c>
       <c r="E191" s="2">
-        <v>40</v>
+        <v>499</v>
       </c>
       <c r="F191" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="G191" s="2">
-        <v>4000</v>
+        <v>32900</v>
       </c>
       <c r="H191" s="2" t="s">
-        <v>467</v>
+        <v>340</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>595</v>
+        <v>620</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="E192" s="2">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="F192" s="2">
-        <v>50</v>
+        <v>259</v>
       </c>
       <c r="G192" s="2">
-        <v>5000</v>
+        <v>25900</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>467</v>
+        <v>509</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="E193" s="2">
-        <v>299</v>
+        <v>349</v>
       </c>
       <c r="F193" s="2">
-        <v>299</v>
+        <v>229</v>
       </c>
       <c r="G193" s="2">
-        <v>29900</v>
+        <v>22900</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>12</v>
+        <v>501</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="E194" s="2">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="F194" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="G194" s="2">
-        <v>22900</v>
+        <v>13900</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>12</v>
@@ -8319,25 +8197,25 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="E195" s="2">
-        <v>339</v>
+        <v>599</v>
       </c>
       <c r="F195" s="2">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="G195" s="2">
-        <v>32900</v>
+        <v>41900</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>12</v>
@@ -8345,199 +8223,201 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>626</v>
+        <v>637</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>627</v>
+        <v>638</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>628</v>
+        <v>639</v>
       </c>
       <c r="E196" s="2">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="F196" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G196" s="2">
-        <v>10900</v>
+        <v>8900</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>629</v>
+        <v>640</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>630</v>
+        <v>641</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>631</v>
+        <v>642</v>
       </c>
       <c r="E197" s="2">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="F197" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G197" s="2">
-        <v>11900</v>
+        <v>9900</v>
       </c>
       <c r="H197" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="D198" s="4" t="s">
-        <v>635</v>
+        <v>644</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>645</v>
       </c>
       <c r="E198" s="2">
-        <v>209</v>
+        <v>99</v>
       </c>
       <c r="F198" s="2">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="G198" s="2">
-        <f>F198*100</f>
-        <v>19900</v>
-      </c>
-      <c r="H198" s="2"/>
+        <v>9900</v>
+      </c>
+      <c r="H198" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="E199" s="2">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="F199" s="2">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="G199" s="2">
-        <v>15900</v>
+        <v>8900</v>
       </c>
       <c r="H199" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>640</v>
-      </c>
-      <c r="D200" s="4" t="s">
-        <v>641</v>
+        <v>650</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>651</v>
       </c>
       <c r="E200" s="2">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="F200" s="2">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="G200" s="2">
-        <f>F200*100</f>
-        <v>19900</v>
-      </c>
-      <c r="H200" s="2"/>
+        <v>8900</v>
+      </c>
+      <c r="H200" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="E201" s="2">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="F201" s="2">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="G201" s="2">
-        <v>12900</v>
+        <v>8900</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="E202" s="2">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="F202" s="2">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="G202" s="2">
-        <v>18900</v>
+        <v>9900</v>
       </c>
       <c r="H202" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="E203" s="2">
-        <v>159</v>
+        <v>99</v>
       </c>
       <c r="F203" s="2">
         <v>99</v>
@@ -8546,290 +8426,290 @@
         <v>9900</v>
       </c>
       <c r="H203" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="E204" s="2">
-        <v>449</v>
+        <v>99</v>
       </c>
       <c r="F204" s="2">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="G204" s="2">
-        <v>29900</v>
+        <v>9900</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="E205" s="2">
-        <v>499</v>
+        <v>99</v>
       </c>
       <c r="F205" s="2">
-        <v>299</v>
+        <v>99</v>
       </c>
       <c r="G205" s="2">
-        <v>29900</v>
+        <v>9900</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>565</v>
+        <v>21</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>658</v>
+        <v>667</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>659</v>
+        <v>668</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="E206" s="2">
-        <v>1299</v>
+        <v>99</v>
       </c>
       <c r="F206" s="2">
-        <v>879</v>
+        <v>99</v>
       </c>
       <c r="G206" s="2">
-        <v>87900</v>
+        <v>9900</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>661</v>
+        <v>670</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="D207" s="3" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="E207" s="2">
-        <v>1899</v>
+        <v>89</v>
       </c>
       <c r="F207" s="2">
-        <v>1399</v>
+        <v>89</v>
       </c>
       <c r="G207" s="2">
-        <v>139900</v>
+        <v>8900</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>657</v>
+        <v>636</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="E208" s="2">
-        <v>1499</v>
+        <v>89</v>
       </c>
       <c r="F208" s="2">
-        <v>1049</v>
+        <v>89</v>
       </c>
       <c r="G208" s="2">
-        <v>104900</v>
+        <v>8900</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" s="2" t="s">
-        <v>667</v>
+        <v>636</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="D209" s="3" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="E209" s="2">
-        <v>499</v>
+        <v>99</v>
       </c>
       <c r="F209" s="2">
-        <v>499</v>
+        <v>99</v>
       </c>
       <c r="G209" s="2">
-        <v>49900</v>
+        <v>9900</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="E210" s="2">
-        <v>389</v>
+        <v>99</v>
       </c>
       <c r="F210" s="2">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="G210" s="2">
-        <v>25900</v>
+        <v>9900</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>565</v>
+        <v>21</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="D211" s="3" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="E211" s="2">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="F211" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="G211" s="2">
-        <v>22900</v>
+        <v>9900</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>557</v>
+        <v>21</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="E212" s="2">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="F212" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="G212" s="2">
-        <v>13900</v>
+        <v>9900</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="D213" s="3" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="E213" s="2">
-        <v>599</v>
+        <v>99</v>
       </c>
       <c r="F213" s="2">
-        <v>419</v>
+        <v>99</v>
       </c>
       <c r="G213" s="2">
-        <v>41900</v>
+        <v>9900</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="E214" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F214" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G214" s="2">
-        <v>8900</v>
+        <v>9900</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>21</v>
@@ -8837,16 +8717,16 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>684</v>
+        <v>636</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="D215" s="3" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="E215" s="2">
         <v>99</v>
@@ -8863,496 +8743,28 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>684</v>
+        <v>697</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="E216" s="2">
-        <v>99</v>
+        <v>1499</v>
       </c>
       <c r="F216" s="2">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G216" s="2">
-        <v>9900</v>
+        <v>99900</v>
       </c>
       <c r="H216" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
-      <c r="A217" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E217" s="2">
-        <v>89</v>
-      </c>
-      <c r="F217" s="2">
-        <v>89</v>
-      </c>
-      <c r="G217" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H217" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="E218" s="2">
-        <v>89</v>
-      </c>
-      <c r="F218" s="2">
-        <v>89</v>
-      </c>
-      <c r="G218" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H218" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="A219" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="C219" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="E219" s="2">
-        <v>89</v>
-      </c>
-      <c r="F219" s="2">
-        <v>89</v>
-      </c>
-      <c r="G219" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
-      <c r="A220" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="E220" s="2">
-        <v>99</v>
-      </c>
-      <c r="F220" s="2">
-        <v>99</v>
-      </c>
-      <c r="G220" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>708</v>
-      </c>
-      <c r="E221" s="2">
-        <v>99</v>
-      </c>
-      <c r="F221" s="2">
-        <v>99</v>
-      </c>
-      <c r="G221" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="A222" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>710</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>711</v>
-      </c>
-      <c r="E222" s="2">
-        <v>99</v>
-      </c>
-      <c r="F222" s="2">
-        <v>99</v>
-      </c>
-      <c r="G222" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H222" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
-      <c r="A223" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>714</v>
-      </c>
-      <c r="E223" s="2">
-        <v>99</v>
-      </c>
-      <c r="F223" s="2">
-        <v>99</v>
-      </c>
-      <c r="G223" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H223" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="D224" s="3" t="s">
-        <v>717</v>
-      </c>
-      <c r="E224" s="2">
-        <v>99</v>
-      </c>
-      <c r="F224" s="2">
-        <v>99</v>
-      </c>
-      <c r="G224" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="A225" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="D225" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="E225" s="2">
-        <v>89</v>
-      </c>
-      <c r="F225" s="2">
-        <v>89</v>
-      </c>
-      <c r="G225" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
-      <c r="A226" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D226" s="3" t="s">
-        <v>723</v>
-      </c>
-      <c r="E226" s="2">
-        <v>89</v>
-      </c>
-      <c r="F226" s="2">
-        <v>89</v>
-      </c>
-      <c r="G226" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H226" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="D227" s="3" t="s">
-        <v>726</v>
-      </c>
-      <c r="E227" s="2">
-        <v>99</v>
-      </c>
-      <c r="F227" s="2">
-        <v>99</v>
-      </c>
-      <c r="G227" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H227" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="A228" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D228" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="E228" s="2">
-        <v>99</v>
-      </c>
-      <c r="F228" s="2">
-        <v>99</v>
-      </c>
-      <c r="G228" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H228" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
-      <c r="A229" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="D229" s="3" t="s">
-        <v>732</v>
-      </c>
-      <c r="E229" s="2">
-        <v>99</v>
-      </c>
-      <c r="F229" s="2">
-        <v>99</v>
-      </c>
-      <c r="G229" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H229" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="D230" s="3" t="s">
-        <v>735</v>
-      </c>
-      <c r="E230" s="2">
-        <v>99</v>
-      </c>
-      <c r="F230" s="2">
-        <v>99</v>
-      </c>
-      <c r="G230" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H230" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="A231" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="D231" s="3" t="s">
-        <v>738</v>
-      </c>
-      <c r="E231" s="2">
-        <v>99</v>
-      </c>
-      <c r="F231" s="2">
-        <v>99</v>
-      </c>
-      <c r="G231" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H231" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
-      <c r="A232" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="E232" s="2">
-        <v>99</v>
-      </c>
-      <c r="F232" s="2">
-        <v>99</v>
-      </c>
-      <c r="G232" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H232" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="D233" s="3" t="s">
-        <v>744</v>
-      </c>
-      <c r="E233" s="2">
-        <v>99</v>
-      </c>
-      <c r="F233" s="2">
-        <v>99</v>
-      </c>
-      <c r="G233" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H233" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="A234" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D234" s="3" t="s">
-        <v>748</v>
-      </c>
-      <c r="E234" s="2">
-        <v>1499</v>
-      </c>
-      <c r="F234" s="2">
-        <v>999</v>
-      </c>
-      <c r="G234" s="2">
-        <v>99900</v>
-      </c>
-      <c r="H234" s="2" t="s">
-        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -9391,205 +8803,187 @@
     <hyperlink ref="D33" r:id="rId32" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
     <hyperlink ref="D34" r:id="rId33" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
     <hyperlink ref="D35" r:id="rId34" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
-    <hyperlink ref="D44" r:id="rId35" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D45" r:id="rId36" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
-    <hyperlink ref="D48" r:id="rId37" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D49" r:id="rId38" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D50" r:id="rId39" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
-    <hyperlink ref="D51" r:id="rId40" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D52" r:id="rId40" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D53" r:id="rId41" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
-    <hyperlink ref="D54" r:id="rId42" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
-    <hyperlink ref="D55" r:id="rId43" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
-    <hyperlink ref="D56" r:id="rId44" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
-    <hyperlink ref="D57" r:id="rId45" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
-    <hyperlink ref="D58" r:id="rId46" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
-    <hyperlink ref="D59" r:id="rId47" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
-    <hyperlink ref="D60" r:id="rId48" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
-    <hyperlink ref="D61" r:id="rId49" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
-    <hyperlink ref="D62" r:id="rId50" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
-    <hyperlink ref="D64" r:id="rId51" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
-    <hyperlink ref="D65" r:id="rId52" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
-    <hyperlink ref="D66" r:id="rId53" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
-    <hyperlink ref="D67" r:id="rId54" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
-    <hyperlink ref="D68" r:id="rId55" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
-    <hyperlink ref="D69" r:id="rId56" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
-    <hyperlink ref="D70" r:id="rId57" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D71" r:id="rId58" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
-    <hyperlink ref="D72" r:id="rId57" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D73" r:id="rId59" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
-    <hyperlink ref="D74" r:id="rId60" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
-    <hyperlink ref="D75" r:id="rId61" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D77" r:id="rId62" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
-    <hyperlink ref="D78" r:id="rId63" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
-    <hyperlink ref="D79" r:id="rId64" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
-    <hyperlink ref="D80" r:id="rId65" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
-    <hyperlink ref="D81" r:id="rId66" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
-    <hyperlink ref="D82" r:id="rId67" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
-    <hyperlink ref="D83" r:id="rId68" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D84" r:id="rId69" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
-    <hyperlink ref="D85" r:id="rId70" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
-    <hyperlink ref="D86" r:id="rId71" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
-    <hyperlink ref="D87" r:id="rId72" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
-    <hyperlink ref="D89" r:id="rId73" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
-    <hyperlink ref="D90" r:id="rId74" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
-    <hyperlink ref="D94" r:id="rId75" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
-    <hyperlink ref="D96" r:id="rId76" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
-    <hyperlink ref="D99" r:id="rId77" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
-    <hyperlink ref="D100" r:id="rId78" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
-    <hyperlink ref="D101" r:id="rId79" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D102" r:id="rId80" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
-    <hyperlink ref="D103" r:id="rId81" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
-    <hyperlink ref="D104" r:id="rId82" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
-    <hyperlink ref="D105" r:id="rId83" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
-    <hyperlink ref="D106" r:id="rId84" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
-    <hyperlink ref="D108" r:id="rId85" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
-    <hyperlink ref="D109" r:id="rId86" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
-    <hyperlink ref="D110" r:id="rId87" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
-    <hyperlink ref="D111" r:id="rId88" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
-    <hyperlink ref="D112" r:id="rId89" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
-    <hyperlink ref="D113" r:id="rId90" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
-    <hyperlink ref="D114" r:id="rId91" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
-    <hyperlink ref="D115" r:id="rId92" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
-    <hyperlink ref="D116" r:id="rId93" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
-    <hyperlink ref="D117" r:id="rId94" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
-    <hyperlink ref="D118" r:id="rId95" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
-    <hyperlink ref="D119" r:id="rId96" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
-    <hyperlink ref="D120" r:id="rId97" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
-    <hyperlink ref="D121" r:id="rId98" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
-    <hyperlink ref="D122" r:id="rId99" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
-    <hyperlink ref="D123" r:id="rId100" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
-    <hyperlink ref="D124" r:id="rId101" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
-    <hyperlink ref="D125" r:id="rId102" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D126" r:id="rId103" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
-    <hyperlink ref="D127" r:id="rId104" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D128" r:id="rId105" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D129" r:id="rId106" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
-    <hyperlink ref="D130" r:id="rId107" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
-    <hyperlink ref="D131" r:id="rId108" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D132" r:id="rId109" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D133" r:id="rId110" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
-    <hyperlink ref="D134" r:id="rId111" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
-    <hyperlink ref="D135" r:id="rId112" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
-    <hyperlink ref="D136" r:id="rId113" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D137" r:id="rId114" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D138" r:id="rId115" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D139" r:id="rId116" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
-    <hyperlink ref="D140" r:id="rId117" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
-    <hyperlink ref="D141" r:id="rId118" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
-    <hyperlink ref="D142" r:id="rId119" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
-    <hyperlink ref="D143" r:id="rId120" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
-    <hyperlink ref="D144" r:id="rId121" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
-    <hyperlink ref="D145" r:id="rId122" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
-    <hyperlink ref="D146" r:id="rId123" display="https://down-my.img.susercontent.com/file/e7035eefab4f4ba7106d6214b675cf13"/>
-    <hyperlink ref="D147" r:id="rId124" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/129279_21042024152719-800x800.jpg"/>
-    <hyperlink ref="D148" r:id="rId125" display="https://i.ibb.co/d4J1JHZQ/564515-01.png"/>
-    <hyperlink ref="D149" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D150" r:id="rId127" display="https://i.ibb.co/XHfHxrP/darlie-double-action-toothpaste.png"/>
-    <hyperlink ref="D151" r:id="rId128" display="https://my-test-11.slatic.net/p/9e72949b179b6dcb31ba72aabca246f3.png"/>
-    <hyperlink ref="D152" r:id="rId129" display="https://iili.io/3FH357a.md.png"/>
-    <hyperlink ref="D153" r:id="rId130" display="https://down-my.img.susercontent.com/file/08c95ccf2dd8a188ff23004b83af8c74"/>
-    <hyperlink ref="D154" r:id="rId131" display="https://cdn.homepro.com.my/ART_IMAGE/10/743/1074330/447x447/23052024_1074330$Imagex1.jpg"/>
-    <hyperlink ref="D155" r:id="rId132" display="https://www.myck.sg/wp-content/uploads/2022/02/9556031090066-600x600.jpg"/>
-    <hyperlink ref="D156" r:id="rId133" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/1/1/118554_1-glo-lime-dishwash-liquid-800ml.png"/>
-    <hyperlink ref="D157" r:id="rId134" display="https://jgut.jayagrocer.com/cdn/shop/products/029286-1-1_ae726f8d-b798-4bc9-8fd5-f5346035884b_1200x.jpg?v=1708456630"/>
-    <hyperlink ref="D158" r:id="rId135" display="https://assets.myboxed.com.my/1680212165434.jpg"/>
-    <hyperlink ref="D159" r:id="rId136" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034091/447x447/29072024_1034091$Imagex1.jpg"/>
-    <hyperlink ref="D160" r:id="rId137" display="https://cdn.homepro.com.my/ART_IMAGE/10/340/1034080/447x447/29072024_1034080$Imagex1.jpg"/>
-    <hyperlink ref="D161" r:id="rId138" display="https://www.bites.com.my/cdn/shop/products/1646831279912_8417.png?v=1698935691"/>
-    <hyperlink ref="D162" r:id="rId139" display="https://crm.sunshineonline.com.my/crmfileshare01/image/sunshine/cache/product/100822_08092023143453-550x550.jpg"/>
-    <hyperlink ref="D163" r:id="rId140" display="https://cdn1.npcdn.net/images/1662618377476aadd143f568d951a99b56fa0cd71a.webp?md5id=9403726f748a529821f7df4779ea9578&amp;new_width=1000&amp;new_height=1000&amp;size=max&amp;w=1674980306&amp;from=png"/>
-    <hyperlink ref="D164" r:id="rId141" display="https://down-my.img.susercontent.com/file/5d03c5e72e0f04a118fb822e8362f1bf"/>
-    <hyperlink ref="D165" r:id="rId142" display="https://publish-p35803-e190640.adobeaemcloud.com/content/dam/aem-cplotusonlinecommerce-project/my/images/magento/catalog/product/r/i/ribena_lotus_packshot_reg1707215815.jpg"/>
-    <hyperlink ref="D166" r:id="rId143" display="https://www.pantryexpress.my/2264-large_default/3m-scotch-brite-tough-clean-scrub-sponges-5s.jpg"/>
-    <hyperlink ref="D167" r:id="rId144" display="https://qrafoods.com/pub/media/catalog/product/cache/9de5ed1e9d3f8f9d1bdcffdb908bd0f3/_/1/_1_2_121823_1-scott-extra-regular-bt-2ply-180s-20rolls.png"/>
-    <hyperlink ref="D168" r:id="rId145" display="https://images.deliveryhero.io/image/darkstores-my/Aone%20Plus%20-%20Colgate%20Pamolive/9556031313530%20-1.jpg?height=480"/>
-    <hyperlink ref="D169" r:id="rId146" display="https://iili.io/3FHwaQn.md.jpg"/>
-    <hyperlink ref="D170" r:id="rId147" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D171" r:id="rId148" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D174" r:id="rId149" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="D175" r:id="rId150" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
-    <hyperlink ref="D176" r:id="rId151" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
-    <hyperlink ref="D177" r:id="rId152" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
-    <hyperlink ref="D178" r:id="rId153" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
-    <hyperlink ref="D179" r:id="rId154" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D180" r:id="rId155" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
-    <hyperlink ref="D181" r:id="rId156" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
-    <hyperlink ref="D182" r:id="rId157" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
-    <hyperlink ref="D183" r:id="rId158" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
-    <hyperlink ref="D184" r:id="rId159" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
-    <hyperlink ref="D185" r:id="rId160" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
-    <hyperlink ref="D186" r:id="rId161" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
-    <hyperlink ref="D187" r:id="rId162" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
-    <hyperlink ref="D188" r:id="rId163" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D189" r:id="rId163" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D190" r:id="rId126" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D191" r:id="rId164" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
-    <hyperlink ref="D192" r:id="rId165" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
-    <hyperlink ref="D193" r:id="rId166" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
-    <hyperlink ref="D194" r:id="rId167" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
-    <hyperlink ref="D195" r:id="rId168" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
-    <hyperlink ref="D196" r:id="rId169" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
-    <hyperlink ref="D197" r:id="rId170" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
-    <hyperlink ref="D199" r:id="rId171" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
-    <hyperlink ref="D201" r:id="rId172" display="https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive"/>
-    <hyperlink ref="D202" r:id="rId173" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D203" r:id="rId174" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
-    <hyperlink ref="D204" r:id="rId175" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D205" r:id="rId176" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D206" r:id="rId177" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
-    <hyperlink ref="D207" r:id="rId178" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
-    <hyperlink ref="D208" r:id="rId179" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
-    <hyperlink ref="D209" r:id="rId180" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
-    <hyperlink ref="D210" r:id="rId181" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D211" r:id="rId182" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
-    <hyperlink ref="D212" r:id="rId183" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
-    <hyperlink ref="D213" r:id="rId184" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
-    <hyperlink ref="D214" r:id="rId185" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
-    <hyperlink ref="D215" r:id="rId186" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
-    <hyperlink ref="D216" r:id="rId187" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
-    <hyperlink ref="D217" r:id="rId188" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
-    <hyperlink ref="D218" r:id="rId189" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
-    <hyperlink ref="D219" r:id="rId190" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
-    <hyperlink ref="D220" r:id="rId191" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
-    <hyperlink ref="D221" r:id="rId192" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
-    <hyperlink ref="D222" r:id="rId193" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
-    <hyperlink ref="D223" r:id="rId194" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
-    <hyperlink ref="D224" r:id="rId195" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
-    <hyperlink ref="D225" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
-    <hyperlink ref="D226" r:id="rId197" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
-    <hyperlink ref="D227" r:id="rId198" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
-    <hyperlink ref="D228" r:id="rId199" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
-    <hyperlink ref="D229" r:id="rId200" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
-    <hyperlink ref="D230" r:id="rId201" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
-    <hyperlink ref="D231" r:id="rId202" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
-    <hyperlink ref="D232" r:id="rId203" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
-    <hyperlink ref="D233" r:id="rId204" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
-    <hyperlink ref="D234" r:id="rId205" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
-    <hyperlink ref="D39" r:id="rId206" display="https://my-test-11.slatic.net/p/a870770fd70848675717df95ae9c67b9.jpg"/>
-    <hyperlink ref="D38" r:id="rId207" display="https://m.media-amazon.com/images/I/51GvK1XSYKL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D36" r:id="rId208" display="https://my-test-11.slatic.net/p/7bfbf1874ae455d72e9b6d22efa8cfe0.jpg"/>
-    <hyperlink ref="D37" r:id="rId209" display="https://img.lazcdn.com/g/p/22b5039602bc9746d8d9a4dee6a49c2c.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D41" r:id="rId210" display="https://my-test-11.slatic.net/p/c43d0072d7ff9909bbd6d7ec520a0a2a.jpg"/>
-    <hyperlink ref="D40" r:id="rId35" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D42" r:id="rId211" display="https://my-test-11.slatic.net/p/3da38d7d6a91c35493574a98d5e4e170.jpg"/>
-    <hyperlink ref="D43" r:id="rId212" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
-    <hyperlink ref="D47" r:id="rId212" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
-    <hyperlink ref="D46" r:id="rId213" display="https://my-test-11.slatic.net/p/2e14ab03a674f37ddd96c549ec4ff079.jpg"/>
-    <hyperlink ref="D63" r:id="rId214" display="https://down-my.img.susercontent.com/file/3a11f75aeda53fc29000b656c78ea1af"/>
-    <hyperlink ref="D76" r:id="rId61" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D88" r:id="rId215" display="https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg"/>
-    <hyperlink ref="D91" r:id="rId216" display="https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg"/>
-    <hyperlink ref="D92" r:id="rId217" display="https://www.tmt.my/data/editor/sc-product/21366/JINCASE-JF83-TABLE-FAN-1.jpg"/>
-    <hyperlink ref="D93" r:id="rId218" display="https://www.tmt.my/data/editor/sc-product/21364/JINCASE-JF91-HANDHELD-FAN-1.jpg"/>
-    <hyperlink ref="D95" r:id="rId219" display="https://www.jimmyglobal.com/upload/product/1644304716955187.jpg"/>
-    <hyperlink ref="D97" r:id="rId220" display="https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg"/>
-    <hyperlink ref="D98" r:id="rId221" display="https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7"/>
-    <hyperlink ref="D107" r:id="rId222" display="https://img.srewardscentre.com.my/images/bd627029-cf38-44ff-bcef-2c3fb30d1667.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D172" r:id="rId223" display="https://images.philips.com/is/image/philipsconsumer/vrs_2594fc462ee2c5d2f500c65cf5836efcfe8f8be1?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D173" r:id="rId224" display="https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D198" r:id="rId225" display="https://cdn.homepro.com.my/ART_IMAGE/10/731/1073103/447x447/15032024_1073103$Imagex1.jpg"/>
-    <hyperlink ref="D200" r:id="rId226" display="https://dam.groupeseb.com/m/6a8a88d07ce1794a/digital-TEFAL_FV5847M0_Visual1.tif?timestamp=20220701231405&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D36" r:id="rId35" display="https://my-test-11.slatic.net/p/7bfbf1874ae455d72e9b6d22efa8cfe0.jpg"/>
+    <hyperlink ref="D37" r:id="rId36" display="https://img.lazcdn.com/g/p/22b5039602bc9746d8d9a4dee6a49c2c.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D38" r:id="rId37" display="https://m.media-amazon.com/images/I/51GvK1XSYKL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D39" r:id="rId38" display="https://my-test-11.slatic.net/p/a870770fd70848675717df95ae9c67b9.jpg"/>
+    <hyperlink ref="D40" r:id="rId39" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D41" r:id="rId40" display="https://my-test-11.slatic.net/p/c43d0072d7ff9909bbd6d7ec520a0a2a.jpg"/>
+    <hyperlink ref="D42" r:id="rId41" display="https://my-test-11.slatic.net/p/3da38d7d6a91c35493574a98d5e4e170.jpg"/>
+    <hyperlink ref="D43" r:id="rId42" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
+    <hyperlink ref="D44" r:id="rId39" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D45" r:id="rId43" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
+    <hyperlink ref="D46" r:id="rId44" display="https://my-test-11.slatic.net/p/2e14ab03a674f37ddd96c549ec4ff079.jpg"/>
+    <hyperlink ref="D47" r:id="rId42" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
+    <hyperlink ref="D48" r:id="rId45" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D49" r:id="rId46" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D50" r:id="rId47" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
+    <hyperlink ref="D51" r:id="rId48" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D52" r:id="rId48" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D53" r:id="rId49" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
+    <hyperlink ref="D54" r:id="rId50" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
+    <hyperlink ref="D55" r:id="rId51" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
+    <hyperlink ref="D56" r:id="rId52" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
+    <hyperlink ref="D57" r:id="rId53" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
+    <hyperlink ref="D58" r:id="rId54" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
+    <hyperlink ref="D59" r:id="rId55" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
+    <hyperlink ref="D60" r:id="rId56" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
+    <hyperlink ref="D61" r:id="rId57" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
+    <hyperlink ref="D62" r:id="rId58" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
+    <hyperlink ref="D63" r:id="rId59" display="https://down-my.img.susercontent.com/file/3a11f75aeda53fc29000b656c78ea1af"/>
+    <hyperlink ref="D64" r:id="rId60" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
+    <hyperlink ref="D65" r:id="rId61" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
+    <hyperlink ref="D66" r:id="rId62" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
+    <hyperlink ref="D67" r:id="rId63" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
+    <hyperlink ref="D68" r:id="rId64" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
+    <hyperlink ref="D69" r:id="rId65" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
+    <hyperlink ref="D70" r:id="rId66" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D71" r:id="rId67" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
+    <hyperlink ref="D72" r:id="rId66" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D73" r:id="rId68" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
+    <hyperlink ref="D74" r:id="rId69" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
+    <hyperlink ref="D75" r:id="rId70" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D76" r:id="rId70" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D77" r:id="rId71" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
+    <hyperlink ref="D78" r:id="rId72" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
+    <hyperlink ref="D79" r:id="rId73" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
+    <hyperlink ref="D81" r:id="rId74" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
+    <hyperlink ref="D82" r:id="rId75" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
+    <hyperlink ref="D83" r:id="rId76" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D84" r:id="rId77" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
+    <hyperlink ref="D85" r:id="rId78" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
+    <hyperlink ref="D86" r:id="rId79" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
+    <hyperlink ref="D87" r:id="rId80" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
+    <hyperlink ref="D88" r:id="rId81" display="https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg"/>
+    <hyperlink ref="D89" r:id="rId82" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
+    <hyperlink ref="D90" r:id="rId83" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
+    <hyperlink ref="D91" r:id="rId84" display="https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg"/>
+    <hyperlink ref="D92" r:id="rId85" display="https://www.tmt.my/data/editor/sc-product/21366/JINCASE-JF83-TABLE-FAN-1.jpg"/>
+    <hyperlink ref="D93" r:id="rId86" display="https://www.tmt.my/data/editor/sc-product/21364/JINCASE-JF91-HANDHELD-FAN-1.jpg"/>
+    <hyperlink ref="D94" r:id="rId87" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
+    <hyperlink ref="D95" r:id="rId88" display="https://www.jimmyglobal.com/upload/product/1644304716955187.jpg"/>
+    <hyperlink ref="D96" r:id="rId89" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
+    <hyperlink ref="D97" r:id="rId90" display="https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg"/>
+    <hyperlink ref="D98" r:id="rId91" display="https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7"/>
+    <hyperlink ref="D99" r:id="rId92" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
+    <hyperlink ref="D100" r:id="rId93" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
+    <hyperlink ref="D101" r:id="rId94" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D102" r:id="rId95" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
+    <hyperlink ref="D103" r:id="rId96" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
+    <hyperlink ref="D104" r:id="rId97" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
+    <hyperlink ref="D105" r:id="rId98" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
+    <hyperlink ref="D107" r:id="rId99" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
+    <hyperlink ref="D108" r:id="rId100" display="https://img.srewardscentre.com.my/images/bd627029-cf38-44ff-bcef-2c3fb30d1667.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D110" r:id="rId101" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
+    <hyperlink ref="D111" r:id="rId102" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
+    <hyperlink ref="D112" r:id="rId103" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
+    <hyperlink ref="D113" r:id="rId104" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
+    <hyperlink ref="D114" r:id="rId105" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
+    <hyperlink ref="D115" r:id="rId106" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
+    <hyperlink ref="D116" r:id="rId107" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
+    <hyperlink ref="D117" r:id="rId108" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
+    <hyperlink ref="D118" r:id="rId109" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
+    <hyperlink ref="D119" r:id="rId110" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
+    <hyperlink ref="D120" r:id="rId111" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
+    <hyperlink ref="D121" r:id="rId112" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
+    <hyperlink ref="D122" r:id="rId113" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
+    <hyperlink ref="D123" r:id="rId114" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
+    <hyperlink ref="D124" r:id="rId115" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
+    <hyperlink ref="D125" r:id="rId116" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
+    <hyperlink ref="D126" r:id="rId117" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
+    <hyperlink ref="D127" r:id="rId118" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D128" r:id="rId119" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
+    <hyperlink ref="D129" r:id="rId120" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D130" r:id="rId121" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D131" r:id="rId122" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
+    <hyperlink ref="D132" r:id="rId123" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
+    <hyperlink ref="D133" r:id="rId124" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D134" r:id="rId125" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D135" r:id="rId126" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
+    <hyperlink ref="D136" r:id="rId127" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
+    <hyperlink ref="D137" r:id="rId128" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
+    <hyperlink ref="D138" r:id="rId129" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D139" r:id="rId130" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D140" r:id="rId131" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D141" r:id="rId132" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
+    <hyperlink ref="D142" r:id="rId133" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
+    <hyperlink ref="D143" r:id="rId134" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
+    <hyperlink ref="D144" r:id="rId135" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
+    <hyperlink ref="D145" r:id="rId136" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
+    <hyperlink ref="D146" r:id="rId137" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
+    <hyperlink ref="D147" r:id="rId138" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
+    <hyperlink ref="D148" r:id="rId139" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D149" r:id="rId140" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="D150" r:id="rId141" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D151" r:id="rId142" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D152" r:id="rId143" display="https://images.philips.com/is/image/philipsconsumer/vrs_2594fc462ee2c5d2f500c65cf5836efcfe8f8be1?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D153" r:id="rId144" display="https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D154" r:id="rId145" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="D155" r:id="rId146" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
+    <hyperlink ref="D156" r:id="rId147" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
+    <hyperlink ref="D157" r:id="rId148" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
+    <hyperlink ref="D158" r:id="rId149" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
+    <hyperlink ref="D159" r:id="rId150" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D160" r:id="rId151" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="D161" r:id="rId152" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
+    <hyperlink ref="D162" r:id="rId153" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
+    <hyperlink ref="D163" r:id="rId154" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
+    <hyperlink ref="D164" r:id="rId155" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
+    <hyperlink ref="D165" r:id="rId156" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="D166" r:id="rId157" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
+    <hyperlink ref="D167" r:id="rId158" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
+    <hyperlink ref="D168" r:id="rId159" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D169" r:id="rId159" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
+    <hyperlink ref="D170" r:id="rId139" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
+    <hyperlink ref="D171" r:id="rId160" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
+    <hyperlink ref="D172" r:id="rId161" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
+    <hyperlink ref="D173" r:id="rId162" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="D174" r:id="rId163" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="D175" r:id="rId164" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="D176" r:id="rId165" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="D177" r:id="rId166" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="D178" r:id="rId167" display="https://cdn.homepro.com.my/ART_IMAGE/10/731/1073103/447x447/15032024_1073103$Imagex1.jpg"/>
+    <hyperlink ref="D179" r:id="rId168" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="D180" r:id="rId169" display="https://dam.groupeseb.com/m/6a8a88d07ce1794a/digital-TEFAL_FV5847M0_Visual1.tif?timestamp=20220701231405&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D181" r:id="rId170" display="https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive"/>
+    <hyperlink ref="D182" r:id="rId171" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D183" r:id="rId172" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="D184" r:id="rId173" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D185" r:id="rId174" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D186" r:id="rId175" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="D187" r:id="rId176" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="D188" r:id="rId177" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="D189" r:id="rId178" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="D192" r:id="rId179" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D193" r:id="rId180" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D194" r:id="rId181" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="D195" r:id="rId182" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="D196" r:id="rId183" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
+    <hyperlink ref="D197" r:id="rId184" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
+    <hyperlink ref="D198" r:id="rId185" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
+    <hyperlink ref="D199" r:id="rId186" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
+    <hyperlink ref="D200" r:id="rId187" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
+    <hyperlink ref="D201" r:id="rId188" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
+    <hyperlink ref="D202" r:id="rId189" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
+    <hyperlink ref="D203" r:id="rId190" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
+    <hyperlink ref="D204" r:id="rId191" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
+    <hyperlink ref="D205" r:id="rId192" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
+    <hyperlink ref="D206" r:id="rId193" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
+    <hyperlink ref="D207" r:id="rId194" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
+    <hyperlink ref="D208" r:id="rId195" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
+    <hyperlink ref="D209" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
+    <hyperlink ref="D210" r:id="rId197" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
+    <hyperlink ref="D211" r:id="rId198" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
+    <hyperlink ref="D212" r:id="rId199" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
+    <hyperlink ref="D213" r:id="rId200" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
+    <hyperlink ref="D214" r:id="rId201" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
+    <hyperlink ref="D215" r:id="rId202" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
+    <hyperlink ref="D216" r:id="rId203" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
+    <hyperlink ref="D80" r:id="rId204" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
+    <hyperlink ref="D190" r:id="rId205" display="https://static.tp-link.com/upload/image-line/01_large_20230524004739r.jpg"/>
+    <hyperlink ref="D191" r:id="rId206" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70gs1umy(k)---700w-blender/BL-70GS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70GS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D106" r:id="rId207" display="https://myjoyoung.com/wp-content/uploads/2024/11/18C30-2-700px.png"/>
+    <hyperlink ref="D109" r:id="rId208" display="https://down-my.img.susercontent.com/file/my-11134207-7r98x-lp2n4508otdk0d"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="665">
   <si>
     <t>BRAND</t>
   </si>
@@ -65,21 +65,6 @@
     <t>https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>ACERPURE</t>
-  </si>
-  <si>
-    <t>ACP-AF374-20K</t>
-  </si>
-  <si>
-    <t>Acerpure Cozy SF1 DC Stand Fan – 16-Inch, 9 Speeds, Remote Control</t>
-  </si>
-  <si>
-    <t>https://i.postimg.cc/pT41hXLR/acerpure.jpg</t>
-  </si>
-  <si>
     <t>AMAZINGTHING</t>
   </si>
   <si>
@@ -92,9 +77,6 @@
     <t>https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213</t>
   </si>
   <si>
-    <t>Effective 7th April 2025</t>
-  </si>
-  <si>
     <t>AMZ-4892878080026</t>
   </si>
   <si>
@@ -200,6 +182,15 @@
     <t>https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png</t>
   </si>
   <si>
+    <t>AST-PRO9637</t>
+  </si>
+  <si>
+    <t>Astonish Ultimate Bathroom Companion</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wFx6v54D/PRO9637.png</t>
+  </si>
+  <si>
     <t>BELKIN</t>
   </si>
   <si>
@@ -332,13 +323,16 @@
     <t>CORNELL</t>
   </si>
   <si>
-    <t xml:space="preserve">COR-CBF002DCR </t>
-  </si>
-  <si>
-    <t>Cornell 20-Speeds Bladeless DC Motor Stand Fan</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png</t>
+    <t>COR-CCF1411CP</t>
+  </si>
+  <si>
+    <t>Cornell Metal Stand Fan 14”</t>
+  </si>
+  <si>
+    <t>https://www.circlezestore.com/20315/cornell-metal-stand-fan-14-ccf-1411cp.jpg</t>
+  </si>
+  <si>
+    <t>Effective 1.6.2025</t>
   </si>
   <si>
     <t>CENTO</t>
@@ -764,15 +758,6 @@
     <t>https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea</t>
   </si>
   <si>
-    <t>DLT-H09</t>
-  </si>
-  <si>
-    <t>Delighto Cordless Stick Vacuum Cleaner (25.9V | 380W | 0.3L Dust Cup)</t>
-  </si>
-  <si>
-    <t>https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg</t>
-  </si>
-  <si>
     <t>ELECTROLUX</t>
   </si>
   <si>
@@ -806,6 +791,12 @@
     <t>https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg</t>
   </si>
   <si>
+    <t>ENB-EBS0099</t>
+  </si>
+  <si>
+    <t>Enbliss Laundry Detergent 3L</t>
+  </si>
+  <si>
     <t>ENB-EBS4158</t>
   </si>
   <si>
@@ -824,18 +815,6 @@
     <t>https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg</t>
   </si>
   <si>
-    <t>effective 24th Apri25</t>
-  </si>
-  <si>
-    <t>ENB-EBS4868</t>
-  </si>
-  <si>
-    <t>Enbliss Laundry Detergent 1.8L (Refil Pack)</t>
-  </si>
-  <si>
-    <t>https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg</t>
-  </si>
-  <si>
     <t>FABER</t>
   </si>
   <si>
@@ -866,7 +845,7 @@
     <t>https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg</t>
   </si>
   <si>
-    <t>Effective 1.5.2025 , clear stock on hand</t>
+    <t>clear stock on hand</t>
   </si>
   <si>
     <t>FELIZTRIP</t>
@@ -902,9 +881,6 @@
     <t>https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg</t>
   </si>
   <si>
-    <t>Start Effective 1.5.2025</t>
-  </si>
-  <si>
     <t>JIC-JF-83</t>
   </si>
   <si>
@@ -971,15 +947,6 @@
     <t>https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7</t>
   </si>
   <si>
-    <t>JMY-HW9</t>
-  </si>
-  <si>
-    <t>JIMMY HW9 Cordless Wet and Dry Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763</t>
-  </si>
-  <si>
     <t>JMY-HW9PRO</t>
   </si>
   <si>
@@ -1049,16 +1016,13 @@
     <t>https://myjoyoung.com/wp-content/uploads/2024/11/18C30-2-700px.png</t>
   </si>
   <si>
-    <t>Start Effective 17.5.2025</t>
-  </si>
-  <si>
-    <t>JYO-JK15K50</t>
-  </si>
-  <si>
-    <t>Joyoung 1.5L Retro Kettle</t>
-  </si>
-  <si>
-    <t>https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png</t>
+    <t>JYO-JCB12B96</t>
+  </si>
+  <si>
+    <t>Joyoung Strong Ice Crushing 1.2L Multifunctional Smoothie Blender</t>
+  </si>
+  <si>
+    <t>https://myjoyoung.com/wp-content/uploads/2024/11/12B96-1-700px.png</t>
   </si>
   <si>
     <t>JYO-JK15K52</t>
@@ -1187,9 +1151,6 @@
     <t>https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960</t>
   </si>
   <si>
-    <t>Effective 18.4.2025</t>
-  </si>
-  <si>
     <t>LFN-PREMIUM(BG)</t>
   </si>
   <si>
@@ -1307,6 +1268,15 @@
     <t>https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646</t>
   </si>
   <si>
+    <t>MTG-ACE2/LVR32OZ</t>
+  </si>
+  <si>
+    <t>MONTIGO ACE WATER BOTTLE 32OZ (950ml) - Lavender</t>
+  </si>
+  <si>
+    <t>https://shopmontigo.com/cdn/shop/files/AcemegaLavender.png?v=1713938068</t>
+  </si>
+  <si>
     <t>MTG-ACE2/PDBL32OZ</t>
   </si>
   <si>
@@ -1400,6 +1370,9 @@
     <t>https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg</t>
   </si>
   <si>
+    <t>clear stock only</t>
+  </si>
+  <si>
     <t>OXW-CB1085OXPN</t>
   </si>
   <si>
@@ -1445,19 +1418,10 @@
     <t>https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg</t>
   </si>
   <si>
-    <t>PREMIUMGIFT</t>
-  </si>
-  <si>
-    <t>PG-COVID19.BOOK</t>
-  </si>
-  <si>
-    <t>COVID-19 PRECAUTIONS BOOK</t>
-  </si>
-  <si>
-    <t>https://cdn-icons-png.flaticon.com/512/2232/2232688.png</t>
-  </si>
-  <si>
-    <t>Clear On hand Stock</t>
+    <t xml:space="preserve">OXW-CH987OXWH </t>
+  </si>
+  <si>
+    <t>https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-08.jpg?v=1641745141</t>
   </si>
   <si>
     <t>PHILIPS</t>
@@ -1508,9 +1472,6 @@
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
-    <t>Start Effective 1.5.2025 , clear stock on hand</t>
-  </si>
-  <si>
     <t>PANASONIC</t>
   </si>
   <si>
@@ -1532,9 +1493,6 @@
     <t>https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png</t>
   </si>
   <si>
-    <t>Effective 1.4.2025</t>
-  </si>
-  <si>
     <t>PSN-LR6EG/12B4F</t>
   </si>
   <si>
@@ -1556,7 +1514,7 @@
     <t>https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg</t>
   </si>
   <si>
-    <t>From 1st of Apr25</t>
+    <t>While stock lasts</t>
   </si>
   <si>
     <t>RAP-VH310</t>
@@ -1568,6 +1526,9 @@
     <t>https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png</t>
   </si>
   <si>
+    <t>While stock last</t>
+  </si>
+  <si>
     <t>RHEEM</t>
   </si>
   <si>
@@ -1622,9 +1583,6 @@
     <t>https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg</t>
   </si>
   <si>
-    <t>EFFECTIVE 9.4.25</t>
-  </si>
-  <si>
     <t>ROB-W602W</t>
   </si>
   <si>
@@ -1646,64 +1604,7 @@
     <t>https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg</t>
   </si>
   <si>
-    <t>SENHENG</t>
-  </si>
-  <si>
-    <t>SH-C.CULTURE/C</t>
-  </si>
-  <si>
-    <t>SENHENG CORPORATE CULTURE CHINESE</t>
-  </si>
-  <si>
-    <t>https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg</t>
-  </si>
-  <si>
-    <t>SH-C.CULTURE/E</t>
-  </si>
-  <si>
-    <t>SENHENG CORPORATE CULTURE ENGLISH</t>
-  </si>
-  <si>
-    <t>https://malaysia.kinokuniya.com/products/9789833789290/image_isbn</t>
-  </si>
-  <si>
-    <t>SH-DIGITAL.CHINESE</t>
-  </si>
-  <si>
-    <t>SENHENG DIGITAL JOURNEY BOOK CHINESE</t>
-  </si>
-  <si>
-    <t>https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384</t>
-  </si>
-  <si>
-    <t>SH-DIGITAL.JOURNEY</t>
-  </si>
-  <si>
-    <t>SENHENG DIGITAL JOURNEY BOOK ENGLISH</t>
-  </si>
-  <si>
-    <t>SH-DZG</t>
-  </si>
-  <si>
-    <t>DI ZI GUI BOOK</t>
-  </si>
-  <si>
-    <t>SH-NEWRETAIL.BOOK</t>
-  </si>
-  <si>
-    <t>SENHENG NEW RETAIL BOOK CHINESE</t>
-  </si>
-  <si>
-    <t>https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg</t>
-  </si>
-  <si>
-    <t>SH-NEWRETAIL.ENG</t>
-  </si>
-  <si>
-    <t>SENHENG NEW RETAIL BOOK ENGLISH</t>
-  </si>
-  <si>
-    <t>https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995</t>
+    <t>No display; back to back order</t>
   </si>
   <si>
     <t>SONY</t>
@@ -1778,15 +1679,6 @@
     <t>https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771</t>
   </si>
   <si>
-    <t>TEF-FV5847</t>
-  </si>
-  <si>
-    <t>Tefal Ultraglide+ FV5847 Steam Iron</t>
-  </si>
-  <si>
-    <t>https://dam.groupeseb.com/m/6a8a88d07ce1794a/digital-TEFAL_FV5847M0_Visual1.tif?timestamp=20220701231405&amp;width=640&amp;height=800</t>
-  </si>
-  <si>
     <t>TEF-G14398</t>
   </si>
   <si>
@@ -1886,9 +1778,6 @@
     <t>https://static.tp-link.com/upload/image-line/01_large_20230524004739r.jpg</t>
   </si>
   <si>
-    <t>Start Effective 12.5.2025</t>
-  </si>
-  <si>
     <t>TOSHIBA</t>
   </si>
   <si>
@@ -1901,15 +1790,6 @@
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70gs1umy(k)---700w-blender/BL-70GS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70GS1UMY-K-00-new.webp</t>
   </si>
   <si>
-    <t>TSB-BL70PS1UMY(K)</t>
-  </si>
-  <si>
-    <t>Toshiba 700W Multifunction Blender, 1.5L</t>
-  </si>
-  <si>
-    <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp</t>
-  </si>
-  <si>
     <t>TSB-FAWB50MY(H)</t>
   </si>
   <si>
@@ -2132,7 +2012,16 @@
     <t>https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg</t>
   </si>
   <si>
-    <t>Effective 23.4.2025</t>
+    <t>VMI-NANO</t>
+  </si>
+  <si>
+    <t>Viomi AI Nano 0.1 Hot Water Purifier – 5 Filters Included</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/images/7b0fa7d0-f1c4-4dbf-af3b-5e8241638d54.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
+  </si>
+  <si>
+    <t>Effective 30.5.2025</t>
   </si>
 </sst>
 </file>
@@ -2169,18 +2058,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2637,19 +2526,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2659,7 +2548,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2783,15 +2672,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -3139,18 +3027,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H216"/>
+  <dimension ref="A1:H207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="26.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="40.2857142857143" customWidth="1"/>
-    <col min="8" max="8" width="43.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3201,48 +3087,44 @@
       <c r="G2" s="2">
         <v>21900</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="F3" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="G3" s="2">
-        <v>27900</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>7900</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="2">
         <v>79</v>
@@ -3253,22 +3135,20 @@
       <c r="G4" s="2">
         <v>7900</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>79</v>
@@ -3279,22 +3159,20 @@
       <c r="G5" s="2">
         <v>7900</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2">
         <v>79</v>
@@ -3305,48 +3183,44 @@
       <c r="G6" s="2">
         <v>7900</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E7" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F7" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G7" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>8900</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <v>89</v>
@@ -3357,22 +3231,20 @@
       <c r="G8" s="2">
         <v>8900</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>89</v>
@@ -3383,22 +3255,20 @@
       <c r="G9" s="2">
         <v>8900</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
         <v>89</v>
@@ -3409,48 +3279,44 @@
       <c r="G10" s="2">
         <v>8900</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="E11" s="2">
-        <v>89</v>
+        <v>27.9</v>
       </c>
       <c r="F11" s="2">
-        <v>89</v>
+        <v>27.9</v>
       </c>
       <c r="G11" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>2790</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="E12" s="2">
         <v>27.9</v>
@@ -3461,100 +3327,96 @@
       <c r="G12" s="2">
         <v>2790</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="2">
+        <v>87.7</v>
+      </c>
+      <c r="F13" s="2">
+        <v>69</v>
+      </c>
+      <c r="G13" s="2">
+        <v>6900</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="2">
-        <v>27.9</v>
-      </c>
-      <c r="F13" s="2">
-        <v>27.9</v>
-      </c>
-      <c r="G13" s="2">
-        <v>2790</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="E14" s="2">
-        <v>87.7</v>
+        <v>32.9</v>
       </c>
       <c r="F14" s="2">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2">
-        <v>6900</v>
+        <v>1600</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="2">
-        <v>32.9</v>
+        <v>115</v>
       </c>
       <c r="F15" s="2">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="G15" s="2">
-        <v>1800</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>8500</v>
+      </c>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="E16" s="2">
         <v>369</v>
@@ -3565,22 +3427,20 @@
       <c r="G16" s="2">
         <v>36900</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2">
         <v>289</v>
@@ -3591,22 +3451,20 @@
       <c r="G17" s="2">
         <v>28900</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2">
         <v>99</v>
@@ -3617,22 +3475,20 @@
       <c r="G18" s="2">
         <v>9700</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2">
         <v>149</v>
@@ -3643,22 +3499,20 @@
       <c r="G19" s="2">
         <v>14500</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
         <v>169</v>
@@ -3669,22 +3523,20 @@
       <c r="G20" s="2">
         <v>16900</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2">
         <v>169</v>
@@ -3695,22 +3547,20 @@
       <c r="G21" s="2">
         <v>16900</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E22" s="2">
         <v>349</v>
@@ -3721,22 +3571,20 @@
       <c r="G22" s="2">
         <v>34900</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E23" s="2">
         <v>349</v>
@@ -3747,22 +3595,20 @@
       <c r="G23" s="2">
         <v>34900</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E24" s="2">
         <v>559</v>
@@ -3773,22 +3619,20 @@
       <c r="G24" s="2">
         <v>55900</v>
       </c>
-      <c r="H24" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2">
         <v>559</v>
@@ -3799,22 +3643,20 @@
       <c r="G25" s="2">
         <v>55900</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E26" s="2">
         <v>499</v>
@@ -3825,22 +3667,20 @@
       <c r="G26" s="2">
         <v>49900</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E27" s="2">
         <v>499</v>
@@ -3851,22 +3691,20 @@
       <c r="G27" s="2">
         <v>49900</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2">
         <v>799</v>
@@ -3877,22 +3715,20 @@
       <c r="G28" s="2">
         <v>79900</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E29" s="2">
         <v>799</v>
@@ -3903,48 +3739,46 @@
       <c r="G29" s="2">
         <v>79900</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="E30" s="2">
+        <v>342</v>
+      </c>
+      <c r="F30" s="2">
+        <v>239</v>
+      </c>
+      <c r="G30" s="2">
+        <v>23900</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E30" s="2">
-        <v>714</v>
-      </c>
-      <c r="F30" s="2">
-        <v>479</v>
-      </c>
-      <c r="G30" s="2">
-        <v>47900</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="E31" s="2">
         <v>179</v>
@@ -3955,22 +3789,20 @@
       <c r="G31" s="2">
         <v>16900</v>
       </c>
-      <c r="H31" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="E32" s="2">
         <v>79</v>
@@ -3981,22 +3813,20 @@
       <c r="G32" s="2">
         <v>5500</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="E33" s="2">
         <v>55</v>
@@ -4007,22 +3837,20 @@
       <c r="G33" s="2">
         <v>4900</v>
       </c>
-      <c r="H33" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>116</v>
       </c>
       <c r="E34" s="2">
         <v>129</v>
@@ -4033,22 +3861,20 @@
       <c r="G34" s="2">
         <v>12500</v>
       </c>
-      <c r="H34" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="E35" s="2">
         <v>99</v>
@@ -4059,22 +3885,20 @@
       <c r="G35" s="2">
         <v>9300</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>123</v>
       </c>
       <c r="E36" s="2">
         <v>299</v>
@@ -4086,21 +3910,21 @@
         <v>11900</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="E37" s="2">
         <v>299</v>
@@ -4112,21 +3936,21 @@
         <v>11900</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E38" s="2">
         <v>299</v>
@@ -4138,21 +3962,21 @@
         <v>11900</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="E39" s="2">
         <v>299</v>
@@ -4164,21 +3988,21 @@
         <v>11900</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E40" s="2">
         <v>499</v>
@@ -4190,21 +4014,21 @@
         <v>19900</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="E41" s="2">
         <v>499</v>
@@ -4216,21 +4040,21 @@
         <v>19900</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>141</v>
       </c>
       <c r="E42" s="2">
         <v>499</v>
@@ -4242,21 +4066,21 @@
         <v>19900</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="E43" s="2">
         <v>499</v>
@@ -4268,21 +4092,21 @@
         <v>19900</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E44" s="2">
         <v>549</v>
@@ -4294,21 +4118,21 @@
         <v>19900</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="E45" s="2">
         <v>549</v>
@@ -4320,21 +4144,21 @@
         <v>19900</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="E46" s="2">
         <v>549</v>
@@ -4346,21 +4170,21 @@
         <v>19900</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E47" s="2">
         <v>549</v>
@@ -4372,21 +4196,21 @@
         <v>19900</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>157</v>
       </c>
       <c r="E48" s="2">
         <v>399</v>
@@ -4398,21 +4222,21 @@
         <v>19900</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="E49" s="2">
         <v>459</v>
@@ -4424,21 +4248,21 @@
         <v>16900</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>163</v>
       </c>
       <c r="E50" s="2">
         <v>459</v>
@@ -4450,21 +4274,21 @@
         <v>16900</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="E51" s="2">
         <v>599</v>
@@ -4476,21 +4300,21 @@
         <v>31900</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E52" s="2">
         <v>599</v>
@@ -4502,21 +4326,21 @@
         <v>31900</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>169</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="E53" s="2">
         <v>299</v>
@@ -4528,21 +4352,21 @@
         <v>15900</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D54" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>174</v>
       </c>
       <c r="E54" s="2">
         <v>359</v>
@@ -4554,21 +4378,21 @@
         <v>15900</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>177</v>
       </c>
       <c r="E55" s="2">
         <v>439</v>
@@ -4580,21 +4404,21 @@
         <v>16900</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D56" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="E56" s="2">
         <v>439</v>
@@ -4606,21 +4430,21 @@
         <v>16900</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="E57" s="2">
         <v>439</v>
@@ -4632,21 +4456,21 @@
         <v>17900</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="E58" s="2">
         <v>479</v>
@@ -4658,21 +4482,21 @@
         <v>18900</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>189</v>
       </c>
       <c r="E59" s="2">
         <v>479</v>
@@ -4684,21 +4508,21 @@
         <v>18900</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="E60" s="2">
         <v>479</v>
@@ -4710,21 +4534,21 @@
         <v>18900</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="E61" s="2">
         <v>519</v>
@@ -4736,21 +4560,21 @@
         <v>18900</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>198</v>
       </c>
       <c r="E62" s="2">
         <v>519</v>
@@ -4762,21 +4586,21 @@
         <v>18900</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="E63" s="2">
         <v>519</v>
@@ -4788,21 +4612,21 @@
         <v>18900</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="E64" s="2">
         <v>599</v>
@@ -4814,21 +4638,21 @@
         <v>18900</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>205</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>207</v>
       </c>
       <c r="E65" s="2">
         <v>599</v>
@@ -4840,21 +4664,21 @@
         <v>18900</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>210</v>
       </c>
       <c r="E66" s="2">
         <v>639</v>
@@ -4866,21 +4690,21 @@
         <v>23900</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="E67" s="2">
         <v>639</v>
@@ -4892,21 +4716,21 @@
         <v>23900</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D68" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="E68" s="2">
         <v>639</v>
@@ -4918,21 +4742,21 @@
         <v>23900</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D69" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>219</v>
       </c>
       <c r="E69" s="2">
         <v>669</v>
@@ -4944,21 +4768,21 @@
         <v>25900</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D70" s="3" t="s">
         <v>220</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="E70" s="2">
         <v>369</v>
@@ -4970,21 +4794,21 @@
         <v>14900</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>225</v>
       </c>
       <c r="E71" s="2">
         <v>439</v>
@@ -4996,21 +4820,21 @@
         <v>16900</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E72" s="2">
         <v>489</v>
@@ -5022,21 +4846,21 @@
         <v>18900</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>230</v>
       </c>
       <c r="E73" s="2">
         <v>409</v>
@@ -5048,21 +4872,21 @@
         <v>15900</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>233</v>
       </c>
       <c r="E74" s="2">
         <v>579</v>
@@ -5074,21 +4898,21 @@
         <v>21900</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>236</v>
       </c>
       <c r="E75" s="2">
         <v>299</v>
@@ -5100,21 +4924,21 @@
         <v>13200</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E76" s="2">
         <v>409</v>
@@ -5126,21 +4950,21 @@
         <v>15900</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="E77" s="2">
         <v>349</v>
@@ -5152,21 +4976,21 @@
         <v>14900</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="E78" s="2">
         <v>499</v>
@@ -5178,123 +5002,117 @@
         <v>18900</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>247</v>
-      </c>
       <c r="E79" s="2">
-        <v>949</v>
+        <v>319</v>
       </c>
       <c r="F79" s="2">
-        <v>499</v>
+        <v>279</v>
       </c>
       <c r="G79" s="2">
-        <v>49900</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>27900</v>
+      </c>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="D80" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="E80" s="2">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="F80" s="2">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="G80" s="2">
-        <v>27900</v>
+        <v>3900</v>
       </c>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="D81" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>255</v>
-      </c>
       <c r="E81" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G81" s="2">
-        <v>3900</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>4900</v>
+      </c>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>258</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="2">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F82" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G82" s="2">
-        <v>4900</v>
+        <v>3600</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E83" s="2">
         <v>29</v>
@@ -5305,22 +5123,20 @@
       <c r="G83" s="2">
         <v>2900</v>
       </c>
-      <c r="H83" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E84" s="2">
         <v>29.9</v>
@@ -5331,152 +5147,142 @@
       <c r="G84" s="2">
         <v>2990</v>
       </c>
-      <c r="H84" s="2" t="s">
-        <v>265</v>
-      </c>
+      <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E85" s="2">
-        <v>20.9</v>
+        <v>210</v>
       </c>
       <c r="F85" s="2">
-        <v>20.9</v>
+        <v>115</v>
       </c>
       <c r="G85" s="2">
-        <v>2090</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>11500</v>
+      </c>
+      <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E86" s="2">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="F86" s="2">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="G86" s="2">
-        <v>11500</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>18100</v>
+      </c>
+      <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="C87" s="2" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E87" s="2">
-        <v>228</v>
+        <v>111</v>
       </c>
       <c r="F87" s="2">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="G87" s="2">
-        <v>18100</v>
+        <v>8900</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>278</v>
-      </c>
       <c r="E88" s="2">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="F88" s="2">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="G88" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>279</v>
-      </c>
+        <v>12900</v>
+      </c>
+      <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E89" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="F89" s="2">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="G89" s="2">
-        <v>12900</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
         <v>280</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E90" s="2">
         <v>99</v>
@@ -5487,568 +5293,528 @@
       <c r="G90" s="2">
         <v>9900</v>
       </c>
-      <c r="H90" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E91" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="F91" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G91" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>10900</v>
+      </c>
+      <c r="H91" s="2"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E92" s="2">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="F92" s="2">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="G92" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>17900</v>
+      </c>
+      <c r="H92" s="2"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E93" s="2">
-        <v>179</v>
+        <v>799</v>
       </c>
       <c r="F93" s="2">
-        <v>179</v>
+        <v>599</v>
       </c>
       <c r="G93" s="2">
-        <v>17900</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>59900</v>
+      </c>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E94" s="2">
-        <v>799</v>
+        <v>899</v>
       </c>
       <c r="F94" s="2">
-        <v>599</v>
+        <v>749</v>
       </c>
       <c r="G94" s="2">
-        <v>59900</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>74900</v>
+      </c>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="D95" s="3" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E95" s="2">
-        <v>899</v>
+        <v>1199</v>
       </c>
       <c r="F95" s="2">
-        <v>749</v>
+        <v>599</v>
       </c>
       <c r="G95" s="2">
-        <v>74900</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>59900</v>
+      </c>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E96" s="2">
-        <v>1199</v>
+        <v>1699</v>
       </c>
       <c r="F96" s="2">
-        <v>599</v>
+        <v>1299</v>
       </c>
       <c r="G96" s="2">
-        <v>59900</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>129900</v>
+      </c>
+      <c r="H96" s="2"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E97" s="2">
-        <v>1699</v>
+        <v>3099</v>
       </c>
       <c r="F97" s="2">
-        <v>1299</v>
+        <v>2399</v>
       </c>
       <c r="G97" s="2">
-        <v>129900</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>239900</v>
+      </c>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E98" s="2">
-        <v>3099</v>
+        <v>2699</v>
       </c>
       <c r="F98" s="2">
-        <v>2399</v>
+        <v>1699</v>
       </c>
       <c r="G98" s="2">
-        <v>239900</v>
+        <v>169900</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>291</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E99" s="2">
-        <v>2099</v>
+        <v>989</v>
       </c>
       <c r="F99" s="2">
-        <v>1199</v>
+        <v>769</v>
       </c>
       <c r="G99" s="2">
-        <v>119900</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>76900</v>
+      </c>
+      <c r="H99" s="2"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="E100" s="2">
-        <v>2699</v>
+        <v>119</v>
       </c>
       <c r="F100" s="2">
-        <v>1699</v>
+        <v>79</v>
       </c>
       <c r="G100" s="2">
-        <v>169900</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>7900</v>
+      </c>
+      <c r="H100" s="2"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E101" s="2">
-        <v>989</v>
+        <v>119</v>
       </c>
       <c r="F101" s="2">
-        <v>769</v>
+        <v>79</v>
       </c>
       <c r="G101" s="2">
-        <v>76900</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>7900</v>
+      </c>
+      <c r="H101" s="2"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E102" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G102" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H102" s="2"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E103" s="2">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F103" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="G103" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10900</v>
+      </c>
+      <c r="H103" s="2"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E104" s="2">
-        <v>99</v>
+        <v>199</v>
       </c>
       <c r="F104" s="2">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="G104" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H104" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>12900</v>
+      </c>
+      <c r="H104" s="2"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B105" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>331</v>
       </c>
       <c r="E105" s="2">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="F105" s="2">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="G105" s="2">
-        <v>10900</v>
+        <v>26900</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D106" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>334</v>
       </c>
       <c r="E106" s="2">
-        <v>199</v>
+        <v>399</v>
       </c>
       <c r="F106" s="2">
-        <v>129</v>
+        <v>239</v>
       </c>
       <c r="G106" s="2">
-        <v>12900</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>23900</v>
+      </c>
+      <c r="H106" s="2"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="D107" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E107" s="2">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="F107" s="2">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="G107" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>22900</v>
+      </c>
+      <c r="H107" s="2"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E108" s="2">
-        <v>399</v>
+        <v>139</v>
       </c>
       <c r="F108" s="2">
-        <v>239</v>
+        <v>79</v>
       </c>
       <c r="G108" s="2">
-        <v>23900</v>
-      </c>
-      <c r="H108" s="2" t="s">
-        <v>291</v>
-      </c>
+        <v>7900</v>
+      </c>
+      <c r="H108" s="2"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>349</v>
+        <v>342</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>343</v>
       </c>
       <c r="E109" s="2">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="F109" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="G109" s="2">
-        <v>22900</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>7900</v>
+      </c>
+      <c r="H109" s="2"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E110" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="F110" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G110" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H110" s="2"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="E111" s="2">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="F111" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G111" s="2">
-        <v>7900</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H111" s="2"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="E112" s="2">
         <v>169</v>
@@ -6059,22 +5825,20 @@
       <c r="G112" s="2">
         <v>9900</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H112" s="2"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E113" s="2">
         <v>169</v>
@@ -6085,178 +5849,164 @@
       <c r="G113" s="2">
         <v>9900</v>
       </c>
-      <c r="H113" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H113" s="2"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E114" s="2">
-        <v>169</v>
+        <v>499</v>
       </c>
       <c r="F114" s="2">
-        <v>99</v>
+        <v>309</v>
       </c>
       <c r="G114" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>30900</v>
+      </c>
+      <c r="H114" s="2"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="E115" s="2">
-        <v>169</v>
+        <v>549</v>
       </c>
       <c r="F115" s="2">
-        <v>99</v>
+        <v>399</v>
       </c>
       <c r="G115" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H115" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>39900</v>
+      </c>
+      <c r="H115" s="2"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="E116" s="2">
-        <v>499</v>
+        <v>179</v>
       </c>
       <c r="F116" s="2">
-        <v>309</v>
+        <v>177</v>
       </c>
       <c r="G116" s="2">
-        <v>30900</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>17700</v>
+      </c>
+      <c r="H116" s="2"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E117" s="2">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F117" s="2">
-        <v>399</v>
+        <v>329</v>
       </c>
       <c r="G117" s="2">
-        <v>39900</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>32900</v>
+      </c>
+      <c r="H117" s="2"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E118" s="2">
-        <v>179</v>
+        <v>1699</v>
       </c>
       <c r="F118" s="2">
-        <v>177</v>
+        <v>999</v>
       </c>
       <c r="G118" s="2">
-        <v>17700</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>99900</v>
+      </c>
+      <c r="H118" s="2"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="E119" s="2">
-        <v>559</v>
+        <v>1699</v>
       </c>
       <c r="F119" s="2">
-        <v>329</v>
+        <v>999</v>
       </c>
       <c r="G119" s="2">
-        <v>32900</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>99900</v>
+      </c>
+      <c r="H119" s="2"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>385</v>
       </c>
       <c r="E120" s="2">
         <v>1699</v>
@@ -6267,22 +6017,20 @@
       <c r="G120" s="2">
         <v>99900</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>386</v>
-      </c>
+      <c r="H120" s="2"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E121" s="2">
         <v>1699</v>
@@ -6293,178 +6041,168 @@
       <c r="G121" s="2">
         <v>99900</v>
       </c>
-      <c r="H121" s="2" t="s">
-        <v>386</v>
-      </c>
+      <c r="H121" s="2"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="E122" s="2">
-        <v>1699</v>
+        <v>209</v>
       </c>
       <c r="F122" s="2">
-        <v>999</v>
+        <v>189</v>
       </c>
       <c r="G122" s="2">
-        <v>99900</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>386</v>
-      </c>
+        <v>18900</v>
+      </c>
+      <c r="H122" s="2"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="E123" s="2">
-        <v>1699</v>
+        <v>135</v>
       </c>
       <c r="F123" s="2">
-        <v>999</v>
+        <v>119</v>
       </c>
       <c r="G123" s="2">
-        <v>99900</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>386</v>
-      </c>
+        <v>11900</v>
+      </c>
+      <c r="H123" s="2"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E124" s="2">
+        <v>239</v>
+      </c>
+      <c r="F124" s="2">
         <v>209</v>
       </c>
-      <c r="F124" s="2">
-        <v>189</v>
-      </c>
       <c r="G124" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>20900</v>
+      </c>
+      <c r="H124" s="2"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="E125" s="2">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="F125" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G125" s="2">
-        <v>11900</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H125" s="2"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E126" s="2">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="F126" s="2">
-        <v>209</v>
+        <v>84</v>
       </c>
       <c r="G126" s="2">
-        <v>20900</v>
+        <v>8400</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E127" s="2">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F127" s="2">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G127" s="2">
-        <v>9900</v>
+        <v>8400</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E128" s="2">
         <v>86</v>
@@ -6476,47 +6214,45 @@
         <v>8400</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E129" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F129" s="2">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G129" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>10400</v>
+      </c>
+      <c r="H129" s="2"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>417</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E130" s="2">
         <v>86</v>
@@ -6527,22 +6263,20 @@
       <c r="G130" s="2">
         <v>8400</v>
       </c>
-      <c r="H130" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="H130" s="2"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>422</v>
+        <v>414</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>415</v>
       </c>
       <c r="E131" s="2">
         <v>106</v>
@@ -6553,48 +6287,44 @@
       <c r="G131" s="2">
         <v>10400</v>
       </c>
-      <c r="H131" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H131" s="2"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E132" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F132" s="2">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G132" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10500</v>
+      </c>
+      <c r="H132" s="2"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E133" s="2">
         <v>106</v>
@@ -6605,48 +6335,44 @@
       <c r="G133" s="2">
         <v>10500</v>
       </c>
-      <c r="H133" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H133" s="2"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E134" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F134" s="2">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G134" s="2">
-        <v>10500</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>8400</v>
+      </c>
+      <c r="H134" s="2"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E135" s="2">
         <v>86</v>
@@ -6657,22 +6383,20 @@
       <c r="G135" s="2">
         <v>8400</v>
       </c>
-      <c r="H135" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H135" s="2"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E136" s="2">
         <v>86</v>
@@ -6683,48 +6407,44 @@
       <c r="G136" s="2">
         <v>8400</v>
       </c>
-      <c r="H136" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H136" s="2"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E137" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="F137" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G137" s="2">
-        <v>8400</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>7500</v>
+      </c>
+      <c r="H137" s="2"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E138" s="2">
         <v>77</v>
@@ -6735,22 +6455,20 @@
       <c r="G138" s="2">
         <v>7500</v>
       </c>
-      <c r="H138" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H138" s="2"/>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E139" s="2">
         <v>77</v>
@@ -6761,48 +6479,44 @@
       <c r="G139" s="2">
         <v>7500</v>
       </c>
-      <c r="H139" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H139" s="2"/>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>410</v>
+        <v>440</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E140" s="2">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F140" s="2">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="G140" s="2">
-        <v>7500</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>6900</v>
+      </c>
+      <c r="H140" s="2"/>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E141" s="2">
         <v>69</v>
@@ -6814,21 +6528,21 @@
         <v>6900</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="E142" s="2">
         <v>69</v>
@@ -6839,48 +6553,46 @@
       <c r="G142" s="2">
         <v>6900</v>
       </c>
-      <c r="H142" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H142" s="2"/>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="E143" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="F143" s="2">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="G143" s="2">
-        <v>6900</v>
+        <v>8900</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>12</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="E144" s="2">
         <v>89</v>
@@ -6891,22 +6603,20 @@
       <c r="G144" s="2">
         <v>8900</v>
       </c>
-      <c r="H144" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H144" s="2"/>
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="E145" s="2">
         <v>89</v>
@@ -6917,48 +6627,44 @@
       <c r="G145" s="2">
         <v>8900</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H145" s="2"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="E146" s="2">
-        <v>89</v>
+        <v>39.9</v>
       </c>
       <c r="F146" s="2">
-        <v>89</v>
+        <v>39.9</v>
       </c>
       <c r="G146" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H146" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>3990</v>
+      </c>
+      <c r="H146" s="2"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>471</v>
+        <v>461</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>464</v>
       </c>
       <c r="E147" s="2">
         <v>39.9</v>
@@ -6969,204 +6675,192 @@
       <c r="G147" s="2">
         <v>3990</v>
       </c>
-      <c r="H147" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H147" s="2"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E148" s="2">
-        <v>18.9</v>
+        <v>149</v>
       </c>
       <c r="F148" s="2">
-        <v>18.9</v>
+        <v>142</v>
       </c>
       <c r="G148" s="2">
-        <v>1890</v>
-      </c>
-      <c r="H148" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>14200</v>
+      </c>
+      <c r="H148" s="2"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E149" s="2">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="F149" s="2">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="G149" s="2">
-        <v>14200</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>27900</v>
+      </c>
+      <c r="H149" s="2"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E150" s="2">
-        <v>289</v>
+        <v>199</v>
       </c>
       <c r="F150" s="2">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="G150" s="2">
-        <v>27900</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>16900</v>
+      </c>
+      <c r="H150" s="2"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D151" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>486</v>
-      </c>
       <c r="E151" s="2">
-        <v>199</v>
+        <v>289</v>
       </c>
       <c r="F151" s="2">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="G151" s="2">
-        <v>16900</v>
+        <v>22900</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E152" s="2">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="F152" s="2">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="G152" s="2">
-        <v>22900</v>
+        <v>18900</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" s="2" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="E153" s="2">
-        <v>209</v>
+        <v>469</v>
       </c>
       <c r="F153" s="2">
-        <v>189</v>
+        <v>449</v>
       </c>
       <c r="G153" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>493</v>
-      </c>
+        <v>44900</v>
+      </c>
+      <c r="H153" s="2"/>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="E154" s="2">
-        <v>469</v>
+        <v>30.9</v>
       </c>
       <c r="F154" s="2">
-        <v>449</v>
+        <v>30.9</v>
       </c>
       <c r="G154" s="2">
-        <v>44900</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>3090</v>
+      </c>
+      <c r="H154" s="2"/>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E155" s="2">
         <v>30.9</v>
@@ -7177,1218 +6871,1138 @@
       <c r="G155" s="2">
         <v>3090</v>
       </c>
-      <c r="H155" s="2" t="s">
-        <v>501</v>
-      </c>
+      <c r="H155" s="2"/>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="E156" s="2">
-        <v>30.9</v>
+        <v>139</v>
       </c>
       <c r="F156" s="2">
-        <v>30.9</v>
+        <v>139</v>
       </c>
       <c r="G156" s="2">
-        <v>3090</v>
+        <v>13900</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="E157" s="2">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="F157" s="2">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="G157" s="2">
-        <v>13900</v>
+        <v>10900</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="E158" s="2">
-        <v>109</v>
+        <v>449</v>
       </c>
       <c r="F158" s="2">
-        <v>109</v>
+        <v>399</v>
       </c>
       <c r="G158" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>39900</v>
+      </c>
+      <c r="H158" s="2"/>
     </row>
     <row r="159" spans="1:8">
       <c r="A159" s="2" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="E159" s="2">
-        <v>449</v>
+        <v>129</v>
       </c>
       <c r="F159" s="2">
-        <v>399</v>
+        <v>129</v>
       </c>
       <c r="G159" s="2">
-        <v>39900</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>12900</v>
+      </c>
+      <c r="H159" s="2"/>
     </row>
     <row r="160" spans="1:8">
       <c r="A160" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="E160" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="F160" s="2">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="G160" s="2">
-        <v>12900</v>
+        <v>25900</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" s="2" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="E161" s="2">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="F161" s="2">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="G161" s="2">
-        <v>25900</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>21900</v>
+      </c>
+      <c r="H161" s="2"/>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="E162" s="2">
-        <v>219</v>
+        <v>3999</v>
       </c>
       <c r="F162" s="2">
-        <v>219</v>
+        <v>3099</v>
       </c>
       <c r="G162" s="2">
-        <v>21900</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>501</v>
-      </c>
+        <v>309900</v>
+      </c>
+      <c r="H162" s="2"/>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E163" s="2">
-        <v>3999</v>
+        <v>3699</v>
       </c>
       <c r="F163" s="2">
-        <v>3099</v>
+        <v>2899</v>
       </c>
       <c r="G163" s="2">
-        <v>309900</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>531</v>
-      </c>
+        <v>289900</v>
+      </c>
+      <c r="H163" s="2"/>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E164" s="2">
-        <v>3699</v>
+        <v>1999</v>
       </c>
       <c r="F164" s="2">
-        <v>2899</v>
+        <v>1499</v>
       </c>
       <c r="G164" s="2">
-        <v>289900</v>
+        <v>149900</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="E165" s="2">
-        <v>1999</v>
+        <v>299</v>
       </c>
       <c r="F165" s="2">
-        <v>1499</v>
+        <v>299</v>
       </c>
       <c r="G165" s="2">
-        <v>149900</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>29900</v>
+      </c>
+      <c r="H165" s="2"/>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="E166" s="2">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="F166" s="2">
-        <v>30</v>
+        <v>229</v>
       </c>
       <c r="G166" s="2">
-        <v>3000</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>22900</v>
+      </c>
+      <c r="H166" s="2"/>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E167" s="2">
-        <v>36</v>
+        <v>339</v>
       </c>
       <c r="F167" s="2">
-        <v>36</v>
+        <v>329</v>
       </c>
       <c r="G167" s="2">
-        <v>3600</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>32900</v>
+      </c>
+      <c r="H167" s="2"/>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="E168" s="2">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="F168" s="2">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="G168" s="2">
-        <v>3500</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>12500</v>
+      </c>
+      <c r="H168" s="2"/>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="E169" s="2">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="F169" s="2">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="G169" s="2">
-        <v>3500</v>
-      </c>
-      <c r="H169" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>13500</v>
+      </c>
+      <c r="H169" s="2"/>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="E170" s="2">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="F170" s="2">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="G170" s="2">
-        <v>1500</v>
+        <v>19900</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>476</v>
+        <v>272</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E171" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
       <c r="F171" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="G171" s="2">
-        <v>4000</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>15900</v>
+      </c>
+      <c r="H171" s="2"/>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="E172" s="2">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="F172" s="2">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="G172" s="2">
-        <v>5000</v>
-      </c>
-      <c r="H172" s="2" t="s">
-        <v>476</v>
-      </c>
+        <v>12900</v>
+      </c>
+      <c r="H172" s="2"/>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E173" s="2">
         <v>299</v>
       </c>
       <c r="F173" s="2">
-        <v>299</v>
+        <v>189</v>
       </c>
       <c r="G173" s="2">
-        <v>29900</v>
-      </c>
-      <c r="H173" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>18900</v>
+      </c>
+      <c r="H173" s="2"/>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E174" s="2">
-        <v>229</v>
+        <v>159</v>
       </c>
       <c r="F174" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="G174" s="2">
-        <v>22900</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H174" s="2"/>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E175" s="2">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="F175" s="2">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="G175" s="2">
-        <v>32900</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>29900</v>
+      </c>
+      <c r="H175" s="2"/>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="E176" s="2">
-        <v>129</v>
+        <v>499</v>
       </c>
       <c r="F176" s="2">
-        <v>125</v>
+        <v>299</v>
       </c>
       <c r="G176" s="2">
-        <v>12500</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>29900</v>
+      </c>
+      <c r="H176" s="2"/>
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="C177" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E177" s="2">
-        <v>149</v>
+        <v>1299</v>
       </c>
       <c r="F177" s="2">
-        <v>135</v>
+        <v>1099</v>
       </c>
       <c r="G177" s="2">
-        <v>13500</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>109900</v>
+      </c>
+      <c r="H177" s="2"/>
     </row>
     <row r="178" spans="1:8">
       <c r="A178" s="2" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E178" s="2">
-        <v>299</v>
+        <v>1899</v>
       </c>
       <c r="F178" s="2">
-        <v>199</v>
+        <v>1699</v>
       </c>
       <c r="G178" s="2">
-        <v>19900</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>279</v>
-      </c>
+        <v>169900</v>
+      </c>
+      <c r="H178" s="2"/>
     </row>
     <row r="179" spans="1:8">
       <c r="A179" s="2" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E179" s="2">
-        <v>179</v>
+        <v>1499</v>
       </c>
       <c r="F179" s="2">
-        <v>159</v>
+        <v>1299</v>
       </c>
       <c r="G179" s="2">
-        <v>15900</v>
+        <v>129900</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B180" s="2" t="s">
-        <v>583</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E180" s="2">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="F180" s="2">
-        <v>229</v>
+        <v>499</v>
       </c>
       <c r="G180" s="2">
-        <v>22900</v>
+        <v>49900</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>279</v>
+        <v>495</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" s="2" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="E181" s="2">
-        <v>239</v>
+        <v>109</v>
       </c>
       <c r="F181" s="2">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="G181" s="2">
-        <v>12900</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>10900</v>
+      </c>
+      <c r="H181" s="2"/>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="E182" s="2">
-        <v>299</v>
+        <v>499</v>
       </c>
       <c r="F182" s="2">
-        <v>189</v>
+        <v>329</v>
       </c>
       <c r="G182" s="2">
-        <v>18900</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>32900</v>
+      </c>
+      <c r="H182" s="2"/>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="E183" s="2">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="F183" s="2">
-        <v>99</v>
+        <v>229</v>
       </c>
       <c r="G183" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>22900</v>
+      </c>
+      <c r="H183" s="2"/>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E184" s="2">
-        <v>449</v>
+        <v>179</v>
       </c>
       <c r="F184" s="2">
-        <v>299</v>
+        <v>139</v>
       </c>
       <c r="G184" s="2">
-        <v>29900</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>13900</v>
+      </c>
+      <c r="H184" s="2"/>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E185" s="2">
         <v>599</v>
       </c>
-      <c r="D185" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="E185" s="2">
-        <v>499</v>
-      </c>
       <c r="F185" s="2">
-        <v>299</v>
+        <v>419</v>
       </c>
       <c r="G185" s="2">
-        <v>29900</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>41900</v>
+      </c>
+      <c r="H185" s="2"/>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="E186" s="2">
-        <v>1299</v>
+        <v>89</v>
       </c>
       <c r="F186" s="2">
-        <v>1099</v>
+        <v>89</v>
       </c>
       <c r="G186" s="2">
-        <v>109900</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>8900</v>
+      </c>
+      <c r="H186" s="2"/>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="D187" s="3" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="E187" s="2">
-        <v>1899</v>
+        <v>99</v>
       </c>
       <c r="F187" s="2">
-        <v>1699</v>
+        <v>99</v>
       </c>
       <c r="G187" s="2">
-        <v>169900</v>
-      </c>
-      <c r="H187" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H187" s="2"/>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="E188" s="2">
-        <v>1499</v>
+        <v>99</v>
       </c>
       <c r="F188" s="2">
-        <v>1299</v>
+        <v>99</v>
       </c>
       <c r="G188" s="2">
-        <v>129900</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H188" s="2"/>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="E189" s="2">
-        <v>499</v>
+        <v>89</v>
       </c>
       <c r="F189" s="2">
-        <v>499</v>
+        <v>89</v>
       </c>
       <c r="G189" s="2">
-        <v>49900</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>8900</v>
+      </c>
+      <c r="H189" s="2"/>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>615</v>
+        <v>596</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="D190" s="6" t="s">
-        <v>618</v>
+        <v>610</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>611</v>
       </c>
       <c r="E190" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="F190" s="2">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="G190" s="2">
-        <v>10900</v>
-      </c>
-      <c r="H190" s="2" t="s">
-        <v>619</v>
-      </c>
+        <v>8900</v>
+      </c>
+      <c r="H190" s="2"/>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>623</v>
+        <v>613</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>614</v>
       </c>
       <c r="E191" s="2">
-        <v>499</v>
+        <v>89</v>
       </c>
       <c r="F191" s="2">
-        <v>329</v>
+        <v>89</v>
       </c>
       <c r="G191" s="2">
-        <v>32900</v>
-      </c>
-      <c r="H191" s="2" t="s">
-        <v>340</v>
-      </c>
+        <v>8900</v>
+      </c>
+      <c r="H191" s="2"/>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>625</v>
+        <v>616</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>626</v>
+        <v>617</v>
       </c>
       <c r="E192" s="2">
-        <v>389</v>
+        <v>99</v>
       </c>
       <c r="F192" s="2">
-        <v>259</v>
+        <v>99</v>
       </c>
       <c r="G192" s="2">
-        <v>25900</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>509</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H192" s="2"/>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="B193" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>629</v>
-      </c>
       <c r="E193" s="2">
-        <v>349</v>
+        <v>99</v>
       </c>
       <c r="F193" s="2">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="G193" s="2">
-        <v>22900</v>
-      </c>
-      <c r="H193" s="2" t="s">
-        <v>501</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H193" s="2"/>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>630</v>
+        <v>621</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>631</v>
+        <v>622</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>632</v>
+        <v>623</v>
       </c>
       <c r="E194" s="2">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="F194" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="G194" s="2">
-        <v>13900</v>
-      </c>
-      <c r="H194" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H194" s="2"/>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>635</v>
+        <v>626</v>
       </c>
       <c r="E195" s="2">
-        <v>599</v>
+        <v>99</v>
       </c>
       <c r="F195" s="2">
-        <v>419</v>
+        <v>99</v>
       </c>
       <c r="G195" s="2">
-        <v>41900</v>
-      </c>
-      <c r="H195" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H195" s="2"/>
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E196" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F196" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G196" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H196" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H196" s="2"/>
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E197" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F197" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G197" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H197" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>8900</v>
+      </c>
+      <c r="H197" s="2"/>
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E198" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F198" s="2">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G198" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H198" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>8900</v>
+      </c>
+      <c r="H198" s="2"/>
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="C199" s="2" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E199" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F199" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G199" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H199" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H199" s="2"/>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E200" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F200" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G200" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H200" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H200" s="2"/>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E201" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="F201" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="G201" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H201" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>9900</v>
+      </c>
+      <c r="H201" s="2"/>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E202" s="2">
         <v>99</v>
@@ -8399,22 +8013,20 @@
       <c r="G202" s="2">
         <v>9900</v>
       </c>
-      <c r="H202" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H202" s="2"/>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E203" s="2">
         <v>99</v>
@@ -8425,22 +8037,20 @@
       <c r="G203" s="2">
         <v>9900</v>
       </c>
-      <c r="H203" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H203" s="2"/>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E204" s="2">
         <v>99</v>
@@ -8451,22 +8061,20 @@
       <c r="G204" s="2">
         <v>9900</v>
       </c>
-      <c r="H204" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H204" s="2"/>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" s="2" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D205" s="3" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E205" s="2">
         <v>99</v>
@@ -8477,513 +8085,265 @@
       <c r="G205" s="2">
         <v>9900</v>
       </c>
-      <c r="H205" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H205" s="2"/>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>667</v>
+        <v>658</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>668</v>
+        <v>659</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>669</v>
+        <v>660</v>
       </c>
       <c r="E206" s="2">
-        <v>99</v>
+        <v>1499</v>
       </c>
       <c r="F206" s="2">
-        <v>99</v>
+        <v>999</v>
       </c>
       <c r="G206" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H206" s="2" t="s">
-        <v>21</v>
-      </c>
+        <v>99900</v>
+      </c>
+      <c r="H206" s="2"/>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>672</v>
+        <v>662</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>663</v>
       </c>
       <c r="E207" s="2">
-        <v>89</v>
+        <v>2799</v>
       </c>
       <c r="F207" s="2">
-        <v>89</v>
+        <v>2199</v>
       </c>
       <c r="G207" s="2">
-        <v>8900</v>
+        <v>219900</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
-      <c r="A208" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="E208" s="2">
-        <v>89</v>
-      </c>
-      <c r="F208" s="2">
-        <v>89</v>
-      </c>
-      <c r="G208" s="2">
-        <v>8900</v>
-      </c>
-      <c r="H208" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="E209" s="2">
-        <v>99</v>
-      </c>
-      <c r="F209" s="2">
-        <v>99</v>
-      </c>
-      <c r="G209" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="A210" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>680</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E210" s="2">
-        <v>99</v>
-      </c>
-      <c r="F210" s="2">
-        <v>99</v>
-      </c>
-      <c r="G210" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
-      <c r="A211" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="E211" s="2">
-        <v>99</v>
-      </c>
-      <c r="F211" s="2">
-        <v>99</v>
-      </c>
-      <c r="G211" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H211" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>687</v>
-      </c>
-      <c r="E212" s="2">
-        <v>99</v>
-      </c>
-      <c r="F212" s="2">
-        <v>99</v>
-      </c>
-      <c r="G212" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H212" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="A213" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>690</v>
-      </c>
-      <c r="E213" s="2">
-        <v>99</v>
-      </c>
-      <c r="F213" s="2">
-        <v>99</v>
-      </c>
-      <c r="G213" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H213" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
-      <c r="A214" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>693</v>
-      </c>
-      <c r="E214" s="2">
-        <v>99</v>
-      </c>
-      <c r="F214" s="2">
-        <v>99</v>
-      </c>
-      <c r="G214" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H214" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="E215" s="2">
-        <v>99</v>
-      </c>
-      <c r="F215" s="2">
-        <v>99</v>
-      </c>
-      <c r="G215" s="2">
-        <v>9900</v>
-      </c>
-      <c r="H215" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="A216" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E216" s="2">
-        <v>1499</v>
-      </c>
-      <c r="F216" s="2">
-        <v>999</v>
-      </c>
-      <c r="G216" s="2">
-        <v>99900</v>
-      </c>
-      <c r="H216" s="2" t="s">
-        <v>701</v>
+        <v>664</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://down-my.img.susercontent.com/file/375a939a10a3c3bd6fc9c734cf5c71d4"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759"/>
-    <hyperlink ref="D6" r:id="rId5" display="https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030"/>
-    <hyperlink ref="D7" r:id="rId6" display="https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123"/>
-    <hyperlink ref="D8" r:id="rId7" display="https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073"/>
-    <hyperlink ref="D9" r:id="rId8" display="https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361"/>
-    <hyperlink ref="D10" r:id="rId9" display="https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840"/>
-    <hyperlink ref="D11" r:id="rId10" display="https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894"/>
-    <hyperlink ref="D12" r:id="rId11" display="https://img.lazcdn.com/g/p/51b1c0ce37e1085d068e8fb2959cbccb.png_960x960q80.png_.webp"/>
-    <hyperlink ref="D13" r:id="rId12" display="https://img.lazcdn.com/g/p/0f08830da4bd607bd1b5299f3d60ca19.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D14" r:id="rId13" display="https://i.ibb.co/TxfL8mYs/New-Project-2.png"/>
-    <hyperlink ref="D15" r:id="rId14" display="https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png"/>
-    <hyperlink ref="D16" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D17" r:id="rId16" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D18" r:id="rId17" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D19" r:id="rId18" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
-    <hyperlink ref="D20" r:id="rId19" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D21" r:id="rId20" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D22" r:id="rId21" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D23" r:id="rId22" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D24" r:id="rId23" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D25" r:id="rId24" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D26" r:id="rId25" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D27" r:id="rId26" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D28" r:id="rId27" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D29" r:id="rId28" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
-    <hyperlink ref="D30" r:id="rId29" display="https://i.ibb.co/TDC7bvcT/my-11134207-7ras8-m4vh2v7oqoa1bc.png"/>
-    <hyperlink ref="D31" r:id="rId30" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
-    <hyperlink ref="D32" r:id="rId31" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
-    <hyperlink ref="D33" r:id="rId32" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
-    <hyperlink ref="D34" r:id="rId33" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
-    <hyperlink ref="D35" r:id="rId34" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
-    <hyperlink ref="D36" r:id="rId35" display="https://my-test-11.slatic.net/p/7bfbf1874ae455d72e9b6d22efa8cfe0.jpg"/>
-    <hyperlink ref="D37" r:id="rId36" display="https://img.lazcdn.com/g/p/22b5039602bc9746d8d9a4dee6a49c2c.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D38" r:id="rId37" display="https://m.media-amazon.com/images/I/51GvK1XSYKL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D39" r:id="rId38" display="https://my-test-11.slatic.net/p/a870770fd70848675717df95ae9c67b9.jpg"/>
-    <hyperlink ref="D40" r:id="rId39" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D41" r:id="rId40" display="https://my-test-11.slatic.net/p/c43d0072d7ff9909bbd6d7ec520a0a2a.jpg"/>
-    <hyperlink ref="D42" r:id="rId41" display="https://my-test-11.slatic.net/p/3da38d7d6a91c35493574a98d5e4e170.jpg"/>
-    <hyperlink ref="D43" r:id="rId42" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
-    <hyperlink ref="D44" r:id="rId39" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
-    <hyperlink ref="D45" r:id="rId43" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
-    <hyperlink ref="D46" r:id="rId44" display="https://my-test-11.slatic.net/p/2e14ab03a674f37ddd96c549ec4ff079.jpg"/>
-    <hyperlink ref="D47" r:id="rId42" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
-    <hyperlink ref="D48" r:id="rId45" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D49" r:id="rId46" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D50" r:id="rId47" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
-    <hyperlink ref="D51" r:id="rId48" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D52" r:id="rId48" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
-    <hyperlink ref="D53" r:id="rId49" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
-    <hyperlink ref="D54" r:id="rId50" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
-    <hyperlink ref="D55" r:id="rId51" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
-    <hyperlink ref="D56" r:id="rId52" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
-    <hyperlink ref="D57" r:id="rId53" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
-    <hyperlink ref="D58" r:id="rId54" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
-    <hyperlink ref="D59" r:id="rId55" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
-    <hyperlink ref="D60" r:id="rId56" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
-    <hyperlink ref="D61" r:id="rId57" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
-    <hyperlink ref="D62" r:id="rId58" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
-    <hyperlink ref="D63" r:id="rId59" display="https://down-my.img.susercontent.com/file/3a11f75aeda53fc29000b656c78ea1af"/>
-    <hyperlink ref="D64" r:id="rId60" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
-    <hyperlink ref="D65" r:id="rId61" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
-    <hyperlink ref="D66" r:id="rId62" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
-    <hyperlink ref="D67" r:id="rId63" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
-    <hyperlink ref="D68" r:id="rId64" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
-    <hyperlink ref="D69" r:id="rId65" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
-    <hyperlink ref="D70" r:id="rId66" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D71" r:id="rId67" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
-    <hyperlink ref="D72" r:id="rId66" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
-    <hyperlink ref="D73" r:id="rId68" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
-    <hyperlink ref="D74" r:id="rId69" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
-    <hyperlink ref="D75" r:id="rId70" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D76" r:id="rId70" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
-    <hyperlink ref="D77" r:id="rId71" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
-    <hyperlink ref="D78" r:id="rId72" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
-    <hyperlink ref="D79" r:id="rId73" display="https://my-test-11.slatic.net/p/be1c05307642aa02524b4cc19825f3be.jpg"/>
-    <hyperlink ref="D81" r:id="rId74" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
-    <hyperlink ref="D82" r:id="rId75" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
-    <hyperlink ref="D83" r:id="rId76" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D84" r:id="rId77" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
-    <hyperlink ref="D85" r:id="rId78" display="https://image8.coupangcdn.com/image/retail/images/5734794003726181-3da6db91-d637-4b69-b105-909408267152.jpg"/>
-    <hyperlink ref="D86" r:id="rId79" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
-    <hyperlink ref="D87" r:id="rId80" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
-    <hyperlink ref="D88" r:id="rId81" display="https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg"/>
-    <hyperlink ref="D89" r:id="rId82" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
-    <hyperlink ref="D90" r:id="rId83" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
-    <hyperlink ref="D91" r:id="rId84" display="https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg"/>
-    <hyperlink ref="D92" r:id="rId85" display="https://www.tmt.my/data/editor/sc-product/21366/JINCASE-JF83-TABLE-FAN-1.jpg"/>
-    <hyperlink ref="D93" r:id="rId86" display="https://www.tmt.my/data/editor/sc-product/21364/JINCASE-JF91-HANDHELD-FAN-1.jpg"/>
-    <hyperlink ref="D94" r:id="rId87" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
-    <hyperlink ref="D95" r:id="rId88" display="https://www.jimmyglobal.com/upload/product/1644304716955187.jpg"/>
-    <hyperlink ref="D96" r:id="rId89" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
-    <hyperlink ref="D97" r:id="rId90" display="https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg"/>
-    <hyperlink ref="D98" r:id="rId91" display="https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7"/>
-    <hyperlink ref="D99" r:id="rId92" display="https://jimmy.eu/cdn/shop/files/JimmyHW9CordlessWet_DryVacuumCleaner_5.jpg?v=1740974763"/>
-    <hyperlink ref="D100" r:id="rId93" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
-    <hyperlink ref="D101" r:id="rId94" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D102" r:id="rId95" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
-    <hyperlink ref="D103" r:id="rId96" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
-    <hyperlink ref="D104" r:id="rId97" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
-    <hyperlink ref="D105" r:id="rId98" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
-    <hyperlink ref="D107" r:id="rId99" display="https://myjoyoung.com/wp-content/uploads/2024/11/JK-15K50-700px.png"/>
-    <hyperlink ref="D108" r:id="rId100" display="https://img.srewardscentre.com.my/images/bd627029-cf38-44ff-bcef-2c3fb30d1667.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D110" r:id="rId101" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
-    <hyperlink ref="D111" r:id="rId102" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
-    <hyperlink ref="D112" r:id="rId103" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
-    <hyperlink ref="D113" r:id="rId104" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
-    <hyperlink ref="D114" r:id="rId105" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
-    <hyperlink ref="D115" r:id="rId106" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
-    <hyperlink ref="D116" r:id="rId107" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
-    <hyperlink ref="D117" r:id="rId108" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
-    <hyperlink ref="D118" r:id="rId109" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
-    <hyperlink ref="D119" r:id="rId110" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
-    <hyperlink ref="D120" r:id="rId111" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
-    <hyperlink ref="D121" r:id="rId112" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
-    <hyperlink ref="D122" r:id="rId113" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
-    <hyperlink ref="D123" r:id="rId114" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
-    <hyperlink ref="D124" r:id="rId115" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
-    <hyperlink ref="D125" r:id="rId116" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
-    <hyperlink ref="D126" r:id="rId117" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
-    <hyperlink ref="D127" r:id="rId118" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
-    <hyperlink ref="D128" r:id="rId119" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
-    <hyperlink ref="D129" r:id="rId120" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D130" r:id="rId121" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
-    <hyperlink ref="D131" r:id="rId122" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
-    <hyperlink ref="D132" r:id="rId123" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
-    <hyperlink ref="D133" r:id="rId124" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D134" r:id="rId125" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
-    <hyperlink ref="D135" r:id="rId126" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
-    <hyperlink ref="D136" r:id="rId127" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
-    <hyperlink ref="D137" r:id="rId128" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
-    <hyperlink ref="D138" r:id="rId129" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D139" r:id="rId130" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D140" r:id="rId131" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
-    <hyperlink ref="D141" r:id="rId132" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
-    <hyperlink ref="D142" r:id="rId133" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
-    <hyperlink ref="D143" r:id="rId134" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
-    <hyperlink ref="D144" r:id="rId135" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
-    <hyperlink ref="D145" r:id="rId136" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
-    <hyperlink ref="D146" r:id="rId137" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
-    <hyperlink ref="D147" r:id="rId138" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
-    <hyperlink ref="D148" r:id="rId139" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D149" r:id="rId140" display="https://iili.io/3FHwaQn.md.jpg"/>
-    <hyperlink ref="D150" r:id="rId141" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D151" r:id="rId142" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D152" r:id="rId143" display="https://images.philips.com/is/image/philipsconsumer/vrs_2594fc462ee2c5d2f500c65cf5836efcfe8f8be1?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D153" r:id="rId144" display="https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250"/>
-    <hyperlink ref="D154" r:id="rId145" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
-    <hyperlink ref="D155" r:id="rId146" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
-    <hyperlink ref="D156" r:id="rId147" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
-    <hyperlink ref="D157" r:id="rId148" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
-    <hyperlink ref="D158" r:id="rId149" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
-    <hyperlink ref="D159" r:id="rId150" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
-    <hyperlink ref="D160" r:id="rId151" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
-    <hyperlink ref="D161" r:id="rId152" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
-    <hyperlink ref="D162" r:id="rId153" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
-    <hyperlink ref="D163" r:id="rId154" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
-    <hyperlink ref="D164" r:id="rId155" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
-    <hyperlink ref="D165" r:id="rId156" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
-    <hyperlink ref="D166" r:id="rId157" display="https://d26olvxuieoyaa.cloudfront.net/catalog/product/cache/2/image/9df78eab33525d08d6e5fb8d27136e95/9/7/9789833789245.jpg"/>
-    <hyperlink ref="D167" r:id="rId158" display="https://malaysia.kinokuniya.com/products/9789833789290/image_isbn"/>
-    <hyperlink ref="D168" r:id="rId159" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D169" r:id="rId159" display="https://down-my.img.susercontent.com/file/467fc3176671982807b3c109d954a384"/>
-    <hyperlink ref="D170" r:id="rId139" display="https://cdn-icons-png.flaticon.com/512/2232/2232688.png"/>
-    <hyperlink ref="D171" r:id="rId160" display="https://www.enanyang.my/sites/default/files/wp_migrate/1279610/190829A04_C6634-0.jpg"/>
-    <hyperlink ref="D172" r:id="rId161" display="https://dajiang.com.my/cdn/shop/files/New-Retail-New-Platform-Cover-scaled_6bce7b9a-651f-4625-88af-561e8d36016a_1900x2560.jpg?v=1720777995"/>
-    <hyperlink ref="D173" r:id="rId162" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
-    <hyperlink ref="D174" r:id="rId163" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
-    <hyperlink ref="D175" r:id="rId164" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
-    <hyperlink ref="D176" r:id="rId165" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
-    <hyperlink ref="D177" r:id="rId166" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
-    <hyperlink ref="D178" r:id="rId167" display="https://cdn.homepro.com.my/ART_IMAGE/10/731/1073103/447x447/15032024_1073103$Imagex1.jpg"/>
-    <hyperlink ref="D179" r:id="rId168" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
-    <hyperlink ref="D180" r:id="rId169" display="https://dam.groupeseb.com/m/6a8a88d07ce1794a/digital-TEFAL_FV5847M0_Visual1.tif?timestamp=20220701231405&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D181" r:id="rId170" display="https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive"/>
-    <hyperlink ref="D182" r:id="rId171" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D183" r:id="rId172" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
-    <hyperlink ref="D184" r:id="rId173" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
-    <hyperlink ref="D185" r:id="rId174" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
-    <hyperlink ref="D186" r:id="rId175" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
-    <hyperlink ref="D187" r:id="rId176" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
-    <hyperlink ref="D188" r:id="rId177" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
-    <hyperlink ref="D189" r:id="rId178" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
-    <hyperlink ref="D192" r:id="rId179" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70ps1umy(k)---700w-blender/BL-70PS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70PS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D193" r:id="rId180" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
-    <hyperlink ref="D194" r:id="rId181" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
-    <hyperlink ref="D195" r:id="rId182" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
-    <hyperlink ref="D196" r:id="rId183" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
-    <hyperlink ref="D197" r:id="rId184" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
-    <hyperlink ref="D198" r:id="rId185" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
-    <hyperlink ref="D199" r:id="rId186" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
-    <hyperlink ref="D200" r:id="rId187" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
-    <hyperlink ref="D201" r:id="rId188" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
-    <hyperlink ref="D202" r:id="rId189" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
-    <hyperlink ref="D203" r:id="rId190" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
-    <hyperlink ref="D204" r:id="rId191" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
-    <hyperlink ref="D205" r:id="rId192" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
-    <hyperlink ref="D206" r:id="rId193" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
-    <hyperlink ref="D207" r:id="rId194" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
-    <hyperlink ref="D208" r:id="rId195" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
-    <hyperlink ref="D209" r:id="rId196" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
-    <hyperlink ref="D210" r:id="rId197" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
-    <hyperlink ref="D211" r:id="rId198" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
-    <hyperlink ref="D212" r:id="rId199" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
-    <hyperlink ref="D213" r:id="rId200" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
-    <hyperlink ref="D214" r:id="rId201" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
-    <hyperlink ref="D215" r:id="rId202" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
-    <hyperlink ref="D216" r:id="rId203" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
-    <hyperlink ref="D80" r:id="rId204" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
-    <hyperlink ref="D190" r:id="rId205" display="https://static.tp-link.com/upload/image-line/01_large_20230524004739r.jpg"/>
-    <hyperlink ref="D191" r:id="rId206" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70gs1umy(k)---700w-blender/BL-70GS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70GS1UMY-K-00-new.webp"/>
-    <hyperlink ref="D106" r:id="rId207" display="https://myjoyoung.com/wp-content/uploads/2024/11/18C30-2-700px.png"/>
-    <hyperlink ref="D109" r:id="rId208" display="https://down-my.img.susercontent.com/file/my-11134207-7r98x-lp2n4508otdk0d"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://www.machines.com.my/cdn/shop/files/3_800x_b589b3da-fa28-4d9e-9087-3b29392846c7.webp?v=1715651213"/>
+    <hyperlink ref="D4" r:id="rId3" display="https://www.machines.com.my/cdn/shop/files/3_800x_9f6bf0d2-85a4-4322-ba16-453dc8a45461.webp?v=1715651759"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://www.machines.com.my/cdn/shop/files/3_800x_61f2b629-0dfe-44aa-8410-a6ed8c04f3d1.webp?v=1715652030"/>
+    <hyperlink ref="D6" r:id="rId5" display="https://www.machines.com.my/cdn/shop/files/3_800x_7df89674-770c-4dc5-85d6-19f16fa9c760.webp?v=1715652123"/>
+    <hyperlink ref="D7" r:id="rId6" display="https://www.machines.com.my/cdn/shop/files/3_800x_16a7ba7b-c7de-4530-8912-4f0f5cb35252.webp?v=1715655073"/>
+    <hyperlink ref="D8" r:id="rId7" display="https://www.machines.com.my/cdn/shop/files/3_800x_b1181ddb-b055-420e-a615-5b72c4714eec.webp?v=1715655361"/>
+    <hyperlink ref="D9" r:id="rId8" display="https://www.machines.com.my/cdn/shop/files/3_800x_a6e27363-d981-4bdf-b55e-bdec46b030ee.webp?v=1715655840"/>
+    <hyperlink ref="D10" r:id="rId9" display="https://www.machines.com.my/cdn/shop/files/3_800x_8959fc9b-7ee9-4799-820c-78c1861ae467.webp?v=1715655894"/>
+    <hyperlink ref="D11" r:id="rId10" display="https://img.lazcdn.com/g/p/51b1c0ce37e1085d068e8fb2959cbccb.png_960x960q80.png_.webp"/>
+    <hyperlink ref="D12" r:id="rId11" display="https://img.lazcdn.com/g/p/0f08830da4bd607bd1b5299f3d60ca19.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D13" r:id="rId12" display="https://i.ibb.co/TxfL8mYs/New-Project-2.png"/>
+    <hyperlink ref="D14" r:id="rId13" display="https://my-live-01.slatic.net/p/5d38512fa966f3b2b5832a2618d0611b.png"/>
+    <hyperlink ref="D16" r:id="rId14" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw60b49490/images/hi-res/2/2c3eba1c0acf7d3b_BPZ003bt1MBK-B6_AC_PowerBankPD25W_PPS+Bundles_NPI+GTM_web_1.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D17" r:id="rId15" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw5190f43e/images/hi-res/NaN/ee89219c7f42db2e_BPZ003_HybridACPowerBankPD_25W_PPS_PKG.1.jpg?sw=400&amp;sh=400&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D18" r:id="rId16" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw6402cfc8/images/hi-res/1/1f41d34e0d35163d_F9H110vsaCW_2.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D19" r:id="rId17" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw2047b2ba/images/hi-res/3/3ae788f5b1e24714_F9H410sa2M.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=jpg"/>
+    <hyperlink ref="D20" r:id="rId18" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwafede895/images/hi-res/9/9f4a23ac587be1c_MMA006-BLK-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D21" r:id="rId19" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw1ad49ee8/images/hi-res/b/27c22fc292f857c7_MMA006-WHT-Shot_01_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D22" r:id="rId20" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwadadbf88/images/hi-res/0/48a7e739b0e7e2bb_WIA008_BK_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D23" r:id="rId21" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwd52a7823/images/hi-res/5/5ed8b618421a8de2_WIA008_WH_BoostChargePro_Magnetic_Qi2%20NPI_GTM_HERO_1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D24" r:id="rId22" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwc1adc4d4/images/hi-res/7/7ae7058a2bcd7553_WIZ019-BLK_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D25" r:id="rId23" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwba508cac/images/hi-res/6/6c8188316b124f8b_WIZ019-WH_MagSafe_BoostChargePro_2in1WirelessChargeDock_TopDown_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D26" r:id="rId24" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwae4490e0/images/hi-res/c/152404620_WIZ021ttBK_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D27" r:id="rId25" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwa4d88d7b/images/hi-res/0/152404624_WIZ021ttWH_TopOrtho_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D28" r:id="rId26" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dw3a8a8ad6/images/hi-res/b/187e6e686a369cec_WIZ022ttBK_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D29" r:id="rId27" display="https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png"/>
+    <hyperlink ref="D31" r:id="rId28" display="https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg"/>
+    <hyperlink ref="D32" r:id="rId29" display="https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF"/>
+    <hyperlink ref="D33" r:id="rId30" display="https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg"/>
+    <hyperlink ref="D34" r:id="rId31" display="https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg"/>
+    <hyperlink ref="D35" r:id="rId32" display="https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png"/>
+    <hyperlink ref="D36" r:id="rId33" display="https://my-test-11.slatic.net/p/7bfbf1874ae455d72e9b6d22efa8cfe0.jpg"/>
+    <hyperlink ref="D37" r:id="rId34" display="https://img.lazcdn.com/g/p/22b5039602bc9746d8d9a4dee6a49c2c.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D38" r:id="rId35" display="https://m.media-amazon.com/images/I/51GvK1XSYKL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D39" r:id="rId36" display="https://my-test-11.slatic.net/p/a870770fd70848675717df95ae9c67b9.jpg"/>
+    <hyperlink ref="D40" r:id="rId37" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D41" r:id="rId38" display="https://my-test-11.slatic.net/p/c43d0072d7ff9909bbd6d7ec520a0a2a.jpg"/>
+    <hyperlink ref="D42" r:id="rId39" display="https://my-test-11.slatic.net/p/3da38d7d6a91c35493574a98d5e4e170.jpg"/>
+    <hyperlink ref="D43" r:id="rId40" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
+    <hyperlink ref="D44" r:id="rId37" display="https://my-test-11.slatic.net/p/dcfe0f1635a5c137e878405d9acfeb14.jpg"/>
+    <hyperlink ref="D45" r:id="rId41" display="https://down-my.img.susercontent.com/file/sg-11134201-22120-rkz7wgvxrqkvc4"/>
+    <hyperlink ref="D46" r:id="rId42" display="https://my-test-11.slatic.net/p/2e14ab03a674f37ddd96c549ec4ff079.jpg"/>
+    <hyperlink ref="D47" r:id="rId40" display="https://my-test-11.slatic.net/p/992149c448266844e2743ca212779d58.jpg"/>
+    <hyperlink ref="D48" r:id="rId43" display="https://img.srewardscentre.com.my/images/bc6ed582-04c7-441e-b683-148949caa881.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D49" r:id="rId44" display="https://img.lazcdn.com/g/p/807e4e0898e86f0a0752ab816370e9fe.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D50" r:id="rId45" display="https://my-test-11.slatic.net/p/a218d0dd0439fcbd8848008babc934a5.jpg"/>
+    <hyperlink ref="D51" r:id="rId46" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D52" r:id="rId46" display="https://my-live-01.slatic.net/p/e2192fd934106a35531bb02d76bf0ae4.jpg"/>
+    <hyperlink ref="D53" r:id="rId47" display="https://my-test-11.slatic.net/p/0a465ccde8f1cd2a585aaa0942525a0a.jpg"/>
+    <hyperlink ref="D54" r:id="rId48" display="https://my-test-11.slatic.net/p/84c4c2789ccabe3b4ecc329ec0ed898d.jpg"/>
+    <hyperlink ref="D55" r:id="rId49" display="https://down-my.img.susercontent.com/file/01dd4896a9f9cc92fc987f7ef5b72347.webp"/>
+    <hyperlink ref="D56" r:id="rId50" display="https://my-test-11.slatic.net/p/3ba7b4d02e1060cf9c0ff39a37df500a.jpg"/>
+    <hyperlink ref="D57" r:id="rId51" display="https://down-my.img.susercontent.com/file/7ba4dfd500af66a9e1a33880ee4e72b5.webp"/>
+    <hyperlink ref="D58" r:id="rId52" display="https://img.srewardscentre.com.my/images/a67a0dad-eb65-4197-9a7e-892758901d6c.jpg?x-oss-process=image/resize,m_pad,w_750,h_750"/>
+    <hyperlink ref="D59" r:id="rId53" display="https://my-test-11.slatic.net/p/324351131e78b22f59170e70fbf00de8.jpg"/>
+    <hyperlink ref="D60" r:id="rId54" display="https://my-test-11.slatic.net/p/2d88381e8b9948c22df5323ef10f8a6e.jpg"/>
+    <hyperlink ref="D61" r:id="rId55" display="https://down-my.img.susercontent.com/file/b7fe2e053b4a708c2e6f8bb2862163a4"/>
+    <hyperlink ref="D62" r:id="rId56" display="https://img.srewardscentre.com.my/images/2197855c-3fb5-4bfa-9bb8-e40aae6b845e.png"/>
+    <hyperlink ref="D63" r:id="rId57" display="https://down-my.img.susercontent.com/file/3a11f75aeda53fc29000b656c78ea1af"/>
+    <hyperlink ref="D64" r:id="rId58" display="https://my-test-11.slatic.net/p/76ab8ae4ca4c5626a0dc768f1265c812.jpg"/>
+    <hyperlink ref="D65" r:id="rId59" display="https://down-my.img.susercontent.com/file/9fe573a9a552e3eacfd3a2061e5f0ffe"/>
+    <hyperlink ref="D66" r:id="rId60" display="https://down-my.img.susercontent.com/file/f19bed71d0f919ad13256ce746a538b1"/>
+    <hyperlink ref="D67" r:id="rId61" display="https://down-my.img.susercontent.com/file/2ba0da50a0a7c9ceab6634c37f792c0b"/>
+    <hyperlink ref="D68" r:id="rId62" display="https://down-my.img.susercontent.com/file/edaf564d716b999d167a39f8809bc3f0"/>
+    <hyperlink ref="D69" r:id="rId63" display="https://down-my.img.susercontent.com/file/4d0341adda1714e9341f449d37512dd5"/>
+    <hyperlink ref="D70" r:id="rId64" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D71" r:id="rId65" display="https://down-my.img.susercontent.com/file/2a0a0beb8b648e65b05ae39a835cf079"/>
+    <hyperlink ref="D72" r:id="rId64" display="https://down-my.img.susercontent.com/file/88efa765cfa5ad2ba6734d78ad66094e"/>
+    <hyperlink ref="D73" r:id="rId66" display="https://down-my.img.susercontent.com/file/1767d1b65ab6367f7afc37295366a378"/>
+    <hyperlink ref="D74" r:id="rId67" display="https://down-my.img.susercontent.com/file/55333b849d47b200cb1821d3e8617a40"/>
+    <hyperlink ref="D75" r:id="rId68" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D76" r:id="rId68" display="https://down-my.img.susercontent.com/file/9029d01355aec4ea096989ff54ccc08b"/>
+    <hyperlink ref="D77" r:id="rId69" display="https://down-my.img.susercontent.com/file/31e24370aff71bc48003a631d6b33dad"/>
+    <hyperlink ref="D78" r:id="rId70" display="https://down-my.img.susercontent.com/file/e2a8a185f5d1a785d62bb5c24cb73aea"/>
+    <hyperlink ref="D79" r:id="rId71" display="https://www.hlkonline.my/image/cache/catalog/2024/ELECTROLUX/ELE-E5CM1-80ST/4-800x800.png"/>
+    <hyperlink ref="D80" r:id="rId72" display="https://i.postimg.cc/K8Zngbn6/LO2414825441-2414825442-1.jpg"/>
+    <hyperlink ref="D81" r:id="rId73" display="https://i.postimg.cc/28dQ6yBd/LO2414825042-2414825044-1.jpg"/>
+    <hyperlink ref="D83" r:id="rId74" display="https://img.lazcdn.com/g/p/6b3381ce8d79024511fc98a1d0731b80.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D84" r:id="rId75" display="https://my-test-11.slatic.net/p/8ed0a6739bf626bc1b5fe21e399545f0.jpg"/>
+    <hyperlink ref="D85" r:id="rId76" display="https://storage.bitpixel.cloud/faber/gallery/pYslrfx4trL0PWO0NvsYV1hlU5BC7NTekjWxJt4t.jpg"/>
+    <hyperlink ref="D86" r:id="rId77" display="https://storage.bitpixel.cloud/faber/gallery/fSoXzfsrqs5qQc6mrVRRRvNDZGfPuO0Oi8ANvMkO.jpg"/>
+    <hyperlink ref="D87" r:id="rId78" display="https://storage.bitpixel.cloud/faber/gallery/iSuCijLB1aopTcp14GvmeZW1Ho7NyCg2mVnUOMF4.jpg"/>
+    <hyperlink ref="D88" r:id="rId79" display="https://i.ibb.co/2btSXzx/02-2.jpg"/>
+    <hyperlink ref="D89" r:id="rId80" display="https://i.ibb.co/cS2xry2w/1537671797926.jpg"/>
+    <hyperlink ref="D90" r:id="rId81" display="https://www.tmt.my/data/editor/sc-product/21360/JINCASE-JF100-HANDHELD-FAN-1.jpg"/>
+    <hyperlink ref="D91" r:id="rId82" display="https://www.tmt.my/data/editor/sc-product/21366/JINCASE-JF83-TABLE-FAN-1.jpg"/>
+    <hyperlink ref="D92" r:id="rId83" display="https://www.tmt.my/data/editor/sc-product/21364/JINCASE-JF91-HANDHELD-FAN-1.jpg"/>
+    <hyperlink ref="D93" r:id="rId84" display="https://www.jimmyglobal.com/upload/product/1644809591761531.jpg"/>
+    <hyperlink ref="D94" r:id="rId85" display="https://www.jimmyglobal.com/upload/product/1644304716955187.jpg"/>
+    <hyperlink ref="D95" r:id="rId86" display="https://www.jimmyglobal.com/upload/product/1616132806190557.png"/>
+    <hyperlink ref="D96" r:id="rId87" display="https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg"/>
+    <hyperlink ref="D97" r:id="rId88" display="https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7"/>
+    <hyperlink ref="D98" r:id="rId89" display="https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg"/>
+    <hyperlink ref="D99" r:id="rId90" display="https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D100" r:id="rId91" display="https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347"/>
+    <hyperlink ref="D101" r:id="rId92" display="https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347"/>
+    <hyperlink ref="D102" r:id="rId93" display="https://www.netcombrunei.com/media/catalog/product/cache/7fba28f2ffd14e7be21e170ce6bb6de8/j/i/jisulife-25.jpg"/>
+    <hyperlink ref="D103" r:id="rId94" display="https://i.ibb.co/nsjQysLx/000001.jpg"/>
+    <hyperlink ref="D104" r:id="rId95" display="https://myjoyoung.com/wp-content/uploads/2024/11/18C30-2-700px.png"/>
+    <hyperlink ref="D106" r:id="rId96" display="https://img.srewardscentre.com.my/images/bd627029-cf38-44ff-bcef-2c3fb30d1667.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D107" r:id="rId97" display="https://down-my.img.susercontent.com/file/my-11134207-7r98x-lp2n4508otdk0d"/>
+    <hyperlink ref="D108" r:id="rId98" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91P-1-700px.png"/>
+    <hyperlink ref="D109" r:id="rId99" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-45V91W-1-700px.png"/>
+    <hyperlink ref="D110" r:id="rId100" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39T-1-700px.png"/>
+    <hyperlink ref="D111" r:id="rId101" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-49V39U-1-700px.png"/>
+    <hyperlink ref="D112" r:id="rId102" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26B-1-700px.png"/>
+    <hyperlink ref="D113" r:id="rId103" display="https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png"/>
+    <hyperlink ref="D114" r:id="rId104" display="https://www.khind.com.my/image/cache/data/theme/products/image/product/Cooling%20Heating/Fan/CF56DC2R/cf56dc2r-wh-single-cover_260924182924-600x600_0.jpg"/>
+    <hyperlink ref="D115" r:id="rId105" display="https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1"/>
+    <hyperlink ref="D116" r:id="rId106" display="https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg"/>
+    <hyperlink ref="D117" r:id="rId107" display="https://cdn.hachi.tech/assets/images/product_images/6973833033085_464CF151Q07lzHryqNMDHFENAd8FmGXpvmqH6KWx.jpg"/>
+    <hyperlink ref="D118" r:id="rId108" display="https://img.srewardscentre.com.my/image/a471e38b38264241ac3d9dfce4c20ec6.jpg?x-oss-process=image/resize,m_pad,w_960,h_960"/>
+    <hyperlink ref="D119" r:id="rId109" display="https://laifen.sa/cdn/shop/files/0aa7d512-794e-4b72-8168-9fae9706a38e.jpg?v=1727172692&amp;width=840"/>
+    <hyperlink ref="D120" r:id="rId110" display="https://motivs.lv/images/ext/rcpro/103493.jpg"/>
+    <hyperlink ref="D121" r:id="rId111" display="https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png"/>
+    <hyperlink ref="D122" r:id="rId112" display="https://i.ibb.co/3bVKVhp/RT103B.jpg"/>
+    <hyperlink ref="D123" r:id="rId113" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/midea-aem/my/fan-air-cooler-purifier/circulation-fans/mfg150m0apb/Left-vIEW.jpg/jcr:content/renditions/cq5dam.web.5000.5000.jpeg"/>
+    <hyperlink ref="D124" r:id="rId114" display="https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6"/>
+    <hyperlink ref="D125" r:id="rId115" display="https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg"/>
+    <hyperlink ref="D126" r:id="rId116" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozTimberwood.png?v=1706505277&amp;width=1404"/>
+    <hyperlink ref="D127" r:id="rId117" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTLavendar.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D128" r:id="rId118" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozYellow.png?v=1707297243&amp;width=1404"/>
+    <hyperlink ref="D129" r:id="rId119" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozblack.png?v=1707299965"/>
+    <hyperlink ref="D130" r:id="rId120" display="https://shopmontigo.com/cdn/shop/files/Acemediumlavender.png?v=1713937646"/>
+    <hyperlink ref="D132" r:id="rId121" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozCaramel.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D133" r:id="rId122" display="https://shopmontigo.com/cdn/shop/files/MTAce32ozSeasalt.png?v=1709822958&amp;width=800"/>
+    <hyperlink ref="D134" r:id="rId123" display="https://shopmontigo.com/cdn/shop/files/MTAce18ozMTCaramel.png?v=1709822953"/>
+    <hyperlink ref="D135" r:id="rId124" display="https://shopmontigo.com/cdn/shop/files/Black_0925d0a2-0d9d-4f3c-bfed-4c3e506c037e.png?v=1721037133&amp;width=800"/>
+    <hyperlink ref="D136" r:id="rId125" display="https://shopmontigo.com/cdn/shop/files/Knights_Stone_Grey.png?v=1721037133&amp;width=1080"/>
+    <hyperlink ref="D137" r:id="rId126" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Frozen.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D138" r:id="rId127" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_Stone_Grey.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D139" r:id="rId128" display="https://shopmontigo.com/cdn/shop/files/Sense_Coffee_Cup_Regular_timberwood.png?v=1717573977&amp;width=800"/>
+    <hyperlink ref="D140" r:id="rId129" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-BLE-01.jpg"/>
+    <hyperlink ref="D141" r:id="rId130" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-KHK-01.jpg"/>
+    <hyperlink ref="D142" r:id="rId131" display="https://oxwhite.com/cdn/shop/files/OX-H-WCBT-PNK-01.jpg"/>
+    <hyperlink ref="D143" r:id="rId132" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_Khaki_02.jpg?v=1639325986"/>
+    <hyperlink ref="D144" r:id="rId133" display="https://oxwhite.com/cdn/shop/products/Navy_PremiumBT_main.jpg?v=1638755768"/>
+    <hyperlink ref="D145" r:id="rId134" display="https://oxwhite.com/cdn/shop/products/PremiumBathTowel_White_02.jpg?v=1639325989"/>
+    <hyperlink ref="D146" r:id="rId135" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg" tooltip="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-02.jpg"/>
+    <hyperlink ref="D148" r:id="rId136" display="https://iili.io/3FHwaQn.md.jpg"/>
+    <hyperlink ref="D149" r:id="rId137" display="https://images.philips.com/is/image/philipsconsumer/6444d798ae774f70b869ae770140251c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D150" r:id="rId138" display="https://images.philips.com/is/image/philipsconsumer/vrs_1793152c64050b6669a5c570b6d570e21415465c?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D151" r:id="rId139" display="https://images.philips.com/is/image/philipsconsumer/vrs_2594fc462ee2c5d2f500c65cf5836efcfe8f8be1?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D152" r:id="rId140" display="https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250"/>
+    <hyperlink ref="D153" r:id="rId141" display="https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png"/>
+    <hyperlink ref="D154" r:id="rId142" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png"/>
+    <hyperlink ref="D155" r:id="rId143" display="https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png"/>
+    <hyperlink ref="D156" r:id="rId144" display="https://hanoicomputercdn.com/media/product/85478_chuot_gaming_khong_day_rapoo_v300l_wireless_2_4ghz_day_usb_01.jpg"/>
+    <hyperlink ref="D157" r:id="rId145" display="https://www.rapoo.com/wp-content/uploads/2024/09/VH310-1.png"/>
+    <hyperlink ref="D158" r:id="rId146" display="https://img.srewardscentre.com.my/image/f14f297952b14fce8ef0000d7e24f24e.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
+    <hyperlink ref="D159" r:id="rId147" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2409/27/products/800X800-MagNano-05-PB128-1-e6f7.png"/>
+    <hyperlink ref="D160" r:id="rId148" display="https://my-test-11.slatic.net/p/343dfbaa1ba0864bcd5f9142334f0d95.jpg"/>
+    <hyperlink ref="D161" r:id="rId149" display="https://ueeshop.ly200-cdn.com/u_file/UPBA/UPBA381/2408/23/products/Phantom20-800-a844.png"/>
+    <hyperlink ref="D162" r:id="rId150" display="https://img.srewardscentre.com.my/image/20f2edf4dd2e45e3962b29e6ed55b184.jpg"/>
+    <hyperlink ref="D163" r:id="rId151" display="https://urbanez.com.my/image/urbanez/image/data/all_product_images/product-1874/robam-w602w-dishwasher.jpg"/>
+    <hyperlink ref="D164" r:id="rId152" display="https://www.banhuat.com/image/cache/catalog/products/SOUND%20BAR/SAMSUNG/2024/HWLS60D/HWLS60D-T2-1000x1000.jpg"/>
+    <hyperlink ref="D165" r:id="rId153" display="https://down-my.img.susercontent.com/file/my-11134207-7ras9-m1xkw09zedjed4"/>
+    <hyperlink ref="D166" r:id="rId154" display="https://sony.scene7.com/is/image/sonyglobalsolutions/wh-ch520_Primary_image?$categorypdpnav$&amp;fmt=png-alpha"/>
+    <hyperlink ref="D167" r:id="rId155" display="https://stryv.uk/cdn/shop/files/prostyler_2_5ed8b0f3-9d16-492b-b152-293215103ebd.jpg?v=1730706987"/>
+    <hyperlink ref="D168" r:id="rId156" display="https://www.acutabove.com.my/wp-content/uploads/2024/06/Styrv-multishave_Multishave.png"/>
+    <hyperlink ref="D169" r:id="rId157" display="https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793"/>
+    <hyperlink ref="D170" r:id="rId158" display="https://cdn.homepro.com.my/ART_IMAGE/10/731/1073103/447x447/15032024_1073103$Imagex1.jpg"/>
+    <hyperlink ref="D171" r:id="rId159" display="https://shop.tbm.com.my/cdn/shop/products/tefal-steam-iron-fv2843-tbm-your-neighbourhood-electrical-store-104912.jpg?v=1643067771"/>
+    <hyperlink ref="D172" r:id="rId160" display="https://media.karousell.com/media/photos/products/2025/3/29/tefal_day_by_day_wokpan_with_l_1743282725_f90df19a_progressive"/>
+    <hyperlink ref="D173" r:id="rId161" display="https://www.tefal.com.my/media/catalog/product/1/_/1_digital-g143s495-day-by-day-frypan-24cm-saucepan-18cm-spatula-06gz.png?quality=80&amp;fit=bounds&amp;height=&amp;width=&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D174" r:id="rId162" display="https://twicpics.tefal.com.my/https://dam.groupeseb.com/m/24316505a4ff34c1/original/Tefal-Kitchenware-5pc-Set-Lifestyle-1.png?timestamp=20230830115618?twic=v1"/>
+    <hyperlink ref="D175" r:id="rId163" display="https://m.media-amazon.com/images/I/61whqrhqVzL._AC_UF894,1000_QL80_.jpg"/>
+    <hyperlink ref="D176" r:id="rId164" display="https://dam.groupeseb.com/m/1702872a5e739d59/digital-TFL_SV4111T0_EXPRESS-OPTIMAL_H1.tif?timestamp=20250324093418&amp;width=640&amp;height=800"/>
+    <hyperlink ref="D177" r:id="rId165" display="https://m.media-amazon.com/images/I/61Hs6YpO8YS._AC_SL1000_.jpg"/>
+    <hyperlink ref="D178" r:id="rId166" display="https://i.ebayimg.com/images/g/vlgAAOSwLVpjDXzY/s-l500.jpg"/>
+    <hyperlink ref="D179" r:id="rId167" display="https://d11t13tut0ry2c.cloudfront.net/catalog/product/cache/d6ccdf4274bed0197f9e62d88ddefc59/x/5/x500pro.jpg"/>
+    <hyperlink ref="D180" r:id="rId168" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s"/>
+    <hyperlink ref="D181" r:id="rId169" display="https://static.tp-link.com/upload/image-line/01_large_20230524004739r.jpg"/>
+    <hyperlink ref="D182" r:id="rId170" display="https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/blender/bl-70gs1umy(k)---700w-blender/BL-70GS1UMY-K-00-new.jpg/jcr:content/renditions/BL-70GS1UMY-K-00-new.webp"/>
+    <hyperlink ref="D183" r:id="rId171" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/air-treatment/fan/f-awb50my(h)-16-inch-wall-fan/F-AWB50MY-H-01.png"/>
+    <hyperlink ref="D184" r:id="rId172" display="https://shop.tbm.com.my/cdn/shop/products/product-528404.jpg?v=1626897001"/>
+    <hyperlink ref="D185" r:id="rId173" display="https://www.toshiba-lifestyle.com/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/rc-18dsumy(h)---1-8l-digital-rice-cooker/RC-18DSUMY-H-01.png/jcr:content/renditions/RC-18DSUMY-H-01.webp"/>
+    <hyperlink ref="D186" r:id="rId174" display="https://www.aeonaccessories.com/productimages/8886463685136.jpg"/>
+    <hyperlink ref="D187" r:id="rId175" display="https://www.kgelectronic.com.au/assets/full/8886463685143.jpg?20230915080425"/>
+    <hyperlink ref="D188" r:id="rId176" display="https://hurtowniagsm.com/hpeciai/e4e565dc1795df7a62fe99063749a327/eng_pl_Case-APPLE-IPHONE-15-UNIQ-Calio-Magclick-Charging-transparent-108001_1.jpg"/>
+    <hyperlink ref="D189" r:id="rId177" display="https://www.aeonaccessories.com/productimages/8886463685259.jpg"/>
+    <hyperlink ref="D190" r:id="rId178" display="https://www.aeonaccessories.com/productimages/8886463685303.jpg"/>
+    <hyperlink ref="D191" r:id="rId179" display="https://gulfstore.com/cdn/shop/files/8886463685310.jpg?v=1698759394"/>
+    <hyperlink ref="D192" r:id="rId180" display="https://www.kgelectronic.com.au/assets/full/8886463685334.jpg?20230915080149"/>
+    <hyperlink ref="D193" r:id="rId181" display="https://www.aeonaccessories.com/productimages/8886463685372.jpg"/>
+    <hyperlink ref="D194" r:id="rId182" display="https://cdn.media.amplience.net/i/xcite/544261-01"/>
+    <hyperlink ref="D195" r:id="rId183" display="https://ee2.pigugroup.eu/colours/195/726/28/19572628/uniq-calio-case-8886463685419-05ec9_xbig.jpg"/>
+    <hyperlink ref="D196" r:id="rId184" display="https://cdn.media.amplience.net/i/xcite/544263-01"/>
+    <hyperlink ref="D197" r:id="rId185" display="https://www.kgelectronic.com.au/assets/full/8886463685600.jpg?20230915080118"/>
+    <hyperlink ref="D198" r:id="rId186" display="https://images.deliveryhero.io/image/talabat-nv/Regional_Images/Gulf_Store/8886463685617.jpg?size=520"/>
+    <hyperlink ref="D199" r:id="rId187" display="https://www.kgelectronic.com.au/assets/full/8886463685631.jpg?20230915080148"/>
+    <hyperlink ref="D200" r:id="rId188" display="https://www.kgelectronic.com.au/assets/thumb/8886463685679.jpg?20230915080053"/>
+    <hyperlink ref="D201" r:id="rId189" display="https://cdn.media.amplience.net/i/xcite/544278-01"/>
+    <hyperlink ref="D202" r:id="rId190" display="https://cdn.media.amplience.net/i/xcite/544279-01"/>
+    <hyperlink ref="D203" r:id="rId191" display="https://lh3.googleusercontent.com/d/12fKw7F4TE0nV1pCOfI6xHMdTs2iDDXGW"/>
+    <hyperlink ref="D204" r:id="rId192" display="https://cdn.media.amplience.net/i/xcite/544259-01"/>
+    <hyperlink ref="D205" r:id="rId193" display="https://cdn.media.amplience.net/i/xcite/544276-01"/>
+    <hyperlink ref="D206" r:id="rId194" display="https://viomi.com.my/wp-content/uploads/2024/11/guard-2a-1-2.jpg"/>
+    <hyperlink ref="D15" r:id="rId195" display="https://i.ibb.co/wFx6v54D/PRO9637.png"/>
+    <hyperlink ref="D30" r:id="rId196" display="https://www.circlezestore.com/20315/cornell-metal-stand-fan-14-ccf-1411cp.jpg"/>
+    <hyperlink ref="D105" r:id="rId197" display="https://myjoyoung.com/wp-content/uploads/2024/11/12B96-1-700px.png"/>
+    <hyperlink ref="D131" r:id="rId198" display="https://shopmontigo.com/cdn/shop/files/AcemegaLavender.png?v=1713938068"/>
+    <hyperlink ref="D147" r:id="rId199" display="https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-08.jpg?v=1641745141"/>
+    <hyperlink ref="D207" r:id="rId200" display="https://img.srewardscentre.com.my/images/7b0fa7d0-f1c4-4dbf-af3b-5e8241638d54.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="673">
   <si>
     <t>BRAND</t>
   </si>
@@ -320,6 +320,54 @@
     <t>https://www.belkin.com/dw/image/v2/BGBH_PRD/on/demandware.static/-/Sites-master-product-catalog-blk/default/dwf7ca545b/images/hi-res/b/27bbb09790a8ee60_WIZ022ttWH_BoostCharger_3in1Pad_Hero1_WEB.jpg?sw=700&amp;sh=700&amp;sm=fit&amp;sfrm=png</t>
   </si>
   <si>
+    <t>CENTO</t>
+  </si>
+  <si>
+    <t>CT-520AE</t>
+  </si>
+  <si>
+    <t>Cento CT-520AE Insect Killer</t>
+  </si>
+  <si>
+    <t>https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg</t>
+  </si>
+  <si>
+    <t>CT-DUST3605</t>
+  </si>
+  <si>
+    <t>Cento Ceiling Fan Duster</t>
+  </si>
+  <si>
+    <t>https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t>CT-ECOGS231REC</t>
+  </si>
+  <si>
+    <t>Cento Ecocen Glasslock Food Storage 3-in-1</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg</t>
+  </si>
+  <si>
+    <t>CT-ECOGS341FOC2</t>
+  </si>
+  <si>
+    <t>Cento Ecocen Glasslock Food Storage 4-in-1 Rectangular</t>
+  </si>
+  <si>
+    <t>https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg</t>
+  </si>
+  <si>
+    <t>CT-EXT9807</t>
+  </si>
+  <si>
+    <t>Cento Heavy Duty Extension Cable Reel CT-EXT9807, 7 Meters</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png</t>
+  </si>
+  <si>
     <t>CORNELL</t>
   </si>
   <si>
@@ -335,54 +383,6 @@
     <t>Effective 1.6.2025</t>
   </si>
   <si>
-    <t>CENTO</t>
-  </si>
-  <si>
-    <t>CT-520AE</t>
-  </si>
-  <si>
-    <t>Cento CT-520AE Insect Killer</t>
-  </si>
-  <si>
-    <t>https://cdn.homepro.com.my/ART_IMAGE/10/663/1066376/447x447/20022023_1066376$Imagex1.jpg</t>
-  </si>
-  <si>
-    <t>CT-DUST3605</t>
-  </si>
-  <si>
-    <t>Cento Ceiling Fan Duster</t>
-  </si>
-  <si>
-    <t>https://i5.walmartimages.com/asr/96781aac-605c-4246-85de-70eeee9dd675.53e4490099256e33663db0e949ae7f54.jpeg?odnHeight=768&amp;odnWidth=768&amp;odnBg=FFFFFF</t>
-  </si>
-  <si>
-    <t>CT-ECOGS231REC</t>
-  </si>
-  <si>
-    <t>Cento Ecocen Glasslock Food Storage 3-in-1</t>
-  </si>
-  <si>
-    <t>https://img.srewardscentre.com.my/images/68f7520b-5cff-41aa-ae07-3ea5f1924546.jpg</t>
-  </si>
-  <si>
-    <t>CT-ECOGS341FOC2</t>
-  </si>
-  <si>
-    <t>Cento Ecocen Glasslock Food Storage 4-in-1 Rectangular</t>
-  </si>
-  <si>
-    <t>https://my-live.slatic.net/p/9b82db763dd598f99dd473197c116f05.jpg</t>
-  </si>
-  <si>
-    <t>CT-EXT9807</t>
-  </si>
-  <si>
-    <t>Cento Heavy Duty Extension Cable Reel CT-EXT9807, 7 Meters</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/JWcvPnRt/371123859-278420251607099-517726720459491382-n-removebg-preview.png</t>
-  </si>
-  <si>
     <t>DELIGHTO</t>
   </si>
   <si>
@@ -869,6 +869,90 @@
     <t>https://i.ibb.co/cS2xry2w/1537671797926.jpg</t>
   </si>
   <si>
+    <t>JIMMY</t>
+  </si>
+  <si>
+    <t>JMY-BX6</t>
+  </si>
+  <si>
+    <t>JIMMY BX6 Anti-Mite Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>https://www.jimmyglobal.com/upload/product/1644809591761531.jpg</t>
+  </si>
+  <si>
+    <t>JMY-BX7PRO</t>
+  </si>
+  <si>
+    <t>JIMMY BX7 Pro UV Anti-Mite Vacuum Cleaner with Smart Dust &amp; Dust Mite Sensor</t>
+  </si>
+  <si>
+    <t>https://www.jimmyglobal.com/upload/product/1644304716955187.jpg</t>
+  </si>
+  <si>
+    <t>JMY-F6</t>
+  </si>
+  <si>
+    <t>JIMMY F6 Nano Ultrasonic Hair Dryer 1800W (18L/S Airflow, Nano Water Ions)</t>
+  </si>
+  <si>
+    <t>https://www.jimmyglobal.com/upload/product/1616132806190557.png</t>
+  </si>
+  <si>
+    <t>JMY-H8FLEX</t>
+  </si>
+  <si>
+    <t>JIMMY H8 Flex Cordless Vacuum Cleaner with Smart Dust Sensor</t>
+  </si>
+  <si>
+    <t>https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg</t>
+  </si>
+  <si>
+    <t>JMY-HW10PRO</t>
+  </si>
+  <si>
+    <t>JIMMY HW10 Pro Cordless 3-in-1 Vacuum, Mop &amp; Washer with Smart Voice Assistance</t>
+  </si>
+  <si>
+    <t>https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7</t>
+  </si>
+  <si>
+    <t>JMY-HW9PRO</t>
+  </si>
+  <si>
+    <t>JIMMY HW9 Pro Cordless Wet and Dry Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg</t>
+  </si>
+  <si>
+    <t>JMY-JV51</t>
+  </si>
+  <si>
+    <t>JIMMY JV51 Cordless Handheld Vacuum Cleaner</t>
+  </si>
+  <si>
+    <t>https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg</t>
+  </si>
+  <si>
+    <t>JMY-VACUUMSTAND</t>
+  </si>
+  <si>
+    <t>VACUUM STAND (BLACK)</t>
+  </si>
+  <si>
+    <t>https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347</t>
+  </si>
+  <si>
+    <t>JMY-VACUUMSTAND-W</t>
+  </si>
+  <si>
+    <t>VACUUM STAND (WHITE)</t>
+  </si>
+  <si>
+    <t>https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347</t>
+  </si>
+  <si>
     <t>JINCASE</t>
   </si>
   <si>
@@ -899,88 +983,16 @@
     <t>https://www.tmt.my/data/editor/sc-product/21364/JINCASE-JF91-HANDHELD-FAN-1.jpg</t>
   </si>
   <si>
-    <t>JIMMY</t>
-  </si>
-  <si>
-    <t>JMY-BX6</t>
-  </si>
-  <si>
-    <t>JIMMY BX6 Anti-Mite Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>https://www.jimmyglobal.com/upload/product/1644809591761531.jpg</t>
-  </si>
-  <si>
-    <t>JMY-BX7PRO</t>
-  </si>
-  <si>
-    <t>JIMMY BX7 Pro UV Anti-Mite Vacuum Cleaner with Smart Dust &amp; Dust Mite Sensor</t>
-  </si>
-  <si>
-    <t>https://www.jimmyglobal.com/upload/product/1644304716955187.jpg</t>
-  </si>
-  <si>
-    <t>JMY-F6</t>
-  </si>
-  <si>
-    <t>JIMMY F6 Nano Ultrasonic Hair Dryer 1800W (18L/S Airflow, Nano Water Ions)</t>
-  </si>
-  <si>
-    <t>https://www.jimmyglobal.com/upload/product/1616132806190557.png</t>
-  </si>
-  <si>
-    <t>JMY-H8FLEX</t>
-  </si>
-  <si>
-    <t>JIMMY H8 Flex Cordless Vacuum Cleaner with Smart Dust Sensor</t>
-  </si>
-  <si>
-    <t>https://my-live-01.slatic.net/p/55c8711935165efc2711f1a34660ee67.jpg</t>
-  </si>
-  <si>
-    <t>JMY-HW10PRO</t>
-  </si>
-  <si>
-    <t>JIMMY HW10 Pro Cordless 3-in-1 Vacuum, Mop &amp; Washer with Smart Voice Assistance</t>
-  </si>
-  <si>
-    <t>https://down-my.img.susercontent.com/file/sg-11134201-7rfhz-m3vtbp8fihnrb7</t>
-  </si>
-  <si>
-    <t>JMY-HW9PRO</t>
-  </si>
-  <si>
-    <t>JIMMY HW9 Pro Cordless Wet and Dry Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>https://static3.nordic.pictures/52625875-thickbox_default/wireless-vacuum-cleaner-with-mop-function-jimmy-hw9-pro.jpg</t>
-  </si>
-  <si>
-    <t>JMY-JV51</t>
-  </si>
-  <si>
-    <t>JIMMY JV51 Cordless Handheld Vacuum Cleaner</t>
-  </si>
-  <si>
-    <t>https://m.media-amazon.com/images/I/41MtxwksXYL._AC_UF894,1000_QL80_.jpg</t>
-  </si>
-  <si>
-    <t>JMY-VACUUMSTAND</t>
-  </si>
-  <si>
-    <t>VACUUM STAND (BLACK)</t>
-  </si>
-  <si>
-    <t>https://dreame.my/cdn/shop/files/amberwhitebackground-47_1080x.png?v=1703485347</t>
-  </si>
-  <si>
-    <t>JMY-VACUUMSTAND-W</t>
-  </si>
-  <si>
-    <t>VACUUM STAND (WHITE)</t>
-  </si>
-  <si>
-    <t>https://dreame.my/cdn/shop/files/amberwhitebackground-48_1080x.png?v=1703485347</t>
+    <t>JIC-JF-79</t>
+  </si>
+  <si>
+    <t>Jincase JF79 Handheld Fan (Random Color)</t>
+  </si>
+  <si>
+    <t>https://www.tmt.my/data/editor/sc-product/21362/JINCASE-JF79-HANDHELD-FAN-3.jpg</t>
+  </si>
+  <si>
+    <t>Start Effective 12.6.2025</t>
   </si>
   <si>
     <t>JISULIFE</t>
@@ -1097,6 +1109,30 @@
     <t>https://myjoyoung.com/wp-content/uploads/2024/11/JVC-80V26P-1-700px.png</t>
   </si>
   <si>
+    <t>JYO-JRC4HP82</t>
+  </si>
+  <si>
+    <t>Non Stick 4 L Rice Cooker</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/images/5a25c0c5-46f5-4d5e-9f8f-98e5c575a1a4.jpg?x-oss-process=image/resize,m_pad,w_600,h_600</t>
+  </si>
+  <si>
+    <t>Start Effective 13.6.2025</t>
+  </si>
+  <si>
+    <t>KENWOOD</t>
+  </si>
+  <si>
+    <t>KNW-SMP84.C0WH</t>
+  </si>
+  <si>
+    <t>Kenwood 3-in-1 Sandwich, Waffle &amp; Grill Maker – 700W, 180° Opening</t>
+  </si>
+  <si>
+    <t>https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg</t>
+  </si>
+  <si>
     <t>KHIND</t>
   </si>
   <si>
@@ -1118,18 +1154,6 @@
     <t>https://down-my.img.susercontent.com/file/my-11134207-7r98v-luhlrn5flbw3d1</t>
   </si>
   <si>
-    <t>KENWOOD</t>
-  </si>
-  <si>
-    <t>KNW-SMP84.C0WH</t>
-  </si>
-  <si>
-    <t>Kenwood 3-in-1 Sandwich, Waffle &amp; Grill Maker – 700W, 180° Opening</t>
-  </si>
-  <si>
-    <t>https://www.banhuat.com/image/cache/catalog/products/breakfast%20appliances/KENWOOD/SMP84.C0WH/KENWOOD_Sandwich_Maker_SMP84-1000x1000.jpg</t>
-  </si>
-  <si>
     <t>LAIFEN</t>
   </si>
   <si>
@@ -1178,6 +1202,18 @@
     <t>https://aihome.com.my/wp-content/uploads/2025/03/kospet-26-1.png</t>
   </si>
   <si>
+    <t>MASTERLINK</t>
+  </si>
+  <si>
+    <t>MSL-4131ATB</t>
+  </si>
+  <si>
+    <t>MASTERLINK Screen Cleaning Kit</t>
+  </si>
+  <si>
+    <t>https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg</t>
+  </si>
+  <si>
     <t>MIDEA</t>
   </si>
   <si>
@@ -1208,18 +1244,6 @@
     <t>https://down-my.img.susercontent.com/file/my-11134207-7rasi-m1sh9bct302ve6</t>
   </si>
   <si>
-    <t>MASTERLINK</t>
-  </si>
-  <si>
-    <t>MSL-4131ATB</t>
-  </si>
-  <si>
-    <t>MASTERLINK Screen Cleaning Kit</t>
-  </si>
-  <si>
-    <t>https://img.lazcdn.com/g/ff/kf/S860d7c9be38c4cce9aa98f3cf9c429a7D.jpg_720x720q80.jpg</t>
-  </si>
-  <si>
     <t>MONTIGO</t>
   </si>
   <si>
@@ -1424,6 +1448,36 @@
     <t>https://oxwhite.com/cdn/shop/products/Towel-Premium-_Face-_-Hand_-Product-Page-08.jpg?v=1641745141</t>
   </si>
   <si>
+    <t>PANASONIC</t>
+  </si>
+  <si>
+    <t>PSN-DLAR15DWM</t>
+  </si>
+  <si>
+    <t>Panasonic Hygienic EzyClean D-Shape Manual Bidet – Ag+ Nozzles, Soft-Close Lid</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png</t>
+  </si>
+  <si>
+    <t>PSN-LR03EG/12B4F</t>
+  </si>
+  <si>
+    <t>Panasonic EVOLTA AAA Alkaline Batteries, 12-Pack</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png</t>
+  </si>
+  <si>
+    <t>PSN-LR6EG/12B4F</t>
+  </si>
+  <si>
+    <t>Panasonic EVOLTA AA Alkaline Batteries, 12-Pack</t>
+  </si>
+  <si>
+    <t>https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png</t>
+  </si>
+  <si>
     <t>PHILIPS</t>
   </si>
   <si>
@@ -1472,36 +1526,6 @@
     <t>https://images.philips.com/is/image/philipsconsumer/vrs_1beb79beafcb7647ecff17cda1195d51e686c9e5?$pnglarge$&amp;wid=1250</t>
   </si>
   <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>PSN-DLAR15DWM</t>
-  </si>
-  <si>
-    <t>Panasonic Hygienic EzyClean D-Shape Manual Bidet – Ag+ Nozzles, Soft-Close Lid</t>
-  </si>
-  <si>
-    <t>https://www.panasonic.com/content/dam/pim/my/en/DL/DL-AR1/DL-AR15DWM/ast-2277085.png.pub.thumb.644.644.png</t>
-  </si>
-  <si>
-    <t>PSN-LR03EG/12B4F</t>
-  </si>
-  <si>
-    <t>Panasonic EVOLTA AAA Alkaline Batteries, 12-Pack</t>
-  </si>
-  <si>
-    <t>https://www.panasonic.com/content/dam/pim/my/en/LR/LR03EG/LR03EG-12B4F/ast-2578036.png.pub.png</t>
-  </si>
-  <si>
-    <t>PSN-LR6EG/12B4F</t>
-  </si>
-  <si>
-    <t>Panasonic EVOLTA AA Alkaline Batteries, 12-Pack</t>
-  </si>
-  <si>
-    <t>https://www.panasonic.com/content/dam/pim/my/en/LR/LR6EG-/LR6EG-12B4F/ast-2578045.png.pub.png</t>
-  </si>
-  <si>
     <t>RAPOO</t>
   </si>
   <si>
@@ -1658,6 +1682,18 @@
     <t>https://medias.watsons.com.my/publishing/WTCMY-1006570-back-zoom.jpg?version=1718402793</t>
   </si>
   <si>
+    <t>TAPO</t>
+  </si>
+  <si>
+    <t>TP-TAPOC210</t>
+  </si>
+  <si>
+    <t>Tapo C210 2K Pan/Tilt Wi-Fi Security Camera with Night Vision &amp; Baby Cry Detection</t>
+  </si>
+  <si>
+    <t>https://static.tp-link.com/upload/image-line/01_large_20230524004739r.jpg</t>
+  </si>
+  <si>
     <t>TEFAL</t>
   </si>
   <si>
@@ -1764,18 +1800,6 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRiOF4kDoRCPexe2oZhsiofLbzlvXktK-GuTw&amp;s</t>
-  </si>
-  <si>
-    <t>TAPO</t>
-  </si>
-  <si>
-    <t>TP-TAPOC210</t>
-  </si>
-  <si>
-    <t>Tapo C210 2K Pan/Tilt Wi-Fi Security Camera with Night Vision &amp; Baby Cry Detection</t>
-  </si>
-  <si>
-    <t>https://static.tp-link.com/upload/image-line/01_large_20230524004739r.jpg</t>
   </si>
   <si>
     <t>TOSHIBA</t>
@@ -2043,12 +2067,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
     </font>
     <font>
       <u/>
@@ -2056,20 +2088,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2208,12 +2226,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2402,7 +2426,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2422,6 +2446,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2526,29 +2565,29 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2560,127 +2599,136 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3027,10 +3075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H207"/>
+  <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="N109" sqref="N109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3078,16 +3126,16 @@
       <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>229</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>219</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>21900</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -3102,16 +3150,16 @@
       <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>79</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>79</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="4">
         <v>7900</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -3126,16 +3174,16 @@
       <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="4">
         <v>79</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="4">
         <v>79</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="4">
         <v>7900</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
@@ -3147,19 +3195,19 @@
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="4">
         <v>79</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="4">
         <v>79</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="4">
         <v>7900</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
@@ -3174,16 +3222,16 @@
       <c r="D6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="4">
         <v>79</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="4">
         <v>79</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="4">
         <v>7900</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
@@ -3198,16 +3246,16 @@
       <c r="D7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>89</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>89</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="4">
         <v>8900</v>
       </c>
-      <c r="H7" s="2"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
@@ -3222,16 +3270,16 @@
       <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="4">
         <v>89</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="4">
         <v>89</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="4">
         <v>8900</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
@@ -3246,16 +3294,16 @@
       <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>89</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>89</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="4">
         <v>8900</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
@@ -3270,16 +3318,16 @@
       <c r="D10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="4">
         <v>89</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="4">
         <v>89</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="4">
         <v>8900</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
@@ -3294,16 +3342,16 @@
       <c r="D11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>27.9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>27.9</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="4">
         <v>2790</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
@@ -3318,16 +3366,16 @@
       <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <v>27.9</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="4">
         <v>27.9</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="4">
         <v>2790</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
@@ -3342,13 +3390,13 @@
       <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>87.7</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>69</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="4">
         <v>6900</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -3368,13 +3416,13 @@
       <c r="D14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <v>32.9</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="4">
         <v>16</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="4">
         <v>1600</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -3394,16 +3442,16 @@
       <c r="D15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>115</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>85</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="4">
         <v>8500</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
@@ -3418,16 +3466,16 @@
       <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="4">
         <v>369</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="4">
         <v>369</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="4">
         <v>36900</v>
       </c>
-      <c r="H16" s="2"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
@@ -3442,16 +3490,16 @@
       <c r="D17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>289</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>289</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="4">
         <v>28900</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
@@ -3466,16 +3514,16 @@
       <c r="D18" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>99</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="4">
         <v>97</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="4">
         <v>9700</v>
       </c>
-      <c r="H18" s="2"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
@@ -3490,16 +3538,16 @@
       <c r="D19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>149</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="4">
         <v>145</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="4">
         <v>14500</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
@@ -3514,16 +3562,16 @@
       <c r="D20" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>169</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>169</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>16900</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
@@ -3538,16 +3586,16 @@
       <c r="D21" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>169</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>169</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>16900</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
@@ -3562,16 +3610,16 @@
       <c r="D22" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>349</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>349</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>34900</v>
       </c>
-      <c r="H22" s="2"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
@@ -3586,16 +3634,16 @@
       <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>349</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>349</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="4">
         <v>34900</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
@@ -3610,16 +3658,16 @@
       <c r="D24" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>559</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>559</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="4">
         <v>55900</v>
       </c>
-      <c r="H24" s="2"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
@@ -3634,16 +3682,16 @@
       <c r="D25" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>559</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>559</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="4">
         <v>55900</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
@@ -3658,16 +3706,16 @@
       <c r="D26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>499</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>499</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="4">
         <v>49900</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
@@ -3682,16 +3730,16 @@
       <c r="D27" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="4">
         <v>499</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="4">
         <v>499</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="4">
         <v>49900</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
@@ -3706,16 +3754,16 @@
       <c r="D28" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>799</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>799</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="4">
         <v>79900</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
@@ -3730,16 +3778,16 @@
       <c r="D29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>799</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>799</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="4">
         <v>79900</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
@@ -3751,141 +3799,141 @@
       <c r="C30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="2">
-        <v>342</v>
-      </c>
-      <c r="F30" s="2">
-        <v>239</v>
-      </c>
-      <c r="G30" s="2">
-        <v>23900</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>101</v>
-      </c>
+      <c r="E30" s="4">
+        <v>179</v>
+      </c>
+      <c r="F30" s="4">
+        <v>169</v>
+      </c>
+      <c r="G30" s="4">
+        <v>16900</v>
+      </c>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="2">
-        <v>179</v>
-      </c>
-      <c r="F31" s="2">
-        <v>169</v>
-      </c>
-      <c r="G31" s="2">
-        <v>16900</v>
-      </c>
-      <c r="H31" s="2"/>
+      <c r="E31" s="4">
+        <v>79</v>
+      </c>
+      <c r="F31" s="4">
+        <v>55</v>
+      </c>
+      <c r="G31" s="4">
+        <v>5500</v>
+      </c>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="2">
-        <v>79</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="4">
         <v>55</v>
       </c>
-      <c r="G32" s="2">
-        <v>5500</v>
-      </c>
-      <c r="H32" s="2"/>
+      <c r="F32" s="4">
+        <v>49</v>
+      </c>
+      <c r="G32" s="4">
+        <v>4900</v>
+      </c>
+      <c r="H32" s="4"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="2">
-        <v>55</v>
-      </c>
-      <c r="F33" s="2">
-        <v>49</v>
-      </c>
-      <c r="G33" s="2">
-        <v>4900</v>
-      </c>
-      <c r="H33" s="2"/>
+      <c r="E33" s="4">
+        <v>129</v>
+      </c>
+      <c r="F33" s="4">
+        <v>125</v>
+      </c>
+      <c r="G33" s="4">
+        <v>12500</v>
+      </c>
+      <c r="H33" s="4"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="2">
-        <v>129</v>
-      </c>
-      <c r="F34" s="2">
-        <v>125</v>
-      </c>
-      <c r="G34" s="2">
-        <v>12500</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="E34" s="4">
+        <v>99</v>
+      </c>
+      <c r="F34" s="4">
+        <v>93</v>
+      </c>
+      <c r="G34" s="4">
+        <v>9300</v>
+      </c>
+      <c r="H34" s="4"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="4">
+        <v>342</v>
+      </c>
+      <c r="F35" s="4">
+        <v>239</v>
+      </c>
+      <c r="G35" s="4">
+        <v>23900</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="2">
-        <v>99</v>
-      </c>
-      <c r="F35" s="2">
-        <v>93</v>
-      </c>
-      <c r="G35" s="2">
-        <v>9300</v>
-      </c>
-      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
@@ -3900,13 +3948,13 @@
       <c r="D36" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>299</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="4">
         <v>119</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="4">
         <v>11900</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -3926,13 +3974,13 @@
       <c r="D37" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>299</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="4">
         <v>119</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="4">
         <v>11900</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -3952,13 +4000,13 @@
       <c r="D38" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <v>299</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="4">
         <v>119</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="4">
         <v>11900</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -3978,13 +4026,13 @@
       <c r="D39" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>299</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="4">
         <v>119</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <v>11900</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -4004,13 +4052,13 @@
       <c r="D40" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="4">
         <v>499</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F40" s="4">
         <v>199</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="4">
         <v>19900</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -4030,13 +4078,13 @@
       <c r="D41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="4">
         <v>499</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F41" s="4">
         <v>199</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="4">
         <v>19900</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -4056,13 +4104,13 @@
       <c r="D42" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="4">
         <v>499</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="4">
         <v>199</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="4">
         <v>19900</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -4082,13 +4130,13 @@
       <c r="D43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="4">
         <v>499</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="4">
         <v>199</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="4">
         <v>19900</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -4108,13 +4156,13 @@
       <c r="D44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="4">
         <v>549</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="4">
         <v>199</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="4">
         <v>19900</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -4134,13 +4182,13 @@
       <c r="D45" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="4">
         <v>549</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="4">
         <v>199</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="4">
         <v>19900</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -4160,13 +4208,13 @@
       <c r="D46" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>549</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="4">
         <v>199</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <v>19900</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -4186,13 +4234,13 @@
       <c r="D47" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="4">
         <v>549</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>199</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <v>19900</v>
       </c>
       <c r="H47" s="2" t="s">
@@ -4212,13 +4260,13 @@
       <c r="D48" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="4">
         <v>399</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="4">
         <v>199</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <v>19900</v>
       </c>
       <c r="H48" s="2" t="s">
@@ -4238,13 +4286,13 @@
       <c r="D49" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="4">
         <v>459</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="4">
         <v>169</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <v>16900</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -4264,13 +4312,13 @@
       <c r="D50" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="4">
         <v>459</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>169</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
         <v>16900</v>
       </c>
       <c r="H50" s="2" t="s">
@@ -4290,13 +4338,13 @@
       <c r="D51" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>599</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>319</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <v>31900</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -4316,13 +4364,13 @@
       <c r="D52" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="4">
         <v>599</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="4">
         <v>319</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="4">
         <v>31900</v>
       </c>
       <c r="H52" s="2" t="s">
@@ -4342,13 +4390,13 @@
       <c r="D53" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
         <v>299</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="4">
         <v>159</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="4">
         <v>15900</v>
       </c>
       <c r="H53" s="2" t="s">
@@ -4368,13 +4416,13 @@
       <c r="D54" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="4">
         <v>359</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="4">
         <v>159</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="4">
         <v>15900</v>
       </c>
       <c r="H54" s="2" t="s">
@@ -4394,13 +4442,13 @@
       <c r="D55" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="4">
         <v>439</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="4">
         <v>169</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="4">
         <v>16900</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -4420,13 +4468,13 @@
       <c r="D56" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="4">
         <v>439</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="4">
         <v>169</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="4">
         <v>16900</v>
       </c>
       <c r="H56" s="2" t="s">
@@ -4446,13 +4494,13 @@
       <c r="D57" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="4">
         <v>439</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="4">
         <v>179</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="4">
         <v>17900</v>
       </c>
       <c r="H57" s="2" t="s">
@@ -4472,13 +4520,13 @@
       <c r="D58" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="4">
         <v>479</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="4">
         <v>189</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="4">
         <v>18900</v>
       </c>
       <c r="H58" s="2" t="s">
@@ -4498,13 +4546,13 @@
       <c r="D59" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="4">
         <v>479</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="4">
         <v>189</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="4">
         <v>18900</v>
       </c>
       <c r="H59" s="2" t="s">
@@ -4524,13 +4572,13 @@
       <c r="D60" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E60" s="2">
+      <c r="E60" s="4">
         <v>479</v>
       </c>
-      <c r="F60" s="2">
+      <c r="F60" s="4">
         <v>189</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="4">
         <v>18900</v>
       </c>
       <c r="H60" s="2" t="s">
@@ -4550,13 +4598,13 @@
       <c r="D61" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E61" s="2">
+      <c r="E61" s="4">
         <v>519</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="4">
         <v>189</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="4">
         <v>18900</v>
       </c>
       <c r="H61" s="2" t="s">
@@ -4576,13 +4624,13 @@
       <c r="D62" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="4">
         <v>519</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="4">
         <v>189</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="4">
         <v>18900</v>
       </c>
       <c r="H62" s="2" t="s">
@@ -4602,13 +4650,13 @@
       <c r="D63" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="4">
         <v>519</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="4">
         <v>189</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <v>18900</v>
       </c>
       <c r="H63" s="2" t="s">
@@ -4628,13 +4676,13 @@
       <c r="D64" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="E64" s="2">
+      <c r="E64" s="4">
         <v>599</v>
       </c>
-      <c r="F64" s="2">
+      <c r="F64" s="4">
         <v>189</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="4">
         <v>18900</v>
       </c>
       <c r="H64" s="2" t="s">
@@ -4654,13 +4702,13 @@
       <c r="D65" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="E65" s="2">
+      <c r="E65" s="4">
         <v>599</v>
       </c>
-      <c r="F65" s="2">
+      <c r="F65" s="4">
         <v>189</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="4">
         <v>18900</v>
       </c>
       <c r="H65" s="2" t="s">
@@ -4680,13 +4728,13 @@
       <c r="D66" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="4">
         <v>639</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="4">
         <v>239</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="4">
         <v>23900</v>
       </c>
       <c r="H66" s="2" t="s">
@@ -4706,13 +4754,13 @@
       <c r="D67" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="4">
         <v>639</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="4">
         <v>239</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="4">
         <v>23900</v>
       </c>
       <c r="H67" s="2" t="s">
@@ -4732,13 +4780,13 @@
       <c r="D68" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="4">
         <v>639</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="4">
         <v>239</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="4">
         <v>23900</v>
       </c>
       <c r="H68" s="2" t="s">
@@ -4758,13 +4806,13 @@
       <c r="D69" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="4">
         <v>669</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="4">
         <v>259</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="4">
         <v>25900</v>
       </c>
       <c r="H69" s="2" t="s">
@@ -4784,13 +4832,13 @@
       <c r="D70" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="4">
         <v>369</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="4">
         <v>149</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="4">
         <v>14900</v>
       </c>
       <c r="H70" s="2" t="s">
@@ -4810,13 +4858,13 @@
       <c r="D71" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="4">
         <v>439</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="4">
         <v>169</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="4">
         <v>16900</v>
       </c>
       <c r="H71" s="2" t="s">
@@ -4836,13 +4884,13 @@
       <c r="D72" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="4">
         <v>489</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="4">
         <v>189</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="4">
         <v>18900</v>
       </c>
       <c r="H72" s="2" t="s">
@@ -4862,13 +4910,13 @@
       <c r="D73" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="4">
         <v>409</v>
       </c>
-      <c r="F73" s="2">
+      <c r="F73" s="4">
         <v>159</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="4">
         <v>15900</v>
       </c>
       <c r="H73" s="2" t="s">
@@ -4888,13 +4936,13 @@
       <c r="D74" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="2">
+      <c r="E74" s="4">
         <v>579</v>
       </c>
-      <c r="F74" s="2">
+      <c r="F74" s="4">
         <v>219</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="4">
         <v>21900</v>
       </c>
       <c r="H74" s="2" t="s">
@@ -4914,13 +4962,13 @@
       <c r="D75" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E75" s="2">
+      <c r="E75" s="4">
         <v>299</v>
       </c>
-      <c r="F75" s="2">
+      <c r="F75" s="4">
         <v>132</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="4">
         <v>13200</v>
       </c>
       <c r="H75" s="2" t="s">
@@ -4940,13 +4988,13 @@
       <c r="D76" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="E76" s="2">
+      <c r="E76" s="4">
         <v>409</v>
       </c>
-      <c r="F76" s="2">
+      <c r="F76" s="4">
         <v>159</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="4">
         <v>15900</v>
       </c>
       <c r="H76" s="2" t="s">
@@ -4966,13 +5014,13 @@
       <c r="D77" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E77" s="2">
+      <c r="E77" s="4">
         <v>349</v>
       </c>
-      <c r="F77" s="2">
+      <c r="F77" s="4">
         <v>149</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="4">
         <v>14900</v>
       </c>
       <c r="H77" s="2" t="s">
@@ -4992,13 +5040,13 @@
       <c r="D78" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E78" s="2">
+      <c r="E78" s="4">
         <v>499</v>
       </c>
-      <c r="F78" s="2">
+      <c r="F78" s="4">
         <v>189</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="4">
         <v>18900</v>
       </c>
       <c r="H78" s="2" t="s">
@@ -5018,16 +5066,16 @@
       <c r="D79" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="E79" s="2">
+      <c r="E79" s="4">
         <v>319</v>
       </c>
-      <c r="F79" s="2">
+      <c r="F79" s="4">
         <v>279</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="4">
         <v>27900</v>
       </c>
-      <c r="H79" s="2"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
@@ -5042,16 +5090,16 @@
       <c r="D80" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="4">
         <v>40</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="4">
         <v>39</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="4">
         <v>3900</v>
       </c>
-      <c r="H80" s="2"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
@@ -5066,16 +5114,16 @@
       <c r="D81" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="4">
         <v>50</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="4">
         <v>49</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="4">
         <v>4900</v>
       </c>
-      <c r="H81" s="2"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
@@ -5087,18 +5135,18 @@
       <c r="C82" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4">
         <v>39</v>
       </c>
-      <c r="F82" s="2">
+      <c r="F82" s="4">
         <v>36</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="4">
         <v>3600</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5114,16 +5162,16 @@
       <c r="D83" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="E83" s="2">
+      <c r="E83" s="4">
         <v>29</v>
       </c>
-      <c r="F83" s="2">
+      <c r="F83" s="4">
         <v>29</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="4">
         <v>2900</v>
       </c>
-      <c r="H83" s="2"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
@@ -5138,16 +5186,16 @@
       <c r="D84" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="E84" s="2">
+      <c r="E84" s="4">
         <v>29.9</v>
       </c>
-      <c r="F84" s="2">
+      <c r="F84" s="4">
         <v>29.9</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="4">
         <v>2990</v>
       </c>
-      <c r="H84" s="2"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
@@ -5162,16 +5210,16 @@
       <c r="D85" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E85" s="2">
+      <c r="E85" s="4">
         <v>210</v>
       </c>
-      <c r="F85" s="2">
+      <c r="F85" s="4">
         <v>115</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="4">
         <v>11500</v>
       </c>
-      <c r="H85" s="2"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
@@ -5186,16 +5234,16 @@
       <c r="D86" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E86" s="2">
+      <c r="E86" s="4">
         <v>228</v>
       </c>
-      <c r="F86" s="2">
+      <c r="F86" s="4">
         <v>181</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="4">
         <v>18100</v>
       </c>
-      <c r="H86" s="2"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
@@ -5210,13 +5258,13 @@
       <c r="D87" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="E87" s="2">
+      <c r="E87" s="4">
         <v>111</v>
       </c>
-      <c r="F87" s="2">
+      <c r="F87" s="4">
         <v>89</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="4">
         <v>8900</v>
       </c>
       <c r="H87" s="2" t="s">
@@ -5236,16 +5284,16 @@
       <c r="D88" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="4">
         <v>129</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="4">
         <v>129</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="4">
         <v>12900<